--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.170668</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.164843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.165379</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.150997</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.152331</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.149768</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.152588</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.154628</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.221009</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.212625</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.195441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.194947</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.186434</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.178351</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.173591</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.168205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.16688</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.159624</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.158982</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.157925</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157835</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.235187</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.234979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.212721</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.204469</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.19605</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.192526</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.179359</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.173725</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.172037</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.170274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.163399</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.165498</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.226636</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217798</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.203038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.200194</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.194085</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.189659</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.184056</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.179376</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.176819</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.175946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.176716</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.179499</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.236625</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.228535</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.220311</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.212764</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205025</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.198959</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.193449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.188205</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.182403</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.179269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177012</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177729</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.180358</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.244029</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236519</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228133</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.220467</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.212274</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.205977</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.199758</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.19413</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.188413</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.184215</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181004</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.178894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.17897</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.180581</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.256846</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.250364</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.24198</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.233548</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.227319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.219364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.207721</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.201258</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.19653</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.192528</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.189688</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.188619</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.189627</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.270145</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.257315</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.250563</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.238846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.232631</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.227556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.222112</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.213903</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.21037</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.208235</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.208631</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.210884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.284085</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.277325</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.271154</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.265253</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.259777</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.254644</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.250128</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.245359</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.241561</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.23764</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.234284</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.231834</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.231043</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.232245</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.315814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.310851</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306028</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.299753</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.294531</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.289946</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.285871</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.28194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.278146</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275044</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.27231</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270276</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.26913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.270188</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.360478</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.354977</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.350567</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.345151</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.34072</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.335998</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.136461</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.143885</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.138416</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.131866</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.128733</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.125371</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.119173</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.119054</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.199755</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.194893</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.186611</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.180929</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.171719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.164359</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.159604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.156142</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.148751</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.145812</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.141893</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.140321</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.138166</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.138866</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.22216</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.214043</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.202789</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.194749</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.188153</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.180718</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.174444</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.168821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.162937</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.157914</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.153826</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.150082</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.147894</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.146972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.223466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.214588</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.206551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.198601</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.191216</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.18396</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.180497</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.174746</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.168726</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.16349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.159218</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.155587</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.151411</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.223567</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.215128</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.206602</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.199106</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.191861</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.184943</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.178332</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.172886</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.167693</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.160526</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.156473</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.15361</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.151918</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.152658</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.228151</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.219456</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.21135</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.203187</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.195914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.188766</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.182265</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.176143</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.170713</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.165631</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.161469</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.158217</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.156204</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.156222</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.230333</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.222566</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.214771</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.207566</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.200837</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.19364</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.188096</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.181911</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.176008</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.171451</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.166593</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.163878</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.160923</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.160238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.248401</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.240463</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.232944</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.225805</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.22678</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.212444</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.206497</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.201607</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.195129</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.189518</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.186515</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.18283</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.18042</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.179433</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.181014</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.260856</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.252951</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.245756</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.239063</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.232542</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.226357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.217762</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.212853</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.208819</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.20483</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.201751</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.200686</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.200643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.284238</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.278287</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.268032</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.262246</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.2563</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.25157</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.247088</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.242605</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.238676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.235063</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.231818</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.229352</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.227891</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.22831</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.321523</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.315351</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.309742</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.304011</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.29869</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.29374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.134178</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131948</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.136503</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.127659</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.126491</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.127377</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.120481</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.189804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.193076</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.185771</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.175595</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.170808</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.163676</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.15658</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.15111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.147927</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.144277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.141029</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.138444</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.136899</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138731</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.22524</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217581</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.205227</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.196362</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.189144</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.18136</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.175284</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.170321</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162701</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.159519</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.153345</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.150314</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149603</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148604</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.230138</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.221941</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.212902</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.202745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.197872</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.189578</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.181192</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.178348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.172191</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.161458</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.158505</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.156259</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.155863</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.240125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.228307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.222098</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.213257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204699</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.197271</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189954</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182964</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.176915</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.172102</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.167281</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.161153</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158454</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.157323</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158629</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235154</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.225864</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.218407</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209007</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201152</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.19372</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.186741</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.180491</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.174783</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.169469</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.165683</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.162247</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.160468</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.161441</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.238856</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.22991</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.220936</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.205347</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.198292</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.191445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.184661</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.17408</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.16936</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.166191</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.164353</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.254673</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.247489</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.238121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.230923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.223773</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.215514</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.211001</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.197244</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.191961</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.18761</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.184086</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.180878</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.180431</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27151</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.265086</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.257155</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.249492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.241637</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.233598</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.228107</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.221879</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.218226</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.213206</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.207735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.203661</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.199303</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.199921</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.28659</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.280042</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.274273</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.264434</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.258887</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.253968</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.248195</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.244422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.240173</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.236482</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.23349</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.230364</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.229418</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.229508</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.325813</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.320407</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.314921</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.309403</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.304799</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.300275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.29509</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.483118</v>
+        <v>0.484361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.595044</v>
+        <v>0.756005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717937</v>
+        <v>0.7323730000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470134</v>
+        <v>0.472358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.57639</v>
+        <v>0.736329</v>
       </c>
       <c r="D3" t="n">
-        <v>0.698638</v>
+        <v>0.713496</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458566</v>
+        <v>0.461448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.560308</v>
+        <v>0.718885</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680384</v>
+        <v>0.695236</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449327</v>
+        <v>0.45215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5447340000000001</v>
+        <v>0.7029300000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.663655</v>
+        <v>0.678767</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442024</v>
+        <v>0.445241</v>
       </c>
       <c r="C6" t="n">
-        <v>0.530574</v>
+        <v>0.687794</v>
       </c>
       <c r="D6" t="n">
-        <v>0.649078</v>
+        <v>0.663421</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436202</v>
+        <v>0.438981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.518332</v>
+        <v>0.674919</v>
       </c>
       <c r="D7" t="n">
-        <v>0.635277</v>
+        <v>0.650609</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432849</v>
+        <v>0.436469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507943</v>
+        <v>0.6643829999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.624725</v>
+        <v>0.639937</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432963</v>
+        <v>0.437196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499859</v>
+        <v>0.958097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9310929999999999</v>
+        <v>0.944383</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.56863</v>
+        <v>0.573927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.729951</v>
+        <v>0.880482</v>
       </c>
       <c r="D10" t="n">
-        <v>0.900583</v>
+        <v>0.914194</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.551233</v>
+        <v>0.55593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.705484</v>
+        <v>0.855221</v>
       </c>
       <c r="D11" t="n">
-        <v>0.871874</v>
+        <v>0.885639</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.534921</v>
+        <v>0.539396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.682931</v>
+        <v>0.831284</v>
       </c>
       <c r="D12" t="n">
-        <v>0.84443</v>
+        <v>0.858142</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.518849</v>
+        <v>0.524062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.661667</v>
+        <v>0.8084170000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.818536</v>
+        <v>0.8326</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.50473</v>
+        <v>0.509373</v>
       </c>
       <c r="C14" t="n">
-        <v>0.640088</v>
+        <v>0.786598</v>
       </c>
       <c r="D14" t="n">
-        <v>0.793837</v>
+        <v>0.808393</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490724</v>
+        <v>0.494999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.620579</v>
+        <v>0.765616</v>
       </c>
       <c r="D15" t="n">
-        <v>0.77058</v>
+        <v>0.785488</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47794</v>
+        <v>0.481926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.601701</v>
+        <v>0.746469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.748614</v>
+        <v>0.763923</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466271</v>
+        <v>0.470032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.584124</v>
+        <v>0.728003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.727788</v>
+        <v>0.7439170000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.455957</v>
+        <v>0.459315</v>
       </c>
       <c r="C18" t="n">
-        <v>0.568445</v>
+        <v>0.710718</v>
       </c>
       <c r="D18" t="n">
-        <v>0.708502</v>
+        <v>0.724809</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.446207</v>
+        <v>0.450084</v>
       </c>
       <c r="C19" t="n">
-        <v>0.552634</v>
+        <v>0.694895</v>
       </c>
       <c r="D19" t="n">
-        <v>0.69073</v>
+        <v>0.707614</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438964</v>
+        <v>0.442041</v>
       </c>
       <c r="C20" t="n">
-        <v>0.538612</v>
+        <v>0.680314</v>
       </c>
       <c r="D20" t="n">
-        <v>0.67456</v>
+        <v>0.692273</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.432927</v>
+        <v>0.436304</v>
       </c>
       <c r="C21" t="n">
-        <v>0.525641</v>
+        <v>0.667618</v>
       </c>
       <c r="D21" t="n">
-        <v>0.660149</v>
+        <v>0.6787</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.430557</v>
+        <v>0.432524</v>
       </c>
       <c r="C22" t="n">
-        <v>0.514338</v>
+        <v>0.658962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.649377</v>
+        <v>0.6683480000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.430148</v>
+        <v>0.432351</v>
       </c>
       <c r="C23" t="n">
-        <v>0.506101</v>
+        <v>0.958296</v>
       </c>
       <c r="D23" t="n">
-        <v>0.969456</v>
+        <v>0.9856009999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.619031</v>
+        <v>0.621563</v>
       </c>
       <c r="C24" t="n">
-        <v>0.783712</v>
+        <v>0.929737</v>
       </c>
       <c r="D24" t="n">
-        <v>0.938017</v>
+        <v>0.95366</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6002690000000001</v>
+        <v>0.601467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.758189</v>
+        <v>0.902385</v>
       </c>
       <c r="D25" t="n">
-        <v>0.908159</v>
+        <v>0.924101</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581804</v>
+        <v>0.584002</v>
       </c>
       <c r="C26" t="n">
-        <v>0.732712</v>
+        <v>0.876599</v>
       </c>
       <c r="D26" t="n">
-        <v>0.879515</v>
+        <v>0.895359</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.56464</v>
+        <v>0.565339</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7092349999999999</v>
+        <v>0.851881</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8523849999999999</v>
+        <v>0.868163</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5481239999999999</v>
+        <v>0.549125</v>
       </c>
       <c r="C28" t="n">
-        <v>0.686826</v>
+        <v>0.828227</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8271810000000001</v>
+        <v>0.842377</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532759</v>
+        <v>0.5331360000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.665592</v>
+        <v>0.805947</v>
       </c>
       <c r="D29" t="n">
-        <v>0.802486</v>
+        <v>0.8183319999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.517996</v>
+        <v>0.520694</v>
       </c>
       <c r="C30" t="n">
-        <v>0.644822</v>
+        <v>0.7844989999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.779038</v>
+        <v>0.796114</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.50502</v>
+        <v>0.506423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.625784</v>
+        <v>0.764536</v>
       </c>
       <c r="D31" t="n">
-        <v>0.757692</v>
+        <v>0.774915</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493057</v>
+        <v>0.493856</v>
       </c>
       <c r="C32" t="n">
-        <v>0.607936</v>
+        <v>0.746079</v>
       </c>
       <c r="D32" t="n">
-        <v>0.737652</v>
+        <v>0.755342</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481989</v>
+        <v>0.482116</v>
       </c>
       <c r="C33" t="n">
-        <v>0.591082</v>
+        <v>0.729094</v>
       </c>
       <c r="D33" t="n">
-        <v>0.719018</v>
+        <v>0.734783</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.472046</v>
+        <v>0.471748</v>
       </c>
       <c r="C34" t="n">
-        <v>0.575255</v>
+        <v>0.713367</v>
       </c>
       <c r="D34" t="n">
-        <v>0.702003</v>
+        <v>0.717629</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.46438</v>
+        <v>0.463971</v>
       </c>
       <c r="C35" t="n">
-        <v>0.56099</v>
+        <v>0.699745</v>
       </c>
       <c r="D35" t="n">
-        <v>0.686929</v>
+        <v>0.70377</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458849</v>
+        <v>0.458402</v>
       </c>
       <c r="C36" t="n">
-        <v>0.548222</v>
+        <v>0.688402</v>
       </c>
       <c r="D36" t="n">
-        <v>0.674338</v>
+        <v>0.690002</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456322</v>
+        <v>0.455578</v>
       </c>
       <c r="C37" t="n">
-        <v>0.537313</v>
+        <v>0.990996</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9987780000000001</v>
+        <v>1.01946</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.64979</v>
+        <v>0.648787</v>
       </c>
       <c r="C38" t="n">
-        <v>0.818485</v>
+        <v>0.961906</v>
       </c>
       <c r="D38" t="n">
-        <v>0.967686</v>
+        <v>0.987704</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.630808</v>
+        <v>0.628374</v>
       </c>
       <c r="C39" t="n">
-        <v>0.792147</v>
+        <v>0.933679</v>
       </c>
       <c r="D39" t="n">
-        <v>0.937306</v>
+        <v>0.957055</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.611801</v>
+        <v>0.609069</v>
       </c>
       <c r="C40" t="n">
-        <v>0.766584</v>
+        <v>0.906718</v>
       </c>
       <c r="D40" t="n">
-        <v>0.907811</v>
+        <v>0.927206</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.593554</v>
+        <v>0.5908330000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.741331</v>
+        <v>0.8810829999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.881071</v>
+        <v>0.900251</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576417</v>
+        <v>0.5738839999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.718956</v>
+        <v>0.856845</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8540140000000001</v>
+        <v>0.8734420000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.560292</v>
+        <v>0.557546</v>
       </c>
       <c r="C43" t="n">
-        <v>0.696473</v>
+        <v>0.833587</v>
       </c>
       <c r="D43" t="n">
-        <v>0.828829</v>
+        <v>0.8477479999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5439079999999999</v>
+        <v>0.542188</v>
       </c>
       <c r="C44" t="n">
-        <v>0.674714</v>
+        <v>0.811548</v>
       </c>
       <c r="D44" t="n">
-        <v>0.804963</v>
+        <v>0.82376</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.531371</v>
+        <v>0.528021</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6551439999999999</v>
+        <v>0.791258</v>
       </c>
       <c r="D45" t="n">
-        <v>0.782799</v>
+        <v>0.801641</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.518117</v>
+        <v>0.51503</v>
       </c>
       <c r="C46" t="n">
-        <v>0.63752</v>
+        <v>0.771617</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7625150000000001</v>
+        <v>0.780311</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.505446</v>
+        <v>0.503316</v>
       </c>
       <c r="C47" t="n">
-        <v>0.61917</v>
+        <v>0.753867</v>
       </c>
       <c r="D47" t="n">
-        <v>0.742582</v>
+        <v>0.760359</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.496785</v>
+        <v>0.493074</v>
       </c>
       <c r="C48" t="n">
-        <v>0.603818</v>
+        <v>0.7374810000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.725631</v>
+        <v>0.742327</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487976</v>
+        <v>0.487173</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5880649999999999</v>
+        <v>0.722976</v>
       </c>
       <c r="D49" t="n">
-        <v>0.709602</v>
+        <v>0.726003</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.481378</v>
+        <v>0.480644</v>
       </c>
       <c r="C50" t="n">
-        <v>0.575981</v>
+        <v>0.710565</v>
       </c>
       <c r="D50" t="n">
-        <v>0.695061</v>
+        <v>0.711992</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476872</v>
+        <v>0.476649</v>
       </c>
       <c r="C51" t="n">
-        <v>0.56421</v>
+        <v>1.01851</v>
       </c>
       <c r="D51" t="n">
-        <v>1.02926</v>
+        <v>1.06169</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475331</v>
+        <v>0.476231</v>
       </c>
       <c r="C52" t="n">
-        <v>0.555088</v>
+        <v>0.989476</v>
       </c>
       <c r="D52" t="n">
-        <v>0.996954</v>
+        <v>1.02863</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6576</v>
+        <v>0.653462</v>
       </c>
       <c r="C53" t="n">
-        <v>0.82418</v>
+        <v>0.961009</v>
       </c>
       <c r="D53" t="n">
-        <v>0.967602</v>
+        <v>0.997586</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.639756</v>
+        <v>0.634649</v>
       </c>
       <c r="C54" t="n">
-        <v>0.797834</v>
+        <v>0.932288</v>
       </c>
       <c r="D54" t="n">
-        <v>0.937739</v>
+        <v>0.966275</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.620992</v>
+        <v>0.616468</v>
       </c>
       <c r="C55" t="n">
-        <v>0.771916</v>
+        <v>0.907179</v>
       </c>
       <c r="D55" t="n">
-        <v>0.90871</v>
+        <v>0.937938</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.604232</v>
+        <v>0.598868</v>
       </c>
       <c r="C56" t="n">
-        <v>0.748247</v>
+        <v>0.882772</v>
       </c>
       <c r="D56" t="n">
-        <v>0.88257</v>
+        <v>0.910959</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.588433</v>
+        <v>0.582885</v>
       </c>
       <c r="C57" t="n">
-        <v>0.726293</v>
+        <v>0.859303</v>
       </c>
       <c r="D57" t="n">
-        <v>0.857526</v>
+        <v>0.885666</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5728</v>
+        <v>0.567269</v>
       </c>
       <c r="C58" t="n">
-        <v>0.704894</v>
+        <v>0.836263</v>
       </c>
       <c r="D58" t="n">
-        <v>0.834885</v>
+        <v>0.861847</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.559562</v>
+        <v>0.552782</v>
       </c>
       <c r="C59" t="n">
-        <v>0.68549</v>
+        <v>0.816423</v>
       </c>
       <c r="D59" t="n">
-        <v>0.81174</v>
+        <v>0.838819</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.545415</v>
+        <v>0.541994</v>
       </c>
       <c r="C60" t="n">
-        <v>0.666067</v>
+        <v>0.797524</v>
       </c>
       <c r="D60" t="n">
-        <v>0.790694</v>
+        <v>0.817956</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.53463</v>
+        <v>0.529993</v>
       </c>
       <c r="C61" t="n">
-        <v>0.649374</v>
+        <v>0.779141</v>
       </c>
       <c r="D61" t="n">
-        <v>0.771019</v>
+        <v>0.796522</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.523379</v>
+        <v>0.52001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6298010000000001</v>
+        <v>0.762598</v>
       </c>
       <c r="D62" t="n">
-        <v>0.751891</v>
+        <v>0.777409</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.513951</v>
+        <v>0.511084</v>
       </c>
       <c r="C63" t="n">
-        <v>0.614202</v>
+        <v>0.747261</v>
       </c>
       <c r="D63" t="n">
-        <v>0.734752</v>
+        <v>0.760655</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.50668</v>
+        <v>0.504593</v>
       </c>
       <c r="C64" t="n">
-        <v>0.599485</v>
+        <v>0.733511</v>
       </c>
       <c r="D64" t="n">
-        <v>0.721435</v>
+        <v>0.7451179999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.502645</v>
+        <v>0.499294</v>
       </c>
       <c r="C65" t="n">
-        <v>0.589303</v>
+        <v>0.723785</v>
       </c>
       <c r="D65" t="n">
-        <v>0.710077</v>
+        <v>0.733195</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.500741</v>
+        <v>0.497378</v>
       </c>
       <c r="C66" t="n">
-        <v>0.579494</v>
+        <v>1.02677</v>
       </c>
       <c r="D66" t="n">
-        <v>1.05334</v>
+        <v>1.08581</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.716765</v>
+        <v>0.700525</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8872989999999999</v>
+        <v>0.998978</v>
       </c>
       <c r="D67" t="n">
-        <v>1.01959</v>
+        <v>1.05846</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.699842</v>
+        <v>0.683397</v>
       </c>
       <c r="C68" t="n">
-        <v>0.85884</v>
+        <v>0.974472</v>
       </c>
       <c r="D68" t="n">
-        <v>0.989297</v>
+        <v>1.02756</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.684841</v>
+        <v>0.66683</v>
       </c>
       <c r="C69" t="n">
-        <v>0.836522</v>
+        <v>0.945773</v>
       </c>
       <c r="D69" t="n">
-        <v>0.962885</v>
+        <v>0.997268</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.66866</v>
+        <v>0.652899</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8110039999999999</v>
+        <v>0.927133</v>
       </c>
       <c r="D70" t="n">
-        <v>0.93516</v>
+        <v>0.973438</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6520860000000001</v>
+        <v>0.642557</v>
       </c>
       <c r="C71" t="n">
-        <v>0.786038</v>
+        <v>0.903621</v>
       </c>
       <c r="D71" t="n">
-        <v>0.907345</v>
+        <v>0.9487409999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6380710000000001</v>
+        <v>0.624824</v>
       </c>
       <c r="C72" t="n">
-        <v>0.762621</v>
+        <v>0.884479</v>
       </c>
       <c r="D72" t="n">
-        <v>0.881069</v>
+        <v>0.925063</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.621112</v>
+        <v>0.617422</v>
       </c>
       <c r="C73" t="n">
-        <v>0.74144</v>
+        <v>0.865104</v>
       </c>
       <c r="D73" t="n">
-        <v>0.858254</v>
+        <v>0.901349</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.608878</v>
+        <v>0.6047129999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.72084</v>
+        <v>0.84377</v>
       </c>
       <c r="D74" t="n">
-        <v>0.836463</v>
+        <v>0.878067</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.598668</v>
+        <v>0.5924739999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.703427</v>
+        <v>0.823667</v>
       </c>
       <c r="D75" t="n">
-        <v>0.816205</v>
+        <v>0.857141</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.586815</v>
+        <v>0.572954</v>
       </c>
       <c r="C76" t="n">
-        <v>0.686397</v>
+        <v>0.800049</v>
       </c>
       <c r="D76" t="n">
-        <v>0.797795</v>
+        <v>0.832032</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.57619</v>
+        <v>0.565751</v>
       </c>
       <c r="C77" t="n">
-        <v>0.668664</v>
+        <v>0.782147</v>
       </c>
       <c r="D77" t="n">
-        <v>0.780593</v>
+        <v>0.813833</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.568469</v>
+        <v>0.556929</v>
       </c>
       <c r="C78" t="n">
-        <v>0.655201</v>
+        <v>0.771802</v>
       </c>
       <c r="D78" t="n">
-        <v>0.764924</v>
+        <v>0.797746</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.562245</v>
+        <v>0.550866</v>
       </c>
       <c r="C79" t="n">
-        <v>0.640027</v>
+        <v>0.760995</v>
       </c>
       <c r="D79" t="n">
-        <v>0.749851</v>
+        <v>0.784158</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.556338</v>
+        <v>0.547481</v>
       </c>
       <c r="C80" t="n">
-        <v>0.627602</v>
+        <v>1.11025</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12649</v>
+        <v>1.1826</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.788887</v>
+        <v>0.779829</v>
       </c>
       <c r="C81" t="n">
-        <v>0.971162</v>
+        <v>1.09656</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11027</v>
+        <v>1.16292</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.782968</v>
+        <v>0.772856</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9532969999999999</v>
+        <v>1.07831</v>
       </c>
       <c r="D82" t="n">
-        <v>1.08682</v>
+        <v>1.14137</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.772732</v>
+        <v>0.76425</v>
       </c>
       <c r="C83" t="n">
-        <v>0.935663</v>
+        <v>1.06006</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06201</v>
+        <v>1.11721</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.761945</v>
+        <v>0.752725</v>
       </c>
       <c r="C84" t="n">
-        <v>0.916451</v>
+        <v>1.03737</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03991</v>
+        <v>1.09191</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.752938</v>
+        <v>0.743915</v>
       </c>
       <c r="C85" t="n">
-        <v>0.895995</v>
+        <v>1.01084</v>
       </c>
       <c r="D85" t="n">
-        <v>1.01318</v>
+        <v>1.06592</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7420330000000001</v>
+        <v>0.735023</v>
       </c>
       <c r="C86" t="n">
-        <v>0.87624</v>
+        <v>0.995822</v>
       </c>
       <c r="D86" t="n">
-        <v>0.989672</v>
+        <v>1.04114</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.732689</v>
+        <v>0.724289</v>
       </c>
       <c r="C87" t="n">
-        <v>0.856057</v>
+        <v>0.972118</v>
       </c>
       <c r="D87" t="n">
-        <v>0.966328</v>
+        <v>1.01538</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.721977</v>
+        <v>0.715455</v>
       </c>
       <c r="C88" t="n">
-        <v>0.837929</v>
+        <v>0.952093</v>
       </c>
       <c r="D88" t="n">
-        <v>0.94331</v>
+        <v>0.990672</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.710811</v>
+        <v>0.706126</v>
       </c>
       <c r="C89" t="n">
-        <v>0.817669</v>
+        <v>0.927614</v>
       </c>
       <c r="D89" t="n">
-        <v>0.921257</v>
+        <v>0.968116</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.700855</v>
+        <v>0.69736</v>
       </c>
       <c r="C90" t="n">
-        <v>0.800496</v>
+        <v>0.915779</v>
       </c>
       <c r="D90" t="n">
-        <v>0.899051</v>
+        <v>0.946754</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.69178</v>
+        <v>0.69057</v>
       </c>
       <c r="C91" t="n">
-        <v>0.782544</v>
+        <v>0.900941</v>
       </c>
       <c r="D91" t="n">
-        <v>0.879999</v>
+        <v>0.927938</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.683378</v>
+        <v>0.682026</v>
       </c>
       <c r="C92" t="n">
-        <v>0.76722</v>
+        <v>0.882777</v>
       </c>
       <c r="D92" t="n">
-        <v>0.861277</v>
+        <v>0.90845</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677422</v>
+        <v>0.67675</v>
       </c>
       <c r="C93" t="n">
-        <v>0.753406</v>
+        <v>0.860105</v>
       </c>
       <c r="D93" t="n">
-        <v>0.846954</v>
+        <v>0.891936</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.673281</v>
+        <v>0.672034</v>
       </c>
       <c r="C94" t="n">
-        <v>0.740968</v>
+        <v>1.2098</v>
       </c>
       <c r="D94" t="n">
-        <v>1.23107</v>
+        <v>1.29555</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.908084</v>
+        <v>0.9055299999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08482</v>
+        <v>1.20657</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22304</v>
+        <v>1.27582</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.907386</v>
+        <v>0.901189</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07932</v>
+        <v>1.19292</v>
       </c>
       <c r="D96" t="n">
-        <v>1.20937</v>
+        <v>1.26246</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.897455</v>
+        <v>0.891392</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06185</v>
+        <v>1.18813</v>
       </c>
       <c r="D97" t="n">
-        <v>1.19091</v>
+        <v>1.23516</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8870170000000001</v>
+        <v>0.882074</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0433</v>
+        <v>1.16868</v>
       </c>
       <c r="D98" t="n">
-        <v>1.17088</v>
+        <v>1.2204</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.87668</v>
+        <v>0.871113</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02704</v>
+        <v>1.15411</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15032</v>
+        <v>1.19665</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.866818</v>
+        <v>0.860684</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0098</v>
+        <v>1.13174</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13017</v>
+        <v>1.17259</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.856538</v>
+        <v>0.852023</v>
       </c>
       <c r="C101" t="n">
-        <v>0.991965</v>
+        <v>1.12081</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11063</v>
+        <v>1.15459</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.847234</v>
+        <v>0.8438600000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.976429</v>
+        <v>1.09445</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09164</v>
+        <v>1.13445</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.838039</v>
+        <v>0.835531</v>
       </c>
       <c r="C103" t="n">
-        <v>0.961555</v>
+        <v>1.09168</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07494</v>
+        <v>1.11378</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8305940000000001</v>
+        <v>0.8274280000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.949035</v>
+        <v>1.0716</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05895</v>
+        <v>1.10184</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.823456</v>
+        <v>0.820905</v>
       </c>
       <c r="C105" t="n">
-        <v>0.935582</v>
+        <v>1.05465</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04313</v>
+        <v>1.08416</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.817075</v>
+        <v>0.816477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.923623</v>
+        <v>1.0562</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02811</v>
+        <v>1.06432</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.812792</v>
+        <v>0.812989</v>
       </c>
       <c r="C107" t="n">
-        <v>0.913176</v>
+        <v>1.03825</v>
       </c>
       <c r="D107" t="n">
-        <v>1.016</v>
+        <v>1.05874</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8107839999999999</v>
+        <v>0.8109459999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.904324</v>
+        <v>1.3867</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39686</v>
+        <v>1.45654</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8114209999999999</v>
+        <v>0.81328</v>
       </c>
       <c r="C109" t="n">
-        <v>0.899213</v>
+        <v>1.39295</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39004</v>
+        <v>1.45254</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03831</v>
+        <v>1.04493</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2425</v>
+        <v>1.38581</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37652</v>
+        <v>1.43612</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02636</v>
+        <v>1.03153</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22597</v>
+        <v>1.37495</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3653</v>
+        <v>1.4198</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0141</v>
+        <v>1.01993</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2076</v>
+        <v>1.36024</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34893</v>
+        <v>1.3998</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00289</v>
+        <v>1.00898</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19037</v>
+        <v>1.35537</v>
       </c>
       <c r="D113" t="n">
-        <v>1.33751</v>
+        <v>1.38902</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.991247</v>
+        <v>0.998233</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17504</v>
+        <v>1.34575</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32721</v>
+        <v>1.37649</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.981139</v>
+        <v>0.986634</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15918</v>
+        <v>1.33624</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31433</v>
+        <v>1.35769</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.97136</v>
+        <v>0.977417</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14503</v>
+        <v>1.32989</v>
       </c>
       <c r="D116" t="n">
-        <v>1.30578</v>
+        <v>1.35176</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.962462</v>
+        <v>0.9691380000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13123</v>
+        <v>1.31606</v>
       </c>
       <c r="D117" t="n">
-        <v>1.29388</v>
+        <v>1.33162</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.954601</v>
+        <v>0.961027</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11823</v>
+        <v>1.30937</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28444</v>
+        <v>1.32892</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.947232</v>
+        <v>0.954233</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10666</v>
+        <v>1.30888</v>
       </c>
       <c r="D119" t="n">
-        <v>1.274</v>
+        <v>1.31842</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.941889</v>
+        <v>0.9473470000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0979</v>
+        <v>1.30067</v>
       </c>
       <c r="D120" t="n">
-        <v>1.26813</v>
+        <v>1.29549</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.938416</v>
+        <v>0.942912</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08895</v>
+        <v>1.28864</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25999</v>
+        <v>1.28609</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.935459</v>
+        <v>0.940003</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07962</v>
+        <v>1.28669</v>
       </c>
       <c r="D122" t="n">
-        <v>1.24894</v>
+        <v>1.28725</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.935468</v>
+        <v>0.939994</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07817</v>
+        <v>1.63545</v>
       </c>
       <c r="D123" t="n">
-        <v>1.63213</v>
+        <v>1.67298</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16379</v>
+        <v>1.16447</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42003</v>
+        <v>1.62361</v>
       </c>
       <c r="D124" t="n">
-        <v>1.61656</v>
+        <v>1.65754</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15261</v>
+        <v>1.15436</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40524</v>
+        <v>1.61532</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6032</v>
+        <v>1.65624</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14149</v>
+        <v>1.14427</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38715</v>
+        <v>1.60503</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59054</v>
+        <v>1.63938</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13116</v>
+        <v>1.13432</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37317</v>
+        <v>1.59962</v>
       </c>
       <c r="D127" t="n">
-        <v>1.57348</v>
+        <v>1.63108</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12184</v>
+        <v>1.12463</v>
       </c>
       <c r="C128" t="n">
-        <v>1.36078</v>
+        <v>1.58157</v>
       </c>
       <c r="D128" t="n">
-        <v>1.56265</v>
+        <v>1.61493</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11302</v>
+        <v>1.11637</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34771</v>
+        <v>1.5752</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55591</v>
+        <v>1.60171</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10511</v>
+        <v>1.10902</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33445</v>
+        <v>1.57767</v>
       </c>
       <c r="D130" t="n">
-        <v>1.54135</v>
+        <v>1.58479</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09692</v>
+        <v>1.10339</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32417</v>
+        <v>1.56457</v>
       </c>
       <c r="D131" t="n">
-        <v>1.53644</v>
+        <v>1.5792</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09161</v>
+        <v>1.09659</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31437</v>
+        <v>1.56495</v>
       </c>
       <c r="D132" t="n">
-        <v>1.53097</v>
+        <v>1.57402</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08582</v>
+        <v>1.09115</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30397</v>
+        <v>1.56265</v>
       </c>
       <c r="D133" t="n">
-        <v>1.51765</v>
+        <v>1.57066</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08191</v>
+        <v>1.08528</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29765</v>
+        <v>1.55293</v>
       </c>
       <c r="D134" t="n">
-        <v>1.50701</v>
+        <v>1.55799</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07911</v>
+        <v>1.08261</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28951</v>
+        <v>1.5466</v>
       </c>
       <c r="D135" t="n">
-        <v>1.50233</v>
+        <v>1.54984</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07925</v>
+        <v>1.08129</v>
       </c>
       <c r="C136" t="n">
-        <v>1.28409</v>
+        <v>1.54693</v>
       </c>
       <c r="D136" t="n">
-        <v>1.49861</v>
+        <v>1.54123</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07998</v>
+        <v>1.08189</v>
       </c>
       <c r="C137" t="n">
-        <v>1.28004</v>
+        <v>1.89457</v>
       </c>
       <c r="D137" t="n">
-        <v>1.87279</v>
+        <v>1.9387</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30852</v>
+        <v>1.31067</v>
       </c>
       <c r="C138" t="n">
-        <v>1.62124</v>
+        <v>1.87458</v>
       </c>
       <c r="D138" t="n">
-        <v>1.8561</v>
+        <v>1.91775</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30017</v>
+        <v>1.3011</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60862</v>
+        <v>1.85848</v>
       </c>
       <c r="D139" t="n">
-        <v>1.83586</v>
+        <v>1.89913</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29112</v>
+        <v>1.29225</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59476</v>
+        <v>1.84705</v>
       </c>
       <c r="D140" t="n">
-        <v>1.82017</v>
+        <v>1.88003</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28411</v>
+        <v>1.28416</v>
       </c>
       <c r="C141" t="n">
-        <v>1.58272</v>
+        <v>1.83445</v>
       </c>
       <c r="D141" t="n">
-        <v>1.80605</v>
+        <v>1.85954</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27663</v>
+        <v>1.27706</v>
       </c>
       <c r="C142" t="n">
-        <v>1.57082</v>
+        <v>1.81419</v>
       </c>
       <c r="D142" t="n">
-        <v>1.79218</v>
+        <v>1.84318</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26948</v>
+        <v>1.26966</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55947</v>
+        <v>1.80095</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77341</v>
+        <v>1.82848</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484361</v>
+        <v>0.485325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.756005</v>
+        <v>0.6993740000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7323730000000001</v>
+        <v>0.732024</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.472358</v>
+        <v>0.472503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.736329</v>
+        <v>0.6792049999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.713496</v>
+        <v>0.712622</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.461448</v>
+        <v>0.461632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.718885</v>
+        <v>0.662201</v>
       </c>
       <c r="D4" t="n">
-        <v>0.695236</v>
+        <v>0.694752</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.45215</v>
+        <v>0.452541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7029300000000001</v>
+        <v>0.646293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.678767</v>
+        <v>0.67863</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.445241</v>
+        <v>0.445214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.687794</v>
+        <v>0.631116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.663421</v>
+        <v>0.663017</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.438981</v>
+        <v>0.438833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.674919</v>
+        <v>0.618586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.650609</v>
+        <v>0.650463</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436469</v>
+        <v>0.436094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6643829999999999</v>
+        <v>0.608885</v>
       </c>
       <c r="D8" t="n">
-        <v>0.639937</v>
+        <v>0.639641</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437196</v>
+        <v>0.437033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.958097</v>
+        <v>0.902315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.944383</v>
+        <v>0.94325</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.573927</v>
+        <v>0.573142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.880482</v>
+        <v>0.825508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.914194</v>
+        <v>0.913762</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.55593</v>
+        <v>0.555592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.855221</v>
+        <v>0.7997610000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.885639</v>
+        <v>0.8850749999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539396</v>
+        <v>0.539153</v>
       </c>
       <c r="C12" t="n">
-        <v>0.831284</v>
+        <v>0.7757309999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.858142</v>
+        <v>0.858078</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.524062</v>
+        <v>0.523569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8084170000000001</v>
+        <v>0.752948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8326</v>
+        <v>0.832195</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.509373</v>
+        <v>0.509211</v>
       </c>
       <c r="C14" t="n">
-        <v>0.786598</v>
+        <v>0.73151</v>
       </c>
       <c r="D14" t="n">
-        <v>0.808393</v>
+        <v>0.8078610000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.494999</v>
+        <v>0.495068</v>
       </c>
       <c r="C15" t="n">
-        <v>0.765616</v>
+        <v>0.71078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.785488</v>
+        <v>0.784932</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.481926</v>
+        <v>0.482036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.746469</v>
+        <v>0.691156</v>
       </c>
       <c r="D16" t="n">
-        <v>0.763923</v>
+        <v>0.763265</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470032</v>
+        <v>0.469837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.728003</v>
+        <v>0.673121</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7439170000000001</v>
+        <v>0.743347</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459315</v>
+        <v>0.45924</v>
       </c>
       <c r="C18" t="n">
-        <v>0.710718</v>
+        <v>0.6564140000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.724809</v>
+        <v>0.724334</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450084</v>
+        <v>0.44926</v>
       </c>
       <c r="C19" t="n">
-        <v>0.694895</v>
+        <v>0.640807</v>
       </c>
       <c r="D19" t="n">
-        <v>0.707614</v>
+        <v>0.707645</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442041</v>
+        <v>0.441785</v>
       </c>
       <c r="C20" t="n">
-        <v>0.680314</v>
+        <v>0.6264150000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.692273</v>
+        <v>0.692053</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436304</v>
+        <v>0.435938</v>
       </c>
       <c r="C21" t="n">
-        <v>0.667618</v>
+        <v>0.6137899999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6787</v>
+        <v>0.678321</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.432524</v>
+        <v>0.432397</v>
       </c>
       <c r="C22" t="n">
-        <v>0.658962</v>
+        <v>0.605171</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6683480000000001</v>
+        <v>0.66797</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432351</v>
+        <v>0.431922</v>
       </c>
       <c r="C23" t="n">
-        <v>0.958296</v>
+        <v>0.904215</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9856009999999999</v>
+        <v>0.984102</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.621563</v>
+        <v>0.619436</v>
       </c>
       <c r="C24" t="n">
-        <v>0.929737</v>
+        <v>0.875748</v>
       </c>
       <c r="D24" t="n">
-        <v>0.95366</v>
+        <v>0.953056</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.601467</v>
+        <v>0.600387</v>
       </c>
       <c r="C25" t="n">
-        <v>0.902385</v>
+        <v>0.848324</v>
       </c>
       <c r="D25" t="n">
-        <v>0.924101</v>
+        <v>0.922936</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.584002</v>
+        <v>0.582817</v>
       </c>
       <c r="C26" t="n">
-        <v>0.876599</v>
+        <v>0.82228</v>
       </c>
       <c r="D26" t="n">
-        <v>0.895359</v>
+        <v>0.89422</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.565339</v>
+        <v>0.564352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.851881</v>
+        <v>0.79762</v>
       </c>
       <c r="D27" t="n">
-        <v>0.868163</v>
+        <v>0.867221</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549125</v>
+        <v>0.547551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.828227</v>
+        <v>0.774078</v>
       </c>
       <c r="D28" t="n">
-        <v>0.842377</v>
+        <v>0.842612</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5331360000000001</v>
+        <v>0.532954</v>
       </c>
       <c r="C29" t="n">
-        <v>0.805947</v>
+        <v>0.751946</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8183319999999999</v>
+        <v>0.817812</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.520694</v>
+        <v>0.519304</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7844989999999999</v>
+        <v>0.730694</v>
       </c>
       <c r="D30" t="n">
-        <v>0.796114</v>
+        <v>0.794994</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506423</v>
+        <v>0.504398</v>
       </c>
       <c r="C31" t="n">
-        <v>0.764536</v>
+        <v>0.710409</v>
       </c>
       <c r="D31" t="n">
-        <v>0.774915</v>
+        <v>0.773392</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493856</v>
+        <v>0.493469</v>
       </c>
       <c r="C32" t="n">
-        <v>0.746079</v>
+        <v>0.692594</v>
       </c>
       <c r="D32" t="n">
-        <v>0.755342</v>
+        <v>0.754159</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.482116</v>
+        <v>0.482267</v>
       </c>
       <c r="C33" t="n">
-        <v>0.729094</v>
+        <v>0.674629</v>
       </c>
       <c r="D33" t="n">
-        <v>0.734783</v>
+        <v>0.735551</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471748</v>
+        <v>0.472221</v>
       </c>
       <c r="C34" t="n">
-        <v>0.713367</v>
+        <v>0.6589660000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.717629</v>
+        <v>0.717575</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463971</v>
+        <v>0.46353</v>
       </c>
       <c r="C35" t="n">
-        <v>0.699745</v>
+        <v>0.645868</v>
       </c>
       <c r="D35" t="n">
-        <v>0.70377</v>
+        <v>0.704707</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458402</v>
+        <v>0.459479</v>
       </c>
       <c r="C36" t="n">
-        <v>0.688402</v>
+        <v>0.634315</v>
       </c>
       <c r="D36" t="n">
-        <v>0.690002</v>
+        <v>0.691801</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455578</v>
+        <v>0.456771</v>
       </c>
       <c r="C37" t="n">
-        <v>0.990996</v>
+        <v>0.936721</v>
       </c>
       <c r="D37" t="n">
-        <v>1.01946</v>
+        <v>1.0189</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648787</v>
+        <v>0.648415</v>
       </c>
       <c r="C38" t="n">
-        <v>0.961906</v>
+        <v>0.9070859999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.987704</v>
+        <v>0.987051</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.628374</v>
+        <v>0.629811</v>
       </c>
       <c r="C39" t="n">
-        <v>0.933679</v>
+        <v>0.878668</v>
       </c>
       <c r="D39" t="n">
-        <v>0.957055</v>
+        <v>0.9558489999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.609069</v>
+        <v>0.610818</v>
       </c>
       <c r="C40" t="n">
-        <v>0.906718</v>
+        <v>0.852367</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927206</v>
+        <v>0.927593</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5908330000000001</v>
+        <v>0.5928</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8810829999999999</v>
+        <v>0.827291</v>
       </c>
       <c r="D41" t="n">
-        <v>0.900251</v>
+        <v>0.90002</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5738839999999999</v>
+        <v>0.5755940000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.856845</v>
+        <v>0.802877</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8734420000000001</v>
+        <v>0.872285</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.557546</v>
+        <v>0.559429</v>
       </c>
       <c r="C43" t="n">
-        <v>0.833587</v>
+        <v>0.779172</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8477479999999999</v>
+        <v>0.846865</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.542188</v>
+        <v>0.5437920000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.811548</v>
+        <v>0.757089</v>
       </c>
       <c r="D44" t="n">
-        <v>0.82376</v>
+        <v>0.8236599999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.528021</v>
+        <v>0.530054</v>
       </c>
       <c r="C45" t="n">
-        <v>0.791258</v>
+        <v>0.7368130000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.801641</v>
+        <v>0.801134</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.51503</v>
+        <v>0.517494</v>
       </c>
       <c r="C46" t="n">
-        <v>0.771617</v>
+        <v>0.717672</v>
       </c>
       <c r="D46" t="n">
-        <v>0.780311</v>
+        <v>0.780016</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.503316</v>
+        <v>0.505516</v>
       </c>
       <c r="C47" t="n">
-        <v>0.753867</v>
+        <v>0.699927</v>
       </c>
       <c r="D47" t="n">
-        <v>0.760359</v>
+        <v>0.76054</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.493074</v>
+        <v>0.49565</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7374810000000001</v>
+        <v>0.6833399999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.742327</v>
+        <v>0.742316</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487173</v>
+        <v>0.486968</v>
       </c>
       <c r="C49" t="n">
-        <v>0.722976</v>
+        <v>0.669168</v>
       </c>
       <c r="D49" t="n">
-        <v>0.726003</v>
+        <v>0.725929</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480644</v>
+        <v>0.480532</v>
       </c>
       <c r="C50" t="n">
-        <v>0.710565</v>
+        <v>0.65608</v>
       </c>
       <c r="D50" t="n">
-        <v>0.711992</v>
+        <v>0.7118139999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476649</v>
+        <v>0.476718</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01851</v>
+        <v>0.961488</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06169</v>
+        <v>1.06075</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.476231</v>
+        <v>0.475897</v>
       </c>
       <c r="C52" t="n">
-        <v>0.989476</v>
+        <v>0.9322859999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>1.02863</v>
+        <v>1.02876</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.653462</v>
+        <v>0.652791</v>
       </c>
       <c r="C53" t="n">
-        <v>0.961009</v>
+        <v>0.904253</v>
       </c>
       <c r="D53" t="n">
-        <v>0.997586</v>
+        <v>0.996758</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.634649</v>
+        <v>0.634672</v>
       </c>
       <c r="C54" t="n">
-        <v>0.932288</v>
+        <v>0.880072</v>
       </c>
       <c r="D54" t="n">
-        <v>0.966275</v>
+        <v>0.968762</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.616468</v>
+        <v>0.618221</v>
       </c>
       <c r="C55" t="n">
-        <v>0.907179</v>
+        <v>0.853941</v>
       </c>
       <c r="D55" t="n">
-        <v>0.937938</v>
+        <v>0.940527</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.598868</v>
+        <v>0.601194</v>
       </c>
       <c r="C56" t="n">
-        <v>0.882772</v>
+        <v>0.83017</v>
       </c>
       <c r="D56" t="n">
-        <v>0.910959</v>
+        <v>0.913828</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.582885</v>
+        <v>0.585412</v>
       </c>
       <c r="C57" t="n">
-        <v>0.859303</v>
+        <v>0.806216</v>
       </c>
       <c r="D57" t="n">
-        <v>0.885666</v>
+        <v>0.88818</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567269</v>
+        <v>0.570729</v>
       </c>
       <c r="C58" t="n">
-        <v>0.836263</v>
+        <v>0.785348</v>
       </c>
       <c r="D58" t="n">
-        <v>0.861847</v>
+        <v>0.863129</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.552782</v>
+        <v>0.556145</v>
       </c>
       <c r="C59" t="n">
-        <v>0.816423</v>
+        <v>0.763688</v>
       </c>
       <c r="D59" t="n">
-        <v>0.838819</v>
+        <v>0.839827</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.541994</v>
+        <v>0.542604</v>
       </c>
       <c r="C60" t="n">
-        <v>0.797524</v>
+        <v>0.744552</v>
       </c>
       <c r="D60" t="n">
-        <v>0.817956</v>
+        <v>0.8178299999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.529993</v>
+        <v>0.530925</v>
       </c>
       <c r="C61" t="n">
-        <v>0.779141</v>
+        <v>0.725821</v>
       </c>
       <c r="D61" t="n">
-        <v>0.796522</v>
+        <v>0.796732</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.52001</v>
+        <v>0.5199510000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.762598</v>
+        <v>0.708752</v>
       </c>
       <c r="D62" t="n">
-        <v>0.777409</v>
+        <v>0.778021</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.511084</v>
+        <v>0.511029</v>
       </c>
       <c r="C63" t="n">
-        <v>0.747261</v>
+        <v>0.691711</v>
       </c>
       <c r="D63" t="n">
-        <v>0.760655</v>
+        <v>0.760421</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.504593</v>
+        <v>0.5041</v>
       </c>
       <c r="C64" t="n">
-        <v>0.733511</v>
+        <v>0.678534</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7451179999999999</v>
+        <v>0.744902</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.499294</v>
+        <v>0.4998</v>
       </c>
       <c r="C65" t="n">
-        <v>0.723785</v>
+        <v>0.670041</v>
       </c>
       <c r="D65" t="n">
-        <v>0.733195</v>
+        <v>0.732996</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.497378</v>
+        <v>0.49835</v>
       </c>
       <c r="C66" t="n">
-        <v>1.02677</v>
+        <v>0.977724</v>
       </c>
       <c r="D66" t="n">
-        <v>1.08581</v>
+        <v>1.08905</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.700525</v>
+        <v>0.700488</v>
       </c>
       <c r="C67" t="n">
-        <v>0.998978</v>
+        <v>0.949599</v>
       </c>
       <c r="D67" t="n">
-        <v>1.05846</v>
+        <v>1.05774</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.683397</v>
+        <v>0.683069</v>
       </c>
       <c r="C68" t="n">
-        <v>0.974472</v>
+        <v>0.923793</v>
       </c>
       <c r="D68" t="n">
-        <v>1.02756</v>
+        <v>1.02999</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.66683</v>
+        <v>0.666605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.945773</v>
+        <v>0.897159</v>
       </c>
       <c r="D69" t="n">
-        <v>0.997268</v>
+        <v>0.998293</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.652899</v>
+        <v>0.650396</v>
       </c>
       <c r="C70" t="n">
-        <v>0.927133</v>
+        <v>0.873101</v>
       </c>
       <c r="D70" t="n">
-        <v>0.973438</v>
+        <v>0.971909</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.642557</v>
+        <v>0.634697</v>
       </c>
       <c r="C71" t="n">
-        <v>0.903621</v>
+        <v>0.850863</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9487409999999999</v>
+        <v>0.947288</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.624824</v>
+        <v>0.622362</v>
       </c>
       <c r="C72" t="n">
-        <v>0.884479</v>
+        <v>0.826537</v>
       </c>
       <c r="D72" t="n">
-        <v>0.925063</v>
+        <v>0.920829</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.617422</v>
+        <v>0.608054</v>
       </c>
       <c r="C73" t="n">
-        <v>0.865104</v>
+        <v>0.804948</v>
       </c>
       <c r="D73" t="n">
-        <v>0.901349</v>
+        <v>0.895682</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6047129999999999</v>
+        <v>0.594692</v>
       </c>
       <c r="C74" t="n">
-        <v>0.84377</v>
+        <v>0.781952</v>
       </c>
       <c r="D74" t="n">
-        <v>0.878067</v>
+        <v>0.872318</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5924739999999999</v>
+        <v>0.584338</v>
       </c>
       <c r="C75" t="n">
-        <v>0.823667</v>
+        <v>0.765999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.857141</v>
+        <v>0.852456</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.572954</v>
+        <v>0.571963</v>
       </c>
       <c r="C76" t="n">
-        <v>0.800049</v>
+        <v>0.748071</v>
       </c>
       <c r="D76" t="n">
-        <v>0.832032</v>
+        <v>0.832287</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.565751</v>
+        <v>0.564868</v>
       </c>
       <c r="C77" t="n">
-        <v>0.782147</v>
+        <v>0.73439</v>
       </c>
       <c r="D77" t="n">
-        <v>0.813833</v>
+        <v>0.8156369999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.556929</v>
+        <v>0.557662</v>
       </c>
       <c r="C78" t="n">
-        <v>0.771802</v>
+        <v>0.718483</v>
       </c>
       <c r="D78" t="n">
-        <v>0.797746</v>
+        <v>0.798697</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.550866</v>
+        <v>0.552087</v>
       </c>
       <c r="C79" t="n">
-        <v>0.760995</v>
+        <v>0.709938</v>
       </c>
       <c r="D79" t="n">
-        <v>0.784158</v>
+        <v>0.784141</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.547481</v>
+        <v>0.5489810000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.11025</v>
+        <v>1.05446</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1826</v>
+        <v>1.18164</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.779829</v>
+        <v>0.77952</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09656</v>
+        <v>1.03995</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16292</v>
+        <v>1.16124</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.772856</v>
+        <v>0.7734760000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07831</v>
+        <v>1.02381</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14137</v>
+        <v>1.14142</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.76425</v>
+        <v>0.766078</v>
       </c>
       <c r="C83" t="n">
-        <v>1.06006</v>
+        <v>1.00165</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11721</v>
+        <v>1.11662</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.752725</v>
+        <v>0.756076</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03737</v>
+        <v>0.983081</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09191</v>
+        <v>1.0918</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.743915</v>
+        <v>0.74564</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01084</v>
+        <v>0.960568</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06592</v>
+        <v>1.06561</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.735023</v>
+        <v>0.735849</v>
       </c>
       <c r="C86" t="n">
-        <v>0.995822</v>
+        <v>0.934989</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04114</v>
+        <v>1.04125</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.724289</v>
+        <v>0.725647</v>
       </c>
       <c r="C87" t="n">
-        <v>0.972118</v>
+        <v>0.918652</v>
       </c>
       <c r="D87" t="n">
-        <v>1.01538</v>
+        <v>1.00888</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.715455</v>
+        <v>0.715539</v>
       </c>
       <c r="C88" t="n">
-        <v>0.952093</v>
+        <v>0.897499</v>
       </c>
       <c r="D88" t="n">
-        <v>0.990672</v>
+        <v>0.983907</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.706126</v>
+        <v>0.704943</v>
       </c>
       <c r="C89" t="n">
-        <v>0.927614</v>
+        <v>0.8764</v>
       </c>
       <c r="D89" t="n">
-        <v>0.968116</v>
+        <v>0.960456</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.69736</v>
+        <v>0.695666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.915779</v>
+        <v>0.847807</v>
       </c>
       <c r="D90" t="n">
-        <v>0.946754</v>
+        <v>0.936929</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.69057</v>
+        <v>0.688361</v>
       </c>
       <c r="C91" t="n">
-        <v>0.900941</v>
+        <v>0.830306</v>
       </c>
       <c r="D91" t="n">
-        <v>0.927938</v>
+        <v>0.923426</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.682026</v>
+        <v>0.679832</v>
       </c>
       <c r="C92" t="n">
-        <v>0.882777</v>
+        <v>0.821184</v>
       </c>
       <c r="D92" t="n">
-        <v>0.90845</v>
+        <v>0.903865</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.67675</v>
+        <v>0.674011</v>
       </c>
       <c r="C93" t="n">
-        <v>0.860105</v>
+        <v>0.799811</v>
       </c>
       <c r="D93" t="n">
-        <v>0.891936</v>
+        <v>0.886497</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.672034</v>
+        <v>0.669909</v>
       </c>
       <c r="C94" t="n">
-        <v>1.2098</v>
+        <v>1.16043</v>
       </c>
       <c r="D94" t="n">
-        <v>1.29555</v>
+        <v>1.29017</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9055299999999999</v>
+        <v>0.902303</v>
       </c>
       <c r="C95" t="n">
-        <v>1.20657</v>
+        <v>1.14783</v>
       </c>
       <c r="D95" t="n">
-        <v>1.27582</v>
+        <v>1.27239</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.901189</v>
+        <v>0.900224</v>
       </c>
       <c r="C96" t="n">
-        <v>1.19292</v>
+        <v>1.1332</v>
       </c>
       <c r="D96" t="n">
-        <v>1.26246</v>
+        <v>1.25382</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.891392</v>
+        <v>0.890182</v>
       </c>
       <c r="C97" t="n">
-        <v>1.18813</v>
+        <v>1.11608</v>
       </c>
       <c r="D97" t="n">
-        <v>1.23516</v>
+        <v>1.23762</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.882074</v>
+        <v>0.88054</v>
       </c>
       <c r="C98" t="n">
-        <v>1.16868</v>
+        <v>1.1051</v>
       </c>
       <c r="D98" t="n">
-        <v>1.2204</v>
+        <v>1.20894</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.871113</v>
+        <v>0.869839</v>
       </c>
       <c r="C99" t="n">
-        <v>1.15411</v>
+        <v>1.0852</v>
       </c>
       <c r="D99" t="n">
-        <v>1.19665</v>
+        <v>1.18908</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.860684</v>
+        <v>0.860375</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13174</v>
+        <v>1.07299</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17259</v>
+        <v>1.17067</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.852023</v>
+        <v>0.850226</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12081</v>
+        <v>1.05617</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15459</v>
+        <v>1.15358</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8438600000000001</v>
+        <v>0.841577</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09445</v>
+        <v>1.03719</v>
       </c>
       <c r="D102" t="n">
-        <v>1.13445</v>
+        <v>1.12843</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.835531</v>
+        <v>0.833512</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09168</v>
+        <v>1.01771</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11378</v>
+        <v>1.11237</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8274280000000001</v>
+        <v>0.826446</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0716</v>
+        <v>1.00956</v>
       </c>
       <c r="D104" t="n">
-        <v>1.10184</v>
+        <v>1.09012</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.820905</v>
+        <v>0.821065</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05465</v>
+        <v>0.997861</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08416</v>
+        <v>1.07951</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.816477</v>
+        <v>0.815706</v>
       </c>
       <c r="C106" t="n">
-        <v>1.0562</v>
+        <v>0.978434</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06432</v>
+        <v>1.05545</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.812989</v>
+        <v>0.811205</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03825</v>
+        <v>0.972139</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05874</v>
+        <v>1.04803</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8109459999999999</v>
+        <v>0.810068</v>
       </c>
       <c r="C108" t="n">
-        <v>1.3867</v>
+        <v>1.31749</v>
       </c>
       <c r="D108" t="n">
-        <v>1.45654</v>
+        <v>1.44901</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.81328</v>
+        <v>0.8124440000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.39295</v>
+        <v>1.32046</v>
       </c>
       <c r="D109" t="n">
-        <v>1.45254</v>
+        <v>1.44698</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04493</v>
+        <v>1.04209</v>
       </c>
       <c r="C110" t="n">
-        <v>1.38581</v>
+        <v>1.30986</v>
       </c>
       <c r="D110" t="n">
-        <v>1.43612</v>
+        <v>1.42257</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03153</v>
+        <v>1.03024</v>
       </c>
       <c r="C111" t="n">
-        <v>1.37495</v>
+        <v>1.29498</v>
       </c>
       <c r="D111" t="n">
-        <v>1.4198</v>
+        <v>1.40779</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01993</v>
+        <v>1.01779</v>
       </c>
       <c r="C112" t="n">
-        <v>1.36024</v>
+        <v>1.29073</v>
       </c>
       <c r="D112" t="n">
-        <v>1.3998</v>
+        <v>1.40263</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00898</v>
+        <v>1.00666</v>
       </c>
       <c r="C113" t="n">
-        <v>1.35537</v>
+        <v>1.27987</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38902</v>
+        <v>1.3794</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.998233</v>
+        <v>0.995398</v>
       </c>
       <c r="C114" t="n">
-        <v>1.34575</v>
+        <v>1.27497</v>
       </c>
       <c r="D114" t="n">
-        <v>1.37649</v>
+        <v>1.36535</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.986634</v>
+        <v>0.9848479999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>1.33624</v>
+        <v>1.2659</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35769</v>
+        <v>1.35985</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.977417</v>
+        <v>0.975561</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32989</v>
+        <v>1.25783</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35176</v>
+        <v>1.3484</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9691380000000001</v>
+        <v>0.967419</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31606</v>
+        <v>1.2506</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33162</v>
+        <v>1.33878</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.961027</v>
+        <v>0.959438</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30937</v>
+        <v>1.24269</v>
       </c>
       <c r="D118" t="n">
-        <v>1.32892</v>
+        <v>1.32826</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.954233</v>
+        <v>0.952469</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30888</v>
+        <v>1.23607</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31842</v>
+        <v>1.31403</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9473470000000001</v>
+        <v>0.946096</v>
       </c>
       <c r="C120" t="n">
-        <v>1.30067</v>
+        <v>1.22982</v>
       </c>
       <c r="D120" t="n">
-        <v>1.29549</v>
+        <v>1.29645</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.942912</v>
+        <v>0.942503</v>
       </c>
       <c r="C121" t="n">
-        <v>1.28864</v>
+        <v>1.22384</v>
       </c>
       <c r="D121" t="n">
-        <v>1.28609</v>
+        <v>1.29803</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.940003</v>
+        <v>0.940649</v>
       </c>
       <c r="C122" t="n">
-        <v>1.28669</v>
+        <v>1.21678</v>
       </c>
       <c r="D122" t="n">
-        <v>1.28725</v>
+        <v>1.28982</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.939994</v>
+        <v>0.941519</v>
       </c>
       <c r="C123" t="n">
-        <v>1.63545</v>
+        <v>1.55656</v>
       </c>
       <c r="D123" t="n">
-        <v>1.67298</v>
+        <v>1.67538</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16447</v>
+        <v>1.16614</v>
       </c>
       <c r="C124" t="n">
-        <v>1.62361</v>
+        <v>1.55476</v>
       </c>
       <c r="D124" t="n">
-        <v>1.65754</v>
+        <v>1.67068</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15436</v>
+        <v>1.15493</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61532</v>
+        <v>1.54523</v>
       </c>
       <c r="D125" t="n">
-        <v>1.65624</v>
+        <v>1.65717</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14427</v>
+        <v>1.14426</v>
       </c>
       <c r="C126" t="n">
-        <v>1.60503</v>
+        <v>1.52659</v>
       </c>
       <c r="D126" t="n">
-        <v>1.63938</v>
+        <v>1.63804</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13432</v>
+        <v>1.13428</v>
       </c>
       <c r="C127" t="n">
-        <v>1.59962</v>
+        <v>1.52229</v>
       </c>
       <c r="D127" t="n">
-        <v>1.63108</v>
+        <v>1.62896</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12463</v>
+        <v>1.12557</v>
       </c>
       <c r="C128" t="n">
-        <v>1.58157</v>
+        <v>1.51489</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61493</v>
+        <v>1.61411</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11637</v>
+        <v>1.11681</v>
       </c>
       <c r="C129" t="n">
-        <v>1.5752</v>
+        <v>1.51126</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60171</v>
+        <v>1.60102</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10902</v>
+        <v>1.11157</v>
       </c>
       <c r="C130" t="n">
-        <v>1.57767</v>
+        <v>1.50231</v>
       </c>
       <c r="D130" t="n">
-        <v>1.58479</v>
+        <v>1.59457</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10339</v>
+        <v>1.10477</v>
       </c>
       <c r="C131" t="n">
-        <v>1.56457</v>
+        <v>1.50048</v>
       </c>
       <c r="D131" t="n">
-        <v>1.5792</v>
+        <v>1.58193</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09659</v>
+        <v>1.09951</v>
       </c>
       <c r="C132" t="n">
-        <v>1.56495</v>
+        <v>1.49333</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57402</v>
+        <v>1.57657</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09115</v>
+        <v>1.09349</v>
       </c>
       <c r="C133" t="n">
-        <v>1.56265</v>
+        <v>1.48885</v>
       </c>
       <c r="D133" t="n">
-        <v>1.57066</v>
+        <v>1.56978</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08528</v>
+        <v>1.09144</v>
       </c>
       <c r="C134" t="n">
-        <v>1.55293</v>
+        <v>1.48919</v>
       </c>
       <c r="D134" t="n">
-        <v>1.55799</v>
+        <v>1.56384</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08261</v>
+        <v>1.08911</v>
       </c>
       <c r="C135" t="n">
-        <v>1.5466</v>
+        <v>1.48144</v>
       </c>
       <c r="D135" t="n">
-        <v>1.54984</v>
+        <v>1.55567</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08129</v>
+        <v>1.0881</v>
       </c>
       <c r="C136" t="n">
-        <v>1.54693</v>
+        <v>1.47359</v>
       </c>
       <c r="D136" t="n">
-        <v>1.54123</v>
+        <v>1.54828</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08189</v>
+        <v>1.08975</v>
       </c>
       <c r="C137" t="n">
-        <v>1.89457</v>
+        <v>1.82046</v>
       </c>
       <c r="D137" t="n">
-        <v>1.9387</v>
+        <v>1.94302</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31067</v>
+        <v>1.31551</v>
       </c>
       <c r="C138" t="n">
-        <v>1.87458</v>
+        <v>1.79823</v>
       </c>
       <c r="D138" t="n">
-        <v>1.91775</v>
+        <v>1.92149</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.3011</v>
+        <v>1.30613</v>
       </c>
       <c r="C139" t="n">
-        <v>1.85848</v>
+        <v>1.78846</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89913</v>
+        <v>1.90053</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29225</v>
+        <v>1.29879</v>
       </c>
       <c r="C140" t="n">
-        <v>1.84705</v>
+        <v>1.77492</v>
       </c>
       <c r="D140" t="n">
-        <v>1.88003</v>
+        <v>1.88433</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28416</v>
+        <v>1.2902</v>
       </c>
       <c r="C141" t="n">
-        <v>1.83445</v>
+        <v>1.75926</v>
       </c>
       <c r="D141" t="n">
-        <v>1.85954</v>
+        <v>1.87064</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27706</v>
+        <v>1.28457</v>
       </c>
       <c r="C142" t="n">
-        <v>1.81419</v>
+        <v>1.74871</v>
       </c>
       <c r="D142" t="n">
-        <v>1.84318</v>
+        <v>1.85146</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26966</v>
+        <v>1.27901</v>
       </c>
       <c r="C143" t="n">
-        <v>1.80095</v>
+        <v>1.73826</v>
       </c>
       <c r="D143" t="n">
-        <v>1.82848</v>
+        <v>1.83589</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485325</v>
+        <v>0.485005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6993740000000001</v>
+        <v>0.698729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.732024</v>
+        <v>0.732896</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.472503</v>
+        <v>0.4728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6792049999999999</v>
+        <v>0.679777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.712622</v>
+        <v>0.713334</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.461632</v>
+        <v>0.461951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.662201</v>
+        <v>0.662193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.694752</v>
+        <v>0.695987</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.452541</v>
+        <v>0.452985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.646293</v>
+        <v>0.646386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67863</v>
+        <v>0.679173</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.445214</v>
+        <v>0.445529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.631116</v>
+        <v>0.6313260000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.663017</v>
+        <v>0.663888</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.438833</v>
+        <v>0.43932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.618586</v>
+        <v>0.618719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.650463</v>
+        <v>0.651531</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436094</v>
+        <v>0.436675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.608885</v>
+        <v>0.608527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.639641</v>
+        <v>0.64063</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437033</v>
+        <v>0.437563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.902315</v>
+        <v>0.902349</v>
       </c>
       <c r="D9" t="n">
-        <v>0.94325</v>
+        <v>0.9441659999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.573142</v>
+        <v>0.573173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.825508</v>
+        <v>0.825474</v>
       </c>
       <c r="D10" t="n">
-        <v>0.913762</v>
+        <v>0.914621</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555592</v>
+        <v>0.556435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7997610000000001</v>
+        <v>0.799966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8850749999999999</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539153</v>
+        <v>0.539729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7757309999999999</v>
+        <v>0.775593</v>
       </c>
       <c r="D12" t="n">
-        <v>0.858078</v>
+        <v>0.858893</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523569</v>
+        <v>0.523952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.752948</v>
+        <v>0.753204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.832195</v>
+        <v>0.832924</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.509211</v>
+        <v>0.5096039999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.73151</v>
+        <v>0.731231</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8078610000000001</v>
+        <v>0.808885</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.495068</v>
+        <v>0.495871</v>
       </c>
       <c r="C15" t="n">
-        <v>0.71078</v>
+        <v>0.710896</v>
       </c>
       <c r="D15" t="n">
-        <v>0.784932</v>
+        <v>0.786057</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.482036</v>
+        <v>0.4827</v>
       </c>
       <c r="C16" t="n">
-        <v>0.691156</v>
+        <v>0.691443</v>
       </c>
       <c r="D16" t="n">
-        <v>0.763265</v>
+        <v>0.764602</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.469837</v>
+        <v>0.470692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.673121</v>
+        <v>0.67352</v>
       </c>
       <c r="D17" t="n">
-        <v>0.743347</v>
+        <v>0.744644</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45924</v>
+        <v>0.460067</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6564140000000001</v>
+        <v>0.65647</v>
       </c>
       <c r="D18" t="n">
-        <v>0.724334</v>
+        <v>0.725557</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.44926</v>
+        <v>0.450109</v>
       </c>
       <c r="C19" t="n">
-        <v>0.640807</v>
+        <v>0.640848</v>
       </c>
       <c r="D19" t="n">
-        <v>0.707645</v>
+        <v>0.7082889999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.441785</v>
+        <v>0.442545</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6264150000000001</v>
+        <v>0.626346</v>
       </c>
       <c r="D20" t="n">
-        <v>0.692053</v>
+        <v>0.693062</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.435938</v>
+        <v>0.436559</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6137899999999999</v>
+        <v>0.613815</v>
       </c>
       <c r="D21" t="n">
-        <v>0.678321</v>
+        <v>0.679463</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.432397</v>
+        <v>0.433158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.605171</v>
+        <v>0.605118</v>
       </c>
       <c r="D22" t="n">
-        <v>0.66797</v>
+        <v>0.669396</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431922</v>
+        <v>0.432765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.904215</v>
+        <v>0.904637</v>
       </c>
       <c r="D23" t="n">
-        <v>0.984102</v>
+        <v>0.98505</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.619436</v>
+        <v>0.620288</v>
       </c>
       <c r="C24" t="n">
-        <v>0.875748</v>
+        <v>0.876091</v>
       </c>
       <c r="D24" t="n">
-        <v>0.953056</v>
+        <v>0.953959</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.600387</v>
+        <v>0.602029</v>
       </c>
       <c r="C25" t="n">
-        <v>0.848324</v>
+        <v>0.848985</v>
       </c>
       <c r="D25" t="n">
-        <v>0.922936</v>
+        <v>0.924616</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.582817</v>
+        <v>0.583491</v>
       </c>
       <c r="C26" t="n">
-        <v>0.82228</v>
+        <v>0.8230499999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.89422</v>
+        <v>0.896251</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564352</v>
+        <v>0.566092</v>
       </c>
       <c r="C27" t="n">
-        <v>0.79762</v>
+        <v>0.798161</v>
       </c>
       <c r="D27" t="n">
-        <v>0.867221</v>
+        <v>0.8691719999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.547551</v>
+        <v>0.549565</v>
       </c>
       <c r="C28" t="n">
-        <v>0.774078</v>
+        <v>0.774464</v>
       </c>
       <c r="D28" t="n">
-        <v>0.842612</v>
+        <v>0.843928</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532954</v>
+        <v>0.534006</v>
       </c>
       <c r="C29" t="n">
-        <v>0.751946</v>
+        <v>0.752258</v>
       </c>
       <c r="D29" t="n">
-        <v>0.817812</v>
+        <v>0.819407</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.519304</v>
+        <v>0.519307</v>
       </c>
       <c r="C30" t="n">
-        <v>0.730694</v>
+        <v>0.731148</v>
       </c>
       <c r="D30" t="n">
-        <v>0.794994</v>
+        <v>0.7967070000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504398</v>
+        <v>0.506155</v>
       </c>
       <c r="C31" t="n">
-        <v>0.710409</v>
+        <v>0.711334</v>
       </c>
       <c r="D31" t="n">
-        <v>0.773392</v>
+        <v>0.775356</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493469</v>
+        <v>0.493611</v>
       </c>
       <c r="C32" t="n">
-        <v>0.692594</v>
+        <v>0.692734</v>
       </c>
       <c r="D32" t="n">
-        <v>0.754159</v>
+        <v>0.755057</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.482267</v>
+        <v>0.482321</v>
       </c>
       <c r="C33" t="n">
-        <v>0.674629</v>
+        <v>0.6753980000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.735551</v>
+        <v>0.736359</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.472221</v>
+        <v>0.472793</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6589660000000001</v>
+        <v>0.659873</v>
       </c>
       <c r="D34" t="n">
-        <v>0.717575</v>
+        <v>0.719285</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.46353</v>
+        <v>0.465288</v>
       </c>
       <c r="C35" t="n">
-        <v>0.645868</v>
+        <v>0.646267</v>
       </c>
       <c r="D35" t="n">
-        <v>0.704707</v>
+        <v>0.704641</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459479</v>
+        <v>0.459746</v>
       </c>
       <c r="C36" t="n">
-        <v>0.634315</v>
+        <v>0.634388</v>
       </c>
       <c r="D36" t="n">
-        <v>0.691801</v>
+        <v>0.691647</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456771</v>
+        <v>0.456918</v>
       </c>
       <c r="C37" t="n">
-        <v>0.936721</v>
+        <v>0.937021</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0189</v>
+        <v>1.01961</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648415</v>
+        <v>0.649015</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9070859999999999</v>
+        <v>0.9081630000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.987051</v>
+        <v>0.987707</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.629811</v>
+        <v>0.630015</v>
       </c>
       <c r="C39" t="n">
-        <v>0.878668</v>
+        <v>0.879872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9558489999999999</v>
+        <v>0.957114</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610818</v>
+        <v>0.6109059999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.852367</v>
+        <v>0.852986</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927593</v>
+        <v>0.927762</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5928</v>
+        <v>0.592809</v>
       </c>
       <c r="C41" t="n">
-        <v>0.827291</v>
+        <v>0.826989</v>
       </c>
       <c r="D41" t="n">
-        <v>0.90002</v>
+        <v>0.8998969999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5755940000000001</v>
+        <v>0.575721</v>
       </c>
       <c r="C42" t="n">
-        <v>0.802877</v>
+        <v>0.802754</v>
       </c>
       <c r="D42" t="n">
-        <v>0.872285</v>
+        <v>0.873269</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559429</v>
+        <v>0.559433</v>
       </c>
       <c r="C43" t="n">
-        <v>0.779172</v>
+        <v>0.779989</v>
       </c>
       <c r="D43" t="n">
-        <v>0.846865</v>
+        <v>0.848268</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5437920000000001</v>
+        <v>0.544428</v>
       </c>
       <c r="C44" t="n">
-        <v>0.757089</v>
+        <v>0.75773</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8236599999999999</v>
+        <v>0.824676</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530054</v>
+        <v>0.530788</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7368130000000001</v>
+        <v>0.737579</v>
       </c>
       <c r="D45" t="n">
-        <v>0.801134</v>
+        <v>0.802162</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.517494</v>
+        <v>0.517943</v>
       </c>
       <c r="C46" t="n">
-        <v>0.717672</v>
+        <v>0.718279</v>
       </c>
       <c r="D46" t="n">
-        <v>0.780016</v>
+        <v>0.780841</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.505516</v>
+        <v>0.506205</v>
       </c>
       <c r="C47" t="n">
-        <v>0.699927</v>
+        <v>0.700489</v>
       </c>
       <c r="D47" t="n">
-        <v>0.76054</v>
+        <v>0.761035</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.49565</v>
+        <v>0.495863</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6833399999999999</v>
+        <v>0.6839769999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.742316</v>
+        <v>0.742487</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.486968</v>
+        <v>0.487297</v>
       </c>
       <c r="C49" t="n">
-        <v>0.669168</v>
+        <v>0.669108</v>
       </c>
       <c r="D49" t="n">
-        <v>0.725929</v>
+        <v>0.726293</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480532</v>
+        <v>0.480263</v>
       </c>
       <c r="C50" t="n">
-        <v>0.65608</v>
+        <v>0.65612</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7118139999999999</v>
+        <v>0.711758</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476718</v>
+        <v>0.476657</v>
       </c>
       <c r="C51" t="n">
-        <v>0.961488</v>
+        <v>0.962255</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06075</v>
+        <v>1.06123</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475897</v>
+        <v>0.475862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9322859999999999</v>
+        <v>0.933764</v>
       </c>
       <c r="D52" t="n">
-        <v>1.02876</v>
+        <v>1.02811</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.652791</v>
+        <v>0.653517</v>
       </c>
       <c r="C53" t="n">
-        <v>0.904253</v>
+        <v>0.904704</v>
       </c>
       <c r="D53" t="n">
-        <v>0.996758</v>
+        <v>0.996887</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.634672</v>
+        <v>0.634456</v>
       </c>
       <c r="C54" t="n">
-        <v>0.880072</v>
+        <v>0.877202</v>
       </c>
       <c r="D54" t="n">
-        <v>0.968762</v>
+        <v>0.967397</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.618221</v>
+        <v>0.617092</v>
       </c>
       <c r="C55" t="n">
-        <v>0.853941</v>
+        <v>0.853867</v>
       </c>
       <c r="D55" t="n">
-        <v>0.940527</v>
+        <v>0.93913</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.601194</v>
+        <v>0.599779</v>
       </c>
       <c r="C56" t="n">
-        <v>0.83017</v>
+        <v>0.828659</v>
       </c>
       <c r="D56" t="n">
-        <v>0.913828</v>
+        <v>0.91167</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.585412</v>
+        <v>0.583686</v>
       </c>
       <c r="C57" t="n">
-        <v>0.806216</v>
+        <v>0.805574</v>
       </c>
       <c r="D57" t="n">
-        <v>0.88818</v>
+        <v>0.885796</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.570729</v>
+        <v>0.568939</v>
       </c>
       <c r="C58" t="n">
-        <v>0.785348</v>
+        <v>0.783751</v>
       </c>
       <c r="D58" t="n">
-        <v>0.863129</v>
+        <v>0.861537</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556145</v>
+        <v>0.55484</v>
       </c>
       <c r="C59" t="n">
-        <v>0.763688</v>
+        <v>0.759707</v>
       </c>
       <c r="D59" t="n">
-        <v>0.839827</v>
+        <v>0.839022</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.542604</v>
+        <v>0.54199</v>
       </c>
       <c r="C60" t="n">
-        <v>0.744552</v>
+        <v>0.740564</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8178299999999999</v>
+        <v>0.817462</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.530925</v>
+        <v>0.5309</v>
       </c>
       <c r="C61" t="n">
-        <v>0.725821</v>
+        <v>0.724046</v>
       </c>
       <c r="D61" t="n">
-        <v>0.796732</v>
+        <v>0.795971</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5199510000000001</v>
+        <v>0.519983</v>
       </c>
       <c r="C62" t="n">
-        <v>0.708752</v>
+        <v>0.706933</v>
       </c>
       <c r="D62" t="n">
-        <v>0.778021</v>
+        <v>0.7770049999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.511029</v>
+        <v>0.512132</v>
       </c>
       <c r="C63" t="n">
-        <v>0.691711</v>
+        <v>0.692839</v>
       </c>
       <c r="D63" t="n">
-        <v>0.760421</v>
+        <v>0.760929</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5041</v>
+        <v>0.5044149999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.678534</v>
+        <v>0.675957</v>
       </c>
       <c r="D64" t="n">
-        <v>0.744902</v>
+        <v>0.744922</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4998</v>
+        <v>0.500041</v>
       </c>
       <c r="C65" t="n">
-        <v>0.670041</v>
+        <v>0.665443</v>
       </c>
       <c r="D65" t="n">
-        <v>0.732996</v>
+        <v>0.733262</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.49835</v>
+        <v>0.498638</v>
       </c>
       <c r="C66" t="n">
-        <v>0.977724</v>
+        <v>0.980618</v>
       </c>
       <c r="D66" t="n">
-        <v>1.08905</v>
+        <v>1.08906</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.700488</v>
+        <v>0.702464</v>
       </c>
       <c r="C67" t="n">
-        <v>0.949599</v>
+        <v>0.9519570000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>1.05774</v>
+        <v>1.06003</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.683069</v>
+        <v>0.684744</v>
       </c>
       <c r="C68" t="n">
-        <v>0.923793</v>
+        <v>0.925902</v>
       </c>
       <c r="D68" t="n">
-        <v>1.02999</v>
+        <v>1.03009</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.666605</v>
+        <v>0.670694</v>
       </c>
       <c r="C69" t="n">
-        <v>0.897159</v>
+        <v>0.902298</v>
       </c>
       <c r="D69" t="n">
-        <v>0.998293</v>
+        <v>1.00286</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.650396</v>
+        <v>0.6542249999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.873101</v>
+        <v>0.877018</v>
       </c>
       <c r="D70" t="n">
-        <v>0.971909</v>
+        <v>0.973656</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.634697</v>
+        <v>0.638651</v>
       </c>
       <c r="C71" t="n">
-        <v>0.850863</v>
+        <v>0.852471</v>
       </c>
       <c r="D71" t="n">
-        <v>0.947288</v>
+        <v>0.947427</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.622362</v>
+        <v>0.625074</v>
       </c>
       <c r="C72" t="n">
-        <v>0.826537</v>
+        <v>0.83082</v>
       </c>
       <c r="D72" t="n">
-        <v>0.920829</v>
+        <v>0.9220120000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.608054</v>
+        <v>0.612136</v>
       </c>
       <c r="C73" t="n">
-        <v>0.804948</v>
+        <v>0.809029</v>
       </c>
       <c r="D73" t="n">
-        <v>0.895682</v>
+        <v>0.895782</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.594692</v>
+        <v>0.59843</v>
       </c>
       <c r="C74" t="n">
-        <v>0.781952</v>
+        <v>0.787691</v>
       </c>
       <c r="D74" t="n">
-        <v>0.872318</v>
+        <v>0.873299</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.584338</v>
+        <v>0.5902579999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.765999</v>
+        <v>0.770066</v>
       </c>
       <c r="D75" t="n">
-        <v>0.852456</v>
+        <v>0.855876</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.571963</v>
+        <v>0.579967</v>
       </c>
       <c r="C76" t="n">
-        <v>0.748071</v>
+        <v>0.752506</v>
       </c>
       <c r="D76" t="n">
-        <v>0.832287</v>
+        <v>0.833772</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.564868</v>
+        <v>0.5665210000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.73439</v>
+        <v>0.735882</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8156369999999999</v>
+        <v>0.8148570000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.557662</v>
+        <v>0.560788</v>
       </c>
       <c r="C78" t="n">
-        <v>0.718483</v>
+        <v>0.721109</v>
       </c>
       <c r="D78" t="n">
-        <v>0.798697</v>
+        <v>0.800602</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.552087</v>
+        <v>0.555327</v>
       </c>
       <c r="C79" t="n">
-        <v>0.709938</v>
+        <v>0.710125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.784141</v>
+        <v>0.787196</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5489810000000001</v>
+        <v>0.551919</v>
       </c>
       <c r="C80" t="n">
-        <v>1.05446</v>
+        <v>1.0608</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18164</v>
+        <v>1.1868</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.77952</v>
+        <v>0.784578</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03995</v>
+        <v>1.04527</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16124</v>
+        <v>1.16706</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7734760000000001</v>
+        <v>0.780027</v>
       </c>
       <c r="C82" t="n">
-        <v>1.02381</v>
+        <v>1.02932</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14142</v>
+        <v>1.14492</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.766078</v>
+        <v>0.7705379999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00165</v>
+        <v>1.00746</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11662</v>
+        <v>1.1189</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.756076</v>
+        <v>0.76157</v>
       </c>
       <c r="C84" t="n">
-        <v>0.983081</v>
+        <v>0.987488</v>
       </c>
       <c r="D84" t="n">
-        <v>1.0918</v>
+        <v>1.09368</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.74564</v>
+        <v>0.751246</v>
       </c>
       <c r="C85" t="n">
-        <v>0.960568</v>
+        <v>0.962823</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06561</v>
+        <v>1.06738</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.735849</v>
+        <v>0.7409249999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.934989</v>
+        <v>0.941057</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04125</v>
+        <v>1.04191</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.725647</v>
+        <v>0.730005</v>
       </c>
       <c r="C87" t="n">
-        <v>0.918652</v>
+        <v>0.919781</v>
       </c>
       <c r="D87" t="n">
-        <v>1.00888</v>
+        <v>1.01667</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.715539</v>
+        <v>0.720224</v>
       </c>
       <c r="C88" t="n">
-        <v>0.897499</v>
+        <v>0.897455</v>
       </c>
       <c r="D88" t="n">
-        <v>0.983907</v>
+        <v>0.991276</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.704943</v>
+        <v>0.711127</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8764</v>
+        <v>0.878822</v>
       </c>
       <c r="D89" t="n">
-        <v>0.960456</v>
+        <v>0.961564</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.695666</v>
+        <v>0.702176</v>
       </c>
       <c r="C90" t="n">
-        <v>0.847807</v>
+        <v>0.855822</v>
       </c>
       <c r="D90" t="n">
-        <v>0.936929</v>
+        <v>0.948508</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.688361</v>
+        <v>0.6940499999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.830306</v>
+        <v>0.8409450000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.923426</v>
+        <v>0.928222</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.679832</v>
+        <v>0.685242</v>
       </c>
       <c r="C92" t="n">
-        <v>0.821184</v>
+        <v>0.823662</v>
       </c>
       <c r="D92" t="n">
-        <v>0.903865</v>
+        <v>0.9066340000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.674011</v>
+        <v>0.679466</v>
       </c>
       <c r="C93" t="n">
-        <v>0.799811</v>
+        <v>0.803744</v>
       </c>
       <c r="D93" t="n">
-        <v>0.886497</v>
+        <v>0.892957</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.669909</v>
+        <v>0.676025</v>
       </c>
       <c r="C94" t="n">
-        <v>1.16043</v>
+        <v>1.16464</v>
       </c>
       <c r="D94" t="n">
-        <v>1.29017</v>
+        <v>1.29352</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.902303</v>
+        <v>0.907979</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14783</v>
+        <v>1.16</v>
       </c>
       <c r="D95" t="n">
-        <v>1.27239</v>
+        <v>1.28144</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.900224</v>
+        <v>0.905307</v>
       </c>
       <c r="C96" t="n">
-        <v>1.1332</v>
+        <v>1.14636</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25382</v>
+        <v>1.25887</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.890182</v>
+        <v>0.8961479999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.11608</v>
+        <v>1.12473</v>
       </c>
       <c r="D97" t="n">
-        <v>1.23762</v>
+        <v>1.24422</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.88054</v>
+        <v>0.887121</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1051</v>
+        <v>1.10852</v>
       </c>
       <c r="D98" t="n">
-        <v>1.20894</v>
+        <v>1.21881</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.869839</v>
+        <v>0.876021</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0852</v>
+        <v>1.09471</v>
       </c>
       <c r="D99" t="n">
-        <v>1.18908</v>
+        <v>1.19376</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.860375</v>
+        <v>0.865235</v>
       </c>
       <c r="C100" t="n">
-        <v>1.07299</v>
+        <v>1.06928</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17067</v>
+        <v>1.16896</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.850226</v>
+        <v>0.855764</v>
       </c>
       <c r="C101" t="n">
-        <v>1.05617</v>
+        <v>1.05193</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15358</v>
+        <v>1.14821</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.841577</v>
+        <v>0.847052</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03719</v>
+        <v>1.03629</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12843</v>
+        <v>1.13055</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.833512</v>
+        <v>0.838249</v>
       </c>
       <c r="C103" t="n">
-        <v>1.01771</v>
+        <v>1.02156</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11237</v>
+        <v>1.1151</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.826446</v>
+        <v>0.830384</v>
       </c>
       <c r="C104" t="n">
-        <v>1.00956</v>
+        <v>1.0119</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09012</v>
+        <v>1.09255</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.821065</v>
+        <v>0.823707</v>
       </c>
       <c r="C105" t="n">
-        <v>0.997861</v>
+        <v>0.996766</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07951</v>
+        <v>1.08046</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.815706</v>
+        <v>0.8193049999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.978434</v>
+        <v>0.984982</v>
       </c>
       <c r="D106" t="n">
-        <v>1.05545</v>
+        <v>1.06451</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.811205</v>
+        <v>0.814999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.972139</v>
+        <v>0.978307</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04803</v>
+        <v>1.05201</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.810068</v>
+        <v>0.813581</v>
       </c>
       <c r="C108" t="n">
-        <v>1.31749</v>
+        <v>1.31994</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44901</v>
+        <v>1.44992</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8124440000000001</v>
+        <v>0.813062</v>
       </c>
       <c r="C109" t="n">
-        <v>1.32046</v>
+        <v>1.32279</v>
       </c>
       <c r="D109" t="n">
-        <v>1.44698</v>
+        <v>1.44399</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04209</v>
+        <v>1.04394</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30986</v>
+        <v>1.30925</v>
       </c>
       <c r="D110" t="n">
-        <v>1.42257</v>
+        <v>1.42318</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03024</v>
+        <v>1.03228</v>
       </c>
       <c r="C111" t="n">
-        <v>1.29498</v>
+        <v>1.30198</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40779</v>
+        <v>1.41692</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01779</v>
+        <v>1.02007</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29073</v>
+        <v>1.29346</v>
       </c>
       <c r="D112" t="n">
-        <v>1.40263</v>
+        <v>1.40124</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00666</v>
+        <v>1.00798</v>
       </c>
       <c r="C113" t="n">
-        <v>1.27987</v>
+        <v>1.27655</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3794</v>
+        <v>1.38087</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.995398</v>
+        <v>0.99796</v>
       </c>
       <c r="C114" t="n">
-        <v>1.27497</v>
+        <v>1.26912</v>
       </c>
       <c r="D114" t="n">
-        <v>1.36535</v>
+        <v>1.3697</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9848479999999999</v>
+        <v>0.986799</v>
       </c>
       <c r="C115" t="n">
-        <v>1.2659</v>
+        <v>1.26597</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35985</v>
+        <v>1.35583</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.975561</v>
+        <v>0.976969</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25783</v>
+        <v>1.25597</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3484</v>
+        <v>1.34595</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.967419</v>
+        <v>0.968649</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2506</v>
+        <v>1.24533</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33878</v>
+        <v>1.33485</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.959438</v>
+        <v>0.96088</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24269</v>
+        <v>1.24465</v>
       </c>
       <c r="D118" t="n">
-        <v>1.32826</v>
+        <v>1.32626</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.952469</v>
+        <v>0.953518</v>
       </c>
       <c r="C119" t="n">
-        <v>1.23607</v>
+        <v>1.2372</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31403</v>
+        <v>1.31616</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.946096</v>
+        <v>0.94792</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22982</v>
+        <v>1.22211</v>
       </c>
       <c r="D120" t="n">
-        <v>1.29645</v>
+        <v>1.30293</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.942503</v>
+        <v>0.944319</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22384</v>
+        <v>1.22152</v>
       </c>
       <c r="D121" t="n">
-        <v>1.29803</v>
+        <v>1.2984</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.940649</v>
+        <v>0.940284</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21678</v>
+        <v>1.21549</v>
       </c>
       <c r="D122" t="n">
-        <v>1.28982</v>
+        <v>1.28385</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.941519</v>
+        <v>0.941269</v>
       </c>
       <c r="C123" t="n">
-        <v>1.55656</v>
+        <v>1.55582</v>
       </c>
       <c r="D123" t="n">
-        <v>1.67538</v>
+        <v>1.6787</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16614</v>
+        <v>1.16662</v>
       </c>
       <c r="C124" t="n">
-        <v>1.55476</v>
+        <v>1.54584</v>
       </c>
       <c r="D124" t="n">
-        <v>1.67068</v>
+        <v>1.66964</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15493</v>
+        <v>1.15611</v>
       </c>
       <c r="C125" t="n">
-        <v>1.54523</v>
+        <v>1.54604</v>
       </c>
       <c r="D125" t="n">
-        <v>1.65717</v>
+        <v>1.65243</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14426</v>
+        <v>1.14503</v>
       </c>
       <c r="C126" t="n">
-        <v>1.52659</v>
+        <v>1.53009</v>
       </c>
       <c r="D126" t="n">
-        <v>1.63804</v>
+        <v>1.6351</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13428</v>
+        <v>1.13451</v>
       </c>
       <c r="C127" t="n">
-        <v>1.52229</v>
+        <v>1.53028</v>
       </c>
       <c r="D127" t="n">
-        <v>1.62896</v>
+        <v>1.62677</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12557</v>
+        <v>1.12603</v>
       </c>
       <c r="C128" t="n">
-        <v>1.51489</v>
+        <v>1.51505</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61411</v>
+        <v>1.61145</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11681</v>
+        <v>1.11743</v>
       </c>
       <c r="C129" t="n">
-        <v>1.51126</v>
+        <v>1.50433</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60102</v>
+        <v>1.59897</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11157</v>
+        <v>1.10974</v>
       </c>
       <c r="C130" t="n">
-        <v>1.50231</v>
+        <v>1.50449</v>
       </c>
       <c r="D130" t="n">
-        <v>1.59457</v>
+        <v>1.58858</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10477</v>
+        <v>1.10239</v>
       </c>
       <c r="C131" t="n">
-        <v>1.50048</v>
+        <v>1.49781</v>
       </c>
       <c r="D131" t="n">
-        <v>1.58193</v>
+        <v>1.57686</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09951</v>
+        <v>1.09692</v>
       </c>
       <c r="C132" t="n">
-        <v>1.49333</v>
+        <v>1.49167</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57657</v>
+        <v>1.57635</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09349</v>
+        <v>1.09165</v>
       </c>
       <c r="C133" t="n">
-        <v>1.48885</v>
+        <v>1.48623</v>
       </c>
       <c r="D133" t="n">
-        <v>1.56978</v>
+        <v>1.5615</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.09144</v>
+        <v>1.08761</v>
       </c>
       <c r="C134" t="n">
-        <v>1.48919</v>
+        <v>1.47715</v>
       </c>
       <c r="D134" t="n">
-        <v>1.56384</v>
+        <v>1.55067</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08911</v>
+        <v>1.08645</v>
       </c>
       <c r="C135" t="n">
-        <v>1.48144</v>
+        <v>1.47659</v>
       </c>
       <c r="D135" t="n">
-        <v>1.55567</v>
+        <v>1.54294</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0881</v>
+        <v>1.08568</v>
       </c>
       <c r="C136" t="n">
-        <v>1.47359</v>
+        <v>1.47101</v>
       </c>
       <c r="D136" t="n">
-        <v>1.54828</v>
+        <v>1.54062</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08975</v>
+        <v>1.08697</v>
       </c>
       <c r="C137" t="n">
-        <v>1.82046</v>
+        <v>1.8166</v>
       </c>
       <c r="D137" t="n">
-        <v>1.94302</v>
+        <v>1.93662</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31551</v>
+        <v>1.3135</v>
       </c>
       <c r="C138" t="n">
-        <v>1.79823</v>
+        <v>1.79851</v>
       </c>
       <c r="D138" t="n">
-        <v>1.92149</v>
+        <v>1.91418</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30613</v>
+        <v>1.30448</v>
       </c>
       <c r="C139" t="n">
-        <v>1.78846</v>
+        <v>1.78585</v>
       </c>
       <c r="D139" t="n">
-        <v>1.90053</v>
+        <v>1.89226</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29879</v>
+        <v>1.29721</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77492</v>
+        <v>1.77158</v>
       </c>
       <c r="D140" t="n">
-        <v>1.88433</v>
+        <v>1.8738</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.2902</v>
+        <v>1.28946</v>
       </c>
       <c r="C141" t="n">
-        <v>1.75926</v>
+        <v>1.7572</v>
       </c>
       <c r="D141" t="n">
-        <v>1.87064</v>
+        <v>1.85974</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.28457</v>
+        <v>1.28227</v>
       </c>
       <c r="C142" t="n">
-        <v>1.74871</v>
+        <v>1.74644</v>
       </c>
       <c r="D142" t="n">
-        <v>1.85146</v>
+        <v>1.84238</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.27901</v>
+        <v>1.27633</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73826</v>
+        <v>1.73056</v>
       </c>
       <c r="D143" t="n">
-        <v>1.83589</v>
+        <v>1.82803</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485005</v>
+        <v>0.48769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.698729</v>
+        <v>0.712857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.732896</v>
+        <v>0.777697</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4728</v>
+        <v>0.407468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.679777</v>
+        <v>0.63475</v>
       </c>
       <c r="D3" t="n">
-        <v>0.713334</v>
+        <v>0.769214</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.461951</v>
+        <v>0.402819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.662193</v>
+        <v>0.620461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.695987</v>
+        <v>0.762891</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.452985</v>
+        <v>0.394806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.646386</v>
+        <v>0.607469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.679173</v>
+        <v>0.757806</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.445529</v>
+        <v>0.39332</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6313260000000001</v>
+        <v>0.5951650000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.663888</v>
+        <v>0.752804</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.43932</v>
+        <v>0.391115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.618719</v>
+        <v>0.584486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.651531</v>
+        <v>0.838361</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436675</v>
+        <v>0.387725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.608527</v>
+        <v>0.577325</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64063</v>
+        <v>0.822947</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437563</v>
+        <v>0.387054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.902349</v>
+        <v>0.863868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9441659999999999</v>
+        <v>0.808015</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.573173</v>
+        <v>0.569852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.825474</v>
+        <v>0.837932</v>
       </c>
       <c r="D10" t="n">
-        <v>0.914621</v>
+        <v>0.798046</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556435</v>
+        <v>0.554958</v>
       </c>
       <c r="C11" t="n">
-        <v>0.799966</v>
+        <v>0.812419</v>
       </c>
       <c r="D11" t="n">
-        <v>0.886</v>
+        <v>0.786682</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539729</v>
+        <v>0.535983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.775593</v>
+        <v>0.788702</v>
       </c>
       <c r="D12" t="n">
-        <v>0.858893</v>
+        <v>0.773053</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523952</v>
+        <v>0.525655</v>
       </c>
       <c r="C13" t="n">
-        <v>0.753204</v>
+        <v>0.765991</v>
       </c>
       <c r="D13" t="n">
-        <v>0.832924</v>
+        <v>0.760352</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5096039999999999</v>
+        <v>0.5081599999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.731231</v>
+        <v>0.743876</v>
       </c>
       <c r="D14" t="n">
-        <v>0.808885</v>
+        <v>0.753436</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.495871</v>
+        <v>0.4959</v>
       </c>
       <c r="C15" t="n">
-        <v>0.710896</v>
+        <v>0.723917</v>
       </c>
       <c r="D15" t="n">
-        <v>0.786057</v>
+        <v>0.742706</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4827</v>
+        <v>0.481375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.691443</v>
+        <v>0.704379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.764602</v>
+        <v>0.735859</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470692</v>
+        <v>0.470561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.67352</v>
+        <v>0.686742</v>
       </c>
       <c r="D17" t="n">
-        <v>0.744644</v>
+        <v>0.726967</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460067</v>
+        <v>0.459683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.65647</v>
+        <v>0.670133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.725557</v>
+        <v>0.718844</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450109</v>
+        <v>0.453348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.640848</v>
+        <v>0.654069</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7082889999999999</v>
+        <v>0.712109</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442545</v>
+        <v>0.442836</v>
       </c>
       <c r="C20" t="n">
-        <v>0.626346</v>
+        <v>0.639724</v>
       </c>
       <c r="D20" t="n">
-        <v>0.693062</v>
+        <v>0.704592</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436559</v>
+        <v>0.435034</v>
       </c>
       <c r="C21" t="n">
-        <v>0.613815</v>
+        <v>0.627574</v>
       </c>
       <c r="D21" t="n">
-        <v>0.679463</v>
+        <v>0.915458</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.433158</v>
+        <v>0.433816</v>
       </c>
       <c r="C22" t="n">
-        <v>0.605118</v>
+        <v>0.618619</v>
       </c>
       <c r="D22" t="n">
-        <v>0.669396</v>
+        <v>0.898409</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432765</v>
+        <v>0.433308</v>
       </c>
       <c r="C23" t="n">
-        <v>0.904637</v>
+        <v>0.917713</v>
       </c>
       <c r="D23" t="n">
-        <v>0.98505</v>
+        <v>0.883451</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.620288</v>
+        <v>0.625071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.876091</v>
+        <v>0.889904</v>
       </c>
       <c r="D24" t="n">
-        <v>0.953959</v>
+        <v>0.868518</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.602029</v>
+        <v>0.606908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.848985</v>
+        <v>0.861814</v>
       </c>
       <c r="D25" t="n">
-        <v>0.924616</v>
+        <v>0.853416</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.583491</v>
+        <v>0.584114</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8230499999999999</v>
+        <v>0.835909</v>
       </c>
       <c r="D26" t="n">
-        <v>0.896251</v>
+        <v>0.840597</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.566092</v>
+        <v>0.568136</v>
       </c>
       <c r="C27" t="n">
-        <v>0.798161</v>
+        <v>0.811397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8691719999999999</v>
+        <v>0.826132</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549565</v>
+        <v>0.550307</v>
       </c>
       <c r="C28" t="n">
-        <v>0.774464</v>
+        <v>0.787947</v>
       </c>
       <c r="D28" t="n">
-        <v>0.843928</v>
+        <v>0.812559</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.534006</v>
+        <v>0.535927</v>
       </c>
       <c r="C29" t="n">
-        <v>0.752258</v>
+        <v>0.765404</v>
       </c>
       <c r="D29" t="n">
-        <v>0.819407</v>
+        <v>0.798836</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.519307</v>
+        <v>0.521439</v>
       </c>
       <c r="C30" t="n">
-        <v>0.731148</v>
+        <v>0.744408</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7967070000000001</v>
+        <v>0.790973</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506155</v>
+        <v>0.50617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.711334</v>
+        <v>0.723994</v>
       </c>
       <c r="D31" t="n">
-        <v>0.775356</v>
+        <v>0.7835</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493611</v>
+        <v>0.49504</v>
       </c>
       <c r="C32" t="n">
-        <v>0.692734</v>
+        <v>0.705812</v>
       </c>
       <c r="D32" t="n">
-        <v>0.755057</v>
+        <v>0.77996</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.482321</v>
+        <v>0.461687</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6753980000000001</v>
+        <v>0.666461</v>
       </c>
       <c r="D33" t="n">
-        <v>0.736359</v>
+        <v>0.771837</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.472793</v>
+        <v>0.473505</v>
       </c>
       <c r="C34" t="n">
-        <v>0.659873</v>
+        <v>0.652203</v>
       </c>
       <c r="D34" t="n">
-        <v>0.719285</v>
+        <v>0.765468</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.465288</v>
+        <v>0.46594</v>
       </c>
       <c r="C35" t="n">
-        <v>0.646267</v>
+        <v>0.659165</v>
       </c>
       <c r="D35" t="n">
-        <v>0.704641</v>
+        <v>0.993264</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459746</v>
+        <v>0.460101</v>
       </c>
       <c r="C36" t="n">
-        <v>0.634388</v>
+        <v>0.647706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.691647</v>
+        <v>0.972073</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456918</v>
+        <v>0.458326</v>
       </c>
       <c r="C37" t="n">
-        <v>0.937021</v>
+        <v>0.949303</v>
       </c>
       <c r="D37" t="n">
-        <v>1.01961</v>
+        <v>0.954686</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.649015</v>
+        <v>0.631142</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9081630000000001</v>
+        <v>0.9048659999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.987707</v>
+        <v>0.937306</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.630015</v>
+        <v>0.633193</v>
       </c>
       <c r="C39" t="n">
-        <v>0.879872</v>
+        <v>0.893866</v>
       </c>
       <c r="D39" t="n">
-        <v>0.957114</v>
+        <v>0.920825</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6109059999999999</v>
+        <v>0.594516</v>
       </c>
       <c r="C40" t="n">
-        <v>0.852986</v>
+        <v>0.851916</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927762</v>
+        <v>0.90405</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.592809</v>
+        <v>0.5792079999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.826989</v>
+        <v>0.826982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8998969999999999</v>
+        <v>0.892922</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.575721</v>
+        <v>0.561276</v>
       </c>
       <c r="C42" t="n">
-        <v>0.802754</v>
+        <v>0.803193</v>
       </c>
       <c r="D42" t="n">
-        <v>0.873269</v>
+        <v>0.878057</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559433</v>
+        <v>0.547959</v>
       </c>
       <c r="C43" t="n">
-        <v>0.779989</v>
+        <v>0.779932</v>
       </c>
       <c r="D43" t="n">
-        <v>0.848268</v>
+        <v>0.86991</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.544428</v>
+        <v>0.531522</v>
       </c>
       <c r="C44" t="n">
-        <v>0.75773</v>
+        <v>0.758669</v>
       </c>
       <c r="D44" t="n">
-        <v>0.824676</v>
+        <v>0.857993</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530788</v>
+        <v>0.517581</v>
       </c>
       <c r="C45" t="n">
-        <v>0.737579</v>
+        <v>0.739403</v>
       </c>
       <c r="D45" t="n">
-        <v>0.802162</v>
+        <v>0.851992</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.517943</v>
+        <v>0.506793</v>
       </c>
       <c r="C46" t="n">
-        <v>0.718279</v>
+        <v>0.720805</v>
       </c>
       <c r="D46" t="n">
-        <v>0.780841</v>
+        <v>0.844623</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.506205</v>
+        <v>0.495117</v>
       </c>
       <c r="C47" t="n">
-        <v>0.700489</v>
+        <v>0.703124</v>
       </c>
       <c r="D47" t="n">
-        <v>0.761035</v>
+        <v>0.835727</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.495863</v>
+        <v>0.464578</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6839769999999999</v>
+        <v>0.66648</v>
       </c>
       <c r="D48" t="n">
-        <v>0.742487</v>
+        <v>0.832785</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487297</v>
+        <v>0.454514</v>
       </c>
       <c r="C49" t="n">
-        <v>0.669108</v>
+        <v>0.653774</v>
       </c>
       <c r="D49" t="n">
-        <v>0.726293</v>
+        <v>0.826394</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480263</v>
+        <v>0.482003</v>
       </c>
       <c r="C50" t="n">
-        <v>0.65612</v>
+        <v>0.669928</v>
       </c>
       <c r="D50" t="n">
-        <v>0.711758</v>
+        <v>1.04436</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476657</v>
+        <v>0.448775</v>
       </c>
       <c r="C51" t="n">
-        <v>0.962255</v>
+        <v>0.953613</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06123</v>
+        <v>1.02305</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475862</v>
+        <v>0.449909</v>
       </c>
       <c r="C52" t="n">
-        <v>0.933764</v>
+        <v>0.921052</v>
       </c>
       <c r="D52" t="n">
-        <v>1.02811</v>
+        <v>1.00487</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.653517</v>
+        <v>0.647156</v>
       </c>
       <c r="C53" t="n">
-        <v>0.904704</v>
+        <v>0.910624</v>
       </c>
       <c r="D53" t="n">
-        <v>0.996887</v>
+        <v>0.987051</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.634456</v>
+        <v>0.631135</v>
       </c>
       <c r="C54" t="n">
-        <v>0.877202</v>
+        <v>0.882723</v>
       </c>
       <c r="D54" t="n">
-        <v>0.967397</v>
+        <v>0.968325</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.617092</v>
+        <v>0.612178</v>
       </c>
       <c r="C55" t="n">
-        <v>0.853867</v>
+        <v>0.857515</v>
       </c>
       <c r="D55" t="n">
-        <v>0.93913</v>
+        <v>0.952383</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.599779</v>
+        <v>0.5942539999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.828659</v>
+        <v>0.824213</v>
       </c>
       <c r="D56" t="n">
-        <v>0.91167</v>
+        <v>0.938751</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.583686</v>
+        <v>0.56755</v>
       </c>
       <c r="C57" t="n">
-        <v>0.805574</v>
+        <v>0.801673</v>
       </c>
       <c r="D57" t="n">
-        <v>0.885796</v>
+        <v>0.930097</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.568939</v>
+        <v>0.555104</v>
       </c>
       <c r="C58" t="n">
-        <v>0.783751</v>
+        <v>0.782475</v>
       </c>
       <c r="D58" t="n">
-        <v>0.861537</v>
+        <v>0.905467</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.55484</v>
+        <v>0.551184</v>
       </c>
       <c r="C59" t="n">
-        <v>0.759707</v>
+        <v>0.767007</v>
       </c>
       <c r="D59" t="n">
-        <v>0.839022</v>
+        <v>0.894072</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54199</v>
+        <v>0.527261</v>
       </c>
       <c r="C60" t="n">
-        <v>0.740564</v>
+        <v>0.745677</v>
       </c>
       <c r="D60" t="n">
-        <v>0.817462</v>
+        <v>0.884633</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5309</v>
+        <v>0.518621</v>
       </c>
       <c r="C61" t="n">
-        <v>0.724046</v>
+        <v>0.726307</v>
       </c>
       <c r="D61" t="n">
-        <v>0.795971</v>
+        <v>0.875958</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.519983</v>
+        <v>0.509132</v>
       </c>
       <c r="C62" t="n">
-        <v>0.706933</v>
+        <v>0.710512</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7770049999999999</v>
+        <v>0.868452</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.512132</v>
+        <v>0.497627</v>
       </c>
       <c r="C63" t="n">
-        <v>0.692839</v>
+        <v>0.693015</v>
       </c>
       <c r="D63" t="n">
-        <v>0.760929</v>
+        <v>0.861839</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.492865</v>
       </c>
       <c r="C64" t="n">
-        <v>0.675957</v>
+        <v>0.682947</v>
       </c>
       <c r="D64" t="n">
-        <v>0.744922</v>
+        <v>1.10376</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.500041</v>
+        <v>0.472033</v>
       </c>
       <c r="C65" t="n">
-        <v>0.665443</v>
+        <v>0.657176</v>
       </c>
       <c r="D65" t="n">
-        <v>0.733262</v>
+        <v>1.08339</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.498638</v>
+        <v>0.475173</v>
       </c>
       <c r="C66" t="n">
-        <v>0.980618</v>
+        <v>0.98444</v>
       </c>
       <c r="D66" t="n">
-        <v>1.08906</v>
+        <v>1.06046</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.702464</v>
+        <v>0.7064510000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9519570000000001</v>
+        <v>0.95607</v>
       </c>
       <c r="D67" t="n">
-        <v>1.06003</v>
+        <v>1.04227</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.684744</v>
+        <v>0.692476</v>
       </c>
       <c r="C68" t="n">
-        <v>0.925902</v>
+        <v>0.941341</v>
       </c>
       <c r="D68" t="n">
-        <v>1.03009</v>
+        <v>1.01746</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.670694</v>
+        <v>0.6749579999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.902298</v>
+        <v>0.914146</v>
       </c>
       <c r="D69" t="n">
-        <v>1.00286</v>
+        <v>1.00427</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6542249999999999</v>
+        <v>0.668362</v>
       </c>
       <c r="C70" t="n">
-        <v>0.877018</v>
+        <v>0.882545</v>
       </c>
       <c r="D70" t="n">
-        <v>0.973656</v>
+        <v>0.9906740000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.638651</v>
+        <v>0.651111</v>
       </c>
       <c r="C71" t="n">
-        <v>0.852471</v>
+        <v>0.858968</v>
       </c>
       <c r="D71" t="n">
-        <v>0.947427</v>
+        <v>0.984777</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.625074</v>
+        <v>0.6296580000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.83082</v>
+        <v>0.836445</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9220120000000001</v>
+        <v>0.975853</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.612136</v>
+        <v>0.613161</v>
       </c>
       <c r="C73" t="n">
-        <v>0.809029</v>
+        <v>0.817201</v>
       </c>
       <c r="D73" t="n">
-        <v>0.895782</v>
+        <v>0.948905</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.59843</v>
+        <v>0.609758</v>
       </c>
       <c r="C74" t="n">
-        <v>0.787691</v>
+        <v>0.800149</v>
       </c>
       <c r="D74" t="n">
-        <v>0.873299</v>
+        <v>0.94293</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5902579999999999</v>
+        <v>0.592706</v>
       </c>
       <c r="C75" t="n">
-        <v>0.770066</v>
+        <v>0.775686</v>
       </c>
       <c r="D75" t="n">
-        <v>0.855876</v>
+        <v>0.936582</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.579967</v>
+        <v>0.576204</v>
       </c>
       <c r="C76" t="n">
-        <v>0.752506</v>
+        <v>0.75959</v>
       </c>
       <c r="D76" t="n">
-        <v>0.833772</v>
+        <v>0.935274</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5665210000000001</v>
+        <v>0.574445</v>
       </c>
       <c r="C77" t="n">
-        <v>0.735882</v>
+        <v>0.74608</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8148570000000001</v>
+        <v>0.93321</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.560788</v>
+        <v>0.569093</v>
       </c>
       <c r="C78" t="n">
-        <v>0.721109</v>
+        <v>0.7330140000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.800602</v>
+        <v>1.35413</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.555327</v>
+        <v>0.560856</v>
       </c>
       <c r="C79" t="n">
-        <v>0.710125</v>
+        <v>0.698681</v>
       </c>
       <c r="D79" t="n">
-        <v>0.787196</v>
+        <v>1.33187</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.551919</v>
+        <v>0.551872</v>
       </c>
       <c r="C80" t="n">
-        <v>1.0608</v>
+        <v>1.07053</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1868</v>
+        <v>1.30976</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.784578</v>
+        <v>0.794404</v>
       </c>
       <c r="C81" t="n">
-        <v>1.04527</v>
+        <v>1.03795</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16706</v>
+        <v>1.2927</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.780027</v>
+        <v>0.780003</v>
       </c>
       <c r="C82" t="n">
-        <v>1.02932</v>
+        <v>1.02326</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14492</v>
+        <v>1.27079</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7705379999999999</v>
+        <v>0.775517</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00746</v>
+        <v>1.00464</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1189</v>
+        <v>1.25522</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.76157</v>
+        <v>0.76525</v>
       </c>
       <c r="C84" t="n">
-        <v>0.987488</v>
+        <v>0.995976</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09368</v>
+        <v>1.20803</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.751246</v>
+        <v>0.746456</v>
       </c>
       <c r="C85" t="n">
-        <v>0.962823</v>
+        <v>0.917679</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06738</v>
+        <v>1.19643</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7409249999999999</v>
+        <v>0.727155</v>
       </c>
       <c r="C86" t="n">
-        <v>0.941057</v>
+        <v>0.9356409999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04191</v>
+        <v>1.18951</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.730005</v>
+        <v>0.7285700000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.919781</v>
+        <v>0.914601</v>
       </c>
       <c r="D87" t="n">
-        <v>1.01667</v>
+        <v>1.1899</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.720224</v>
+        <v>0.71446</v>
       </c>
       <c r="C88" t="n">
-        <v>0.897455</v>
+        <v>0.894127</v>
       </c>
       <c r="D88" t="n">
-        <v>0.991276</v>
+        <v>1.19064</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711127</v>
+        <v>0.707607</v>
       </c>
       <c r="C89" t="n">
-        <v>0.878822</v>
+        <v>0.871201</v>
       </c>
       <c r="D89" t="n">
-        <v>0.961564</v>
+        <v>1.19198</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.702176</v>
+        <v>0.707514</v>
       </c>
       <c r="C90" t="n">
-        <v>0.855822</v>
+        <v>0.8514350000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.948508</v>
+        <v>1.19945</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6940499999999999</v>
+        <v>0.69125</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8409450000000001</v>
+        <v>0.8370840000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.928222</v>
+        <v>1.19723</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.685242</v>
+        <v>0.661449</v>
       </c>
       <c r="C92" t="n">
-        <v>0.823662</v>
+        <v>0.790959</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9066340000000001</v>
+        <v>2.16272</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.679466</v>
+        <v>0.67921</v>
       </c>
       <c r="C93" t="n">
-        <v>0.803744</v>
+        <v>0.811284</v>
       </c>
       <c r="D93" t="n">
-        <v>0.892957</v>
+        <v>2.16007</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.676025</v>
+        <v>0.667973</v>
       </c>
       <c r="C94" t="n">
-        <v>1.16464</v>
+        <v>1.15485</v>
       </c>
       <c r="D94" t="n">
-        <v>1.29352</v>
+        <v>2.15373</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.907979</v>
+        <v>0.902846</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16</v>
+        <v>1.1303</v>
       </c>
       <c r="D95" t="n">
-        <v>1.28144</v>
+        <v>2.15616</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.905307</v>
+        <v>0.888812</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14636</v>
+        <v>1.11262</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25887</v>
+        <v>2.14443</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8961479999999999</v>
+        <v>0.894809</v>
       </c>
       <c r="C97" t="n">
-        <v>1.12473</v>
+        <v>1.12048</v>
       </c>
       <c r="D97" t="n">
-        <v>1.24422</v>
+        <v>2.14209</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.887121</v>
+        <v>0.865994</v>
       </c>
       <c r="C98" t="n">
-        <v>1.10852</v>
+        <v>1.08638</v>
       </c>
       <c r="D98" t="n">
-        <v>1.21881</v>
+        <v>2.06529</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.876021</v>
+        <v>0.877377</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09471</v>
+        <v>1.08935</v>
       </c>
       <c r="D99" t="n">
-        <v>1.19376</v>
+        <v>1.66094</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865235</v>
+        <v>0.84054</v>
       </c>
       <c r="C100" t="n">
-        <v>1.06928</v>
+        <v>1.05148</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16896</v>
+        <v>1.6538</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855764</v>
+        <v>0.847374</v>
       </c>
       <c r="C101" t="n">
-        <v>1.05193</v>
+        <v>0.997661</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14821</v>
+        <v>1.65224</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.847052</v>
+        <v>0.830276</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03629</v>
+        <v>1.01984</v>
       </c>
       <c r="D102" t="n">
-        <v>1.13055</v>
+        <v>1.65448</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.838249</v>
+        <v>0.828402</v>
       </c>
       <c r="C103" t="n">
-        <v>1.02156</v>
+        <v>1.01199</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1151</v>
+        <v>1.64666</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.830384</v>
+        <v>0.816058</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0119</v>
+        <v>0.994517</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09255</v>
+        <v>1.64602</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.823707</v>
+        <v>0.813787</v>
       </c>
       <c r="C105" t="n">
-        <v>0.996766</v>
+        <v>0.980973</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08046</v>
+        <v>1.66406</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8193049999999999</v>
+        <v>0.804162</v>
       </c>
       <c r="C106" t="n">
-        <v>0.984982</v>
+        <v>0.968097</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06451</v>
+        <v>1.6816</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.814999</v>
+        <v>0.8106409999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.978307</v>
+        <v>0.933773</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05201</v>
+        <v>2.95299</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.813581</v>
+        <v>0.805737</v>
       </c>
       <c r="C108" t="n">
-        <v>1.31994</v>
+        <v>1.28668</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44992</v>
+        <v>2.93507</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.813062</v>
+        <v>0.795809</v>
       </c>
       <c r="C109" t="n">
-        <v>1.32279</v>
+        <v>1.28376</v>
       </c>
       <c r="D109" t="n">
-        <v>1.44399</v>
+        <v>2.926</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04394</v>
+        <v>1.02038</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30925</v>
+        <v>1.27717</v>
       </c>
       <c r="D110" t="n">
-        <v>1.42318</v>
+        <v>2.53442</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03228</v>
+        <v>0.998992</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30198</v>
+        <v>1.26943</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41692</v>
+        <v>2.70434</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02007</v>
+        <v>1.01262</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29346</v>
+        <v>1.283</v>
       </c>
       <c r="D112" t="n">
-        <v>1.40124</v>
+        <v>2.48936</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00798</v>
+        <v>0.987639</v>
       </c>
       <c r="C113" t="n">
-        <v>1.27655</v>
+        <v>1.24961</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38087</v>
+        <v>2.28323</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.99796</v>
+        <v>0.989388</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26912</v>
+        <v>1.26271</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3697</v>
+        <v>2.25256</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.986799</v>
+        <v>0.965987</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26597</v>
+        <v>1.20468</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35583</v>
+        <v>2.24666</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.976969</v>
+        <v>0.959462</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25597</v>
+        <v>1.23309</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34595</v>
+        <v>2.2309</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.968649</v>
+        <v>0.9495170000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.24533</v>
+        <v>1.22442</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33485</v>
+        <v>2.23126</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.96088</v>
+        <v>0.944747</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24465</v>
+        <v>1.22225</v>
       </c>
       <c r="D118" t="n">
-        <v>1.32626</v>
+        <v>2.22678</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.953518</v>
+        <v>0.940293</v>
       </c>
       <c r="C119" t="n">
-        <v>1.2372</v>
+        <v>1.21492</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31616</v>
+        <v>2.2327</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.94792</v>
+        <v>0.934308</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22211</v>
+        <v>1.20787</v>
       </c>
       <c r="D120" t="n">
-        <v>1.30293</v>
+        <v>2.24224</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.944319</v>
+        <v>0.92974</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22152</v>
+        <v>1.20554</v>
       </c>
       <c r="D121" t="n">
-        <v>1.2984</v>
+        <v>3.68504</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.940284</v>
+        <v>0.912279</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21549</v>
+        <v>1.17625</v>
       </c>
       <c r="D122" t="n">
-        <v>1.28385</v>
+        <v>3.64978</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.941269</v>
+        <v>0.927294</v>
       </c>
       <c r="C123" t="n">
-        <v>1.55582</v>
+        <v>1.52168</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6787</v>
+        <v>4.04852</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16662</v>
+        <v>1.16503</v>
       </c>
       <c r="C124" t="n">
-        <v>1.54584</v>
+        <v>1.54296</v>
       </c>
       <c r="D124" t="n">
-        <v>1.66964</v>
+        <v>3.98949</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15611</v>
+        <v>1.12454</v>
       </c>
       <c r="C125" t="n">
-        <v>1.54604</v>
+        <v>1.50599</v>
       </c>
       <c r="D125" t="n">
-        <v>1.65243</v>
+        <v>3.53398</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14503</v>
+        <v>1.12881</v>
       </c>
       <c r="C126" t="n">
-        <v>1.53009</v>
+        <v>1.50115</v>
       </c>
       <c r="D126" t="n">
-        <v>1.6351</v>
+        <v>3.28868</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13451</v>
+        <v>1.1222</v>
       </c>
       <c r="C127" t="n">
-        <v>1.53028</v>
+        <v>1.49435</v>
       </c>
       <c r="D127" t="n">
-        <v>1.62677</v>
+        <v>3.48701</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12603</v>
+        <v>1.10923</v>
       </c>
       <c r="C128" t="n">
-        <v>1.51505</v>
+        <v>1.48885</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61145</v>
+        <v>2.78615</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11743</v>
+        <v>1.10242</v>
       </c>
       <c r="C129" t="n">
-        <v>1.50433</v>
+        <v>1.48067</v>
       </c>
       <c r="D129" t="n">
-        <v>1.59897</v>
+        <v>2.76692</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10974</v>
+        <v>1.0919</v>
       </c>
       <c r="C130" t="n">
-        <v>1.50449</v>
+        <v>1.48228</v>
       </c>
       <c r="D130" t="n">
-        <v>1.58858</v>
+        <v>2.74888</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10239</v>
+        <v>1.07511</v>
       </c>
       <c r="C131" t="n">
-        <v>1.49781</v>
+        <v>1.44035</v>
       </c>
       <c r="D131" t="n">
-        <v>1.57686</v>
+        <v>2.74634</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09692</v>
+        <v>1.07949</v>
       </c>
       <c r="C132" t="n">
-        <v>1.49167</v>
+        <v>1.44042</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57635</v>
+        <v>2.73146</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09165</v>
+        <v>1.05954</v>
       </c>
       <c r="C133" t="n">
-        <v>1.48623</v>
+        <v>1.43475</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5615</v>
+        <v>2.72986</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08761</v>
+        <v>1.0687</v>
       </c>
       <c r="C134" t="n">
-        <v>1.47715</v>
+        <v>1.46487</v>
       </c>
       <c r="D134" t="n">
-        <v>1.55067</v>
+        <v>2.72328</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08645</v>
+        <v>1.06072</v>
       </c>
       <c r="C135" t="n">
-        <v>1.47659</v>
+        <v>1.4596</v>
       </c>
       <c r="D135" t="n">
-        <v>1.54294</v>
+        <v>4.17026</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08568</v>
+        <v>1.07579</v>
       </c>
       <c r="C136" t="n">
-        <v>1.47101</v>
+        <v>1.43471</v>
       </c>
       <c r="D136" t="n">
-        <v>1.54062</v>
+        <v>4.1184</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08697</v>
+        <v>1.06955</v>
       </c>
       <c r="C137" t="n">
-        <v>1.8166</v>
+        <v>1.78101</v>
       </c>
       <c r="D137" t="n">
-        <v>1.93662</v>
+        <v>4.31376</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.3135</v>
+        <v>1.28996</v>
       </c>
       <c r="C138" t="n">
-        <v>1.79851</v>
+        <v>1.76568</v>
       </c>
       <c r="D138" t="n">
-        <v>1.91418</v>
+        <v>4.48853</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30448</v>
+        <v>1.30074</v>
       </c>
       <c r="C139" t="n">
-        <v>1.78585</v>
+        <v>1.77382</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89226</v>
+        <v>3.75163</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29721</v>
+        <v>1.28246</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77158</v>
+        <v>1.76371</v>
       </c>
       <c r="D140" t="n">
-        <v>1.8738</v>
+        <v>3.47129</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28946</v>
+        <v>1.27647</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7572</v>
+        <v>1.75031</v>
       </c>
       <c r="D141" t="n">
-        <v>1.85974</v>
+        <v>3.20069</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.28227</v>
+        <v>1.27923</v>
       </c>
       <c r="C142" t="n">
-        <v>1.74644</v>
+        <v>1.71851</v>
       </c>
       <c r="D142" t="n">
-        <v>1.84238</v>
+        <v>3.14836</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.27633</v>
+        <v>1.25262</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73056</v>
+        <v>1.70733</v>
       </c>
       <c r="D143" t="n">
-        <v>1.82803</v>
+        <v>3.12068</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.170668</v>
+                  <v>0.15495</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.164843</v>
+                  <v>0.153545</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.165379</v>
+                  <v>0.156261</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.150997</v>
+                  <v>0.154468</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.152331</v>
+                  <v>0.159997</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149768</v>
+                  <v>0.148057</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.152588</v>
+                  <v>0.149778</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154628</v>
+                  <v>0.154311</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221009</v>
+                  <v>0.223686</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.212625</v>
+                  <v>0.205186</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.211566</v>
+                  <v>0.205051</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.195441</v>
+                  <v>0.191499</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194947</v>
+                  <v>0.185229</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186434</v>
+                  <v>0.180374</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.178351</v>
+                  <v>0.173777</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.173591</v>
+                  <v>0.174067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.168205</v>
+                  <v>0.166807</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.16688</v>
+                  <v>0.160047</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.159624</v>
+                  <v>0.157303</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.158982</v>
+                  <v>0.156402</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.157925</v>
+                  <v>0.163726</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157835</v>
+                  <v>0.160119</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235187</v>
+                  <v>0.240097</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234979</v>
+                  <v>0.231232</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.222812</v>
+                  <v>0.227764</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.212721</v>
+                  <v>0.219773</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.204469</v>
+                  <v>0.21386</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.19605</v>
+                  <v>0.200835</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.192526</v>
+                  <v>0.197722</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.179359</v>
+                  <v>0.185452</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182408</v>
+                  <v>0.185902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173725</v>
+                  <v>0.179391</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.172037</v>
+                  <v>0.174647</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.170274</v>
+                  <v>0.167433</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.163399</v>
+                  <v>0.173431</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.165498</v>
+                  <v>0.169377</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243844</v>
+                  <v>0.245427</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.23535</v>
+                  <v>0.236324</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226636</v>
+                  <v>0.228014</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.217798</v>
+                  <v>0.220475</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210594</v>
+                  <v>0.211363</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203038</v>
+                  <v>0.205815</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.200194</v>
+                  <v>0.198957</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.194085</v>
+                  <v>0.192026</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.189659</v>
+                  <v>0.186259</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.184056</v>
+                  <v>0.182829</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.179376</v>
+                  <v>0.178498</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.176819</v>
+                  <v>0.174932</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.175946</v>
+                  <v>0.173529</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176716</v>
+                  <v>0.174603</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.179499</v>
+                  <v>0.178568</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.246194</v>
+                  <v>0.242911</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236625</v>
+                  <v>0.233062</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.228535</v>
+                  <v>0.225756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.220311</v>
+                  <v>0.219169</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212764</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.205025</v>
+                  <v>0.204869</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198959</v>
+                  <v>0.198465</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.193449</v>
+                  <v>0.192641</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.188205</v>
+                  <v>0.187453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182403</v>
+                  <v>0.183317</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.179269</v>
+                  <v>0.180442</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177012</v>
+                  <v>0.178772</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177729</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180358</v>
+                  <v>0.182404</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244029</v>
+                  <v>0.246499</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236519</v>
+                  <v>0.24057</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228133</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220467</v>
+                  <v>0.222631</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212274</v>
+                  <v>0.214224</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205977</v>
+                  <v>0.208225</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199758</v>
+                  <v>0.200051</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19413</v>
+                  <v>0.196592</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188413</v>
+                  <v>0.191699</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184215</v>
+                  <v>0.187385</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181004</v>
+                  <v>0.184281</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178894</v>
+                  <v>0.181944</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17897</v>
+                  <v>0.181193</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180581</v>
+                  <v>0.183598</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.256846</v>
+                  <v>0.259901</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.250364</v>
+                  <v>0.251809</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.24198</v>
+                  <v>0.245416</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233548</v>
+                  <v>0.236506</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.227319</v>
+                  <v>0.228865</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219364</v>
+                  <v>0.222002</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213434</v>
+                  <v>0.215267</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207721</v>
+                  <v>0.208708</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201258</v>
+                  <v>0.203164</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19653</v>
+                  <v>0.198265</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192528</v>
+                  <v>0.194029</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189688</v>
+                  <v>0.191051</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188619</v>
+                  <v>0.190331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189627</v>
+                  <v>0.190609</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270145</v>
+                  <v>0.271708</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.264648</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.257315</v>
+                  <v>0.258822</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.250563</v>
+                  <v>0.251693</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24473</v>
+                  <v>0.245207</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238846</v>
+                  <v>0.238911</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232631</v>
+                  <v>0.233314</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227556</v>
+                  <v>0.227926</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222112</v>
+                  <v>0.223038</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217608</v>
+                  <v>0.218392</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213903</v>
+                  <v>0.214392</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.21037</v>
+                  <v>0.211043</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208235</v>
+                  <v>0.208798</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208631</v>
+                  <v>0.208902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210884</v>
+                  <v>0.210912</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.284085</v>
+                  <v>0.282122</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277325</v>
+                  <v>0.277332</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271154</v>
+                  <v>0.271849</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265253</v>
+                  <v>0.265643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259777</v>
+                  <v>0.259825</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254644</v>
+                  <v>0.254755</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250128</v>
+                  <v>0.249822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245359</v>
+                  <v>0.24522</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241561</v>
+                  <v>0.241839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23764</v>
+                  <v>0.23729</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234284</v>
+                  <v>0.234272</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231834</v>
+                  <v>0.232088</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231043</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232245</v>
+                  <v>0.232239</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.315814</v>
+                  <v>0.317627</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.310851</v>
+                  <v>0.312009</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.306028</v>
+                  <v>0.30586</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299753</v>
+                  <v>0.300592</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294531</v>
+                  <v>0.295357</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.289946</v>
+                  <v>0.291282</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285871</v>
+                  <v>0.290024</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28194</v>
+                  <v>0.292332</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278146</v>
+                  <v>0.316529</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275044</v>
+                  <v>0.313286</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.27231</v>
+                  <v>0.269433</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270276</v>
+                  <v>0.267928</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.26913</v>
+                  <v>0.267051</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270188</v>
+                  <v>0.267636</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.360478</v>
+                  <v>0.350842</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.354977</v>
+                  <v>0.345442</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.350567</v>
+                  <v>0.341276</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.345151</v>
+                  <v>0.336592</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34072</v>
+                  <v>0.332195</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.335998</v>
+                  <v>0.328062</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.136461</v>
+                  <v>0.133487</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.143885</v>
+                  <v>0.128996</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.138416</v>
+                  <v>0.128778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.131866</v>
+                  <v>0.123893</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.128733</v>
+                  <v>0.115629</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.125371</v>
+                  <v>0.117525</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.119173</v>
+                  <v>0.110211</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119054</v>
+                  <v>0.176215</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.199755</v>
+                  <v>0.169618</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.194893</v>
+                  <v>0.167522</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.186611</v>
+                  <v>0.164985</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.180929</v>
+                  <v>0.157948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.171719</v>
+                  <v>0.154722</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.164359</v>
+                  <v>0.145283</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.159604</v>
+                  <v>0.14847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.156142</v>
+                  <v>0.137933</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.148751</v>
+                  <v>0.132223</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.145812</v>
+                  <v>0.130486</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.141893</v>
+                  <v>0.124625</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.140321</v>
+                  <v>0.122399</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138166</v>
+                  <v>0.122231</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.138866</v>
+                  <v>0.215673</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.22216</v>
+                  <v>0.209008</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.214043</v>
+                  <v>0.196812</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.202789</v>
+                  <v>0.193513</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.194749</v>
+                  <v>0.186064</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.188153</v>
+                  <v>0.182841</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.180718</v>
+                  <v>0.175024</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.174444</v>
+                  <v>0.170131</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168821</v>
+                  <v>0.161414</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.162937</v>
+                  <v>0.156848</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.157914</v>
+                  <v>0.155946</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.153826</v>
+                  <v>0.14656</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150082</v>
+                  <v>0.150628</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.147894</v>
+                  <v>0.146053</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.146972</v>
+                  <v>0.230175</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.223466</v>
+                  <v>0.222468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214588</v>
+                  <v>0.212657</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.206551</v>
+                  <v>0.20674</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198601</v>
+                  <v>0.198642</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191216</v>
+                  <v>0.191772</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.18396</v>
+                  <v>0.188281</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.180497</v>
+                  <v>0.177377</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174746</v>
+                  <v>0.171985</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.168726</v>
+                  <v>0.166429</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.16349</v>
+                  <v>0.166079</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159218</v>
+                  <v>0.159028</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.155587</v>
+                  <v>0.15706</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.153056</v>
+                  <v>0.156108</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.151411</v>
+                  <v>0.244006</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.152255</v>
+                  <v>0.234167</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.223567</v>
+                  <v>0.224348</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.215128</v>
+                  <v>0.216183</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206602</v>
+                  <v>0.208516</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.199106</v>
+                  <v>0.200898</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191861</v>
+                  <v>0.193874</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184943</v>
+                  <v>0.186857</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.178332</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172886</v>
+                  <v>0.175261</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167693</v>
+                  <v>0.170349</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.160526</v>
+                  <v>0.166078</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.156473</v>
+                  <v>0.163411</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.15361</v>
+                  <v>0.161494</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.151918</v>
+                  <v>0.16251</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.152658</v>
+                  <v>0.243741</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.228151</v>
+                  <v>0.233795</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.219456</v>
+                  <v>0.226048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21135</v>
+                  <v>0.218522</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.203187</v>
+                  <v>0.208423</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.195914</v>
+                  <v>0.20239</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.188766</v>
+                  <v>0.195978</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.182265</v>
+                  <v>0.190244</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.176143</v>
+                  <v>0.183549</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.170713</v>
+                  <v>0.17921</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165631</v>
+                  <v>0.174505</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.161469</v>
+                  <v>0.17026</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.158217</v>
+                  <v>0.168555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.156204</v>
+                  <v>0.167771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.156222</v>
+                  <v>0.243049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.230333</v>
+                  <v>0.233663</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222566</v>
+                  <v>0.225806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.214771</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207566</v>
+                  <v>0.210345</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200837</v>
+                  <v>0.202909</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.19364</v>
+                  <v>0.196278</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.188096</v>
+                  <v>0.190457</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.181911</v>
+                  <v>0.184578</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176008</v>
+                  <v>0.179115</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.171451</v>
+                  <v>0.174858</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166593</v>
+                  <v>0.171276</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.163878</v>
+                  <v>0.168786</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.160923</v>
+                  <v>0.169004</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.160238</v>
+                  <v>0.254981</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248401</v>
+                  <v>0.247215</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240463</v>
+                  <v>0.239115</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.232944</v>
+                  <v>0.230624</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.225805</v>
+                  <v>0.222856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.22678</v>
+                  <v>0.21591</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.212444</v>
+                  <v>0.209102</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206497</v>
+                  <v>0.202675</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.201607</v>
+                  <v>0.196973</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.195129</v>
+                  <v>0.19177</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.189518</v>
+                  <v>0.187172</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.186515</v>
+                  <v>0.183301</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18283</v>
+                  <v>0.18078</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.18042</v>
+                  <v>0.179522</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.179433</v>
+                  <v>0.269489</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.181014</v>
+                  <v>0.262897</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.260856</v>
+                  <v>0.256726</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.252951</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.245756</v>
+                  <v>0.24043</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.239063</v>
+                  <v>0.233607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.232542</v>
+                  <v>0.227423</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226357</v>
+                  <v>0.221229</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.221257</v>
+                  <v>0.215868</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.217762</v>
+                  <v>0.210591</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.212853</v>
+                  <v>0.206479</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.208819</v>
+                  <v>0.202559</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.20483</v>
+                  <v>0.199773</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.201751</v>
+                  <v>0.198176</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200686</v>
+                  <v>0.198841</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.200643</v>
+                  <v>0.285232</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.284238</v>
+                  <v>0.276811</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.278287</v>
+                  <v>0.270839</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.268032</v>
+                  <v>0.265608</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.262246</v>
+                  <v>0.260523</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.2563</v>
+                  <v>0.255044</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.25157</v>
+                  <v>0.251807</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247088</v>
+                  <v>0.249694</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.242605</v>
+                  <v>0.266801</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.238676</v>
+                  <v>0.263743</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.235063</v>
+                  <v>0.282668</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.231818</v>
+                  <v>0.233059</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229352</v>
+                  <v>0.231579</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.227891</v>
+                  <v>0.231913</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22831</v>
+                  <v>0.326305</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.321523</v>
+                  <v>0.320686</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315351</v>
+                  <v>0.315677</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309742</v>
+                  <v>0.310855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304011</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.29869</v>
+                  <v>0.30133</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29374</v>
+                  <v>0.297474</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.134178</v>
+                  <v>0.344005</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.131948</v>
+                  <v>0.340023</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.136503</v>
+                  <v>0.339171</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.127659</v>
+                  <v>0.337006</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.126491</v>
+                  <v>0.334346</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.127377</v>
+                  <v>0.44346</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.120481</v>
+                  <v>0.42934</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.189804</v>
+                  <v>0.422947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.193076</v>
+                  <v>0.414834</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.185771</v>
+                  <v>0.412844</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.175595</v>
+                  <v>0.410981</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.170808</v>
+                  <v>0.402817</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.163676</v>
+                  <v>0.395902</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.15658</v>
+                  <v>0.389522</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.15111</v>
+                  <v>0.38781</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.147927</v>
+                  <v>0.384793</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.144277</v>
+                  <v>0.379955</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.141029</v>
+                  <v>0.378853</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.138444</v>
+                  <v>0.373582</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.136899</v>
+                  <v>0.476217</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.138731</v>
+                  <v>0.46546</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.22524</v>
+                  <v>0.464787</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217581</v>
+                  <v>0.45141</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.205227</v>
+                  <v>0.445799</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.196362</v>
+                  <v>0.434497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.189144</v>
+                  <v>0.427631</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.18136</v>
+                  <v>0.419558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175284</v>
+                  <v>0.411806</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170321</v>
+                  <v>0.406268</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.162701</v>
+                  <v>0.401866</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.159519</v>
+                  <v>0.397333</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153345</v>
+                  <v>0.393844</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.150314</v>
+                  <v>0.389286</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.149603</v>
+                  <v>0.493518</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.148604</v>
+                  <v>0.484731</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230138</v>
+                  <v>0.475688</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.221941</v>
+                  <v>0.463878</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212902</v>
+                  <v>0.455129</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.202745</v>
+                  <v>0.446551</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.197872</v>
+                  <v>0.438381</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.189578</v>
+                  <v>0.43272</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.181192</v>
+                  <v>0.425374</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178348</v>
+                  <v>0.420618</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.172191</v>
+                  <v>0.41841</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.16614</v>
+                  <v>0.414417</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.161458</v>
+                  <v>0.412106</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.158505</v>
+                  <v>0.406774</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.156259</v>
+                  <v>0.402662</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155863</v>
+                  <v>0.505211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240125</v>
+                  <v>0.498063</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.228307</v>
+                  <v>0.485203</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222098</v>
+                  <v>0.477573</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.213257</v>
+                  <v>0.46772</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.204699</v>
+                  <v>0.463373</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.197271</v>
+                  <v>0.4539</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.189954</v>
+                  <v>0.446932</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.182964</v>
+                  <v>0.440617</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.176915</v>
+                  <v>0.437856</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.172102</v>
+                  <v>0.432426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.167281</v>
+                  <v>0.428781</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.161153</v>
+                  <v>0.423174</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.158454</v>
+                  <v>0.422691</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.157323</v>
+                  <v>0.5450739999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.158629</v>
+                  <v>0.540152</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235154</v>
+                  <v>0.524844</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.225864</v>
+                  <v>0.515304</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218407</v>
+                  <v>0.507802</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.209007</v>
+                  <v>0.498374</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.201152</v>
+                  <v>0.494679</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.19372</v>
+                  <v>0.495527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.186741</v>
+                  <v>0.483948</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.180491</v>
+                  <v>0.481365</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174783</v>
+                  <v>0.496964</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.169469</v>
+                  <v>0.492901</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.165683</v>
+                  <v>0.489043</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.162247</v>
+                  <v>0.486233</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.160468</v>
+                  <v>0.664263</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.161441</v>
+                  <v>0.653161</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238856</v>
+                  <v>0.643571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.22991</v>
+                  <v>0.63595</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.220936</v>
+                  <v>0.629796</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.213054</v>
+                  <v>0.622012</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.205347</v>
+                  <v>0.619332</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.198292</v>
+                  <v>0.615398</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.191445</v>
+                  <v>0.615523</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.184661</v>
+                  <v>0.615955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.179135</v>
+                  <v>0.622347</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.17408</v>
+                  <v>0.631071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16936</v>
+                  <v>0.635074</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166191</v>
+                  <v>0.639845</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.164353</v>
+                  <v>0.852201</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.164271</v>
+                  <v>0.847971</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254673</v>
+                  <v>0.845392</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247489</v>
+                  <v>0.8368139999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.238121</v>
+                  <v>0.834033</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230923</v>
+                  <v>0.841704</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.223773</v>
+                  <v>0.83904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215514</v>
+                  <v>0.838568</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211001</v>
+                  <v>0.839709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20299</v>
+                  <v>0.842832</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.197244</v>
+                  <v>0.8481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.191961</v>
+                  <v>0.858892</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.18761</v>
+                  <v>0.865506</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.184086</v>
+                  <v>0.870801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180878</v>
+                  <v>0.883047</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.180431</v>
+                  <v>1.1251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.27151</v>
+                  <v>1.11268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265086</v>
+                  <v>1.10474</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257155</v>
+                  <v>1.09904</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.249492</v>
+                  <v>1.09986</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241637</v>
+                  <v>1.09551</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233598</v>
+                  <v>1.09076</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.228107</v>
+                  <v>1.09524</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221879</v>
+                  <v>1.09316</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.218226</v>
+                  <v>1.09388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213206</v>
+                  <v>1.0979</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207735</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.203661</v>
+                  <v>1.11072</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.200217</v>
+                  <v>1.11523</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199303</v>
+                  <v>1.38026</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199921</v>
+                  <v>1.36735</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.28659</v>
+                  <v>1.35413</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.280042</v>
+                  <v>1.34011</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.274273</v>
+                  <v>1.33068</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.264434</v>
+                  <v>1.32008</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258887</v>
+                  <v>1.3181</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253968</v>
+                  <v>1.31133</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.248195</v>
+                  <v>1.2952</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.244422</v>
+                  <v>1.30043</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.240173</v>
+                  <v>1.45637</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.236482</v>
+                  <v>1.43621</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.23349</v>
+                  <v>1.30867</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.230364</v>
+                  <v>1.30653</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.229418</v>
+                  <v>1.581</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.229508</v>
+                  <v>1.56049</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.325813</v>
+                  <v>1.53923</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320407</v>
+                  <v>1.52452</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.314921</v>
+                  <v>1.50727</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.309403</v>
+                  <v>1.4928</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.304799</v>
+                  <v>1.4814</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300275</v>
+                  <v>1.46927</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.29509</v>
+                  <v>1.46123</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485005</v>
+        <v>0.486477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.698729</v>
+        <v>0.7574959999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.732896</v>
+        <v>0.7640400000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4728</v>
+        <v>0.473807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.679777</v>
+        <v>0.736768</v>
       </c>
       <c r="D3" t="n">
-        <v>0.713334</v>
+        <v>0.743093</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.461951</v>
+        <v>0.461774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.662193</v>
+        <v>0.717602</v>
       </c>
       <c r="D4" t="n">
-        <v>0.695987</v>
+        <v>0.724287</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.452985</v>
+        <v>0.453424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.646386</v>
+        <v>0.6992620000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.679173</v>
+        <v>0.706267</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.445529</v>
+        <v>0.445631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6313260000000001</v>
+        <v>0.683162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.663888</v>
+        <v>0.6902239999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.43932</v>
+        <v>0.439648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.618719</v>
+        <v>0.668387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.651531</v>
+        <v>0.675565</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436675</v>
+        <v>0.436981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.608527</v>
+        <v>0.656742</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64063</v>
+        <v>0.663732</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437563</v>
+        <v>0.437633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.902349</v>
+        <v>0.974469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9441659999999999</v>
+        <v>0.982771</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.573173</v>
+        <v>0.573313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.825474</v>
+        <v>0.894581</v>
       </c>
       <c r="D10" t="n">
-        <v>0.914621</v>
+        <v>0.95163</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556435</v>
+        <v>0.555899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.799966</v>
+        <v>0.866799</v>
       </c>
       <c r="D11" t="n">
-        <v>0.886</v>
+        <v>0.921737</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539729</v>
+        <v>0.539292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.775593</v>
+        <v>0.841167</v>
       </c>
       <c r="D12" t="n">
-        <v>0.858893</v>
+        <v>0.893605</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523952</v>
+        <v>0.523312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.753204</v>
+        <v>0.81603</v>
       </c>
       <c r="D13" t="n">
-        <v>0.832924</v>
+        <v>0.866789</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5096039999999999</v>
+        <v>0.509279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.731231</v>
+        <v>0.792809</v>
       </c>
       <c r="D14" t="n">
-        <v>0.808885</v>
+        <v>0.841398</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.495871</v>
+        <v>0.49571</v>
       </c>
       <c r="C15" t="n">
-        <v>0.710896</v>
+        <v>0.770715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.786057</v>
+        <v>0.817657</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4827</v>
+        <v>0.482432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.691443</v>
+        <v>0.749594</v>
       </c>
       <c r="D16" t="n">
-        <v>0.764602</v>
+        <v>0.794915</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470692</v>
+        <v>0.470305</v>
       </c>
       <c r="C17" t="n">
-        <v>0.67352</v>
+        <v>0.7297940000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.744644</v>
+        <v>0.773434</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460067</v>
+        <v>0.45929</v>
       </c>
       <c r="C18" t="n">
-        <v>0.65647</v>
+        <v>0.7112540000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.725557</v>
+        <v>0.75347</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450109</v>
+        <v>0.451379</v>
       </c>
       <c r="C19" t="n">
-        <v>0.640848</v>
+        <v>0.694643</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7082889999999999</v>
+        <v>0.735069</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442545</v>
+        <v>0.442454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.626346</v>
+        <v>0.679522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.693062</v>
+        <v>0.718235</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436559</v>
+        <v>0.436473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.613815</v>
+        <v>0.66656</v>
       </c>
       <c r="D21" t="n">
-        <v>0.679463</v>
+        <v>0.704081</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.433158</v>
+        <v>0.43267</v>
       </c>
       <c r="C22" t="n">
-        <v>0.605118</v>
+        <v>0.6569739999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.669396</v>
+        <v>0.6927140000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432765</v>
+        <v>0.432593</v>
       </c>
       <c r="C23" t="n">
-        <v>0.904637</v>
+        <v>0.981773</v>
       </c>
       <c r="D23" t="n">
-        <v>0.98505</v>
+        <v>1.02637</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.620288</v>
+        <v>0.619967</v>
       </c>
       <c r="C24" t="n">
-        <v>0.876091</v>
+        <v>0.950472</v>
       </c>
       <c r="D24" t="n">
-        <v>0.953959</v>
+        <v>0.992864</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.602029</v>
+        <v>0.601979</v>
       </c>
       <c r="C25" t="n">
-        <v>0.848985</v>
+        <v>0.921102</v>
       </c>
       <c r="D25" t="n">
-        <v>0.924616</v>
+        <v>0.963576</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.583491</v>
+        <v>0.584139</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8230499999999999</v>
+        <v>0.892796</v>
       </c>
       <c r="D26" t="n">
-        <v>0.896251</v>
+        <v>0.932026</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.566092</v>
+        <v>0.565079</v>
       </c>
       <c r="C27" t="n">
-        <v>0.798161</v>
+        <v>0.865542</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8691719999999999</v>
+        <v>0.9054990000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549565</v>
+        <v>0.549997</v>
       </c>
       <c r="C28" t="n">
-        <v>0.774464</v>
+        <v>0.840523</v>
       </c>
       <c r="D28" t="n">
-        <v>0.843928</v>
+        <v>0.879761</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.534006</v>
+        <v>0.533928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.752258</v>
+        <v>0.816753</v>
       </c>
       <c r="D29" t="n">
-        <v>0.819407</v>
+        <v>0.854432</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.519307</v>
+        <v>0.519864</v>
       </c>
       <c r="C30" t="n">
-        <v>0.731148</v>
+        <v>0.793098</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7967070000000001</v>
+        <v>0.828515</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506155</v>
+        <v>0.5068780000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.711334</v>
+        <v>0.772433</v>
       </c>
       <c r="D31" t="n">
-        <v>0.775356</v>
+        <v>0.807736</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493611</v>
+        <v>0.49413</v>
       </c>
       <c r="C32" t="n">
-        <v>0.692734</v>
+        <v>0.751972</v>
       </c>
       <c r="D32" t="n">
-        <v>0.755057</v>
+        <v>0.78692</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.482321</v>
+        <v>0.483099</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6753980000000001</v>
+        <v>0.733552</v>
       </c>
       <c r="D33" t="n">
-        <v>0.736359</v>
+        <v>0.767058</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.472793</v>
+        <v>0.47236</v>
       </c>
       <c r="C34" t="n">
-        <v>0.659873</v>
+        <v>0.7155359999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.719285</v>
+        <v>0.747289</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.465288</v>
+        <v>0.464111</v>
       </c>
       <c r="C35" t="n">
-        <v>0.646267</v>
+        <v>0.700613</v>
       </c>
       <c r="D35" t="n">
-        <v>0.704641</v>
+        <v>0.731441</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459746</v>
+        <v>0.458913</v>
       </c>
       <c r="C36" t="n">
-        <v>0.634388</v>
+        <v>0.688935</v>
       </c>
       <c r="D36" t="n">
-        <v>0.691647</v>
+        <v>0.718504</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456918</v>
+        <v>0.455585</v>
       </c>
       <c r="C37" t="n">
-        <v>0.937021</v>
+        <v>1.01732</v>
       </c>
       <c r="D37" t="n">
-        <v>1.01961</v>
+        <v>1.06355</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.649015</v>
+        <v>0.647451</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9081630000000001</v>
+        <v>0.9855699999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.987707</v>
+        <v>1.02996</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.630015</v>
+        <v>0.628464</v>
       </c>
       <c r="C39" t="n">
-        <v>0.879872</v>
+        <v>0.95379</v>
       </c>
       <c r="D39" t="n">
-        <v>0.957114</v>
+        <v>0.998514</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6109059999999999</v>
+        <v>0.609309</v>
       </c>
       <c r="C40" t="n">
-        <v>0.852986</v>
+        <v>0.924536</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927762</v>
+        <v>0.967984</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.592809</v>
+        <v>0.591145</v>
       </c>
       <c r="C41" t="n">
-        <v>0.826989</v>
+        <v>0.896611</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8998969999999999</v>
+        <v>0.941769</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.575721</v>
+        <v>0.577386</v>
       </c>
       <c r="C42" t="n">
-        <v>0.802754</v>
+        <v>0.876471</v>
       </c>
       <c r="D42" t="n">
-        <v>0.873269</v>
+        <v>0.929549</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559433</v>
+        <v>0.5594789999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.779989</v>
+        <v>0.846566</v>
       </c>
       <c r="D43" t="n">
-        <v>0.848268</v>
+        <v>0.8844109999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.544428</v>
+        <v>0.544936</v>
       </c>
       <c r="C44" t="n">
-        <v>0.75773</v>
+        <v>0.822771</v>
       </c>
       <c r="D44" t="n">
-        <v>0.824676</v>
+        <v>0.859594</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530788</v>
+        <v>0.528053</v>
       </c>
       <c r="C45" t="n">
-        <v>0.737579</v>
+        <v>0.8003749999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.802162</v>
+        <v>0.835885</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.517943</v>
+        <v>0.51519</v>
       </c>
       <c r="C46" t="n">
-        <v>0.718279</v>
+        <v>0.779778</v>
       </c>
       <c r="D46" t="n">
-        <v>0.780841</v>
+        <v>0.833353</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.506205</v>
+        <v>0.506867</v>
       </c>
       <c r="C47" t="n">
-        <v>0.700489</v>
+        <v>0.765323</v>
       </c>
       <c r="D47" t="n">
-        <v>0.761035</v>
+        <v>0.8078</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.495863</v>
+        <v>0.496151</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6839769999999999</v>
+        <v>0.743362</v>
       </c>
       <c r="D48" t="n">
-        <v>0.742487</v>
+        <v>0.78213</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487297</v>
+        <v>0.48617</v>
       </c>
       <c r="C49" t="n">
-        <v>0.669108</v>
+        <v>0.724333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.726293</v>
+        <v>0.76153</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480263</v>
+        <v>0.479519</v>
       </c>
       <c r="C50" t="n">
-        <v>0.65612</v>
+        <v>0.712059</v>
       </c>
       <c r="D50" t="n">
-        <v>0.711758</v>
+        <v>0.742775</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476657</v>
+        <v>0.473453</v>
       </c>
       <c r="C51" t="n">
-        <v>0.962255</v>
+        <v>1.05731</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06123</v>
+        <v>1.12539</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475862</v>
+        <v>0.476037</v>
       </c>
       <c r="C52" t="n">
-        <v>0.933764</v>
+        <v>1.02446</v>
       </c>
       <c r="D52" t="n">
-        <v>1.02811</v>
+        <v>1.09099</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.653517</v>
+        <v>0.665202</v>
       </c>
       <c r="C53" t="n">
-        <v>0.904704</v>
+        <v>0.98907</v>
       </c>
       <c r="D53" t="n">
-        <v>0.996887</v>
+        <v>1.05145</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.634456</v>
+        <v>0.635172</v>
       </c>
       <c r="C54" t="n">
-        <v>0.877202</v>
+        <v>0.952968</v>
       </c>
       <c r="D54" t="n">
-        <v>0.967397</v>
+        <v>1.0152</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.617092</v>
+        <v>0.617162</v>
       </c>
       <c r="C55" t="n">
-        <v>0.853867</v>
+        <v>0.92454</v>
       </c>
       <c r="D55" t="n">
-        <v>0.93913</v>
+        <v>0.985804</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.599779</v>
+        <v>0.605959</v>
       </c>
       <c r="C56" t="n">
-        <v>0.828659</v>
+        <v>0.912713</v>
       </c>
       <c r="D56" t="n">
-        <v>0.91167</v>
+        <v>0.972164</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.583686</v>
+        <v>0.593257</v>
       </c>
       <c r="C57" t="n">
-        <v>0.805574</v>
+        <v>0.879379</v>
       </c>
       <c r="D57" t="n">
-        <v>0.885796</v>
+        <v>0.939276</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.568939</v>
+        <v>0.578515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.783751</v>
+        <v>0.85712</v>
       </c>
       <c r="D58" t="n">
-        <v>0.861537</v>
+        <v>0.907905</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.55484</v>
+        <v>0.569732</v>
       </c>
       <c r="C59" t="n">
-        <v>0.759707</v>
+        <v>0.840548</v>
       </c>
       <c r="D59" t="n">
-        <v>0.839022</v>
+        <v>0.892509</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54199</v>
+        <v>0.55525</v>
       </c>
       <c r="C60" t="n">
-        <v>0.740564</v>
+        <v>0.81334</v>
       </c>
       <c r="D60" t="n">
-        <v>0.817462</v>
+        <v>0.867996</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5309</v>
+        <v>0.54334</v>
       </c>
       <c r="C61" t="n">
-        <v>0.724046</v>
+        <v>0.796501</v>
       </c>
       <c r="D61" t="n">
-        <v>0.795971</v>
+        <v>0.849729</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.519983</v>
+        <v>0.524896</v>
       </c>
       <c r="C62" t="n">
-        <v>0.706933</v>
+        <v>0.770576</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7770049999999999</v>
+        <v>0.821021</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.512132</v>
+        <v>0.5162099999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.692839</v>
+        <v>0.7558280000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.760929</v>
+        <v>0.7985449999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.503006</v>
       </c>
       <c r="C64" t="n">
-        <v>0.675957</v>
+        <v>0.737309</v>
       </c>
       <c r="D64" t="n">
-        <v>0.744922</v>
+        <v>0.788344</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.500041</v>
+        <v>0.508676</v>
       </c>
       <c r="C65" t="n">
-        <v>0.665443</v>
+        <v>0.730479</v>
       </c>
       <c r="D65" t="n">
-        <v>0.733262</v>
+        <v>0.77525</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.498638</v>
+        <v>0.51157</v>
       </c>
       <c r="C66" t="n">
-        <v>0.980618</v>
+        <v>1.07754</v>
       </c>
       <c r="D66" t="n">
-        <v>1.08906</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.702464</v>
+        <v>0.718232</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9519570000000001</v>
+        <v>1.04571</v>
       </c>
       <c r="D67" t="n">
-        <v>1.06003</v>
+        <v>1.1253</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.684744</v>
+        <v>0.70245</v>
       </c>
       <c r="C68" t="n">
-        <v>0.925902</v>
+        <v>1.01874</v>
       </c>
       <c r="D68" t="n">
-        <v>1.03009</v>
+        <v>1.09426</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.670694</v>
+        <v>0.686504</v>
       </c>
       <c r="C69" t="n">
-        <v>0.902298</v>
+        <v>0.9867010000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>1.00286</v>
+        <v>1.06264</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6542249999999999</v>
+        <v>0.669199</v>
       </c>
       <c r="C70" t="n">
-        <v>0.877018</v>
+        <v>0.962842</v>
       </c>
       <c r="D70" t="n">
-        <v>0.973656</v>
+        <v>1.03144</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.638651</v>
+        <v>0.654115</v>
       </c>
       <c r="C71" t="n">
-        <v>0.852471</v>
+        <v>0.933521</v>
       </c>
       <c r="D71" t="n">
-        <v>0.947427</v>
+        <v>1.00301</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.625074</v>
+        <v>0.639217</v>
       </c>
       <c r="C72" t="n">
-        <v>0.83082</v>
+        <v>0.90884</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9220120000000001</v>
+        <v>0.974785</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.612136</v>
+        <v>0.624252</v>
       </c>
       <c r="C73" t="n">
-        <v>0.809029</v>
+        <v>0.8846619999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.895782</v>
+        <v>0.949003</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.59843</v>
+        <v>0.611802</v>
       </c>
       <c r="C74" t="n">
-        <v>0.787691</v>
+        <v>0.862801</v>
       </c>
       <c r="D74" t="n">
-        <v>0.873299</v>
+        <v>0.9250890000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5902579999999999</v>
+        <v>0.601966</v>
       </c>
       <c r="C75" t="n">
-        <v>0.770066</v>
+        <v>0.840274</v>
       </c>
       <c r="D75" t="n">
-        <v>0.855876</v>
+        <v>0.901461</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.579967</v>
+        <v>0.590652</v>
       </c>
       <c r="C76" t="n">
-        <v>0.752506</v>
+        <v>0.825218</v>
       </c>
       <c r="D76" t="n">
-        <v>0.833772</v>
+        <v>0.8801600000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5665210000000001</v>
+        <v>0.57943</v>
       </c>
       <c r="C77" t="n">
-        <v>0.735882</v>
+        <v>0.805161</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8148570000000001</v>
+        <v>0.860982</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.560788</v>
+        <v>0.5702120000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.721109</v>
+        <v>0.784476</v>
       </c>
       <c r="D78" t="n">
-        <v>0.800602</v>
+        <v>0.8425280000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.555327</v>
+        <v>0.563965</v>
       </c>
       <c r="C79" t="n">
-        <v>0.710125</v>
+        <v>0.770543</v>
       </c>
       <c r="D79" t="n">
-        <v>0.787196</v>
+        <v>0.827759</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.551919</v>
+        <v>0.560828</v>
       </c>
       <c r="C80" t="n">
-        <v>1.0608</v>
+        <v>1.14602</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1868</v>
+        <v>1.23429</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.784578</v>
+        <v>0.787075</v>
       </c>
       <c r="C81" t="n">
-        <v>1.04527</v>
+        <v>1.12726</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16706</v>
+        <v>1.21375</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.780027</v>
+        <v>0.780045</v>
       </c>
       <c r="C82" t="n">
-        <v>1.02932</v>
+        <v>1.10525</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14492</v>
+        <v>1.18595</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7705379999999999</v>
+        <v>0.772126</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00746</v>
+        <v>1.08529</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1189</v>
+        <v>1.16329</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.76157</v>
+        <v>0.761605</v>
       </c>
       <c r="C84" t="n">
-        <v>0.987488</v>
+        <v>1.05011</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09368</v>
+        <v>1.12962</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.751246</v>
+        <v>0.753567</v>
       </c>
       <c r="C85" t="n">
-        <v>0.962823</v>
+        <v>1.03858</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06738</v>
+        <v>1.10982</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7409249999999999</v>
+        <v>0.743205</v>
       </c>
       <c r="C86" t="n">
-        <v>0.941057</v>
+        <v>1.00993</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04191</v>
+        <v>1.08187</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.730005</v>
+        <v>0.732241</v>
       </c>
       <c r="C87" t="n">
-        <v>0.919781</v>
+        <v>0.984549</v>
       </c>
       <c r="D87" t="n">
-        <v>1.01667</v>
+        <v>1.04918</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.720224</v>
+        <v>0.722068</v>
       </c>
       <c r="C88" t="n">
-        <v>0.897455</v>
+        <v>0.964256</v>
       </c>
       <c r="D88" t="n">
-        <v>0.991276</v>
+        <v>1.02539</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711127</v>
+        <v>0.710957</v>
       </c>
       <c r="C89" t="n">
-        <v>0.878822</v>
+        <v>0.942607</v>
       </c>
       <c r="D89" t="n">
-        <v>0.961564</v>
+        <v>1.00092</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.702176</v>
+        <v>0.700847</v>
       </c>
       <c r="C90" t="n">
-        <v>0.855822</v>
+        <v>0.916842</v>
       </c>
       <c r="D90" t="n">
-        <v>0.948508</v>
+        <v>0.972977</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6940499999999999</v>
+        <v>0.692456</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8409450000000001</v>
+        <v>0.89676</v>
       </c>
       <c r="D91" t="n">
-        <v>0.928222</v>
+        <v>0.957027</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.685242</v>
+        <v>0.68332</v>
       </c>
       <c r="C92" t="n">
-        <v>0.823662</v>
+        <v>0.880134</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9066340000000001</v>
+        <v>0.937107</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.679466</v>
+        <v>0.677895</v>
       </c>
       <c r="C93" t="n">
-        <v>0.803744</v>
+        <v>0.867025</v>
       </c>
       <c r="D93" t="n">
-        <v>0.892957</v>
+        <v>0.9203440000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.676025</v>
+        <v>0.674203</v>
       </c>
       <c r="C94" t="n">
-        <v>1.16464</v>
+        <v>1.23678</v>
       </c>
       <c r="D94" t="n">
-        <v>1.29352</v>
+        <v>1.33997</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.907979</v>
+        <v>0.908088</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16</v>
+        <v>1.22839</v>
       </c>
       <c r="D95" t="n">
-        <v>1.28144</v>
+        <v>1.31896</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.905307</v>
+        <v>0.9052480000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14636</v>
+        <v>1.21783</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25887</v>
+        <v>1.30437</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8961479999999999</v>
+        <v>0.894113</v>
       </c>
       <c r="C97" t="n">
-        <v>1.12473</v>
+        <v>1.19409</v>
       </c>
       <c r="D97" t="n">
-        <v>1.24422</v>
+        <v>1.28103</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.887121</v>
+        <v>0.884456</v>
       </c>
       <c r="C98" t="n">
-        <v>1.10852</v>
+        <v>1.17866</v>
       </c>
       <c r="D98" t="n">
-        <v>1.21881</v>
+        <v>1.25347</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.876021</v>
+        <v>0.874808</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09471</v>
+        <v>1.15639</v>
       </c>
       <c r="D99" t="n">
-        <v>1.19376</v>
+        <v>1.23461</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865235</v>
+        <v>0.865583</v>
       </c>
       <c r="C100" t="n">
-        <v>1.06928</v>
+        <v>1.13592</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16896</v>
+        <v>1.21108</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855764</v>
+        <v>0.855246</v>
       </c>
       <c r="C101" t="n">
-        <v>1.05193</v>
+        <v>1.11698</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14821</v>
+        <v>1.18301</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.847052</v>
+        <v>0.845897</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03629</v>
+        <v>1.10334</v>
       </c>
       <c r="D102" t="n">
-        <v>1.13055</v>
+        <v>1.1654</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.838249</v>
+        <v>0.838511</v>
       </c>
       <c r="C103" t="n">
-        <v>1.02156</v>
+        <v>1.08419</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1151</v>
+        <v>1.15019</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.830384</v>
+        <v>0.831685</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0119</v>
+        <v>1.06576</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09255</v>
+        <v>1.12395</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.823707</v>
+        <v>0.823638</v>
       </c>
       <c r="C105" t="n">
-        <v>0.996766</v>
+        <v>1.05036</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08046</v>
+        <v>1.10922</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8193049999999999</v>
+        <v>0.819147</v>
       </c>
       <c r="C106" t="n">
-        <v>0.984982</v>
+        <v>1.03842</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06451</v>
+        <v>1.09571</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.814999</v>
+        <v>0.814381</v>
       </c>
       <c r="C107" t="n">
-        <v>0.978307</v>
+        <v>1.02192</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05201</v>
+        <v>1.07894</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.813581</v>
+        <v>0.81186</v>
       </c>
       <c r="C108" t="n">
-        <v>1.31994</v>
+        <v>1.39969</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44992</v>
+        <v>1.49938</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.813062</v>
+        <v>0.814567</v>
       </c>
       <c r="C109" t="n">
-        <v>1.32279</v>
+        <v>1.39524</v>
       </c>
       <c r="D109" t="n">
-        <v>1.44399</v>
+        <v>1.48599</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04394</v>
+        <v>1.04513</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30925</v>
+        <v>1.38477</v>
       </c>
       <c r="D110" t="n">
-        <v>1.42318</v>
+        <v>1.47298</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03228</v>
+        <v>1.03343</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30198</v>
+        <v>1.36809</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41692</v>
+        <v>1.45926</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02007</v>
+        <v>1.02042</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29346</v>
+        <v>1.35443</v>
       </c>
       <c r="D112" t="n">
-        <v>1.40124</v>
+        <v>1.43447</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00798</v>
+        <v>1.0095</v>
       </c>
       <c r="C113" t="n">
-        <v>1.27655</v>
+        <v>1.34666</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38087</v>
+        <v>1.42006</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.99796</v>
+        <v>0.997374</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26912</v>
+        <v>1.33596</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3697</v>
+        <v>1.40377</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.986799</v>
+        <v>0.987466</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26597</v>
+        <v>1.32375</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35583</v>
+        <v>1.39237</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.976969</v>
+        <v>0.977535</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25597</v>
+        <v>1.31406</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34595</v>
+        <v>1.38468</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.968649</v>
+        <v>0.969342</v>
       </c>
       <c r="C117" t="n">
-        <v>1.24533</v>
+        <v>1.30393</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33485</v>
+        <v>1.36204</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.96088</v>
+        <v>0.961905</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24465</v>
+        <v>1.29529</v>
       </c>
       <c r="D118" t="n">
-        <v>1.32626</v>
+        <v>1.35625</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.953518</v>
+        <v>0.954842</v>
       </c>
       <c r="C119" t="n">
-        <v>1.2372</v>
+        <v>1.2837</v>
       </c>
       <c r="D119" t="n">
-        <v>1.31616</v>
+        <v>1.34906</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.94792</v>
+        <v>0.9486869999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22211</v>
+        <v>1.27738</v>
       </c>
       <c r="D120" t="n">
-        <v>1.30293</v>
+        <v>1.33738</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.944319</v>
+        <v>0.944845</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22152</v>
+        <v>1.2702</v>
       </c>
       <c r="D121" t="n">
-        <v>1.2984</v>
+        <v>1.32359</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.940284</v>
+        <v>0.942663</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21549</v>
+        <v>1.25789</v>
       </c>
       <c r="D122" t="n">
-        <v>1.28385</v>
+        <v>1.30586</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.941269</v>
+        <v>0.942335</v>
       </c>
       <c r="C123" t="n">
-        <v>1.55582</v>
+        <v>1.63044</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6787</v>
+        <v>1.72137</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16662</v>
+        <v>1.16926</v>
       </c>
       <c r="C124" t="n">
-        <v>1.54584</v>
+        <v>1.62181</v>
       </c>
       <c r="D124" t="n">
-        <v>1.66964</v>
+        <v>1.71301</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15611</v>
+        <v>1.15848</v>
       </c>
       <c r="C125" t="n">
-        <v>1.54604</v>
+        <v>1.60895</v>
       </c>
       <c r="D125" t="n">
-        <v>1.65243</v>
+        <v>1.6955</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14503</v>
+        <v>1.14759</v>
       </c>
       <c r="C126" t="n">
-        <v>1.53009</v>
+        <v>1.59602</v>
       </c>
       <c r="D126" t="n">
-        <v>1.6351</v>
+        <v>1.68635</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13451</v>
+        <v>1.13778</v>
       </c>
       <c r="C127" t="n">
-        <v>1.53028</v>
+        <v>1.58378</v>
       </c>
       <c r="D127" t="n">
-        <v>1.62677</v>
+        <v>1.66318</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12603</v>
+        <v>1.12784</v>
       </c>
       <c r="C128" t="n">
-        <v>1.51505</v>
+        <v>1.57766</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61145</v>
+        <v>1.65495</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11743</v>
+        <v>1.12024</v>
       </c>
       <c r="C129" t="n">
-        <v>1.50433</v>
+        <v>1.56526</v>
       </c>
       <c r="D129" t="n">
-        <v>1.59897</v>
+        <v>1.63405</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10974</v>
+        <v>1.11213</v>
       </c>
       <c r="C130" t="n">
-        <v>1.50449</v>
+        <v>1.55304</v>
       </c>
       <c r="D130" t="n">
-        <v>1.58858</v>
+        <v>1.62053</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10239</v>
+        <v>1.10531</v>
       </c>
       <c r="C131" t="n">
-        <v>1.49781</v>
+        <v>1.55123</v>
       </c>
       <c r="D131" t="n">
-        <v>1.57686</v>
+        <v>1.61737</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09692</v>
+        <v>1.0989</v>
       </c>
       <c r="C132" t="n">
-        <v>1.49167</v>
+        <v>1.54459</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57635</v>
+        <v>1.59847</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09165</v>
+        <v>1.09391</v>
       </c>
       <c r="C133" t="n">
-        <v>1.48623</v>
+        <v>1.53621</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5615</v>
+        <v>1.59758</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08761</v>
+        <v>1.09024</v>
       </c>
       <c r="C134" t="n">
-        <v>1.47715</v>
+        <v>1.52884</v>
       </c>
       <c r="D134" t="n">
-        <v>1.55067</v>
+        <v>1.58399</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08645</v>
+        <v>1.08794</v>
       </c>
       <c r="C135" t="n">
-        <v>1.47659</v>
+        <v>1.5245</v>
       </c>
       <c r="D135" t="n">
-        <v>1.54294</v>
+        <v>1.57859</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08568</v>
+        <v>1.0881</v>
       </c>
       <c r="C136" t="n">
-        <v>1.47101</v>
+        <v>1.52007</v>
       </c>
       <c r="D136" t="n">
-        <v>1.54062</v>
+        <v>1.57386</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08697</v>
+        <v>1.08983</v>
       </c>
       <c r="C137" t="n">
-        <v>1.8166</v>
+        <v>1.88804</v>
       </c>
       <c r="D137" t="n">
-        <v>1.93662</v>
+        <v>1.98408</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.3135</v>
+        <v>1.31723</v>
       </c>
       <c r="C138" t="n">
-        <v>1.79851</v>
+        <v>1.8696</v>
       </c>
       <c r="D138" t="n">
-        <v>1.91418</v>
+        <v>1.96031</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30448</v>
+        <v>1.30851</v>
       </c>
       <c r="C139" t="n">
-        <v>1.78585</v>
+        <v>1.85029</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89226</v>
+        <v>1.93859</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29721</v>
+        <v>1.2996</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77158</v>
+        <v>1.83391</v>
       </c>
       <c r="D140" t="n">
-        <v>1.8738</v>
+        <v>1.92162</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28946</v>
+        <v>1.2909</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7572</v>
+        <v>1.81757</v>
       </c>
       <c r="D141" t="n">
-        <v>1.85974</v>
+        <v>1.89878</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.28227</v>
+        <v>1.28485</v>
       </c>
       <c r="C142" t="n">
-        <v>1.74644</v>
+        <v>1.80231</v>
       </c>
       <c r="D142" t="n">
-        <v>1.84238</v>
+        <v>1.87801</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.27633</v>
+        <v>1.28002</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73056</v>
+        <v>1.7883</v>
       </c>
       <c r="D143" t="n">
-        <v>1.82803</v>
+        <v>1.86603</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.486477</v>
+        <v>0.485897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7574959999999999</v>
+        <v>0.758193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7640400000000001</v>
+        <v>0.762969</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.473807</v>
+        <v>0.472583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.736768</v>
+        <v>0.73777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.743093</v>
+        <v>0.742699</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.461774</v>
+        <v>0.461299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.717602</v>
+        <v>0.7183079999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.724287</v>
+        <v>0.723687</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.453424</v>
+        <v>0.451937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6992620000000001</v>
+        <v>0.700553</v>
       </c>
       <c r="D5" t="n">
-        <v>0.706267</v>
+        <v>0.705417</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.445631</v>
+        <v>0.444809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.683162</v>
+        <v>0.684235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6902239999999999</v>
+        <v>0.688981</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439648</v>
+        <v>0.438946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668387</v>
+        <v>0.670036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.675565</v>
+        <v>0.67516</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436981</v>
+        <v>0.436522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.656742</v>
+        <v>0.657968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.663732</v>
+        <v>0.6630239999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437633</v>
+        <v>0.437044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.974469</v>
+        <v>0.976874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.982771</v>
+        <v>0.982447</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.573313</v>
+        <v>0.573219</v>
       </c>
       <c r="C10" t="n">
-        <v>0.894581</v>
+        <v>0.896558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.95163</v>
+        <v>0.951217</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555899</v>
+        <v>0.555893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.866799</v>
+        <v>0.868815</v>
       </c>
       <c r="D11" t="n">
-        <v>0.921737</v>
+        <v>0.921431</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539292</v>
+        <v>0.539285</v>
       </c>
       <c r="C12" t="n">
-        <v>0.841167</v>
+        <v>0.842612</v>
       </c>
       <c r="D12" t="n">
-        <v>0.893605</v>
+        <v>0.893634</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523312</v>
+        <v>0.52363</v>
       </c>
       <c r="C13" t="n">
-        <v>0.81603</v>
+        <v>0.817782</v>
       </c>
       <c r="D13" t="n">
-        <v>0.866789</v>
+        <v>0.866584</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.509279</v>
+        <v>0.509446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.792809</v>
+        <v>0.794196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.841398</v>
+        <v>0.841539</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.49571</v>
+        <v>0.49532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.770715</v>
+        <v>0.772219</v>
       </c>
       <c r="D15" t="n">
-        <v>0.817657</v>
+        <v>0.817589</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.482432</v>
+        <v>0.481989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.749594</v>
+        <v>0.751389</v>
       </c>
       <c r="D16" t="n">
-        <v>0.794915</v>
+        <v>0.79483</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470305</v>
+        <v>0.470468</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7297940000000001</v>
+        <v>0.731507</v>
       </c>
       <c r="D17" t="n">
-        <v>0.773434</v>
+        <v>0.773285</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45929</v>
+        <v>0.45924</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7112540000000001</v>
+        <v>0.713087</v>
       </c>
       <c r="D18" t="n">
-        <v>0.75347</v>
+        <v>0.753266</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.451379</v>
+        <v>0.449471</v>
       </c>
       <c r="C19" t="n">
-        <v>0.694643</v>
+        <v>0.696043</v>
       </c>
       <c r="D19" t="n">
-        <v>0.735069</v>
+        <v>0.734613</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442454</v>
+        <v>0.442198</v>
       </c>
       <c r="C20" t="n">
-        <v>0.679522</v>
+        <v>0.6807569999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.718235</v>
+        <v>0.718175</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436473</v>
+        <v>0.436313</v>
       </c>
       <c r="C21" t="n">
-        <v>0.66656</v>
+        <v>0.668046</v>
       </c>
       <c r="D21" t="n">
-        <v>0.704081</v>
+        <v>0.703982</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.43267</v>
+        <v>0.432599</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6569739999999999</v>
+        <v>0.658089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6927140000000001</v>
+        <v>0.69303</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432593</v>
+        <v>0.432098</v>
       </c>
       <c r="C23" t="n">
-        <v>0.981773</v>
+        <v>0.982968</v>
       </c>
       <c r="D23" t="n">
-        <v>1.02637</v>
+        <v>1.02699</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.619967</v>
+        <v>0.621455</v>
       </c>
       <c r="C24" t="n">
-        <v>0.950472</v>
+        <v>0.951655</v>
       </c>
       <c r="D24" t="n">
-        <v>0.992864</v>
+        <v>0.99272</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.601979</v>
+        <v>0.6026280000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.921102</v>
+        <v>0.922505</v>
       </c>
       <c r="D25" t="n">
-        <v>0.963576</v>
+        <v>0.962245</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.584139</v>
+        <v>0.582618</v>
       </c>
       <c r="C26" t="n">
-        <v>0.892796</v>
+        <v>0.893541</v>
       </c>
       <c r="D26" t="n">
-        <v>0.932026</v>
+        <v>0.934003</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.565079</v>
+        <v>0.564906</v>
       </c>
       <c r="C27" t="n">
-        <v>0.865542</v>
+        <v>0.867478</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9054990000000001</v>
+        <v>0.90594</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549997</v>
+        <v>0.549612</v>
       </c>
       <c r="C28" t="n">
-        <v>0.840523</v>
+        <v>0.840808</v>
       </c>
       <c r="D28" t="n">
-        <v>0.879761</v>
+        <v>0.877905</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533928</v>
+        <v>0.534562</v>
       </c>
       <c r="C29" t="n">
-        <v>0.816753</v>
+        <v>0.817051</v>
       </c>
       <c r="D29" t="n">
-        <v>0.854432</v>
+        <v>0.852761</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.519864</v>
+        <v>0.518266</v>
       </c>
       <c r="C30" t="n">
-        <v>0.793098</v>
+        <v>0.793547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.828515</v>
+        <v>0.828772</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5068780000000001</v>
+        <v>0.504941</v>
       </c>
       <c r="C31" t="n">
-        <v>0.772433</v>
+        <v>0.7720939999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.807736</v>
+        <v>0.806274</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.49413</v>
+        <v>0.49393</v>
       </c>
       <c r="C32" t="n">
-        <v>0.751972</v>
+        <v>0.752745</v>
       </c>
       <c r="D32" t="n">
-        <v>0.78692</v>
+        <v>0.787137</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.483099</v>
+        <v>0.481378</v>
       </c>
       <c r="C33" t="n">
-        <v>0.733552</v>
+        <v>0.732808</v>
       </c>
       <c r="D33" t="n">
-        <v>0.767058</v>
+        <v>0.765698</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.47236</v>
+        <v>0.471529</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7155359999999999</v>
+        <v>0.715675</v>
       </c>
       <c r="D34" t="n">
-        <v>0.747289</v>
+        <v>0.74747</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464111</v>
+        <v>0.463818</v>
       </c>
       <c r="C35" t="n">
-        <v>0.700613</v>
+        <v>0.7006289999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.731441</v>
+        <v>0.7317129999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458913</v>
+        <v>0.458302</v>
       </c>
       <c r="C36" t="n">
-        <v>0.688935</v>
+        <v>0.688581</v>
       </c>
       <c r="D36" t="n">
-        <v>0.718504</v>
+        <v>0.718873</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455585</v>
+        <v>0.455461</v>
       </c>
       <c r="C37" t="n">
-        <v>1.01732</v>
+        <v>1.01793</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06355</v>
+        <v>1.0641</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.647451</v>
+        <v>0.648881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9855699999999999</v>
+        <v>0.984854</v>
       </c>
       <c r="D38" t="n">
-        <v>1.02996</v>
+        <v>1.03062</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.628464</v>
+        <v>0.628544</v>
       </c>
       <c r="C39" t="n">
-        <v>0.95379</v>
+        <v>0.95391</v>
       </c>
       <c r="D39" t="n">
-        <v>0.998514</v>
+        <v>0.99846</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.609309</v>
+        <v>0.609308</v>
       </c>
       <c r="C40" t="n">
-        <v>0.924536</v>
+        <v>0.924535</v>
       </c>
       <c r="D40" t="n">
-        <v>0.967984</v>
+        <v>0.967757</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.591145</v>
+        <v>0.593139</v>
       </c>
       <c r="C41" t="n">
-        <v>0.896611</v>
+        <v>0.897054</v>
       </c>
       <c r="D41" t="n">
-        <v>0.941769</v>
+        <v>0.938508</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.577386</v>
+        <v>0.575978</v>
       </c>
       <c r="C42" t="n">
-        <v>0.876471</v>
+        <v>0.870375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.929549</v>
+        <v>0.910946</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5594789999999999</v>
+        <v>0.559648</v>
       </c>
       <c r="C43" t="n">
-        <v>0.846566</v>
+        <v>0.8458909999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8844109999999999</v>
+        <v>0.88441</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.544936</v>
+        <v>0.544498</v>
       </c>
       <c r="C44" t="n">
-        <v>0.822771</v>
+        <v>0.822899</v>
       </c>
       <c r="D44" t="n">
-        <v>0.859594</v>
+        <v>0.859671</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.528053</v>
+        <v>0.529894</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8003749999999999</v>
+        <v>0.800488</v>
       </c>
       <c r="D45" t="n">
-        <v>0.835885</v>
+        <v>0.836305</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.51519</v>
+        <v>0.5167929999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.779778</v>
+        <v>0.779487</v>
       </c>
       <c r="D46" t="n">
-        <v>0.833353</v>
+        <v>0.813978</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.506867</v>
+        <v>0.505059</v>
       </c>
       <c r="C47" t="n">
-        <v>0.765323</v>
+        <v>0.759826</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8078</v>
+        <v>0.793394</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.496151</v>
+        <v>0.495365</v>
       </c>
       <c r="C48" t="n">
-        <v>0.743362</v>
+        <v>0.741586</v>
       </c>
       <c r="D48" t="n">
-        <v>0.78213</v>
+        <v>0.7741980000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.48617</v>
+        <v>0.487576</v>
       </c>
       <c r="C49" t="n">
-        <v>0.724333</v>
+        <v>0.725637</v>
       </c>
       <c r="D49" t="n">
-        <v>0.76153</v>
+        <v>0.757047</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.479519</v>
+        <v>0.479404</v>
       </c>
       <c r="C50" t="n">
-        <v>0.712059</v>
+        <v>0.711676</v>
       </c>
       <c r="D50" t="n">
-        <v>0.742775</v>
+        <v>0.742569</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.473453</v>
+        <v>0.475155</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05731</v>
+        <v>1.0483</v>
       </c>
       <c r="D51" t="n">
-        <v>1.12539</v>
+        <v>1.11368</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.476037</v>
+        <v>0.475017</v>
       </c>
       <c r="C52" t="n">
-        <v>1.02446</v>
+        <v>1.01735</v>
       </c>
       <c r="D52" t="n">
-        <v>1.09099</v>
+        <v>1.08021</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.665202</v>
+        <v>0.658294</v>
       </c>
       <c r="C53" t="n">
-        <v>0.98907</v>
+        <v>0.985443</v>
       </c>
       <c r="D53" t="n">
-        <v>1.05145</v>
+        <v>1.04638</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.635172</v>
+        <v>0.6382100000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.952968</v>
+        <v>0.9555940000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>1.0152</v>
+        <v>1.01098</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.617162</v>
+        <v>0.618707</v>
       </c>
       <c r="C55" t="n">
-        <v>0.92454</v>
+        <v>0.92484</v>
       </c>
       <c r="D55" t="n">
-        <v>0.985804</v>
+        <v>0.9812110000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.605959</v>
+        <v>0.60106</v>
       </c>
       <c r="C56" t="n">
-        <v>0.912713</v>
+        <v>0.897818</v>
       </c>
       <c r="D56" t="n">
-        <v>0.972164</v>
+        <v>0.95243</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.593257</v>
+        <v>0.586452</v>
       </c>
       <c r="C57" t="n">
-        <v>0.879379</v>
+        <v>0.870735</v>
       </c>
       <c r="D57" t="n">
-        <v>0.939276</v>
+        <v>0.92839</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.578515</v>
+        <v>0.570174</v>
       </c>
       <c r="C58" t="n">
-        <v>0.85712</v>
+        <v>0.845686</v>
       </c>
       <c r="D58" t="n">
-        <v>0.907905</v>
+        <v>0.905506</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.569732</v>
+        <v>0.558935</v>
       </c>
       <c r="C59" t="n">
-        <v>0.840548</v>
+        <v>0.828253</v>
       </c>
       <c r="D59" t="n">
-        <v>0.892509</v>
+        <v>0.875332</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.55525</v>
+        <v>0.543322</v>
       </c>
       <c r="C60" t="n">
-        <v>0.81334</v>
+        <v>0.806544</v>
       </c>
       <c r="D60" t="n">
-        <v>0.867996</v>
+        <v>0.857663</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.54334</v>
+        <v>0.533728</v>
       </c>
       <c r="C61" t="n">
-        <v>0.796501</v>
+        <v>0.787604</v>
       </c>
       <c r="D61" t="n">
-        <v>0.849729</v>
+        <v>0.835691</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.524896</v>
+        <v>0.522915</v>
       </c>
       <c r="C62" t="n">
-        <v>0.770576</v>
+        <v>0.769834</v>
       </c>
       <c r="D62" t="n">
-        <v>0.821021</v>
+        <v>0.817159</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5162099999999999</v>
+        <v>0.51558</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7558280000000001</v>
+        <v>0.754199</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7985449999999999</v>
+        <v>0.798747</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.503006</v>
+        <v>0.507912</v>
       </c>
       <c r="C64" t="n">
-        <v>0.737309</v>
+        <v>0.738447</v>
       </c>
       <c r="D64" t="n">
-        <v>0.788344</v>
+        <v>0.781475</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.508676</v>
+        <v>0.502628</v>
       </c>
       <c r="C65" t="n">
-        <v>0.730479</v>
+        <v>0.726564</v>
       </c>
       <c r="D65" t="n">
-        <v>0.77525</v>
+        <v>0.767958</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.51157</v>
+        <v>0.500783</v>
       </c>
       <c r="C66" t="n">
-        <v>1.07754</v>
+        <v>1.0713</v>
       </c>
       <c r="D66" t="n">
-        <v>1.1598</v>
+        <v>1.14929</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.718232</v>
+        <v>0.711516</v>
       </c>
       <c r="C67" t="n">
-        <v>1.04571</v>
+        <v>1.03989</v>
       </c>
       <c r="D67" t="n">
-        <v>1.1253</v>
+        <v>1.1165</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.70245</v>
+        <v>0.6954</v>
       </c>
       <c r="C68" t="n">
-        <v>1.01874</v>
+        <v>1.0106</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09426</v>
+        <v>1.08584</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.686504</v>
+        <v>0.679634</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9867010000000001</v>
+        <v>0.983656</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06264</v>
+        <v>1.05479</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.669199</v>
+        <v>0.664261</v>
       </c>
       <c r="C70" t="n">
-        <v>0.962842</v>
+        <v>0.9568990000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03144</v>
+        <v>1.02489</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.654115</v>
+        <v>0.650489</v>
       </c>
       <c r="C71" t="n">
-        <v>0.933521</v>
+        <v>0.932068</v>
       </c>
       <c r="D71" t="n">
-        <v>1.00301</v>
+        <v>0.997898</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.639217</v>
+        <v>0.636639</v>
       </c>
       <c r="C72" t="n">
-        <v>0.90884</v>
+        <v>0.907097</v>
       </c>
       <c r="D72" t="n">
-        <v>0.974785</v>
+        <v>0.971596</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.624252</v>
+        <v>0.622911</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8846619999999999</v>
+        <v>0.8832140000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.949003</v>
+        <v>0.942958</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.611802</v>
+        <v>0.609779</v>
       </c>
       <c r="C74" t="n">
-        <v>0.862801</v>
+        <v>0.85648</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9250890000000001</v>
+        <v>0.919924</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.601966</v>
+        <v>0.597758</v>
       </c>
       <c r="C75" t="n">
-        <v>0.840274</v>
+        <v>0.834666</v>
       </c>
       <c r="D75" t="n">
-        <v>0.901461</v>
+        <v>0.896227</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.590652</v>
+        <v>0.5866479999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.825218</v>
+        <v>0.822609</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8801600000000001</v>
+        <v>0.876173</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.57943</v>
+        <v>0.577101</v>
       </c>
       <c r="C77" t="n">
-        <v>0.805161</v>
+        <v>0.803586</v>
       </c>
       <c r="D77" t="n">
-        <v>0.860982</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5702120000000001</v>
+        <v>0.569109</v>
       </c>
       <c r="C78" t="n">
-        <v>0.784476</v>
+        <v>0.781589</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8425280000000001</v>
+        <v>0.83718</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.563965</v>
+        <v>0.562516</v>
       </c>
       <c r="C79" t="n">
-        <v>0.770543</v>
+        <v>0.768644</v>
       </c>
       <c r="D79" t="n">
-        <v>0.827759</v>
+        <v>0.822423</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.560828</v>
+        <v>0.55926</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14602</v>
+        <v>1.14845</v>
       </c>
       <c r="D80" t="n">
-        <v>1.23429</v>
+        <v>1.23518</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.787075</v>
+        <v>0.791257</v>
       </c>
       <c r="C81" t="n">
-        <v>1.12726</v>
+        <v>1.12801</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21375</v>
+        <v>1.21254</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.780045</v>
+        <v>0.783516</v>
       </c>
       <c r="C82" t="n">
-        <v>1.10525</v>
+        <v>1.10831</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18595</v>
+        <v>1.18834</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.772126</v>
+        <v>0.774413</v>
       </c>
       <c r="C83" t="n">
-        <v>1.08529</v>
+        <v>1.08185</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16329</v>
+        <v>1.16239</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.761605</v>
+        <v>0.76436</v>
       </c>
       <c r="C84" t="n">
-        <v>1.05011</v>
+        <v>1.05827</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12962</v>
+        <v>1.13503</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.753567</v>
+        <v>0.754474</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03858</v>
+        <v>1.03363</v>
       </c>
       <c r="D85" t="n">
-        <v>1.10982</v>
+        <v>1.10713</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.743205</v>
+        <v>0.743405</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00993</v>
+        <v>1.00871</v>
       </c>
       <c r="D86" t="n">
-        <v>1.08187</v>
+        <v>1.07991</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.732241</v>
+        <v>0.732559</v>
       </c>
       <c r="C87" t="n">
-        <v>0.984549</v>
+        <v>0.984402</v>
       </c>
       <c r="D87" t="n">
-        <v>1.04918</v>
+        <v>1.05305</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.722068</v>
+        <v>0.722433</v>
       </c>
       <c r="C88" t="n">
-        <v>0.964256</v>
+        <v>0.960425</v>
       </c>
       <c r="D88" t="n">
-        <v>1.02539</v>
+        <v>1.02588</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.710957</v>
+        <v>0.711225</v>
       </c>
       <c r="C89" t="n">
-        <v>0.942607</v>
+        <v>0.93697</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00092</v>
+        <v>1.00161</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.700847</v>
+        <v>0.70099</v>
       </c>
       <c r="C90" t="n">
-        <v>0.916842</v>
+        <v>0.917957</v>
       </c>
       <c r="D90" t="n">
-        <v>0.972977</v>
+        <v>0.975984</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.692456</v>
+        <v>0.690854</v>
       </c>
       <c r="C91" t="n">
-        <v>0.89676</v>
+        <v>0.894586</v>
       </c>
       <c r="D91" t="n">
-        <v>0.957027</v>
+        <v>0.954623</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.68332</v>
+        <v>0.682532</v>
       </c>
       <c r="C92" t="n">
-        <v>0.880134</v>
+        <v>0.876437</v>
       </c>
       <c r="D92" t="n">
-        <v>0.937107</v>
+        <v>0.934039</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677895</v>
+        <v>0.677022</v>
       </c>
       <c r="C93" t="n">
-        <v>0.867025</v>
+        <v>0.860806</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9203440000000001</v>
+        <v>0.916189</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.674203</v>
+        <v>0.672729</v>
       </c>
       <c r="C94" t="n">
-        <v>1.23678</v>
+        <v>1.23641</v>
       </c>
       <c r="D94" t="n">
-        <v>1.33997</v>
+        <v>1.33075</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.908088</v>
+        <v>0.907263</v>
       </c>
       <c r="C95" t="n">
-        <v>1.22839</v>
+        <v>1.22758</v>
       </c>
       <c r="D95" t="n">
-        <v>1.31896</v>
+        <v>1.31662</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9052480000000001</v>
+        <v>0.905222</v>
       </c>
       <c r="C96" t="n">
-        <v>1.21783</v>
+        <v>1.21349</v>
       </c>
       <c r="D96" t="n">
-        <v>1.30437</v>
+        <v>1.29787</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.894113</v>
+        <v>0.8951249999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19409</v>
+        <v>1.19966</v>
       </c>
       <c r="D97" t="n">
-        <v>1.28103</v>
+        <v>1.27653</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.884456</v>
+        <v>0.884105</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17866</v>
+        <v>1.17582</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25347</v>
+        <v>1.2472</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.874808</v>
+        <v>0.875767</v>
       </c>
       <c r="C99" t="n">
-        <v>1.15639</v>
+        <v>1.16029</v>
       </c>
       <c r="D99" t="n">
-        <v>1.23461</v>
+        <v>1.22988</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865583</v>
+        <v>0.867117</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13592</v>
+        <v>1.14109</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21108</v>
+        <v>1.20716</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855246</v>
+        <v>0.856283</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11698</v>
+        <v>1.12203</v>
       </c>
       <c r="D101" t="n">
-        <v>1.18301</v>
+        <v>1.18719</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.845897</v>
+        <v>0.848556</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10334</v>
+        <v>1.10446</v>
       </c>
       <c r="D102" t="n">
-        <v>1.1654</v>
+        <v>1.16422</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.838511</v>
+        <v>0.838836</v>
       </c>
       <c r="C103" t="n">
-        <v>1.08419</v>
+        <v>1.08156</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15019</v>
+        <v>1.14628</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.831685</v>
+        <v>0.8319530000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06576</v>
+        <v>1.06698</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12395</v>
+        <v>1.12169</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.823638</v>
+        <v>0.825037</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05036</v>
+        <v>1.05411</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10922</v>
+        <v>1.10303</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.819147</v>
+        <v>0.819957</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03842</v>
+        <v>1.04041</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09571</v>
+        <v>1.08688</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.814381</v>
+        <v>0.81571</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02192</v>
+        <v>1.0271</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07894</v>
+        <v>1.07172</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.81186</v>
+        <v>0.813383</v>
       </c>
       <c r="C108" t="n">
-        <v>1.39969</v>
+        <v>1.40331</v>
       </c>
       <c r="D108" t="n">
-        <v>1.49938</v>
+        <v>1.49254</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.814567</v>
+        <v>0.8144439999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.39524</v>
+        <v>1.39581</v>
       </c>
       <c r="D109" t="n">
-        <v>1.48599</v>
+        <v>1.48408</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04513</v>
+        <v>1.04498</v>
       </c>
       <c r="C110" t="n">
-        <v>1.38477</v>
+        <v>1.38299</v>
       </c>
       <c r="D110" t="n">
-        <v>1.47298</v>
+        <v>1.47366</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03343</v>
+        <v>1.03322</v>
       </c>
       <c r="C111" t="n">
-        <v>1.36809</v>
+        <v>1.36942</v>
       </c>
       <c r="D111" t="n">
-        <v>1.45926</v>
+        <v>1.45664</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02042</v>
+        <v>1.02136</v>
       </c>
       <c r="C112" t="n">
-        <v>1.35443</v>
+        <v>1.35463</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43447</v>
+        <v>1.43271</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0095</v>
+        <v>1.00976</v>
       </c>
       <c r="C113" t="n">
-        <v>1.34666</v>
+        <v>1.34389</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42006</v>
+        <v>1.4174</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.997374</v>
+        <v>0.998929</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33596</v>
+        <v>1.33426</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40377</v>
+        <v>1.40383</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.987466</v>
+        <v>0.9874000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32375</v>
+        <v>1.32356</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39237</v>
+        <v>1.38689</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.977535</v>
+        <v>0.977542</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31406</v>
+        <v>1.31456</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38468</v>
+        <v>1.3807</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.969342</v>
+        <v>0.9694390000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.30393</v>
+        <v>1.29957</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36204</v>
+        <v>1.35861</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.961905</v>
+        <v>0.961553</v>
       </c>
       <c r="C118" t="n">
-        <v>1.29529</v>
+        <v>1.29204</v>
       </c>
       <c r="D118" t="n">
-        <v>1.35625</v>
+        <v>1.34832</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.954842</v>
+        <v>0.954558</v>
       </c>
       <c r="C119" t="n">
-        <v>1.2837</v>
+        <v>1.28632</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34906</v>
+        <v>1.3347</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9486869999999999</v>
+        <v>0.947952</v>
       </c>
       <c r="C120" t="n">
-        <v>1.27738</v>
+        <v>1.27248</v>
       </c>
       <c r="D120" t="n">
-        <v>1.33738</v>
+        <v>1.33305</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.944845</v>
+        <v>0.943751</v>
       </c>
       <c r="C121" t="n">
-        <v>1.2702</v>
+        <v>1.26886</v>
       </c>
       <c r="D121" t="n">
-        <v>1.32359</v>
+        <v>1.32424</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.942663</v>
+        <v>0.941174</v>
       </c>
       <c r="C122" t="n">
-        <v>1.25789</v>
+        <v>1.26114</v>
       </c>
       <c r="D122" t="n">
-        <v>1.30586</v>
+        <v>1.31331</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.942335</v>
+        <v>0.942137</v>
       </c>
       <c r="C123" t="n">
-        <v>1.63044</v>
+        <v>1.63042</v>
       </c>
       <c r="D123" t="n">
-        <v>1.72137</v>
+        <v>1.7162</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16926</v>
+        <v>1.1693</v>
       </c>
       <c r="C124" t="n">
-        <v>1.62181</v>
+        <v>1.61575</v>
       </c>
       <c r="D124" t="n">
-        <v>1.71301</v>
+        <v>1.70705</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15848</v>
+        <v>1.15824</v>
       </c>
       <c r="C125" t="n">
-        <v>1.60895</v>
+        <v>1.6081</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6955</v>
+        <v>1.69207</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14759</v>
+        <v>1.14747</v>
       </c>
       <c r="C126" t="n">
-        <v>1.59602</v>
+        <v>1.59434</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68635</v>
+        <v>1.67525</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13778</v>
+        <v>1.13728</v>
       </c>
       <c r="C127" t="n">
-        <v>1.58378</v>
+        <v>1.5822</v>
       </c>
       <c r="D127" t="n">
-        <v>1.66318</v>
+        <v>1.6633</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12784</v>
+        <v>1.12778</v>
       </c>
       <c r="C128" t="n">
-        <v>1.57766</v>
+        <v>1.57646</v>
       </c>
       <c r="D128" t="n">
-        <v>1.65495</v>
+        <v>1.64294</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.12024</v>
+        <v>1.1197</v>
       </c>
       <c r="C129" t="n">
-        <v>1.56526</v>
+        <v>1.56391</v>
       </c>
       <c r="D129" t="n">
-        <v>1.63405</v>
+        <v>1.6328</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11213</v>
+        <v>1.11167</v>
       </c>
       <c r="C130" t="n">
-        <v>1.55304</v>
+        <v>1.55739</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62053</v>
+        <v>1.61733</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10531</v>
+        <v>1.10434</v>
       </c>
       <c r="C131" t="n">
-        <v>1.55123</v>
+        <v>1.54695</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61737</v>
+        <v>1.60535</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0989</v>
+        <v>1.0985</v>
       </c>
       <c r="C132" t="n">
-        <v>1.54459</v>
+        <v>1.54148</v>
       </c>
       <c r="D132" t="n">
-        <v>1.59847</v>
+        <v>1.59489</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09391</v>
+        <v>1.09257</v>
       </c>
       <c r="C133" t="n">
-        <v>1.53621</v>
+        <v>1.53246</v>
       </c>
       <c r="D133" t="n">
-        <v>1.59758</v>
+        <v>1.58893</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.09024</v>
+        <v>1.08943</v>
       </c>
       <c r="C134" t="n">
-        <v>1.52884</v>
+        <v>1.52683</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58399</v>
+        <v>1.57637</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08794</v>
+        <v>1.08799</v>
       </c>
       <c r="C135" t="n">
-        <v>1.5245</v>
+        <v>1.51636</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57859</v>
+        <v>1.5663</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0881</v>
+        <v>1.08688</v>
       </c>
       <c r="C136" t="n">
-        <v>1.52007</v>
+        <v>1.51398</v>
       </c>
       <c r="D136" t="n">
-        <v>1.57386</v>
+        <v>1.56106</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08983</v>
+        <v>1.08925</v>
       </c>
       <c r="C137" t="n">
-        <v>1.88804</v>
+        <v>1.88849</v>
       </c>
       <c r="D137" t="n">
-        <v>1.98408</v>
+        <v>1.97672</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31723</v>
+        <v>1.3181</v>
       </c>
       <c r="C138" t="n">
-        <v>1.8696</v>
+        <v>1.86859</v>
       </c>
       <c r="D138" t="n">
-        <v>1.96031</v>
+        <v>1.95645</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30851</v>
+        <v>1.30959</v>
       </c>
       <c r="C139" t="n">
-        <v>1.85029</v>
+        <v>1.85491</v>
       </c>
       <c r="D139" t="n">
-        <v>1.93859</v>
+        <v>1.93695</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2996</v>
+        <v>1.30105</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83391</v>
+        <v>1.83423</v>
       </c>
       <c r="D140" t="n">
-        <v>1.92162</v>
+        <v>1.91628</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.2909</v>
+        <v>1.29301</v>
       </c>
       <c r="C141" t="n">
-        <v>1.81757</v>
+        <v>1.81838</v>
       </c>
       <c r="D141" t="n">
-        <v>1.89878</v>
+        <v>1.8969</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.28485</v>
+        <v>1.28658</v>
       </c>
       <c r="C142" t="n">
-        <v>1.80231</v>
+        <v>1.80559</v>
       </c>
       <c r="D142" t="n">
-        <v>1.87801</v>
+        <v>1.87973</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.28002</v>
+        <v>1.2804</v>
       </c>
       <c r="C143" t="n">
-        <v>1.7883</v>
+        <v>1.79225</v>
       </c>
       <c r="D143" t="n">
-        <v>1.86603</v>
+        <v>1.86022</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485897</v>
+        <v>0.486108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.758193</v>
+        <v>0.7602910000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.762969</v>
+        <v>0.765188</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.472583</v>
+        <v>0.474393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.73777</v>
+        <v>0.739031</v>
       </c>
       <c r="D3" t="n">
-        <v>0.742699</v>
+        <v>0.7439519999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.461299</v>
+        <v>0.462936</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7183079999999999</v>
+        <v>0.719645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.723687</v>
+        <v>0.725291</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451937</v>
+        <v>0.453769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.700553</v>
+        <v>0.702047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.705417</v>
+        <v>0.706914</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.444809</v>
+        <v>0.446352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.684235</v>
+        <v>0.685408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.688981</v>
+        <v>0.690449</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.438946</v>
+        <v>0.44038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.670036</v>
+        <v>0.671023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.67516</v>
+        <v>0.677077</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436522</v>
+        <v>0.437403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.657968</v>
+        <v>0.6587809999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6630239999999999</v>
+        <v>0.66467</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437044</v>
+        <v>0.438435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.976874</v>
+        <v>0.978069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.982447</v>
+        <v>0.984965</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.573219</v>
+        <v>0.574147</v>
       </c>
       <c r="C10" t="n">
-        <v>0.896558</v>
+        <v>0.8976229999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.951217</v>
+        <v>0.953952</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555893</v>
+        <v>0.557014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.868815</v>
+        <v>0.869488</v>
       </c>
       <c r="D11" t="n">
-        <v>0.921431</v>
+        <v>0.9242939999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539285</v>
+        <v>0.540479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.842612</v>
+        <v>0.843562</v>
       </c>
       <c r="D12" t="n">
-        <v>0.893634</v>
+        <v>0.896077</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.52363</v>
+        <v>0.524753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.817782</v>
+        <v>0.818856</v>
       </c>
       <c r="D13" t="n">
-        <v>0.866584</v>
+        <v>0.8693070000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.509446</v>
+        <v>0.510937</v>
       </c>
       <c r="C14" t="n">
-        <v>0.794196</v>
+        <v>0.79512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.841539</v>
+        <v>0.843964</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.49532</v>
+        <v>0.496755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.772219</v>
+        <v>0.77367</v>
       </c>
       <c r="D15" t="n">
-        <v>0.817589</v>
+        <v>0.820087</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.481989</v>
+        <v>0.48333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.751389</v>
+        <v>0.75201</v>
       </c>
       <c r="D16" t="n">
-        <v>0.79483</v>
+        <v>0.797504</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470468</v>
+        <v>0.471382</v>
       </c>
       <c r="C17" t="n">
-        <v>0.731507</v>
+        <v>0.732598</v>
       </c>
       <c r="D17" t="n">
-        <v>0.773285</v>
+        <v>0.776026</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45924</v>
+        <v>0.461182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.713087</v>
+        <v>0.7141189999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753266</v>
+        <v>0.75609</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.449471</v>
+        <v>0.450995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.696043</v>
+        <v>0.696829</v>
       </c>
       <c r="D19" t="n">
-        <v>0.734613</v>
+        <v>0.737719</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442198</v>
+        <v>0.443452</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6807569999999999</v>
+        <v>0.681629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.718175</v>
+        <v>0.720872</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436313</v>
+        <v>0.437598</v>
       </c>
       <c r="C21" t="n">
-        <v>0.668046</v>
+        <v>0.668927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.703982</v>
+        <v>0.7066519999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.432599</v>
+        <v>0.433983</v>
       </c>
       <c r="C22" t="n">
-        <v>0.658089</v>
+        <v>0.658877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.69303</v>
+        <v>0.694645</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432098</v>
+        <v>0.433619</v>
       </c>
       <c r="C23" t="n">
-        <v>0.982968</v>
+        <v>0.984218</v>
       </c>
       <c r="D23" t="n">
-        <v>1.02699</v>
+        <v>1.02773</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.621455</v>
+        <v>0.621608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.951655</v>
+        <v>0.953248</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99272</v>
+        <v>0.99549</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6026280000000001</v>
+        <v>0.602681</v>
       </c>
       <c r="C25" t="n">
-        <v>0.922505</v>
+        <v>0.923621</v>
       </c>
       <c r="D25" t="n">
-        <v>0.962245</v>
+        <v>0.964655</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.582618</v>
+        <v>0.584516</v>
       </c>
       <c r="C26" t="n">
-        <v>0.893541</v>
+        <v>0.8955070000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.934003</v>
+        <v>0.935423</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564906</v>
+        <v>0.566998</v>
       </c>
       <c r="C27" t="n">
-        <v>0.867478</v>
+        <v>0.8686199999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.90594</v>
+        <v>0.907016</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549612</v>
+        <v>0.550436</v>
       </c>
       <c r="C28" t="n">
-        <v>0.840808</v>
+        <v>0.843096</v>
       </c>
       <c r="D28" t="n">
-        <v>0.877905</v>
+        <v>0.880742</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.534562</v>
+        <v>0.534695</v>
       </c>
       <c r="C29" t="n">
-        <v>0.817051</v>
+        <v>0.818582</v>
       </c>
       <c r="D29" t="n">
-        <v>0.852761</v>
+        <v>0.855443</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518266</v>
+        <v>0.520195</v>
       </c>
       <c r="C30" t="n">
-        <v>0.793547</v>
+        <v>0.795709</v>
       </c>
       <c r="D30" t="n">
-        <v>0.828772</v>
+        <v>0.831372</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504941</v>
+        <v>0.506911</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7720939999999999</v>
+        <v>0.774216</v>
       </c>
       <c r="D31" t="n">
-        <v>0.806274</v>
+        <v>0.808902</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.49393</v>
+        <v>0.49429</v>
       </c>
       <c r="C32" t="n">
-        <v>0.752745</v>
+        <v>0.754035</v>
       </c>
       <c r="D32" t="n">
-        <v>0.787137</v>
+        <v>0.787663</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481378</v>
+        <v>0.483413</v>
       </c>
       <c r="C33" t="n">
-        <v>0.732808</v>
+        <v>0.735028</v>
       </c>
       <c r="D33" t="n">
-        <v>0.765698</v>
+        <v>0.767866</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471529</v>
+        <v>0.473643</v>
       </c>
       <c r="C34" t="n">
-        <v>0.715675</v>
+        <v>0.717846</v>
       </c>
       <c r="D34" t="n">
-        <v>0.74747</v>
+        <v>0.749839</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463818</v>
+        <v>0.466018</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7006289999999999</v>
+        <v>0.702898</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7317129999999999</v>
+        <v>0.734372</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458302</v>
+        <v>0.460567</v>
       </c>
       <c r="C36" t="n">
-        <v>0.688581</v>
+        <v>0.690991</v>
       </c>
       <c r="D36" t="n">
-        <v>0.718873</v>
+        <v>0.7215</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455461</v>
+        <v>0.457763</v>
       </c>
       <c r="C37" t="n">
-        <v>1.01793</v>
+        <v>1.01942</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0641</v>
+        <v>1.0651</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648881</v>
+        <v>0.650304</v>
       </c>
       <c r="C38" t="n">
-        <v>0.984854</v>
+        <v>0.987754</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03062</v>
+        <v>1.03169</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.628544</v>
+        <v>0.6311290000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.95391</v>
+        <v>0.956975</v>
       </c>
       <c r="D39" t="n">
-        <v>0.99846</v>
+        <v>0.999329</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.609308</v>
+        <v>0.611995</v>
       </c>
       <c r="C40" t="n">
-        <v>0.924535</v>
+        <v>0.927753</v>
       </c>
       <c r="D40" t="n">
-        <v>0.967757</v>
+        <v>0.968923</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.593139</v>
+        <v>0.593822</v>
       </c>
       <c r="C41" t="n">
-        <v>0.897054</v>
+        <v>0.899966</v>
       </c>
       <c r="D41" t="n">
-        <v>0.938508</v>
+        <v>0.939785</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.575978</v>
+        <v>0.576556</v>
       </c>
       <c r="C42" t="n">
-        <v>0.870375</v>
+        <v>0.873236</v>
       </c>
       <c r="D42" t="n">
-        <v>0.910946</v>
+        <v>0.9118270000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559648</v>
+        <v>0.560284</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8458909999999999</v>
+        <v>0.847942</v>
       </c>
       <c r="D43" t="n">
-        <v>0.88441</v>
+        <v>0.885132</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.544498</v>
+        <v>0.545226</v>
       </c>
       <c r="C44" t="n">
-        <v>0.822899</v>
+        <v>0.824437</v>
       </c>
       <c r="D44" t="n">
-        <v>0.859671</v>
+        <v>0.86075</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.529894</v>
+        <v>0.531247</v>
       </c>
       <c r="C45" t="n">
-        <v>0.800488</v>
+        <v>0.802047</v>
       </c>
       <c r="D45" t="n">
-        <v>0.836305</v>
+        <v>0.837048</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5167929999999999</v>
+        <v>0.518283</v>
       </c>
       <c r="C46" t="n">
-        <v>0.779487</v>
+        <v>0.780904</v>
       </c>
       <c r="D46" t="n">
-        <v>0.813978</v>
+        <v>0.814773</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.505059</v>
+        <v>0.506796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.759826</v>
+        <v>0.761025</v>
       </c>
       <c r="D47" t="n">
-        <v>0.793394</v>
+        <v>0.793945</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.495365</v>
+        <v>0.496609</v>
       </c>
       <c r="C48" t="n">
-        <v>0.741586</v>
+        <v>0.742849</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7741980000000001</v>
+        <v>0.774635</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487576</v>
+        <v>0.487961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.725637</v>
+        <v>0.726535</v>
       </c>
       <c r="D49" t="n">
-        <v>0.757047</v>
+        <v>0.757794</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.479404</v>
+        <v>0.481364</v>
       </c>
       <c r="C50" t="n">
-        <v>0.711676</v>
+        <v>0.71308</v>
       </c>
       <c r="D50" t="n">
-        <v>0.742569</v>
+        <v>0.7429249999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.475155</v>
+        <v>0.477445</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0483</v>
+        <v>1.04634</v>
       </c>
       <c r="D51" t="n">
-        <v>1.11368</v>
+        <v>1.11065</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475017</v>
+        <v>0.476544</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01735</v>
+        <v>1.01539</v>
       </c>
       <c r="D52" t="n">
-        <v>1.08021</v>
+        <v>1.07606</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.658294</v>
+        <v>0.655863</v>
       </c>
       <c r="C53" t="n">
-        <v>0.985443</v>
+        <v>0.98428</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04638</v>
+        <v>1.0426</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6382100000000001</v>
+        <v>0.636871</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9555940000000001</v>
+        <v>0.955301</v>
       </c>
       <c r="D54" t="n">
-        <v>1.01098</v>
+        <v>1.01148</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.618707</v>
+        <v>0.618791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.92484</v>
+        <v>0.925777</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9812110000000001</v>
+        <v>0.981509</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.60106</v>
+        <v>0.601464</v>
       </c>
       <c r="C56" t="n">
-        <v>0.897818</v>
+        <v>0.900446</v>
       </c>
       <c r="D56" t="n">
-        <v>0.95243</v>
+        <v>0.952617</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.586452</v>
+        <v>0.58525</v>
       </c>
       <c r="C57" t="n">
-        <v>0.870735</v>
+        <v>0.874811</v>
       </c>
       <c r="D57" t="n">
-        <v>0.92839</v>
+        <v>0.92511</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.570174</v>
+        <v>0.570197</v>
       </c>
       <c r="C58" t="n">
-        <v>0.845686</v>
+        <v>0.84875</v>
       </c>
       <c r="D58" t="n">
-        <v>0.905506</v>
+        <v>0.900019</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.558935</v>
+        <v>0.5565290000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.828253</v>
+        <v>0.829255</v>
       </c>
       <c r="D59" t="n">
-        <v>0.875332</v>
+        <v>0.876071</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.543322</v>
+        <v>0.54373</v>
       </c>
       <c r="C60" t="n">
-        <v>0.806544</v>
+        <v>0.807801</v>
       </c>
       <c r="D60" t="n">
-        <v>0.857663</v>
+        <v>0.853008</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.533728</v>
+        <v>0.531865</v>
       </c>
       <c r="C61" t="n">
-        <v>0.787604</v>
+        <v>0.786781</v>
       </c>
       <c r="D61" t="n">
-        <v>0.835691</v>
+        <v>0.831906</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.522915</v>
+        <v>0.521388</v>
       </c>
       <c r="C62" t="n">
-        <v>0.769834</v>
+        <v>0.770207</v>
       </c>
       <c r="D62" t="n">
-        <v>0.817159</v>
+        <v>0.811953</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.51558</v>
+        <v>0.512423</v>
       </c>
       <c r="C63" t="n">
-        <v>0.754199</v>
+        <v>0.753394</v>
       </c>
       <c r="D63" t="n">
-        <v>0.798747</v>
+        <v>0.7934059999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.507912</v>
+        <v>0.505647</v>
       </c>
       <c r="C64" t="n">
-        <v>0.738447</v>
+        <v>0.739216</v>
       </c>
       <c r="D64" t="n">
-        <v>0.781475</v>
+        <v>0.777891</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.502628</v>
+        <v>0.501359</v>
       </c>
       <c r="C65" t="n">
-        <v>0.726564</v>
+        <v>0.727165</v>
       </c>
       <c r="D65" t="n">
-        <v>0.767958</v>
+        <v>0.763856</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.500783</v>
+        <v>0.499523</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0713</v>
+        <v>1.06432</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14929</v>
+        <v>1.13883</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.711516</v>
+        <v>0.70534</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03989</v>
+        <v>1.03513</v>
       </c>
       <c r="D67" t="n">
-        <v>1.1165</v>
+        <v>1.10646</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6954</v>
+        <v>0.68876</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0106</v>
+        <v>1.00614</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08584</v>
+        <v>1.07578</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.679634</v>
+        <v>0.67213</v>
       </c>
       <c r="C69" t="n">
-        <v>0.983656</v>
+        <v>0.979042</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05479</v>
+        <v>1.04606</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.664261</v>
+        <v>0.657627</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9568990000000001</v>
+        <v>0.952721</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02489</v>
+        <v>1.01701</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.650489</v>
+        <v>0.642452</v>
       </c>
       <c r="C71" t="n">
-        <v>0.932068</v>
+        <v>0.925036</v>
       </c>
       <c r="D71" t="n">
-        <v>0.997898</v>
+        <v>0.987444</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.636639</v>
+        <v>0.628131</v>
       </c>
       <c r="C72" t="n">
-        <v>0.907097</v>
+        <v>0.901188</v>
       </c>
       <c r="D72" t="n">
-        <v>0.971596</v>
+        <v>0.960847</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.622911</v>
+        <v>0.613584</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8832140000000001</v>
+        <v>0.871958</v>
       </c>
       <c r="D73" t="n">
-        <v>0.942958</v>
+        <v>0.934953</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.609779</v>
+        <v>0.598193</v>
       </c>
       <c r="C74" t="n">
-        <v>0.85648</v>
+        <v>0.855816</v>
       </c>
       <c r="D74" t="n">
-        <v>0.919924</v>
+        <v>0.9112209999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.597758</v>
+        <v>0.592862</v>
       </c>
       <c r="C75" t="n">
-        <v>0.834666</v>
+        <v>0.832741</v>
       </c>
       <c r="D75" t="n">
-        <v>0.896227</v>
+        <v>0.891893</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5866479999999999</v>
+        <v>0.580685</v>
       </c>
       <c r="C76" t="n">
-        <v>0.822609</v>
+        <v>0.81777</v>
       </c>
       <c r="D76" t="n">
-        <v>0.876173</v>
+        <v>0.869859</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.577101</v>
+        <v>0.57013</v>
       </c>
       <c r="C77" t="n">
-        <v>0.803586</v>
+        <v>0.799937</v>
       </c>
       <c r="D77" t="n">
-        <v>0.855</v>
+        <v>0.850485</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.569109</v>
+        <v>0.56229</v>
       </c>
       <c r="C78" t="n">
-        <v>0.781589</v>
+        <v>0.784199</v>
       </c>
       <c r="D78" t="n">
-        <v>0.83718</v>
+        <v>0.833883</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.562516</v>
+        <v>0.555165</v>
       </c>
       <c r="C79" t="n">
-        <v>0.768644</v>
+        <v>0.769114</v>
       </c>
       <c r="D79" t="n">
-        <v>0.822423</v>
+        <v>0.816125</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.55926</v>
+        <v>0.552901</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14845</v>
+        <v>1.14815</v>
       </c>
       <c r="D80" t="n">
-        <v>1.23518</v>
+        <v>1.2328</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.791257</v>
+        <v>0.789002</v>
       </c>
       <c r="C81" t="n">
-        <v>1.12801</v>
+        <v>1.12647</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21254</v>
+        <v>1.21306</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.783516</v>
+        <v>0.782838</v>
       </c>
       <c r="C82" t="n">
-        <v>1.10831</v>
+        <v>1.10657</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18834</v>
+        <v>1.18709</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.774413</v>
+        <v>0.773797</v>
       </c>
       <c r="C83" t="n">
-        <v>1.08185</v>
+        <v>1.08552</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16239</v>
+        <v>1.16131</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.76436</v>
+        <v>0.764418</v>
       </c>
       <c r="C84" t="n">
-        <v>1.05827</v>
+        <v>1.06284</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13503</v>
+        <v>1.13489</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.754474</v>
+        <v>0.7538319999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03363</v>
+        <v>1.0387</v>
       </c>
       <c r="D85" t="n">
-        <v>1.10713</v>
+        <v>1.10771</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.743405</v>
+        <v>0.7426160000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00871</v>
+        <v>1.0089</v>
       </c>
       <c r="D86" t="n">
-        <v>1.07991</v>
+        <v>1.07813</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.732559</v>
+        <v>0.730983</v>
       </c>
       <c r="C87" t="n">
-        <v>0.984402</v>
+        <v>0.987006</v>
       </c>
       <c r="D87" t="n">
-        <v>1.05305</v>
+        <v>1.05197</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.722433</v>
+        <v>0.720808</v>
       </c>
       <c r="C88" t="n">
-        <v>0.960425</v>
+        <v>0.961015</v>
       </c>
       <c r="D88" t="n">
-        <v>1.02588</v>
+        <v>1.02247</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711225</v>
+        <v>0.712168</v>
       </c>
       <c r="C89" t="n">
-        <v>0.93697</v>
+        <v>0.942626</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00161</v>
+        <v>1.00246</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.70099</v>
+        <v>0.700909</v>
       </c>
       <c r="C90" t="n">
-        <v>0.917957</v>
+        <v>0.918936</v>
       </c>
       <c r="D90" t="n">
-        <v>0.975984</v>
+        <v>0.97846</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.690854</v>
+        <v>0.692203</v>
       </c>
       <c r="C91" t="n">
-        <v>0.894586</v>
+        <v>0.894904</v>
       </c>
       <c r="D91" t="n">
-        <v>0.954623</v>
+        <v>0.952137</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.682532</v>
+        <v>0.684649</v>
       </c>
       <c r="C92" t="n">
-        <v>0.876437</v>
+        <v>0.878139</v>
       </c>
       <c r="D92" t="n">
-        <v>0.934039</v>
+        <v>0.937739</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677022</v>
+        <v>0.677828</v>
       </c>
       <c r="C93" t="n">
-        <v>0.860806</v>
+        <v>0.8681680000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.916189</v>
+        <v>0.914359</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.672729</v>
+        <v>0.673822</v>
       </c>
       <c r="C94" t="n">
-        <v>1.23641</v>
+        <v>1.24254</v>
       </c>
       <c r="D94" t="n">
-        <v>1.33075</v>
+        <v>1.33616</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.907263</v>
+        <v>0.907551</v>
       </c>
       <c r="C95" t="n">
-        <v>1.22758</v>
+        <v>1.2355</v>
       </c>
       <c r="D95" t="n">
-        <v>1.31662</v>
+        <v>1.32625</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.905222</v>
+        <v>0.906267</v>
       </c>
       <c r="C96" t="n">
-        <v>1.21349</v>
+        <v>1.22134</v>
       </c>
       <c r="D96" t="n">
-        <v>1.29787</v>
+        <v>1.30619</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8951249999999999</v>
+        <v>0.896428</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19966</v>
+        <v>1.20205</v>
       </c>
       <c r="D97" t="n">
-        <v>1.27653</v>
+        <v>1.27797</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.884105</v>
+        <v>0.886475</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17582</v>
+        <v>1.1777</v>
       </c>
       <c r="D98" t="n">
-        <v>1.2472</v>
+        <v>1.25444</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.875767</v>
+        <v>0.8749479999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1.16029</v>
+        <v>1.15922</v>
       </c>
       <c r="D99" t="n">
-        <v>1.22988</v>
+        <v>1.2322</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.867117</v>
+        <v>0.865066</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14109</v>
+        <v>1.13929</v>
       </c>
       <c r="D100" t="n">
-        <v>1.20716</v>
+        <v>1.20758</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.856283</v>
+        <v>0.855695</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12203</v>
+        <v>1.1196</v>
       </c>
       <c r="D101" t="n">
-        <v>1.18719</v>
+        <v>1.18705</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.848556</v>
+        <v>0.846007</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10446</v>
+        <v>1.10368</v>
       </c>
       <c r="D102" t="n">
-        <v>1.16422</v>
+        <v>1.16838</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.838836</v>
+        <v>0.839305</v>
       </c>
       <c r="C103" t="n">
-        <v>1.08156</v>
+        <v>1.08349</v>
       </c>
       <c r="D103" t="n">
-        <v>1.14628</v>
+        <v>1.14953</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8319530000000001</v>
+        <v>0.831422</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06698</v>
+        <v>1.06751</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12169</v>
+        <v>1.13041</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.825037</v>
+        <v>0.825377</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05411</v>
+        <v>1.05499</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10303</v>
+        <v>1.1123</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.819957</v>
+        <v>0.8203</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04041</v>
+        <v>1.03737</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08688</v>
+        <v>1.08884</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.81571</v>
+        <v>0.815542</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0271</v>
+        <v>1.02438</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07172</v>
+        <v>1.08156</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.813383</v>
+        <v>0.813433</v>
       </c>
       <c r="C108" t="n">
-        <v>1.40331</v>
+        <v>1.40252</v>
       </c>
       <c r="D108" t="n">
-        <v>1.49254</v>
+        <v>1.5006</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8144439999999999</v>
+        <v>0.814381</v>
       </c>
       <c r="C109" t="n">
-        <v>1.39581</v>
+        <v>1.39406</v>
       </c>
       <c r="D109" t="n">
-        <v>1.48408</v>
+        <v>1.48997</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04498</v>
+        <v>1.04658</v>
       </c>
       <c r="C110" t="n">
-        <v>1.38299</v>
+        <v>1.38445</v>
       </c>
       <c r="D110" t="n">
-        <v>1.47366</v>
+        <v>1.46741</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03322</v>
+        <v>1.03429</v>
       </c>
       <c r="C111" t="n">
-        <v>1.36942</v>
+        <v>1.36929</v>
       </c>
       <c r="D111" t="n">
-        <v>1.45664</v>
+        <v>1.45487</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02136</v>
+        <v>1.02169</v>
       </c>
       <c r="C112" t="n">
-        <v>1.35463</v>
+        <v>1.35691</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43271</v>
+        <v>1.43398</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00976</v>
+        <v>1.01024</v>
       </c>
       <c r="C113" t="n">
-        <v>1.34389</v>
+        <v>1.34538</v>
       </c>
       <c r="D113" t="n">
-        <v>1.4174</v>
+        <v>1.42563</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.998929</v>
+        <v>0.999174</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33426</v>
+        <v>1.33638</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40383</v>
+        <v>1.41013</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9874000000000001</v>
+        <v>0.988639</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32356</v>
+        <v>1.32359</v>
       </c>
       <c r="D115" t="n">
-        <v>1.38689</v>
+        <v>1.39627</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.977542</v>
+        <v>0.979505</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31456</v>
+        <v>1.31473</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3807</v>
+        <v>1.38515</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9694390000000001</v>
+        <v>0.9701610000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29957</v>
+        <v>1.30367</v>
       </c>
       <c r="D117" t="n">
-        <v>1.35861</v>
+        <v>1.36246</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.961553</v>
+        <v>0.962984</v>
       </c>
       <c r="C118" t="n">
-        <v>1.29204</v>
+        <v>1.2943</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34832</v>
+        <v>1.35073</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.954558</v>
+        <v>0.955463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.28632</v>
+        <v>1.28447</v>
       </c>
       <c r="D119" t="n">
-        <v>1.3347</v>
+        <v>1.34042</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.947952</v>
+        <v>0.949671</v>
       </c>
       <c r="C120" t="n">
-        <v>1.27248</v>
+        <v>1.27633</v>
       </c>
       <c r="D120" t="n">
-        <v>1.33305</v>
+        <v>1.33301</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.943751</v>
+        <v>0.945121</v>
       </c>
       <c r="C121" t="n">
-        <v>1.26886</v>
+        <v>1.26891</v>
       </c>
       <c r="D121" t="n">
-        <v>1.32424</v>
+        <v>1.32033</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.941174</v>
+        <v>0.942237</v>
       </c>
       <c r="C122" t="n">
-        <v>1.26114</v>
+        <v>1.25818</v>
       </c>
       <c r="D122" t="n">
-        <v>1.31331</v>
+        <v>1.31507</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.942137</v>
+        <v>0.94213</v>
       </c>
       <c r="C123" t="n">
-        <v>1.63042</v>
+        <v>1.63558</v>
       </c>
       <c r="D123" t="n">
-        <v>1.7162</v>
+        <v>1.72871</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1693</v>
+        <v>1.17061</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61575</v>
+        <v>1.62222</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70705</v>
+        <v>1.70141</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15824</v>
+        <v>1.15978</v>
       </c>
       <c r="C125" t="n">
-        <v>1.6081</v>
+        <v>1.6112</v>
       </c>
       <c r="D125" t="n">
-        <v>1.69207</v>
+        <v>1.69714</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14747</v>
+        <v>1.14915</v>
       </c>
       <c r="C126" t="n">
-        <v>1.59434</v>
+        <v>1.60041</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67525</v>
+        <v>1.68141</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13728</v>
+        <v>1.1393</v>
       </c>
       <c r="C127" t="n">
-        <v>1.5822</v>
+        <v>1.58829</v>
       </c>
       <c r="D127" t="n">
-        <v>1.6633</v>
+        <v>1.6657</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12778</v>
+        <v>1.13002</v>
       </c>
       <c r="C128" t="n">
-        <v>1.57646</v>
+        <v>1.57867</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64294</v>
+        <v>1.65139</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1197</v>
+        <v>1.12082</v>
       </c>
       <c r="C129" t="n">
-        <v>1.56391</v>
+        <v>1.56478</v>
       </c>
       <c r="D129" t="n">
-        <v>1.6328</v>
+        <v>1.63333</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11167</v>
+        <v>1.11288</v>
       </c>
       <c r="C130" t="n">
-        <v>1.55739</v>
+        <v>1.55567</v>
       </c>
       <c r="D130" t="n">
-        <v>1.61733</v>
+        <v>1.62494</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10434</v>
+        <v>1.10534</v>
       </c>
       <c r="C131" t="n">
-        <v>1.54695</v>
+        <v>1.55164</v>
       </c>
       <c r="D131" t="n">
-        <v>1.60535</v>
+        <v>1.60975</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0985</v>
+        <v>1.0995</v>
       </c>
       <c r="C132" t="n">
-        <v>1.54148</v>
+        <v>1.54319</v>
       </c>
       <c r="D132" t="n">
-        <v>1.59489</v>
+        <v>1.59903</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09257</v>
+        <v>1.09422</v>
       </c>
       <c r="C133" t="n">
-        <v>1.53246</v>
+        <v>1.53739</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58893</v>
+        <v>1.58841</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08943</v>
+        <v>1.09048</v>
       </c>
       <c r="C134" t="n">
-        <v>1.52683</v>
+        <v>1.52885</v>
       </c>
       <c r="D134" t="n">
-        <v>1.57637</v>
+        <v>1.57971</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08799</v>
+        <v>1.08862</v>
       </c>
       <c r="C135" t="n">
-        <v>1.51636</v>
+        <v>1.52449</v>
       </c>
       <c r="D135" t="n">
-        <v>1.5663</v>
+        <v>1.57574</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08688</v>
+        <v>1.08807</v>
       </c>
       <c r="C136" t="n">
-        <v>1.51398</v>
+        <v>1.52146</v>
       </c>
       <c r="D136" t="n">
-        <v>1.56106</v>
+        <v>1.5685</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08925</v>
+        <v>1.0886</v>
       </c>
       <c r="C137" t="n">
-        <v>1.88849</v>
+        <v>1.88499</v>
       </c>
       <c r="D137" t="n">
-        <v>1.97672</v>
+        <v>1.98005</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.3181</v>
+        <v>1.31837</v>
       </c>
       <c r="C138" t="n">
-        <v>1.86859</v>
+        <v>1.87143</v>
       </c>
       <c r="D138" t="n">
-        <v>1.95645</v>
+        <v>1.9593</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30959</v>
+        <v>1.3094</v>
       </c>
       <c r="C139" t="n">
-        <v>1.85491</v>
+        <v>1.85591</v>
       </c>
       <c r="D139" t="n">
-        <v>1.93695</v>
+        <v>1.93464</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30105</v>
+        <v>1.29994</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83423</v>
+        <v>1.83854</v>
       </c>
       <c r="D140" t="n">
-        <v>1.91628</v>
+        <v>1.91329</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.29301</v>
+        <v>1.28415</v>
       </c>
       <c r="C141" t="n">
-        <v>1.81838</v>
+        <v>1.8137</v>
       </c>
       <c r="D141" t="n">
-        <v>1.8969</v>
+        <v>1.89263</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.28658</v>
+        <v>1.27685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.80559</v>
+        <v>1.7986</v>
       </c>
       <c r="D142" t="n">
-        <v>1.87973</v>
+        <v>1.8743</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2804</v>
+        <v>1.26984</v>
       </c>
       <c r="C143" t="n">
-        <v>1.79225</v>
+        <v>1.78415</v>
       </c>
       <c r="D143" t="n">
-        <v>1.86022</v>
+        <v>1.8561</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.48769</v>
+        <v>0.480182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712857</v>
+        <v>0.773172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.777697</v>
+        <v>0.823525</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407468</v>
+        <v>0.410628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.63475</v>
+        <v>0.695774</v>
       </c>
       <c r="D3" t="n">
-        <v>0.769214</v>
+        <v>0.814351</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.402819</v>
+        <v>0.400345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.620461</v>
+        <v>0.6786140000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.762891</v>
+        <v>0.805786</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.394806</v>
+        <v>0.391988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.607469</v>
+        <v>0.662983</v>
       </c>
       <c r="D5" t="n">
-        <v>0.757806</v>
+        <v>0.798806</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.39332</v>
+        <v>0.384424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5951650000000001</v>
+        <v>0.648863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.752804</v>
+        <v>0.8560179999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.391115</v>
+        <v>0.382687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.584486</v>
+        <v>0.636947</v>
       </c>
       <c r="D7" t="n">
-        <v>0.838361</v>
+        <v>0.888863</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.387725</v>
+        <v>0.383289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.577325</v>
+        <v>0.62715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.822947</v>
+        <v>0.874238</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.387054</v>
+        <v>0.389641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.863868</v>
+        <v>0.939562</v>
       </c>
       <c r="D9" t="n">
-        <v>0.808015</v>
+        <v>0.8560140000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569852</v>
+        <v>0.571712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.837932</v>
+        <v>0.910396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.798046</v>
+        <v>0.847222</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.554958</v>
+        <v>0.556052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.812419</v>
+        <v>0.882786</v>
       </c>
       <c r="D11" t="n">
-        <v>0.786682</v>
+        <v>0.83183</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.535983</v>
+        <v>0.539452</v>
       </c>
       <c r="C12" t="n">
-        <v>0.788702</v>
+        <v>0.856531</v>
       </c>
       <c r="D12" t="n">
-        <v>0.773053</v>
+        <v>0.819451</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.525655</v>
+        <v>0.523041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.765991</v>
+        <v>0.831622</v>
       </c>
       <c r="D13" t="n">
-        <v>0.760352</v>
+        <v>0.8036450000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5081599999999999</v>
+        <v>0.508202</v>
       </c>
       <c r="C14" t="n">
-        <v>0.743876</v>
+        <v>0.808496</v>
       </c>
       <c r="D14" t="n">
-        <v>0.753436</v>
+        <v>0.801515</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4959</v>
+        <v>0.49295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.723917</v>
+        <v>0.786843</v>
       </c>
       <c r="D15" t="n">
-        <v>0.742706</v>
+        <v>0.790245</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.481375</v>
+        <v>0.478811</v>
       </c>
       <c r="C16" t="n">
-        <v>0.704379</v>
+        <v>0.7657659999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.735859</v>
+        <v>0.781027</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470561</v>
+        <v>0.468492</v>
       </c>
       <c r="C17" t="n">
-        <v>0.686742</v>
+        <v>0.746279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.726967</v>
+        <v>0.769825</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459683</v>
+        <v>0.456539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.670133</v>
+        <v>0.727169</v>
       </c>
       <c r="D18" t="n">
-        <v>0.718844</v>
+        <v>0.765491</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.453348</v>
+        <v>0.447762</v>
       </c>
       <c r="C19" t="n">
-        <v>0.654069</v>
+        <v>0.710636</v>
       </c>
       <c r="D19" t="n">
-        <v>0.712109</v>
+        <v>0.75705</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442836</v>
+        <v>0.440664</v>
       </c>
       <c r="C20" t="n">
-        <v>0.639724</v>
+        <v>0.694999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.704592</v>
+        <v>0.749941</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.435034</v>
+        <v>0.433041</v>
       </c>
       <c r="C21" t="n">
-        <v>0.627574</v>
+        <v>0.682528</v>
       </c>
       <c r="D21" t="n">
-        <v>0.915458</v>
+        <v>0.973746</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.433816</v>
+        <v>0.431246</v>
       </c>
       <c r="C22" t="n">
-        <v>0.618619</v>
+        <v>0.67245</v>
       </c>
       <c r="D22" t="n">
-        <v>0.898409</v>
+        <v>0.954151</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.433308</v>
+        <v>0.431461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.917713</v>
+        <v>0.996142</v>
       </c>
       <c r="D23" t="n">
-        <v>0.883451</v>
+        <v>0.935099</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.625071</v>
+        <v>0.6221989999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.889904</v>
+        <v>0.96533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.868518</v>
+        <v>0.916098</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.606908</v>
+        <v>0.600904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.861814</v>
+        <v>0.9358379999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.853416</v>
+        <v>0.903609</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.584114</v>
+        <v>0.584687</v>
       </c>
       <c r="C26" t="n">
-        <v>0.835909</v>
+        <v>0.907658</v>
       </c>
       <c r="D26" t="n">
-        <v>0.840597</v>
+        <v>0.886331</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.568136</v>
+        <v>0.566874</v>
       </c>
       <c r="C27" t="n">
-        <v>0.811397</v>
+        <v>0.880649</v>
       </c>
       <c r="D27" t="n">
-        <v>0.826132</v>
+        <v>0.873548</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.550307</v>
+        <v>0.549769</v>
       </c>
       <c r="C28" t="n">
-        <v>0.787947</v>
+        <v>0.854984</v>
       </c>
       <c r="D28" t="n">
-        <v>0.812559</v>
+        <v>0.859862</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.535927</v>
+        <v>0.533662</v>
       </c>
       <c r="C29" t="n">
-        <v>0.765404</v>
+        <v>0.831117</v>
       </c>
       <c r="D29" t="n">
-        <v>0.798836</v>
+        <v>0.852068</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.521439</v>
+        <v>0.519438</v>
       </c>
       <c r="C30" t="n">
-        <v>0.744408</v>
+        <v>0.808393</v>
       </c>
       <c r="D30" t="n">
-        <v>0.790973</v>
+        <v>0.843883</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.50617</v>
+        <v>0.506208</v>
       </c>
       <c r="C31" t="n">
-        <v>0.723994</v>
+        <v>0.78716</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7835</v>
+        <v>0.834101</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.49504</v>
+        <v>0.493643</v>
       </c>
       <c r="C32" t="n">
-        <v>0.705812</v>
+        <v>0.766696</v>
       </c>
       <c r="D32" t="n">
-        <v>0.77996</v>
+        <v>0.827437</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.461687</v>
+        <v>0.457966</v>
       </c>
       <c r="C33" t="n">
-        <v>0.666461</v>
+        <v>0.7264389999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.771837</v>
+        <v>0.820363</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.473505</v>
+        <v>0.474936</v>
       </c>
       <c r="C34" t="n">
-        <v>0.652203</v>
+        <v>0.731061</v>
       </c>
       <c r="D34" t="n">
-        <v>0.765468</v>
+        <v>0.812828</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.46594</v>
+        <v>0.464996</v>
       </c>
       <c r="C35" t="n">
-        <v>0.659165</v>
+        <v>0.71615</v>
       </c>
       <c r="D35" t="n">
-        <v>0.993264</v>
+        <v>1.04949</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.460101</v>
+        <v>0.440002</v>
       </c>
       <c r="C36" t="n">
-        <v>0.647706</v>
+        <v>0.685285</v>
       </c>
       <c r="D36" t="n">
-        <v>0.972073</v>
+        <v>1.02794</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458326</v>
+        <v>0.439243</v>
       </c>
       <c r="C37" t="n">
-        <v>0.949303</v>
+        <v>1.01379</v>
       </c>
       <c r="D37" t="n">
-        <v>0.954686</v>
+        <v>1.0077</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.631142</v>
+        <v>0.630578</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9048659999999999</v>
+        <v>0.983237</v>
       </c>
       <c r="D38" t="n">
-        <v>0.937306</v>
+        <v>0.986838</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.633193</v>
+        <v>0.6125080000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.893866</v>
+        <v>0.952978</v>
       </c>
       <c r="D39" t="n">
-        <v>0.920825</v>
+        <v>0.976614</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.594516</v>
+        <v>0.594499</v>
       </c>
       <c r="C40" t="n">
-        <v>0.851916</v>
+        <v>0.924751</v>
       </c>
       <c r="D40" t="n">
-        <v>0.90405</v>
+        <v>0.960491</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5792079999999999</v>
+        <v>0.577063</v>
       </c>
       <c r="C41" t="n">
-        <v>0.826982</v>
+        <v>0.897911</v>
       </c>
       <c r="D41" t="n">
-        <v>0.892922</v>
+        <v>0.944127</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.561276</v>
+        <v>0.561349</v>
       </c>
       <c r="C42" t="n">
-        <v>0.803193</v>
+        <v>0.8723610000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.878057</v>
+        <v>0.930212</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.547959</v>
+        <v>0.546057</v>
       </c>
       <c r="C43" t="n">
-        <v>0.779932</v>
+        <v>0.848088</v>
       </c>
       <c r="D43" t="n">
-        <v>0.86991</v>
+        <v>0.917337</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.531522</v>
+        <v>0.531108</v>
       </c>
       <c r="C44" t="n">
-        <v>0.758669</v>
+        <v>0.824523</v>
       </c>
       <c r="D44" t="n">
-        <v>0.857993</v>
+        <v>0.904976</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.517581</v>
+        <v>0.518815</v>
       </c>
       <c r="C45" t="n">
-        <v>0.739403</v>
+        <v>0.803134</v>
       </c>
       <c r="D45" t="n">
-        <v>0.851992</v>
+        <v>0.898949</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.506793</v>
+        <v>0.506098</v>
       </c>
       <c r="C46" t="n">
-        <v>0.720805</v>
+        <v>0.782733</v>
       </c>
       <c r="D46" t="n">
-        <v>0.844623</v>
+        <v>0.88867</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.495117</v>
+        <v>0.475213</v>
       </c>
       <c r="C47" t="n">
-        <v>0.703124</v>
+        <v>0.741881</v>
       </c>
       <c r="D47" t="n">
-        <v>0.835727</v>
+        <v>0.884167</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.464578</v>
+        <v>0.485565</v>
       </c>
       <c r="C48" t="n">
-        <v>0.66648</v>
+        <v>0.745624</v>
       </c>
       <c r="D48" t="n">
-        <v>0.832785</v>
+        <v>0.879016</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.454514</v>
+        <v>0.477483</v>
       </c>
       <c r="C49" t="n">
-        <v>0.653774</v>
+        <v>0.730367</v>
       </c>
       <c r="D49" t="n">
-        <v>0.826394</v>
+        <v>0.870681</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.482003</v>
+        <v>0.471553</v>
       </c>
       <c r="C50" t="n">
-        <v>0.669928</v>
+        <v>0.716514</v>
       </c>
       <c r="D50" t="n">
-        <v>1.04436</v>
+        <v>1.10199</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.448775</v>
+        <v>0.468619</v>
       </c>
       <c r="C51" t="n">
-        <v>0.953613</v>
+        <v>1.05084</v>
       </c>
       <c r="D51" t="n">
-        <v>1.02305</v>
+        <v>1.08016</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.449909</v>
+        <v>0.468931</v>
       </c>
       <c r="C52" t="n">
-        <v>0.921052</v>
+        <v>1.01698</v>
       </c>
       <c r="D52" t="n">
-        <v>1.00487</v>
+        <v>1.05844</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.647156</v>
+        <v>0.634457</v>
       </c>
       <c r="C53" t="n">
-        <v>0.910624</v>
+        <v>0.975126</v>
       </c>
       <c r="D53" t="n">
-        <v>0.987051</v>
+        <v>1.03901</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.631135</v>
+        <v>0.616823</v>
       </c>
       <c r="C54" t="n">
-        <v>0.882723</v>
+        <v>0.947506</v>
       </c>
       <c r="D54" t="n">
-        <v>0.968325</v>
+        <v>1.02303</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.612178</v>
+        <v>0.599183</v>
       </c>
       <c r="C55" t="n">
-        <v>0.857515</v>
+        <v>0.917392</v>
       </c>
       <c r="D55" t="n">
-        <v>0.952383</v>
+        <v>1.00519</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5942539999999999</v>
+        <v>0.581124</v>
       </c>
       <c r="C56" t="n">
-        <v>0.824213</v>
+        <v>0.892967</v>
       </c>
       <c r="D56" t="n">
-        <v>0.938751</v>
+        <v>0.989897</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.56755</v>
+        <v>0.568087</v>
       </c>
       <c r="C57" t="n">
-        <v>0.801673</v>
+        <v>0.870206</v>
       </c>
       <c r="D57" t="n">
-        <v>0.930097</v>
+        <v>0.974895</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.555104</v>
+        <v>0.552597</v>
       </c>
       <c r="C58" t="n">
-        <v>0.782475</v>
+        <v>0.848889</v>
       </c>
       <c r="D58" t="n">
-        <v>0.905467</v>
+        <v>0.962297</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.551184</v>
+        <v>0.5426800000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.767007</v>
+        <v>0.827442</v>
       </c>
       <c r="D59" t="n">
-        <v>0.894072</v>
+        <v>0.943813</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.527261</v>
+        <v>0.50312</v>
       </c>
       <c r="C60" t="n">
-        <v>0.745677</v>
+        <v>0.777133</v>
       </c>
       <c r="D60" t="n">
-        <v>0.884633</v>
+        <v>0.935957</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.518621</v>
+        <v>0.514673</v>
       </c>
       <c r="C61" t="n">
-        <v>0.726307</v>
+        <v>0.781447</v>
       </c>
       <c r="D61" t="n">
-        <v>0.875958</v>
+        <v>0.926548</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.509132</v>
+        <v>0.508277</v>
       </c>
       <c r="C62" t="n">
-        <v>0.710512</v>
+        <v>0.7692600000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.868452</v>
+        <v>0.91706</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.497627</v>
+        <v>0.497526</v>
       </c>
       <c r="C63" t="n">
-        <v>0.693015</v>
+        <v>0.752572</v>
       </c>
       <c r="D63" t="n">
-        <v>0.861839</v>
+        <v>0.909242</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.492865</v>
+        <v>0.471195</v>
       </c>
       <c r="C64" t="n">
-        <v>0.682947</v>
+        <v>0.716916</v>
       </c>
       <c r="D64" t="n">
-        <v>1.10376</v>
+        <v>1.16797</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.472033</v>
+        <v>0.488458</v>
       </c>
       <c r="C65" t="n">
-        <v>0.657176</v>
+        <v>0.728622</v>
       </c>
       <c r="D65" t="n">
-        <v>1.08339</v>
+        <v>1.14437</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.475173</v>
+        <v>0.488594</v>
       </c>
       <c r="C66" t="n">
-        <v>0.98444</v>
+        <v>1.06844</v>
       </c>
       <c r="D66" t="n">
-        <v>1.06046</v>
+        <v>1.11635</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7064510000000001</v>
+        <v>0.701546</v>
       </c>
       <c r="C67" t="n">
-        <v>0.95607</v>
+        <v>1.03937</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04227</v>
+        <v>1.09141</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.692476</v>
+        <v>0.68818</v>
       </c>
       <c r="C68" t="n">
-        <v>0.941341</v>
+        <v>1.01348</v>
       </c>
       <c r="D68" t="n">
-        <v>1.01746</v>
+        <v>1.07551</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6749579999999999</v>
+        <v>0.6765060000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.914146</v>
+        <v>0.9829639999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>1.00427</v>
+        <v>1.05769</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.668362</v>
+        <v>0.660142</v>
       </c>
       <c r="C70" t="n">
-        <v>0.882545</v>
+        <v>0.956823</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9906740000000001</v>
+        <v>1.04497</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.651111</v>
+        <v>0.644653</v>
       </c>
       <c r="C71" t="n">
-        <v>0.858968</v>
+        <v>0.931011</v>
       </c>
       <c r="D71" t="n">
-        <v>0.984777</v>
+        <v>1.0191</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6296580000000001</v>
+        <v>0.6309900000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.836445</v>
+        <v>0.898118</v>
       </c>
       <c r="D72" t="n">
-        <v>0.975853</v>
+        <v>1.00828</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.613161</v>
+        <v>0.608831</v>
       </c>
       <c r="C73" t="n">
-        <v>0.817201</v>
+        <v>0.875134</v>
       </c>
       <c r="D73" t="n">
-        <v>0.948905</v>
+        <v>0.999174</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.609758</v>
+        <v>0.611291</v>
       </c>
       <c r="C74" t="n">
-        <v>0.800149</v>
+        <v>0.857556</v>
       </c>
       <c r="D74" t="n">
-        <v>0.94293</v>
+        <v>0.986159</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.592706</v>
+        <v>0.56193</v>
       </c>
       <c r="C75" t="n">
-        <v>0.775686</v>
+        <v>0.808222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.936582</v>
+        <v>0.980183</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.576204</v>
+        <v>0.569306</v>
       </c>
       <c r="C76" t="n">
-        <v>0.75959</v>
+        <v>0.790949</v>
       </c>
       <c r="D76" t="n">
-        <v>0.935274</v>
+        <v>0.976572</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.574445</v>
+        <v>0.568448</v>
       </c>
       <c r="C77" t="n">
-        <v>0.74608</v>
+        <v>0.7979579999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.93321</v>
+        <v>0.969249</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.569093</v>
+        <v>0.559551</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7330140000000001</v>
+        <v>0.78572</v>
       </c>
       <c r="D78" t="n">
-        <v>1.35413</v>
+        <v>1.42199</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.560856</v>
+        <v>0.563126</v>
       </c>
       <c r="C79" t="n">
-        <v>0.698681</v>
+        <v>0.77145</v>
       </c>
       <c r="D79" t="n">
-        <v>1.33187</v>
+        <v>1.39287</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.551872</v>
+        <v>0.553332</v>
       </c>
       <c r="C80" t="n">
-        <v>1.07053</v>
+        <v>1.1442</v>
       </c>
       <c r="D80" t="n">
-        <v>1.30976</v>
+        <v>1.36642</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.794404</v>
+        <v>0.7921550000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03795</v>
+        <v>1.11676</v>
       </c>
       <c r="D81" t="n">
-        <v>1.2927</v>
+        <v>1.32218</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.780003</v>
+        <v>0.779573</v>
       </c>
       <c r="C82" t="n">
-        <v>1.02326</v>
+        <v>1.09567</v>
       </c>
       <c r="D82" t="n">
-        <v>1.27079</v>
+        <v>1.30401</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.775517</v>
+        <v>0.76187</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00464</v>
+        <v>1.07603</v>
       </c>
       <c r="D83" t="n">
-        <v>1.25522</v>
+        <v>1.28978</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.76525</v>
+        <v>0.763254</v>
       </c>
       <c r="C84" t="n">
-        <v>0.995976</v>
+        <v>1.06199</v>
       </c>
       <c r="D84" t="n">
-        <v>1.20803</v>
+        <v>1.27803</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.746456</v>
+        <v>0.751867</v>
       </c>
       <c r="C85" t="n">
-        <v>0.917679</v>
+        <v>1.03733</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19643</v>
+        <v>1.24756</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.727155</v>
+        <v>0.735272</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9356409999999999</v>
+        <v>1.00299</v>
       </c>
       <c r="D86" t="n">
-        <v>1.18951</v>
+        <v>1.24014</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7285700000000001</v>
+        <v>0.725939</v>
       </c>
       <c r="C87" t="n">
-        <v>0.914601</v>
+        <v>0.98239</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1899</v>
+        <v>1.23221</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.71446</v>
+        <v>0.715453</v>
       </c>
       <c r="C88" t="n">
-        <v>0.894127</v>
+        <v>0.953057</v>
       </c>
       <c r="D88" t="n">
-        <v>1.19064</v>
+        <v>1.23395</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.707607</v>
+        <v>0.695778</v>
       </c>
       <c r="C89" t="n">
-        <v>0.871201</v>
+        <v>0.933377</v>
       </c>
       <c r="D89" t="n">
-        <v>1.19198</v>
+        <v>1.23201</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.707514</v>
+        <v>0.690295</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8514350000000001</v>
+        <v>0.906911</v>
       </c>
       <c r="D90" t="n">
-        <v>1.19945</v>
+        <v>1.23206</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.69125</v>
+        <v>0.684387</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8370840000000001</v>
+        <v>0.892157</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19723</v>
+        <v>1.23132</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.661449</v>
+        <v>0.676183</v>
       </c>
       <c r="C92" t="n">
-        <v>0.790959</v>
+        <v>0.87637</v>
       </c>
       <c r="D92" t="n">
-        <v>2.16272</v>
+        <v>2.23792</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.67921</v>
+        <v>0.677266</v>
       </c>
       <c r="C93" t="n">
-        <v>0.811284</v>
+        <v>0.862968</v>
       </c>
       <c r="D93" t="n">
-        <v>2.16007</v>
+        <v>2.36975</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.667973</v>
+        <v>0.66756</v>
       </c>
       <c r="C94" t="n">
-        <v>1.15485</v>
+        <v>1.23058</v>
       </c>
       <c r="D94" t="n">
-        <v>2.15373</v>
+        <v>2.2641</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.902846</v>
+        <v>0.8923489999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1303</v>
+        <v>1.20849</v>
       </c>
       <c r="D95" t="n">
-        <v>2.15616</v>
+        <v>2.44943</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.888812</v>
+        <v>0.900636</v>
       </c>
       <c r="C96" t="n">
-        <v>1.11262</v>
+        <v>1.20831</v>
       </c>
       <c r="D96" t="n">
-        <v>2.14443</v>
+        <v>2.43106</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.894809</v>
+        <v>0.893043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.12048</v>
+        <v>1.19072</v>
       </c>
       <c r="D97" t="n">
-        <v>2.14209</v>
+        <v>2.42233</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.865994</v>
+        <v>0.87987</v>
       </c>
       <c r="C98" t="n">
-        <v>1.08638</v>
+        <v>1.17908</v>
       </c>
       <c r="D98" t="n">
-        <v>2.06529</v>
+        <v>1.99234</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.877377</v>
+        <v>0.857256</v>
       </c>
       <c r="C99" t="n">
-        <v>1.08935</v>
+        <v>1.1366</v>
       </c>
       <c r="D99" t="n">
-        <v>1.66094</v>
+        <v>1.98212</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.84054</v>
+        <v>0.855154</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05148</v>
+        <v>1.11523</v>
       </c>
       <c r="D100" t="n">
-        <v>1.6538</v>
+        <v>1.73016</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.847374</v>
+        <v>0.841865</v>
       </c>
       <c r="C101" t="n">
-        <v>0.997661</v>
+        <v>1.10134</v>
       </c>
       <c r="D101" t="n">
-        <v>1.65224</v>
+        <v>1.72932</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.830276</v>
+        <v>0.8320380000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>1.01984</v>
+        <v>1.08289</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65448</v>
+        <v>1.72494</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.828402</v>
+        <v>0.817134</v>
       </c>
       <c r="C103" t="n">
-        <v>1.01199</v>
+        <v>1.06467</v>
       </c>
       <c r="D103" t="n">
-        <v>1.64666</v>
+        <v>1.72997</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.816058</v>
+        <v>0.822497</v>
       </c>
       <c r="C104" t="n">
-        <v>0.994517</v>
+        <v>1.05145</v>
       </c>
       <c r="D104" t="n">
-        <v>1.64602</v>
+        <v>1.73411</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.813787</v>
+        <v>0.806686</v>
       </c>
       <c r="C105" t="n">
-        <v>0.980973</v>
+        <v>1.03895</v>
       </c>
       <c r="D105" t="n">
-        <v>1.66406</v>
+        <v>1.73958</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.804162</v>
+        <v>0.809828</v>
       </c>
       <c r="C106" t="n">
-        <v>0.968097</v>
+        <v>1.02382</v>
       </c>
       <c r="D106" t="n">
-        <v>1.6816</v>
+        <v>1.7479</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8106409999999999</v>
+        <v>0.780187</v>
       </c>
       <c r="C107" t="n">
-        <v>0.933773</v>
+        <v>0.985995</v>
       </c>
       <c r="D107" t="n">
-        <v>2.95299</v>
+        <v>3.02077</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.805737</v>
+        <v>0.803433</v>
       </c>
       <c r="C108" t="n">
-        <v>1.28668</v>
+        <v>1.39133</v>
       </c>
       <c r="D108" t="n">
-        <v>2.93507</v>
+        <v>2.99824</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.795809</v>
+        <v>0.809585</v>
       </c>
       <c r="C109" t="n">
-        <v>1.28376</v>
+        <v>1.38035</v>
       </c>
       <c r="D109" t="n">
-        <v>2.926</v>
+        <v>3.14842</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02038</v>
+        <v>1.02184</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27717</v>
+        <v>1.34216</v>
       </c>
       <c r="D110" t="n">
-        <v>2.53442</v>
+        <v>2.95296</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.998992</v>
+        <v>1.00635</v>
       </c>
       <c r="C111" t="n">
-        <v>1.26943</v>
+        <v>1.3305</v>
       </c>
       <c r="D111" t="n">
-        <v>2.70434</v>
+        <v>2.74625</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01262</v>
+        <v>1.00997</v>
       </c>
       <c r="C112" t="n">
-        <v>1.283</v>
+        <v>1.34426</v>
       </c>
       <c r="D112" t="n">
-        <v>2.48936</v>
+        <v>2.72813</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.987639</v>
+        <v>0.988201</v>
       </c>
       <c r="C113" t="n">
-        <v>1.24961</v>
+        <v>1.3145</v>
       </c>
       <c r="D113" t="n">
-        <v>2.28323</v>
+        <v>2.70518</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989388</v>
+        <v>0.975139</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26271</v>
+        <v>1.30741</v>
       </c>
       <c r="D114" t="n">
-        <v>2.25256</v>
+        <v>2.30435</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.965987</v>
+        <v>0.971942</v>
       </c>
       <c r="C115" t="n">
-        <v>1.20468</v>
+        <v>1.29701</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24666</v>
+        <v>2.28959</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.959462</v>
+        <v>0.966043</v>
       </c>
       <c r="C116" t="n">
-        <v>1.23309</v>
+        <v>1.30873</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2309</v>
+        <v>2.29152</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9495170000000001</v>
+        <v>0.940784</v>
       </c>
       <c r="C117" t="n">
-        <v>1.22442</v>
+        <v>1.27731</v>
       </c>
       <c r="D117" t="n">
-        <v>2.23126</v>
+        <v>2.27613</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.944747</v>
+        <v>0.948272</v>
       </c>
       <c r="C118" t="n">
-        <v>1.22225</v>
+        <v>1.27421</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22678</v>
+        <v>2.27372</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.940293</v>
+        <v>0.9330580000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>1.21492</v>
+        <v>1.26482</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2327</v>
+        <v>2.26895</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.934308</v>
+        <v>0.91899</v>
       </c>
       <c r="C120" t="n">
-        <v>1.20787</v>
+        <v>1.22593</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24224</v>
+        <v>2.26541</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.92974</v>
+        <v>0.92114</v>
       </c>
       <c r="C121" t="n">
-        <v>1.20554</v>
+        <v>1.22236</v>
       </c>
       <c r="D121" t="n">
-        <v>3.68504</v>
+        <v>3.69527</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.912279</v>
+        <v>0.923699</v>
       </c>
       <c r="C122" t="n">
-        <v>1.17625</v>
+        <v>1.21897</v>
       </c>
       <c r="D122" t="n">
-        <v>3.64978</v>
+        <v>3.66479</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.927294</v>
+        <v>0.9290659999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>1.52168</v>
+        <v>1.614</v>
       </c>
       <c r="D123" t="n">
-        <v>4.04852</v>
+        <v>4.25799</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16503</v>
+        <v>1.16277</v>
       </c>
       <c r="C124" t="n">
-        <v>1.54296</v>
+        <v>1.60377</v>
       </c>
       <c r="D124" t="n">
-        <v>3.98949</v>
+        <v>4.01704</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.12454</v>
+        <v>1.13934</v>
       </c>
       <c r="C125" t="n">
-        <v>1.50599</v>
+        <v>1.56946</v>
       </c>
       <c r="D125" t="n">
-        <v>3.53398</v>
+        <v>2.9058</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.12881</v>
+        <v>1.14469</v>
       </c>
       <c r="C126" t="n">
-        <v>1.50115</v>
+        <v>1.58622</v>
       </c>
       <c r="D126" t="n">
-        <v>3.28868</v>
+        <v>3.10066</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1222</v>
+        <v>1.12365</v>
       </c>
       <c r="C127" t="n">
-        <v>1.49435</v>
+        <v>1.55551</v>
       </c>
       <c r="D127" t="n">
-        <v>3.48701</v>
+        <v>2.85005</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10923</v>
+        <v>1.11581</v>
       </c>
       <c r="C128" t="n">
-        <v>1.48885</v>
+        <v>1.53914</v>
       </c>
       <c r="D128" t="n">
-        <v>2.78615</v>
+        <v>2.82049</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10242</v>
+        <v>1.0875</v>
       </c>
       <c r="C129" t="n">
-        <v>1.48067</v>
+        <v>1.53538</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76692</v>
+        <v>2.78771</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0919</v>
+        <v>1.09127</v>
       </c>
       <c r="C130" t="n">
-        <v>1.48228</v>
+        <v>1.53002</v>
       </c>
       <c r="D130" t="n">
-        <v>2.74888</v>
+        <v>2.76707</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.07511</v>
+        <v>1.09486</v>
       </c>
       <c r="C131" t="n">
-        <v>1.44035</v>
+        <v>1.52195</v>
       </c>
       <c r="D131" t="n">
-        <v>2.74634</v>
+        <v>2.76213</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.07949</v>
+        <v>1.08273</v>
       </c>
       <c r="C132" t="n">
-        <v>1.44042</v>
+        <v>1.50974</v>
       </c>
       <c r="D132" t="n">
-        <v>2.73146</v>
+        <v>2.7526</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05954</v>
+        <v>1.07418</v>
       </c>
       <c r="C133" t="n">
-        <v>1.43475</v>
+        <v>1.50509</v>
       </c>
       <c r="D133" t="n">
-        <v>2.72986</v>
+        <v>2.74753</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0687</v>
+        <v>1.06413</v>
       </c>
       <c r="C134" t="n">
-        <v>1.46487</v>
+        <v>1.50579</v>
       </c>
       <c r="D134" t="n">
-        <v>2.72328</v>
+        <v>2.74038</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06072</v>
+        <v>1.07074</v>
       </c>
       <c r="C135" t="n">
-        <v>1.4596</v>
+        <v>1.50122</v>
       </c>
       <c r="D135" t="n">
-        <v>4.17026</v>
+        <v>4.27569</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07579</v>
+        <v>1.05625</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43471</v>
+        <v>1.45893</v>
       </c>
       <c r="D136" t="n">
-        <v>4.1184</v>
+        <v>4.23012</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06955</v>
+        <v>1.0703</v>
       </c>
       <c r="C137" t="n">
-        <v>1.78101</v>
+        <v>1.84336</v>
       </c>
       <c r="D137" t="n">
-        <v>4.31376</v>
+        <v>4.1622</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28996</v>
+        <v>1.29019</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76568</v>
+        <v>1.84515</v>
       </c>
       <c r="D138" t="n">
-        <v>4.48853</v>
+        <v>4.11994</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30074</v>
+        <v>1.28669</v>
       </c>
       <c r="C139" t="n">
-        <v>1.77382</v>
+        <v>1.80993</v>
       </c>
       <c r="D139" t="n">
-        <v>3.75163</v>
+        <v>4.06726</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28246</v>
+        <v>1.28435</v>
       </c>
       <c r="C140" t="n">
-        <v>1.76371</v>
+        <v>1.79436</v>
       </c>
       <c r="D140" t="n">
-        <v>3.47129</v>
+        <v>4.02861</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27647</v>
+        <v>1.24983</v>
       </c>
       <c r="C141" t="n">
-        <v>1.75031</v>
+        <v>1.7844</v>
       </c>
       <c r="D141" t="n">
-        <v>3.20069</v>
+        <v>3.28397</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27923</v>
+        <v>1.26993</v>
       </c>
       <c r="C142" t="n">
-        <v>1.71851</v>
+        <v>1.77424</v>
       </c>
       <c r="D142" t="n">
-        <v>3.14836</v>
+        <v>3.23592</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25262</v>
+        <v>1.25712</v>
       </c>
       <c r="C143" t="n">
-        <v>1.70733</v>
+        <v>1.75867</v>
       </c>
       <c r="D143" t="n">
-        <v>3.12068</v>
+        <v>3.20435</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480182</v>
+        <v>0.481716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.773172</v>
+        <v>0.7884409999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.823525</v>
+        <v>0.831981</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.410628</v>
+        <v>0.409676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.695774</v>
+        <v>0.70905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.814351</v>
+        <v>0.82444</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.400345</v>
+        <v>0.398152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6786140000000001</v>
+        <v>0.693744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.805786</v>
+        <v>0.880954</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.391988</v>
+        <v>0.392587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.662983</v>
+        <v>0.676681</v>
       </c>
       <c r="D5" t="n">
-        <v>0.798806</v>
+        <v>0.874166</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.384424</v>
+        <v>0.387607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.648863</v>
+        <v>0.662313</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8560179999999999</v>
+        <v>0.804662</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.382687</v>
+        <v>0.385927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.636947</v>
+        <v>0.651399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.888863</v>
+        <v>0.900772</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383289</v>
+        <v>0.38444</v>
       </c>
       <c r="C8" t="n">
-        <v>0.62715</v>
+        <v>0.643608</v>
       </c>
       <c r="D8" t="n">
-        <v>0.874238</v>
+        <v>0.883437</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.389641</v>
+        <v>0.388628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.939562</v>
+        <v>0.960669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8560140000000001</v>
+        <v>0.868484</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.571712</v>
+        <v>0.57392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.910396</v>
+        <v>0.93163</v>
       </c>
       <c r="D10" t="n">
-        <v>0.847222</v>
+        <v>0.856463</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556052</v>
+        <v>0.556883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.882786</v>
+        <v>0.903379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.83183</v>
+        <v>0.841039</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539452</v>
+        <v>0.535537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.856531</v>
+        <v>0.8747470000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.819451</v>
+        <v>0.825221</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523041</v>
+        <v>0.521554</v>
       </c>
       <c r="C13" t="n">
-        <v>0.831622</v>
+        <v>0.8502690000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8036450000000001</v>
+        <v>0.81316</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.508202</v>
+        <v>0.506864</v>
       </c>
       <c r="C14" t="n">
-        <v>0.808496</v>
+        <v>0.827391</v>
       </c>
       <c r="D14" t="n">
-        <v>0.801515</v>
+        <v>0.807828</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.49295</v>
+        <v>0.493912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.786843</v>
+        <v>0.804227</v>
       </c>
       <c r="D15" t="n">
-        <v>0.790245</v>
+        <v>0.799438</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.478811</v>
+        <v>0.478423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7657659999999999</v>
+        <v>0.782481</v>
       </c>
       <c r="D16" t="n">
-        <v>0.781027</v>
+        <v>0.7910700000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.468492</v>
+        <v>0.472299</v>
       </c>
       <c r="C17" t="n">
-        <v>0.746279</v>
+        <v>0.762391</v>
       </c>
       <c r="D17" t="n">
-        <v>0.769825</v>
+        <v>0.78052</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456539</v>
+        <v>0.4583</v>
       </c>
       <c r="C18" t="n">
-        <v>0.727169</v>
+        <v>0.74259</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765491</v>
+        <v>0.776634</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447762</v>
+        <v>0.450638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.710636</v>
+        <v>0.724676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.75705</v>
+        <v>0.768378</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440664</v>
+        <v>0.43902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.694999</v>
+        <v>0.709761</v>
       </c>
       <c r="D20" t="n">
-        <v>0.749941</v>
+        <v>0.761886</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433041</v>
+        <v>0.433817</v>
       </c>
       <c r="C21" t="n">
-        <v>0.682528</v>
+        <v>0.69668</v>
       </c>
       <c r="D21" t="n">
-        <v>0.973746</v>
+        <v>0.983032</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431246</v>
+        <v>0.433336</v>
       </c>
       <c r="C22" t="n">
-        <v>0.67245</v>
+        <v>0.685507</v>
       </c>
       <c r="D22" t="n">
-        <v>0.954151</v>
+        <v>0.963738</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431461</v>
+        <v>0.432586</v>
       </c>
       <c r="C23" t="n">
-        <v>0.996142</v>
+        <v>1.01756</v>
       </c>
       <c r="D23" t="n">
-        <v>0.935099</v>
+        <v>0.941562</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6221989999999999</v>
+        <v>0.62374</v>
       </c>
       <c r="C24" t="n">
-        <v>0.96533</v>
+        <v>0.985782</v>
       </c>
       <c r="D24" t="n">
-        <v>0.916098</v>
+        <v>0.920444</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.600904</v>
+        <v>0.602607</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9358379999999999</v>
+        <v>0.955104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903609</v>
+        <v>0.9059700000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.584687</v>
+        <v>0.582784</v>
       </c>
       <c r="C26" t="n">
-        <v>0.907658</v>
+        <v>0.9258189999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.886331</v>
+        <v>0.889377</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.566874</v>
+        <v>0.568786</v>
       </c>
       <c r="C27" t="n">
-        <v>0.880649</v>
+        <v>0.899054</v>
       </c>
       <c r="D27" t="n">
-        <v>0.873548</v>
+        <v>0.879086</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549769</v>
+        <v>0.5510969999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.854984</v>
+        <v>0.872438</v>
       </c>
       <c r="D28" t="n">
-        <v>0.859862</v>
+        <v>0.865154</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533662</v>
+        <v>0.536627</v>
       </c>
       <c r="C29" t="n">
-        <v>0.831117</v>
+        <v>0.847797</v>
       </c>
       <c r="D29" t="n">
-        <v>0.852068</v>
+        <v>0.860521</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.519438</v>
+        <v>0.519783</v>
       </c>
       <c r="C30" t="n">
-        <v>0.808393</v>
+        <v>0.823976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.843883</v>
+        <v>0.848451</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506208</v>
+        <v>0.50787</v>
       </c>
       <c r="C31" t="n">
-        <v>0.78716</v>
+        <v>0.801848</v>
       </c>
       <c r="D31" t="n">
-        <v>0.834101</v>
+        <v>0.841608</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493643</v>
+        <v>0.494687</v>
       </c>
       <c r="C32" t="n">
-        <v>0.766696</v>
+        <v>0.780797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.827437</v>
+        <v>0.8330070000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.457966</v>
+        <v>0.45977</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7264389999999999</v>
+        <v>0.739855</v>
       </c>
       <c r="D33" t="n">
-        <v>0.820363</v>
+        <v>0.824881</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.474936</v>
+        <v>0.449058</v>
       </c>
       <c r="C34" t="n">
-        <v>0.731061</v>
+        <v>0.7238289999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.812828</v>
+        <v>0.817885</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464996</v>
+        <v>0.467</v>
       </c>
       <c r="C35" t="n">
-        <v>0.71615</v>
+        <v>0.728993</v>
       </c>
       <c r="D35" t="n">
-        <v>1.04949</v>
+        <v>1.05555</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.440002</v>
+        <v>0.43791</v>
       </c>
       <c r="C36" t="n">
-        <v>0.685285</v>
+        <v>0.696258</v>
       </c>
       <c r="D36" t="n">
-        <v>1.02794</v>
+        <v>1.02953</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.439243</v>
+        <v>0.440057</v>
       </c>
       <c r="C37" t="n">
-        <v>1.01379</v>
+        <v>1.03372</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0077</v>
+        <v>1.00959</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.630578</v>
+        <v>0.633699</v>
       </c>
       <c r="C38" t="n">
-        <v>0.983237</v>
+        <v>1.00232</v>
       </c>
       <c r="D38" t="n">
-        <v>0.986838</v>
+        <v>0.992341</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6125080000000001</v>
+        <v>0.616658</v>
       </c>
       <c r="C39" t="n">
-        <v>0.952978</v>
+        <v>0.972024</v>
       </c>
       <c r="D39" t="n">
-        <v>0.976614</v>
+        <v>0.978487</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.594499</v>
+        <v>0.599143</v>
       </c>
       <c r="C40" t="n">
-        <v>0.924751</v>
+        <v>0.942737</v>
       </c>
       <c r="D40" t="n">
-        <v>0.960491</v>
+        <v>0.962578</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.577063</v>
+        <v>0.580408</v>
       </c>
       <c r="C41" t="n">
-        <v>0.897911</v>
+        <v>0.9152</v>
       </c>
       <c r="D41" t="n">
-        <v>0.944127</v>
+        <v>0.947381</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.561349</v>
+        <v>0.5627220000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8723610000000001</v>
+        <v>0.88849</v>
       </c>
       <c r="D42" t="n">
-        <v>0.930212</v>
+        <v>0.930648</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.546057</v>
+        <v>0.5489540000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.848088</v>
+        <v>0.86375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.917337</v>
+        <v>0.9191589999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.531108</v>
+        <v>0.533801</v>
       </c>
       <c r="C44" t="n">
-        <v>0.824523</v>
+        <v>0.839319</v>
       </c>
       <c r="D44" t="n">
-        <v>0.904976</v>
+        <v>0.906521</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.518815</v>
+        <v>0.52118</v>
       </c>
       <c r="C45" t="n">
-        <v>0.803134</v>
+        <v>0.817169</v>
       </c>
       <c r="D45" t="n">
-        <v>0.898949</v>
+        <v>0.899031</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.506098</v>
+        <v>0.507237</v>
       </c>
       <c r="C46" t="n">
-        <v>0.782733</v>
+        <v>0.795887</v>
       </c>
       <c r="D46" t="n">
-        <v>0.88867</v>
+        <v>0.8892910000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.475213</v>
+        <v>0.497223</v>
       </c>
       <c r="C47" t="n">
-        <v>0.741881</v>
+        <v>0.7772520000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.884167</v>
+        <v>0.886582</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.485565</v>
+        <v>0.488486</v>
       </c>
       <c r="C48" t="n">
-        <v>0.745624</v>
+        <v>0.758962</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879016</v>
+        <v>0.880922</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.477483</v>
+        <v>0.47795</v>
       </c>
       <c r="C49" t="n">
-        <v>0.730367</v>
+        <v>0.742534</v>
       </c>
       <c r="D49" t="n">
-        <v>0.870681</v>
+        <v>0.873421</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.471553</v>
+        <v>0.473371</v>
       </c>
       <c r="C50" t="n">
-        <v>0.716514</v>
+        <v>0.728482</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10199</v>
+        <v>1.10269</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.468619</v>
+        <v>0.451004</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05084</v>
+        <v>1.05902</v>
       </c>
       <c r="D51" t="n">
-        <v>1.08016</v>
+        <v>1.08047</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468931</v>
+        <v>0.448826</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01698</v>
+        <v>1.02553</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05844</v>
+        <v>1.06042</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.634457</v>
+        <v>0.639722</v>
       </c>
       <c r="C53" t="n">
-        <v>0.975126</v>
+        <v>0.99625</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03901</v>
+        <v>1.03966</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.616823</v>
+        <v>0.638722</v>
       </c>
       <c r="C54" t="n">
-        <v>0.947506</v>
+        <v>0.98282</v>
       </c>
       <c r="D54" t="n">
-        <v>1.02303</v>
+        <v>1.02331</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.599183</v>
+        <v>0.610239</v>
       </c>
       <c r="C55" t="n">
-        <v>0.917392</v>
+        <v>0.942211</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00519</v>
+        <v>1.00494</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.581124</v>
+        <v>0.588655</v>
       </c>
       <c r="C56" t="n">
-        <v>0.892967</v>
+        <v>0.91454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.989897</v>
+        <v>0.989519</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.568087</v>
+        <v>0.576863</v>
       </c>
       <c r="C57" t="n">
-        <v>0.870206</v>
+        <v>0.890402</v>
       </c>
       <c r="D57" t="n">
-        <v>0.974895</v>
+        <v>0.974956</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.552597</v>
+        <v>0.560013</v>
       </c>
       <c r="C58" t="n">
-        <v>0.848889</v>
+        <v>0.865606</v>
       </c>
       <c r="D58" t="n">
-        <v>0.962297</v>
+        <v>0.963888</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5426800000000001</v>
+        <v>0.546992</v>
       </c>
       <c r="C59" t="n">
-        <v>0.827442</v>
+        <v>0.842218</v>
       </c>
       <c r="D59" t="n">
-        <v>0.943813</v>
+        <v>0.944219</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.50312</v>
+        <v>0.53465</v>
       </c>
       <c r="C60" t="n">
-        <v>0.777133</v>
+        <v>0.821157</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935957</v>
+        <v>0.935965</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.514673</v>
+        <v>0.522545</v>
       </c>
       <c r="C61" t="n">
-        <v>0.781447</v>
+        <v>0.779521</v>
       </c>
       <c r="D61" t="n">
-        <v>0.926548</v>
+        <v>0.926812</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.508277</v>
+        <v>0.518532</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7692600000000001</v>
+        <v>0.786947</v>
       </c>
       <c r="D62" t="n">
-        <v>0.91706</v>
+        <v>0.917438</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.497526</v>
+        <v>0.505305</v>
       </c>
       <c r="C63" t="n">
-        <v>0.752572</v>
+        <v>0.767845</v>
       </c>
       <c r="D63" t="n">
-        <v>0.909242</v>
+        <v>0.909618</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.471195</v>
+        <v>0.473385</v>
       </c>
       <c r="C64" t="n">
-        <v>0.716916</v>
+        <v>0.729739</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16797</v>
+        <v>1.17631</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.488458</v>
+        <v>0.493835</v>
       </c>
       <c r="C65" t="n">
-        <v>0.728622</v>
+        <v>0.741354</v>
       </c>
       <c r="D65" t="n">
-        <v>1.14437</v>
+        <v>1.15046</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.488594</v>
+        <v>0.491968</v>
       </c>
       <c r="C66" t="n">
-        <v>1.06844</v>
+        <v>1.20328</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11635</v>
+        <v>1.12269</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.701546</v>
+        <v>0.7178290000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03937</v>
+        <v>1.1573</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09141</v>
+        <v>1.09573</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.68818</v>
+        <v>0.698388</v>
       </c>
       <c r="C68" t="n">
-        <v>1.01348</v>
+        <v>1.12655</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07551</v>
+        <v>1.07533</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6765060000000001</v>
+        <v>0.684615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9829639999999999</v>
+        <v>1.09257</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05769</v>
+        <v>1.05926</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.660142</v>
+        <v>0.670121</v>
       </c>
       <c r="C70" t="n">
-        <v>0.956823</v>
+        <v>1.0618</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04497</v>
+        <v>1.047</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.644653</v>
+        <v>0.6560279999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.931011</v>
+        <v>1.03175</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0191</v>
+        <v>1.01769</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6309900000000001</v>
+        <v>0.640485</v>
       </c>
       <c r="C72" t="n">
-        <v>0.898118</v>
+        <v>0.997696</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00828</v>
+        <v>1.00927</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.608831</v>
+        <v>0.615741</v>
       </c>
       <c r="C73" t="n">
-        <v>0.875134</v>
+        <v>0.968397</v>
       </c>
       <c r="D73" t="n">
-        <v>0.999174</v>
+        <v>1.0021</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.611291</v>
+        <v>0.619839</v>
       </c>
       <c r="C74" t="n">
-        <v>0.857556</v>
+        <v>0.944982</v>
       </c>
       <c r="D74" t="n">
-        <v>0.986159</v>
+        <v>0.988853</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.56193</v>
+        <v>0.5707950000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.808222</v>
+        <v>0.890026</v>
       </c>
       <c r="D75" t="n">
-        <v>0.980183</v>
+        <v>0.981519</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.569306</v>
+        <v>0.578072</v>
       </c>
       <c r="C76" t="n">
-        <v>0.790949</v>
+        <v>0.86671</v>
       </c>
       <c r="D76" t="n">
-        <v>0.976572</v>
+        <v>0.979623</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.568448</v>
+        <v>0.575695</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7979579999999999</v>
+        <v>0.8781369999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.969249</v>
+        <v>0.973054</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.559551</v>
+        <v>0.572418</v>
       </c>
       <c r="C78" t="n">
-        <v>0.78572</v>
+        <v>0.859689</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42199</v>
+        <v>1.43693</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.563126</v>
+        <v>0.572688</v>
       </c>
       <c r="C79" t="n">
-        <v>0.77145</v>
+        <v>0.8461</v>
       </c>
       <c r="D79" t="n">
-        <v>1.39287</v>
+        <v>1.40703</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.553332</v>
+        <v>0.561826</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1442</v>
+        <v>1.22582</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36642</v>
+        <v>1.37653</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7921550000000001</v>
+        <v>0.802059</v>
       </c>
       <c r="C81" t="n">
-        <v>1.11676</v>
+        <v>1.18949</v>
       </c>
       <c r="D81" t="n">
-        <v>1.32218</v>
+        <v>1.34349</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.779573</v>
+        <v>0.791309</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09567</v>
+        <v>1.16593</v>
       </c>
       <c r="D82" t="n">
-        <v>1.30401</v>
+        <v>1.32103</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.76187</v>
+        <v>0.772254</v>
       </c>
       <c r="C83" t="n">
-        <v>1.07603</v>
+        <v>1.14011</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28978</v>
+        <v>1.30372</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.763254</v>
+        <v>0.762122</v>
       </c>
       <c r="C84" t="n">
-        <v>1.06199</v>
+        <v>1.11482</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27803</v>
+        <v>1.29233</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.751867</v>
+        <v>0.768634</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03733</v>
+        <v>1.08944</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24756</v>
+        <v>1.2563</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.735272</v>
+        <v>0.749949</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00299</v>
+        <v>1.06035</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24014</v>
+        <v>1.25336</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.725939</v>
+        <v>0.74033</v>
       </c>
       <c r="C87" t="n">
-        <v>0.98239</v>
+        <v>1.03329</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23221</v>
+        <v>1.25062</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.715453</v>
+        <v>0.729353</v>
       </c>
       <c r="C88" t="n">
-        <v>0.953057</v>
+        <v>1.005</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23395</v>
+        <v>1.24164</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.695778</v>
+        <v>0.712597</v>
       </c>
       <c r="C89" t="n">
-        <v>0.933377</v>
+        <v>0.98488</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23201</v>
+        <v>1.24373</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.690295</v>
+        <v>0.70752</v>
       </c>
       <c r="C90" t="n">
-        <v>0.906911</v>
+        <v>0.96219</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23206</v>
+        <v>1.2514</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.684387</v>
+        <v>0.698912</v>
       </c>
       <c r="C91" t="n">
-        <v>0.892157</v>
+        <v>0.954122</v>
       </c>
       <c r="D91" t="n">
-        <v>1.23132</v>
+        <v>1.24813</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.676183</v>
+        <v>0.665059</v>
       </c>
       <c r="C92" t="n">
-        <v>0.87637</v>
+        <v>0.911489</v>
       </c>
       <c r="D92" t="n">
-        <v>2.23792</v>
+        <v>2.26146</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677266</v>
+        <v>0.679235</v>
       </c>
       <c r="C93" t="n">
-        <v>0.862968</v>
+        <v>0.906745</v>
       </c>
       <c r="D93" t="n">
-        <v>2.36975</v>
+        <v>2.26244</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.66756</v>
+        <v>0.675027</v>
       </c>
       <c r="C94" t="n">
-        <v>1.23058</v>
+        <v>1.29028</v>
       </c>
       <c r="D94" t="n">
-        <v>2.2641</v>
+        <v>2.26096</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8923489999999999</v>
+        <v>0.9147729999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.20849</v>
+        <v>1.27059</v>
       </c>
       <c r="D95" t="n">
-        <v>2.44943</v>
+        <v>2.2486</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.900636</v>
+        <v>0.910205</v>
       </c>
       <c r="C96" t="n">
-        <v>1.20831</v>
+        <v>1.26117</v>
       </c>
       <c r="D96" t="n">
-        <v>2.43106</v>
+        <v>2.30855</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.893043</v>
+        <v>0.901218</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19072</v>
+        <v>1.2406</v>
       </c>
       <c r="D97" t="n">
-        <v>2.42233</v>
+        <v>2.30065</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.87987</v>
+        <v>0.88773</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17908</v>
+        <v>1.21889</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99234</v>
+        <v>1.92989</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.857256</v>
+        <v>0.881466</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1366</v>
+        <v>1.19346</v>
       </c>
       <c r="D99" t="n">
-        <v>1.98212</v>
+        <v>1.76887</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.855154</v>
+        <v>0.8694730000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11523</v>
+        <v>1.17256</v>
       </c>
       <c r="D100" t="n">
-        <v>1.73016</v>
+        <v>1.74021</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.841865</v>
+        <v>0.8311730000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10134</v>
+        <v>1.10528</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72932</v>
+        <v>1.73775</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8320380000000001</v>
+        <v>0.835582</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08289</v>
+        <v>1.08789</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72494</v>
+        <v>1.73549</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.817134</v>
+        <v>0.813232</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06467</v>
+        <v>1.07203</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72997</v>
+        <v>1.73904</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.822497</v>
+        <v>0.803229</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05145</v>
+        <v>1.0569</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73411</v>
+        <v>1.74509</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.806686</v>
+        <v>0.808258</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03895</v>
+        <v>1.04301</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73958</v>
+        <v>1.73798</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.809828</v>
+        <v>0.8064</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02382</v>
+        <v>1.06206</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7479</v>
+        <v>1.74781</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.780187</v>
+        <v>0.78284</v>
       </c>
       <c r="C107" t="n">
-        <v>0.985995</v>
+        <v>1.01985</v>
       </c>
       <c r="D107" t="n">
-        <v>3.02077</v>
+        <v>3.40282</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.803433</v>
+        <v>0.808107</v>
       </c>
       <c r="C108" t="n">
-        <v>1.39133</v>
+        <v>1.43388</v>
       </c>
       <c r="D108" t="n">
-        <v>2.99824</v>
+        <v>3.00937</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.809585</v>
+        <v>0.807572</v>
       </c>
       <c r="C109" t="n">
-        <v>1.38035</v>
+        <v>1.42491</v>
       </c>
       <c r="D109" t="n">
-        <v>3.14842</v>
+        <v>3.16726</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02184</v>
+        <v>1.01576</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34216</v>
+        <v>1.38566</v>
       </c>
       <c r="D110" t="n">
-        <v>2.95296</v>
+        <v>2.96767</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.00635</v>
+        <v>1.02482</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3305</v>
+        <v>1.39782</v>
       </c>
       <c r="D111" t="n">
-        <v>2.74625</v>
+        <v>2.37171</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00997</v>
+        <v>1.00463</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34426</v>
+        <v>1.35906</v>
       </c>
       <c r="D112" t="n">
-        <v>2.72813</v>
+        <v>2.34619</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.988201</v>
+        <v>1.00282</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3145</v>
+        <v>1.37246</v>
       </c>
       <c r="D113" t="n">
-        <v>2.70518</v>
+        <v>2.92008</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.975139</v>
+        <v>0.9916160000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30741</v>
+        <v>1.35836</v>
       </c>
       <c r="D114" t="n">
-        <v>2.30435</v>
+        <v>2.30793</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.971942</v>
+        <v>0.971639</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29701</v>
+        <v>1.32189</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28959</v>
+        <v>2.29525</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.966043</v>
+        <v>0.958194</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30873</v>
+        <v>1.31482</v>
       </c>
       <c r="D116" t="n">
-        <v>2.29152</v>
+        <v>2.28671</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.940784</v>
+        <v>0.944469</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27731</v>
+        <v>1.30652</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27613</v>
+        <v>2.28396</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.948272</v>
+        <v>0.944018</v>
       </c>
       <c r="C118" t="n">
-        <v>1.27421</v>
+        <v>1.29636</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27372</v>
+        <v>2.28177</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9330580000000001</v>
+        <v>0.940558</v>
       </c>
       <c r="C119" t="n">
-        <v>1.26482</v>
+        <v>1.25613</v>
       </c>
       <c r="D119" t="n">
-        <v>2.26895</v>
+        <v>2.2824</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.91899</v>
+        <v>0.933409</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22593</v>
+        <v>1.27927</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26541</v>
+        <v>2.28104</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.92114</v>
+        <v>0.9351390000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22236</v>
+        <v>1.27331</v>
       </c>
       <c r="D121" t="n">
-        <v>3.69527</v>
+        <v>3.73653</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.923699</v>
+        <v>0.907399</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21897</v>
+        <v>1.23636</v>
       </c>
       <c r="D122" t="n">
-        <v>3.66479</v>
+        <v>3.68858</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9290659999999999</v>
+        <v>0.926494</v>
       </c>
       <c r="C123" t="n">
-        <v>1.614</v>
+        <v>1.6444</v>
       </c>
       <c r="D123" t="n">
-        <v>4.25799</v>
+        <v>4.3034</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16277</v>
+        <v>1.17352</v>
       </c>
       <c r="C124" t="n">
-        <v>1.60377</v>
+        <v>1.60642</v>
       </c>
       <c r="D124" t="n">
-        <v>4.01704</v>
+        <v>4.04609</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.13934</v>
+        <v>1.16398</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56946</v>
+        <v>1.61558</v>
       </c>
       <c r="D125" t="n">
-        <v>2.9058</v>
+        <v>3.58073</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14469</v>
+        <v>1.14807</v>
       </c>
       <c r="C126" t="n">
-        <v>1.58622</v>
+        <v>1.57905</v>
       </c>
       <c r="D126" t="n">
-        <v>3.10066</v>
+        <v>2.89009</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12365</v>
+        <v>1.117</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55551</v>
+        <v>1.57015</v>
       </c>
       <c r="D127" t="n">
-        <v>2.85005</v>
+        <v>2.85693</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11581</v>
+        <v>1.10242</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53914</v>
+        <v>1.56341</v>
       </c>
       <c r="D128" t="n">
-        <v>2.82049</v>
+        <v>2.83109</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0875</v>
+        <v>1.10252</v>
       </c>
       <c r="C129" t="n">
-        <v>1.53538</v>
+        <v>1.55398</v>
       </c>
       <c r="D129" t="n">
-        <v>2.78771</v>
+        <v>2.80385</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09127</v>
+        <v>1.0451</v>
       </c>
       <c r="C130" t="n">
-        <v>1.53002</v>
+        <v>1.50204</v>
       </c>
       <c r="D130" t="n">
-        <v>2.76707</v>
+        <v>2.77647</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09486</v>
+        <v>1.0869</v>
       </c>
       <c r="C131" t="n">
-        <v>1.52195</v>
+        <v>1.49905</v>
       </c>
       <c r="D131" t="n">
-        <v>2.76213</v>
+        <v>2.77756</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08273</v>
+        <v>1.07113</v>
       </c>
       <c r="C132" t="n">
-        <v>1.50974</v>
+        <v>1.4918</v>
       </c>
       <c r="D132" t="n">
-        <v>2.7526</v>
+        <v>2.76776</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07418</v>
+        <v>1.08318</v>
       </c>
       <c r="C133" t="n">
-        <v>1.50509</v>
+        <v>1.52367</v>
       </c>
       <c r="D133" t="n">
-        <v>2.74753</v>
+        <v>2.74806</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06413</v>
+        <v>1.0767</v>
       </c>
       <c r="C134" t="n">
-        <v>1.50579</v>
+        <v>1.48139</v>
       </c>
       <c r="D134" t="n">
-        <v>2.74038</v>
+        <v>2.75452</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07074</v>
+        <v>1.07095</v>
       </c>
       <c r="C135" t="n">
-        <v>1.50122</v>
+        <v>1.48368</v>
       </c>
       <c r="D135" t="n">
-        <v>4.27569</v>
+        <v>4.2957</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05625</v>
+        <v>1.07683</v>
       </c>
       <c r="C136" t="n">
-        <v>1.45893</v>
+        <v>1.49961</v>
       </c>
       <c r="D136" t="n">
-        <v>4.23012</v>
+        <v>4.23129</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0703</v>
+        <v>1.0607</v>
       </c>
       <c r="C137" t="n">
-        <v>1.84336</v>
+        <v>1.84858</v>
       </c>
       <c r="D137" t="n">
-        <v>4.1622</v>
+        <v>4.41603</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29019</v>
+        <v>1.29808</v>
       </c>
       <c r="C138" t="n">
-        <v>1.84515</v>
+        <v>1.86299</v>
       </c>
       <c r="D138" t="n">
-        <v>4.11994</v>
+        <v>4.37552</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28669</v>
+        <v>1.29096</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80993</v>
+        <v>1.84569</v>
       </c>
       <c r="D139" t="n">
-        <v>4.06726</v>
+        <v>3.61541</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28435</v>
+        <v>1.27871</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79436</v>
+        <v>1.82623</v>
       </c>
       <c r="D140" t="n">
-        <v>4.02861</v>
+        <v>4.27182</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24983</v>
+        <v>1.28109</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7844</v>
+        <v>1.81613</v>
       </c>
       <c r="D141" t="n">
-        <v>3.28397</v>
+        <v>3.29039</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26993</v>
+        <v>1.25493</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77424</v>
+        <v>1.77914</v>
       </c>
       <c r="D142" t="n">
-        <v>3.23592</v>
+        <v>3.24145</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25712</v>
+        <v>1.2697</v>
       </c>
       <c r="C143" t="n">
-        <v>1.75867</v>
+        <v>1.76628</v>
       </c>
       <c r="D143" t="n">
-        <v>3.20435</v>
+        <v>3.21004</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480182</v>
+        <v>0.481118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.773172</v>
+        <v>0.774218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.823525</v>
+        <v>0.822366</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.410628</v>
+        <v>0.405819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.695774</v>
+        <v>0.695317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.814351</v>
+        <v>0.863998</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.400345</v>
+        <v>0.398156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6786140000000001</v>
+        <v>0.678562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.805786</v>
+        <v>0.805889</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.391988</v>
+        <v>0.392263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.662983</v>
+        <v>0.6632</v>
       </c>
       <c r="D5" t="n">
-        <v>0.798806</v>
+        <v>0.797982</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.384424</v>
+        <v>0.389013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.648863</v>
+        <v>0.649017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8560179999999999</v>
+        <v>0.853795</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.382687</v>
+        <v>0.384066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.636947</v>
+        <v>0.636763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.888863</v>
+        <v>0.888538</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383289</v>
+        <v>0.385611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.62715</v>
+        <v>0.626515</v>
       </c>
       <c r="D8" t="n">
-        <v>0.874238</v>
+        <v>0.872291</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.389641</v>
+        <v>0.389447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.939562</v>
+        <v>0.940035</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8560140000000001</v>
+        <v>0.856837</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.571712</v>
+        <v>0.572496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.910396</v>
+        <v>0.910926</v>
       </c>
       <c r="D10" t="n">
-        <v>0.847222</v>
+        <v>0.842392</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556052</v>
+        <v>0.556375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.882786</v>
+        <v>0.883707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.83183</v>
+        <v>0.829016</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539452</v>
+        <v>0.5397380000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.856531</v>
+        <v>0.857675</v>
       </c>
       <c r="D12" t="n">
-        <v>0.819451</v>
+        <v>0.813844</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523041</v>
+        <v>0.523761</v>
       </c>
       <c r="C13" t="n">
-        <v>0.831622</v>
+        <v>0.832875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8036450000000001</v>
+        <v>0.80242</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.508202</v>
+        <v>0.508858</v>
       </c>
       <c r="C14" t="n">
-        <v>0.808496</v>
+        <v>0.809555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.801515</v>
+        <v>0.802197</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.49295</v>
+        <v>0.492873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.786843</v>
+        <v>0.787337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.790245</v>
+        <v>0.7919620000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.478811</v>
+        <v>0.480987</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7657659999999999</v>
+        <v>0.766683</v>
       </c>
       <c r="D16" t="n">
-        <v>0.781027</v>
+        <v>0.783108</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.468492</v>
+        <v>0.471367</v>
       </c>
       <c r="C17" t="n">
-        <v>0.746279</v>
+        <v>0.746689</v>
       </c>
       <c r="D17" t="n">
-        <v>0.769825</v>
+        <v>0.773185</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456539</v>
+        <v>0.456526</v>
       </c>
       <c r="C18" t="n">
-        <v>0.727169</v>
+        <v>0.728173</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765491</v>
+        <v>0.767964</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447762</v>
+        <v>0.449963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.710636</v>
+        <v>0.711549</v>
       </c>
       <c r="D19" t="n">
-        <v>0.75705</v>
+        <v>0.7606849999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440664</v>
+        <v>0.439054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.694999</v>
+        <v>0.695859</v>
       </c>
       <c r="D20" t="n">
-        <v>0.749941</v>
+        <v>0.754579</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433041</v>
+        <v>0.433075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.682528</v>
+        <v>0.683026</v>
       </c>
       <c r="D21" t="n">
-        <v>0.973746</v>
+        <v>0.978644</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431246</v>
+        <v>0.431671</v>
       </c>
       <c r="C22" t="n">
-        <v>0.67245</v>
+        <v>0.673189</v>
       </c>
       <c r="D22" t="n">
-        <v>0.954151</v>
+        <v>0.958611</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431461</v>
+        <v>0.43345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.996142</v>
+        <v>0.997777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.935099</v>
+        <v>0.936343</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6221989999999999</v>
+        <v>0.620428</v>
       </c>
       <c r="C24" t="n">
-        <v>0.96533</v>
+        <v>0.966718</v>
       </c>
       <c r="D24" t="n">
-        <v>0.916098</v>
+        <v>0.919261</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.600904</v>
+        <v>0.601986</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9358379999999999</v>
+        <v>0.937142</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903609</v>
+        <v>0.904923</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.584687</v>
+        <v>0.584856</v>
       </c>
       <c r="C26" t="n">
-        <v>0.907658</v>
+        <v>0.908873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.886331</v>
+        <v>0.889719</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.566874</v>
+        <v>0.56647</v>
       </c>
       <c r="C27" t="n">
-        <v>0.880649</v>
+        <v>0.882082</v>
       </c>
       <c r="D27" t="n">
-        <v>0.873548</v>
+        <v>0.876119</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549769</v>
+        <v>0.548675</v>
       </c>
       <c r="C28" t="n">
-        <v>0.854984</v>
+        <v>0.856249</v>
       </c>
       <c r="D28" t="n">
-        <v>0.859862</v>
+        <v>0.864602</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533662</v>
+        <v>0.533902</v>
       </c>
       <c r="C29" t="n">
-        <v>0.831117</v>
+        <v>0.8316750000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.852068</v>
+        <v>0.857608</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.519438</v>
+        <v>0.519293</v>
       </c>
       <c r="C30" t="n">
-        <v>0.808393</v>
+        <v>0.808976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.843883</v>
+        <v>0.848752</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506208</v>
+        <v>0.506064</v>
       </c>
       <c r="C31" t="n">
-        <v>0.78716</v>
+        <v>0.787896</v>
       </c>
       <c r="D31" t="n">
-        <v>0.834101</v>
+        <v>0.839475</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493643</v>
+        <v>0.494335</v>
       </c>
       <c r="C32" t="n">
-        <v>0.766696</v>
+        <v>0.767283</v>
       </c>
       <c r="D32" t="n">
-        <v>0.827437</v>
+        <v>0.832088</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.457966</v>
+        <v>0.482422</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7264389999999999</v>
+        <v>0.748835</v>
       </c>
       <c r="D33" t="n">
-        <v>0.820363</v>
+        <v>0.824941</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.474936</v>
+        <v>0.450874</v>
       </c>
       <c r="C34" t="n">
-        <v>0.731061</v>
+        <v>0.7111189999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.812828</v>
+        <v>0.817937</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464996</v>
+        <v>0.465448</v>
       </c>
       <c r="C35" t="n">
-        <v>0.71615</v>
+        <v>0.716872</v>
       </c>
       <c r="D35" t="n">
-        <v>1.04949</v>
+        <v>1.05392</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.440002</v>
+        <v>0.439983</v>
       </c>
       <c r="C36" t="n">
-        <v>0.685285</v>
+        <v>0.686067</v>
       </c>
       <c r="D36" t="n">
-        <v>1.02794</v>
+        <v>1.03017</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.439243</v>
+        <v>0.439993</v>
       </c>
       <c r="C37" t="n">
-        <v>1.01379</v>
+        <v>1.01672</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0077</v>
+        <v>1.01078</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.630578</v>
+        <v>0.633035</v>
       </c>
       <c r="C38" t="n">
-        <v>0.983237</v>
+        <v>0.985405</v>
       </c>
       <c r="D38" t="n">
-        <v>0.986838</v>
+        <v>0.991291</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6125080000000001</v>
+        <v>0.614513</v>
       </c>
       <c r="C39" t="n">
-        <v>0.952978</v>
+        <v>0.955539</v>
       </c>
       <c r="D39" t="n">
-        <v>0.976614</v>
+        <v>0.978855</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.594499</v>
+        <v>0.597172</v>
       </c>
       <c r="C40" t="n">
-        <v>0.924751</v>
+        <v>0.926905</v>
       </c>
       <c r="D40" t="n">
-        <v>0.960491</v>
+        <v>0.960861</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.577063</v>
+        <v>0.57857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.897911</v>
+        <v>0.899602</v>
       </c>
       <c r="D41" t="n">
-        <v>0.944127</v>
+        <v>0.948159</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.561349</v>
+        <v>0.564138</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8723610000000001</v>
+        <v>0.87463</v>
       </c>
       <c r="D42" t="n">
-        <v>0.930212</v>
+        <v>0.933298</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.546057</v>
+        <v>0.548221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.848088</v>
+        <v>0.849332</v>
       </c>
       <c r="D43" t="n">
-        <v>0.917337</v>
+        <v>0.920627</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.531108</v>
+        <v>0.53461</v>
       </c>
       <c r="C44" t="n">
-        <v>0.824523</v>
+        <v>0.826561</v>
       </c>
       <c r="D44" t="n">
-        <v>0.904976</v>
+        <v>0.907829</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.518815</v>
+        <v>0.520828</v>
       </c>
       <c r="C45" t="n">
-        <v>0.803134</v>
+        <v>0.804787</v>
       </c>
       <c r="D45" t="n">
-        <v>0.898949</v>
+        <v>0.899929</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.506098</v>
+        <v>0.50925</v>
       </c>
       <c r="C46" t="n">
-        <v>0.782733</v>
+        <v>0.783832</v>
       </c>
       <c r="D46" t="n">
-        <v>0.88867</v>
+        <v>0.891883</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.475213</v>
+        <v>0.495915</v>
       </c>
       <c r="C47" t="n">
-        <v>0.741881</v>
+        <v>0.764702</v>
       </c>
       <c r="D47" t="n">
-        <v>0.884167</v>
+        <v>0.888169</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.485565</v>
+        <v>0.484118</v>
       </c>
       <c r="C48" t="n">
-        <v>0.745624</v>
+        <v>0.747127</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879016</v>
+        <v>0.881862</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.477483</v>
+        <v>0.479295</v>
       </c>
       <c r="C49" t="n">
-        <v>0.730367</v>
+        <v>0.730815</v>
       </c>
       <c r="D49" t="n">
-        <v>0.870681</v>
+        <v>0.876782</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.471553</v>
+        <v>0.470895</v>
       </c>
       <c r="C50" t="n">
-        <v>0.716514</v>
+        <v>0.718141</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10199</v>
+        <v>1.10387</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.468619</v>
+        <v>0.445831</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05084</v>
+        <v>1.04891</v>
       </c>
       <c r="D51" t="n">
-        <v>1.08016</v>
+        <v>1.08173</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468931</v>
+        <v>0.467203</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01698</v>
+        <v>1.03098</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05844</v>
+        <v>1.06215</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.634457</v>
+        <v>0.647957</v>
       </c>
       <c r="C53" t="n">
-        <v>0.975126</v>
+        <v>0.98852</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03901</v>
+        <v>1.04131</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.616823</v>
+        <v>0.631708</v>
       </c>
       <c r="C54" t="n">
-        <v>0.947506</v>
+        <v>0.959427</v>
       </c>
       <c r="D54" t="n">
-        <v>1.02303</v>
+        <v>1.023</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.599183</v>
+        <v>0.615835</v>
       </c>
       <c r="C55" t="n">
-        <v>0.917392</v>
+        <v>0.933359</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00519</v>
+        <v>1.00583</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.581124</v>
+        <v>0.598693</v>
       </c>
       <c r="C56" t="n">
-        <v>0.892967</v>
+        <v>0.907192</v>
       </c>
       <c r="D56" t="n">
-        <v>0.989897</v>
+        <v>0.990613</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.568087</v>
+        <v>0.583442</v>
       </c>
       <c r="C57" t="n">
-        <v>0.870206</v>
+        <v>0.88217</v>
       </c>
       <c r="D57" t="n">
-        <v>0.974895</v>
+        <v>0.976028</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.552597</v>
+        <v>0.569789</v>
       </c>
       <c r="C58" t="n">
-        <v>0.848889</v>
+        <v>0.85972</v>
       </c>
       <c r="D58" t="n">
-        <v>0.962297</v>
+        <v>0.964189</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5426800000000001</v>
+        <v>0.553392</v>
       </c>
       <c r="C59" t="n">
-        <v>0.827442</v>
+        <v>0.836593</v>
       </c>
       <c r="D59" t="n">
-        <v>0.943813</v>
+        <v>0.946985</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.50312</v>
+        <v>0.539269</v>
       </c>
       <c r="C60" t="n">
-        <v>0.777133</v>
+        <v>0.81569</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935957</v>
+        <v>0.937842</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.514673</v>
+        <v>0.5283870000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.781447</v>
+        <v>0.796315</v>
       </c>
       <c r="D61" t="n">
-        <v>0.926548</v>
+        <v>0.928347</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.508277</v>
+        <v>0.519285</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7692600000000001</v>
+        <v>0.778571</v>
       </c>
       <c r="D62" t="n">
-        <v>0.91706</v>
+        <v>0.919383</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.497526</v>
+        <v>0.48302</v>
       </c>
       <c r="C63" t="n">
-        <v>0.752572</v>
+        <v>0.736169</v>
       </c>
       <c r="D63" t="n">
-        <v>0.909242</v>
+        <v>0.911622</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.471195</v>
+        <v>0.503878</v>
       </c>
       <c r="C64" t="n">
-        <v>0.716916</v>
+        <v>0.747756</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16797</v>
+        <v>1.18429</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.488458</v>
+        <v>0.497185</v>
       </c>
       <c r="C65" t="n">
-        <v>0.728622</v>
+        <v>0.7360449999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>1.14437</v>
+        <v>1.1614</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.488594</v>
+        <v>0.50017</v>
       </c>
       <c r="C66" t="n">
-        <v>1.06844</v>
+        <v>1.08254</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11635</v>
+        <v>1.12956</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.701546</v>
+        <v>0.737159</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03937</v>
+        <v>1.0659</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09141</v>
+        <v>1.10257</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.68818</v>
+        <v>0.714965</v>
       </c>
       <c r="C68" t="n">
-        <v>1.01348</v>
+        <v>1.0376</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07551</v>
+        <v>1.08085</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6765060000000001</v>
+        <v>0.699899</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9829639999999999</v>
+        <v>1.00026</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05769</v>
+        <v>1.06639</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.660142</v>
+        <v>0.684735</v>
       </c>
       <c r="C70" t="n">
-        <v>0.956823</v>
+        <v>0.973908</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04497</v>
+        <v>1.05133</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.644653</v>
+        <v>0.67238</v>
       </c>
       <c r="C71" t="n">
-        <v>0.931011</v>
+        <v>0.947604</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0191</v>
+        <v>1.02148</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6309900000000001</v>
+        <v>0.661978</v>
       </c>
       <c r="C72" t="n">
-        <v>0.898118</v>
+        <v>0.923504</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00828</v>
+        <v>1.0132</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.608831</v>
+        <v>0.63772</v>
       </c>
       <c r="C73" t="n">
-        <v>0.875134</v>
+        <v>0.863066</v>
       </c>
       <c r="D73" t="n">
-        <v>0.999174</v>
+        <v>1.00567</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.611291</v>
+        <v>0.632636</v>
       </c>
       <c r="C74" t="n">
-        <v>0.857556</v>
+        <v>0.8777199999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.986159</v>
+        <v>0.990723</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.56193</v>
+        <v>0.612173</v>
       </c>
       <c r="C75" t="n">
-        <v>0.808222</v>
+        <v>0.856315</v>
       </c>
       <c r="D75" t="n">
-        <v>0.980183</v>
+        <v>0.987108</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.569306</v>
+        <v>0.595662</v>
       </c>
       <c r="C76" t="n">
-        <v>0.790949</v>
+        <v>0.805528</v>
       </c>
       <c r="D76" t="n">
-        <v>0.976572</v>
+        <v>0.984177</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.568448</v>
+        <v>0.590692</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7979579999999999</v>
+        <v>0.7894679999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.969249</v>
+        <v>0.975265</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.559551</v>
+        <v>0.581132</v>
       </c>
       <c r="C78" t="n">
-        <v>0.78572</v>
+        <v>0.801883</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42199</v>
+        <v>1.44672</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.563126</v>
+        <v>0.579999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.77145</v>
+        <v>0.787923</v>
       </c>
       <c r="D79" t="n">
-        <v>1.39287</v>
+        <v>1.41411</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.553332</v>
+        <v>0.5752429999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1442</v>
+        <v>1.16861</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36642</v>
+        <v>1.38904</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7921550000000001</v>
+        <v>0.801925</v>
       </c>
       <c r="C81" t="n">
-        <v>1.11676</v>
+        <v>1.13425</v>
       </c>
       <c r="D81" t="n">
-        <v>1.32218</v>
+        <v>1.34911</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.779573</v>
+        <v>0.811232</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09567</v>
+        <v>1.11481</v>
       </c>
       <c r="D82" t="n">
-        <v>1.30401</v>
+        <v>1.33094</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.76187</v>
+        <v>0.801983</v>
       </c>
       <c r="C83" t="n">
-        <v>1.07603</v>
+        <v>1.10859</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28978</v>
+        <v>1.31547</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.763254</v>
+        <v>0.7904600000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.06199</v>
+        <v>1.08479</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27803</v>
+        <v>1.30149</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.751867</v>
+        <v>0.777558</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03733</v>
+        <v>1.05947</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24756</v>
+        <v>1.26454</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.735272</v>
+        <v>0.7611790000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00299</v>
+        <v>1.02136</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24014</v>
+        <v>1.25461</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.725939</v>
+        <v>0.755125</v>
       </c>
       <c r="C87" t="n">
-        <v>0.98239</v>
+        <v>0.99625</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23221</v>
+        <v>1.25001</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.715453</v>
+        <v>0.737024</v>
       </c>
       <c r="C88" t="n">
-        <v>0.953057</v>
+        <v>0.973102</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23395</v>
+        <v>1.24409</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.695778</v>
+        <v>0.728278</v>
       </c>
       <c r="C89" t="n">
-        <v>0.933377</v>
+        <v>0.9500960000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23201</v>
+        <v>1.24793</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.690295</v>
+        <v>0.7079220000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.906911</v>
+        <v>0.893388</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23206</v>
+        <v>1.25483</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.684387</v>
+        <v>0.701503</v>
       </c>
       <c r="C91" t="n">
-        <v>0.892157</v>
+        <v>0.908836</v>
       </c>
       <c r="D91" t="n">
-        <v>1.23132</v>
+        <v>1.25473</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.676183</v>
+        <v>0.701385</v>
       </c>
       <c r="C92" t="n">
-        <v>0.87637</v>
+        <v>0.890773</v>
       </c>
       <c r="D92" t="n">
-        <v>2.23792</v>
+        <v>2.31353</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677266</v>
+        <v>0.692719</v>
       </c>
       <c r="C93" t="n">
-        <v>0.862968</v>
+        <v>0.875424</v>
       </c>
       <c r="D93" t="n">
-        <v>2.36975</v>
+        <v>2.31094</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.66756</v>
+        <v>0.689366</v>
       </c>
       <c r="C94" t="n">
-        <v>1.23058</v>
+        <v>1.26331</v>
       </c>
       <c r="D94" t="n">
-        <v>2.2641</v>
+        <v>2.29541</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8923489999999999</v>
+        <v>0.933647</v>
       </c>
       <c r="C95" t="n">
-        <v>1.20849</v>
+        <v>1.25516</v>
       </c>
       <c r="D95" t="n">
-        <v>2.44943</v>
+        <v>2.28979</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.900636</v>
+        <v>0.936951</v>
       </c>
       <c r="C96" t="n">
-        <v>1.20831</v>
+        <v>1.23926</v>
       </c>
       <c r="D96" t="n">
-        <v>2.43106</v>
+        <v>2.34848</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.893043</v>
+        <v>0.9258189999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19072</v>
+        <v>1.19371</v>
       </c>
       <c r="D97" t="n">
-        <v>2.42233</v>
+        <v>2.48687</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.87987</v>
+        <v>0.890815</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17908</v>
+        <v>1.1767</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99234</v>
+        <v>2.03352</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.857256</v>
+        <v>0.885138</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1366</v>
+        <v>1.15594</v>
       </c>
       <c r="D99" t="n">
-        <v>1.98212</v>
+        <v>1.9472</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.855154</v>
+        <v>0.876189</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11523</v>
+        <v>1.1375</v>
       </c>
       <c r="D100" t="n">
-        <v>1.73016</v>
+        <v>1.7606</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.841865</v>
+        <v>0.842442</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10134</v>
+        <v>1.07453</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72932</v>
+        <v>1.75337</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8320380000000001</v>
+        <v>0.857231</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08289</v>
+        <v>1.10128</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72494</v>
+        <v>1.75627</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.817134</v>
+        <v>0.855392</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06467</v>
+        <v>1.08524</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72997</v>
+        <v>1.75781</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.822497</v>
+        <v>0.8107569999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05145</v>
+        <v>1.03257</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73411</v>
+        <v>1.76213</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.806686</v>
+        <v>0.843811</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03895</v>
+        <v>1.05565</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73958</v>
+        <v>1.7582</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.809828</v>
+        <v>0.817706</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02382</v>
+        <v>1.00555</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7479</v>
+        <v>1.76496</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.780187</v>
+        <v>0.809055</v>
       </c>
       <c r="C107" t="n">
-        <v>0.985995</v>
+        <v>0.994781</v>
       </c>
       <c r="D107" t="n">
-        <v>3.02077</v>
+        <v>3.08363</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.803433</v>
+        <v>0.80277</v>
       </c>
       <c r="C108" t="n">
-        <v>1.39133</v>
+        <v>1.38545</v>
       </c>
       <c r="D108" t="n">
-        <v>2.99824</v>
+        <v>3.05516</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.809585</v>
+        <v>0.7990080000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.38035</v>
+        <v>1.38283</v>
       </c>
       <c r="D109" t="n">
-        <v>3.14842</v>
+        <v>3.2149</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02184</v>
+        <v>1.06012</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34216</v>
+        <v>1.37226</v>
       </c>
       <c r="D110" t="n">
-        <v>2.95296</v>
+        <v>3.02466</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.00635</v>
+        <v>1.04233</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3305</v>
+        <v>1.35891</v>
       </c>
       <c r="D111" t="n">
-        <v>2.74625</v>
+        <v>3.00644</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00997</v>
+        <v>1.02514</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34426</v>
+        <v>1.34863</v>
       </c>
       <c r="D112" t="n">
-        <v>2.72813</v>
+        <v>2.38918</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.988201</v>
+        <v>1.0211</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3145</v>
+        <v>1.33646</v>
       </c>
       <c r="D113" t="n">
-        <v>2.70518</v>
+        <v>2.97844</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.975139</v>
+        <v>1.01941</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30741</v>
+        <v>1.3245</v>
       </c>
       <c r="D114" t="n">
-        <v>2.30435</v>
+        <v>2.56141</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.971942</v>
+        <v>1.00575</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29701</v>
+        <v>1.31506</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28959</v>
+        <v>2.33144</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.966043</v>
+        <v>0.993915</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30873</v>
+        <v>1.30566</v>
       </c>
       <c r="D116" t="n">
-        <v>2.29152</v>
+        <v>2.32968</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.940784</v>
+        <v>0.992607</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27731</v>
+        <v>1.29609</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27613</v>
+        <v>2.31463</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.948272</v>
+        <v>0.975135</v>
       </c>
       <c r="C118" t="n">
-        <v>1.27421</v>
+        <v>1.28795</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27372</v>
+        <v>2.31532</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9330580000000001</v>
+        <v>0.965755</v>
       </c>
       <c r="C119" t="n">
-        <v>1.26482</v>
+        <v>1.24349</v>
       </c>
       <c r="D119" t="n">
-        <v>2.26895</v>
+        <v>2.32242</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.91899</v>
+        <v>0.964597</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22593</v>
+        <v>1.27206</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26541</v>
+        <v>2.32166</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.92114</v>
+        <v>0.968372</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22236</v>
+        <v>1.26548</v>
       </c>
       <c r="D121" t="n">
-        <v>3.69527</v>
+        <v>3.81826</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.923699</v>
+        <v>0.94169</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21897</v>
+        <v>1.22836</v>
       </c>
       <c r="D122" t="n">
-        <v>3.66479</v>
+        <v>3.7671</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9290659999999999</v>
+        <v>0.948103</v>
       </c>
       <c r="C123" t="n">
-        <v>1.614</v>
+        <v>1.62003</v>
       </c>
       <c r="D123" t="n">
-        <v>4.25799</v>
+        <v>4.38108</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16277</v>
+        <v>1.20008</v>
       </c>
       <c r="C124" t="n">
-        <v>1.60377</v>
+        <v>1.60742</v>
       </c>
       <c r="D124" t="n">
-        <v>4.01704</v>
+        <v>3.69286</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.13934</v>
+        <v>1.20081</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56946</v>
+        <v>1.62554</v>
       </c>
       <c r="D125" t="n">
-        <v>2.9058</v>
+        <v>2.98546</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14469</v>
+        <v>1.1571</v>
       </c>
       <c r="C126" t="n">
-        <v>1.58622</v>
+        <v>1.58911</v>
       </c>
       <c r="D126" t="n">
-        <v>3.10066</v>
+        <v>2.94992</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12365</v>
+        <v>1.166</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55551</v>
+        <v>1.58077</v>
       </c>
       <c r="D127" t="n">
-        <v>2.85005</v>
+        <v>2.92316</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11581</v>
+        <v>1.15089</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53914</v>
+        <v>1.57147</v>
       </c>
       <c r="D128" t="n">
-        <v>2.82049</v>
+        <v>2.9006</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0875</v>
+        <v>1.14356</v>
       </c>
       <c r="C129" t="n">
-        <v>1.53538</v>
+        <v>1.56485</v>
       </c>
       <c r="D129" t="n">
-        <v>2.78771</v>
+        <v>2.85974</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09127</v>
+        <v>1.14395</v>
       </c>
       <c r="C130" t="n">
-        <v>1.53002</v>
+        <v>1.51851</v>
       </c>
       <c r="D130" t="n">
-        <v>2.76707</v>
+        <v>2.84618</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09486</v>
+        <v>1.12961</v>
       </c>
       <c r="C131" t="n">
-        <v>1.52195</v>
+        <v>1.55205</v>
       </c>
       <c r="D131" t="n">
-        <v>2.76213</v>
+        <v>2.83894</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08273</v>
+        <v>1.13566</v>
       </c>
       <c r="C132" t="n">
-        <v>1.50974</v>
+        <v>1.54496</v>
       </c>
       <c r="D132" t="n">
-        <v>2.7526</v>
+        <v>2.8331</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07418</v>
+        <v>1.12761</v>
       </c>
       <c r="C133" t="n">
-        <v>1.50509</v>
+        <v>1.53807</v>
       </c>
       <c r="D133" t="n">
-        <v>2.74753</v>
+        <v>2.81861</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06413</v>
+        <v>1.10839</v>
       </c>
       <c r="C134" t="n">
-        <v>1.50579</v>
+        <v>1.49695</v>
       </c>
       <c r="D134" t="n">
-        <v>2.74038</v>
+        <v>2.8184</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07074</v>
+        <v>1.12379</v>
       </c>
       <c r="C135" t="n">
-        <v>1.50122</v>
+        <v>1.49334</v>
       </c>
       <c r="D135" t="n">
-        <v>4.27569</v>
+        <v>4.41294</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05625</v>
+        <v>1.10887</v>
       </c>
       <c r="C136" t="n">
-        <v>1.45893</v>
+        <v>1.49148</v>
       </c>
       <c r="D136" t="n">
-        <v>4.23012</v>
+        <v>4.35604</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0703</v>
+        <v>1.12824</v>
       </c>
       <c r="C137" t="n">
-        <v>1.84336</v>
+        <v>1.90655</v>
       </c>
       <c r="D137" t="n">
-        <v>4.1622</v>
+        <v>4.30205</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29019</v>
+        <v>1.3712</v>
       </c>
       <c r="C138" t="n">
-        <v>1.84515</v>
+        <v>1.8918</v>
       </c>
       <c r="D138" t="n">
-        <v>4.11994</v>
+        <v>4.50708</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28669</v>
+        <v>1.35824</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80993</v>
+        <v>1.85098</v>
       </c>
       <c r="D139" t="n">
-        <v>4.06726</v>
+        <v>3.95732</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28435</v>
+        <v>1.34539</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79436</v>
+        <v>1.83618</v>
       </c>
       <c r="D140" t="n">
-        <v>4.02861</v>
+        <v>3.92507</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24983</v>
+        <v>1.32907</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7844</v>
+        <v>1.82348</v>
       </c>
       <c r="D141" t="n">
-        <v>3.28397</v>
+        <v>3.38007</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26993</v>
+        <v>1.32572</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77424</v>
+        <v>1.81269</v>
       </c>
       <c r="D142" t="n">
-        <v>3.23592</v>
+        <v>3.33405</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25712</v>
+        <v>1.31249</v>
       </c>
       <c r="C143" t="n">
-        <v>1.75867</v>
+        <v>1.8005</v>
       </c>
       <c r="D143" t="n">
-        <v>3.20435</v>
+        <v>3.30137</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480182</v>
+        <v>0.480762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.773172</v>
+        <v>0.767535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.823525</v>
+        <v>0.836485</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.410628</v>
+        <v>0.405196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.695774</v>
+        <v>0.688536</v>
       </c>
       <c r="D3" t="n">
-        <v>0.814351</v>
+        <v>0.827265</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.400345</v>
+        <v>0.400532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6786140000000001</v>
+        <v>0.671468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.805786</v>
+        <v>0.819175</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.391988</v>
+        <v>0.391868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.662983</v>
+        <v>0.656126</v>
       </c>
       <c r="D5" t="n">
-        <v>0.798806</v>
+        <v>0.8112</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.384424</v>
+        <v>0.387234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.648863</v>
+        <v>0.642655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8560179999999999</v>
+        <v>0.804579</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.382687</v>
+        <v>0.386087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.636947</v>
+        <v>0.6302759999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.888863</v>
+        <v>0.903496</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383289</v>
+        <v>0.38374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.62715</v>
+        <v>0.619739</v>
       </c>
       <c r="D8" t="n">
-        <v>0.874238</v>
+        <v>0.888493</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.389641</v>
+        <v>0.387833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.939562</v>
+        <v>0.930023</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8560140000000001</v>
+        <v>0.871398</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.571712</v>
+        <v>0.571091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.910396</v>
+        <v>0.900874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.847222</v>
+        <v>0.857326</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.556052</v>
+        <v>0.555651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.882786</v>
+        <v>0.873518</v>
       </c>
       <c r="D11" t="n">
-        <v>0.83183</v>
+        <v>0.840399</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539452</v>
+        <v>0.5389429999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.856531</v>
+        <v>0.847745</v>
       </c>
       <c r="D12" t="n">
-        <v>0.819451</v>
+        <v>0.825669</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523041</v>
+        <v>0.523115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.831622</v>
+        <v>0.82367</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8036450000000001</v>
+        <v>0.81262</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.508202</v>
+        <v>0.507482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.808496</v>
+        <v>0.800196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.801515</v>
+        <v>0.806988</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.49295</v>
+        <v>0.492271</v>
       </c>
       <c r="C15" t="n">
-        <v>0.786843</v>
+        <v>0.777596</v>
       </c>
       <c r="D15" t="n">
-        <v>0.790245</v>
+        <v>0.797446</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.478811</v>
+        <v>0.48056</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7657659999999999</v>
+        <v>0.757306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.781027</v>
+        <v>0.788868</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.468492</v>
+        <v>0.470055</v>
       </c>
       <c r="C17" t="n">
-        <v>0.746279</v>
+        <v>0.737829</v>
       </c>
       <c r="D17" t="n">
-        <v>0.769825</v>
+        <v>0.779339</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456539</v>
+        <v>0.462105</v>
       </c>
       <c r="C18" t="n">
-        <v>0.727169</v>
+        <v>0.7196630000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765491</v>
+        <v>0.773141</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447762</v>
+        <v>0.449389</v>
       </c>
       <c r="C19" t="n">
-        <v>0.710636</v>
+        <v>0.702542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.75705</v>
+        <v>0.7658700000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440664</v>
+        <v>0.440619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.694999</v>
+        <v>0.687384</v>
       </c>
       <c r="D20" t="n">
-        <v>0.749941</v>
+        <v>0.758646</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433041</v>
+        <v>0.432526</v>
       </c>
       <c r="C21" t="n">
-        <v>0.682528</v>
+        <v>0.674588</v>
       </c>
       <c r="D21" t="n">
-        <v>0.973746</v>
+        <v>0.969135</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431246</v>
+        <v>0.432883</v>
       </c>
       <c r="C22" t="n">
-        <v>0.67245</v>
+        <v>0.6643869999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.954151</v>
+        <v>0.949729</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431461</v>
+        <v>0.432996</v>
       </c>
       <c r="C23" t="n">
-        <v>0.996142</v>
+        <v>0.9844349999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.935099</v>
+        <v>0.939399</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6221989999999999</v>
+        <v>0.621436</v>
       </c>
       <c r="C24" t="n">
-        <v>0.96533</v>
+        <v>0.953527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.916098</v>
+        <v>0.920776</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.600904</v>
+        <v>0.6015779999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9358379999999999</v>
+        <v>0.923995</v>
       </c>
       <c r="D25" t="n">
-        <v>0.903609</v>
+        <v>0.9082249999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.584687</v>
+        <v>0.582688</v>
       </c>
       <c r="C26" t="n">
-        <v>0.907658</v>
+        <v>0.896808</v>
       </c>
       <c r="D26" t="n">
-        <v>0.886331</v>
+        <v>0.893186</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.566874</v>
+        <v>0.565358</v>
       </c>
       <c r="C27" t="n">
-        <v>0.880649</v>
+        <v>0.869523</v>
       </c>
       <c r="D27" t="n">
-        <v>0.873548</v>
+        <v>0.877093</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.549769</v>
+        <v>0.548523</v>
       </c>
       <c r="C28" t="n">
-        <v>0.854984</v>
+        <v>0.843911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.859862</v>
+        <v>0.863999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.533662</v>
+        <v>0.532958</v>
       </c>
       <c r="C29" t="n">
-        <v>0.831117</v>
+        <v>0.819989</v>
       </c>
       <c r="D29" t="n">
-        <v>0.852068</v>
+        <v>0.855917</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.519438</v>
+        <v>0.520322</v>
       </c>
       <c r="C30" t="n">
-        <v>0.808393</v>
+        <v>0.797546</v>
       </c>
       <c r="D30" t="n">
-        <v>0.843883</v>
+        <v>0.846841</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506208</v>
+        <v>0.503826</v>
       </c>
       <c r="C31" t="n">
-        <v>0.78716</v>
+        <v>0.776383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.834101</v>
+        <v>0.837489</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493643</v>
+        <v>0.493638</v>
       </c>
       <c r="C32" t="n">
-        <v>0.766696</v>
+        <v>0.755938</v>
       </c>
       <c r="D32" t="n">
-        <v>0.827437</v>
+        <v>0.831031</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.457966</v>
+        <v>0.481537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7264389999999999</v>
+        <v>0.7383729999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.820363</v>
+        <v>0.822989</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.474936</v>
+        <v>0.472529</v>
       </c>
       <c r="C34" t="n">
-        <v>0.731061</v>
+        <v>0.721086</v>
       </c>
       <c r="D34" t="n">
-        <v>0.812828</v>
+        <v>0.8169110000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464996</v>
+        <v>0.465345</v>
       </c>
       <c r="C35" t="n">
-        <v>0.71615</v>
+        <v>0.705942</v>
       </c>
       <c r="D35" t="n">
-        <v>1.04949</v>
+        <v>1.05081</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.440002</v>
+        <v>0.459158</v>
       </c>
       <c r="C36" t="n">
-        <v>0.685285</v>
+        <v>0.693739</v>
       </c>
       <c r="D36" t="n">
-        <v>1.02794</v>
+        <v>1.0266</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.439243</v>
+        <v>0.43969</v>
       </c>
       <c r="C37" t="n">
-        <v>1.01379</v>
+        <v>1.00062</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0077</v>
+        <v>1.01003</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.630578</v>
+        <v>0.6327430000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.983237</v>
+        <v>0.970541</v>
       </c>
       <c r="D38" t="n">
-        <v>0.986838</v>
+        <v>0.989581</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6125080000000001</v>
+        <v>0.614708</v>
       </c>
       <c r="C39" t="n">
-        <v>0.952978</v>
+        <v>0.9408</v>
       </c>
       <c r="D39" t="n">
-        <v>0.976614</v>
+        <v>0.9758599999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.594499</v>
+        <v>0.595149</v>
       </c>
       <c r="C40" t="n">
-        <v>0.924751</v>
+        <v>0.912889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.960491</v>
+        <v>0.960727</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.577063</v>
+        <v>0.578252</v>
       </c>
       <c r="C41" t="n">
-        <v>0.897911</v>
+        <v>0.886128</v>
       </c>
       <c r="D41" t="n">
-        <v>0.944127</v>
+        <v>0.94575</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.561349</v>
+        <v>0.56235</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8723610000000001</v>
+        <v>0.860583</v>
       </c>
       <c r="D42" t="n">
-        <v>0.930212</v>
+        <v>0.930921</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.546057</v>
+        <v>0.547028</v>
       </c>
       <c r="C43" t="n">
-        <v>0.848088</v>
+        <v>0.836425</v>
       </c>
       <c r="D43" t="n">
-        <v>0.917337</v>
+        <v>0.9184330000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.531108</v>
+        <v>0.531528</v>
       </c>
       <c r="C44" t="n">
-        <v>0.824523</v>
+        <v>0.814357</v>
       </c>
       <c r="D44" t="n">
-        <v>0.904976</v>
+        <v>0.907573</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.518815</v>
+        <v>0.519275</v>
       </c>
       <c r="C45" t="n">
-        <v>0.803134</v>
+        <v>0.791747</v>
       </c>
       <c r="D45" t="n">
-        <v>0.898949</v>
+        <v>0.8990590000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.506098</v>
+        <v>0.506735</v>
       </c>
       <c r="C46" t="n">
-        <v>0.782733</v>
+        <v>0.771882</v>
       </c>
       <c r="D46" t="n">
-        <v>0.88867</v>
+        <v>0.8887699999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.475213</v>
+        <v>0.496939</v>
       </c>
       <c r="C47" t="n">
-        <v>0.741881</v>
+        <v>0.7530289999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.884167</v>
+        <v>0.885166</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.485565</v>
+        <v>0.485892</v>
       </c>
       <c r="C48" t="n">
-        <v>0.745624</v>
+        <v>0.735667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879016</v>
+        <v>0.879007</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.477483</v>
+        <v>0.476104</v>
       </c>
       <c r="C49" t="n">
-        <v>0.730367</v>
+        <v>0.719813</v>
       </c>
       <c r="D49" t="n">
-        <v>0.870681</v>
+        <v>0.870973</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.471553</v>
+        <v>0.472293</v>
       </c>
       <c r="C50" t="n">
-        <v>0.716514</v>
+        <v>0.705877</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10199</v>
+        <v>1.10014</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.468619</v>
+        <v>0.44875</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05084</v>
+        <v>1.03157</v>
       </c>
       <c r="D51" t="n">
-        <v>1.08016</v>
+        <v>1.07902</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468931</v>
+        <v>0.447823</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01698</v>
+        <v>1.00108</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05844</v>
+        <v>1.05807</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.634457</v>
+        <v>0.649353</v>
       </c>
       <c r="C53" t="n">
-        <v>0.975126</v>
+        <v>0.971965</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03901</v>
+        <v>1.03856</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.616823</v>
+        <v>0.640402</v>
       </c>
       <c r="C54" t="n">
-        <v>0.947506</v>
+        <v>0.954821</v>
       </c>
       <c r="D54" t="n">
-        <v>1.02303</v>
+        <v>1.0216</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.599183</v>
+        <v>0.615036</v>
       </c>
       <c r="C55" t="n">
-        <v>0.917392</v>
+        <v>0.9165410000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00519</v>
+        <v>1.00356</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.581124</v>
+        <v>0.595855</v>
       </c>
       <c r="C56" t="n">
-        <v>0.892967</v>
+        <v>0.889135</v>
       </c>
       <c r="D56" t="n">
-        <v>0.989897</v>
+        <v>0.987906</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.568087</v>
+        <v>0.5810920000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.870206</v>
+        <v>0.86472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.974895</v>
+        <v>0.973255</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.552597</v>
+        <v>0.566208</v>
       </c>
       <c r="C58" t="n">
-        <v>0.848889</v>
+        <v>0.843647</v>
       </c>
       <c r="D58" t="n">
-        <v>0.962297</v>
+        <v>0.961759</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5426800000000001</v>
+        <v>0.55257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.827442</v>
+        <v>0.821981</v>
       </c>
       <c r="D59" t="n">
-        <v>0.943813</v>
+        <v>0.94409</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.50312</v>
+        <v>0.540219</v>
       </c>
       <c r="C60" t="n">
-        <v>0.777133</v>
+        <v>0.802501</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935957</v>
+        <v>0.935678</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.514673</v>
+        <v>0.528052</v>
       </c>
       <c r="C61" t="n">
-        <v>0.781447</v>
+        <v>0.757888</v>
       </c>
       <c r="D61" t="n">
-        <v>0.926548</v>
+        <v>0.926933</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.508277</v>
+        <v>0.519366</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7692600000000001</v>
+        <v>0.765103</v>
       </c>
       <c r="D62" t="n">
-        <v>0.91706</v>
+        <v>0.9173289999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.497526</v>
+        <v>0.508477</v>
       </c>
       <c r="C63" t="n">
-        <v>0.752572</v>
+        <v>0.748802</v>
       </c>
       <c r="D63" t="n">
-        <v>0.909242</v>
+        <v>0.9091630000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.471195</v>
+        <v>0.477564</v>
       </c>
       <c r="C64" t="n">
-        <v>0.716916</v>
+        <v>0.7131420000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16797</v>
+        <v>1.17327</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.488458</v>
+        <v>0.497236</v>
       </c>
       <c r="C65" t="n">
-        <v>0.728622</v>
+        <v>0.724843</v>
       </c>
       <c r="D65" t="n">
-        <v>1.14437</v>
+        <v>1.15163</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.488594</v>
+        <v>0.497208</v>
       </c>
       <c r="C66" t="n">
-        <v>1.06844</v>
+        <v>1.07808</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11635</v>
+        <v>1.12309</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.701546</v>
+        <v>0.7320410000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03937</v>
+        <v>1.03653</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09141</v>
+        <v>1.09608</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.68818</v>
+        <v>0.711215</v>
       </c>
       <c r="C68" t="n">
-        <v>1.01348</v>
+        <v>1.01963</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07551</v>
+        <v>1.08103</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6765060000000001</v>
+        <v>0.697171</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9829639999999999</v>
+        <v>0.993041</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05769</v>
+        <v>1.06029</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.660142</v>
+        <v>0.681134</v>
       </c>
       <c r="C70" t="n">
-        <v>0.956823</v>
+        <v>0.965903</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04497</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.644653</v>
+        <v>0.663978</v>
       </c>
       <c r="C71" t="n">
-        <v>0.931011</v>
+        <v>0.931794</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0191</v>
+        <v>1.02041</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6309900000000001</v>
+        <v>0.644721</v>
       </c>
       <c r="C72" t="n">
-        <v>0.898118</v>
+        <v>0.907724</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00828</v>
+        <v>1.01161</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.608831</v>
+        <v>0.636219</v>
       </c>
       <c r="C73" t="n">
-        <v>0.875134</v>
+        <v>0.885254</v>
       </c>
       <c r="D73" t="n">
-        <v>0.999174</v>
+        <v>1.00279</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.611291</v>
+        <v>0.617812</v>
       </c>
       <c r="C74" t="n">
-        <v>0.857556</v>
+        <v>0.8620100000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.986159</v>
+        <v>0.989349</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.56193</v>
+        <v>0.614057</v>
       </c>
       <c r="C75" t="n">
-        <v>0.808222</v>
+        <v>0.841341</v>
       </c>
       <c r="D75" t="n">
-        <v>0.980183</v>
+        <v>0.986187</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.569306</v>
+        <v>0.598048</v>
       </c>
       <c r="C76" t="n">
-        <v>0.790949</v>
+        <v>0.822524</v>
       </c>
       <c r="D76" t="n">
-        <v>0.976572</v>
+        <v>0.982013</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.568448</v>
+        <v>0.573399</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7979579999999999</v>
+        <v>0.777118</v>
       </c>
       <c r="D77" t="n">
-        <v>0.969249</v>
+        <v>0.97126</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.559551</v>
+        <v>0.584191</v>
       </c>
       <c r="C78" t="n">
-        <v>0.78572</v>
+        <v>0.789934</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42199</v>
+        <v>1.43226</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.563126</v>
+        <v>0.571076</v>
       </c>
       <c r="C79" t="n">
-        <v>0.77145</v>
+        <v>0.77532</v>
       </c>
       <c r="D79" t="n">
-        <v>1.39287</v>
+        <v>1.40009</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.553332</v>
+        <v>0.563125</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1442</v>
+        <v>1.14498</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36642</v>
+        <v>1.37281</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7921550000000001</v>
+        <v>0.8064789999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>1.11676</v>
+        <v>1.12854</v>
       </c>
       <c r="D81" t="n">
-        <v>1.32218</v>
+        <v>1.3366</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.779573</v>
+        <v>0.781238</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09567</v>
+        <v>1.09112</v>
       </c>
       <c r="D82" t="n">
-        <v>1.30401</v>
+        <v>1.31721</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.76187</v>
+        <v>0.78707</v>
       </c>
       <c r="C83" t="n">
-        <v>1.07603</v>
+        <v>1.0706</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28978</v>
+        <v>1.30105</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.763254</v>
+        <v>0.776481</v>
       </c>
       <c r="C84" t="n">
-        <v>1.06199</v>
+        <v>1.06155</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27803</v>
+        <v>1.28949</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.751867</v>
+        <v>0.755346</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03733</v>
+        <v>1.02279</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24756</v>
+        <v>1.2458</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.735272</v>
+        <v>0.74544</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00299</v>
+        <v>0.999617</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24014</v>
+        <v>1.24039</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.725939</v>
+        <v>0.74209</v>
       </c>
       <c r="C87" t="n">
-        <v>0.98239</v>
+        <v>0.97583</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23221</v>
+        <v>1.24171</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.715453</v>
+        <v>0.724895</v>
       </c>
       <c r="C88" t="n">
-        <v>0.953057</v>
+        <v>0.953412</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23395</v>
+        <v>1.23275</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.695778</v>
+        <v>0.715516</v>
       </c>
       <c r="C89" t="n">
-        <v>0.933377</v>
+        <v>0.931571</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23201</v>
+        <v>1.2383</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.690295</v>
+        <v>0.710656</v>
       </c>
       <c r="C90" t="n">
-        <v>0.906911</v>
+        <v>0.909853</v>
       </c>
       <c r="D90" t="n">
-        <v>1.23206</v>
+        <v>1.24524</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.684387</v>
+        <v>0.657552</v>
       </c>
       <c r="C91" t="n">
-        <v>0.892157</v>
+        <v>0.8571260000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.23132</v>
+        <v>1.23945</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.676183</v>
+        <v>0.671617</v>
       </c>
       <c r="C92" t="n">
-        <v>0.87637</v>
+        <v>0.839844</v>
       </c>
       <c r="D92" t="n">
-        <v>2.23792</v>
+        <v>2.47012</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677266</v>
+        <v>0.684291</v>
       </c>
       <c r="C93" t="n">
-        <v>0.862968</v>
+        <v>0.858024</v>
       </c>
       <c r="D93" t="n">
-        <v>2.36975</v>
+        <v>2.60391</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.66756</v>
+        <v>0.676503</v>
       </c>
       <c r="C94" t="n">
-        <v>1.23058</v>
+        <v>1.20857</v>
       </c>
       <c r="D94" t="n">
-        <v>2.2641</v>
+        <v>2.23084</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8923489999999999</v>
+        <v>0.890679</v>
       </c>
       <c r="C95" t="n">
-        <v>1.20849</v>
+        <v>1.20229</v>
       </c>
       <c r="D95" t="n">
-        <v>2.44943</v>
+        <v>2.28455</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.900636</v>
+        <v>0.919466</v>
       </c>
       <c r="C96" t="n">
-        <v>1.20831</v>
+        <v>1.21445</v>
       </c>
       <c r="D96" t="n">
-        <v>2.43106</v>
+        <v>2.21094</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.893043</v>
+        <v>0.902438</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19072</v>
+        <v>1.19646</v>
       </c>
       <c r="D97" t="n">
-        <v>2.42233</v>
+        <v>2.33938</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.87987</v>
+        <v>0.883377</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17908</v>
+        <v>1.15213</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99234</v>
+        <v>2.05203</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.857256</v>
+        <v>0.859944</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1366</v>
+        <v>1.13313</v>
       </c>
       <c r="D99" t="n">
-        <v>1.98212</v>
+        <v>1.7547</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.855154</v>
+        <v>0.873076</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11523</v>
+        <v>1.13579</v>
       </c>
       <c r="D100" t="n">
-        <v>1.73016</v>
+        <v>1.73113</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.841865</v>
+        <v>0.84884</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10134</v>
+        <v>1.05211</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72932</v>
+        <v>1.71958</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8320380000000001</v>
+        <v>0.836852</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08289</v>
+        <v>1.0787</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72494</v>
+        <v>1.71955</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.817134</v>
+        <v>0.831955</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06467</v>
+        <v>1.06273</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72997</v>
+        <v>1.72214</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.822497</v>
+        <v>0.819066</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05145</v>
+        <v>1.04804</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73411</v>
+        <v>1.72878</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.806686</v>
+        <v>0.819638</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03895</v>
+        <v>1.03363</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73958</v>
+        <v>1.72244</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.809828</v>
+        <v>0.804639</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02382</v>
+        <v>1.02047</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7479</v>
+        <v>1.7324</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.780187</v>
+        <v>0.788891</v>
       </c>
       <c r="C107" t="n">
-        <v>0.985995</v>
+        <v>0.9739989999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>3.02077</v>
+        <v>2.98408</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.803433</v>
+        <v>0.800141</v>
       </c>
       <c r="C108" t="n">
-        <v>1.39133</v>
+        <v>1.38855</v>
       </c>
       <c r="D108" t="n">
-        <v>2.99824</v>
+        <v>2.95964</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.809585</v>
+        <v>0.800636</v>
       </c>
       <c r="C109" t="n">
-        <v>1.38035</v>
+        <v>1.38292</v>
       </c>
       <c r="D109" t="n">
-        <v>3.14842</v>
+        <v>3.12535</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02184</v>
+        <v>1.02964</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34216</v>
+        <v>1.34307</v>
       </c>
       <c r="D110" t="n">
-        <v>2.95296</v>
+        <v>2.9176</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.00635</v>
+        <v>1.02639</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3305</v>
+        <v>1.33002</v>
       </c>
       <c r="D111" t="n">
-        <v>2.74625</v>
+        <v>2.71175</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00997</v>
+        <v>1.01967</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34426</v>
+        <v>1.32021</v>
       </c>
       <c r="D112" t="n">
-        <v>2.72813</v>
+        <v>2.8869</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.988201</v>
+        <v>1.00543</v>
       </c>
       <c r="C113" t="n">
-        <v>1.3145</v>
+        <v>1.33302</v>
       </c>
       <c r="D113" t="n">
-        <v>2.70518</v>
+        <v>2.31594</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.975139</v>
+        <v>0.989995</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30741</v>
+        <v>1.3227</v>
       </c>
       <c r="D114" t="n">
-        <v>2.30435</v>
+        <v>2.48987</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.971942</v>
+        <v>0.961562</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29701</v>
+        <v>1.29017</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28959</v>
+        <v>2.29158</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.966043</v>
+        <v>0.960058</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30873</v>
+        <v>1.28186</v>
       </c>
       <c r="D116" t="n">
-        <v>2.29152</v>
+        <v>2.27178</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.940784</v>
+        <v>0.953002</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27731</v>
+        <v>1.27225</v>
       </c>
       <c r="D117" t="n">
-        <v>2.27613</v>
+        <v>2.25125</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.948272</v>
+        <v>0.948148</v>
       </c>
       <c r="C118" t="n">
-        <v>1.27421</v>
+        <v>1.26554</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27372</v>
+        <v>2.25887</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9330580000000001</v>
+        <v>0.895295</v>
       </c>
       <c r="C119" t="n">
-        <v>1.26482</v>
+        <v>1.2197</v>
       </c>
       <c r="D119" t="n">
-        <v>2.26895</v>
+        <v>2.25748</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.91899</v>
+        <v>0.932045</v>
       </c>
       <c r="C120" t="n">
-        <v>1.22593</v>
+        <v>1.24828</v>
       </c>
       <c r="D120" t="n">
-        <v>2.26541</v>
+        <v>2.25601</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.92114</v>
+        <v>0.927079</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22236</v>
+        <v>1.24217</v>
       </c>
       <c r="D121" t="n">
-        <v>3.69527</v>
+        <v>3.65989</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.923699</v>
+        <v>0.914061</v>
       </c>
       <c r="C122" t="n">
-        <v>1.21897</v>
+        <v>1.2058</v>
       </c>
       <c r="D122" t="n">
-        <v>3.66479</v>
+        <v>3.62563</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9290659999999999</v>
+        <v>0.908852</v>
       </c>
       <c r="C123" t="n">
-        <v>1.614</v>
+        <v>1.57839</v>
       </c>
       <c r="D123" t="n">
-        <v>4.25799</v>
+        <v>4.00052</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16277</v>
+        <v>1.16001</v>
       </c>
       <c r="C124" t="n">
-        <v>1.60377</v>
+        <v>1.5955</v>
       </c>
       <c r="D124" t="n">
-        <v>4.01704</v>
+        <v>3.55914</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.13934</v>
+        <v>1.15405</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56946</v>
+        <v>1.58198</v>
       </c>
       <c r="D125" t="n">
-        <v>2.9058</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14469</v>
+        <v>1.10558</v>
       </c>
       <c r="C126" t="n">
-        <v>1.58622</v>
+        <v>1.54923</v>
       </c>
       <c r="D126" t="n">
-        <v>3.10066</v>
+        <v>3.28415</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12365</v>
+        <v>1.12896</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55551</v>
+        <v>1.53908</v>
       </c>
       <c r="D127" t="n">
-        <v>2.85005</v>
+        <v>2.83131</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11581</v>
+        <v>1.08882</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53914</v>
+        <v>1.52904</v>
       </c>
       <c r="D128" t="n">
-        <v>2.82049</v>
+        <v>2.80323</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0875</v>
+        <v>1.10719</v>
       </c>
       <c r="C129" t="n">
-        <v>1.53538</v>
+        <v>1.54169</v>
       </c>
       <c r="D129" t="n">
-        <v>2.78771</v>
+        <v>2.77451</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09127</v>
+        <v>1.08209</v>
       </c>
       <c r="C130" t="n">
-        <v>1.53002</v>
+        <v>1.5135</v>
       </c>
       <c r="D130" t="n">
-        <v>2.76707</v>
+        <v>2.75363</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09486</v>
+        <v>1.07167</v>
       </c>
       <c r="C131" t="n">
-        <v>1.52195</v>
+        <v>1.50667</v>
       </c>
       <c r="D131" t="n">
-        <v>2.76213</v>
+        <v>2.7491</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08273</v>
+        <v>1.06833</v>
       </c>
       <c r="C132" t="n">
-        <v>1.50974</v>
+        <v>1.46632</v>
       </c>
       <c r="D132" t="n">
-        <v>2.7526</v>
+        <v>2.73418</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07418</v>
+        <v>1.06468</v>
       </c>
       <c r="C133" t="n">
-        <v>1.50509</v>
+        <v>1.49438</v>
       </c>
       <c r="D133" t="n">
-        <v>2.74753</v>
+        <v>2.72443</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06413</v>
+        <v>1.05912</v>
       </c>
       <c r="C134" t="n">
-        <v>1.50579</v>
+        <v>1.48954</v>
       </c>
       <c r="D134" t="n">
-        <v>2.74038</v>
+        <v>2.71872</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07074</v>
+        <v>1.06364</v>
       </c>
       <c r="C135" t="n">
-        <v>1.50122</v>
+        <v>1.48275</v>
       </c>
       <c r="D135" t="n">
-        <v>4.27569</v>
+        <v>4.21846</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05625</v>
+        <v>1.06401</v>
       </c>
       <c r="C136" t="n">
-        <v>1.45893</v>
+        <v>1.48126</v>
       </c>
       <c r="D136" t="n">
-        <v>4.23012</v>
+        <v>4.15686</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0703</v>
+        <v>1.05344</v>
       </c>
       <c r="C137" t="n">
-        <v>1.84336</v>
+        <v>1.8168</v>
       </c>
       <c r="D137" t="n">
-        <v>4.1622</v>
+        <v>4.10964</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29019</v>
+        <v>1.26957</v>
       </c>
       <c r="C138" t="n">
-        <v>1.84515</v>
+        <v>1.80098</v>
       </c>
       <c r="D138" t="n">
-        <v>4.11994</v>
+        <v>4.28199</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28669</v>
+        <v>1.27574</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80993</v>
+        <v>1.80857</v>
       </c>
       <c r="D139" t="n">
-        <v>4.06726</v>
+        <v>3.78363</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28435</v>
+        <v>1.2641</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79436</v>
+        <v>1.77157</v>
       </c>
       <c r="D140" t="n">
-        <v>4.02861</v>
+        <v>3.96291</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24983</v>
+        <v>1.24601</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7844</v>
+        <v>1.75816</v>
       </c>
       <c r="D141" t="n">
-        <v>3.28397</v>
+        <v>3.25015</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26993</v>
+        <v>1.24097</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77424</v>
+        <v>1.74578</v>
       </c>
       <c r="D142" t="n">
-        <v>3.23592</v>
+        <v>3.19684</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25712</v>
+        <v>1.23241</v>
       </c>
       <c r="C143" t="n">
-        <v>1.75867</v>
+        <v>1.69588</v>
       </c>
       <c r="D143" t="n">
-        <v>3.20435</v>
+        <v>3.16549</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480762</v>
+        <v>0.481596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.767535</v>
+        <v>0.7681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.836485</v>
+        <v>0.834008</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405196</v>
+        <v>0.459132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.688536</v>
+        <v>0.687427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827265</v>
+        <v>0.826077</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.400532</v>
+        <v>0.401602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.671468</v>
+        <v>0.6717030000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.819175</v>
+        <v>0.820278</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.391868</v>
+        <v>0.393351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.656126</v>
+        <v>0.655467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8112</v>
+        <v>0.811213</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.387234</v>
+        <v>0.383736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.642655</v>
+        <v>0.6432639999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.804579</v>
+        <v>0.804413</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.386087</v>
+        <v>0.385861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6302759999999999</v>
+        <v>0.631086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.903496</v>
+        <v>0.903864</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.38374</v>
+        <v>0.384309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.619739</v>
+        <v>0.6205889999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.888493</v>
+        <v>0.886982</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.387833</v>
+        <v>0.388109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.930023</v>
+        <v>0.930661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.871398</v>
+        <v>0.870339</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.571091</v>
+        <v>0.572448</v>
       </c>
       <c r="C10" t="n">
-        <v>0.900874</v>
+        <v>0.902519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.857326</v>
+        <v>0.857759</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555651</v>
+        <v>0.5544559999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.873518</v>
+        <v>0.874756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.840399</v>
+        <v>0.844025</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5389429999999999</v>
+        <v>0.539631</v>
       </c>
       <c r="C12" t="n">
-        <v>0.847745</v>
+        <v>0.848892</v>
       </c>
       <c r="D12" t="n">
-        <v>0.825669</v>
+        <v>0.826963</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523115</v>
+        <v>0.523526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.82367</v>
+        <v>0.823916</v>
       </c>
       <c r="D13" t="n">
-        <v>0.81262</v>
+        <v>0.813935</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.507482</v>
+        <v>0.508858</v>
       </c>
       <c r="C14" t="n">
-        <v>0.800196</v>
+        <v>0.801091</v>
       </c>
       <c r="D14" t="n">
-        <v>0.806988</v>
+        <v>0.8091739999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.492271</v>
+        <v>0.493248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.777596</v>
+        <v>0.778644</v>
       </c>
       <c r="D15" t="n">
-        <v>0.797446</v>
+        <v>0.796997</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.48056</v>
+        <v>0.480548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.757306</v>
+        <v>0.758018</v>
       </c>
       <c r="D16" t="n">
-        <v>0.788868</v>
+        <v>0.787873</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470055</v>
+        <v>0.470325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.737829</v>
+        <v>0.738606</v>
       </c>
       <c r="D17" t="n">
-        <v>0.779339</v>
+        <v>0.778021</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462105</v>
+        <v>0.459295</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7196630000000001</v>
+        <v>0.720517</v>
       </c>
       <c r="D18" t="n">
-        <v>0.773141</v>
+        <v>0.772556</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.449389</v>
+        <v>0.449526</v>
       </c>
       <c r="C19" t="n">
-        <v>0.702542</v>
+        <v>0.7033509999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7658700000000001</v>
+        <v>0.76396</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440619</v>
+        <v>0.439161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.687384</v>
+        <v>0.687755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.758646</v>
+        <v>0.758432</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.432526</v>
+        <v>0.433323</v>
       </c>
       <c r="C21" t="n">
-        <v>0.674588</v>
+        <v>0.674967</v>
       </c>
       <c r="D21" t="n">
-        <v>0.969135</v>
+        <v>0.9811299999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.432883</v>
+        <v>0.432892</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6643869999999999</v>
+        <v>0.664341</v>
       </c>
       <c r="D22" t="n">
-        <v>0.949729</v>
+        <v>0.962101</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432996</v>
+        <v>0.43286</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9844349999999999</v>
+        <v>0.985278</v>
       </c>
       <c r="D23" t="n">
-        <v>0.939399</v>
+        <v>0.940078</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.621436</v>
+        <v>0.6204229999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.953527</v>
+        <v>0.954658</v>
       </c>
       <c r="D24" t="n">
-        <v>0.920776</v>
+        <v>0.922112</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6015779999999999</v>
+        <v>0.601504</v>
       </c>
       <c r="C25" t="n">
-        <v>0.923995</v>
+        <v>0.925936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9082249999999999</v>
+        <v>0.9083560000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.582688</v>
+        <v>0.583485</v>
       </c>
       <c r="C26" t="n">
-        <v>0.896808</v>
+        <v>0.897384</v>
       </c>
       <c r="D26" t="n">
-        <v>0.893186</v>
+        <v>0.892332</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.565358</v>
+        <v>0.567084</v>
       </c>
       <c r="C27" t="n">
-        <v>0.869523</v>
+        <v>0.871093</v>
       </c>
       <c r="D27" t="n">
-        <v>0.877093</v>
+        <v>0.87905</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.548523</v>
+        <v>0.550576</v>
       </c>
       <c r="C28" t="n">
-        <v>0.843911</v>
+        <v>0.845339</v>
       </c>
       <c r="D28" t="n">
-        <v>0.863999</v>
+        <v>0.866818</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532958</v>
+        <v>0.534883</v>
       </c>
       <c r="C29" t="n">
-        <v>0.819989</v>
+        <v>0.821219</v>
       </c>
       <c r="D29" t="n">
-        <v>0.855917</v>
+        <v>0.859287</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.520322</v>
+        <v>0.520889</v>
       </c>
       <c r="C30" t="n">
-        <v>0.797546</v>
+        <v>0.798474</v>
       </c>
       <c r="D30" t="n">
-        <v>0.846841</v>
+        <v>0.849312</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.503826</v>
+        <v>0.50701</v>
       </c>
       <c r="C31" t="n">
-        <v>0.776383</v>
+        <v>0.777208</v>
       </c>
       <c r="D31" t="n">
-        <v>0.837489</v>
+        <v>0.839566</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493638</v>
+        <v>0.494128</v>
       </c>
       <c r="C32" t="n">
-        <v>0.755938</v>
+        <v>0.757296</v>
       </c>
       <c r="D32" t="n">
-        <v>0.831031</v>
+        <v>0.834344</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481537</v>
+        <v>0.482604</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7383729999999999</v>
+        <v>0.739105</v>
       </c>
       <c r="D33" t="n">
-        <v>0.822989</v>
+        <v>0.826061</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.472529</v>
+        <v>0.473674</v>
       </c>
       <c r="C34" t="n">
-        <v>0.721086</v>
+        <v>0.722297</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8169110000000001</v>
+        <v>0.818902</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.465345</v>
+        <v>0.444552</v>
       </c>
       <c r="C35" t="n">
-        <v>0.705942</v>
+        <v>0.6868</v>
       </c>
       <c r="D35" t="n">
-        <v>1.05081</v>
+        <v>1.05277</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459158</v>
+        <v>0.460171</v>
       </c>
       <c r="C36" t="n">
-        <v>0.693739</v>
+        <v>0.694727</v>
       </c>
       <c r="D36" t="n">
-        <v>1.0266</v>
+        <v>1.02805</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.43969</v>
+        <v>0.439675</v>
       </c>
       <c r="C37" t="n">
-        <v>1.00062</v>
+        <v>1.0022</v>
       </c>
       <c r="D37" t="n">
-        <v>1.01003</v>
+        <v>1.00987</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6327430000000001</v>
+        <v>0.633223</v>
       </c>
       <c r="C38" t="n">
-        <v>0.970541</v>
+        <v>0.971483</v>
       </c>
       <c r="D38" t="n">
-        <v>0.989581</v>
+        <v>0.989133</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.614708</v>
+        <v>0.615225</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9408</v>
+        <v>0.942385</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9758599999999999</v>
+        <v>0.978024</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.595149</v>
+        <v>0.5986359999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.912889</v>
+        <v>0.914017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.960727</v>
+        <v>0.961829</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.578252</v>
+        <v>0.579396</v>
       </c>
       <c r="C41" t="n">
-        <v>0.886128</v>
+        <v>0.887049</v>
       </c>
       <c r="D41" t="n">
-        <v>0.94575</v>
+        <v>0.945852</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.56235</v>
+        <v>0.562096</v>
       </c>
       <c r="C42" t="n">
-        <v>0.860583</v>
+        <v>0.861962</v>
       </c>
       <c r="D42" t="n">
-        <v>0.930921</v>
+        <v>0.932953</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.547028</v>
+        <v>0.5478420000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.836425</v>
+        <v>0.837619</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9184330000000001</v>
+        <v>0.918129</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.531528</v>
+        <v>0.533126</v>
       </c>
       <c r="C44" t="n">
-        <v>0.814357</v>
+        <v>0.814836</v>
       </c>
       <c r="D44" t="n">
-        <v>0.907573</v>
+        <v>0.906142</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.519275</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.791747</v>
+        <v>0.793253</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8990590000000001</v>
+        <v>0.898655</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.506735</v>
+        <v>0.506695</v>
       </c>
       <c r="C46" t="n">
-        <v>0.771882</v>
+        <v>0.773155</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8887699999999999</v>
+        <v>0.88818</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.496939</v>
+        <v>0.496022</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7530289999999999</v>
+        <v>0.753978</v>
       </c>
       <c r="D47" t="n">
-        <v>0.885166</v>
+        <v>0.88691</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.485892</v>
+        <v>0.487829</v>
       </c>
       <c r="C48" t="n">
-        <v>0.735667</v>
+        <v>0.737151</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879007</v>
+        <v>0.8805730000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.476104</v>
+        <v>0.477498</v>
       </c>
       <c r="C49" t="n">
-        <v>0.719813</v>
+        <v>0.721208</v>
       </c>
       <c r="D49" t="n">
-        <v>0.870973</v>
+        <v>0.872502</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.472293</v>
+        <v>0.472692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.705877</v>
+        <v>0.70803</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10014</v>
+        <v>1.10194</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.44875</v>
+        <v>0.450461</v>
       </c>
       <c r="C51" t="n">
-        <v>1.03157</v>
+        <v>1.034</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07902</v>
+        <v>1.07938</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.447823</v>
+        <v>0.44837</v>
       </c>
       <c r="C52" t="n">
-        <v>1.00108</v>
+        <v>1.0053</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05807</v>
+        <v>1.05965</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.649353</v>
+        <v>0.650135</v>
       </c>
       <c r="C53" t="n">
-        <v>0.971965</v>
+        <v>0.973346</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03856</v>
+        <v>1.0387</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.640402</v>
+        <v>0.63835</v>
       </c>
       <c r="C54" t="n">
-        <v>0.954821</v>
+        <v>0.955613</v>
       </c>
       <c r="D54" t="n">
-        <v>1.0216</v>
+        <v>1.02263</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.615036</v>
+        <v>0.612884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9165410000000001</v>
+        <v>0.915798</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00356</v>
+        <v>1.00557</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.595855</v>
+        <v>0.59331</v>
       </c>
       <c r="C56" t="n">
-        <v>0.889135</v>
+        <v>0.889369</v>
       </c>
       <c r="D56" t="n">
-        <v>0.987906</v>
+        <v>0.988692</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5810920000000001</v>
+        <v>0.582989</v>
       </c>
       <c r="C57" t="n">
-        <v>0.86472</v>
+        <v>0.867721</v>
       </c>
       <c r="D57" t="n">
-        <v>0.973255</v>
+        <v>0.974185</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.566208</v>
+        <v>0.566303</v>
       </c>
       <c r="C58" t="n">
-        <v>0.843647</v>
+        <v>0.845061</v>
       </c>
       <c r="D58" t="n">
-        <v>0.961759</v>
+        <v>0.962986</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.55257</v>
+        <v>0.555176</v>
       </c>
       <c r="C59" t="n">
-        <v>0.821981</v>
+        <v>0.822407</v>
       </c>
       <c r="D59" t="n">
-        <v>0.94409</v>
+        <v>0.944285</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.540219</v>
+        <v>0.54144</v>
       </c>
       <c r="C60" t="n">
-        <v>0.802501</v>
+        <v>0.801984</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935678</v>
+        <v>0.936283</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.528052</v>
+        <v>0.5282750000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.757888</v>
+        <v>0.757737</v>
       </c>
       <c r="D61" t="n">
-        <v>0.926933</v>
+        <v>0.926855</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.519366</v>
+        <v>0.518643</v>
       </c>
       <c r="C62" t="n">
-        <v>0.765103</v>
+        <v>0.764601</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9173289999999999</v>
+        <v>0.9179040000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.508477</v>
+        <v>0.508289</v>
       </c>
       <c r="C63" t="n">
-        <v>0.748802</v>
+        <v>0.747853</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9091630000000001</v>
+        <v>0.909694</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.477564</v>
+        <v>0.476615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7131420000000001</v>
+        <v>0.71253</v>
       </c>
       <c r="D64" t="n">
-        <v>1.17327</v>
+        <v>1.17694</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.497236</v>
+        <v>0.49758</v>
       </c>
       <c r="C65" t="n">
-        <v>0.724843</v>
+        <v>0.725705</v>
       </c>
       <c r="D65" t="n">
-        <v>1.15163</v>
+        <v>1.15745</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.497208</v>
+        <v>0.497356</v>
       </c>
       <c r="C66" t="n">
-        <v>1.07808</v>
+        <v>1.07894</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12309</v>
+        <v>1.12917</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7320410000000001</v>
+        <v>0.733788</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03653</v>
+        <v>1.03791</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09608</v>
+        <v>1.09446</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.711215</v>
+        <v>0.7141420000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.01963</v>
+        <v>1.02251</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08103</v>
+        <v>1.0761</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.697171</v>
+        <v>0.7014049999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.993041</v>
+        <v>0.995265</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06029</v>
+        <v>1.05986</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.681134</v>
+        <v>0.686609</v>
       </c>
       <c r="C70" t="n">
-        <v>0.965903</v>
+        <v>0.968747</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05</v>
+        <v>1.04939</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.663978</v>
+        <v>0.666445</v>
       </c>
       <c r="C71" t="n">
-        <v>0.931794</v>
+        <v>0.933681</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02041</v>
+        <v>1.01783</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.644721</v>
+        <v>0.647327</v>
       </c>
       <c r="C72" t="n">
-        <v>0.907724</v>
+        <v>0.909432</v>
       </c>
       <c r="D72" t="n">
-        <v>1.01161</v>
+        <v>1.00915</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.636219</v>
+        <v>0.638346</v>
       </c>
       <c r="C73" t="n">
-        <v>0.885254</v>
+        <v>0.88617</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00279</v>
+        <v>1.00007</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.617812</v>
+        <v>0.620139</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8620100000000001</v>
+        <v>0.864601</v>
       </c>
       <c r="D74" t="n">
-        <v>0.989349</v>
+        <v>0.987494</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.614057</v>
+        <v>0.615816</v>
       </c>
       <c r="C75" t="n">
-        <v>0.841341</v>
+        <v>0.843431</v>
       </c>
       <c r="D75" t="n">
-        <v>0.986187</v>
+        <v>0.984428</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.598048</v>
+        <v>0.601067</v>
       </c>
       <c r="C76" t="n">
-        <v>0.822524</v>
+        <v>0.823607</v>
       </c>
       <c r="D76" t="n">
-        <v>0.982013</v>
+        <v>0.979342</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.573399</v>
+        <v>0.573688</v>
       </c>
       <c r="C77" t="n">
-        <v>0.777118</v>
+        <v>0.776857</v>
       </c>
       <c r="D77" t="n">
-        <v>0.97126</v>
+        <v>0.970382</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.584191</v>
+        <v>0.584529</v>
       </c>
       <c r="C78" t="n">
-        <v>0.789934</v>
+        <v>0.789779</v>
       </c>
       <c r="D78" t="n">
-        <v>1.43226</v>
+        <v>1.43002</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571076</v>
+        <v>0.570874</v>
       </c>
       <c r="C79" t="n">
-        <v>0.77532</v>
+        <v>0.775945</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40009</v>
+        <v>1.39574</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.563125</v>
+        <v>0.563283</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14498</v>
+        <v>1.14636</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37281</v>
+        <v>1.36738</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8064789999999999</v>
+        <v>0.808406</v>
       </c>
       <c r="C81" t="n">
-        <v>1.12854</v>
+        <v>1.12981</v>
       </c>
       <c r="D81" t="n">
-        <v>1.3366</v>
+        <v>1.33755</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.781238</v>
+        <v>0.78277</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09112</v>
+        <v>1.09348</v>
       </c>
       <c r="D82" t="n">
-        <v>1.31721</v>
+        <v>1.3145</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.78707</v>
+        <v>0.788505</v>
       </c>
       <c r="C83" t="n">
-        <v>1.0706</v>
+        <v>1.07236</v>
       </c>
       <c r="D83" t="n">
-        <v>1.30105</v>
+        <v>1.29923</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.776481</v>
+        <v>0.779223</v>
       </c>
       <c r="C84" t="n">
-        <v>1.06155</v>
+        <v>1.06463</v>
       </c>
       <c r="D84" t="n">
-        <v>1.28949</v>
+        <v>1.287</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.755346</v>
+        <v>0.757666</v>
       </c>
       <c r="C85" t="n">
-        <v>1.02279</v>
+        <v>1.02475</v>
       </c>
       <c r="D85" t="n">
-        <v>1.2458</v>
+        <v>1.24818</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.74544</v>
+        <v>0.748037</v>
       </c>
       <c r="C86" t="n">
-        <v>0.999617</v>
+        <v>1.00149</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24039</v>
+        <v>1.23979</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.74209</v>
+        <v>0.743576</v>
       </c>
       <c r="C87" t="n">
-        <v>0.97583</v>
+        <v>0.97725</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24171</v>
+        <v>1.23974</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.724895</v>
+        <v>0.727233</v>
       </c>
       <c r="C88" t="n">
-        <v>0.953412</v>
+        <v>0.954639</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23275</v>
+        <v>1.23134</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.715516</v>
+        <v>0.717561</v>
       </c>
       <c r="C89" t="n">
-        <v>0.931571</v>
+        <v>0.933331</v>
       </c>
       <c r="D89" t="n">
-        <v>1.2383</v>
+        <v>1.23662</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.710656</v>
+        <v>0.713153</v>
       </c>
       <c r="C90" t="n">
-        <v>0.909853</v>
+        <v>0.911494</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24524</v>
+        <v>1.24291</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.657552</v>
+        <v>0.659007</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8571260000000001</v>
+        <v>0.857181</v>
       </c>
       <c r="D91" t="n">
-        <v>1.23945</v>
+        <v>1.24254</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.671617</v>
+        <v>0.6742050000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.839844</v>
+        <v>0.840473</v>
       </c>
       <c r="D92" t="n">
-        <v>2.47012</v>
+        <v>2.47821</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.684291</v>
+        <v>0.686763</v>
       </c>
       <c r="C93" t="n">
-        <v>0.858024</v>
+        <v>0.859591</v>
       </c>
       <c r="D93" t="n">
-        <v>2.60391</v>
+        <v>2.60653</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.676503</v>
+        <v>0.678434</v>
       </c>
       <c r="C94" t="n">
-        <v>1.20857</v>
+        <v>1.21143</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23084</v>
+        <v>2.23548</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.890679</v>
+        <v>0.893977</v>
       </c>
       <c r="C95" t="n">
-        <v>1.20229</v>
+        <v>1.20393</v>
       </c>
       <c r="D95" t="n">
-        <v>2.28455</v>
+        <v>2.28897</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.919466</v>
+        <v>0.923033</v>
       </c>
       <c r="C96" t="n">
-        <v>1.21445</v>
+        <v>1.21813</v>
       </c>
       <c r="D96" t="n">
-        <v>2.21094</v>
+        <v>2.2121</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.902438</v>
+        <v>0.905153</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19646</v>
+        <v>1.19914</v>
       </c>
       <c r="D97" t="n">
-        <v>2.33938</v>
+        <v>2.3403</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.883377</v>
+        <v>0.8874069999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15213</v>
+        <v>1.1559</v>
       </c>
       <c r="D98" t="n">
-        <v>2.05203</v>
+        <v>2.05198</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.859944</v>
+        <v>0.863383</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13313</v>
+        <v>1.13647</v>
       </c>
       <c r="D99" t="n">
-        <v>1.7547</v>
+        <v>1.75464</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.873076</v>
+        <v>0.8759479999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13579</v>
+        <v>1.13811</v>
       </c>
       <c r="D100" t="n">
-        <v>1.73113</v>
+        <v>1.73391</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.84884</v>
+        <v>0.851073</v>
       </c>
       <c r="C101" t="n">
-        <v>1.05211</v>
+        <v>1.05501</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71958</v>
+        <v>1.7223</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.836852</v>
+        <v>0.841006</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0787</v>
+        <v>1.0815</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71955</v>
+        <v>1.72152</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.831955</v>
+        <v>0.834219</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06273</v>
+        <v>1.06519</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72214</v>
+        <v>1.7258</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.819066</v>
+        <v>0.821775</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04804</v>
+        <v>1.04999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72878</v>
+        <v>1.73373</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.819638</v>
+        <v>0.822346</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03363</v>
+        <v>1.03501</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72244</v>
+        <v>1.72761</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.804639</v>
+        <v>0.806945</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02047</v>
+        <v>1.02225</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7324</v>
+        <v>1.73707</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.788891</v>
+        <v>0.792644</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9739989999999999</v>
+        <v>0.97771</v>
       </c>
       <c r="D107" t="n">
-        <v>2.98408</v>
+        <v>2.99647</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.800141</v>
+        <v>0.80261</v>
       </c>
       <c r="C108" t="n">
-        <v>1.38855</v>
+        <v>1.39201</v>
       </c>
       <c r="D108" t="n">
-        <v>2.95964</v>
+        <v>2.97125</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.800636</v>
+        <v>0.8034750000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.38292</v>
+        <v>1.38559</v>
       </c>
       <c r="D109" t="n">
-        <v>3.12535</v>
+        <v>3.13675</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02964</v>
+        <v>1.03263</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34307</v>
+        <v>1.3455</v>
       </c>
       <c r="D110" t="n">
-        <v>2.9176</v>
+        <v>2.93144</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02639</v>
+        <v>1.02844</v>
       </c>
       <c r="C111" t="n">
-        <v>1.33002</v>
+        <v>1.33237</v>
       </c>
       <c r="D111" t="n">
-        <v>2.71175</v>
+        <v>2.71876</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01967</v>
+        <v>1.02334</v>
       </c>
       <c r="C112" t="n">
-        <v>1.32021</v>
+        <v>1.32359</v>
       </c>
       <c r="D112" t="n">
-        <v>2.8869</v>
+        <v>2.89557</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00543</v>
+        <v>1.01016</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33302</v>
+        <v>1.33851</v>
       </c>
       <c r="D113" t="n">
-        <v>2.31594</v>
+        <v>2.32162</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989995</v>
+        <v>0.993946</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3227</v>
+        <v>1.32632</v>
       </c>
       <c r="D114" t="n">
-        <v>2.48987</v>
+        <v>2.50316</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.961562</v>
+        <v>0.964925</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29017</v>
+        <v>1.2946</v>
       </c>
       <c r="D115" t="n">
-        <v>2.29158</v>
+        <v>2.30106</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.960058</v>
+        <v>0.963831</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28186</v>
+        <v>1.28656</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27178</v>
+        <v>2.27964</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.953002</v>
+        <v>0.956551</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27225</v>
+        <v>1.27685</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25125</v>
+        <v>2.2646</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.948148</v>
+        <v>0.950204</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26554</v>
+        <v>1.26772</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25887</v>
+        <v>2.2627</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.895295</v>
+        <v>0.899666</v>
       </c>
       <c r="C119" t="n">
-        <v>1.2197</v>
+        <v>1.2252</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25748</v>
+        <v>2.2669</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.932045</v>
+        <v>0.936236</v>
       </c>
       <c r="C120" t="n">
-        <v>1.24828</v>
+        <v>1.25403</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25601</v>
+        <v>2.27059</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.927079</v>
+        <v>0.929905</v>
       </c>
       <c r="C121" t="n">
-        <v>1.24217</v>
+        <v>1.24486</v>
       </c>
       <c r="D121" t="n">
-        <v>3.65989</v>
+        <v>3.69178</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.914061</v>
+        <v>0.917268</v>
       </c>
       <c r="C122" t="n">
-        <v>1.2058</v>
+        <v>1.20905</v>
       </c>
       <c r="D122" t="n">
-        <v>3.62563</v>
+        <v>3.65492</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.908852</v>
+        <v>0.913407</v>
       </c>
       <c r="C123" t="n">
-        <v>1.57839</v>
+        <v>1.58266</v>
       </c>
       <c r="D123" t="n">
-        <v>4.00052</v>
+        <v>4.03351</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16001</v>
+        <v>1.1632</v>
       </c>
       <c r="C124" t="n">
-        <v>1.5955</v>
+        <v>1.59756</v>
       </c>
       <c r="D124" t="n">
-        <v>3.55914</v>
+        <v>3.57497</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15405</v>
+        <v>1.15859</v>
       </c>
       <c r="C125" t="n">
-        <v>1.58198</v>
+        <v>1.58611</v>
       </c>
       <c r="D125" t="n">
-        <v>3.52</v>
+        <v>3.54692</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10558</v>
+        <v>1.1089</v>
       </c>
       <c r="C126" t="n">
-        <v>1.54923</v>
+        <v>1.5517</v>
       </c>
       <c r="D126" t="n">
-        <v>3.28415</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12896</v>
+        <v>1.13319</v>
       </c>
       <c r="C127" t="n">
-        <v>1.53908</v>
+        <v>1.54276</v>
       </c>
       <c r="D127" t="n">
-        <v>2.83131</v>
+        <v>2.84653</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.08882</v>
+        <v>1.09262</v>
       </c>
       <c r="C128" t="n">
-        <v>1.52904</v>
+        <v>1.53359</v>
       </c>
       <c r="D128" t="n">
-        <v>2.80323</v>
+        <v>2.82647</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10719</v>
+        <v>1.11189</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54169</v>
+        <v>1.54599</v>
       </c>
       <c r="D129" t="n">
-        <v>2.77451</v>
+        <v>2.78564</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.08209</v>
+        <v>1.08509</v>
       </c>
       <c r="C130" t="n">
-        <v>1.5135</v>
+        <v>1.51437</v>
       </c>
       <c r="D130" t="n">
-        <v>2.75363</v>
+        <v>2.76938</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.07167</v>
+        <v>1.07483</v>
       </c>
       <c r="C131" t="n">
-        <v>1.50667</v>
+        <v>1.51031</v>
       </c>
       <c r="D131" t="n">
-        <v>2.7491</v>
+        <v>2.76179</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06833</v>
+        <v>1.07231</v>
       </c>
       <c r="C132" t="n">
-        <v>1.46632</v>
+        <v>1.47093</v>
       </c>
       <c r="D132" t="n">
-        <v>2.73418</v>
+        <v>2.75166</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.06468</v>
+        <v>1.06728</v>
       </c>
       <c r="C133" t="n">
-        <v>1.49438</v>
+        <v>1.49594</v>
       </c>
       <c r="D133" t="n">
-        <v>2.72443</v>
+        <v>2.73825</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05912</v>
+        <v>1.06282</v>
       </c>
       <c r="C134" t="n">
-        <v>1.48954</v>
+        <v>1.49259</v>
       </c>
       <c r="D134" t="n">
-        <v>2.71872</v>
+        <v>2.73568</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06364</v>
+        <v>1.06654</v>
       </c>
       <c r="C135" t="n">
-        <v>1.48275</v>
+        <v>1.48667</v>
       </c>
       <c r="D135" t="n">
-        <v>4.21846</v>
+        <v>4.24297</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06401</v>
+        <v>1.06683</v>
       </c>
       <c r="C136" t="n">
-        <v>1.48126</v>
+        <v>1.48371</v>
       </c>
       <c r="D136" t="n">
-        <v>4.15686</v>
+        <v>4.18195</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05344</v>
+        <v>1.05699</v>
       </c>
       <c r="C137" t="n">
-        <v>1.8168</v>
+        <v>1.82433</v>
       </c>
       <c r="D137" t="n">
-        <v>4.10964</v>
+        <v>4.13732</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.26957</v>
+        <v>1.27487</v>
       </c>
       <c r="C138" t="n">
-        <v>1.80098</v>
+        <v>1.80795</v>
       </c>
       <c r="D138" t="n">
-        <v>4.28199</v>
+        <v>4.30972</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.27574</v>
+        <v>1.28196</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80857</v>
+        <v>1.81421</v>
       </c>
       <c r="D139" t="n">
-        <v>3.78363</v>
+        <v>3.80985</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2641</v>
+        <v>1.26971</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77157</v>
+        <v>1.77874</v>
       </c>
       <c r="D140" t="n">
-        <v>3.96291</v>
+        <v>3.98979</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24601</v>
+        <v>1.25084</v>
       </c>
       <c r="C141" t="n">
-        <v>1.75816</v>
+        <v>1.7634</v>
       </c>
       <c r="D141" t="n">
-        <v>3.25015</v>
+        <v>3.26819</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24097</v>
+        <v>1.24552</v>
       </c>
       <c r="C142" t="n">
-        <v>1.74578</v>
+        <v>1.7528</v>
       </c>
       <c r="D142" t="n">
-        <v>3.19684</v>
+        <v>3.22374</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.23241</v>
+        <v>1.23983</v>
       </c>
       <c r="C143" t="n">
-        <v>1.69588</v>
+        <v>1.70165</v>
       </c>
       <c r="D143" t="n">
-        <v>3.16549</v>
+        <v>3.18955</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.481596</v>
+        <v>0.474993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7681</v>
+        <v>0.815218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.834008</v>
+        <v>0.689269</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.971786</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.459132</v>
+        <v>0.458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.687427</v>
+        <v>0.807237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.826077</v>
+        <v>0.671123</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.952756</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.401602</v>
+        <v>0.444893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6717030000000001</v>
+        <v>0.801091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.820278</v>
+        <v>0.6549199999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.934895</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.393351</v>
+        <v>0.440478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.655467</v>
+        <v>0.790558</v>
       </c>
       <c r="D5" t="n">
-        <v>0.811213</v>
+        <v>0.640106</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.915497</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.383736</v>
+        <v>0.432934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6432639999999999</v>
+        <v>0.78403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.804413</v>
+        <v>0.625841</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.89927</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.385861</v>
+        <v>0.424803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.631086</v>
+        <v>0.8775579999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.903864</v>
+        <v>0.613861</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8852179999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.384309</v>
+        <v>0.423203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6205889999999999</v>
+        <v>0.8628130000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.886982</v>
+        <v>0.60423</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.873001</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.388109</v>
+        <v>0.376506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.930661</v>
+        <v>0.845854</v>
       </c>
       <c r="D9" t="n">
-        <v>0.870339</v>
+        <v>0.914287</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.19883</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.572448</v>
+        <v>0.564617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.902519</v>
+        <v>0.832753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.857759</v>
+        <v>0.886363</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.16861</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5544559999999999</v>
+        <v>0.543158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.874756</v>
+        <v>0.820617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.844025</v>
+        <v>0.858779</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.14132</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539631</v>
+        <v>0.526905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.848892</v>
+        <v>0.806086</v>
       </c>
       <c r="D12" t="n">
-        <v>0.826963</v>
+        <v>0.833156</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.11345</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523526</v>
+        <v>0.512598</v>
       </c>
       <c r="C13" t="n">
-        <v>0.823916</v>
+        <v>0.7910509999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.813935</v>
+        <v>0.808524</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.08609</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.508858</v>
+        <v>0.498751</v>
       </c>
       <c r="C14" t="n">
-        <v>0.801091</v>
+        <v>0.789879</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8091739999999999</v>
+        <v>0.785569</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.05948</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.493248</v>
+        <v>0.484627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.778644</v>
+        <v>0.780571</v>
       </c>
       <c r="D15" t="n">
-        <v>0.796997</v>
+        <v>0.763287</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.03477</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.480548</v>
+        <v>0.473294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.758018</v>
+        <v>0.76967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.787873</v>
+        <v>0.742389</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.01131</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470325</v>
+        <v>0.460336</v>
       </c>
       <c r="C17" t="n">
-        <v>0.738606</v>
+        <v>0.761848</v>
       </c>
       <c r="D17" t="n">
-        <v>0.778021</v>
+        <v>0.723234</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.02086</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459295</v>
+        <v>0.449651</v>
       </c>
       <c r="C18" t="n">
-        <v>0.720517</v>
+        <v>0.756659</v>
       </c>
       <c r="D18" t="n">
-        <v>0.772556</v>
+        <v>0.705071</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.999659</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.449526</v>
+        <v>0.439331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7033509999999999</v>
+        <v>0.746068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.76396</v>
+        <v>0.688805</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.981253</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.439161</v>
+        <v>0.433897</v>
       </c>
       <c r="C20" t="n">
-        <v>0.687755</v>
+        <v>0.740405</v>
       </c>
       <c r="D20" t="n">
-        <v>0.758432</v>
+        <v>0.673839</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.964358</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433323</v>
+        <v>0.426003</v>
       </c>
       <c r="C21" t="n">
-        <v>0.674967</v>
+        <v>0.96058</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9811299999999999</v>
+        <v>0.661263</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.953819</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.432892</v>
+        <v>0.423086</v>
       </c>
       <c r="C22" t="n">
-        <v>0.664341</v>
+        <v>0.940925</v>
       </c>
       <c r="D22" t="n">
-        <v>0.962101</v>
+        <v>0.651255</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.94154</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.43286</v>
+        <v>0.41911</v>
       </c>
       <c r="C23" t="n">
-        <v>0.985278</v>
+        <v>0.91989</v>
       </c>
       <c r="D23" t="n">
-        <v>0.940078</v>
+        <v>0.971222</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.27307</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6204229999999999</v>
+        <v>0.5789</v>
       </c>
       <c r="C24" t="n">
-        <v>0.954658</v>
+        <v>0.902575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.922112</v>
+        <v>0.94148</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.24687</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.601504</v>
+        <v>0.561021</v>
       </c>
       <c r="C25" t="n">
-        <v>0.925936</v>
+        <v>0.890115</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9083560000000001</v>
+        <v>0.911406</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.20739</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.583485</v>
+        <v>0.545228</v>
       </c>
       <c r="C26" t="n">
-        <v>0.897384</v>
+        <v>0.874737</v>
       </c>
       <c r="D26" t="n">
-        <v>0.892332</v>
+        <v>0.883235</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.18413</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.567084</v>
+        <v>0.52813</v>
       </c>
       <c r="C27" t="n">
-        <v>0.871093</v>
+        <v>0.860459</v>
       </c>
       <c r="D27" t="n">
-        <v>0.87905</v>
+        <v>0.856921</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.15681</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.550576</v>
+        <v>0.539286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.845339</v>
+        <v>0.848423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.866818</v>
+        <v>0.831141</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.12742</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.534883</v>
+        <v>0.525073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.821219</v>
+        <v>0.839693</v>
       </c>
       <c r="D29" t="n">
-        <v>0.859287</v>
+        <v>0.807335</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.10257</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.520889</v>
+        <v>0.508881</v>
       </c>
       <c r="C30" t="n">
-        <v>0.798474</v>
+        <v>0.826697</v>
       </c>
       <c r="D30" t="n">
-        <v>0.849312</v>
+        <v>0.784428</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.07721</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.50701</v>
+        <v>0.498004</v>
       </c>
       <c r="C31" t="n">
-        <v>0.777208</v>
+        <v>0.817635</v>
       </c>
       <c r="D31" t="n">
-        <v>0.839566</v>
+        <v>0.762994</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.05324</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.494128</v>
+        <v>0.461509</v>
       </c>
       <c r="C32" t="n">
-        <v>0.757296</v>
+        <v>0.8125250000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.834344</v>
+        <v>0.7427859999999999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.03054</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.482604</v>
+        <v>0.47318</v>
       </c>
       <c r="C33" t="n">
-        <v>0.739105</v>
+        <v>0.803881</v>
       </c>
       <c r="D33" t="n">
-        <v>0.826061</v>
+        <v>0.724836</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.473674</v>
+        <v>0.463717</v>
       </c>
       <c r="C34" t="n">
-        <v>0.722297</v>
+        <v>0.796658</v>
       </c>
       <c r="D34" t="n">
-        <v>0.818902</v>
+        <v>0.686987</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.990532</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.444552</v>
+        <v>0.455745</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6868</v>
+        <v>1.03262</v>
       </c>
       <c r="D35" t="n">
-        <v>1.05277</v>
+        <v>0.673691</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.972236</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.460171</v>
+        <v>0.45065</v>
       </c>
       <c r="C36" t="n">
-        <v>0.694727</v>
+        <v>1.01313</v>
       </c>
       <c r="D36" t="n">
-        <v>1.02805</v>
+        <v>0.680562</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.956982</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.439675</v>
+        <v>0.430538</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0022</v>
+        <v>0.995346</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00987</v>
+        <v>0.9877280000000001</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.56194</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.633223</v>
+        <v>0.640713</v>
       </c>
       <c r="C38" t="n">
-        <v>0.971483</v>
+        <v>0.975254</v>
       </c>
       <c r="D38" t="n">
-        <v>0.989133</v>
+        <v>0.95751</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.52741</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.615225</v>
+        <v>0.621654</v>
       </c>
       <c r="C39" t="n">
-        <v>0.942385</v>
+        <v>0.956798</v>
       </c>
       <c r="D39" t="n">
-        <v>0.978024</v>
+        <v>0.927789</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.49306</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5986359999999999</v>
+        <v>0.587266</v>
       </c>
       <c r="C40" t="n">
-        <v>0.914017</v>
+        <v>0.9417759999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.961829</v>
+        <v>0.899523</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.45897</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.579396</v>
+        <v>0.57</v>
       </c>
       <c r="C41" t="n">
-        <v>0.887049</v>
+        <v>0.926477</v>
       </c>
       <c r="D41" t="n">
-        <v>0.945852</v>
+        <v>0.872849</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.42782</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.562096</v>
+        <v>0.553677</v>
       </c>
       <c r="C42" t="n">
-        <v>0.861962</v>
+        <v>0.913524</v>
       </c>
       <c r="D42" t="n">
-        <v>0.932953</v>
+        <v>0.819663</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.39819</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5478420000000001</v>
+        <v>0.538862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.837619</v>
+        <v>0.900215</v>
       </c>
       <c r="D43" t="n">
-        <v>0.918129</v>
+        <v>0.823371</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.37215</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.533126</v>
+        <v>0.523264</v>
       </c>
       <c r="C44" t="n">
-        <v>0.814836</v>
+        <v>0.88788</v>
       </c>
       <c r="D44" t="n">
-        <v>0.906142</v>
+        <v>0.799917</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.34299</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5207000000000001</v>
+        <v>0.510858</v>
       </c>
       <c r="C45" t="n">
-        <v>0.793253</v>
+        <v>0.880252</v>
       </c>
       <c r="D45" t="n">
-        <v>0.898655</v>
+        <v>0.778356</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.31904</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.506695</v>
+        <v>0.498457</v>
       </c>
       <c r="C46" t="n">
-        <v>0.773155</v>
+        <v>0.869886</v>
       </c>
       <c r="D46" t="n">
-        <v>0.88818</v>
+        <v>0.757579</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.29374</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.496022</v>
+        <v>0.488035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.753978</v>
+        <v>0.863117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.88691</v>
+        <v>0.738672</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.27291</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.487829</v>
+        <v>0.477585</v>
       </c>
       <c r="C48" t="n">
-        <v>0.737151</v>
+        <v>0.859088</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8805730000000001</v>
+        <v>0.720774</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.25219</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.477498</v>
+        <v>0.469955</v>
       </c>
       <c r="C49" t="n">
-        <v>0.721208</v>
+        <v>0.850454</v>
       </c>
       <c r="D49" t="n">
-        <v>0.872502</v>
+        <v>0.685927</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.23342</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.472692</v>
+        <v>0.44365</v>
       </c>
       <c r="C50" t="n">
-        <v>0.70803</v>
+        <v>1.08072</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10194</v>
+        <v>0.692597</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.21631</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.450461</v>
+        <v>0.457514</v>
       </c>
       <c r="C51" t="n">
-        <v>1.034</v>
+        <v>1.05902</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07938</v>
+        <v>1.03047</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.64046</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.44837</v>
+        <v>0.458122</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0053</v>
+        <v>1.03898</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05965</v>
+        <v>0.987463</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.60242</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.650135</v>
+        <v>0.6476690000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.973346</v>
+        <v>1.01786</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0387</v>
+        <v>0.957176</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.56611</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.63835</v>
+        <v>0.618563</v>
       </c>
       <c r="C54" t="n">
-        <v>0.955613</v>
+        <v>1.00212</v>
       </c>
       <c r="D54" t="n">
-        <v>1.02263</v>
+        <v>0.929321</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.53489</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.612884</v>
+        <v>0.602707</v>
       </c>
       <c r="C55" t="n">
-        <v>0.915798</v>
+        <v>0.984695</v>
       </c>
       <c r="D55" t="n">
-        <v>1.00557</v>
+        <v>0.900576</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.49878</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.59331</v>
+        <v>0.58531</v>
       </c>
       <c r="C56" t="n">
-        <v>0.889369</v>
+        <v>0.96894</v>
       </c>
       <c r="D56" t="n">
-        <v>0.988692</v>
+        <v>0.876501</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.46734</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.582989</v>
+        <v>0.576833</v>
       </c>
       <c r="C57" t="n">
-        <v>0.867721</v>
+        <v>0.954472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.974185</v>
+        <v>0.860691</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.44217</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.566303</v>
+        <v>0.561046</v>
       </c>
       <c r="C58" t="n">
-        <v>0.845061</v>
+        <v>0.942837</v>
       </c>
       <c r="D58" t="n">
-        <v>0.962986</v>
+        <v>0.829102</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.4068</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.555176</v>
+        <v>0.548152</v>
       </c>
       <c r="C59" t="n">
-        <v>0.822407</v>
+        <v>0.924361</v>
       </c>
       <c r="D59" t="n">
-        <v>0.944285</v>
+        <v>0.806995</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.38164</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54144</v>
+        <v>0.531655</v>
       </c>
       <c r="C60" t="n">
-        <v>0.801984</v>
+        <v>0.915037</v>
       </c>
       <c r="D60" t="n">
-        <v>0.936283</v>
+        <v>0.7857420000000001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.35923</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5282750000000001</v>
+        <v>0.519366</v>
       </c>
       <c r="C61" t="n">
-        <v>0.757737</v>
+        <v>0.904999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.926855</v>
+        <v>0.76742</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.33291</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.518643</v>
+        <v>0.510574</v>
       </c>
       <c r="C62" t="n">
-        <v>0.764601</v>
+        <v>0.895809</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9179040000000001</v>
+        <v>0.748754</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.31373</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.508289</v>
+        <v>0.50257</v>
       </c>
       <c r="C63" t="n">
-        <v>0.747853</v>
+        <v>0.8882060000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.909694</v>
+        <v>0.708914</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.29195</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.476615</v>
+        <v>0.472907</v>
       </c>
       <c r="C64" t="n">
-        <v>0.71253</v>
+        <v>1.16903</v>
       </c>
       <c r="D64" t="n">
-        <v>1.17694</v>
+        <v>0.720615</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.28063</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.49758</v>
+        <v>0.490573</v>
       </c>
       <c r="C65" t="n">
-        <v>0.725705</v>
+        <v>1.14393</v>
       </c>
       <c r="D65" t="n">
-        <v>1.15745</v>
+        <v>0.709028</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.26212</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.497356</v>
+        <v>0.489482</v>
       </c>
       <c r="C66" t="n">
-        <v>1.07894</v>
+        <v>1.11813</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12917</v>
+        <v>1.07438</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.6963</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.733788</v>
+        <v>0.732164</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03791</v>
+        <v>1.07738</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09446</v>
+        <v>1.03854</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.65479</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7141420000000001</v>
+        <v>0.7138370000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.02251</v>
+        <v>1.05702</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0761</v>
+        <v>1.01058</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.62983</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7014049999999999</v>
+        <v>0.694978</v>
       </c>
       <c r="C69" t="n">
-        <v>0.995265</v>
+        <v>1.03944</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05986</v>
+        <v>0.984453</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.59886</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.686609</v>
+        <v>0.684002</v>
       </c>
       <c r="C70" t="n">
-        <v>0.968747</v>
+        <v>1.02838</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04939</v>
+        <v>0.957724</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.56262</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.666445</v>
+        <v>0.678322</v>
       </c>
       <c r="C71" t="n">
-        <v>0.933681</v>
+        <v>1.00074</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01783</v>
+        <v>0.931209</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.53755</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.647327</v>
+        <v>0.657958</v>
       </c>
       <c r="C72" t="n">
-        <v>0.909432</v>
+        <v>0.992444</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00915</v>
+        <v>0.906626</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.51117</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.638346</v>
+        <v>0.649047</v>
       </c>
       <c r="C73" t="n">
-        <v>0.88617</v>
+        <v>0.983565</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00007</v>
+        <v>0.884086</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.4858</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.620139</v>
+        <v>0.630972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.864601</v>
+        <v>0.969301</v>
       </c>
       <c r="D74" t="n">
-        <v>0.987494</v>
+        <v>0.861039</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.46984</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.615816</v>
+        <v>0.618595</v>
       </c>
       <c r="C75" t="n">
-        <v>0.843431</v>
+        <v>0.96752</v>
       </c>
       <c r="D75" t="n">
-        <v>0.984428</v>
+        <v>0.8094209999999999</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.45669</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.601067</v>
+        <v>0.605021</v>
       </c>
       <c r="C76" t="n">
-        <v>0.823607</v>
+        <v>0.9625</v>
       </c>
       <c r="D76" t="n">
-        <v>0.979342</v>
+        <v>0.820333</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.44194</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.573688</v>
+        <v>0.590489</v>
       </c>
       <c r="C77" t="n">
-        <v>0.776857</v>
+        <v>0.9532389999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.970382</v>
+        <v>0.774873</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.43146</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.584529</v>
+        <v>0.587827</v>
       </c>
       <c r="C78" t="n">
-        <v>0.789779</v>
+        <v>1.44627</v>
       </c>
       <c r="D78" t="n">
-        <v>1.43002</v>
+        <v>0.787848</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.42196</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.570874</v>
+        <v>0.569068</v>
       </c>
       <c r="C79" t="n">
-        <v>0.775945</v>
+        <v>1.41551</v>
       </c>
       <c r="D79" t="n">
-        <v>1.39574</v>
+        <v>0.7517740000000001</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.432</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.563283</v>
+        <v>0.58066</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14636</v>
+        <v>1.38654</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36738</v>
+        <v>1.15694</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.20286</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.808406</v>
+        <v>0.81859</v>
       </c>
       <c r="C81" t="n">
-        <v>1.12981</v>
+        <v>1.34301</v>
       </c>
       <c r="D81" t="n">
-        <v>1.33755</v>
+        <v>1.14199</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.18027</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.78277</v>
+        <v>0.816319</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09348</v>
+        <v>1.32609</v>
       </c>
       <c r="D82" t="n">
-        <v>1.3145</v>
+        <v>1.11107</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.16698</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.788505</v>
+        <v>0.804244</v>
       </c>
       <c r="C83" t="n">
-        <v>1.07236</v>
+        <v>1.31033</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29923</v>
+        <v>1.08964</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.14317</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.779223</v>
+        <v>0.791389</v>
       </c>
       <c r="C84" t="n">
-        <v>1.06463</v>
+        <v>1.29923</v>
       </c>
       <c r="D84" t="n">
-        <v>1.287</v>
+        <v>1.07769</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.13611</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.757666</v>
+        <v>0.7846649999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.02475</v>
+        <v>1.26327</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24818</v>
+        <v>1.04295</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.119</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.748037</v>
+        <v>0.7666809999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00149</v>
+        <v>1.25236</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23979</v>
+        <v>1.01711</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.11373</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.743576</v>
+        <v>0.759482</v>
       </c>
       <c r="C87" t="n">
-        <v>0.97725</v>
+        <v>1.25411</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23974</v>
+        <v>0.993133</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.10628</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.727233</v>
+        <v>0.746972</v>
       </c>
       <c r="C88" t="n">
-        <v>0.954639</v>
+        <v>1.24258</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23134</v>
+        <v>0.969378</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.08168</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.717561</v>
+        <v>0.730508</v>
       </c>
       <c r="C89" t="n">
-        <v>0.933331</v>
+        <v>1.24755</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23662</v>
+        <v>0.94613</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.08864</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.713153</v>
+        <v>0.728983</v>
       </c>
       <c r="C90" t="n">
-        <v>0.911494</v>
+        <v>1.25385</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24291</v>
+        <v>0.924713</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.09774</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.659007</v>
+        <v>0.72001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.857181</v>
+        <v>1.25509</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24254</v>
+        <v>0.870833</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.90497</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6742050000000001</v>
+        <v>0.7170299999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.840473</v>
+        <v>2.69189</v>
       </c>
       <c r="D92" t="n">
-        <v>2.47821</v>
+        <v>0.886111</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.10161</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.686763</v>
+        <v>0.7015940000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.859591</v>
+        <v>2.35437</v>
       </c>
       <c r="D93" t="n">
-        <v>2.60653</v>
+        <v>0.870183</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.10903</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.678434</v>
+        <v>0.708259</v>
       </c>
       <c r="C94" t="n">
-        <v>1.21143</v>
+        <v>2.35197</v>
       </c>
       <c r="D94" t="n">
-        <v>2.23548</v>
+        <v>1.26065</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.33834</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.893977</v>
+        <v>0.935677</v>
       </c>
       <c r="C95" t="n">
-        <v>1.20393</v>
+        <v>2.40803</v>
       </c>
       <c r="D95" t="n">
-        <v>2.28897</v>
+        <v>1.2563</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.30162</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.923033</v>
+        <v>0.957055</v>
       </c>
       <c r="C96" t="n">
-        <v>1.21813</v>
+        <v>2.40474</v>
       </c>
       <c r="D96" t="n">
-        <v>2.2121</v>
+        <v>1.24297</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.25162</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.905153</v>
+        <v>0.920118</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19914</v>
+        <v>2.54353</v>
       </c>
       <c r="D97" t="n">
-        <v>2.3403</v>
+        <v>1.20259</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.2196</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8874069999999999</v>
+        <v>0.923035</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1559</v>
+        <v>2.1611</v>
       </c>
       <c r="D98" t="n">
-        <v>2.05198</v>
+        <v>1.18344</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.17438</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.863383</v>
+        <v>0.927176</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13647</v>
+        <v>1.98957</v>
       </c>
       <c r="D99" t="n">
-        <v>1.75464</v>
+        <v>1.16496</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.14516</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8759479999999999</v>
+        <v>0.917037</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13811</v>
+        <v>1.82778</v>
       </c>
       <c r="D100" t="n">
-        <v>1.73391</v>
+        <v>1.14606</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.09799</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.851073</v>
+        <v>0.905453</v>
       </c>
       <c r="C101" t="n">
-        <v>1.05501</v>
+        <v>1.81291</v>
       </c>
       <c r="D101" t="n">
-        <v>1.7223</v>
+        <v>1.08522</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.03041</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.841006</v>
+        <v>0.830413</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0815</v>
+        <v>1.80125</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72152</v>
+        <v>1.11301</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.84068</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.834219</v>
+        <v>0.879242</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06519</v>
+        <v>1.80292</v>
       </c>
       <c r="D103" t="n">
-        <v>1.7258</v>
+        <v>1.09636</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.8804</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.821775</v>
+        <v>0.831704</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04999</v>
+        <v>1.81295</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73373</v>
+        <v>1.04584</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.82996</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.822346</v>
+        <v>0.836932</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03501</v>
+        <v>1.80752</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72761</v>
+        <v>1.03421</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.78626</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.806945</v>
+        <v>0.821861</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02225</v>
+        <v>1.81386</v>
       </c>
       <c r="D106" t="n">
-        <v>1.73707</v>
+        <v>1.02186</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.74544</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.792644</v>
+        <v>0.838948</v>
       </c>
       <c r="C107" t="n">
-        <v>0.97771</v>
+        <v>3.20505</v>
       </c>
       <c r="D107" t="n">
-        <v>2.99647</v>
+        <v>1.04142</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.70886</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.80261</v>
+        <v>0.818188</v>
       </c>
       <c r="C108" t="n">
-        <v>1.39201</v>
+        <v>3.17993</v>
       </c>
       <c r="D108" t="n">
-        <v>2.97125</v>
+        <v>1.42868</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.33148</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8034750000000001</v>
+        <v>0.84688</v>
       </c>
       <c r="C109" t="n">
-        <v>1.38559</v>
+        <v>3.35138</v>
       </c>
       <c r="D109" t="n">
-        <v>3.13675</v>
+        <v>1.40024</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.24503</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03263</v>
+        <v>1.10199</v>
       </c>
       <c r="C110" t="n">
-        <v>1.3455</v>
+        <v>3.13276</v>
       </c>
       <c r="D110" t="n">
-        <v>2.93144</v>
+        <v>1.38905</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.1803</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02844</v>
+        <v>1.08833</v>
       </c>
       <c r="C111" t="n">
-        <v>1.33237</v>
+        <v>2.4998</v>
       </c>
       <c r="D111" t="n">
-        <v>2.71876</v>
+        <v>1.38179</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.11408</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02334</v>
+        <v>1.05991</v>
       </c>
       <c r="C112" t="n">
-        <v>1.32359</v>
+        <v>2.6897</v>
       </c>
       <c r="D112" t="n">
-        <v>2.89557</v>
+        <v>1.37147</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.04837</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.01016</v>
+        <v>1.06145</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33851</v>
+        <v>2.47096</v>
       </c>
       <c r="D113" t="n">
-        <v>2.32162</v>
+        <v>1.36459</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.99467</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.993946</v>
+        <v>1.03548</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32632</v>
+        <v>2.44733</v>
       </c>
       <c r="D114" t="n">
-        <v>2.50316</v>
+        <v>1.35536</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.95279</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.964925</v>
+        <v>1.03245</v>
       </c>
       <c r="C115" t="n">
-        <v>1.2946</v>
+        <v>2.42756</v>
       </c>
       <c r="D115" t="n">
-        <v>2.30106</v>
+        <v>1.34582</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.87396</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.963831</v>
+        <v>1.01674</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28656</v>
+        <v>2.43804</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27964</v>
+        <v>1.35896</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.82973</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.956551</v>
+        <v>1.00391</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27685</v>
+        <v>2.40396</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2646</v>
+        <v>1.33233</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.33061</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.950204</v>
+        <v>1.00192</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26772</v>
+        <v>2.40639</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2627</v>
+        <v>1.28894</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.05486</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.899666</v>
+        <v>0.983212</v>
       </c>
       <c r="C119" t="n">
-        <v>1.2252</v>
+        <v>2.40709</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2669</v>
+        <v>1.28544</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.00935</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.936236</v>
+        <v>0.98787</v>
       </c>
       <c r="C120" t="n">
-        <v>1.25403</v>
+        <v>2.4083</v>
       </c>
       <c r="D120" t="n">
-        <v>2.27059</v>
+        <v>1.31382</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.40985</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.929905</v>
+        <v>0.994581</v>
       </c>
       <c r="C121" t="n">
-        <v>1.24486</v>
+        <v>4.64889</v>
       </c>
       <c r="D121" t="n">
-        <v>3.69178</v>
+        <v>1.30755</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.60776</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.917268</v>
+        <v>0.942757</v>
       </c>
       <c r="C122" t="n">
-        <v>1.20905</v>
+        <v>3.92915</v>
       </c>
       <c r="D122" t="n">
-        <v>3.65492</v>
+        <v>1.3009</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.54972</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.913407</v>
+        <v>0.987025</v>
       </c>
       <c r="C123" t="n">
-        <v>1.58266</v>
+        <v>4.55799</v>
       </c>
       <c r="D123" t="n">
-        <v>4.03351</v>
+        <v>1.65891</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.08304</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1632</v>
+        <v>1.21629</v>
       </c>
       <c r="C124" t="n">
-        <v>1.59756</v>
+        <v>3.37449</v>
       </c>
       <c r="D124" t="n">
-        <v>3.57497</v>
+        <v>1.65083</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.99528</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15859</v>
+        <v>1.20361</v>
       </c>
       <c r="C125" t="n">
-        <v>1.58611</v>
+        <v>3.10894</v>
       </c>
       <c r="D125" t="n">
-        <v>3.54692</v>
+        <v>1.66636</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.93193</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1089</v>
+        <v>1.1874</v>
       </c>
       <c r="C126" t="n">
-        <v>1.5517</v>
+        <v>3.31173</v>
       </c>
       <c r="D126" t="n">
-        <v>3.3</v>
+        <v>1.63085</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.83491</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13319</v>
+        <v>1.20101</v>
       </c>
       <c r="C127" t="n">
-        <v>1.54276</v>
+        <v>3.05006</v>
       </c>
       <c r="D127" t="n">
-        <v>2.84653</v>
+        <v>1.64538</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.77022</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.09262</v>
+        <v>1.17176</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53359</v>
+        <v>3.50874</v>
       </c>
       <c r="D128" t="n">
-        <v>2.82647</v>
+        <v>1.61354</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.68203</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11189</v>
+        <v>1.16167</v>
       </c>
       <c r="C129" t="n">
-        <v>1.54599</v>
+        <v>2.98228</v>
       </c>
       <c r="D129" t="n">
-        <v>2.78564</v>
+        <v>1.60598</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.61476</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.08509</v>
+        <v>1.16407</v>
       </c>
       <c r="C130" t="n">
-        <v>1.51437</v>
+        <v>2.96489</v>
       </c>
       <c r="D130" t="n">
-        <v>2.76938</v>
+        <v>1.598</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.31294</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.07483</v>
+        <v>1.14762</v>
       </c>
       <c r="C131" t="n">
-        <v>1.51031</v>
+        <v>2.95917</v>
       </c>
       <c r="D131" t="n">
-        <v>2.76179</v>
+        <v>1.55857</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.48985</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.07231</v>
+        <v>1.16608</v>
       </c>
       <c r="C132" t="n">
-        <v>1.47093</v>
+        <v>2.95316</v>
       </c>
       <c r="D132" t="n">
-        <v>2.75166</v>
+        <v>1.58614</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.43787</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.06728</v>
+        <v>1.14394</v>
       </c>
       <c r="C133" t="n">
-        <v>1.49594</v>
+        <v>2.93566</v>
       </c>
       <c r="D133" t="n">
-        <v>2.73825</v>
+        <v>1.54667</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.35832</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06282</v>
+        <v>1.13816</v>
       </c>
       <c r="C134" t="n">
-        <v>1.49259</v>
+        <v>2.93595</v>
       </c>
       <c r="D134" t="n">
-        <v>2.73568</v>
+        <v>1.54613</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.83827</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06654</v>
+        <v>1.13075</v>
       </c>
       <c r="C135" t="n">
-        <v>1.48667</v>
+        <v>4.57946</v>
       </c>
       <c r="D135" t="n">
-        <v>4.24297</v>
+        <v>1.54324</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.02629</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06683</v>
+        <v>1.13294</v>
       </c>
       <c r="C136" t="n">
-        <v>1.48371</v>
+        <v>4.53159</v>
       </c>
       <c r="D136" t="n">
-        <v>4.18195</v>
+        <v>1.54003</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.22461</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05699</v>
+        <v>1.12262</v>
       </c>
       <c r="C137" t="n">
-        <v>1.82433</v>
+        <v>5.21313</v>
       </c>
       <c r="D137" t="n">
-        <v>4.13732</v>
+        <v>1.92482</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.79264</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.27487</v>
+        <v>1.35082</v>
       </c>
       <c r="C138" t="n">
-        <v>1.80795</v>
+        <v>4.4229</v>
       </c>
       <c r="D138" t="n">
-        <v>4.30972</v>
+        <v>1.91075</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.70154</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28196</v>
+        <v>1.35116</v>
       </c>
       <c r="C139" t="n">
-        <v>1.81421</v>
+        <v>3.86493</v>
       </c>
       <c r="D139" t="n">
-        <v>3.80985</v>
+        <v>1.89534</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.58888</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26971</v>
+        <v>1.35837</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77874</v>
+        <v>3.81707</v>
       </c>
       <c r="D140" t="n">
-        <v>3.98979</v>
+        <v>1.90447</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.5074</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25084</v>
+        <v>1.35639</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7634</v>
+        <v>3.52056</v>
       </c>
       <c r="D141" t="n">
-        <v>3.26819</v>
+        <v>1.86873</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.41212</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24552</v>
+        <v>1.34102</v>
       </c>
       <c r="C142" t="n">
-        <v>1.7528</v>
+        <v>3.4777</v>
       </c>
       <c r="D142" t="n">
-        <v>3.22374</v>
+        <v>1.85844</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.11774</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.23983</v>
+        <v>1.24845</v>
       </c>
       <c r="C143" t="n">
-        <v>1.70165</v>
+        <v>3.16468</v>
       </c>
       <c r="D143" t="n">
-        <v>3.18955</v>
+        <v>1.73729</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.80046</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15495</v>
+                  <v>0.15337</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.153545</v>
+                  <v>0.155158</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.156261</v>
+                  <v>0.159661</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.154468</v>
+                  <v>0.151036</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159997</v>
+                  <v>0.145481</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.148057</v>
+                  <v>0.143135</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.149778</v>
+                  <v>0.148369</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.154311</v>
+                  <v>0.150446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.223686</v>
+                  <v>0.207322</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.205186</v>
+                  <v>0.209592</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.205051</v>
+                  <v>0.195598</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.191499</v>
+                  <v>0.190781</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.185229</v>
+                  <v>0.190823</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.180374</v>
+                  <v>0.175134</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.173777</v>
+                  <v>0.168551</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174067</v>
+                  <v>0.159679</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.166807</v>
+                  <v>0.164206</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.160047</v>
+                  <v>0.167199</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.157303</v>
+                  <v>0.154037</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.156402</v>
+                  <v>0.157372</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163726</v>
+                  <v>0.151621</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160119</v>
+                  <v>0.157259</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240097</v>
+                  <v>0.238303</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231232</v>
+                  <v>0.224434</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227764</v>
+                  <v>0.224004</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.219773</v>
+                  <v>0.215688</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.21386</v>
+                  <v>0.20293</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.200835</v>
+                  <v>0.198964</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.197722</v>
+                  <v>0.187941</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185452</v>
+                  <v>0.185272</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.185902</v>
+                  <v>0.178074</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179391</v>
+                  <v>0.173278</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.174647</v>
+                  <v>0.170074</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167433</v>
+                  <v>0.168305</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.173431</v>
+                  <v>0.170652</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169377</v>
+                  <v>0.167843</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.245427</v>
+                  <v>0.243961</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236324</v>
+                  <v>0.235067</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.228014</v>
+                  <v>0.22627</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220475</v>
+                  <v>0.218024</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.211363</v>
+                  <v>0.210212</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.205815</v>
+                  <v>0.202858</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.198957</v>
+                  <v>0.196171</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.192026</v>
+                  <v>0.190461</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.186259</v>
+                  <v>0.185034</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.182829</v>
+                  <v>0.180206</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.178498</v>
+                  <v>0.176532</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174932</v>
+                  <v>0.173492</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173529</v>
+                  <v>0.171855</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.174603</v>
+                  <v>0.172451</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.178568</v>
+                  <v>0.174531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.242911</v>
+                  <v>0.241212</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233062</v>
+                  <v>0.231315</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.225756</v>
+                  <v>0.222959</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219169</v>
+                  <v>0.216001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.211266</v>
+                  <v>0.208546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.204869</v>
+                  <v>0.20144</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.198465</v>
+                  <v>0.195596</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.192641</v>
+                  <v>0.189667</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.187453</v>
+                  <v>0.184353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.183317</v>
+                  <v>0.180335</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.180442</v>
+                  <v>0.178093</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.178772</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178868</v>
+                  <v>0.176322</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.182404</v>
+                  <v>0.178398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246499</v>
+                  <v>0.246205</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.24057</v>
+                  <v>0.235745</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.229261</v>
+                  <v>0.22844</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.222631</v>
+                  <v>0.219722</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214224</v>
+                  <v>0.211882</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.208225</v>
+                  <v>0.205851</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200051</v>
+                  <v>0.199915</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.196592</v>
+                  <v>0.19416</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.191699</v>
+                  <v>0.188783</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.187385</v>
+                  <v>0.183925</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.184281</v>
+                  <v>0.182219</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.181944</v>
+                  <v>0.178711</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181193</v>
+                  <v>0.17904</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.183598</v>
+                  <v>0.180346</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.259901</v>
+                  <v>0.257797</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.251809</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245416</v>
+                  <v>0.242374</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236506</v>
+                  <v>0.233789</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228865</v>
+                  <v>0.22662</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222002</v>
+                  <v>0.219911</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215267</v>
+                  <v>0.21385</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208708</v>
+                  <v>0.20712</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203164</v>
+                  <v>0.2016</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198265</v>
+                  <v>0.196505</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.194029</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191051</v>
+                  <v>0.190124</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.190331</v>
+                  <v>0.188597</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.190609</v>
+                  <v>0.189371</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271708</v>
+                  <v>0.270674</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265444</v>
+                  <v>0.265072</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258822</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251693</v>
+                  <v>0.251641</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245207</v>
+                  <v>0.245263</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238911</v>
+                  <v>0.238488</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233314</v>
+                  <v>0.233411</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227926</v>
+                  <v>0.227946</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.223038</v>
+                  <v>0.222458</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218392</v>
+                  <v>0.218327</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214392</v>
+                  <v>0.214176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211043</v>
+                  <v>0.211275</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208798</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208902</v>
+                  <v>0.208655</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210912</v>
+                  <v>0.210629</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.282122</v>
+                  <v>0.285509</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277332</v>
+                  <v>0.278433</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271849</v>
+                  <v>0.271806</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.265643</v>
+                  <v>0.266427</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259825</v>
+                  <v>0.260565</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.254755</v>
+                  <v>0.255512</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.249822</v>
+                  <v>0.250615</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.24522</v>
+                  <v>0.245594</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241839</v>
+                  <v>0.244716</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.23729</v>
+                  <v>0.237814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234272</v>
+                  <v>0.234924</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232088</v>
+                  <v>0.232693</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231128</v>
+                  <v>0.231404</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232239</v>
+                  <v>0.232607</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317627</v>
+                  <v>0.316721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.312009</v>
+                  <v>0.311521</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.30586</v>
+                  <v>0.304916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.300592</v>
+                  <v>0.299863</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.295357</v>
+                  <v>0.294634</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291282</v>
+                  <v>0.290007</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.290024</v>
+                  <v>0.285681</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.292332</v>
+                  <v>0.281672</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.316529</v>
+                  <v>0.278486</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.313286</v>
+                  <v>0.275255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.269433</v>
+                  <v>0.272149</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.267928</v>
+                  <v>0.270314</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.267051</v>
+                  <v>0.269997</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267636</v>
+                  <v>0.270583</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.350842</v>
+                  <v>0.369063</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345442</v>
+                  <v>0.363506</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.341276</v>
+                  <v>0.358269</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.336592</v>
+                  <v>0.352863</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.332195</v>
+                  <v>0.34801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328062</v>
+                  <v>0.34351</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.133487</v>
+                  <v>0.312145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.128996</v>
+                  <v>0.311864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.128778</v>
+                  <v>0.311341</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.123893</v>
+                  <v>0.306772</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.115629</v>
+                  <v>0.308161</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.117525</v>
+                  <v>0.408994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.110211</v>
+                  <v>0.405189</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.176215</v>
+                  <v>0.401577</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.169618</v>
+                  <v>0.391147</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167522</v>
+                  <v>0.391102</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.164985</v>
+                  <v>0.38111</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.157948</v>
+                  <v>0.379912</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.154722</v>
+                  <v>0.376405</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.145283</v>
+                  <v>0.370044</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.14847</v>
+                  <v>0.366509</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.137933</v>
+                  <v>0.362169</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.132223</v>
+                  <v>0.364199</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.130486</v>
+                  <v>0.36117</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.124625</v>
+                  <v>0.357351</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.122399</v>
+                  <v>0.478261</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.122231</v>
+                  <v>0.464696</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215673</v>
+                  <v>0.456439</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209008</v>
+                  <v>0.448159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.196812</v>
+                  <v>0.440673</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.193513</v>
+                  <v>0.431649</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.186064</v>
+                  <v>0.425692</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.182841</v>
+                  <v>0.418998</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.175024</v>
+                  <v>0.412593</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170131</v>
+                  <v>0.408417</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.161414</v>
+                  <v>0.40367</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.156848</v>
+                  <v>0.399719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.155946</v>
+                  <v>0.393748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14656</v>
+                  <v>0.390428</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150628</v>
+                  <v>0.499331</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.146053</v>
+                  <v>0.48684</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230175</v>
+                  <v>0.478061</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222468</v>
+                  <v>0.46875</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.212657</v>
+                  <v>0.458947</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20674</v>
+                  <v>0.450864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.198642</v>
+                  <v>0.443182</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191772</v>
+                  <v>0.437353</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.188281</v>
+                  <v>0.430382</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.177377</v>
+                  <v>0.424477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171985</v>
+                  <v>0.419409</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166429</v>
+                  <v>0.414636</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.166079</v>
+                  <v>0.40978</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159028</v>
+                  <v>0.406225</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.15706</v>
+                  <v>0.403185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.156108</v>
+                  <v>0.506923</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.244006</v>
+                  <v>0.49607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234167</v>
+                  <v>0.485393</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.224348</v>
+                  <v>0.47704</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216183</v>
+                  <v>0.467187</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.208516</v>
+                  <v>0.459395</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.200898</v>
+                  <v>0.452921</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.193874</v>
+                  <v>0.445497</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.186857</v>
+                  <v>0.440853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.180909</v>
+                  <v>0.434352</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.175261</v>
+                  <v>0.430313</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.170349</v>
+                  <v>0.426534</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.166078</v>
+                  <v>0.422625</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.163411</v>
+                  <v>0.419713</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.161494</v>
+                  <v>0.544347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.16251</v>
+                  <v>0.53371</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.243741</v>
+                  <v>0.523499</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233795</v>
+                  <v>0.516787</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.226048</v>
+                  <v>0.508951</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.218522</v>
+                  <v>0.500625</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.208423</v>
+                  <v>0.494779</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.20239</v>
+                  <v>0.489162</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.195978</v>
+                  <v>0.483936</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.190244</v>
+                  <v>0.481121</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.183549</v>
+                  <v>0.496074</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17921</v>
+                  <v>0.488899</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.174505</v>
+                  <v>0.486092</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.17026</v>
+                  <v>0.483301</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.168555</v>
+                  <v>0.6619080000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.167771</v>
+                  <v>0.651641</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.243049</v>
+                  <v>0.6414840000000001</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.233663</v>
+                  <v>0.634898</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225806</v>
+                  <v>0.626458</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217961</v>
+                  <v>0.619111</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210345</v>
+                  <v>0.618937</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.202909</v>
+                  <v>0.616578</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.196278</v>
+                  <v>0.616543</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.190457</v>
+                  <v>0.618468</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.184578</v>
+                  <v>0.618605</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.179115</v>
+                  <v>0.631288</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.174858</v>
+                  <v>0.634706</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171276</v>
+                  <v>0.640709</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.168786</v>
+                  <v>0.853437</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169004</v>
+                  <v>0.851041</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.254981</v>
+                  <v>0.846677</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.247215</v>
+                  <v>0.839566</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239115</v>
+                  <v>0.837027</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.230624</v>
+                  <v>0.84036</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222856</v>
+                  <v>0.840439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21591</v>
+                  <v>0.841024</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.209102</v>
+                  <v>0.84118</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.202675</v>
+                  <v>0.845235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.196973</v>
+                  <v>0.849178</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.19177</v>
+                  <v>0.859448</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.187172</v>
+                  <v>0.866117</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.183301</v>
+                  <v>0.873801</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.18078</v>
+                  <v>0.882031</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179522</v>
+                  <v>1.12628</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.269489</v>
+                  <v>1.11366</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262897</v>
+                  <v>1.10831</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.256726</v>
+                  <v>1.09924</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.247451</v>
+                  <v>1.10141</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24043</v>
+                  <v>1.09589</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233607</v>
+                  <v>1.09404</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227423</v>
+                  <v>1.09267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.221229</v>
+                  <v>1.09583</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215868</v>
+                  <v>1.09592</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.210591</v>
+                  <v>1.09785</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.206479</v>
+                  <v>1.10406</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202559</v>
+                  <v>1.1105</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.199773</v>
+                  <v>1.1192</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198176</v>
+                  <v>1.38021</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.198841</v>
+                  <v>1.36711</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285232</v>
+                  <v>1.35208</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.276811</v>
+                  <v>1.33879</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.270839</v>
+                  <v>1.33025</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.265608</v>
+                  <v>1.32117</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260523</v>
+                  <v>1.31379</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.255044</v>
+                  <v>1.30768</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.251807</v>
+                  <v>1.30326</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.249694</v>
+                  <v>1.30056</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.266801</v>
+                  <v>1.30008</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.263743</v>
+                  <v>1.30108</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.282668</v>
+                  <v>1.30141</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.233059</v>
+                  <v>1.30559</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.231579</v>
+                  <v>1.58034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.231913</v>
+                  <v>1.55781</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.326305</v>
+                  <v>1.53836</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.320686</v>
+                  <v>1.5207</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.315677</v>
+                  <v>1.50344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.310855</v>
+                  <v>1.49007</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.306001</v>
+                  <v>1.47742</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.30133</v>
+                  <v>1.46587</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.297474</v>
+                  <v>1.45791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.344005</v>
+                  <v>0.142888</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.340023</v>
+                  <v>0.144159</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.339171</v>
+                  <v>0.139729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.337006</v>
+                  <v>0.130455</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.334346</v>
+                  <v>0.130001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.44346</v>
+                  <v>0.114646</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.42934</v>
+                  <v>0.121203</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.422947</v>
+                  <v>0.177485</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.414834</v>
+                  <v>0.178184</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.412844</v>
+                  <v>0.167977</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.410981</v>
+                  <v>0.158496</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.402817</v>
+                  <v>0.152255</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.395902</v>
+                  <v>0.15716</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.389522</v>
+                  <v>0.142005</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.38781</v>
+                  <v>0.136816</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.384793</v>
+                  <v>0.139587</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.379955</v>
+                  <v>0.131545</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.378853</v>
+                  <v>0.129135</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.373582</v>
+                  <v>0.123154</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.476217</v>
+                  <v>0.1263</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.46546</v>
+                  <v>0.129065</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.464787</v>
+                  <v>0.214336</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45141</v>
+                  <v>0.21995</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.445799</v>
+                  <v>0.204141</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.434497</v>
+                  <v>0.187606</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427631</v>
+                  <v>0.185954</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.419558</v>
+                  <v>0.178845</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.411806</v>
+                  <v>0.168237</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.406268</v>
+                  <v>0.165532</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.401866</v>
+                  <v>0.164239</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.397333</v>
+                  <v>0.154562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393844</v>
+                  <v>0.153521</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.389286</v>
+                  <v>0.14963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.493518</v>
+                  <v>0.150836</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.484731</v>
+                  <v>0.14771</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.475688</v>
+                  <v>0.230768</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.463878</v>
+                  <v>0.222972</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.455129</v>
+                  <v>0.213998</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.446551</v>
+                  <v>0.205509</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.438381</v>
+                  <v>0.19903</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.43272</v>
+                  <v>0.191431</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.425374</v>
+                  <v>0.185004</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.420618</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.41841</v>
+                  <v>0.171721</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414417</v>
+                  <v>0.166785</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.412106</v>
+                  <v>0.163076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406774</v>
+                  <v>0.159074</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.402662</v>
+                  <v>0.157048</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.505211</v>
+                  <v>0.155008</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.498063</v>
+                  <v>0.241177</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485203</v>
+                  <v>0.232474</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.477573</v>
+                  <v>0.222617</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.46772</v>
+                  <v>0.214052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.463373</v>
+                  <v>0.206278</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.4539</v>
+                  <v>0.198674</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.446932</v>
+                  <v>0.191601</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440617</v>
+                  <v>0.184668</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.437856</v>
+                  <v>0.179357</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.432426</v>
+                  <v>0.1736</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.428781</v>
+                  <v>0.168138</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.423174</v>
+                  <v>0.164634</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.422691</v>
+                  <v>0.161852</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.5450739999999999</v>
+                  <v>0.159915</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.540152</v>
+                  <v>0.160633</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.524844</v>
+                  <v>0.241778</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.515304</v>
+                  <v>0.234316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.507802</v>
+                  <v>0.223856</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.498374</v>
+                  <v>0.214878</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494679</v>
+                  <v>0.206553</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.495527</v>
+                  <v>0.200975</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483948</v>
+                  <v>0.194188</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481365</v>
+                  <v>0.188362</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496964</v>
+                  <v>0.182427</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.492901</v>
+                  <v>0.17682</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.489043</v>
+                  <v>0.171969</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.486233</v>
+                  <v>0.167466</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.664263</v>
+                  <v>0.166872</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.653161</v>
+                  <v>0.166623</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.643571</v>
+                  <v>0.2389</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.63595</v>
+                  <v>0.231233</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.629796</v>
+                  <v>0.222629</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.622012</v>
+                  <v>0.215057</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.619332</v>
+                  <v>0.207065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.615398</v>
+                  <v>0.200438</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.615523</v>
+                  <v>0.193262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.615955</v>
+                  <v>0.187335</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.622347</v>
+                  <v>0.182132</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631071</v>
+                  <v>0.176589</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.635074</v>
+                  <v>0.173081</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.639845</v>
+                  <v>0.169023</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.852201</v>
+                  <v>0.166908</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.847971</v>
+                  <v>0.166814</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.845392</v>
+                  <v>0.252534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.8368139999999999</v>
+                  <v>0.244438</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.834033</v>
+                  <v>0.236967</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.841704</v>
+                  <v>0.229011</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.83904</v>
+                  <v>0.220682</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.838568</v>
+                  <v>0.213943</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.839709</v>
+                  <v>0.20784</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.842832</v>
+                  <v>0.20147</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.8481</v>
+                  <v>0.195865</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.858892</v>
+                  <v>0.190898</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.865506</v>
+                  <v>0.186294</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.870801</v>
+                  <v>0.182449</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.883047</v>
+                  <v>0.180164</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.1251</v>
+                  <v>0.179211</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11268</v>
+                  <v>0.268571</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10474</v>
+                  <v>0.263123</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09904</v>
+                  <v>0.255147</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.09986</v>
+                  <v>0.248045</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09551</v>
+                  <v>0.24044</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09076</v>
+                  <v>0.234071</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09524</v>
+                  <v>0.227632</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09316</v>
+                  <v>0.22211</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09388</v>
+                  <v>0.216672</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.0979</v>
+                  <v>0.211883</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10358</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.11072</v>
+                  <v>0.204125</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.11523</v>
+                  <v>0.201067</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38026</v>
+                  <v>0.199423</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36735</v>
+                  <v>0.200191</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35413</v>
+                  <v>0.285389</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.34011</v>
+                  <v>0.279535</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33068</v>
+                  <v>0.273237</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32008</v>
+                  <v>0.267652</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.3181</v>
+                  <v>0.26304</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.31133</v>
+                  <v>0.258886</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.2952</v>
+                  <v>0.254448</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30043</v>
+                  <v>0.250205</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.45637</v>
+                  <v>0.24612</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.43621</v>
+                  <v>0.243283</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30867</v>
+                  <v>0.240187</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30653</v>
+                  <v>0.238426</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.581</v>
+                  <v>0.236633</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.56049</v>
+                  <v>0.23708</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53923</v>
+                  <v>0.334836</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.52452</v>
+                  <v>0.329067</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50727</v>
+                  <v>0.323726</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.4928</v>
+                  <v>0.319833</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.4814</v>
+                  <v>0.314732</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46927</v>
+                  <v>0.310756</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.46123</v>
+                  <v>0.307162</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.271192</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.269766</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.261942</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.266898</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.264205</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.261823</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.260876</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.337755</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.32141</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.306307</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.303579</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.295531</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.290788</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.286236</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27627</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.269827</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.269586</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.261332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.262818</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.25938</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.25735</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.333717</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.338816</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.31587</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.308427</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.298987</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.294611</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.288183</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.281609</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.27668</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272235</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.267661</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.264742</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.262336</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263208</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347369</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.339619</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.332237</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323095</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315365</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.308467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.302061</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296349</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.290374</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.285623</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.281956</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.278551</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.276744</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.275847</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.35945</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.352226</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342043</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334021</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329362</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.3219</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.31556</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.309051</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.303773</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298791</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.29423</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.29061</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.28855</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286849</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288573</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.368444</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.360264</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.351966</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.346137</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.338777</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.33184</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.324914</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.319398</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.313882</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.308808</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.305441</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301947</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.303099</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.303311</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.384061</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.377682</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.372194</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.364102</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360852</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.355225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.34856</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.34299</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338553</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332812</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329783</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.326459</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.325092</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32522</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.452238</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.451668</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.447145</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.442183</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.437287</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.432007</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.428233</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.423292</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.418646</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.41523</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.411758</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.409843</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.408188</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.407718</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.566439</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.564304</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.557965</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.551828</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.544925</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.5423289999999999</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.536821</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.533166</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.529174</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.526789</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.52432</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.523133</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.520985</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.520991</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.522709</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.694646</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.688746</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.685202</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.680929</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.678063</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.660381</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.669822</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.66858</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.666127</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.664091</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.662888</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.662808</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.663058</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.664988</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.847299</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.846291</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.845287</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.8449950000000001</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.844019</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.844831</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.844638</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.474993</v>
+        <v>0.468646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.815218</v>
+        <v>0.704605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.689269</v>
+        <v>0.687551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.971786</v>
+        <v>0.971491</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.458</v>
+        <v>0.454448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.807237</v>
+        <v>0.696592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.671123</v>
+        <v>0.669638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.952756</v>
+        <v>0.9507949999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444893</v>
+        <v>0.439852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.801091</v>
+        <v>0.688327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6549199999999999</v>
+        <v>0.653051</v>
       </c>
       <c r="E4" t="n">
-        <v>0.934895</v>
+        <v>0.929717</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.440478</v>
+        <v>0.429851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790558</v>
+        <v>0.679287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.640106</v>
+        <v>0.637896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.915497</v>
+        <v>0.912637</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.432934</v>
+        <v>0.427969</v>
       </c>
       <c r="C6" t="n">
-        <v>0.78403</v>
+        <v>0.671661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625841</v>
+        <v>0.624236</v>
       </c>
       <c r="E6" t="n">
-        <v>0.89927</v>
+        <v>0.896251</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.424803</v>
+        <v>0.416989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8775579999999999</v>
+        <v>0.666641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.613861</v>
+        <v>0.612488</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8852179999999999</v>
+        <v>0.883355</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.423203</v>
+        <v>0.418588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8628130000000001</v>
+        <v>0.662991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.60423</v>
+        <v>0.642867</v>
       </c>
       <c r="E8" t="n">
-        <v>0.873001</v>
+        <v>0.872057</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.376506</v>
+        <v>0.417517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.845854</v>
+        <v>0.6639890000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.914287</v>
+        <v>0.957254</v>
       </c>
       <c r="E9" t="n">
-        <v>1.19883</v>
+        <v>1.19926</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.564617</v>
+        <v>0.558789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.832753</v>
+        <v>0.809546</v>
       </c>
       <c r="D10" t="n">
-        <v>0.886363</v>
+        <v>0.884775</v>
       </c>
       <c r="E10" t="n">
-        <v>1.16861</v>
+        <v>1.16803</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.543158</v>
+        <v>0.543079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820617</v>
+        <v>0.794698</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858779</v>
+        <v>0.858061</v>
       </c>
       <c r="E11" t="n">
-        <v>1.14132</v>
+        <v>1.13889</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526905</v>
+        <v>0.525048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.806086</v>
+        <v>0.780345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.833156</v>
+        <v>0.831624</v>
       </c>
       <c r="E12" t="n">
-        <v>1.11345</v>
+        <v>1.11072</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.512598</v>
+        <v>0.512927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7910509999999999</v>
+        <v>0.766252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.808524</v>
+        <v>0.807134</v>
       </c>
       <c r="E13" t="n">
-        <v>1.08609</v>
+        <v>1.08182</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.498751</v>
+        <v>0.497687</v>
       </c>
       <c r="C14" t="n">
-        <v>0.789879</v>
+        <v>0.751764</v>
       </c>
       <c r="D14" t="n">
-        <v>0.785569</v>
+        <v>0.784228</v>
       </c>
       <c r="E14" t="n">
-        <v>1.05948</v>
+        <v>1.0569</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.484627</v>
+        <v>0.480899</v>
       </c>
       <c r="C15" t="n">
-        <v>0.780571</v>
+        <v>0.738914</v>
       </c>
       <c r="D15" t="n">
-        <v>0.763287</v>
+        <v>0.762662</v>
       </c>
       <c r="E15" t="n">
-        <v>1.03477</v>
+        <v>1.03169</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.473294</v>
+        <v>0.470792</v>
       </c>
       <c r="C16" t="n">
-        <v>0.76967</v>
+        <v>0.732579</v>
       </c>
       <c r="D16" t="n">
-        <v>0.742389</v>
+        <v>0.741538</v>
       </c>
       <c r="E16" t="n">
-        <v>1.01131</v>
+        <v>1.00725</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460336</v>
+        <v>0.461037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.761848</v>
+        <v>0.719955</v>
       </c>
       <c r="D17" t="n">
-        <v>0.723234</v>
+        <v>0.72204</v>
       </c>
       <c r="E17" t="n">
-        <v>1.02086</v>
+        <v>1.01574</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.449651</v>
+        <v>0.451129</v>
       </c>
       <c r="C18" t="n">
-        <v>0.756659</v>
+        <v>0.709181</v>
       </c>
       <c r="D18" t="n">
-        <v>0.705071</v>
+        <v>0.703992</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999659</v>
+        <v>0.996934</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439331</v>
+        <v>0.438045</v>
       </c>
       <c r="C19" t="n">
-        <v>0.746068</v>
+        <v>0.699398</v>
       </c>
       <c r="D19" t="n">
-        <v>0.688805</v>
+        <v>0.688335</v>
       </c>
       <c r="E19" t="n">
-        <v>0.981253</v>
+        <v>0.980229</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.433897</v>
+        <v>0.434357</v>
       </c>
       <c r="C20" t="n">
-        <v>0.740405</v>
+        <v>0.6966909999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.673839</v>
+        <v>0.67287</v>
       </c>
       <c r="E20" t="n">
-        <v>0.964358</v>
+        <v>0.961021</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.426003</v>
+        <v>0.423824</v>
       </c>
       <c r="C21" t="n">
-        <v>0.96058</v>
+        <v>0.69423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.661263</v>
+        <v>0.659807</v>
       </c>
       <c r="E21" t="n">
-        <v>0.953819</v>
+        <v>0.952968</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.423086</v>
+        <v>0.419528</v>
       </c>
       <c r="C22" t="n">
-        <v>0.940925</v>
+        <v>0.689257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.651255</v>
+        <v>0.649969</v>
       </c>
       <c r="E22" t="n">
-        <v>0.94154</v>
+        <v>0.940123</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.41911</v>
+        <v>0.418198</v>
       </c>
       <c r="C23" t="n">
-        <v>0.91989</v>
+        <v>0.6852200000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.971222</v>
+        <v>0.969622</v>
       </c>
       <c r="E23" t="n">
-        <v>1.27307</v>
+        <v>1.27328</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5789</v>
+        <v>0.570442</v>
       </c>
       <c r="C24" t="n">
-        <v>0.902575</v>
+        <v>0.852417</v>
       </c>
       <c r="D24" t="n">
-        <v>0.94148</v>
+        <v>0.939207</v>
       </c>
       <c r="E24" t="n">
-        <v>1.24687</v>
+        <v>1.23957</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.561021</v>
+        <v>0.5533</v>
       </c>
       <c r="C25" t="n">
-        <v>0.890115</v>
+        <v>0.825354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.911406</v>
+        <v>0.877717</v>
       </c>
       <c r="E25" t="n">
-        <v>1.20739</v>
+        <v>1.21017</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.545228</v>
+        <v>0.536198</v>
       </c>
       <c r="C26" t="n">
-        <v>0.874737</v>
+        <v>0.810113</v>
       </c>
       <c r="D26" t="n">
-        <v>0.883235</v>
+        <v>0.851183</v>
       </c>
       <c r="E26" t="n">
-        <v>1.18413</v>
+        <v>1.1821</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.52813</v>
+        <v>0.554915</v>
       </c>
       <c r="C27" t="n">
-        <v>0.860459</v>
+        <v>0.805037</v>
       </c>
       <c r="D27" t="n">
-        <v>0.856921</v>
+        <v>0.825924</v>
       </c>
       <c r="E27" t="n">
-        <v>1.15681</v>
+        <v>1.15149</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.539286</v>
+        <v>0.538258</v>
       </c>
       <c r="C28" t="n">
-        <v>0.848423</v>
+        <v>0.79351</v>
       </c>
       <c r="D28" t="n">
-        <v>0.831141</v>
+        <v>0.830041</v>
       </c>
       <c r="E28" t="n">
-        <v>1.12742</v>
+        <v>1.13363</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.525073</v>
+        <v>0.524365</v>
       </c>
       <c r="C29" t="n">
-        <v>0.839693</v>
+        <v>0.779497</v>
       </c>
       <c r="D29" t="n">
-        <v>0.807335</v>
+        <v>0.806253</v>
       </c>
       <c r="E29" t="n">
-        <v>1.10257</v>
+        <v>1.10659</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.508881</v>
+        <v>0.48127</v>
       </c>
       <c r="C30" t="n">
-        <v>0.826697</v>
+        <v>0.769078</v>
       </c>
       <c r="D30" t="n">
-        <v>0.784428</v>
+        <v>0.783202</v>
       </c>
       <c r="E30" t="n">
-        <v>1.07721</v>
+        <v>1.07713</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498004</v>
+        <v>0.49644</v>
       </c>
       <c r="C31" t="n">
-        <v>0.817635</v>
+        <v>0.752127</v>
       </c>
       <c r="D31" t="n">
-        <v>0.762994</v>
+        <v>0.73792</v>
       </c>
       <c r="E31" t="n">
-        <v>1.05324</v>
+        <v>1.05541</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.461509</v>
+        <v>0.460068</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8125250000000001</v>
+        <v>0.740052</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7427859999999999</v>
+        <v>0.719449</v>
       </c>
       <c r="E32" t="n">
-        <v>1.03054</v>
+        <v>1.03304</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.47318</v>
+        <v>0.472711</v>
       </c>
       <c r="C33" t="n">
-        <v>0.803881</v>
+        <v>0.730357</v>
       </c>
       <c r="D33" t="n">
-        <v>0.724836</v>
+        <v>0.723916</v>
       </c>
       <c r="E33" t="n">
-        <v>1.01</v>
+        <v>1.01208</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.463717</v>
+        <v>0.463324</v>
       </c>
       <c r="C34" t="n">
-        <v>0.796658</v>
+        <v>0.723462</v>
       </c>
       <c r="D34" t="n">
-        <v>0.686987</v>
+        <v>0.686138</v>
       </c>
       <c r="E34" t="n">
-        <v>0.990532</v>
+        <v>0.992076</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455745</v>
+        <v>0.455032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.03262</v>
+        <v>0.715553</v>
       </c>
       <c r="D35" t="n">
-        <v>0.673691</v>
+        <v>0.671822</v>
       </c>
       <c r="E35" t="n">
-        <v>0.972236</v>
+        <v>0.9781339999999999</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.45065</v>
+        <v>0.449352</v>
       </c>
       <c r="C36" t="n">
-        <v>1.01313</v>
+        <v>0.7113120000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.680562</v>
+        <v>0.660799</v>
       </c>
       <c r="E36" t="n">
-        <v>0.956982</v>
+        <v>0.963855</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.430538</v>
+        <v>0.447075</v>
       </c>
       <c r="C37" t="n">
-        <v>0.995346</v>
+        <v>0.708836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9877280000000001</v>
+        <v>0.986177</v>
       </c>
       <c r="E37" t="n">
-        <v>1.56194</v>
+        <v>1.56653</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.640713</v>
+        <v>0.621013</v>
       </c>
       <c r="C38" t="n">
-        <v>0.975254</v>
+        <v>1.10387</v>
       </c>
       <c r="D38" t="n">
-        <v>0.95751</v>
+        <v>0.955522</v>
       </c>
       <c r="E38" t="n">
-        <v>1.52741</v>
+        <v>1.53107</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.621654</v>
+        <v>0.620884</v>
       </c>
       <c r="C39" t="n">
-        <v>0.956798</v>
+        <v>1.08985</v>
       </c>
       <c r="D39" t="n">
-        <v>0.927789</v>
+        <v>0.926637</v>
       </c>
       <c r="E39" t="n">
-        <v>1.49306</v>
+        <v>1.49698</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.587266</v>
+        <v>0.603826</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9417759999999999</v>
+        <v>1.07139</v>
       </c>
       <c r="D40" t="n">
-        <v>0.899523</v>
+        <v>0.898553</v>
       </c>
       <c r="E40" t="n">
-        <v>1.45897</v>
+        <v>1.46225</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.57</v>
+        <v>0.585237</v>
       </c>
       <c r="C41" t="n">
-        <v>0.926477</v>
+        <v>1.05628</v>
       </c>
       <c r="D41" t="n">
-        <v>0.872849</v>
+        <v>0.871953</v>
       </c>
       <c r="E41" t="n">
-        <v>1.42782</v>
+        <v>1.43144</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.553677</v>
+        <v>0.552242</v>
       </c>
       <c r="C42" t="n">
-        <v>0.913524</v>
+        <v>1.04235</v>
       </c>
       <c r="D42" t="n">
-        <v>0.819663</v>
+        <v>0.846527</v>
       </c>
       <c r="E42" t="n">
-        <v>1.39819</v>
+        <v>1.40119</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.538862</v>
+        <v>0.537974</v>
       </c>
       <c r="C43" t="n">
-        <v>0.900215</v>
+        <v>1.0304</v>
       </c>
       <c r="D43" t="n">
-        <v>0.823371</v>
+        <v>0.8223549999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>1.37215</v>
+        <v>1.37361</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.523264</v>
+        <v>0.523584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.88788</v>
+        <v>1.01723</v>
       </c>
       <c r="D44" t="n">
-        <v>0.799917</v>
+        <v>0.799276</v>
       </c>
       <c r="E44" t="n">
-        <v>1.34299</v>
+        <v>1.34621</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510858</v>
+        <v>0.522961</v>
       </c>
       <c r="C45" t="n">
-        <v>0.880252</v>
+        <v>1.00467</v>
       </c>
       <c r="D45" t="n">
-        <v>0.778356</v>
+        <v>0.777388</v>
       </c>
       <c r="E45" t="n">
-        <v>1.31904</v>
+        <v>1.32064</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498457</v>
+        <v>0.496998</v>
       </c>
       <c r="C46" t="n">
-        <v>0.869886</v>
+        <v>0.993832</v>
       </c>
       <c r="D46" t="n">
-        <v>0.757579</v>
+        <v>0.756602</v>
       </c>
       <c r="E46" t="n">
-        <v>1.29374</v>
+        <v>1.29784</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.488035</v>
+        <v>0.499479</v>
       </c>
       <c r="C47" t="n">
-        <v>0.863117</v>
+        <v>0.982819</v>
       </c>
       <c r="D47" t="n">
-        <v>0.738672</v>
+        <v>0.738554</v>
       </c>
       <c r="E47" t="n">
-        <v>1.27291</v>
+        <v>1.27461</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477585</v>
+        <v>0.477448</v>
       </c>
       <c r="C48" t="n">
-        <v>0.859088</v>
+        <v>0.977199</v>
       </c>
       <c r="D48" t="n">
-        <v>0.720774</v>
+        <v>0.731208</v>
       </c>
       <c r="E48" t="n">
-        <v>1.25219</v>
+        <v>1.25311</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.469955</v>
+        <v>0.470332</v>
       </c>
       <c r="C49" t="n">
-        <v>0.850454</v>
+        <v>0.969442</v>
       </c>
       <c r="D49" t="n">
-        <v>0.685927</v>
+        <v>0.704838</v>
       </c>
       <c r="E49" t="n">
-        <v>1.23342</v>
+        <v>1.23534</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.44365</v>
+        <v>0.462937</v>
       </c>
       <c r="C50" t="n">
-        <v>1.08072</v>
+        <v>0.963634</v>
       </c>
       <c r="D50" t="n">
-        <v>0.692597</v>
+        <v>0.693128</v>
       </c>
       <c r="E50" t="n">
-        <v>1.21631</v>
+        <v>1.21923</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.457514</v>
+        <v>0.459784</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05902</v>
+        <v>0.960784</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03047</v>
+        <v>1.03001</v>
       </c>
       <c r="E51" t="n">
-        <v>1.64046</v>
+        <v>1.64445</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.458122</v>
+        <v>0.441096</v>
       </c>
       <c r="C52" t="n">
-        <v>1.03898</v>
+        <v>0.959553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.987463</v>
+        <v>0.998036</v>
       </c>
       <c r="E52" t="n">
-        <v>1.60242</v>
+        <v>1.60957</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6476690000000001</v>
+        <v>0.648971</v>
       </c>
       <c r="C53" t="n">
-        <v>1.01786</v>
+        <v>1.14135</v>
       </c>
       <c r="D53" t="n">
-        <v>0.957176</v>
+        <v>0.957269</v>
       </c>
       <c r="E53" t="n">
-        <v>1.56611</v>
+        <v>1.56921</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.618563</v>
+        <v>0.630736</v>
       </c>
       <c r="C54" t="n">
-        <v>1.00212</v>
+        <v>1.12394</v>
       </c>
       <c r="D54" t="n">
-        <v>0.929321</v>
+        <v>0.938696</v>
       </c>
       <c r="E54" t="n">
-        <v>1.53489</v>
+        <v>1.53592</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.602707</v>
+        <v>0.60465</v>
       </c>
       <c r="C55" t="n">
-        <v>0.984695</v>
+        <v>1.10698</v>
       </c>
       <c r="D55" t="n">
-        <v>0.900576</v>
+        <v>0.89934</v>
       </c>
       <c r="E55" t="n">
-        <v>1.49878</v>
+        <v>1.50221</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.58531</v>
+        <v>0.585216</v>
       </c>
       <c r="C56" t="n">
-        <v>0.96894</v>
+        <v>1.09211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.876501</v>
+        <v>0.87408</v>
       </c>
       <c r="E56" t="n">
-        <v>1.46734</v>
+        <v>1.46992</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.576833</v>
+        <v>0.5712930000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.954472</v>
+        <v>1.07775</v>
       </c>
       <c r="D57" t="n">
-        <v>0.860691</v>
+        <v>0.851325</v>
       </c>
       <c r="E57" t="n">
-        <v>1.44217</v>
+        <v>1.43918</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.561046</v>
+        <v>0.5598610000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.942837</v>
+        <v>1.06462</v>
       </c>
       <c r="D58" t="n">
-        <v>0.829102</v>
+        <v>0.828695</v>
       </c>
       <c r="E58" t="n">
-        <v>1.4068</v>
+        <v>1.41207</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.548152</v>
+        <v>0.54552</v>
       </c>
       <c r="C59" t="n">
-        <v>0.924361</v>
+        <v>1.052</v>
       </c>
       <c r="D59" t="n">
-        <v>0.806995</v>
+        <v>0.806508</v>
       </c>
       <c r="E59" t="n">
-        <v>1.38164</v>
+        <v>1.38455</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.531655</v>
+        <v>0.534237</v>
       </c>
       <c r="C60" t="n">
-        <v>0.915037</v>
+        <v>1.04127</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7857420000000001</v>
+        <v>0.786219</v>
       </c>
       <c r="E60" t="n">
-        <v>1.35923</v>
+        <v>1.35815</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.519366</v>
+        <v>0.520358</v>
       </c>
       <c r="C61" t="n">
-        <v>0.904999</v>
+        <v>1.03032</v>
       </c>
       <c r="D61" t="n">
-        <v>0.76742</v>
+        <v>0.7675419999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>1.33291</v>
+        <v>1.33503</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.510574</v>
+        <v>0.509714</v>
       </c>
       <c r="C62" t="n">
-        <v>0.895809</v>
+        <v>1.02141</v>
       </c>
       <c r="D62" t="n">
-        <v>0.748754</v>
+        <v>0.748568</v>
       </c>
       <c r="E62" t="n">
-        <v>1.31373</v>
+        <v>1.31278</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.50257</v>
+        <v>0.503184</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8882060000000001</v>
+        <v>1.01354</v>
       </c>
       <c r="D63" t="n">
-        <v>0.708914</v>
+        <v>0.734466</v>
       </c>
       <c r="E63" t="n">
-        <v>1.29195</v>
+        <v>1.29178</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.472907</v>
+        <v>0.501684</v>
       </c>
       <c r="C64" t="n">
-        <v>1.16903</v>
+        <v>1.00761</v>
       </c>
       <c r="D64" t="n">
-        <v>0.720615</v>
+        <v>0.698511</v>
       </c>
       <c r="E64" t="n">
-        <v>1.28063</v>
+        <v>1.27446</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.490573</v>
+        <v>0.468204</v>
       </c>
       <c r="C65" t="n">
-        <v>1.14393</v>
+        <v>1.00398</v>
       </c>
       <c r="D65" t="n">
-        <v>0.709028</v>
+        <v>0.710068</v>
       </c>
       <c r="E65" t="n">
-        <v>1.26212</v>
+        <v>1.26032</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.489482</v>
+        <v>0.489211</v>
       </c>
       <c r="C66" t="n">
-        <v>1.11813</v>
+        <v>1.00122</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07438</v>
+        <v>1.06282</v>
       </c>
       <c r="E66" t="n">
-        <v>1.6963</v>
+        <v>1.68656</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.732164</v>
+        <v>0.71992</v>
       </c>
       <c r="C67" t="n">
-        <v>1.07738</v>
+        <v>1.2107</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03854</v>
+        <v>1.02262</v>
       </c>
       <c r="E67" t="n">
-        <v>1.65479</v>
+        <v>1.65178</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7138370000000001</v>
+        <v>0.711292</v>
       </c>
       <c r="C68" t="n">
-        <v>1.05702</v>
+        <v>1.1957</v>
       </c>
       <c r="D68" t="n">
-        <v>1.01058</v>
+        <v>0.995383</v>
       </c>
       <c r="E68" t="n">
-        <v>1.62983</v>
+        <v>1.6161</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.694978</v>
+        <v>0.680242</v>
       </c>
       <c r="C69" t="n">
-        <v>1.03944</v>
+        <v>1.18117</v>
       </c>
       <c r="D69" t="n">
-        <v>0.984453</v>
+        <v>0.979097</v>
       </c>
       <c r="E69" t="n">
-        <v>1.59886</v>
+        <v>1.58425</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.684002</v>
+        <v>0.664461</v>
       </c>
       <c r="C70" t="n">
-        <v>1.02838</v>
+        <v>1.1655</v>
       </c>
       <c r="D70" t="n">
-        <v>0.957724</v>
+        <v>0.95256</v>
       </c>
       <c r="E70" t="n">
-        <v>1.56262</v>
+        <v>1.5536</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.678322</v>
+        <v>0.663816</v>
       </c>
       <c r="C71" t="n">
-        <v>1.00074</v>
+        <v>1.15774</v>
       </c>
       <c r="D71" t="n">
-        <v>0.931209</v>
+        <v>0.917407</v>
       </c>
       <c r="E71" t="n">
-        <v>1.53755</v>
+        <v>1.52993</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.657958</v>
+        <v>0.642245</v>
       </c>
       <c r="C72" t="n">
-        <v>0.992444</v>
+        <v>1.14551</v>
       </c>
       <c r="D72" t="n">
-        <v>0.906626</v>
+        <v>0.891861</v>
       </c>
       <c r="E72" t="n">
-        <v>1.51117</v>
+        <v>1.49854</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.649047</v>
+        <v>0.631221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.983565</v>
+        <v>1.1356</v>
       </c>
       <c r="D73" t="n">
-        <v>0.884086</v>
+        <v>0.8687550000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>1.4858</v>
+        <v>1.47657</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.630972</v>
+        <v>0.612611</v>
       </c>
       <c r="C74" t="n">
-        <v>0.969301</v>
+        <v>1.13227</v>
       </c>
       <c r="D74" t="n">
-        <v>0.861039</v>
+        <v>0.8474159999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>1.46984</v>
+        <v>1.45622</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.618595</v>
+        <v>0.600449</v>
       </c>
       <c r="C75" t="n">
-        <v>0.96752</v>
+        <v>1.12429</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8094209999999999</v>
+        <v>0.7957</v>
       </c>
       <c r="E75" t="n">
-        <v>1.45669</v>
+        <v>1.43111</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.605021</v>
+        <v>0.58872</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9625</v>
+        <v>1.12295</v>
       </c>
       <c r="D76" t="n">
-        <v>0.820333</v>
+        <v>0.80613</v>
       </c>
       <c r="E76" t="n">
-        <v>1.44194</v>
+        <v>1.42513</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.590489</v>
+        <v>0.585938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9532389999999999</v>
+        <v>1.13219</v>
       </c>
       <c r="D77" t="n">
-        <v>0.774873</v>
+        <v>0.789263</v>
       </c>
       <c r="E77" t="n">
-        <v>1.43146</v>
+        <v>1.4129</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.587827</v>
+        <v>0.57536</v>
       </c>
       <c r="C78" t="n">
-        <v>1.44627</v>
+        <v>0.818764</v>
       </c>
       <c r="D78" t="n">
-        <v>0.787848</v>
+        <v>0.773719</v>
       </c>
       <c r="E78" t="n">
-        <v>1.42196</v>
+        <v>1.40406</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.569068</v>
+        <v>0.567904</v>
       </c>
       <c r="C79" t="n">
-        <v>1.41551</v>
+        <v>1.15206</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7517740000000001</v>
+        <v>0.735781</v>
       </c>
       <c r="E79" t="n">
-        <v>1.432</v>
+        <v>1.40458</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.58066</v>
+        <v>0.5606100000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.38654</v>
+        <v>1.15163</v>
       </c>
       <c r="D80" t="n">
-        <v>1.15694</v>
+        <v>1.11063</v>
       </c>
       <c r="E80" t="n">
-        <v>2.20286</v>
+        <v>2.11803</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.81859</v>
+        <v>0.798297</v>
       </c>
       <c r="C81" t="n">
-        <v>1.34301</v>
+        <v>1.6338</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14199</v>
+        <v>1.09569</v>
       </c>
       <c r="E81" t="n">
-        <v>2.18027</v>
+        <v>2.10792</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.816319</v>
+        <v>0.7794489999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.32609</v>
+        <v>1.63186</v>
       </c>
       <c r="D82" t="n">
-        <v>1.11107</v>
+        <v>1.09426</v>
       </c>
       <c r="E82" t="n">
-        <v>2.16698</v>
+        <v>2.08701</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.804244</v>
+        <v>0.784871</v>
       </c>
       <c r="C83" t="n">
-        <v>1.31033</v>
+        <v>1.62952</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08964</v>
+        <v>1.05702</v>
       </c>
       <c r="E83" t="n">
-        <v>2.14317</v>
+        <v>2.05727</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.791389</v>
+        <v>0.768464</v>
       </c>
       <c r="C84" t="n">
-        <v>1.29923</v>
+        <v>1.63671</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07769</v>
+        <v>1.03275</v>
       </c>
       <c r="E84" t="n">
-        <v>2.13611</v>
+        <v>2.0517</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7846649999999999</v>
+        <v>0.747332</v>
       </c>
       <c r="C85" t="n">
-        <v>1.26327</v>
+        <v>1.64463</v>
       </c>
       <c r="D85" t="n">
-        <v>1.04295</v>
+        <v>1.00944</v>
       </c>
       <c r="E85" t="n">
-        <v>2.119</v>
+        <v>2.03769</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7666809999999999</v>
+        <v>0.737858</v>
       </c>
       <c r="C86" t="n">
-        <v>1.25236</v>
+        <v>1.65206</v>
       </c>
       <c r="D86" t="n">
-        <v>1.01711</v>
+        <v>0.9857900000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>2.11373</v>
+        <v>2.03087</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.759482</v>
+        <v>0.729392</v>
       </c>
       <c r="C87" t="n">
-        <v>1.25411</v>
+        <v>1.65985</v>
       </c>
       <c r="D87" t="n">
-        <v>0.993133</v>
+        <v>0.97694</v>
       </c>
       <c r="E87" t="n">
-        <v>2.10628</v>
+        <v>2.02242</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.746972</v>
+        <v>0.71932</v>
       </c>
       <c r="C88" t="n">
-        <v>1.24258</v>
+        <v>1.67762</v>
       </c>
       <c r="D88" t="n">
-        <v>0.969378</v>
+        <v>0.939563</v>
       </c>
       <c r="E88" t="n">
-        <v>2.08168</v>
+        <v>2.01278</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.730508</v>
+        <v>0.708075</v>
       </c>
       <c r="C89" t="n">
-        <v>1.24755</v>
+        <v>1.67936</v>
       </c>
       <c r="D89" t="n">
-        <v>0.94613</v>
+        <v>0.917789</v>
       </c>
       <c r="E89" t="n">
-        <v>2.08864</v>
+        <v>1.99884</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.728983</v>
+        <v>0.702469</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25385</v>
+        <v>1.68826</v>
       </c>
       <c r="D90" t="n">
-        <v>0.924713</v>
+        <v>0.896585</v>
       </c>
       <c r="E90" t="n">
-        <v>2.09774</v>
+        <v>1.99712</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.72001</v>
+        <v>0.695583</v>
       </c>
       <c r="C91" t="n">
-        <v>1.25509</v>
+        <v>1.63093</v>
       </c>
       <c r="D91" t="n">
-        <v>0.870833</v>
+        <v>0.876885</v>
       </c>
       <c r="E91" t="n">
-        <v>1.90497</v>
+        <v>1.99093</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7170299999999999</v>
+        <v>0.68876</v>
       </c>
       <c r="C92" t="n">
-        <v>2.69189</v>
+        <v>1.72844</v>
       </c>
       <c r="D92" t="n">
-        <v>0.886111</v>
+        <v>0.825525</v>
       </c>
       <c r="E92" t="n">
-        <v>2.10161</v>
+        <v>1.99425</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7015940000000001</v>
+        <v>0.67589</v>
       </c>
       <c r="C93" t="n">
-        <v>2.35437</v>
+        <v>1.73468</v>
       </c>
       <c r="D93" t="n">
-        <v>0.870183</v>
+        <v>0.846348</v>
       </c>
       <c r="E93" t="n">
-        <v>2.10903</v>
+        <v>2.0135</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.708259</v>
+        <v>0.67453</v>
       </c>
       <c r="C94" t="n">
-        <v>2.35197</v>
+        <v>1.74683</v>
       </c>
       <c r="D94" t="n">
-        <v>1.26065</v>
+        <v>1.22366</v>
       </c>
       <c r="E94" t="n">
-        <v>3.33834</v>
+        <v>3.11425</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.935677</v>
+        <v>0.8891250000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>2.40803</v>
+        <v>2.41104</v>
       </c>
       <c r="D95" t="n">
-        <v>1.2563</v>
+        <v>1.1897</v>
       </c>
       <c r="E95" t="n">
-        <v>3.30162</v>
+        <v>3.09195</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.957055</v>
+        <v>0.890402</v>
       </c>
       <c r="C96" t="n">
-        <v>2.40474</v>
+        <v>2.42692</v>
       </c>
       <c r="D96" t="n">
-        <v>1.24297</v>
+        <v>1.17678</v>
       </c>
       <c r="E96" t="n">
-        <v>3.25162</v>
+        <v>3.05479</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.920118</v>
+        <v>0.902797</v>
       </c>
       <c r="C97" t="n">
-        <v>2.54353</v>
+        <v>2.41564</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20259</v>
+        <v>1.18471</v>
       </c>
       <c r="E97" t="n">
-        <v>3.2196</v>
+        <v>3.0118</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.923035</v>
+        <v>0.890674</v>
       </c>
       <c r="C98" t="n">
-        <v>2.1611</v>
+        <v>2.40891</v>
       </c>
       <c r="D98" t="n">
-        <v>1.18344</v>
+        <v>1.16425</v>
       </c>
       <c r="E98" t="n">
-        <v>3.17438</v>
+        <v>2.97752</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.927176</v>
+        <v>0.8782</v>
       </c>
       <c r="C99" t="n">
-        <v>1.98957</v>
+        <v>2.40129</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16496</v>
+        <v>1.12196</v>
       </c>
       <c r="E99" t="n">
-        <v>3.14516</v>
+        <v>2.9323</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.917037</v>
+        <v>0.842761</v>
       </c>
       <c r="C100" t="n">
-        <v>1.82778</v>
+        <v>2.37575</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14606</v>
+        <v>1.10338</v>
       </c>
       <c r="E100" t="n">
-        <v>3.09799</v>
+        <v>2.88414</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.905453</v>
+        <v>0.833411</v>
       </c>
       <c r="C101" t="n">
-        <v>1.81291</v>
+        <v>2.37358</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08522</v>
+        <v>1.08622</v>
       </c>
       <c r="E101" t="n">
-        <v>3.03041</v>
+        <v>2.86367</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.830413</v>
+        <v>0.8422500000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>1.80125</v>
+        <v>2.37263</v>
       </c>
       <c r="D102" t="n">
-        <v>1.11301</v>
+        <v>1.06873</v>
       </c>
       <c r="E102" t="n">
-        <v>2.84068</v>
+        <v>2.83004</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.879242</v>
+        <v>0.8274629999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>1.80292</v>
+        <v>2.36278</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09636</v>
+        <v>1.05287</v>
       </c>
       <c r="E103" t="n">
-        <v>1.8804</v>
+        <v>2.80894</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.831704</v>
+        <v>0.821707</v>
       </c>
       <c r="C104" t="n">
-        <v>1.81295</v>
+        <v>2.33303</v>
       </c>
       <c r="D104" t="n">
-        <v>1.04584</v>
+        <v>1.03702</v>
       </c>
       <c r="E104" t="n">
-        <v>1.82996</v>
+        <v>1.73816</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.836932</v>
+        <v>0.796164</v>
       </c>
       <c r="C105" t="n">
-        <v>1.80752</v>
+        <v>2.32687</v>
       </c>
       <c r="D105" t="n">
-        <v>1.03421</v>
+        <v>1.02079</v>
       </c>
       <c r="E105" t="n">
-        <v>1.78626</v>
+        <v>1.70074</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.821861</v>
+        <v>0.785469</v>
       </c>
       <c r="C106" t="n">
-        <v>1.81386</v>
+        <v>1.2945</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02186</v>
+        <v>1.0083</v>
       </c>
       <c r="E106" t="n">
-        <v>1.74544</v>
+        <v>1.6637</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.838948</v>
+        <v>0.769605</v>
       </c>
       <c r="C107" t="n">
-        <v>3.20505</v>
+        <v>1.27307</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04142</v>
+        <v>0.998264</v>
       </c>
       <c r="E107" t="n">
-        <v>1.70886</v>
+        <v>2.67797</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.818188</v>
+        <v>0.796075</v>
       </c>
       <c r="C108" t="n">
-        <v>3.17993</v>
+        <v>2.32076</v>
       </c>
       <c r="D108" t="n">
-        <v>1.42868</v>
+        <v>1.37126</v>
       </c>
       <c r="E108" t="n">
-        <v>4.33148</v>
+        <v>4.01058</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.84688</v>
+        <v>0.79104</v>
       </c>
       <c r="C109" t="n">
-        <v>3.35138</v>
+        <v>2.33293</v>
       </c>
       <c r="D109" t="n">
-        <v>1.40024</v>
+        <v>1.36323</v>
       </c>
       <c r="E109" t="n">
-        <v>4.24503</v>
+        <v>3.92247</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.10199</v>
+        <v>1.03109</v>
       </c>
       <c r="C110" t="n">
-        <v>3.13276</v>
+        <v>3.03317</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38905</v>
+        <v>1.32547</v>
       </c>
       <c r="E110" t="n">
-        <v>4.1803</v>
+        <v>3.8727</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.08833</v>
+        <v>0.9865930000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>2.4998</v>
+        <v>3.01684</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38179</v>
+        <v>1.31569</v>
       </c>
       <c r="E111" t="n">
-        <v>4.11408</v>
+        <v>3.80653</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05991</v>
+        <v>0.982368</v>
       </c>
       <c r="C112" t="n">
-        <v>2.6897</v>
+        <v>3.00027</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37147</v>
+        <v>1.32909</v>
       </c>
       <c r="E112" t="n">
-        <v>4.04837</v>
+        <v>3.76411</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06145</v>
+        <v>0.990888</v>
       </c>
       <c r="C113" t="n">
-        <v>2.47096</v>
+        <v>2.98098</v>
       </c>
       <c r="D113" t="n">
-        <v>1.36459</v>
+        <v>1.29667</v>
       </c>
       <c r="E113" t="n">
-        <v>3.99467</v>
+        <v>3.6989</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03548</v>
+        <v>0.970279</v>
       </c>
       <c r="C114" t="n">
-        <v>2.44733</v>
+        <v>2.94997</v>
       </c>
       <c r="D114" t="n">
-        <v>1.35536</v>
+        <v>1.30854</v>
       </c>
       <c r="E114" t="n">
-        <v>3.95279</v>
+        <v>3.62992</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03245</v>
+        <v>0.960456</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42756</v>
+        <v>2.93353</v>
       </c>
       <c r="D115" t="n">
-        <v>1.34582</v>
+        <v>1.27583</v>
       </c>
       <c r="E115" t="n">
-        <v>3.87396</v>
+        <v>3.57313</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.01674</v>
+        <v>0.953438</v>
       </c>
       <c r="C116" t="n">
-        <v>2.43804</v>
+        <v>2.91211</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35896</v>
+        <v>1.28933</v>
       </c>
       <c r="E116" t="n">
-        <v>3.82973</v>
+        <v>3.53032</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.00391</v>
+        <v>0.940144</v>
       </c>
       <c r="C117" t="n">
-        <v>2.40396</v>
+        <v>2.90398</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33233</v>
+        <v>1.25932</v>
       </c>
       <c r="E117" t="n">
-        <v>3.33061</v>
+        <v>3.48769</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.00192</v>
+        <v>0.925886</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40639</v>
+        <v>2.89576</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28894</v>
+        <v>1.25151</v>
       </c>
       <c r="E118" t="n">
-        <v>3.05486</v>
+        <v>3.43194</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.983212</v>
+        <v>0.923098</v>
       </c>
       <c r="C119" t="n">
-        <v>2.40709</v>
+        <v>2.86686</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28544</v>
+        <v>1.24384</v>
       </c>
       <c r="E119" t="n">
-        <v>3.00935</v>
+        <v>3.39929</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.98787</v>
+        <v>0.929455</v>
       </c>
       <c r="C120" t="n">
-        <v>2.4083</v>
+        <v>2.86455</v>
       </c>
       <c r="D120" t="n">
-        <v>1.31382</v>
+        <v>1.23595</v>
       </c>
       <c r="E120" t="n">
-        <v>3.40985</v>
+        <v>3.35261</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.994581</v>
+        <v>0.919427</v>
       </c>
       <c r="C121" t="n">
-        <v>4.64889</v>
+        <v>2.86507</v>
       </c>
       <c r="D121" t="n">
-        <v>1.30755</v>
+        <v>1.2293</v>
       </c>
       <c r="E121" t="n">
-        <v>3.60776</v>
+        <v>3.32366</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.942757</v>
+        <v>0.890312</v>
       </c>
       <c r="C122" t="n">
-        <v>3.92915</v>
+        <v>1.62512</v>
       </c>
       <c r="D122" t="n">
-        <v>1.3009</v>
+        <v>1.22437</v>
       </c>
       <c r="E122" t="n">
-        <v>3.54972</v>
+        <v>3.28905</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.987025</v>
+        <v>0.91473</v>
       </c>
       <c r="C123" t="n">
-        <v>4.55799</v>
+        <v>1.60793</v>
       </c>
       <c r="D123" t="n">
-        <v>1.65891</v>
+        <v>1.56823</v>
       </c>
       <c r="E123" t="n">
-        <v>5.08304</v>
+        <v>4.66027</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.21629</v>
+        <v>1.15216</v>
       </c>
       <c r="C124" t="n">
-        <v>3.37449</v>
+        <v>3.57668</v>
       </c>
       <c r="D124" t="n">
-        <v>1.65083</v>
+        <v>1.55654</v>
       </c>
       <c r="E124" t="n">
-        <v>4.99528</v>
+        <v>4.58736</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.20361</v>
+        <v>1.14278</v>
       </c>
       <c r="C125" t="n">
-        <v>3.10894</v>
+        <v>3.56296</v>
       </c>
       <c r="D125" t="n">
-        <v>1.66636</v>
+        <v>1.57231</v>
       </c>
       <c r="E125" t="n">
-        <v>4.93193</v>
+        <v>4.50339</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1874</v>
+        <v>1.10047</v>
       </c>
       <c r="C126" t="n">
-        <v>3.31173</v>
+        <v>3.52507</v>
       </c>
       <c r="D126" t="n">
-        <v>1.63085</v>
+        <v>1.53941</v>
       </c>
       <c r="E126" t="n">
-        <v>4.83491</v>
+        <v>4.43163</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.20101</v>
+        <v>1.10056</v>
       </c>
       <c r="C127" t="n">
-        <v>3.05006</v>
+        <v>3.49122</v>
       </c>
       <c r="D127" t="n">
-        <v>1.64538</v>
+        <v>1.53001</v>
       </c>
       <c r="E127" t="n">
-        <v>4.77022</v>
+        <v>4.35658</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.17176</v>
+        <v>1.09984</v>
       </c>
       <c r="C128" t="n">
-        <v>3.50874</v>
+        <v>3.46675</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61354</v>
+        <v>1.52107</v>
       </c>
       <c r="E128" t="n">
-        <v>4.68203</v>
+        <v>4.2998</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.16167</v>
+        <v>1.08273</v>
       </c>
       <c r="C129" t="n">
-        <v>2.98228</v>
+        <v>3.45022</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60598</v>
+        <v>1.51436</v>
       </c>
       <c r="E129" t="n">
-        <v>4.61476</v>
+        <v>4.22331</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.16407</v>
+        <v>1.07754</v>
       </c>
       <c r="C130" t="n">
-        <v>2.96489</v>
+        <v>3.42058</v>
       </c>
       <c r="D130" t="n">
-        <v>1.598</v>
+        <v>1.50906</v>
       </c>
       <c r="E130" t="n">
-        <v>4.31294</v>
+        <v>4.16566</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.14762</v>
+        <v>1.07008</v>
       </c>
       <c r="C131" t="n">
-        <v>2.95917</v>
+        <v>3.40368</v>
       </c>
       <c r="D131" t="n">
-        <v>1.55857</v>
+        <v>1.49748</v>
       </c>
       <c r="E131" t="n">
-        <v>4.48985</v>
+        <v>4.11477</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.16608</v>
+        <v>1.06985</v>
       </c>
       <c r="C132" t="n">
-        <v>2.95316</v>
+        <v>3.38614</v>
       </c>
       <c r="D132" t="n">
-        <v>1.58614</v>
+        <v>1.49141</v>
       </c>
       <c r="E132" t="n">
-        <v>4.43787</v>
+        <v>4.05273</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.14394</v>
+        <v>1.06041</v>
       </c>
       <c r="C133" t="n">
-        <v>2.93566</v>
+        <v>3.35117</v>
       </c>
       <c r="D133" t="n">
-        <v>1.54667</v>
+        <v>1.48753</v>
       </c>
       <c r="E133" t="n">
-        <v>4.35832</v>
+        <v>4.00703</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.13816</v>
+        <v>1.0556</v>
       </c>
       <c r="C134" t="n">
-        <v>2.93595</v>
+        <v>3.34135</v>
       </c>
       <c r="D134" t="n">
-        <v>1.54613</v>
+        <v>1.48242</v>
       </c>
       <c r="E134" t="n">
-        <v>3.83827</v>
+        <v>3.96125</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.13075</v>
+        <v>1.05162</v>
       </c>
       <c r="C135" t="n">
-        <v>4.57946</v>
+        <v>3.32347</v>
       </c>
       <c r="D135" t="n">
-        <v>1.54324</v>
+        <v>1.44993</v>
       </c>
       <c r="E135" t="n">
-        <v>4.02629</v>
+        <v>3.46579</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.13294</v>
+        <v>1.04898</v>
       </c>
       <c r="C136" t="n">
-        <v>4.53159</v>
+        <v>3.31375</v>
       </c>
       <c r="D136" t="n">
-        <v>1.54003</v>
+        <v>1.44464</v>
       </c>
       <c r="E136" t="n">
-        <v>4.22461</v>
+        <v>3.65445</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.12262</v>
+        <v>1.04853</v>
       </c>
       <c r="C137" t="n">
-        <v>5.21313</v>
+        <v>3.30708</v>
       </c>
       <c r="D137" t="n">
-        <v>1.92482</v>
+        <v>1.81449</v>
       </c>
       <c r="E137" t="n">
-        <v>5.79264</v>
+        <v>5.29976</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35082</v>
+        <v>1.2842</v>
       </c>
       <c r="C138" t="n">
-        <v>4.4229</v>
+        <v>4.07171</v>
       </c>
       <c r="D138" t="n">
-        <v>1.91075</v>
+        <v>1.79606</v>
       </c>
       <c r="E138" t="n">
-        <v>5.70154</v>
+        <v>5.21277</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.35116</v>
+        <v>1.28085</v>
       </c>
       <c r="C139" t="n">
-        <v>3.86493</v>
+        <v>4.02835</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89534</v>
+        <v>1.78389</v>
       </c>
       <c r="E139" t="n">
-        <v>5.58888</v>
+        <v>5.11317</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.35837</v>
+        <v>1.24862</v>
       </c>
       <c r="C140" t="n">
-        <v>3.81707</v>
+        <v>3.98439</v>
       </c>
       <c r="D140" t="n">
-        <v>1.90447</v>
+        <v>1.79095</v>
       </c>
       <c r="E140" t="n">
-        <v>5.5074</v>
+        <v>5.01816</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35639</v>
+        <v>1.26198</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52056</v>
+        <v>3.94769</v>
       </c>
       <c r="D141" t="n">
-        <v>1.86873</v>
+        <v>1.77813</v>
       </c>
       <c r="E141" t="n">
-        <v>5.41212</v>
+        <v>4.93462</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34102</v>
+        <v>1.24614</v>
       </c>
       <c r="C142" t="n">
-        <v>3.4777</v>
+        <v>3.91262</v>
       </c>
       <c r="D142" t="n">
-        <v>1.85844</v>
+        <v>1.74276</v>
       </c>
       <c r="E142" t="n">
-        <v>5.11774</v>
+        <v>4.84054</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24845</v>
+        <v>1.24641</v>
       </c>
       <c r="C143" t="n">
-        <v>3.16468</v>
+        <v>3.86605</v>
       </c>
       <c r="D143" t="n">
-        <v>1.73729</v>
+        <v>1.73374</v>
       </c>
       <c r="E143" t="n">
-        <v>4.80046</v>
+        <v>4.7684</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.474993</v>
+        <v>0.474382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.815218</v>
+        <v>0.811419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.689269</v>
+        <v>0.688504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.971786</v>
+        <v>0.969903</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.458</v>
+        <v>0.457453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.807237</v>
+        <v>0.803893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.671123</v>
+        <v>0.671013</v>
       </c>
       <c r="E3" t="n">
-        <v>0.952756</v>
+        <v>0.949329</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444893</v>
+        <v>0.44315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.801091</v>
+        <v>0.793413</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6549199999999999</v>
+        <v>0.654619</v>
       </c>
       <c r="E4" t="n">
-        <v>0.934895</v>
+        <v>0.929675</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.440478</v>
+        <v>0.43736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790558</v>
+        <v>0.786614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.640106</v>
+        <v>0.639562</v>
       </c>
       <c r="E5" t="n">
-        <v>0.915497</v>
+        <v>0.912181</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.432934</v>
+        <v>0.428725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.78403</v>
+        <v>0.779709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625841</v>
+        <v>0.625487</v>
       </c>
       <c r="E6" t="n">
-        <v>0.89927</v>
+        <v>0.896243</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.424803</v>
+        <v>0.425533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8775579999999999</v>
+        <v>0.875474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.613861</v>
+        <v>0.613378</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8852179999999999</v>
+        <v>0.8836310000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.423203</v>
+        <v>0.421749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8628130000000001</v>
+        <v>0.858835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.60423</v>
+        <v>0.604078</v>
       </c>
       <c r="E8" t="n">
-        <v>0.873001</v>
+        <v>0.871583</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.376506</v>
+        <v>0.421821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.845854</v>
+        <v>0.843635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.914287</v>
+        <v>0.913386</v>
       </c>
       <c r="E9" t="n">
-        <v>1.19883</v>
+        <v>1.19742</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.564617</v>
+        <v>0.562055</v>
       </c>
       <c r="C10" t="n">
-        <v>0.832753</v>
+        <v>0.8307369999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.886363</v>
+        <v>0.885688</v>
       </c>
       <c r="E10" t="n">
-        <v>1.16861</v>
+        <v>1.16675</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.543158</v>
+        <v>0.5446220000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820617</v>
+        <v>0.815698</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858779</v>
+        <v>0.858183</v>
       </c>
       <c r="E11" t="n">
-        <v>1.14132</v>
+        <v>1.13915</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526905</v>
+        <v>0.527655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.806086</v>
+        <v>0.801512</v>
       </c>
       <c r="D12" t="n">
-        <v>0.833156</v>
+        <v>0.832317</v>
       </c>
       <c r="E12" t="n">
-        <v>1.11345</v>
+        <v>1.11135</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.512598</v>
+        <v>0.512356</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7910509999999999</v>
+        <v>0.788725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.808524</v>
+        <v>0.808223</v>
       </c>
       <c r="E13" t="n">
-        <v>1.08609</v>
+        <v>1.08279</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.498751</v>
+        <v>0.499333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.789879</v>
+        <v>0.78538</v>
       </c>
       <c r="D14" t="n">
-        <v>0.785569</v>
+        <v>0.785081</v>
       </c>
       <c r="E14" t="n">
-        <v>1.05948</v>
+        <v>1.05713</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.484627</v>
+        <v>0.481915</v>
       </c>
       <c r="C15" t="n">
-        <v>0.780571</v>
+        <v>0.775154</v>
       </c>
       <c r="D15" t="n">
-        <v>0.763287</v>
+        <v>0.76305</v>
       </c>
       <c r="E15" t="n">
-        <v>1.03477</v>
+        <v>1.0327</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.473294</v>
+        <v>0.472121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.76967</v>
+        <v>0.764309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.742389</v>
+        <v>0.742146</v>
       </c>
       <c r="E16" t="n">
-        <v>1.01131</v>
+        <v>1.00948</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460336</v>
+        <v>0.460909</v>
       </c>
       <c r="C17" t="n">
-        <v>0.761848</v>
+        <v>0.755162</v>
       </c>
       <c r="D17" t="n">
-        <v>0.723234</v>
+        <v>0.722701</v>
       </c>
       <c r="E17" t="n">
-        <v>1.02086</v>
+        <v>1.01733</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.449651</v>
+        <v>0.449207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.756659</v>
+        <v>0.750754</v>
       </c>
       <c r="D18" t="n">
-        <v>0.705071</v>
+        <v>0.704701</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999659</v>
+        <v>0.995529</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439331</v>
+        <v>0.440837</v>
       </c>
       <c r="C19" t="n">
-        <v>0.746068</v>
+        <v>0.742247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.688805</v>
+        <v>0.688414</v>
       </c>
       <c r="E19" t="n">
-        <v>0.981253</v>
+        <v>0.979914</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.433897</v>
+        <v>0.43354</v>
       </c>
       <c r="C20" t="n">
-        <v>0.740405</v>
+        <v>0.733422</v>
       </c>
       <c r="D20" t="n">
-        <v>0.673839</v>
+        <v>0.6735989999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.964358</v>
+        <v>0.961373</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.426003</v>
+        <v>0.425329</v>
       </c>
       <c r="C21" t="n">
-        <v>0.96058</v>
+        <v>0.953137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.661263</v>
+        <v>0.66055</v>
       </c>
       <c r="E21" t="n">
-        <v>0.953819</v>
+        <v>0.951332</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.423086</v>
+        <v>0.421076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.940925</v>
+        <v>0.934642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.651255</v>
+        <v>0.650213</v>
       </c>
       <c r="E22" t="n">
-        <v>0.94154</v>
+        <v>0.939051</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.41911</v>
+        <v>0.421701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.91989</v>
+        <v>0.923648</v>
       </c>
       <c r="D23" t="n">
-        <v>0.971222</v>
+        <v>0.970947</v>
       </c>
       <c r="E23" t="n">
-        <v>1.27307</v>
+        <v>1.27302</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5789</v>
+        <v>0.577522</v>
       </c>
       <c r="C24" t="n">
-        <v>0.902575</v>
+        <v>0.898295</v>
       </c>
       <c r="D24" t="n">
-        <v>0.94148</v>
+        <v>0.940605</v>
       </c>
       <c r="E24" t="n">
-        <v>1.24687</v>
+        <v>1.23541</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.561021</v>
+        <v>0.561602</v>
       </c>
       <c r="C25" t="n">
-        <v>0.890115</v>
+        <v>0.885914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.911406</v>
+        <v>0.911223</v>
       </c>
       <c r="E25" t="n">
-        <v>1.20739</v>
+        <v>1.20363</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.545228</v>
+        <v>0.543828</v>
       </c>
       <c r="C26" t="n">
-        <v>0.874737</v>
+        <v>0.8692220000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.883235</v>
+        <v>0.851949</v>
       </c>
       <c r="E26" t="n">
-        <v>1.18413</v>
+        <v>1.17962</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.52813</v>
+        <v>0.556648</v>
       </c>
       <c r="C27" t="n">
-        <v>0.860459</v>
+        <v>0.856244</v>
       </c>
       <c r="D27" t="n">
-        <v>0.856921</v>
+        <v>0.85636</v>
       </c>
       <c r="E27" t="n">
-        <v>1.15681</v>
+        <v>1.15202</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.539286</v>
+        <v>0.540627</v>
       </c>
       <c r="C28" t="n">
-        <v>0.848423</v>
+        <v>0.843116</v>
       </c>
       <c r="D28" t="n">
-        <v>0.831141</v>
+        <v>0.8308720000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>1.12742</v>
+        <v>1.12203</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.525073</v>
+        <v>0.5256999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.839693</v>
+        <v>0.834486</v>
       </c>
       <c r="D29" t="n">
-        <v>0.807335</v>
+        <v>0.806546</v>
       </c>
       <c r="E29" t="n">
-        <v>1.10257</v>
+        <v>1.10026</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.508881</v>
+        <v>0.483539</v>
       </c>
       <c r="C30" t="n">
-        <v>0.826697</v>
+        <v>0.824526</v>
       </c>
       <c r="D30" t="n">
-        <v>0.784428</v>
+        <v>0.75904</v>
       </c>
       <c r="E30" t="n">
-        <v>1.07721</v>
+        <v>1.0695</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498004</v>
+        <v>0.497006</v>
       </c>
       <c r="C31" t="n">
-        <v>0.817635</v>
+        <v>0.816171</v>
       </c>
       <c r="D31" t="n">
-        <v>0.762994</v>
+        <v>0.763473</v>
       </c>
       <c r="E31" t="n">
-        <v>1.05324</v>
+        <v>1.05075</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.461509</v>
+        <v>0.484536</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8125250000000001</v>
+        <v>0.809558</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7427859999999999</v>
+        <v>0.720226</v>
       </c>
       <c r="E32" t="n">
-        <v>1.03054</v>
+        <v>1.02371</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.47318</v>
+        <v>0.474168</v>
       </c>
       <c r="C33" t="n">
-        <v>0.803881</v>
+        <v>0.799843</v>
       </c>
       <c r="D33" t="n">
-        <v>0.724836</v>
+        <v>0.72462</v>
       </c>
       <c r="E33" t="n">
-        <v>1.01</v>
+        <v>1.00851</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.463717</v>
+        <v>0.442666</v>
       </c>
       <c r="C34" t="n">
-        <v>0.796658</v>
+        <v>0.792152</v>
       </c>
       <c r="D34" t="n">
-        <v>0.686987</v>
+        <v>0.707951</v>
       </c>
       <c r="E34" t="n">
-        <v>0.990532</v>
+        <v>0.98741</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455745</v>
+        <v>0.45559</v>
       </c>
       <c r="C35" t="n">
-        <v>1.03262</v>
+        <v>1.02746</v>
       </c>
       <c r="D35" t="n">
-        <v>0.673691</v>
+        <v>0.673125</v>
       </c>
       <c r="E35" t="n">
-        <v>0.972236</v>
+        <v>0.966734</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.45065</v>
+        <v>0.431389</v>
       </c>
       <c r="C36" t="n">
-        <v>1.01313</v>
+        <v>1.01085</v>
       </c>
       <c r="D36" t="n">
-        <v>0.680562</v>
+        <v>0.679787</v>
       </c>
       <c r="E36" t="n">
-        <v>0.956982</v>
+        <v>0.95504</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.430538</v>
+        <v>0.430727</v>
       </c>
       <c r="C37" t="n">
-        <v>0.995346</v>
+        <v>0.991331</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9877280000000001</v>
+        <v>1.00493</v>
       </c>
       <c r="E37" t="n">
-        <v>1.56194</v>
+        <v>1.56272</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.640713</v>
+        <v>0.639309</v>
       </c>
       <c r="C38" t="n">
-        <v>0.975254</v>
+        <v>0.9743579999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.95751</v>
+        <v>0.95601</v>
       </c>
       <c r="E38" t="n">
-        <v>1.52741</v>
+        <v>1.52554</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.621654</v>
+        <v>0.621178</v>
       </c>
       <c r="C39" t="n">
-        <v>0.956798</v>
+        <v>0.953902</v>
       </c>
       <c r="D39" t="n">
-        <v>0.927789</v>
+        <v>0.926903</v>
       </c>
       <c r="E39" t="n">
-        <v>1.49306</v>
+        <v>1.49255</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.587266</v>
+        <v>0.602886</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9417759999999999</v>
+        <v>0.9384980000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.899523</v>
+        <v>0.898477</v>
       </c>
       <c r="E40" t="n">
-        <v>1.45897</v>
+        <v>1.45803</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.57</v>
+        <v>0.570754</v>
       </c>
       <c r="C41" t="n">
-        <v>0.926477</v>
+        <v>0.923576</v>
       </c>
       <c r="D41" t="n">
-        <v>0.872849</v>
+        <v>0.87179</v>
       </c>
       <c r="E41" t="n">
-        <v>1.42782</v>
+        <v>1.4271</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.553677</v>
+        <v>0.554686</v>
       </c>
       <c r="C42" t="n">
-        <v>0.913524</v>
+        <v>0.912508</v>
       </c>
       <c r="D42" t="n">
-        <v>0.819663</v>
+        <v>0.818952</v>
       </c>
       <c r="E42" t="n">
-        <v>1.39819</v>
+        <v>1.39742</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.538862</v>
+        <v>0.552274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.900215</v>
+        <v>0.897309</v>
       </c>
       <c r="D43" t="n">
-        <v>0.823371</v>
+        <v>0.821885</v>
       </c>
       <c r="E43" t="n">
-        <v>1.37215</v>
+        <v>1.36963</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.523264</v>
+        <v>0.5229549999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.88788</v>
+        <v>0.8858780000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.799917</v>
+        <v>0.774738</v>
       </c>
       <c r="E44" t="n">
-        <v>1.34299</v>
+        <v>1.34248</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510858</v>
+        <v>0.511341</v>
       </c>
       <c r="C45" t="n">
-        <v>0.880252</v>
+        <v>0.878598</v>
       </c>
       <c r="D45" t="n">
-        <v>0.778356</v>
+        <v>0.777757</v>
       </c>
       <c r="E45" t="n">
-        <v>1.31904</v>
+        <v>1.31758</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498457</v>
+        <v>0.497675</v>
       </c>
       <c r="C46" t="n">
-        <v>0.869886</v>
+        <v>0.869254</v>
       </c>
       <c r="D46" t="n">
-        <v>0.757579</v>
+        <v>0.758076</v>
       </c>
       <c r="E46" t="n">
-        <v>1.29374</v>
+        <v>1.29288</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.488035</v>
+        <v>0.487916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.863117</v>
+        <v>0.8659790000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.738672</v>
+        <v>0.738286</v>
       </c>
       <c r="E47" t="n">
-        <v>1.27291</v>
+        <v>1.27173</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477585</v>
+        <v>0.477032</v>
       </c>
       <c r="C48" t="n">
-        <v>0.859088</v>
+        <v>0.85799</v>
       </c>
       <c r="D48" t="n">
-        <v>0.720774</v>
+        <v>0.719664</v>
       </c>
       <c r="E48" t="n">
-        <v>1.25219</v>
+        <v>1.2518</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.469955</v>
+        <v>0.469631</v>
       </c>
       <c r="C49" t="n">
-        <v>0.850454</v>
+        <v>0.848158</v>
       </c>
       <c r="D49" t="n">
-        <v>0.685927</v>
+        <v>0.706722</v>
       </c>
       <c r="E49" t="n">
-        <v>1.23342</v>
+        <v>1.23224</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.44365</v>
+        <v>0.461745</v>
       </c>
       <c r="C50" t="n">
-        <v>1.08072</v>
+        <v>1.07858</v>
       </c>
       <c r="D50" t="n">
-        <v>0.692597</v>
+        <v>0.693886</v>
       </c>
       <c r="E50" t="n">
-        <v>1.21631</v>
+        <v>1.2163</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.457514</v>
+        <v>0.457969</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05902</v>
+        <v>1.05735</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03047</v>
+        <v>1.01523</v>
       </c>
       <c r="E51" t="n">
-        <v>1.64046</v>
+        <v>1.63932</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.458122</v>
+        <v>0.439646</v>
       </c>
       <c r="C52" t="n">
-        <v>1.03898</v>
+        <v>1.03691</v>
       </c>
       <c r="D52" t="n">
-        <v>0.987463</v>
+        <v>0.99504</v>
       </c>
       <c r="E52" t="n">
-        <v>1.60242</v>
+        <v>1.60245</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6476690000000001</v>
+        <v>0.63182</v>
       </c>
       <c r="C53" t="n">
-        <v>1.01786</v>
+        <v>1.01832</v>
       </c>
       <c r="D53" t="n">
-        <v>0.957176</v>
+        <v>0.9673850000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>1.56611</v>
+        <v>1.56401</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.618563</v>
+        <v>0.618386</v>
       </c>
       <c r="C54" t="n">
-        <v>1.00212</v>
+        <v>1.00093</v>
       </c>
       <c r="D54" t="n">
-        <v>0.929321</v>
+        <v>0.926507</v>
       </c>
       <c r="E54" t="n">
-        <v>1.53489</v>
+        <v>1.52931</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.602707</v>
+        <v>0.608141</v>
       </c>
       <c r="C55" t="n">
-        <v>0.984695</v>
+        <v>0.9824889999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.900576</v>
+        <v>0.898795</v>
       </c>
       <c r="E55" t="n">
-        <v>1.49878</v>
+        <v>1.49726</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.58531</v>
+        <v>0.581269</v>
       </c>
       <c r="C56" t="n">
-        <v>0.96894</v>
+        <v>0.9690299999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.876501</v>
+        <v>0.8733</v>
       </c>
       <c r="E56" t="n">
-        <v>1.46734</v>
+        <v>1.46582</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.576833</v>
+        <v>0.570903</v>
       </c>
       <c r="C57" t="n">
-        <v>0.954472</v>
+        <v>0.954045</v>
       </c>
       <c r="D57" t="n">
-        <v>0.860691</v>
+        <v>0.860456</v>
       </c>
       <c r="E57" t="n">
-        <v>1.44217</v>
+        <v>1.43627</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.561046</v>
+        <v>0.556086</v>
       </c>
       <c r="C58" t="n">
-        <v>0.942837</v>
+        <v>0.9416</v>
       </c>
       <c r="D58" t="n">
-        <v>0.829102</v>
+        <v>0.826281</v>
       </c>
       <c r="E58" t="n">
-        <v>1.4068</v>
+        <v>1.40787</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.548152</v>
+        <v>0.541811</v>
       </c>
       <c r="C59" t="n">
-        <v>0.924361</v>
+        <v>0.923624</v>
       </c>
       <c r="D59" t="n">
-        <v>0.806995</v>
+        <v>0.805449</v>
       </c>
       <c r="E59" t="n">
-        <v>1.38164</v>
+        <v>1.38155</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.531655</v>
+        <v>0.5270899999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.915037</v>
+        <v>0.915207</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7857420000000001</v>
+        <v>0.758698</v>
       </c>
       <c r="E60" t="n">
-        <v>1.35923</v>
+        <v>1.35442</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.519366</v>
+        <v>0.515055</v>
       </c>
       <c r="C61" t="n">
-        <v>0.904999</v>
+        <v>0.904894</v>
       </c>
       <c r="D61" t="n">
-        <v>0.76742</v>
+        <v>0.740671</v>
       </c>
       <c r="E61" t="n">
-        <v>1.33291</v>
+        <v>1.33071</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.510574</v>
+        <v>0.50524</v>
       </c>
       <c r="C62" t="n">
-        <v>0.895809</v>
+        <v>0.895458</v>
       </c>
       <c r="D62" t="n">
-        <v>0.748754</v>
+        <v>0.724021</v>
       </c>
       <c r="E62" t="n">
-        <v>1.31373</v>
+        <v>1.30961</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.50257</v>
+        <v>0.497342</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8882060000000001</v>
+        <v>0.887153</v>
       </c>
       <c r="D63" t="n">
-        <v>0.708914</v>
+        <v>0.731221</v>
       </c>
       <c r="E63" t="n">
-        <v>1.29195</v>
+        <v>1.28896</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.472907</v>
+        <v>0.490404</v>
       </c>
       <c r="C64" t="n">
-        <v>1.16903</v>
+        <v>1.15181</v>
       </c>
       <c r="D64" t="n">
-        <v>0.720615</v>
+        <v>0.698975</v>
       </c>
       <c r="E64" t="n">
-        <v>1.28063</v>
+        <v>1.27119</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.490573</v>
+        <v>0.486043</v>
       </c>
       <c r="C65" t="n">
-        <v>1.14393</v>
+        <v>1.1271</v>
       </c>
       <c r="D65" t="n">
-        <v>0.709028</v>
+        <v>0.707887</v>
       </c>
       <c r="E65" t="n">
-        <v>1.26212</v>
+        <v>1.25514</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.489482</v>
+        <v>0.483577</v>
       </c>
       <c r="C66" t="n">
-        <v>1.11813</v>
+        <v>1.10133</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07438</v>
+        <v>1.0528</v>
       </c>
       <c r="E66" t="n">
-        <v>1.6963</v>
+        <v>1.67441</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.732164</v>
+        <v>0.699462</v>
       </c>
       <c r="C67" t="n">
-        <v>1.07738</v>
+        <v>1.0725</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03854</v>
+        <v>1.02197</v>
       </c>
       <c r="E67" t="n">
-        <v>1.65479</v>
+        <v>1.64009</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7138370000000001</v>
+        <v>0.68205</v>
       </c>
       <c r="C68" t="n">
-        <v>1.05702</v>
+        <v>1.04822</v>
       </c>
       <c r="D68" t="n">
-        <v>1.01058</v>
+        <v>0.981694</v>
       </c>
       <c r="E68" t="n">
-        <v>1.62983</v>
+        <v>1.60393</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.694978</v>
+        <v>0.670115</v>
       </c>
       <c r="C69" t="n">
-        <v>1.03944</v>
+        <v>1.03187</v>
       </c>
       <c r="D69" t="n">
-        <v>0.984453</v>
+        <v>0.956672</v>
       </c>
       <c r="E69" t="n">
-        <v>1.59886</v>
+        <v>1.57034</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.684002</v>
+        <v>0.652934</v>
       </c>
       <c r="C70" t="n">
-        <v>1.02838</v>
+        <v>1.01962</v>
       </c>
       <c r="D70" t="n">
-        <v>0.957724</v>
+        <v>0.931095</v>
       </c>
       <c r="E70" t="n">
-        <v>1.56262</v>
+        <v>1.54364</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.678322</v>
+        <v>0.644914</v>
       </c>
       <c r="C71" t="n">
-        <v>1.00074</v>
+        <v>0.996152</v>
       </c>
       <c r="D71" t="n">
-        <v>0.931209</v>
+        <v>0.906187</v>
       </c>
       <c r="E71" t="n">
-        <v>1.53755</v>
+        <v>1.51785</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.657958</v>
+        <v>0.633997</v>
       </c>
       <c r="C72" t="n">
-        <v>0.992444</v>
+        <v>0.986723</v>
       </c>
       <c r="D72" t="n">
-        <v>0.906626</v>
+        <v>0.883728</v>
       </c>
       <c r="E72" t="n">
-        <v>1.51117</v>
+        <v>1.49483</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.649047</v>
+        <v>0.6170099999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.983565</v>
+        <v>0.978757</v>
       </c>
       <c r="D73" t="n">
-        <v>0.884086</v>
+        <v>0.860222</v>
       </c>
       <c r="E73" t="n">
-        <v>1.4858</v>
+        <v>1.46962</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.630972</v>
+        <v>0.602487</v>
       </c>
       <c r="C74" t="n">
-        <v>0.969301</v>
+        <v>0.964359</v>
       </c>
       <c r="D74" t="n">
-        <v>0.861039</v>
+        <v>0.83616</v>
       </c>
       <c r="E74" t="n">
-        <v>1.46984</v>
+        <v>1.44728</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.618595</v>
+        <v>0.591888</v>
       </c>
       <c r="C75" t="n">
-        <v>0.96752</v>
+        <v>0.959405</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8094209999999999</v>
+        <v>0.816337</v>
       </c>
       <c r="E75" t="n">
-        <v>1.45669</v>
+        <v>1.43677</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.605021</v>
+        <v>0.585351</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9625</v>
+        <v>0.957731</v>
       </c>
       <c r="D76" t="n">
-        <v>0.820333</v>
+        <v>0.797689</v>
       </c>
       <c r="E76" t="n">
-        <v>1.44194</v>
+        <v>1.42203</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.590489</v>
+        <v>0.577959</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9532389999999999</v>
+        <v>0.947723</v>
       </c>
       <c r="D77" t="n">
-        <v>0.774873</v>
+        <v>0.7801</v>
       </c>
       <c r="E77" t="n">
-        <v>1.43146</v>
+        <v>1.41001</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.587827</v>
+        <v>0.56997</v>
       </c>
       <c r="C78" t="n">
-        <v>1.44627</v>
+        <v>1.40285</v>
       </c>
       <c r="D78" t="n">
-        <v>0.787848</v>
+        <v>0.738452</v>
       </c>
       <c r="E78" t="n">
-        <v>1.42196</v>
+        <v>1.39868</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.569068</v>
+        <v>0.556791</v>
       </c>
       <c r="C79" t="n">
-        <v>1.41551</v>
+        <v>1.37273</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7517740000000001</v>
+        <v>0.756499</v>
       </c>
       <c r="E79" t="n">
-        <v>1.432</v>
+        <v>1.39854</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.58066</v>
+        <v>0.556689</v>
       </c>
       <c r="C80" t="n">
-        <v>1.38654</v>
+        <v>1.34379</v>
       </c>
       <c r="D80" t="n">
-        <v>1.15694</v>
+        <v>1.12035</v>
       </c>
       <c r="E80" t="n">
-        <v>2.20286</v>
+        <v>2.10591</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.81859</v>
+        <v>0.7781940000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.34301</v>
+        <v>1.30773</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14199</v>
+        <v>1.08738</v>
       </c>
       <c r="E81" t="n">
-        <v>2.18027</v>
+        <v>2.09858</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.816319</v>
+        <v>0.781992</v>
       </c>
       <c r="C82" t="n">
-        <v>1.32609</v>
+        <v>1.28817</v>
       </c>
       <c r="D82" t="n">
-        <v>1.11107</v>
+        <v>1.06787</v>
       </c>
       <c r="E82" t="n">
-        <v>2.16698</v>
+        <v>2.07119</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.804244</v>
+        <v>0.76772</v>
       </c>
       <c r="C83" t="n">
-        <v>1.31033</v>
+        <v>1.2727</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08964</v>
+        <v>1.06007</v>
       </c>
       <c r="E83" t="n">
-        <v>2.14317</v>
+        <v>2.06476</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.791389</v>
+        <v>0.750826</v>
       </c>
       <c r="C84" t="n">
-        <v>1.29923</v>
+        <v>1.26126</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07769</v>
+        <v>1.03955</v>
       </c>
       <c r="E84" t="n">
-        <v>2.13611</v>
+        <v>2.04783</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7846649999999999</v>
+        <v>0.739922</v>
       </c>
       <c r="C85" t="n">
-        <v>1.26327</v>
+        <v>1.22358</v>
       </c>
       <c r="D85" t="n">
-        <v>1.04295</v>
+        <v>0.996393</v>
       </c>
       <c r="E85" t="n">
-        <v>2.119</v>
+        <v>2.03008</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7666809999999999</v>
+        <v>0.7385969999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>1.25236</v>
+        <v>1.2187</v>
       </c>
       <c r="D86" t="n">
-        <v>1.01711</v>
+        <v>0.972627</v>
       </c>
       <c r="E86" t="n">
-        <v>2.11373</v>
+        <v>2.00278</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.759482</v>
+        <v>0.723067</v>
       </c>
       <c r="C87" t="n">
-        <v>1.25411</v>
+        <v>1.21287</v>
       </c>
       <c r="D87" t="n">
-        <v>0.993133</v>
+        <v>0.9520110000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>2.10628</v>
+        <v>1.99318</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.746972</v>
+        <v>0.715363</v>
       </c>
       <c r="C88" t="n">
-        <v>1.24258</v>
+        <v>1.20711</v>
       </c>
       <c r="D88" t="n">
-        <v>0.969378</v>
+        <v>0.929324</v>
       </c>
       <c r="E88" t="n">
-        <v>2.08168</v>
+        <v>1.99263</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.730508</v>
+        <v>0.693507</v>
       </c>
       <c r="C89" t="n">
-        <v>1.24755</v>
+        <v>1.21545</v>
       </c>
       <c r="D89" t="n">
-        <v>0.94613</v>
+        <v>0.874951</v>
       </c>
       <c r="E89" t="n">
-        <v>2.08864</v>
+        <v>2.0028</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.728983</v>
+        <v>0.687914</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25385</v>
+        <v>1.21716</v>
       </c>
       <c r="D90" t="n">
-        <v>0.924713</v>
+        <v>0.888142</v>
       </c>
       <c r="E90" t="n">
-        <v>2.09774</v>
+        <v>1.9862</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.72001</v>
+        <v>0.686991</v>
       </c>
       <c r="C91" t="n">
-        <v>1.25509</v>
+        <v>1.21913</v>
       </c>
       <c r="D91" t="n">
-        <v>0.870833</v>
+        <v>0.870941</v>
       </c>
       <c r="E91" t="n">
-        <v>1.90497</v>
+        <v>2.00453</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7170299999999999</v>
+        <v>0.676272</v>
       </c>
       <c r="C92" t="n">
-        <v>2.69189</v>
+        <v>2.21907</v>
       </c>
       <c r="D92" t="n">
-        <v>0.886111</v>
+        <v>0.822994</v>
       </c>
       <c r="E92" t="n">
-        <v>2.10161</v>
+        <v>1.98846</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7015940000000001</v>
+        <v>0.673526</v>
       </c>
       <c r="C93" t="n">
-        <v>2.35437</v>
+        <v>2.22161</v>
       </c>
       <c r="D93" t="n">
-        <v>0.870183</v>
+        <v>0.811684</v>
       </c>
       <c r="E93" t="n">
-        <v>2.10903</v>
+        <v>1.98986</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.708259</v>
+        <v>0.657259</v>
       </c>
       <c r="C94" t="n">
-        <v>2.35197</v>
+        <v>2.21089</v>
       </c>
       <c r="D94" t="n">
-        <v>1.26065</v>
+        <v>1.21129</v>
       </c>
       <c r="E94" t="n">
-        <v>3.33834</v>
+        <v>3.13164</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.935677</v>
+        <v>0.8936269999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>2.40803</v>
+        <v>2.20287</v>
       </c>
       <c r="D95" t="n">
-        <v>1.2563</v>
+        <v>1.20113</v>
       </c>
       <c r="E95" t="n">
-        <v>3.30162</v>
+        <v>3.09115</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.957055</v>
+        <v>0.887533</v>
       </c>
       <c r="C96" t="n">
-        <v>2.40474</v>
+        <v>2.40194</v>
       </c>
       <c r="D96" t="n">
-        <v>1.24297</v>
+        <v>1.16269</v>
       </c>
       <c r="E96" t="n">
-        <v>3.25162</v>
+        <v>3.0519</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.920118</v>
+        <v>0.883804</v>
       </c>
       <c r="C97" t="n">
-        <v>2.54353</v>
+        <v>2.25164</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20259</v>
+        <v>1.14596</v>
       </c>
       <c r="E97" t="n">
-        <v>3.2196</v>
+        <v>3.00294</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.923035</v>
+        <v>0.875982</v>
       </c>
       <c r="C98" t="n">
-        <v>2.1611</v>
+        <v>2.10373</v>
       </c>
       <c r="D98" t="n">
-        <v>1.18344</v>
+        <v>1.14769</v>
       </c>
       <c r="E98" t="n">
-        <v>3.17438</v>
+        <v>2.95986</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.927176</v>
+        <v>0.864855</v>
       </c>
       <c r="C99" t="n">
-        <v>1.98957</v>
+        <v>2.03026</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16496</v>
+        <v>1.13129</v>
       </c>
       <c r="E99" t="n">
-        <v>3.14516</v>
+        <v>2.93085</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.917037</v>
+        <v>0.82447</v>
       </c>
       <c r="C100" t="n">
-        <v>1.82778</v>
+        <v>1.71513</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14606</v>
+        <v>1.05209</v>
       </c>
       <c r="E100" t="n">
-        <v>3.09799</v>
+        <v>2.87553</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.905453</v>
+        <v>0.848792</v>
       </c>
       <c r="C101" t="n">
-        <v>1.81291</v>
+        <v>1.70355</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08522</v>
+        <v>1.07498</v>
       </c>
       <c r="E101" t="n">
-        <v>3.03041</v>
+        <v>2.84098</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.830413</v>
+        <v>0.813775</v>
       </c>
       <c r="C102" t="n">
-        <v>1.80125</v>
+        <v>1.69783</v>
       </c>
       <c r="D102" t="n">
-        <v>1.11301</v>
+        <v>1.05703</v>
       </c>
       <c r="E102" t="n">
-        <v>2.84068</v>
+        <v>1.83029</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.879242</v>
+        <v>0.777517</v>
       </c>
       <c r="C103" t="n">
-        <v>1.80292</v>
+        <v>1.6993</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09636</v>
+        <v>1.03812</v>
       </c>
       <c r="E103" t="n">
-        <v>1.8804</v>
+        <v>1.78397</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.831704</v>
+        <v>0.765115</v>
       </c>
       <c r="C104" t="n">
-        <v>1.81295</v>
+        <v>1.70489</v>
       </c>
       <c r="D104" t="n">
-        <v>1.04584</v>
+        <v>1.02058</v>
       </c>
       <c r="E104" t="n">
-        <v>1.82996</v>
+        <v>1.73923</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.836932</v>
+        <v>0.765806</v>
       </c>
       <c r="C105" t="n">
-        <v>1.80752</v>
+        <v>1.69973</v>
       </c>
       <c r="D105" t="n">
-        <v>1.03421</v>
+        <v>0.9817630000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>1.78626</v>
+        <v>2.38519</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.821861</v>
+        <v>0.787496</v>
       </c>
       <c r="C106" t="n">
-        <v>1.81386</v>
+        <v>1.71184</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02186</v>
+        <v>0.968122</v>
       </c>
       <c r="E106" t="n">
-        <v>1.74544</v>
+        <v>1.65882</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.838948</v>
+        <v>0.766876</v>
       </c>
       <c r="C107" t="n">
-        <v>3.20505</v>
+        <v>2.96562</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04142</v>
+        <v>0.959692</v>
       </c>
       <c r="E107" t="n">
-        <v>1.70886</v>
+        <v>1.62648</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.818188</v>
+        <v>0.796064</v>
       </c>
       <c r="C108" t="n">
-        <v>3.17993</v>
+        <v>2.94523</v>
       </c>
       <c r="D108" t="n">
-        <v>1.42868</v>
+        <v>1.35049</v>
       </c>
       <c r="E108" t="n">
-        <v>4.33148</v>
+        <v>3.974</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.84688</v>
+        <v>0.792535</v>
       </c>
       <c r="C109" t="n">
-        <v>3.35138</v>
+        <v>2.91154</v>
       </c>
       <c r="D109" t="n">
-        <v>1.40024</v>
+        <v>1.3492</v>
       </c>
       <c r="E109" t="n">
-        <v>4.24503</v>
+        <v>3.91487</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.10199</v>
+        <v>1.01808</v>
       </c>
       <c r="C110" t="n">
-        <v>3.13276</v>
+        <v>2.53726</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38905</v>
+        <v>1.31522</v>
       </c>
       <c r="E110" t="n">
-        <v>4.1803</v>
+        <v>3.87032</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.08833</v>
+        <v>1.00296</v>
       </c>
       <c r="C111" t="n">
-        <v>2.4998</v>
+        <v>2.87572</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38179</v>
+        <v>1.33036</v>
       </c>
       <c r="E111" t="n">
-        <v>4.11408</v>
+        <v>3.78922</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05991</v>
+        <v>0.977529</v>
       </c>
       <c r="C112" t="n">
-        <v>2.6897</v>
+        <v>2.29623</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37147</v>
+        <v>1.29264</v>
       </c>
       <c r="E112" t="n">
-        <v>4.04837</v>
+        <v>3.74477</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06145</v>
+        <v>0.980069</v>
       </c>
       <c r="C113" t="n">
-        <v>2.47096</v>
+        <v>2.28078</v>
       </c>
       <c r="D113" t="n">
-        <v>1.36459</v>
+        <v>1.27961</v>
       </c>
       <c r="E113" t="n">
-        <v>3.99467</v>
+        <v>3.67221</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03548</v>
+        <v>0.952906</v>
       </c>
       <c r="C114" t="n">
-        <v>2.44733</v>
+        <v>2.46761</v>
       </c>
       <c r="D114" t="n">
-        <v>1.35536</v>
+        <v>1.27513</v>
       </c>
       <c r="E114" t="n">
-        <v>3.95279</v>
+        <v>3.62521</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03245</v>
+        <v>0.943807</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42756</v>
+        <v>2.27095</v>
       </c>
       <c r="D115" t="n">
-        <v>1.34582</v>
+        <v>1.25881</v>
       </c>
       <c r="E115" t="n">
-        <v>3.87396</v>
+        <v>3.56423</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.01674</v>
+        <v>0.935365</v>
       </c>
       <c r="C116" t="n">
-        <v>2.43804</v>
+        <v>2.25879</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35896</v>
+        <v>1.25421</v>
       </c>
       <c r="E116" t="n">
-        <v>3.82973</v>
+        <v>3.50461</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.00391</v>
+        <v>0.9467719999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>2.40396</v>
+        <v>2.22172</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33233</v>
+        <v>1.24937</v>
       </c>
       <c r="E117" t="n">
-        <v>3.33061</v>
+        <v>3.46201</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.00192</v>
+        <v>0.928898</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40639</v>
+        <v>2.23171</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28894</v>
+        <v>1.24172</v>
       </c>
       <c r="E118" t="n">
-        <v>3.05486</v>
+        <v>3.41815</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.983212</v>
+        <v>0.92238</v>
       </c>
       <c r="C119" t="n">
-        <v>2.40709</v>
+        <v>2.22886</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28544</v>
+        <v>1.23256</v>
       </c>
       <c r="E119" t="n">
-        <v>3.00935</v>
+        <v>3.16033</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.98787</v>
+        <v>0.912306</v>
       </c>
       <c r="C120" t="n">
-        <v>2.4083</v>
+        <v>2.21534</v>
       </c>
       <c r="D120" t="n">
-        <v>1.31382</v>
+        <v>1.22495</v>
       </c>
       <c r="E120" t="n">
-        <v>3.40985</v>
+        <v>3.15869</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.994581</v>
+        <v>0.910879</v>
       </c>
       <c r="C121" t="n">
-        <v>4.64889</v>
+        <v>3.65101</v>
       </c>
       <c r="D121" t="n">
-        <v>1.30755</v>
+        <v>1.19537</v>
       </c>
       <c r="E121" t="n">
-        <v>3.60776</v>
+        <v>3.09291</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.942757</v>
+        <v>0.901876</v>
       </c>
       <c r="C122" t="n">
-        <v>3.92915</v>
+        <v>3.5951</v>
       </c>
       <c r="D122" t="n">
-        <v>1.3009</v>
+        <v>1.18384</v>
       </c>
       <c r="E122" t="n">
-        <v>3.54972</v>
+        <v>3.05495</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.987025</v>
+        <v>0.911783</v>
       </c>
       <c r="C123" t="n">
-        <v>4.55799</v>
+        <v>4.16268</v>
       </c>
       <c r="D123" t="n">
-        <v>1.65891</v>
+        <v>1.55757</v>
       </c>
       <c r="E123" t="n">
-        <v>5.08304</v>
+        <v>4.63526</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.21629</v>
+        <v>1.136</v>
       </c>
       <c r="C124" t="n">
-        <v>3.37449</v>
+        <v>3.51103</v>
       </c>
       <c r="D124" t="n">
-        <v>1.65083</v>
+        <v>1.54956</v>
       </c>
       <c r="E124" t="n">
-        <v>4.99528</v>
+        <v>4.55566</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.20361</v>
+        <v>1.13633</v>
       </c>
       <c r="C125" t="n">
-        <v>3.10894</v>
+        <v>3.2636</v>
       </c>
       <c r="D125" t="n">
-        <v>1.66636</v>
+        <v>1.53407</v>
       </c>
       <c r="E125" t="n">
-        <v>4.93193</v>
+        <v>4.46437</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1874</v>
+        <v>1.10476</v>
       </c>
       <c r="C126" t="n">
-        <v>3.31173</v>
+        <v>3.03492</v>
       </c>
       <c r="D126" t="n">
-        <v>1.63085</v>
+        <v>1.52658</v>
       </c>
       <c r="E126" t="n">
-        <v>4.83491</v>
+        <v>4.40337</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.20101</v>
+        <v>1.08644</v>
       </c>
       <c r="C127" t="n">
-        <v>3.05006</v>
+        <v>2.80077</v>
       </c>
       <c r="D127" t="n">
-        <v>1.64538</v>
+        <v>1.51841</v>
       </c>
       <c r="E127" t="n">
-        <v>4.77022</v>
+        <v>4.33555</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.17176</v>
+        <v>1.10037</v>
       </c>
       <c r="C128" t="n">
-        <v>3.50874</v>
+        <v>2.78242</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61354</v>
+        <v>1.51314</v>
       </c>
       <c r="E128" t="n">
-        <v>4.68203</v>
+        <v>4.27314</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.16167</v>
+        <v>1.07204</v>
       </c>
       <c r="C129" t="n">
-        <v>2.98228</v>
+        <v>2.74079</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60598</v>
+        <v>1.50745</v>
       </c>
       <c r="E129" t="n">
-        <v>4.61476</v>
+        <v>4.21038</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.16407</v>
+        <v>1.07583</v>
       </c>
       <c r="C130" t="n">
-        <v>2.96489</v>
+        <v>2.73118</v>
       </c>
       <c r="D130" t="n">
-        <v>1.598</v>
+        <v>1.49577</v>
       </c>
       <c r="E130" t="n">
-        <v>4.31294</v>
+        <v>4.16101</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.14762</v>
+        <v>1.066</v>
       </c>
       <c r="C131" t="n">
-        <v>2.95917</v>
+        <v>2.71729</v>
       </c>
       <c r="D131" t="n">
-        <v>1.55857</v>
+        <v>1.48795</v>
       </c>
       <c r="E131" t="n">
-        <v>4.48985</v>
+        <v>4.08107</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.16608</v>
+        <v>1.07786</v>
       </c>
       <c r="C132" t="n">
-        <v>2.95316</v>
+        <v>2.70634</v>
       </c>
       <c r="D132" t="n">
-        <v>1.58614</v>
+        <v>1.48753</v>
       </c>
       <c r="E132" t="n">
-        <v>4.43787</v>
+        <v>3.60393</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.14394</v>
+        <v>1.05622</v>
       </c>
       <c r="C133" t="n">
-        <v>2.93566</v>
+        <v>2.694</v>
       </c>
       <c r="D133" t="n">
-        <v>1.54667</v>
+        <v>1.44714</v>
       </c>
       <c r="E133" t="n">
-        <v>4.35832</v>
+        <v>3.98543</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.13816</v>
+        <v>1.03832</v>
       </c>
       <c r="C134" t="n">
-        <v>2.93595</v>
+        <v>2.6971</v>
       </c>
       <c r="D134" t="n">
-        <v>1.54613</v>
+        <v>1.47054</v>
       </c>
       <c r="E134" t="n">
-        <v>3.83827</v>
+        <v>3.945</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.13075</v>
+        <v>1.04538</v>
       </c>
       <c r="C135" t="n">
-        <v>4.57946</v>
+        <v>4.19533</v>
       </c>
       <c r="D135" t="n">
-        <v>1.54324</v>
+        <v>1.44718</v>
       </c>
       <c r="E135" t="n">
-        <v>4.02629</v>
+        <v>3.23397</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.13294</v>
+        <v>1.04968</v>
       </c>
       <c r="C136" t="n">
-        <v>4.53159</v>
+        <v>4.14056</v>
       </c>
       <c r="D136" t="n">
-        <v>1.54003</v>
+        <v>1.44663</v>
       </c>
       <c r="E136" t="n">
-        <v>4.22461</v>
+        <v>2.97255</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.12262</v>
+        <v>1.05103</v>
       </c>
       <c r="C137" t="n">
-        <v>5.21313</v>
+        <v>4.07726</v>
       </c>
       <c r="D137" t="n">
-        <v>1.92482</v>
+        <v>1.82553</v>
       </c>
       <c r="E137" t="n">
-        <v>5.79264</v>
+        <v>5.30053</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35082</v>
+        <v>1.2653</v>
       </c>
       <c r="C138" t="n">
-        <v>4.4229</v>
+        <v>4.02779</v>
       </c>
       <c r="D138" t="n">
-        <v>1.91075</v>
+        <v>1.81127</v>
       </c>
       <c r="E138" t="n">
-        <v>5.70154</v>
+        <v>5.20834</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.35116</v>
+        <v>1.26165</v>
       </c>
       <c r="C139" t="n">
-        <v>3.86493</v>
+        <v>3.76497</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89534</v>
+        <v>1.77253</v>
       </c>
       <c r="E139" t="n">
-        <v>5.58888</v>
+        <v>5.10793</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.35837</v>
+        <v>1.25661</v>
       </c>
       <c r="C140" t="n">
-        <v>3.81707</v>
+        <v>3.71426</v>
       </c>
       <c r="D140" t="n">
-        <v>1.90447</v>
+        <v>1.75504</v>
       </c>
       <c r="E140" t="n">
-        <v>5.5074</v>
+        <v>5.00011</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35639</v>
+        <v>1.24642</v>
       </c>
       <c r="C141" t="n">
-        <v>3.52056</v>
+        <v>3.22164</v>
       </c>
       <c r="D141" t="n">
-        <v>1.86873</v>
+        <v>1.7485</v>
       </c>
       <c r="E141" t="n">
-        <v>5.41212</v>
+        <v>4.91495</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34102</v>
+        <v>1.23712</v>
       </c>
       <c r="C142" t="n">
-        <v>3.4777</v>
+        <v>3.16605</v>
       </c>
       <c r="D142" t="n">
-        <v>1.85844</v>
+        <v>1.73287</v>
       </c>
       <c r="E142" t="n">
-        <v>5.11774</v>
+        <v>4.8227</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24845</v>
+        <v>1.22932</v>
       </c>
       <c r="C143" t="n">
-        <v>3.16468</v>
+        <v>3.14062</v>
       </c>
       <c r="D143" t="n">
-        <v>1.73729</v>
+        <v>1.68392</v>
       </c>
       <c r="E143" t="n">
-        <v>4.80046</v>
+        <v>4.51885</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.474382</v>
+        <v>0.466523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.811419</v>
+        <v>0.715325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.688504</v>
+        <v>0.812654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.969903</v>
+        <v>0.688156</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.972807</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.457453</v>
+        <v>0.455933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.803893</v>
+        <v>0.702658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.671013</v>
+        <v>0.803207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.949329</v>
+        <v>0.671189</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.955387</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44315</v>
+        <v>0.442853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.793413</v>
+        <v>0.694408</v>
       </c>
       <c r="D4" t="n">
-        <v>0.654619</v>
+        <v>0.797326</v>
       </c>
       <c r="E4" t="n">
-        <v>0.929675</v>
+        <v>0.654633</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.934391</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.43736</v>
+        <v>0.435221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786614</v>
+        <v>0.685424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.639562</v>
+        <v>0.7904910000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.912181</v>
+        <v>0.639641</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9161280000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428725</v>
+        <v>0.425434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.779709</v>
+        <v>0.678352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625487</v>
+        <v>0.784442</v>
       </c>
       <c r="E6" t="n">
-        <v>0.896243</v>
+        <v>0.6254420000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.900767</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425533</v>
+        <v>0.423308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.875474</v>
+        <v>0.671589</v>
       </c>
       <c r="D7" t="n">
-        <v>0.613378</v>
+        <v>0.87719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8836310000000001</v>
+        <v>0.6139210000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.885722</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.421749</v>
+        <v>0.416434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.858835</v>
+        <v>0.667501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.604078</v>
+        <v>0.862063</v>
       </c>
       <c r="E8" t="n">
-        <v>0.871583</v>
+        <v>0.605078</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.875068</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.421821</v>
+        <v>0.416626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.843635</v>
+        <v>0.668075</v>
       </c>
       <c r="D9" t="n">
-        <v>0.913386</v>
+        <v>0.842822</v>
       </c>
       <c r="E9" t="n">
-        <v>1.19742</v>
+        <v>0.915864</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.20303</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.562055</v>
+        <v>0.561497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8307369999999999</v>
+        <v>0.810053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.885688</v>
+        <v>0.8333660000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>1.16675</v>
+        <v>0.886096</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.17459</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5446220000000001</v>
+        <v>0.537555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.815698</v>
+        <v>0.79601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.858183</v>
+        <v>0.818565</v>
       </c>
       <c r="E11" t="n">
-        <v>1.13915</v>
+        <v>0.859194</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.14445</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.527655</v>
+        <v>0.519192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.801512</v>
+        <v>0.776398</v>
       </c>
       <c r="D12" t="n">
-        <v>0.832317</v>
+        <v>0.804021</v>
       </c>
       <c r="E12" t="n">
-        <v>1.11135</v>
+        <v>0.833368</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.11576</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.512356</v>
+        <v>0.5056040000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.788725</v>
+        <v>0.7684609999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.808223</v>
+        <v>0.790752</v>
       </c>
       <c r="E13" t="n">
-        <v>1.08279</v>
+        <v>0.808397</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.08766</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.499333</v>
+        <v>0.490578</v>
       </c>
       <c r="C14" t="n">
-        <v>0.78538</v>
+        <v>0.755099</v>
       </c>
       <c r="D14" t="n">
-        <v>0.785081</v>
+        <v>0.787422</v>
       </c>
       <c r="E14" t="n">
-        <v>1.05713</v>
+        <v>0.785188</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.05929</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.481915</v>
+        <v>0.48267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.775154</v>
+        <v>0.7411180000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.76305</v>
+        <v>0.777156</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0327</v>
+        <v>0.763247</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.03626</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.472121</v>
+        <v>0.465171</v>
       </c>
       <c r="C16" t="n">
-        <v>0.764309</v>
+        <v>0.72284</v>
       </c>
       <c r="D16" t="n">
-        <v>0.742146</v>
+        <v>0.767494</v>
       </c>
       <c r="E16" t="n">
-        <v>1.00948</v>
+        <v>0.742527</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.01147</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460909</v>
+        <v>0.45834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.755162</v>
+        <v>0.715508</v>
       </c>
       <c r="D17" t="n">
-        <v>0.722701</v>
+        <v>0.7554920000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>1.01733</v>
+        <v>0.723449</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.01819</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.449207</v>
+        <v>0.448674</v>
       </c>
       <c r="C18" t="n">
-        <v>0.750754</v>
+        <v>0.705236</v>
       </c>
       <c r="D18" t="n">
-        <v>0.704701</v>
+        <v>0.75026</v>
       </c>
       <c r="E18" t="n">
-        <v>0.995529</v>
+        <v>0.705082</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.997892</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440837</v>
+        <v>0.435128</v>
       </c>
       <c r="C19" t="n">
-        <v>0.742247</v>
+        <v>0.709924</v>
       </c>
       <c r="D19" t="n">
-        <v>0.688414</v>
+        <v>0.742327</v>
       </c>
       <c r="E19" t="n">
-        <v>0.979914</v>
+        <v>0.688588</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.978554</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43354</v>
+        <v>0.427151</v>
       </c>
       <c r="C20" t="n">
-        <v>0.733422</v>
+        <v>0.701752</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6735989999999999</v>
+        <v>0.734954</v>
       </c>
       <c r="E20" t="n">
-        <v>0.961373</v>
+        <v>0.673969</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.963578</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.425329</v>
+        <v>0.4237</v>
       </c>
       <c r="C21" t="n">
-        <v>0.953137</v>
+        <v>0.697065</v>
       </c>
       <c r="D21" t="n">
-        <v>0.66055</v>
+        <v>0.953601</v>
       </c>
       <c r="E21" t="n">
-        <v>0.951332</v>
+        <v>0.661241</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9531230000000001</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.421076</v>
+        <v>0.420959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.934642</v>
+        <v>0.701815</v>
       </c>
       <c r="D22" t="n">
-        <v>0.650213</v>
+        <v>0.934075</v>
       </c>
       <c r="E22" t="n">
-        <v>0.939051</v>
+        <v>0.651145</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.940651</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.421701</v>
+        <v>0.416417</v>
       </c>
       <c r="C23" t="n">
-        <v>0.923648</v>
+        <v>0.673892</v>
       </c>
       <c r="D23" t="n">
-        <v>0.970947</v>
+        <v>0.917948</v>
       </c>
       <c r="E23" t="n">
-        <v>1.27302</v>
+        <v>0.970885</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.27514</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.577522</v>
+        <v>0.571928</v>
       </c>
       <c r="C24" t="n">
-        <v>0.898295</v>
+        <v>0.845348</v>
       </c>
       <c r="D24" t="n">
-        <v>0.940605</v>
+        <v>0.897452</v>
       </c>
       <c r="E24" t="n">
-        <v>1.23541</v>
+        <v>0.9404709999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.24526</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.561602</v>
+        <v>0.553863</v>
       </c>
       <c r="C25" t="n">
-        <v>0.885914</v>
+        <v>0.8294859999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.911223</v>
+        <v>0.88195</v>
       </c>
       <c r="E25" t="n">
-        <v>1.20363</v>
+        <v>0.911081</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.21013</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.543828</v>
+        <v>0.539083</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8692220000000001</v>
+        <v>0.813682</v>
       </c>
       <c r="D26" t="n">
-        <v>0.851949</v>
+        <v>0.868941</v>
       </c>
       <c r="E26" t="n">
-        <v>1.17962</v>
+        <v>0.883279</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.18422</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.556648</v>
+        <v>0.5225070000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.856244</v>
+        <v>0.799271</v>
       </c>
       <c r="D27" t="n">
-        <v>0.85636</v>
+        <v>0.854013</v>
       </c>
       <c r="E27" t="n">
-        <v>1.15202</v>
+        <v>0.856843</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.15746</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.540627</v>
+        <v>0.536757</v>
       </c>
       <c r="C28" t="n">
-        <v>0.843116</v>
+        <v>0.787237</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8308720000000001</v>
+        <v>0.839542</v>
       </c>
       <c r="E28" t="n">
-        <v>1.12203</v>
+        <v>0.831133</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.1291</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5256999999999999</v>
+        <v>0.522329</v>
       </c>
       <c r="C29" t="n">
-        <v>0.834486</v>
+        <v>0.770926</v>
       </c>
       <c r="D29" t="n">
-        <v>0.806546</v>
+        <v>0.836018</v>
       </c>
       <c r="E29" t="n">
-        <v>1.10026</v>
+        <v>0.780362</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.10571</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.483539</v>
+        <v>0.507773</v>
       </c>
       <c r="C30" t="n">
-        <v>0.824526</v>
+        <v>0.757167</v>
       </c>
       <c r="D30" t="n">
-        <v>0.75904</v>
+        <v>0.824927</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0695</v>
+        <v>0.784245</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.07976</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497006</v>
+        <v>0.495307</v>
       </c>
       <c r="C31" t="n">
-        <v>0.816171</v>
+        <v>0.743772</v>
       </c>
       <c r="D31" t="n">
-        <v>0.763473</v>
+        <v>0.815076</v>
       </c>
       <c r="E31" t="n">
-        <v>1.05075</v>
+        <v>0.738596</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.05408</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.484536</v>
+        <v>0.458896</v>
       </c>
       <c r="C32" t="n">
-        <v>0.809558</v>
+        <v>0.754302</v>
       </c>
       <c r="D32" t="n">
-        <v>0.720226</v>
+        <v>0.809397</v>
       </c>
       <c r="E32" t="n">
-        <v>1.02371</v>
+        <v>0.719948</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.0302</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.474168</v>
+        <v>0.472879</v>
       </c>
       <c r="C33" t="n">
-        <v>0.799843</v>
+        <v>0.744984</v>
       </c>
       <c r="D33" t="n">
-        <v>0.72462</v>
+        <v>0.800006</v>
       </c>
       <c r="E33" t="n">
-        <v>1.00851</v>
+        <v>0.702439</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.01195</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.442666</v>
+        <v>0.463064</v>
       </c>
       <c r="C34" t="n">
-        <v>0.792152</v>
+        <v>0.738341</v>
       </c>
       <c r="D34" t="n">
-        <v>0.707951</v>
+        <v>0.792276</v>
       </c>
       <c r="E34" t="n">
-        <v>0.98741</v>
+        <v>0.707153</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.990563</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.45559</v>
+        <v>0.454864</v>
       </c>
       <c r="C35" t="n">
-        <v>1.02746</v>
+        <v>0.731866</v>
       </c>
       <c r="D35" t="n">
-        <v>0.673125</v>
+        <v>1.03001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.966734</v>
+        <v>0.672643</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.971835</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.431389</v>
+        <v>0.429651</v>
       </c>
       <c r="C36" t="n">
-        <v>1.01085</v>
+        <v>0.727488</v>
       </c>
       <c r="D36" t="n">
-        <v>0.679787</v>
+        <v>1.00407</v>
       </c>
       <c r="E36" t="n">
-        <v>0.95504</v>
+        <v>0.661547</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.959094</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.430727</v>
+        <v>0.446982</v>
       </c>
       <c r="C37" t="n">
-        <v>0.991331</v>
+        <v>0.7268019999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00493</v>
+        <v>0.988717</v>
       </c>
       <c r="E37" t="n">
-        <v>1.56272</v>
+        <v>0.987537</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.56748</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.639309</v>
+        <v>0.622708</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9743579999999999</v>
+        <v>1.1049</v>
       </c>
       <c r="D38" t="n">
-        <v>0.95601</v>
+        <v>0.967469</v>
       </c>
       <c r="E38" t="n">
-        <v>1.52554</v>
+        <v>0.957313</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.53149</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.621178</v>
+        <v>0.621949</v>
       </c>
       <c r="C39" t="n">
-        <v>0.953902</v>
+        <v>1.08775</v>
       </c>
       <c r="D39" t="n">
-        <v>0.926903</v>
+        <v>0.955481</v>
       </c>
       <c r="E39" t="n">
-        <v>1.49255</v>
+        <v>0.926924</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.49696</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602886</v>
+        <v>0.601002</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9384980000000001</v>
+        <v>1.07217</v>
       </c>
       <c r="D40" t="n">
-        <v>0.898477</v>
+        <v>0.939435</v>
       </c>
       <c r="E40" t="n">
-        <v>1.45803</v>
+        <v>0.898756</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.46477</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.570754</v>
+        <v>0.569967</v>
       </c>
       <c r="C41" t="n">
-        <v>0.923576</v>
+        <v>1.05608</v>
       </c>
       <c r="D41" t="n">
-        <v>0.87179</v>
+        <v>0.921578</v>
       </c>
       <c r="E41" t="n">
-        <v>1.4271</v>
+        <v>0.872807</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.43183</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.554686</v>
+        <v>0.551489</v>
       </c>
       <c r="C42" t="n">
-        <v>0.912508</v>
+        <v>1.04236</v>
       </c>
       <c r="D42" t="n">
-        <v>0.818952</v>
+        <v>0.91099</v>
       </c>
       <c r="E42" t="n">
-        <v>1.39742</v>
+        <v>0.846095</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.40265</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.552274</v>
+        <v>0.537344</v>
       </c>
       <c r="C43" t="n">
-        <v>0.897309</v>
+        <v>1.02863</v>
       </c>
       <c r="D43" t="n">
-        <v>0.821885</v>
+        <v>0.8987579999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>1.36963</v>
+        <v>0.8231540000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.37371</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5229549999999999</v>
+        <v>0.524572</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8858780000000001</v>
+        <v>1.01602</v>
       </c>
       <c r="D44" t="n">
-        <v>0.774738</v>
+        <v>0.885561</v>
       </c>
       <c r="E44" t="n">
-        <v>1.34248</v>
+        <v>0.800146</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.34612</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.511341</v>
+        <v>0.524307</v>
       </c>
       <c r="C45" t="n">
-        <v>0.878598</v>
+        <v>1.00398</v>
       </c>
       <c r="D45" t="n">
-        <v>0.777757</v>
+        <v>0.87803</v>
       </c>
       <c r="E45" t="n">
-        <v>1.31758</v>
+        <v>0.778475</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.32131</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.497675</v>
+        <v>0.512222</v>
       </c>
       <c r="C46" t="n">
-        <v>0.869254</v>
+        <v>0.9927319999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.758076</v>
+        <v>0.866787</v>
       </c>
       <c r="E46" t="n">
-        <v>1.29288</v>
+        <v>0.757394</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.2978</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487916</v>
+        <v>0.486069</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8659790000000001</v>
+        <v>0.984656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.738286</v>
+        <v>0.863941</v>
       </c>
       <c r="E47" t="n">
-        <v>1.27173</v>
+        <v>0.739231</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.27539</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477032</v>
+        <v>0.477473</v>
       </c>
       <c r="C48" t="n">
-        <v>0.85799</v>
+        <v>0.974503</v>
       </c>
       <c r="D48" t="n">
-        <v>0.719664</v>
+        <v>0.856989</v>
       </c>
       <c r="E48" t="n">
-        <v>1.2518</v>
+        <v>0.7218909999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.2553</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.469631</v>
+        <v>0.471239</v>
       </c>
       <c r="C49" t="n">
-        <v>0.848158</v>
+        <v>0.9656130000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.706722</v>
+        <v>0.849122</v>
       </c>
       <c r="E49" t="n">
-        <v>1.23224</v>
+        <v>0.686483</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.23574</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461745</v>
+        <v>0.444365</v>
       </c>
       <c r="C50" t="n">
-        <v>1.07858</v>
+        <v>0.9586440000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.693886</v>
+        <v>1.07976</v>
       </c>
       <c r="E50" t="n">
-        <v>1.2163</v>
+        <v>0.673677</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.21946</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.457969</v>
+        <v>0.460438</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05735</v>
+        <v>0.954211</v>
       </c>
       <c r="D51" t="n">
-        <v>1.01523</v>
+        <v>1.05769</v>
       </c>
       <c r="E51" t="n">
-        <v>1.63932</v>
+        <v>1.01964</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.64434</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.439646</v>
+        <v>0.467441</v>
       </c>
       <c r="C52" t="n">
-        <v>1.03691</v>
+        <v>0.952003</v>
       </c>
       <c r="D52" t="n">
-        <v>0.99504</v>
+        <v>1.03874</v>
       </c>
       <c r="E52" t="n">
-        <v>1.60245</v>
+        <v>0.989211</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.60661</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.63182</v>
+        <v>0.651847</v>
       </c>
       <c r="C53" t="n">
-        <v>1.01832</v>
+        <v>1.14108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9673850000000001</v>
+        <v>1.01746</v>
       </c>
       <c r="E53" t="n">
-        <v>1.56401</v>
+        <v>0.970007</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.57105</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.618386</v>
+        <v>0.6228669999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>1.00093</v>
+        <v>1.12353</v>
       </c>
       <c r="D54" t="n">
-        <v>0.926507</v>
+        <v>1.00145</v>
       </c>
       <c r="E54" t="n">
-        <v>1.52931</v>
+        <v>0.931221</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.53571</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.608141</v>
+        <v>0.60915</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9824889999999999</v>
+        <v>1.10605</v>
       </c>
       <c r="D55" t="n">
-        <v>0.898795</v>
+        <v>0.983618</v>
       </c>
       <c r="E55" t="n">
-        <v>1.49726</v>
+        <v>0.9047770000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.50181</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.581269</v>
+        <v>0.588229</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9690299999999999</v>
+        <v>1.09198</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8733</v>
+        <v>0.968014</v>
       </c>
       <c r="E56" t="n">
-        <v>1.46582</v>
+        <v>0.879945</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.47019</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.570903</v>
+        <v>0.5735479999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.954045</v>
+        <v>1.07813</v>
       </c>
       <c r="D57" t="n">
-        <v>0.860456</v>
+        <v>0.952748</v>
       </c>
       <c r="E57" t="n">
-        <v>1.43627</v>
+        <v>0.854274</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.43883</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.556086</v>
+        <v>0.565782</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9416</v>
+        <v>1.06477</v>
       </c>
       <c r="D58" t="n">
-        <v>0.826281</v>
+        <v>0.940292</v>
       </c>
       <c r="E58" t="n">
-        <v>1.40787</v>
+        <v>0.829562</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.41104</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.541811</v>
+        <v>0.546644</v>
       </c>
       <c r="C59" t="n">
-        <v>0.923624</v>
+        <v>1.05147</v>
       </c>
       <c r="D59" t="n">
-        <v>0.805449</v>
+        <v>0.9248189999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>1.38155</v>
+        <v>0.813141</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.38567</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5270899999999999</v>
+        <v>0.541488</v>
       </c>
       <c r="C60" t="n">
-        <v>0.915207</v>
+        <v>1.03957</v>
       </c>
       <c r="D60" t="n">
-        <v>0.758698</v>
+        <v>0.915785</v>
       </c>
       <c r="E60" t="n">
-        <v>1.35442</v>
+        <v>0.794461</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.35878</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.515055</v>
+        <v>0.5347460000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.904894</v>
+        <v>1.03052</v>
       </c>
       <c r="D61" t="n">
-        <v>0.740671</v>
+        <v>0.9055260000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>1.33071</v>
+        <v>0.742443</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.33426</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.50524</v>
+        <v>0.511142</v>
       </c>
       <c r="C62" t="n">
-        <v>0.895458</v>
+        <v>1.02185</v>
       </c>
       <c r="D62" t="n">
-        <v>0.724021</v>
+        <v>0.896245</v>
       </c>
       <c r="E62" t="n">
-        <v>1.30961</v>
+        <v>0.751501</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.31443</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.497342</v>
+        <v>0.504162</v>
       </c>
       <c r="C63" t="n">
-        <v>0.887153</v>
+        <v>1.01408</v>
       </c>
       <c r="D63" t="n">
-        <v>0.731221</v>
+        <v>0.887868</v>
       </c>
       <c r="E63" t="n">
-        <v>1.28896</v>
+        <v>0.7126</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.2933</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.490404</v>
+        <v>0.474805</v>
       </c>
       <c r="C64" t="n">
-        <v>1.15181</v>
+        <v>1.00807</v>
       </c>
       <c r="D64" t="n">
-        <v>0.698975</v>
+        <v>1.16016</v>
       </c>
       <c r="E64" t="n">
-        <v>1.27119</v>
+        <v>0.72075</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.27517</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.486043</v>
+        <v>0.497098</v>
       </c>
       <c r="C65" t="n">
-        <v>1.1271</v>
+        <v>1.00172</v>
       </c>
       <c r="D65" t="n">
-        <v>0.707887</v>
+        <v>1.13552</v>
       </c>
       <c r="E65" t="n">
-        <v>1.25514</v>
+        <v>0.715597</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.2609</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.483577</v>
+        <v>0.468031</v>
       </c>
       <c r="C66" t="n">
-        <v>1.10133</v>
+        <v>1.00177</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0528</v>
+        <v>1.10627</v>
       </c>
       <c r="E66" t="n">
-        <v>1.67441</v>
+        <v>1.05249</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.68806</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.699462</v>
+        <v>0.725185</v>
       </c>
       <c r="C67" t="n">
-        <v>1.0725</v>
+        <v>1.21075</v>
       </c>
       <c r="D67" t="n">
-        <v>1.02197</v>
+        <v>1.07563</v>
       </c>
       <c r="E67" t="n">
-        <v>1.64009</v>
+        <v>1.02538</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.6491</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.68205</v>
+        <v>0.709809</v>
       </c>
       <c r="C68" t="n">
-        <v>1.04822</v>
+        <v>1.19297</v>
       </c>
       <c r="D68" t="n">
-        <v>0.981694</v>
+        <v>1.05871</v>
       </c>
       <c r="E68" t="n">
-        <v>1.60393</v>
+        <v>0.996387</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.62024</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.670115</v>
+        <v>0.693848</v>
       </c>
       <c r="C69" t="n">
-        <v>1.03187</v>
+        <v>1.18295</v>
       </c>
       <c r="D69" t="n">
-        <v>0.956672</v>
+        <v>1.04284</v>
       </c>
       <c r="E69" t="n">
-        <v>1.57034</v>
+        <v>0.983529</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.58436</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.652934</v>
+        <v>0.6760659999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>1.01962</v>
+        <v>1.16653</v>
       </c>
       <c r="D70" t="n">
-        <v>0.931095</v>
+        <v>1.02918</v>
       </c>
       <c r="E70" t="n">
-        <v>1.54364</v>
+        <v>0.946379</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.55373</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.644914</v>
+        <v>0.66918</v>
       </c>
       <c r="C71" t="n">
-        <v>0.996152</v>
+        <v>1.15688</v>
       </c>
       <c r="D71" t="n">
-        <v>0.906187</v>
+        <v>0.99592</v>
       </c>
       <c r="E71" t="n">
-        <v>1.51785</v>
+        <v>0.923597</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.5283</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.633997</v>
+        <v>0.648173</v>
       </c>
       <c r="C72" t="n">
-        <v>0.986723</v>
+        <v>1.15239</v>
       </c>
       <c r="D72" t="n">
-        <v>0.883728</v>
+        <v>0.990359</v>
       </c>
       <c r="E72" t="n">
-        <v>1.49483</v>
+        <v>0.8577399999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.50892</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6170099999999999</v>
+        <v>0.629175</v>
       </c>
       <c r="C73" t="n">
-        <v>0.978757</v>
+        <v>1.14955</v>
       </c>
       <c r="D73" t="n">
-        <v>0.860222</v>
+        <v>0.981974</v>
       </c>
       <c r="E73" t="n">
-        <v>1.46962</v>
+        <v>0.874769</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.48569</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.602487</v>
+        <v>0.624393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.964359</v>
+        <v>1.13905</v>
       </c>
       <c r="D74" t="n">
-        <v>0.83616</v>
+        <v>0.965881</v>
       </c>
       <c r="E74" t="n">
-        <v>1.44728</v>
+        <v>0.817844</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.46459</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.591888</v>
+        <v>0.607129</v>
       </c>
       <c r="C75" t="n">
-        <v>0.959405</v>
+        <v>1.1434</v>
       </c>
       <c r="D75" t="n">
-        <v>0.816337</v>
+        <v>0.964239</v>
       </c>
       <c r="E75" t="n">
-        <v>1.43677</v>
+        <v>0.831936</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.44644</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.585351</v>
+        <v>0.578894</v>
       </c>
       <c r="C76" t="n">
-        <v>0.957731</v>
+        <v>1.13079</v>
       </c>
       <c r="D76" t="n">
-        <v>0.797689</v>
+        <v>0.957897</v>
       </c>
       <c r="E76" t="n">
-        <v>1.42203</v>
+        <v>0.77899</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.424</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.577959</v>
+        <v>0.5782389999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.947723</v>
+        <v>1.13694</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7801</v>
+        <v>0.949241</v>
       </c>
       <c r="E77" t="n">
-        <v>1.41001</v>
+        <v>0.796523</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.41455</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.56997</v>
+        <v>0.578391</v>
       </c>
       <c r="C78" t="n">
-        <v>1.40285</v>
+        <v>1.14205</v>
       </c>
       <c r="D78" t="n">
-        <v>0.738452</v>
+        <v>1.4048</v>
       </c>
       <c r="E78" t="n">
-        <v>1.39868</v>
+        <v>0.777938</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.40637</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.556791</v>
+        <v>0.543123</v>
       </c>
       <c r="C79" t="n">
-        <v>1.37273</v>
+        <v>1.14723</v>
       </c>
       <c r="D79" t="n">
-        <v>0.756499</v>
+        <v>1.37766</v>
       </c>
       <c r="E79" t="n">
-        <v>1.39854</v>
+        <v>0.766514</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.40816</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.556689</v>
+        <v>0.5679920000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.34379</v>
+        <v>1.17588</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12035</v>
+        <v>1.351</v>
       </c>
       <c r="E80" t="n">
-        <v>2.10591</v>
+        <v>1.13232</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.13623</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7781940000000001</v>
+        <v>0.796955</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30773</v>
+        <v>1.62999</v>
       </c>
       <c r="D81" t="n">
-        <v>1.08738</v>
+        <v>1.31481</v>
       </c>
       <c r="E81" t="n">
-        <v>2.09858</v>
+        <v>1.11369</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.1344</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.781992</v>
+        <v>0.771536</v>
       </c>
       <c r="C82" t="n">
-        <v>1.28817</v>
+        <v>1.65061</v>
       </c>
       <c r="D82" t="n">
-        <v>1.06787</v>
+        <v>1.29151</v>
       </c>
       <c r="E82" t="n">
-        <v>2.07119</v>
+        <v>1.09142</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.10134</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.76772</v>
+        <v>0.782282</v>
       </c>
       <c r="C83" t="n">
-        <v>1.2727</v>
+        <v>1.64413</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06007</v>
+        <v>1.27862</v>
       </c>
       <c r="E83" t="n">
-        <v>2.06476</v>
+        <v>1.05113</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.0747</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.750826</v>
+        <v>0.7629</v>
       </c>
       <c r="C84" t="n">
-        <v>1.26126</v>
+        <v>1.65131</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03955</v>
+        <v>1.26197</v>
       </c>
       <c r="E84" t="n">
-        <v>2.04783</v>
+        <v>1.0443</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.05472</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.739922</v>
+        <v>0.7587390000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>1.22358</v>
+        <v>1.65236</v>
       </c>
       <c r="D85" t="n">
-        <v>0.996393</v>
+        <v>1.22668</v>
       </c>
       <c r="E85" t="n">
-        <v>2.03008</v>
+        <v>1.00338</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.03786</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7385969999999999</v>
+        <v>0.750146</v>
       </c>
       <c r="C86" t="n">
-        <v>1.2187</v>
+        <v>1.66105</v>
       </c>
       <c r="D86" t="n">
-        <v>0.972627</v>
+        <v>1.22553</v>
       </c>
       <c r="E86" t="n">
-        <v>2.00278</v>
+        <v>0.9804929999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.0349</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.723067</v>
+        <v>0.735146</v>
       </c>
       <c r="C87" t="n">
-        <v>1.21287</v>
+        <v>1.6687</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9520110000000001</v>
+        <v>1.22207</v>
       </c>
       <c r="E87" t="n">
-        <v>1.99318</v>
+        <v>0.954765</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.02948</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.715363</v>
+        <v>0.710406</v>
       </c>
       <c r="C88" t="n">
-        <v>1.20711</v>
+        <v>1.67675</v>
       </c>
       <c r="D88" t="n">
-        <v>0.929324</v>
+        <v>1.2183</v>
       </c>
       <c r="E88" t="n">
-        <v>1.99263</v>
+        <v>0.934825</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.01859</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.693507</v>
+        <v>0.709735</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21545</v>
+        <v>1.68719</v>
       </c>
       <c r="D89" t="n">
-        <v>0.874951</v>
+        <v>1.21857</v>
       </c>
       <c r="E89" t="n">
-        <v>2.0028</v>
+        <v>0.909158</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.00733</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.687914</v>
+        <v>0.686496</v>
       </c>
       <c r="C90" t="n">
-        <v>1.21716</v>
+        <v>1.69295</v>
       </c>
       <c r="D90" t="n">
-        <v>0.888142</v>
+        <v>1.22138</v>
       </c>
       <c r="E90" t="n">
-        <v>1.9862</v>
+        <v>0.890275</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.00679</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.686991</v>
+        <v>0.687886</v>
       </c>
       <c r="C91" t="n">
-        <v>1.21913</v>
+        <v>1.71364</v>
       </c>
       <c r="D91" t="n">
-        <v>0.870941</v>
+        <v>1.22173</v>
       </c>
       <c r="E91" t="n">
-        <v>2.00453</v>
+        <v>0.841245</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.0078</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.676272</v>
+        <v>0.678943</v>
       </c>
       <c r="C92" t="n">
-        <v>2.21907</v>
+        <v>1.73899</v>
       </c>
       <c r="D92" t="n">
-        <v>0.822994</v>
+        <v>2.59189</v>
       </c>
       <c r="E92" t="n">
-        <v>1.98846</v>
+        <v>0.857204</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.01279</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.673526</v>
+        <v>0.67567</v>
       </c>
       <c r="C93" t="n">
-        <v>2.22161</v>
+        <v>1.72984</v>
       </c>
       <c r="D93" t="n">
-        <v>0.811684</v>
+        <v>2.40389</v>
       </c>
       <c r="E93" t="n">
-        <v>1.98986</v>
+        <v>0.843087</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.01699</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.657259</v>
+        <v>0.669638</v>
       </c>
       <c r="C94" t="n">
-        <v>2.21089</v>
+        <v>1.75641</v>
       </c>
       <c r="D94" t="n">
-        <v>1.21129</v>
+        <v>2.21749</v>
       </c>
       <c r="E94" t="n">
-        <v>3.13164</v>
+        <v>1.18428</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3.12697</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8936269999999999</v>
+        <v>0.891698</v>
       </c>
       <c r="C95" t="n">
-        <v>2.20287</v>
+        <v>2.43671</v>
       </c>
       <c r="D95" t="n">
-        <v>1.20113</v>
+        <v>2.33539</v>
       </c>
       <c r="E95" t="n">
-        <v>3.09115</v>
+        <v>1.2083</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.0851</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.887533</v>
+        <v>0.896488</v>
       </c>
       <c r="C96" t="n">
-        <v>2.40194</v>
+        <v>2.42928</v>
       </c>
       <c r="D96" t="n">
-        <v>1.16269</v>
+        <v>2.39089</v>
       </c>
       <c r="E96" t="n">
-        <v>3.0519</v>
+        <v>1.16665</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.06501</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.883804</v>
+        <v>0.887565</v>
       </c>
       <c r="C97" t="n">
-        <v>2.25164</v>
+        <v>2.43588</v>
       </c>
       <c r="D97" t="n">
-        <v>1.14596</v>
+        <v>2.45586</v>
       </c>
       <c r="E97" t="n">
-        <v>3.00294</v>
+        <v>1.17467</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.01877</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.875982</v>
+        <v>0.861254</v>
       </c>
       <c r="C98" t="n">
-        <v>2.10373</v>
+        <v>2.4119</v>
       </c>
       <c r="D98" t="n">
-        <v>1.14769</v>
+        <v>2.18295</v>
       </c>
       <c r="E98" t="n">
-        <v>2.95986</v>
+        <v>1.13263</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.98455</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.864855</v>
+        <v>0.846773</v>
       </c>
       <c r="C99" t="n">
-        <v>2.03026</v>
+        <v>2.40382</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13129</v>
+        <v>2.1786</v>
       </c>
       <c r="E99" t="n">
-        <v>2.93085</v>
+        <v>1.11105</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.947</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.82447</v>
+        <v>0.850142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.71513</v>
+        <v>2.40487</v>
       </c>
       <c r="D100" t="n">
-        <v>1.05209</v>
+        <v>1.71211</v>
       </c>
       <c r="E100" t="n">
-        <v>2.87553</v>
+        <v>1.05326</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.90883</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.848792</v>
+        <v>0.838494</v>
       </c>
       <c r="C101" t="n">
-        <v>1.70355</v>
+        <v>2.38874</v>
       </c>
       <c r="D101" t="n">
-        <v>1.07498</v>
+        <v>1.70575</v>
       </c>
       <c r="E101" t="n">
-        <v>2.84098</v>
+        <v>1.0382</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.85556</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.813775</v>
+        <v>0.81848</v>
       </c>
       <c r="C102" t="n">
-        <v>1.69783</v>
+        <v>2.37008</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05703</v>
+        <v>1.70406</v>
       </c>
       <c r="E102" t="n">
-        <v>1.83029</v>
+        <v>1.02311</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.83647</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.777517</v>
+        <v>0.787148</v>
       </c>
       <c r="C103" t="n">
-        <v>1.6993</v>
+        <v>2.36659</v>
       </c>
       <c r="D103" t="n">
-        <v>1.03812</v>
+        <v>1.70648</v>
       </c>
       <c r="E103" t="n">
-        <v>1.78397</v>
+        <v>1.04463</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.78862</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.765115</v>
+        <v>0.771632</v>
       </c>
       <c r="C104" t="n">
-        <v>1.70489</v>
+        <v>2.32996</v>
       </c>
       <c r="D104" t="n">
-        <v>1.02058</v>
+        <v>1.71098</v>
       </c>
       <c r="E104" t="n">
-        <v>1.73923</v>
+        <v>0.997744</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.75828</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.765806</v>
+        <v>0.807525</v>
       </c>
       <c r="C105" t="n">
-        <v>1.69973</v>
+        <v>2.32665</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9817630000000001</v>
+        <v>1.70992</v>
       </c>
       <c r="E105" t="n">
-        <v>2.38519</v>
+        <v>1.01638</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.7485</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.787496</v>
+        <v>0.802716</v>
       </c>
       <c r="C106" t="n">
-        <v>1.71184</v>
+        <v>1.64498</v>
       </c>
       <c r="D106" t="n">
-        <v>0.968122</v>
+        <v>1.71079</v>
       </c>
       <c r="E106" t="n">
-        <v>1.65882</v>
+        <v>0.97298</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.66391</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.766876</v>
+        <v>0.800585</v>
       </c>
       <c r="C107" t="n">
-        <v>2.96562</v>
+        <v>1.2759</v>
       </c>
       <c r="D107" t="n">
-        <v>0.959692</v>
+        <v>2.98159</v>
       </c>
       <c r="E107" t="n">
-        <v>1.62648</v>
+        <v>0.992345</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.62962</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.796064</v>
+        <v>0.765644</v>
       </c>
       <c r="C108" t="n">
-        <v>2.94523</v>
+        <v>1.80692</v>
       </c>
       <c r="D108" t="n">
-        <v>1.35049</v>
+        <v>2.94656</v>
       </c>
       <c r="E108" t="n">
-        <v>3.974</v>
+        <v>1.33543</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.98177</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.792535</v>
+        <v>0.789816</v>
       </c>
       <c r="C109" t="n">
-        <v>2.91154</v>
+        <v>1.25584</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3492</v>
+        <v>3.10461</v>
       </c>
       <c r="E109" t="n">
-        <v>3.91487</v>
+        <v>1.3324</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.94714</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01808</v>
+        <v>1.02907</v>
       </c>
       <c r="C110" t="n">
-        <v>2.53726</v>
+        <v>3.04256</v>
       </c>
       <c r="D110" t="n">
-        <v>1.31522</v>
+        <v>2.89999</v>
       </c>
       <c r="E110" t="n">
-        <v>3.87032</v>
+        <v>1.34974</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.89206</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.00296</v>
+        <v>0.997824</v>
       </c>
       <c r="C111" t="n">
-        <v>2.87572</v>
+        <v>3.03194</v>
       </c>
       <c r="D111" t="n">
-        <v>1.33036</v>
+        <v>2.7051</v>
       </c>
       <c r="E111" t="n">
-        <v>3.78922</v>
+        <v>1.33811</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.81818</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.977529</v>
+        <v>0.995389</v>
       </c>
       <c r="C112" t="n">
-        <v>2.29623</v>
+        <v>3.00378</v>
       </c>
       <c r="D112" t="n">
-        <v>1.29264</v>
+        <v>2.49746</v>
       </c>
       <c r="E112" t="n">
-        <v>3.74477</v>
+        <v>1.30097</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3.75402</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.980069</v>
+        <v>0.978017</v>
       </c>
       <c r="C113" t="n">
-        <v>2.28078</v>
+        <v>2.98786</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27961</v>
+        <v>2.86444</v>
       </c>
       <c r="E113" t="n">
-        <v>3.67221</v>
+        <v>1.29118</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.7058</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.952906</v>
+        <v>0.961051</v>
       </c>
       <c r="C114" t="n">
-        <v>2.46761</v>
+        <v>2.96664</v>
       </c>
       <c r="D114" t="n">
-        <v>1.27513</v>
+        <v>2.4677</v>
       </c>
       <c r="E114" t="n">
-        <v>3.62521</v>
+        <v>1.28317</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.64464</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.943807</v>
+        <v>0.9550149999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>2.27095</v>
+        <v>2.93587</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25881</v>
+        <v>2.26389</v>
       </c>
       <c r="E115" t="n">
-        <v>3.56423</v>
+        <v>1.27375</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.58651</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.935365</v>
+        <v>0.939735</v>
       </c>
       <c r="C116" t="n">
-        <v>2.25879</v>
+        <v>2.91769</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25421</v>
+        <v>2.26951</v>
       </c>
       <c r="E116" t="n">
-        <v>3.50461</v>
+        <v>1.26622</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.54096</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9467719999999999</v>
+        <v>0.941093</v>
       </c>
       <c r="C117" t="n">
-        <v>2.22172</v>
+        <v>2.90277</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24937</v>
+        <v>2.22937</v>
       </c>
       <c r="E117" t="n">
-        <v>3.46201</v>
+        <v>1.2544</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3.28975</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.928898</v>
+        <v>0.939961</v>
       </c>
       <c r="C118" t="n">
-        <v>2.23171</v>
+        <v>2.88632</v>
       </c>
       <c r="D118" t="n">
-        <v>1.24172</v>
+        <v>2.23305</v>
       </c>
       <c r="E118" t="n">
-        <v>3.41815</v>
+        <v>1.24378</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.05109</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.92238</v>
+        <v>0.924816</v>
       </c>
       <c r="C119" t="n">
-        <v>2.22886</v>
+        <v>2.87768</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23256</v>
+        <v>2.2362</v>
       </c>
       <c r="E119" t="n">
-        <v>3.16033</v>
+        <v>1.21311</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.19722</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.912306</v>
+        <v>0.922173</v>
       </c>
       <c r="C120" t="n">
-        <v>2.21534</v>
+        <v>2.87115</v>
       </c>
       <c r="D120" t="n">
-        <v>1.22495</v>
+        <v>2.24397</v>
       </c>
       <c r="E120" t="n">
-        <v>3.15869</v>
+        <v>1.20495</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.37003</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.910879</v>
+        <v>0.918801</v>
       </c>
       <c r="C121" t="n">
-        <v>3.65101</v>
+        <v>2.8658</v>
       </c>
       <c r="D121" t="n">
-        <v>1.19537</v>
+        <v>4.27655</v>
       </c>
       <c r="E121" t="n">
-        <v>3.09291</v>
+        <v>1.22275</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.72065</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.901876</v>
+        <v>0.916343</v>
       </c>
       <c r="C122" t="n">
-        <v>3.5951</v>
+        <v>2.85565</v>
       </c>
       <c r="D122" t="n">
-        <v>1.18384</v>
+        <v>4.22985</v>
       </c>
       <c r="E122" t="n">
-        <v>3.05495</v>
+        <v>1.22317</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3.09071</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.911783</v>
+        <v>0.913151</v>
       </c>
       <c r="C123" t="n">
-        <v>4.16268</v>
+        <v>2.22827</v>
       </c>
       <c r="D123" t="n">
-        <v>1.55757</v>
+        <v>3.98666</v>
       </c>
       <c r="E123" t="n">
-        <v>4.63526</v>
+        <v>1.5867</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.66104</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.136</v>
+        <v>1.14422</v>
       </c>
       <c r="C124" t="n">
-        <v>3.51103</v>
+        <v>3.59105</v>
       </c>
       <c r="D124" t="n">
-        <v>1.54956</v>
+        <v>3.11262</v>
       </c>
       <c r="E124" t="n">
-        <v>4.55566</v>
+        <v>1.55215</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.58736</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.13633</v>
+        <v>1.13709</v>
       </c>
       <c r="C125" t="n">
-        <v>3.2636</v>
+        <v>3.56086</v>
       </c>
       <c r="D125" t="n">
-        <v>1.53407</v>
+        <v>3.7053</v>
       </c>
       <c r="E125" t="n">
-        <v>4.46437</v>
+        <v>1.53873</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4.51079</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10476</v>
+        <v>1.12856</v>
       </c>
       <c r="C126" t="n">
-        <v>3.03492</v>
+        <v>3.5339</v>
       </c>
       <c r="D126" t="n">
-        <v>1.52658</v>
+        <v>2.83935</v>
       </c>
       <c r="E126" t="n">
-        <v>4.40337</v>
+        <v>1.53417</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.43383</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.08644</v>
+        <v>1.11307</v>
       </c>
       <c r="C127" t="n">
-        <v>2.80077</v>
+        <v>3.50495</v>
       </c>
       <c r="D127" t="n">
-        <v>1.51841</v>
+        <v>2.81334</v>
       </c>
       <c r="E127" t="n">
-        <v>4.33555</v>
+        <v>1.53845</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.36931</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.10037</v>
+        <v>1.08845</v>
       </c>
       <c r="C128" t="n">
-        <v>2.78242</v>
+        <v>3.47187</v>
       </c>
       <c r="D128" t="n">
-        <v>1.51314</v>
+        <v>2.99379</v>
       </c>
       <c r="E128" t="n">
-        <v>4.27314</v>
+        <v>1.51217</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4.29403</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.07204</v>
+        <v>1.08127</v>
       </c>
       <c r="C129" t="n">
-        <v>2.74079</v>
+        <v>3.45151</v>
       </c>
       <c r="D129" t="n">
-        <v>1.50745</v>
+        <v>2.75236</v>
       </c>
       <c r="E129" t="n">
-        <v>4.21038</v>
+        <v>1.50462</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4.22212</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07583</v>
+        <v>1.08375</v>
       </c>
       <c r="C130" t="n">
-        <v>2.73118</v>
+        <v>3.42175</v>
       </c>
       <c r="D130" t="n">
-        <v>1.49577</v>
+        <v>2.73117</v>
       </c>
       <c r="E130" t="n">
-        <v>4.16101</v>
+        <v>1.49869</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4.16158</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.066</v>
+        <v>1.06266</v>
       </c>
       <c r="C131" t="n">
-        <v>2.71729</v>
+        <v>3.40463</v>
       </c>
       <c r="D131" t="n">
-        <v>1.48795</v>
+        <v>2.7223</v>
       </c>
       <c r="E131" t="n">
-        <v>4.08107</v>
+        <v>1.49692</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4.0998</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.07786</v>
+        <v>1.06068</v>
       </c>
       <c r="C132" t="n">
-        <v>2.70634</v>
+        <v>3.38326</v>
       </c>
       <c r="D132" t="n">
-        <v>1.48753</v>
+        <v>2.70528</v>
       </c>
       <c r="E132" t="n">
-        <v>3.60393</v>
+        <v>1.48148</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.82254</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05622</v>
+        <v>1.05349</v>
       </c>
       <c r="C133" t="n">
-        <v>2.694</v>
+        <v>3.36913</v>
       </c>
       <c r="D133" t="n">
-        <v>1.44714</v>
+        <v>2.70386</v>
       </c>
       <c r="E133" t="n">
-        <v>3.98543</v>
+        <v>1.48222</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.33816</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.03832</v>
+        <v>1.06638</v>
       </c>
       <c r="C134" t="n">
-        <v>2.6971</v>
+        <v>3.32798</v>
       </c>
       <c r="D134" t="n">
-        <v>1.47054</v>
+        <v>2.68831</v>
       </c>
       <c r="E134" t="n">
-        <v>3.945</v>
+        <v>1.44807</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3.5153</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04538</v>
+        <v>1.06769</v>
       </c>
       <c r="C135" t="n">
-        <v>4.19533</v>
+        <v>3.33366</v>
       </c>
       <c r="D135" t="n">
-        <v>1.44718</v>
+        <v>4.85804</v>
       </c>
       <c r="E135" t="n">
-        <v>3.23397</v>
+        <v>1.46453</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.46965</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04968</v>
+        <v>1.05761</v>
       </c>
       <c r="C136" t="n">
-        <v>4.14056</v>
+        <v>3.32253</v>
       </c>
       <c r="D136" t="n">
-        <v>1.44663</v>
+        <v>4.35343</v>
       </c>
       <c r="E136" t="n">
-        <v>2.97255</v>
+        <v>1.47346</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3.86451</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05103</v>
+        <v>1.04945</v>
       </c>
       <c r="C137" t="n">
-        <v>4.07726</v>
+        <v>3.30823</v>
       </c>
       <c r="D137" t="n">
-        <v>1.82553</v>
+        <v>4.30602</v>
       </c>
       <c r="E137" t="n">
-        <v>5.30053</v>
+        <v>1.80963</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5.30396</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.2653</v>
+        <v>1.27709</v>
       </c>
       <c r="C138" t="n">
-        <v>4.02779</v>
+        <v>4.07607</v>
       </c>
       <c r="D138" t="n">
-        <v>1.81127</v>
+        <v>4.25487</v>
       </c>
       <c r="E138" t="n">
-        <v>5.20834</v>
+        <v>1.79312</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5.21408</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26165</v>
+        <v>1.26147</v>
       </c>
       <c r="C139" t="n">
-        <v>3.76497</v>
+        <v>4.03511</v>
       </c>
       <c r="D139" t="n">
-        <v>1.77253</v>
+        <v>3.76787</v>
       </c>
       <c r="E139" t="n">
-        <v>5.10793</v>
+        <v>1.79181</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5.12179</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25661</v>
+        <v>1.26218</v>
       </c>
       <c r="C140" t="n">
-        <v>3.71426</v>
+        <v>3.99089</v>
       </c>
       <c r="D140" t="n">
-        <v>1.75504</v>
+        <v>3.72046</v>
       </c>
       <c r="E140" t="n">
-        <v>5.00011</v>
+        <v>1.76468</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.00534</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24642</v>
+        <v>1.24455</v>
       </c>
       <c r="C141" t="n">
-        <v>3.22164</v>
+        <v>3.94386</v>
       </c>
       <c r="D141" t="n">
-        <v>1.7485</v>
+        <v>3.23054</v>
       </c>
       <c r="E141" t="n">
-        <v>4.91495</v>
+        <v>1.74591</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.92195</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.23712</v>
+        <v>1.24841</v>
       </c>
       <c r="C142" t="n">
-        <v>3.16605</v>
+        <v>3.91004</v>
       </c>
       <c r="D142" t="n">
-        <v>1.73287</v>
+        <v>3.17852</v>
       </c>
       <c r="E142" t="n">
-        <v>4.8227</v>
+        <v>1.73248</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4.82399</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.22932</v>
+        <v>1.24363</v>
       </c>
       <c r="C143" t="n">
-        <v>3.14062</v>
+        <v>3.86</v>
       </c>
       <c r="D143" t="n">
-        <v>1.68392</v>
+        <v>3.13603</v>
       </c>
       <c r="E143" t="n">
-        <v>4.51885</v>
+        <v>1.68572</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4.5276</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.15337</v>
+                  <v>0.146039</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.155158</v>
+                  <v>0.148013</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159661</v>
+                  <v>0.138681</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.151036</v>
+                  <v>0.14359</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.145481</v>
+                  <v>0.135845</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.143135</v>
+                  <v>0.135477</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.148369</v>
+                  <v>0.138485</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150446</v>
+                  <v>0.146058</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207322</v>
+                  <v>0.200991</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209592</v>
+                  <v>0.199168</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.195598</v>
+                  <v>0.189428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.190781</v>
+                  <v>0.187799</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.190823</v>
+                  <v>0.184312</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.175134</v>
+                  <v>0.170536</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.168551</v>
+                  <v>0.165581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.159679</v>
+                  <v>0.161496</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164206</v>
+                  <v>0.158637</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.167199</v>
+                  <v>0.157383</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.154037</v>
+                  <v>0.155905</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.157372</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.151621</v>
+                  <v>0.153328</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.157259</v>
+                  <v>0.155101</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.238303</v>
+                  <v>0.237836</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.224434</v>
+                  <v>0.232792</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.224004</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.215688</v>
+                  <v>0.214188</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.20293</v>
+                  <v>0.206863</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.198964</v>
+                  <v>0.198074</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.187941</v>
+                  <v>0.190476</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.185272</v>
+                  <v>0.189206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.178074</v>
+                  <v>0.179889</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.173278</v>
+                  <v>0.176719</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.170074</v>
+                  <v>0.171518</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168305</v>
+                  <v>0.170802</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.170652</v>
+                  <v>0.171714</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167843</v>
+                  <v>0.170411</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243961</v>
+                  <v>0.242776</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.235067</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.22627</v>
+                  <v>0.22518</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218024</v>
+                  <v>0.217734</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210212</v>
+                  <v>0.209982</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.202858</v>
+                  <v>0.202762</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196171</v>
+                  <v>0.196177</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.190461</v>
+                  <v>0.190435</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.185034</v>
+                  <v>0.185025</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.180206</v>
+                  <v>0.179638</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.176532</v>
+                  <v>0.176655</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.173492</v>
+                  <v>0.173549</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.171855</v>
+                  <v>0.171866</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172451</v>
+                  <v>0.172691</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.174531</v>
+                  <v>0.175807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.241212</v>
+                  <v>0.240716</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231315</v>
+                  <v>0.232852</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.222959</v>
+                  <v>0.224402</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.216001</v>
+                  <v>0.217265</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208546</v>
+                  <v>0.208892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20144</v>
+                  <v>0.202409</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.195596</v>
+                  <v>0.195381</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.189667</v>
+                  <v>0.190447</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.184353</v>
+                  <v>0.185342</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.180335</v>
+                  <v>0.181484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178093</v>
+                  <v>0.177209</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.176032</v>
+                  <v>0.176375</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176322</v>
+                  <v>0.17631</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178398</v>
+                  <v>0.179257</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246205</v>
+                  <v>0.244087</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235745</v>
+                  <v>0.23551</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22844</v>
+                  <v>0.228011</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219722</v>
+                  <v>0.219299</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.211882</v>
+                  <v>0.212195</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205851</v>
+                  <v>0.204906</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.199915</v>
+                  <v>0.198988</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.19416</v>
+                  <v>0.193473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.188783</v>
+                  <v>0.188598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183925</v>
+                  <v>0.183295</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.182219</v>
+                  <v>0.180748</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178711</v>
+                  <v>0.178691</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.17904</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.180346</v>
+                  <v>0.180884</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257797</v>
+                  <v>0.256673</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.248989</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242374</v>
+                  <v>0.241687</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233789</v>
+                  <v>0.233823</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.22662</v>
+                  <v>0.226435</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219911</v>
+                  <v>0.219403</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21385</v>
+                  <v>0.212981</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.20712</v>
+                  <v>0.206654</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.2016</v>
+                  <v>0.201478</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.196505</v>
+                  <v>0.195737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193329</v>
+                  <v>0.192256</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190124</v>
+                  <v>0.189382</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188597</v>
+                  <v>0.188583</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.189371</v>
+                  <v>0.18968</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.270674</v>
+                  <v>0.271413</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265072</v>
+                  <v>0.265435</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258834</v>
+                  <v>0.258773</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251641</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.245263</v>
+                  <v>0.245278</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.238488</v>
+                  <v>0.239437</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.233411</v>
+                  <v>0.233272</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227946</v>
+                  <v>0.227822</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.222458</v>
+                  <v>0.222804</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.218327</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.214176</v>
+                  <v>0.214387</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.211275</v>
+                  <v>0.211097</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208723</v>
+                  <v>0.209085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.208655</v>
+                  <v>0.209158</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.210629</v>
+                  <v>0.211426</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.285509</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.278433</v>
+                  <v>0.28665</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.271806</v>
+                  <v>0.279989</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266427</v>
+                  <v>0.273564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260565</v>
+                  <v>0.26764</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255512</v>
+                  <v>0.262322</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250615</v>
+                  <v>0.257025</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245594</v>
+                  <v>0.25203</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244716</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.237814</v>
+                  <v>0.243348</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.234924</v>
+                  <v>0.239959</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.232693</v>
+                  <v>0.237783</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.231404</v>
+                  <v>0.236599</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.232607</v>
+                  <v>0.237197</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.316721</v>
+                  <v>0.328962</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.311521</v>
+                  <v>0.323242</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.304916</v>
+                  <v>0.317089</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299863</v>
+                  <v>0.310426</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.294634</v>
+                  <v>0.306459</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.290007</v>
+                  <v>0.301111</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.285681</v>
+                  <v>0.295255</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.281672</v>
+                  <v>0.290688</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.278486</v>
+                  <v>0.28664</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.275255</v>
+                  <v>0.282957</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.272149</v>
+                  <v>0.280443</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.270314</v>
+                  <v>0.277925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.269997</v>
+                  <v>0.277999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.270583</v>
+                  <v>0.278357</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.369063</v>
+                  <v>0.369562</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.363506</v>
+                  <v>0.360547</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.358269</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.352863</v>
+                  <v>0.352816</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.34801</v>
+                  <v>0.346455</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.34351</v>
+                  <v>0.341422</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312145</v>
+                  <v>0.28211</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.311864</v>
+                  <v>0.278115</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.311341</v>
+                  <v>0.271292</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.306772</v>
+                  <v>0.274151</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.308161</v>
+                  <v>0.266767</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.408994</v>
+                  <v>0.266578</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.405189</v>
+                  <v>0.266281</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.401577</v>
+                  <v>0.272086</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.391147</v>
+                  <v>0.331698</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.391102</v>
+                  <v>0.319212</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.38111</v>
+                  <v>0.308191</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.379912</v>
+                  <v>0.307945</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.376405</v>
+                  <v>0.295667</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.370044</v>
+                  <v>0.292683</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.366509</v>
+                  <v>0.283847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.362169</v>
+                  <v>0.280388</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.364199</v>
+                  <v>0.277733</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.36117</v>
+                  <v>0.273149</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.357351</v>
+                  <v>0.268271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.478261</v>
+                  <v>0.265444</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.464696</v>
+                  <v>0.270153</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456439</v>
+                  <v>0.273148</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.448159</v>
+                  <v>0.340388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.440673</v>
+                  <v>0.331711</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.431649</v>
+                  <v>0.323314</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.425692</v>
+                  <v>0.316365</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.418998</v>
+                  <v>0.310543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.412593</v>
+                  <v>0.301656</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.408417</v>
+                  <v>0.296089</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.40367</v>
+                  <v>0.291172</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.399719</v>
+                  <v>0.285343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.393748</v>
+                  <v>0.283907</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.390428</v>
+                  <v>0.278823</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.499331</v>
+                  <v>0.280175</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.48684</v>
+                  <v>0.276888</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.478061</v>
+                  <v>0.279208</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.46875</v>
+                  <v>0.350466</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.458947</v>
+                  <v>0.343127</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.450864</v>
+                  <v>0.334872</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.443182</v>
+                  <v>0.327488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.437353</v>
+                  <v>0.320628</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.430382</v>
+                  <v>0.31489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.424477</v>
+                  <v>0.309181</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.419409</v>
+                  <v>0.303399</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.414636</v>
+                  <v>0.299576</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40978</v>
+                  <v>0.295042</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.406225</v>
+                  <v>0.293079</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.403185</v>
+                  <v>0.290591</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.506923</v>
+                  <v>0.290977</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.49607</v>
+                  <v>0.292093</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.485393</v>
+                  <v>0.297895</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.47704</v>
+                  <v>0.354931</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.467187</v>
+                  <v>0.347367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.459395</v>
+                  <v>0.342722</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.452921</v>
+                  <v>0.334916</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445497</v>
+                  <v>0.328959</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.440853</v>
+                  <v>0.3234</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.434352</v>
+                  <v>0.317305</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.430313</v>
+                  <v>0.312179</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.426534</v>
+                  <v>0.308366</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422625</v>
+                  <v>0.305196</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.419713</v>
+                  <v>0.30302</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.544347</v>
+                  <v>0.302263</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.53371</v>
+                  <v>0.303818</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.523499</v>
+                  <v>0.306058</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.516787</v>
+                  <v>0.374633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.508951</v>
+                  <v>0.365677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.500625</v>
+                  <v>0.360799</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.494779</v>
+                  <v>0.353591</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.489162</v>
+                  <v>0.34577</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.483936</v>
+                  <v>0.339963</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.481121</v>
+                  <v>0.333846</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.496074</v>
+                  <v>0.329286</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.488899</v>
+                  <v>0.325082</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.486092</v>
+                  <v>0.320758</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.483301</v>
+                  <v>0.319095</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.6619080000000001</v>
+                  <v>0.319423</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.651641</v>
+                  <v>0.319311</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.6414840000000001</v>
+                  <v>0.322843</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.634898</v>
+                  <v>0.393431</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.626458</v>
+                  <v>0.389378</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.619111</v>
+                  <v>0.384671</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.618937</v>
+                  <v>0.382238</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.616578</v>
+                  <v>0.3759</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.616543</v>
+                  <v>0.371191</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.618468</v>
+                  <v>0.36512</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.618605</v>
+                  <v>0.361874</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.631288</v>
+                  <v>0.356697</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.634706</v>
+                  <v>0.352438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.640709</v>
+                  <v>0.349891</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.853437</v>
+                  <v>0.35005</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.851041</v>
+                  <v>0.349669</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.846677</v>
+                  <v>0.352299</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.839566</v>
+                  <v>0.466457</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.837027</v>
+                  <v>0.465911</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.84036</v>
+                  <v>0.461742</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.840439</v>
+                  <v>0.458425</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.841024</v>
+                  <v>0.454048</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.84118</v>
+                  <v>0.450047</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.845235</v>
+                  <v>0.445345</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.849178</v>
+                  <v>0.441259</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.859448</v>
+                  <v>0.438357</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.866117</v>
+                  <v>0.435239</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.873801</v>
+                  <v>0.434282</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.882031</v>
+                  <v>0.433819</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.12628</v>
+                  <v>0.433981</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.11366</v>
+                  <v>0.436931</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.10831</v>
+                  <v>0.442964</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.09924</v>
+                  <v>0.580354</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.10141</v>
+                  <v>0.574171</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.09589</v>
+                  <v>0.569311</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.09404</v>
+                  <v>0.563511</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.09267</v>
+                  <v>0.558854</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.09583</v>
+                  <v>0.555304</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.09592</v>
+                  <v>0.551573</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.09785</v>
+                  <v>0.5418269999999999</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.10406</v>
+                  <v>0.546025</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.1105</v>
+                  <v>0.544721</v>
                 </pt>
                 <pt idx="118">
-                  <v>1.1192</v>
+                  <v>0.544034</v>
                 </pt>
                 <pt idx="119">
-                  <v>1.38021</v>
+                  <v>0.544782</v>
                 </pt>
                 <pt idx="120">
-                  <v>1.36711</v>
+                  <v>0.547028</v>
                 </pt>
                 <pt idx="121">
-                  <v>1.35208</v>
+                  <v>0.550917</v>
                 </pt>
                 <pt idx="122">
-                  <v>1.33879</v>
+                  <v>0.714383</v>
                 </pt>
                 <pt idx="123">
-                  <v>1.33025</v>
+                  <v>0.709817</v>
                 </pt>
                 <pt idx="124">
-                  <v>1.32117</v>
+                  <v>0.703954</v>
                 </pt>
                 <pt idx="125">
-                  <v>1.31379</v>
+                  <v>0.700326</v>
                 </pt>
                 <pt idx="126">
-                  <v>1.30768</v>
+                  <v>0.698059</v>
                 </pt>
                 <pt idx="127">
-                  <v>1.30326</v>
+                  <v>0.6951850000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>1.30056</v>
+                  <v>0.6917450000000001</v>
                 </pt>
                 <pt idx="129">
-                  <v>1.30008</v>
+                  <v>0.689099</v>
                 </pt>
                 <pt idx="130">
-                  <v>1.30108</v>
+                  <v>0.6884</v>
                 </pt>
                 <pt idx="131">
-                  <v>1.30141</v>
+                  <v>0.687611</v>
                 </pt>
                 <pt idx="132">
-                  <v>1.30559</v>
+                  <v>0.688626</v>
                 </pt>
                 <pt idx="133">
-                  <v>1.58034</v>
+                  <v>0.689466</v>
                 </pt>
                 <pt idx="134">
-                  <v>1.55781</v>
+                  <v>0.6928609999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>1.53836</v>
+                  <v>0.696013</v>
                 </pt>
                 <pt idx="136">
-                  <v>1.5207</v>
+                  <v>0.876258</v>
                 </pt>
                 <pt idx="137">
-                  <v>1.50344</v>
+                  <v>0.866931</v>
                 </pt>
                 <pt idx="138">
-                  <v>1.49007</v>
+                  <v>0.874781</v>
                 </pt>
                 <pt idx="139">
-                  <v>1.47742</v>
+                  <v>0.874434</v>
                 </pt>
                 <pt idx="140">
-                  <v>1.46587</v>
+                  <v>0.87453</v>
                 </pt>
                 <pt idx="141">
-                  <v>1.45791</v>
+                  <v>0.874256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.142888</v>
+                  <v>0.345535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.144159</v>
+                  <v>0.342328</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.139729</v>
+                  <v>0.339524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.130455</v>
+                  <v>0.338964</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.130001</v>
+                  <v>0.337026</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.114646</v>
+                  <v>0.441059</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.121203</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.177485</v>
+                  <v>0.422785</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.178184</v>
+                  <v>0.425798</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167977</v>
+                  <v>0.41258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.158496</v>
+                  <v>0.406096</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.152255</v>
+                  <v>0.399408</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.15716</v>
+                  <v>0.393713</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.142005</v>
+                  <v>0.390631</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.136816</v>
+                  <v>0.384493</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.139587</v>
+                  <v>0.382714</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.131545</v>
+                  <v>0.376462</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.129135</v>
+                  <v>0.372734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.123154</v>
+                  <v>0.371468</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1263</v>
+                  <v>0.471596</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.129065</v>
+                  <v>0.461926</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.214336</v>
+                  <v>0.453195</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.21995</v>
+                  <v>0.442569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.204141</v>
+                  <v>0.439045</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.187606</v>
+                  <v>0.428046</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.185954</v>
+                  <v>0.422639</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.178845</v>
+                  <v>0.415176</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.168237</v>
+                  <v>0.409081</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.165532</v>
+                  <v>0.404025</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.164239</v>
+                  <v>0.401541</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.154562</v>
+                  <v>0.396396</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.153521</v>
+                  <v>0.392233</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.14963</v>
+                  <v>0.387418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.150836</v>
+                  <v>0.492552</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.14771</v>
+                  <v>0.481008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.230768</v>
+                  <v>0.472016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.222972</v>
+                  <v>0.462267</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.213998</v>
+                  <v>0.453779</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.205509</v>
+                  <v>0.445558</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.19903</v>
+                  <v>0.438178</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.191431</v>
+                  <v>0.431525</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.185004</v>
+                  <v>0.424981</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.178242</v>
+                  <v>0.417433</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.171721</v>
+                  <v>0.412907</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.166785</v>
+                  <v>0.40713</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.163076</v>
+                  <v>0.404255</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.159074</v>
+                  <v>0.399219</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.157048</v>
+                  <v>0.398134</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.155008</v>
+                  <v>0.5057199999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.241177</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.232474</v>
+                  <v>0.482606</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.222617</v>
+                  <v>0.473133</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.214052</v>
+                  <v>0.46451</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.206278</v>
+                  <v>0.458181</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.198674</v>
+                  <v>0.449409</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.191601</v>
+                  <v>0.444813</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.184668</v>
+                  <v>0.437137</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.179357</v>
+                  <v>0.433472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.1736</v>
+                  <v>0.427729</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.168138</v>
+                  <v>0.423128</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.164634</v>
+                  <v>0.420407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.161852</v>
+                  <v>0.418269</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.159915</v>
+                  <v>0.542173</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.160633</v>
+                  <v>0.531938</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241778</v>
+                  <v>0.521979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234316</v>
+                  <v>0.513247</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.223856</v>
+                  <v>0.507066</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.214878</v>
+                  <v>0.501045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206553</v>
+                  <v>0.491954</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.200975</v>
+                  <v>0.487567</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.194188</v>
+                  <v>0.484235</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.188362</v>
+                  <v>0.479325</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.182427</v>
+                  <v>0.49454</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.17682</v>
+                  <v>0.492253</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.171969</v>
+                  <v>0.485952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.167466</v>
+                  <v>0.483849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.166872</v>
+                  <v>0.660579</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.166623</v>
+                  <v>0.651858</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.2389</v>
+                  <v>0.641418</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.231233</v>
+                  <v>0.633701</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.222629</v>
+                  <v>0.628771</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.215057</v>
+                  <v>0.622203</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207065</v>
+                  <v>0.619414</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.200438</v>
+                  <v>0.619362</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.193262</v>
+                  <v>0.616466</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.187335</v>
+                  <v>0.617853</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182132</v>
+                  <v>0.617096</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.176589</v>
+                  <v>0.63459</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173081</v>
+                  <v>0.636581</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.169023</v>
+                  <v>0.641432</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.166908</v>
+                  <v>0.856594</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.166814</v>
+                  <v>0.849894</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252534</v>
+                  <v>0.845252</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244438</v>
+                  <v>0.841065</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.236967</v>
+                  <v>0.836136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229011</v>
+                  <v>0.842166</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.220682</v>
+                  <v>0.844179</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213943</v>
+                  <v>0.841984</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.20784</v>
+                  <v>0.8411689999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.20147</v>
+                  <v>0.8479989999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.195865</v>
+                  <v>0.85105</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.190898</v>
+                  <v>0.858108</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.186294</v>
+                  <v>0.865494</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.182449</v>
+                  <v>0.873856</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.180164</v>
+                  <v>0.882892</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.179211</v>
+                  <v>1.12623</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268571</v>
+                  <v>1.11708</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.263123</v>
+                  <v>1.10725</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.255147</v>
+                  <v>1.10358</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.248045</v>
+                  <v>1.09922</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.24044</v>
+                  <v>1.09309</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234071</v>
+                  <v>1.09198</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227632</v>
+                  <v>1.09188</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22211</v>
+                  <v>1.09281</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.216672</v>
+                  <v>1.09812</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211883</v>
+                  <v>1.10047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.2085</v>
+                  <v>1.10279</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.204125</v>
+                  <v>1.10901</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201067</v>
+                  <v>1.11641</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199423</v>
+                  <v>1.37934</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200191</v>
+                  <v>1.36609</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.285389</v>
+                  <v>1.34952</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.279535</v>
+                  <v>1.33903</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.273237</v>
+                  <v>1.33181</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267652</v>
+                  <v>1.3199</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26304</v>
+                  <v>1.31294</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258886</v>
+                  <v>1.31028</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.254448</v>
+                  <v>1.30308</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.250205</v>
+                  <v>1.30133</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24612</v>
+                  <v>1.30114</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.243283</v>
+                  <v>1.30065</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.240187</v>
+                  <v>1.30238</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.238426</v>
+                  <v>1.30428</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.236633</v>
+                  <v>1.57893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.23708</v>
+                  <v>1.55759</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.334836</v>
+                  <v>1.53738</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.329067</v>
+                  <v>1.52081</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.323726</v>
+                  <v>1.50381</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.319833</v>
+                  <v>1.48922</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.314732</v>
+                  <v>1.47882</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.310756</v>
+                  <v>1.46512</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.307162</v>
+                  <v>1.45783</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.271192</v>
+                  <v>0.137761</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.269766</v>
+                  <v>0.136591</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.261942</v>
+                  <v>0.130647</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.266898</v>
+                  <v>0.124825</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.264205</v>
+                  <v>0.121236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.261823</v>
+                  <v>0.120823</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.260876</v>
+                  <v>0.115242</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.337755</v>
+                  <v>0.18197</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.32141</v>
+                  <v>0.191717</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.306307</v>
+                  <v>0.171582</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.303579</v>
+                  <v>0.163208</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.295531</v>
+                  <v>0.159341</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.290788</v>
+                  <v>0.15144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.286236</v>
+                  <v>0.148414</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.27627</v>
+                  <v>0.141748</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.269827</v>
+                  <v>0.138354</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.269586</v>
+                  <v>0.135532</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.261332</v>
+                  <v>0.137513</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.262818</v>
+                  <v>0.131088</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.25938</v>
+                  <v>0.129522</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.25735</v>
+                  <v>0.139204</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.333717</v>
+                  <v>0.22233</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.338816</v>
+                  <v>0.213797</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.31587</v>
+                  <v>0.207877</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.308427</v>
+                  <v>0.199287</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.298987</v>
+                  <v>0.19247</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.294611</v>
+                  <v>0.183147</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.288183</v>
+                  <v>0.175943</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.281609</v>
+                  <v>0.173927</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.27668</v>
+                  <v>0.165062</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.272235</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.267661</v>
+                  <v>0.159688</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.264742</v>
+                  <v>0.153782</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.262336</v>
+                  <v>0.150904</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.263208</v>
+                  <v>0.150984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.347369</v>
+                  <v>0.230682</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.339619</v>
+                  <v>0.221791</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.332237</v>
+                  <v>0.212191</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.323095</v>
+                  <v>0.205325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.315365</v>
+                  <v>0.196669</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.308467</v>
+                  <v>0.189453</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.302061</v>
+                  <v>0.182552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.296349</v>
+                  <v>0.177439</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.290374</v>
+                  <v>0.171551</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.285623</v>
+                  <v>0.164983</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.281956</v>
+                  <v>0.161123</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.278551</v>
+                  <v>0.157815</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.276744</v>
+                  <v>0.155224</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.275847</v>
+                  <v>0.154986</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.35945</v>
+                  <v>0.239</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.352226</v>
+                  <v>0.230927</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.342043</v>
+                  <v>0.221685</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.334021</v>
+                  <v>0.212571</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.329362</v>
+                  <v>0.204879</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.3219</v>
+                  <v>0.196931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.31556</v>
+                  <v>0.190889</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.309051</v>
+                  <v>0.184201</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303773</v>
+                  <v>0.177873</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.298791</v>
+                  <v>0.172243</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.29423</v>
+                  <v>0.167354</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.29061</v>
+                  <v>0.163961</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.28855</v>
+                  <v>0.160669</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.286849</v>
+                  <v>0.159794</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.288573</v>
+                  <v>0.159922</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.368444</v>
+                  <v>0.24182</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.360264</v>
+                  <v>0.231229</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.351966</v>
+                  <v>0.22419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.346137</v>
+                  <v>0.215874</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.338777</v>
+                  <v>0.206048</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.33184</v>
+                  <v>0.198942</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.324914</v>
+                  <v>0.191778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.319398</v>
+                  <v>0.185223</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.313882</v>
+                  <v>0.179302</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.308808</v>
+                  <v>0.174516</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.305441</v>
+                  <v>0.170705</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.301947</v>
+                  <v>0.167401</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.303099</v>
+                  <v>0.165988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.303311</v>
+                  <v>0.165089</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.384061</v>
+                  <v>0.238743</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.377682</v>
+                  <v>0.229209</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.372194</v>
+                  <v>0.221431</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.364102</v>
+                  <v>0.213546</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.360852</v>
+                  <v>0.206373</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.355225</v>
+                  <v>0.199238</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.34856</v>
+                  <v>0.192686</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.34299</v>
+                  <v>0.185131</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.338553</v>
+                  <v>0.180498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.332812</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.329783</v>
+                  <v>0.170999</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.326459</v>
+                  <v>0.167733</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.325092</v>
+                  <v>0.164963</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.32522</v>
+                  <v>0.165351</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.452238</v>
+                  <v>0.250369</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.451668</v>
+                  <v>0.242842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.447145</v>
+                  <v>0.235119</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.442183</v>
+                  <v>0.227356</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.437287</v>
+                  <v>0.220251</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.432007</v>
+                  <v>0.212871</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.428233</v>
+                  <v>0.206496</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.423292</v>
+                  <v>0.200455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.418646</v>
+                  <v>0.194783</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.41523</v>
+                  <v>0.189878</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.411758</v>
+                  <v>0.184885</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.409843</v>
+                  <v>0.181716</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.408188</v>
+                  <v>0.179034</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.407718</v>
+                  <v>0.177966</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.566439</v>
+                  <v>0.267166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.564304</v>
+                  <v>0.261253</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.557965</v>
+                  <v>0.25341</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.551828</v>
+                  <v>0.24629</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.544925</v>
+                  <v>0.239018</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.5423289999999999</v>
+                  <v>0.232958</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.536821</v>
+                  <v>0.226405</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.533166</v>
+                  <v>0.22103</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.529174</v>
+                  <v>0.215579</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.526789</v>
+                  <v>0.211122</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.52432</v>
+                  <v>0.206632</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.523133</v>
+                  <v>0.202954</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.520985</v>
+                  <v>0.200086</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.520991</v>
+                  <v>0.198735</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.522709</v>
+                  <v>0.199173</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.694646</v>
+                  <v>0.283443</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.688746</v>
+                  <v>0.277303</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.685202</v>
+                  <v>0.271758</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.680929</v>
+                  <v>0.266349</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.678063</v>
+                  <v>0.261528</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.660381</v>
+                  <v>0.256727</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.669822</v>
+                  <v>0.252371</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.66858</v>
+                  <v>0.248279</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.666127</v>
+                  <v>0.244665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.664091</v>
+                  <v>0.241331</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.662888</v>
+                  <v>0.238531</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.662808</v>
+                  <v>0.236023</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.663058</v>
+                  <v>0.234907</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.664988</v>
+                  <v>0.234963</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.847299</v>
+                  <v>0.33469</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.846291</v>
+                  <v>0.327289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.845287</v>
+                  <v>0.322215</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.8449950000000001</v>
+                  <v>0.317731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.844019</v>
+                  <v>0.313643</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.844831</v>
+                  <v>0.309114</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.844638</v>
+                  <v>0.305505</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.272824</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.263759</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.259957</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.256232</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.258115</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.255855</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.325155</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.320399</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.30968</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.300998</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.293913</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.286153</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.281139</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.275524</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.274898</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2676</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.265662</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.26002</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.260183</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.262609</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.330212</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.325548</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.315918</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.310409</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.301635</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.295574</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.290029</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.282872</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278507</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.272359</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.269059</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.266677</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.264372</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.263709</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.347984</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.340065</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.330786</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.323484</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.315716</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.309133</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.301912</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.296867</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.291421</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.286315</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.282309</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.279336</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.27722</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.277116</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.358783</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.350324</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.342116</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.334006</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.328195</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.320973</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.314597</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.307473</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.302578</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.298176</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.292764</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.289646</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.287274</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.286847</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.288163</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.366526</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.358653</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.349644</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.344332</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.337322</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.329298</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.323319</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.317402</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.312372</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.306709</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.302411</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.301187</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.302301</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.301667</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.38254</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.376441</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.370388</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.363729</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.360141</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.354189</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.348061</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.341194</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.338365</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.332626</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.329316</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.325646</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.324753</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.325698</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.450633</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.449133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.444822</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.440212</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.434334</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.429843</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.424907</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.4203</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.415853</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.412994</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.409492</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.407402</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.406375</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.406548</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.560538</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.560684</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.553851</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.548923</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.543926</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.538116</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.533978</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.529934</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.5271940000000001</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.524362</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.522272</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.519097</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.518203</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.517801</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.519348</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.690275</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.685513</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.681941</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.677575</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.67488</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.673596</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.668506</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.665758</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.663705</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.661956</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.661919</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.661756</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.662496</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.66482</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.845621</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.845018</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.843253</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.84311</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.842824</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.843188</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.842601</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466523</v>
+        <v>0.466069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.715325</v>
+        <v>0.712235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.812654</v>
+        <v>0.810532</v>
       </c>
       <c r="E2" t="n">
-        <v>0.688156</v>
+        <v>0.687453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.972807</v>
+        <v>0.973232</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455933</v>
+        <v>0.455291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.702658</v>
+        <v>0.700846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.803207</v>
+        <v>0.800999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.671189</v>
+        <v>0.670515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.955387</v>
+        <v>0.949962</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.442853</v>
+        <v>0.444629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.694408</v>
+        <v>0.690517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.797326</v>
+        <v>0.792517</v>
       </c>
       <c r="E4" t="n">
-        <v>0.654633</v>
+        <v>0.653854</v>
       </c>
       <c r="F4" t="n">
-        <v>0.934391</v>
+        <v>0.931823</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.435221</v>
+        <v>0.428213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.685424</v>
+        <v>0.68368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7904910000000001</v>
+        <v>0.786077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639641</v>
+        <v>0.639184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9161280000000001</v>
+        <v>0.913851</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.425434</v>
+        <v>0.427537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.678352</v>
+        <v>0.67574</v>
       </c>
       <c r="D6" t="n">
-        <v>0.784442</v>
+        <v>0.8189610000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6254420000000001</v>
+        <v>0.625214</v>
       </c>
       <c r="F6" t="n">
-        <v>0.900767</v>
+        <v>0.896627</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.423308</v>
+        <v>0.421417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.671589</v>
+        <v>0.668915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.87719</v>
+        <v>0.877764</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6139210000000001</v>
+        <v>0.6138209999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.885722</v>
+        <v>0.883381</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416434</v>
+        <v>0.416721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667501</v>
+        <v>0.667316</v>
       </c>
       <c r="D8" t="n">
-        <v>0.862063</v>
+        <v>0.86002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.605078</v>
+        <v>0.604322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.875068</v>
+        <v>0.873093</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416626</v>
+        <v>0.416355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.668075</v>
+        <v>0.665956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.842822</v>
+        <v>0.845959</v>
       </c>
       <c r="E9" t="n">
-        <v>0.915864</v>
+        <v>0.914227</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20303</v>
+        <v>1.20478</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.561497</v>
+        <v>0.552165</v>
       </c>
       <c r="C10" t="n">
-        <v>0.810053</v>
+        <v>0.809362</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8333660000000001</v>
+        <v>0.828841</v>
       </c>
       <c r="E10" t="n">
-        <v>0.886096</v>
+        <v>0.8853259999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1.17459</v>
+        <v>1.16927</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.537555</v>
+        <v>0.535795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.79601</v>
+        <v>0.794169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.818565</v>
+        <v>0.818623</v>
       </c>
       <c r="E11" t="n">
-        <v>0.859194</v>
+        <v>0.857969</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14445</v>
+        <v>1.14085</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.519192</v>
+        <v>0.520076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.776398</v>
+        <v>0.7780589999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.804021</v>
+        <v>0.803597</v>
       </c>
       <c r="E12" t="n">
-        <v>0.833368</v>
+        <v>0.832701</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11576</v>
+        <v>1.11269</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5056040000000001</v>
+        <v>0.5073260000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7684609999999999</v>
+        <v>0.764779</v>
       </c>
       <c r="D13" t="n">
-        <v>0.790752</v>
+        <v>0.79064</v>
       </c>
       <c r="E13" t="n">
-        <v>0.808397</v>
+        <v>0.808385</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08766</v>
+        <v>1.08921</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.490578</v>
+        <v>0.491469</v>
       </c>
       <c r="C14" t="n">
-        <v>0.755099</v>
+        <v>0.749551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.787422</v>
+        <v>0.789129</v>
       </c>
       <c r="E14" t="n">
-        <v>0.785188</v>
+        <v>0.7840510000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05929</v>
+        <v>1.05826</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.48267</v>
+        <v>0.482118</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7411180000000001</v>
+        <v>0.739333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.777156</v>
+        <v>0.7803909999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.763247</v>
+        <v>0.762632</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03626</v>
+        <v>1.03342</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.465171</v>
+        <v>0.464874</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72284</v>
+        <v>0.72427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.767494</v>
+        <v>0.769707</v>
       </c>
       <c r="E16" t="n">
-        <v>0.742527</v>
+        <v>0.741771</v>
       </c>
       <c r="F16" t="n">
-        <v>1.01147</v>
+        <v>1.00992</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.45834</v>
+        <v>0.456027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.715508</v>
+        <v>0.7125320000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7554920000000001</v>
+        <v>0.759879</v>
       </c>
       <c r="E17" t="n">
-        <v>0.723449</v>
+        <v>0.722067</v>
       </c>
       <c r="F17" t="n">
-        <v>1.01819</v>
+        <v>1.0167</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.448674</v>
+        <v>0.443669</v>
       </c>
       <c r="C18" t="n">
-        <v>0.705236</v>
+        <v>0.712118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.75026</v>
+        <v>0.753873</v>
       </c>
       <c r="E18" t="n">
-        <v>0.705082</v>
+        <v>0.70473</v>
       </c>
       <c r="F18" t="n">
-        <v>0.997892</v>
+        <v>0.9966739999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.435128</v>
+        <v>0.434591</v>
       </c>
       <c r="C19" t="n">
-        <v>0.709924</v>
+        <v>0.706692</v>
       </c>
       <c r="D19" t="n">
-        <v>0.742327</v>
+        <v>0.746748</v>
       </c>
       <c r="E19" t="n">
-        <v>0.688588</v>
+        <v>0.687926</v>
       </c>
       <c r="F19" t="n">
-        <v>0.978554</v>
+        <v>0.978133</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.427151</v>
+        <v>0.428861</v>
       </c>
       <c r="C20" t="n">
-        <v>0.701752</v>
+        <v>0.69486</v>
       </c>
       <c r="D20" t="n">
-        <v>0.734954</v>
+        <v>0.738582</v>
       </c>
       <c r="E20" t="n">
-        <v>0.673969</v>
+        <v>0.673175</v>
       </c>
       <c r="F20" t="n">
-        <v>0.963578</v>
+        <v>0.962517</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4237</v>
+        <v>0.42224</v>
       </c>
       <c r="C21" t="n">
-        <v>0.697065</v>
+        <v>0.687117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.953601</v>
+        <v>0.95229</v>
       </c>
       <c r="E21" t="n">
-        <v>0.661241</v>
+        <v>0.66037</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9531230000000001</v>
+        <v>0.9543199999999999</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420959</v>
+        <v>0.418994</v>
       </c>
       <c r="C22" t="n">
-        <v>0.701815</v>
+        <v>0.703339</v>
       </c>
       <c r="D22" t="n">
-        <v>0.934075</v>
+        <v>0.935107</v>
       </c>
       <c r="E22" t="n">
-        <v>0.651145</v>
+        <v>0.65036</v>
       </c>
       <c r="F22" t="n">
-        <v>0.940651</v>
+        <v>0.9400770000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.416417</v>
+        <v>0.4175</v>
       </c>
       <c r="C23" t="n">
-        <v>0.673892</v>
+        <v>0.7026559999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.917948</v>
+        <v>0.918111</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970885</v>
+        <v>0.970137</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27514</v>
+        <v>1.27705</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.571928</v>
+        <v>0.572424</v>
       </c>
       <c r="C24" t="n">
-        <v>0.845348</v>
+        <v>0.844901</v>
       </c>
       <c r="D24" t="n">
-        <v>0.897452</v>
+        <v>0.900657</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9404709999999999</v>
+        <v>0.939476</v>
       </c>
       <c r="F24" t="n">
-        <v>1.24526</v>
+        <v>1.23927</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.553863</v>
+        <v>0.555442</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8294859999999999</v>
+        <v>0.829146</v>
       </c>
       <c r="D25" t="n">
-        <v>0.88195</v>
+        <v>0.887745</v>
       </c>
       <c r="E25" t="n">
-        <v>0.911081</v>
+        <v>0.910285</v>
       </c>
       <c r="F25" t="n">
-        <v>1.21013</v>
+        <v>1.20689</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539083</v>
+        <v>0.539</v>
       </c>
       <c r="C26" t="n">
-        <v>0.813682</v>
+        <v>0.812775</v>
       </c>
       <c r="D26" t="n">
-        <v>0.868941</v>
+        <v>0.872368</v>
       </c>
       <c r="E26" t="n">
-        <v>0.883279</v>
+        <v>0.882198</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18422</v>
+        <v>1.18194</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5225070000000001</v>
+        <v>0.553776</v>
       </c>
       <c r="C27" t="n">
-        <v>0.799271</v>
+        <v>0.7992010000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.854013</v>
+        <v>0.858335</v>
       </c>
       <c r="E27" t="n">
-        <v>0.856843</v>
+        <v>0.85578</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15746</v>
+        <v>1.15589</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.536757</v>
+        <v>0.5352789999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.787237</v>
+        <v>0.784398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.839542</v>
+        <v>0.84627</v>
       </c>
       <c r="E28" t="n">
-        <v>0.831133</v>
+        <v>0.830075</v>
       </c>
       <c r="F28" t="n">
-        <v>1.1291</v>
+        <v>1.12689</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.522329</v>
+        <v>0.521985</v>
       </c>
       <c r="C29" t="n">
-        <v>0.770926</v>
+        <v>0.768801</v>
       </c>
       <c r="D29" t="n">
-        <v>0.836018</v>
+        <v>0.839287</v>
       </c>
       <c r="E29" t="n">
-        <v>0.780362</v>
+        <v>0.80636</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10571</v>
+        <v>1.10256</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.507773</v>
+        <v>0.507669</v>
       </c>
       <c r="C30" t="n">
-        <v>0.757167</v>
+        <v>0.759657</v>
       </c>
       <c r="D30" t="n">
-        <v>0.824927</v>
+        <v>0.828777</v>
       </c>
       <c r="E30" t="n">
-        <v>0.784245</v>
+        <v>0.758863</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07976</v>
+        <v>1.07681</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.495307</v>
+        <v>0.494729</v>
       </c>
       <c r="C31" t="n">
-        <v>0.743772</v>
+        <v>0.744962</v>
       </c>
       <c r="D31" t="n">
-        <v>0.815076</v>
+        <v>0.818319</v>
       </c>
       <c r="E31" t="n">
-        <v>0.738596</v>
+        <v>0.762695</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05408</v>
+        <v>1.05358</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.458896</v>
+        <v>0.459846</v>
       </c>
       <c r="C32" t="n">
-        <v>0.754302</v>
+        <v>0.731228</v>
       </c>
       <c r="D32" t="n">
-        <v>0.809397</v>
+        <v>0.811841</v>
       </c>
       <c r="E32" t="n">
-        <v>0.719948</v>
+        <v>0.742527</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0302</v>
+        <v>1.02965</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472879</v>
+        <v>0.472458</v>
       </c>
       <c r="C33" t="n">
-        <v>0.744984</v>
+        <v>0.744972</v>
       </c>
       <c r="D33" t="n">
-        <v>0.800006</v>
+        <v>0.803377</v>
       </c>
       <c r="E33" t="n">
-        <v>0.702439</v>
+        <v>0.702206</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01195</v>
+        <v>1.01048</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.463064</v>
+        <v>0.46315</v>
       </c>
       <c r="C34" t="n">
-        <v>0.738341</v>
+        <v>0.7368170000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.792276</v>
+        <v>0.7954059999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.707153</v>
+        <v>0.707201</v>
       </c>
       <c r="F34" t="n">
-        <v>0.990563</v>
+        <v>0.98976</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.454864</v>
+        <v>0.455072</v>
       </c>
       <c r="C35" t="n">
-        <v>0.731866</v>
+        <v>0.730333</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03001</v>
+        <v>1.03507</v>
       </c>
       <c r="E35" t="n">
-        <v>0.672643</v>
+        <v>0.692053</v>
       </c>
       <c r="F35" t="n">
-        <v>0.971835</v>
+        <v>0.973289</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.429651</v>
+        <v>0.430913</v>
       </c>
       <c r="C36" t="n">
-        <v>0.727488</v>
+        <v>0.728349</v>
       </c>
       <c r="D36" t="n">
-        <v>1.00407</v>
+        <v>1.01575</v>
       </c>
       <c r="E36" t="n">
-        <v>0.661547</v>
+        <v>0.660998</v>
       </c>
       <c r="F36" t="n">
-        <v>0.959094</v>
+        <v>0.957637</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446982</v>
+        <v>0.446487</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7268019999999999</v>
+        <v>0.726882</v>
       </c>
       <c r="D37" t="n">
-        <v>0.988717</v>
+        <v>0.996251</v>
       </c>
       <c r="E37" t="n">
-        <v>0.987537</v>
+        <v>1.0041</v>
       </c>
       <c r="F37" t="n">
-        <v>1.56748</v>
+        <v>1.5685</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.622708</v>
+        <v>0.62113</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1049</v>
+        <v>1.10386</v>
       </c>
       <c r="D38" t="n">
-        <v>0.967469</v>
+        <v>0.979135</v>
       </c>
       <c r="E38" t="n">
-        <v>0.957313</v>
+        <v>0.956539</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53149</v>
+        <v>1.53155</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.621949</v>
+        <v>0.62134</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08775</v>
+        <v>1.08747</v>
       </c>
       <c r="D39" t="n">
-        <v>0.955481</v>
+        <v>0.958546</v>
       </c>
       <c r="E39" t="n">
-        <v>0.926924</v>
+        <v>0.926816</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49696</v>
+        <v>1.49755</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.601002</v>
+        <v>0.602901</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07217</v>
+        <v>1.07257</v>
       </c>
       <c r="D40" t="n">
-        <v>0.939435</v>
+        <v>0.942528</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898756</v>
+        <v>0.898092</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46477</v>
+        <v>1.46353</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.569967</v>
+        <v>0.585214</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05608</v>
+        <v>1.05587</v>
       </c>
       <c r="D41" t="n">
-        <v>0.921578</v>
+        <v>0.927544</v>
       </c>
       <c r="E41" t="n">
-        <v>0.872807</v>
+        <v>0.87177</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43183</v>
+        <v>1.43217</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.551489</v>
+        <v>0.569904</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04236</v>
+        <v>1.04265</v>
       </c>
       <c r="D42" t="n">
-        <v>0.91099</v>
+        <v>0.912373</v>
       </c>
       <c r="E42" t="n">
-        <v>0.846095</v>
+        <v>0.846274</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40265</v>
+        <v>1.40245</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.537344</v>
+        <v>0.5525139999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02863</v>
+        <v>1.0285</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8987579999999999</v>
+        <v>0.898999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8231540000000001</v>
+        <v>0.822308</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37371</v>
+        <v>1.37367</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.524572</v>
+        <v>0.523118</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01602</v>
+        <v>1.01635</v>
       </c>
       <c r="D44" t="n">
-        <v>0.885561</v>
+        <v>0.887094</v>
       </c>
       <c r="E44" t="n">
-        <v>0.800146</v>
+        <v>0.799579</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34612</v>
+        <v>1.34598</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524307</v>
+        <v>0.510584</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00398</v>
+        <v>1.00309</v>
       </c>
       <c r="D45" t="n">
-        <v>0.87803</v>
+        <v>0.879585</v>
       </c>
       <c r="E45" t="n">
-        <v>0.778475</v>
+        <v>0.777737</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32131</v>
+        <v>1.32176</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.512222</v>
+        <v>0.498696</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9927319999999999</v>
+        <v>0.992574</v>
       </c>
       <c r="D46" t="n">
-        <v>0.866787</v>
+        <v>0.869736</v>
       </c>
       <c r="E46" t="n">
-        <v>0.757394</v>
+        <v>0.756589</v>
       </c>
       <c r="F46" t="n">
-        <v>1.2978</v>
+        <v>1.29808</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.486069</v>
+        <v>0.487282</v>
       </c>
       <c r="C47" t="n">
-        <v>0.984656</v>
+        <v>0.985361</v>
       </c>
       <c r="D47" t="n">
-        <v>0.863941</v>
+        <v>0.863186</v>
       </c>
       <c r="E47" t="n">
-        <v>0.739231</v>
+        <v>0.715062</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27539</v>
+        <v>1.27579</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477473</v>
+        <v>0.47732</v>
       </c>
       <c r="C48" t="n">
-        <v>0.974503</v>
+        <v>0.974249</v>
       </c>
       <c r="D48" t="n">
-        <v>0.856989</v>
+        <v>0.855078</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7218909999999999</v>
+        <v>0.720634</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2553</v>
+        <v>1.2556</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.471239</v>
+        <v>0.468684</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9656130000000001</v>
+        <v>0.966425</v>
       </c>
       <c r="D49" t="n">
-        <v>0.849122</v>
+        <v>0.851322</v>
       </c>
       <c r="E49" t="n">
-        <v>0.686483</v>
+        <v>0.706033</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23574</v>
+        <v>1.23534</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.444365</v>
+        <v>0.462875</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9586440000000001</v>
+        <v>0.959287</v>
       </c>
       <c r="D50" t="n">
-        <v>1.07976</v>
+        <v>1.08237</v>
       </c>
       <c r="E50" t="n">
-        <v>0.673677</v>
+        <v>0.691995</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21946</v>
+        <v>1.21961</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.460438</v>
+        <v>0.459345</v>
       </c>
       <c r="C51" t="n">
-        <v>0.954211</v>
+        <v>0.955083</v>
       </c>
       <c r="D51" t="n">
-        <v>1.05769</v>
+        <v>1.06094</v>
       </c>
       <c r="E51" t="n">
-        <v>1.01964</v>
+        <v>1.03205</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64434</v>
+        <v>1.64403</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.467441</v>
+        <v>0.459057</v>
       </c>
       <c r="C52" t="n">
-        <v>0.952003</v>
+        <v>0.954171</v>
       </c>
       <c r="D52" t="n">
-        <v>1.03874</v>
+        <v>1.04026</v>
       </c>
       <c r="E52" t="n">
-        <v>0.989211</v>
+        <v>1.00085</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60661</v>
+        <v>1.60764</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.651847</v>
+        <v>0.643724</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14108</v>
+        <v>1.14089</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01746</v>
+        <v>1.02061</v>
       </c>
       <c r="E53" t="n">
-        <v>0.970007</v>
+        <v>0.961917</v>
       </c>
       <c r="F53" t="n">
-        <v>1.57105</v>
+        <v>1.56988</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6228669999999999</v>
+        <v>0.621158</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12353</v>
+        <v>1.1227</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00145</v>
+        <v>1.00461</v>
       </c>
       <c r="E54" t="n">
-        <v>0.931221</v>
+        <v>0.940202</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53571</v>
+        <v>1.53534</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.60915</v>
+        <v>0.608213</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10605</v>
+        <v>1.10726</v>
       </c>
       <c r="D55" t="n">
-        <v>0.983618</v>
+        <v>0.986957</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9047770000000001</v>
+        <v>0.902352</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50181</v>
+        <v>1.50176</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.588229</v>
+        <v>0.591511</v>
       </c>
       <c r="C56" t="n">
-        <v>1.09198</v>
+        <v>1.08939</v>
       </c>
       <c r="D56" t="n">
-        <v>0.968014</v>
+        <v>0.971502</v>
       </c>
       <c r="E56" t="n">
-        <v>0.879945</v>
+        <v>0.877258</v>
       </c>
       <c r="F56" t="n">
-        <v>1.47019</v>
+        <v>1.46993</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5735479999999999</v>
+        <v>0.57153</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07813</v>
+        <v>1.07739</v>
       </c>
       <c r="D57" t="n">
-        <v>0.952748</v>
+        <v>0.956454</v>
       </c>
       <c r="E57" t="n">
-        <v>0.854274</v>
+        <v>0.853705</v>
       </c>
       <c r="F57" t="n">
-        <v>1.43883</v>
+        <v>1.44007</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.565782</v>
+        <v>0.559435</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06477</v>
+        <v>1.06463</v>
       </c>
       <c r="D58" t="n">
-        <v>0.940292</v>
+        <v>0.943651</v>
       </c>
       <c r="E58" t="n">
-        <v>0.829562</v>
+        <v>0.83103</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41104</v>
+        <v>1.41031</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.546644</v>
+        <v>0.546249</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05147</v>
+        <v>1.05195</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9248189999999999</v>
+        <v>0.925957</v>
       </c>
       <c r="E59" t="n">
-        <v>0.813141</v>
+        <v>0.780099</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38567</v>
+        <v>1.38396</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.541488</v>
+        <v>0.532422</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03957</v>
+        <v>1.03904</v>
       </c>
       <c r="D60" t="n">
-        <v>0.915785</v>
+        <v>0.91747</v>
       </c>
       <c r="E60" t="n">
-        <v>0.794461</v>
+        <v>0.761008</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35878</v>
+        <v>1.35789</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5347460000000001</v>
+        <v>0.520058</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03052</v>
+        <v>1.03001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9055260000000001</v>
+        <v>0.908517</v>
       </c>
       <c r="E61" t="n">
-        <v>0.742443</v>
+        <v>0.775747</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33426</v>
+        <v>1.33523</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.511142</v>
+        <v>0.511409</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02185</v>
+        <v>1.02031</v>
       </c>
       <c r="D62" t="n">
-        <v>0.896245</v>
+        <v>0.898342</v>
       </c>
       <c r="E62" t="n">
-        <v>0.751501</v>
+        <v>0.7276629999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31443</v>
+        <v>1.31267</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.504162</v>
+        <v>0.500793</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01408</v>
+        <v>1.01306</v>
       </c>
       <c r="D63" t="n">
-        <v>0.887868</v>
+        <v>0.890647</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7126</v>
+        <v>0.710721</v>
       </c>
       <c r="F63" t="n">
-        <v>1.2933</v>
+        <v>1.29362</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.474805</v>
+        <v>0.496191</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00807</v>
+        <v>1.00781</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16016</v>
+        <v>1.16153</v>
       </c>
       <c r="E64" t="n">
-        <v>0.72075</v>
+        <v>0.719772</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27517</v>
+        <v>1.27561</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.497098</v>
+        <v>0.470441</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00172</v>
+        <v>0.986086</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13552</v>
+        <v>1.13919</v>
       </c>
       <c r="E65" t="n">
-        <v>0.715597</v>
+        <v>0.688294</v>
       </c>
       <c r="F65" t="n">
-        <v>1.2609</v>
+        <v>1.26264</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.468031</v>
+        <v>0.468303</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00177</v>
+        <v>1.00105</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10627</v>
+        <v>1.10677</v>
       </c>
       <c r="E66" t="n">
-        <v>1.05249</v>
+        <v>1.06456</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68806</v>
+        <v>1.68827</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.725185</v>
+        <v>0.719002</v>
       </c>
       <c r="C67" t="n">
-        <v>1.21075</v>
+        <v>1.20725</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07563</v>
+        <v>1.07858</v>
       </c>
       <c r="E67" t="n">
-        <v>1.02538</v>
+        <v>1.03562</v>
       </c>
       <c r="F67" t="n">
-        <v>1.6491</v>
+        <v>1.64847</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.709809</v>
+        <v>0.693993</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19297</v>
+        <v>1.19306</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05871</v>
+        <v>1.06072</v>
       </c>
       <c r="E68" t="n">
-        <v>0.996387</v>
+        <v>1.00857</v>
       </c>
       <c r="F68" t="n">
-        <v>1.62024</v>
+        <v>1.62067</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.693848</v>
+        <v>0.69211</v>
       </c>
       <c r="C69" t="n">
-        <v>1.18295</v>
+        <v>1.17972</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04284</v>
+        <v>1.04316</v>
       </c>
       <c r="E69" t="n">
-        <v>0.983529</v>
+        <v>0.970231</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58436</v>
+        <v>1.58071</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6760659999999999</v>
+        <v>0.675444</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16653</v>
+        <v>1.16541</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02918</v>
+        <v>1.03094</v>
       </c>
       <c r="E70" t="n">
-        <v>0.946379</v>
+        <v>0.953813</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55373</v>
+        <v>1.55429</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.66918</v>
+        <v>0.654899</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15688</v>
+        <v>1.15645</v>
       </c>
       <c r="D71" t="n">
-        <v>0.99592</v>
+        <v>1.0005</v>
       </c>
       <c r="E71" t="n">
-        <v>0.923597</v>
+        <v>0.918611</v>
       </c>
       <c r="F71" t="n">
-        <v>1.5283</v>
+        <v>1.52708</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.648173</v>
+        <v>0.6533910000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>1.15239</v>
+        <v>1.14952</v>
       </c>
       <c r="D72" t="n">
-        <v>0.990359</v>
+        <v>0.993185</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8577399999999999</v>
+        <v>0.895436</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50892</v>
+        <v>1.50286</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.629175</v>
+        <v>0.627204</v>
       </c>
       <c r="C73" t="n">
-        <v>1.14955</v>
+        <v>1.13875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.981974</v>
+        <v>0.983515</v>
       </c>
       <c r="E73" t="n">
-        <v>0.874769</v>
+        <v>0.872213</v>
       </c>
       <c r="F73" t="n">
-        <v>1.48569</v>
+        <v>1.47798</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.624393</v>
+        <v>0.615637</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13905</v>
+        <v>1.13516</v>
       </c>
       <c r="D74" t="n">
-        <v>0.965881</v>
+        <v>0.9703270000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.817844</v>
+        <v>0.815931</v>
       </c>
       <c r="F74" t="n">
-        <v>1.46459</v>
+        <v>1.45987</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.607129</v>
+        <v>0.602457</v>
       </c>
       <c r="C75" t="n">
-        <v>1.1434</v>
+        <v>1.13551</v>
       </c>
       <c r="D75" t="n">
-        <v>0.964239</v>
+        <v>0.96716</v>
       </c>
       <c r="E75" t="n">
-        <v>0.831936</v>
+        <v>0.7953170000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>1.44644</v>
+        <v>1.4429</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.578894</v>
+        <v>0.595429</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13079</v>
+        <v>1.13342</v>
       </c>
       <c r="D76" t="n">
-        <v>0.957897</v>
+        <v>0.962978</v>
       </c>
       <c r="E76" t="n">
-        <v>0.77899</v>
+        <v>0.809149</v>
       </c>
       <c r="F76" t="n">
-        <v>1.424</v>
+        <v>1.43397</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5782389999999999</v>
+        <v>0.5856209999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13694</v>
+        <v>1.13629</v>
       </c>
       <c r="D77" t="n">
-        <v>0.949241</v>
+        <v>0.95225</v>
       </c>
       <c r="E77" t="n">
-        <v>0.796523</v>
+        <v>0.791598</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41455</v>
+        <v>1.41745</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.578391</v>
+        <v>0.5775130000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>1.14205</v>
+        <v>1.13511</v>
       </c>
       <c r="D78" t="n">
-        <v>1.4048</v>
+        <v>1.41366</v>
       </c>
       <c r="E78" t="n">
-        <v>0.777938</v>
+        <v>0.748159</v>
       </c>
       <c r="F78" t="n">
-        <v>1.40637</v>
+        <v>1.41281</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.543123</v>
+        <v>0.571088</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14723</v>
+        <v>1.14573</v>
       </c>
       <c r="D79" t="n">
-        <v>1.37766</v>
+        <v>1.38092</v>
       </c>
       <c r="E79" t="n">
-        <v>0.766514</v>
+        <v>0.73639</v>
       </c>
       <c r="F79" t="n">
-        <v>1.40816</v>
+        <v>1.40641</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5679920000000001</v>
+        <v>0.559632</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17588</v>
+        <v>1.17534</v>
       </c>
       <c r="D80" t="n">
-        <v>1.351</v>
+        <v>1.36185</v>
       </c>
       <c r="E80" t="n">
-        <v>1.13232</v>
+        <v>1.11272</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13623</v>
+        <v>2.13858</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.796955</v>
+        <v>0.800419</v>
       </c>
       <c r="C81" t="n">
-        <v>1.62999</v>
+        <v>1.63038</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31481</v>
+        <v>1.31476</v>
       </c>
       <c r="E81" t="n">
-        <v>1.11369</v>
+        <v>1.11587</v>
       </c>
       <c r="F81" t="n">
-        <v>2.1344</v>
+        <v>2.12195</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.771536</v>
+        <v>0.789818</v>
       </c>
       <c r="C82" t="n">
-        <v>1.65061</v>
+        <v>1.64053</v>
       </c>
       <c r="D82" t="n">
-        <v>1.29151</v>
+        <v>1.29559</v>
       </c>
       <c r="E82" t="n">
-        <v>1.09142</v>
+        <v>1.09581</v>
       </c>
       <c r="F82" t="n">
-        <v>2.10134</v>
+        <v>2.09061</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.782282</v>
+        <v>0.7747889999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.64413</v>
+        <v>1.64606</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27862</v>
+        <v>1.28072</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05113</v>
+        <v>1.05723</v>
       </c>
       <c r="F83" t="n">
-        <v>2.0747</v>
+        <v>2.08028</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7629</v>
+        <v>0.766063</v>
       </c>
       <c r="C84" t="n">
-        <v>1.65131</v>
+        <v>1.64557</v>
       </c>
       <c r="D84" t="n">
-        <v>1.26197</v>
+        <v>1.27226</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0443</v>
+        <v>1.05054</v>
       </c>
       <c r="F84" t="n">
-        <v>2.05472</v>
+        <v>2.06465</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7587390000000001</v>
+        <v>0.759889</v>
       </c>
       <c r="C85" t="n">
-        <v>1.65236</v>
+        <v>1.65412</v>
       </c>
       <c r="D85" t="n">
-        <v>1.22668</v>
+        <v>1.23559</v>
       </c>
       <c r="E85" t="n">
-        <v>1.00338</v>
+        <v>1.01091</v>
       </c>
       <c r="F85" t="n">
-        <v>2.03786</v>
+        <v>2.04418</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.750146</v>
+        <v>0.743583</v>
       </c>
       <c r="C86" t="n">
-        <v>1.66105</v>
+        <v>1.65596</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22553</v>
+        <v>1.22651</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9804929999999999</v>
+        <v>0.986992</v>
       </c>
       <c r="F86" t="n">
-        <v>2.0349</v>
+        <v>2.03433</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.735146</v>
+        <v>0.734083</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6687</v>
+        <v>1.6581</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22207</v>
+        <v>1.22293</v>
       </c>
       <c r="E87" t="n">
-        <v>0.954765</v>
+        <v>0.962677</v>
       </c>
       <c r="F87" t="n">
-        <v>2.02948</v>
+        <v>2.01529</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.710406</v>
+        <v>0.723666</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67675</v>
+        <v>1.67228</v>
       </c>
       <c r="D88" t="n">
-        <v>1.2183</v>
+        <v>1.21751</v>
       </c>
       <c r="E88" t="n">
-        <v>0.934825</v>
+        <v>0.940177</v>
       </c>
       <c r="F88" t="n">
-        <v>2.01859</v>
+        <v>2.00274</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.709735</v>
+        <v>0.711916</v>
       </c>
       <c r="C89" t="n">
-        <v>1.68719</v>
+        <v>1.67222</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21857</v>
+        <v>1.21729</v>
       </c>
       <c r="E89" t="n">
-        <v>0.909158</v>
+        <v>0.919331</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00733</v>
+        <v>2.00727</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.686496</v>
+        <v>0.693674</v>
       </c>
       <c r="C90" t="n">
-        <v>1.69295</v>
+        <v>1.70557</v>
       </c>
       <c r="D90" t="n">
-        <v>1.22138</v>
+        <v>1.2241</v>
       </c>
       <c r="E90" t="n">
-        <v>0.890275</v>
+        <v>0.897458</v>
       </c>
       <c r="F90" t="n">
-        <v>2.00679</v>
+        <v>1.99417</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.687886</v>
+        <v>0.696196</v>
       </c>
       <c r="C91" t="n">
-        <v>1.71364</v>
+        <v>1.43664</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22173</v>
+        <v>1.22301</v>
       </c>
       <c r="E91" t="n">
-        <v>0.841245</v>
+        <v>0.843352</v>
       </c>
       <c r="F91" t="n">
-        <v>2.0078</v>
+        <v>1.99685</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.678943</v>
+        <v>0.679338</v>
       </c>
       <c r="C92" t="n">
-        <v>1.73899</v>
+        <v>1.72734</v>
       </c>
       <c r="D92" t="n">
-        <v>2.59189</v>
+        <v>2.58346</v>
       </c>
       <c r="E92" t="n">
-        <v>0.857204</v>
+        <v>0.861842</v>
       </c>
       <c r="F92" t="n">
-        <v>2.01279</v>
+        <v>1.99588</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.67567</v>
+        <v>0.675611</v>
       </c>
       <c r="C93" t="n">
-        <v>1.72984</v>
+        <v>1.74007</v>
       </c>
       <c r="D93" t="n">
-        <v>2.40389</v>
+        <v>2.21901</v>
       </c>
       <c r="E93" t="n">
-        <v>0.843087</v>
+        <v>0.846565</v>
       </c>
       <c r="F93" t="n">
-        <v>2.01699</v>
+        <v>2.00658</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.669638</v>
+        <v>0.670102</v>
       </c>
       <c r="C94" t="n">
-        <v>1.75641</v>
+        <v>1.75612</v>
       </c>
       <c r="D94" t="n">
-        <v>2.21749</v>
+        <v>2.21082</v>
       </c>
       <c r="E94" t="n">
-        <v>1.18428</v>
+        <v>1.19683</v>
       </c>
       <c r="F94" t="n">
-        <v>3.12697</v>
+        <v>3.11791</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.891698</v>
+        <v>0.9051940000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>2.43671</v>
+        <v>2.41044</v>
       </c>
       <c r="D95" t="n">
-        <v>2.33539</v>
+        <v>2.39665</v>
       </c>
       <c r="E95" t="n">
-        <v>1.2083</v>
+        <v>1.21836</v>
       </c>
       <c r="F95" t="n">
-        <v>3.0851</v>
+        <v>3.08883</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.896488</v>
+        <v>0.890649</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42928</v>
+        <v>2.42718</v>
       </c>
       <c r="D96" t="n">
-        <v>2.39089</v>
+        <v>2.45939</v>
       </c>
       <c r="E96" t="n">
-        <v>1.16665</v>
+        <v>1.17793</v>
       </c>
       <c r="F96" t="n">
-        <v>3.06501</v>
+        <v>3.0661</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.887565</v>
+        <v>0.89298</v>
       </c>
       <c r="C97" t="n">
-        <v>2.43588</v>
+        <v>2.42963</v>
       </c>
       <c r="D97" t="n">
-        <v>2.45586</v>
+        <v>2.31238</v>
       </c>
       <c r="E97" t="n">
-        <v>1.17467</v>
+        <v>1.16102</v>
       </c>
       <c r="F97" t="n">
-        <v>3.01877</v>
+        <v>3.0189</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.861254</v>
+        <v>0.8671410000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>2.4119</v>
+        <v>2.41137</v>
       </c>
       <c r="D98" t="n">
-        <v>2.18295</v>
+        <v>1.88331</v>
       </c>
       <c r="E98" t="n">
-        <v>1.13263</v>
+        <v>1.14246</v>
       </c>
       <c r="F98" t="n">
-        <v>2.98455</v>
+        <v>2.95811</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.846773</v>
+        <v>0.869127</v>
       </c>
       <c r="C99" t="n">
-        <v>2.40382</v>
+        <v>2.39432</v>
       </c>
       <c r="D99" t="n">
-        <v>2.1786</v>
+        <v>1.80779</v>
       </c>
       <c r="E99" t="n">
-        <v>1.11105</v>
+        <v>1.14565</v>
       </c>
       <c r="F99" t="n">
-        <v>2.947</v>
+        <v>2.93136</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.850142</v>
+        <v>0.854218</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40487</v>
+        <v>2.38678</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71211</v>
+        <v>1.70861</v>
       </c>
       <c r="E100" t="n">
-        <v>1.05326</v>
+        <v>1.10391</v>
       </c>
       <c r="F100" t="n">
-        <v>2.90883</v>
+        <v>2.89034</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.838494</v>
+        <v>0.834218</v>
       </c>
       <c r="C101" t="n">
-        <v>2.38874</v>
+        <v>2.37531</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70575</v>
+        <v>1.70338</v>
       </c>
       <c r="E101" t="n">
-        <v>1.0382</v>
+        <v>1.08673</v>
       </c>
       <c r="F101" t="n">
-        <v>2.85556</v>
+        <v>2.84789</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.81848</v>
+        <v>0.8371729999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>2.37008</v>
+        <v>2.3533</v>
       </c>
       <c r="D102" t="n">
-        <v>1.70406</v>
+        <v>1.86922</v>
       </c>
       <c r="E102" t="n">
-        <v>1.02311</v>
+        <v>1.02959</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83647</v>
+        <v>1.83191</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.787148</v>
+        <v>0.781653</v>
       </c>
       <c r="C103" t="n">
-        <v>2.36659</v>
+        <v>2.35998</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70648</v>
+        <v>1.70453</v>
       </c>
       <c r="E103" t="n">
-        <v>1.04463</v>
+        <v>1.0543</v>
       </c>
       <c r="F103" t="n">
-        <v>1.78862</v>
+        <v>2.80279</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.771632</v>
+        <v>0.816766</v>
       </c>
       <c r="C104" t="n">
-        <v>2.32996</v>
+        <v>2.34756</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71098</v>
+        <v>1.71411</v>
       </c>
       <c r="E104" t="n">
-        <v>0.997744</v>
+        <v>1.03879</v>
       </c>
       <c r="F104" t="n">
-        <v>2.75828</v>
+        <v>1.74358</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.807525</v>
+        <v>0.776248</v>
       </c>
       <c r="C105" t="n">
-        <v>2.32665</v>
+        <v>1.82264</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70992</v>
+        <v>1.70677</v>
       </c>
       <c r="E105" t="n">
-        <v>1.01638</v>
+        <v>1.02441</v>
       </c>
       <c r="F105" t="n">
-        <v>2.7485</v>
+        <v>2.72806</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.802716</v>
+        <v>0.802428</v>
       </c>
       <c r="C106" t="n">
-        <v>1.64498</v>
+        <v>2.3152</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71079</v>
+        <v>1.711</v>
       </c>
       <c r="E106" t="n">
-        <v>0.97298</v>
+        <v>0.976984</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66391</v>
+        <v>1.66468</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.800585</v>
+        <v>0.778753</v>
       </c>
       <c r="C107" t="n">
-        <v>1.2759</v>
+        <v>1.28387</v>
       </c>
       <c r="D107" t="n">
-        <v>2.98159</v>
+        <v>2.96531</v>
       </c>
       <c r="E107" t="n">
-        <v>0.992345</v>
+        <v>0.965777</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62962</v>
+        <v>1.62925</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.765644</v>
+        <v>0.774743</v>
       </c>
       <c r="C108" t="n">
-        <v>1.80692</v>
+        <v>1.26419</v>
       </c>
       <c r="D108" t="n">
-        <v>2.94656</v>
+        <v>2.77314</v>
       </c>
       <c r="E108" t="n">
-        <v>1.33543</v>
+        <v>1.38024</v>
       </c>
       <c r="F108" t="n">
-        <v>3.98177</v>
+        <v>3.97945</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.789816</v>
+        <v>0.773837</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25584</v>
+        <v>1.25838</v>
       </c>
       <c r="D109" t="n">
-        <v>3.10461</v>
+        <v>3.45057</v>
       </c>
       <c r="E109" t="n">
-        <v>1.3324</v>
+        <v>1.34392</v>
       </c>
       <c r="F109" t="n">
-        <v>3.94714</v>
+        <v>3.92251</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02907</v>
+        <v>1.03598</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04256</v>
+        <v>3.03515</v>
       </c>
       <c r="D110" t="n">
-        <v>2.89999</v>
+        <v>2.88541</v>
       </c>
       <c r="E110" t="n">
-        <v>1.34974</v>
+        <v>1.33407</v>
       </c>
       <c r="F110" t="n">
-        <v>3.89206</v>
+        <v>3.86958</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.997824</v>
+        <v>1.02843</v>
       </c>
       <c r="C111" t="n">
-        <v>3.03194</v>
+        <v>3.02737</v>
       </c>
       <c r="D111" t="n">
-        <v>2.7051</v>
+        <v>2.50728</v>
       </c>
       <c r="E111" t="n">
-        <v>1.33811</v>
+        <v>1.32315</v>
       </c>
       <c r="F111" t="n">
-        <v>3.81818</v>
+        <v>3.80411</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.995389</v>
+        <v>1.01336</v>
       </c>
       <c r="C112" t="n">
-        <v>3.00378</v>
+        <v>2.99581</v>
       </c>
       <c r="D112" t="n">
-        <v>2.49746</v>
+        <v>2.30028</v>
       </c>
       <c r="E112" t="n">
-        <v>1.30097</v>
+        <v>1.31016</v>
       </c>
       <c r="F112" t="n">
-        <v>3.75402</v>
+        <v>3.74691</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.978017</v>
+        <v>0.985941</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98786</v>
+        <v>2.98585</v>
       </c>
       <c r="D113" t="n">
-        <v>2.86444</v>
+        <v>2.85655</v>
       </c>
       <c r="E113" t="n">
-        <v>1.29118</v>
+        <v>1.30169</v>
       </c>
       <c r="F113" t="n">
-        <v>3.7058</v>
+        <v>3.69821</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.961051</v>
+        <v>0.989209</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96664</v>
+        <v>2.96232</v>
       </c>
       <c r="D114" t="n">
-        <v>2.4677</v>
+        <v>2.27844</v>
       </c>
       <c r="E114" t="n">
-        <v>1.28317</v>
+        <v>1.29095</v>
       </c>
       <c r="F114" t="n">
-        <v>3.64464</v>
+        <v>3.63176</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9550149999999999</v>
+        <v>0.9659489999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>2.93587</v>
+        <v>2.9257</v>
       </c>
       <c r="D115" t="n">
-        <v>2.26389</v>
+        <v>2.2511</v>
       </c>
       <c r="E115" t="n">
-        <v>1.27375</v>
+        <v>1.28273</v>
       </c>
       <c r="F115" t="n">
-        <v>3.58651</v>
+        <v>3.57168</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.939735</v>
+        <v>0.945928</v>
       </c>
       <c r="C116" t="n">
-        <v>2.91769</v>
+        <v>2.92089</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26951</v>
+        <v>2.2572</v>
       </c>
       <c r="E116" t="n">
-        <v>1.26622</v>
+        <v>1.27307</v>
       </c>
       <c r="F116" t="n">
-        <v>3.54096</v>
+        <v>3.5284</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.941093</v>
+        <v>0.945813</v>
       </c>
       <c r="C117" t="n">
-        <v>2.90277</v>
+        <v>2.89622</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22937</v>
+        <v>2.22535</v>
       </c>
       <c r="E117" t="n">
-        <v>1.2544</v>
+        <v>1.22639</v>
       </c>
       <c r="F117" t="n">
-        <v>3.28975</v>
+        <v>3.28616</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.939961</v>
+        <v>0.947914</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88632</v>
+        <v>2.88854</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23305</v>
+        <v>2.22977</v>
       </c>
       <c r="E118" t="n">
-        <v>1.24378</v>
+        <v>1.21978</v>
       </c>
       <c r="F118" t="n">
-        <v>3.05109</v>
+        <v>3.23552</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.924816</v>
+        <v>0.923427</v>
       </c>
       <c r="C119" t="n">
-        <v>2.87768</v>
+        <v>2.8719</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2362</v>
+        <v>2.23726</v>
       </c>
       <c r="E119" t="n">
-        <v>1.21311</v>
+        <v>1.24808</v>
       </c>
       <c r="F119" t="n">
-        <v>3.19722</v>
+        <v>3.39793</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.922173</v>
+        <v>0.919372</v>
       </c>
       <c r="C120" t="n">
-        <v>2.87115</v>
+        <v>2.85809</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24397</v>
+        <v>2.23614</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20495</v>
+        <v>1.20798</v>
       </c>
       <c r="F120" t="n">
-        <v>3.37003</v>
+        <v>3.15821</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.918801</v>
+        <v>0.91945</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8658</v>
+        <v>1.6251</v>
       </c>
       <c r="D121" t="n">
-        <v>4.27655</v>
+        <v>4.25788</v>
       </c>
       <c r="E121" t="n">
-        <v>1.22275</v>
+        <v>1.20282</v>
       </c>
       <c r="F121" t="n">
-        <v>2.72065</v>
+        <v>3.30619</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.916343</v>
+        <v>0.919148</v>
       </c>
       <c r="C122" t="n">
-        <v>2.85565</v>
+        <v>2.82808</v>
       </c>
       <c r="D122" t="n">
-        <v>4.22985</v>
+        <v>3.80422</v>
       </c>
       <c r="E122" t="n">
-        <v>1.22317</v>
+        <v>1.19834</v>
       </c>
       <c r="F122" t="n">
-        <v>3.09071</v>
+        <v>3.07162</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.913151</v>
+        <v>0.917614</v>
       </c>
       <c r="C123" t="n">
-        <v>2.22827</v>
+        <v>2.82682</v>
       </c>
       <c r="D123" t="n">
-        <v>3.98666</v>
+        <v>4.17457</v>
       </c>
       <c r="E123" t="n">
-        <v>1.5867</v>
+        <v>1.6051</v>
       </c>
       <c r="F123" t="n">
-        <v>4.66104</v>
+        <v>4.64814</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.14422</v>
+        <v>1.12499</v>
       </c>
       <c r="C124" t="n">
-        <v>3.59105</v>
+        <v>3.5743</v>
       </c>
       <c r="D124" t="n">
-        <v>3.11262</v>
+        <v>3.51642</v>
       </c>
       <c r="E124" t="n">
-        <v>1.55215</v>
+        <v>1.56603</v>
       </c>
       <c r="F124" t="n">
-        <v>4.58736</v>
+        <v>4.57107</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.13709</v>
+        <v>1.1494</v>
       </c>
       <c r="C125" t="n">
-        <v>3.56086</v>
+        <v>3.56075</v>
       </c>
       <c r="D125" t="n">
-        <v>3.7053</v>
+        <v>3.69602</v>
       </c>
       <c r="E125" t="n">
-        <v>1.53873</v>
+        <v>1.55184</v>
       </c>
       <c r="F125" t="n">
-        <v>4.51079</v>
+        <v>4.49306</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.12856</v>
+        <v>1.13892</v>
       </c>
       <c r="C126" t="n">
-        <v>3.5339</v>
+        <v>3.51443</v>
       </c>
       <c r="D126" t="n">
-        <v>2.83935</v>
+        <v>3.03474</v>
       </c>
       <c r="E126" t="n">
-        <v>1.53417</v>
+        <v>1.54445</v>
       </c>
       <c r="F126" t="n">
-        <v>4.43383</v>
+        <v>4.42175</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11307</v>
+        <v>1.10603</v>
       </c>
       <c r="C127" t="n">
-        <v>3.50495</v>
+        <v>3.49358</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81334</v>
+        <v>3.00997</v>
       </c>
       <c r="E127" t="n">
-        <v>1.53845</v>
+        <v>1.53223</v>
       </c>
       <c r="F127" t="n">
-        <v>4.36931</v>
+        <v>4.35497</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.08845</v>
+        <v>1.0936</v>
       </c>
       <c r="C128" t="n">
-        <v>3.47187</v>
+        <v>3.46537</v>
       </c>
       <c r="D128" t="n">
-        <v>2.99379</v>
+        <v>2.98905</v>
       </c>
       <c r="E128" t="n">
-        <v>1.51217</v>
+        <v>1.52513</v>
       </c>
       <c r="F128" t="n">
-        <v>4.29403</v>
+        <v>4.27537</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08127</v>
+        <v>1.08706</v>
       </c>
       <c r="C129" t="n">
-        <v>3.45151</v>
+        <v>3.43418</v>
       </c>
       <c r="D129" t="n">
-        <v>2.75236</v>
+        <v>2.74533</v>
       </c>
       <c r="E129" t="n">
-        <v>1.50462</v>
+        <v>1.51702</v>
       </c>
       <c r="F129" t="n">
-        <v>4.22212</v>
+        <v>4.2178</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.08375</v>
+        <v>1.07212</v>
       </c>
       <c r="C130" t="n">
-        <v>3.42175</v>
+        <v>3.41916</v>
       </c>
       <c r="D130" t="n">
-        <v>2.73117</v>
+        <v>2.72401</v>
       </c>
       <c r="E130" t="n">
-        <v>1.49869</v>
+        <v>1.50461</v>
       </c>
       <c r="F130" t="n">
-        <v>4.16158</v>
+        <v>4.15764</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06266</v>
+        <v>1.06953</v>
       </c>
       <c r="C131" t="n">
-        <v>3.40463</v>
+        <v>3.39668</v>
       </c>
       <c r="D131" t="n">
-        <v>2.7223</v>
+        <v>2.70733</v>
       </c>
       <c r="E131" t="n">
-        <v>1.49692</v>
+        <v>1.50075</v>
       </c>
       <c r="F131" t="n">
-        <v>4.0998</v>
+        <v>4.10243</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06068</v>
+        <v>1.06648</v>
       </c>
       <c r="C132" t="n">
-        <v>3.38326</v>
+        <v>3.37206</v>
       </c>
       <c r="D132" t="n">
-        <v>2.70528</v>
+        <v>2.70471</v>
       </c>
       <c r="E132" t="n">
-        <v>1.48148</v>
+        <v>1.49272</v>
       </c>
       <c r="F132" t="n">
-        <v>3.82254</v>
+        <v>4.03862</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05349</v>
+        <v>1.05813</v>
       </c>
       <c r="C133" t="n">
-        <v>3.36913</v>
+        <v>3.34056</v>
       </c>
       <c r="D133" t="n">
-        <v>2.70386</v>
+        <v>2.69358</v>
       </c>
       <c r="E133" t="n">
-        <v>1.48222</v>
+        <v>1.45422</v>
       </c>
       <c r="F133" t="n">
-        <v>3.33816</v>
+        <v>3.77192</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06638</v>
+        <v>1.05565</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32798</v>
+        <v>3.32562</v>
       </c>
       <c r="D134" t="n">
-        <v>2.68831</v>
+        <v>2.69767</v>
       </c>
       <c r="E134" t="n">
-        <v>1.44807</v>
+        <v>1.48584</v>
       </c>
       <c r="F134" t="n">
-        <v>3.5153</v>
+        <v>3.94802</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06769</v>
+        <v>1.05216</v>
       </c>
       <c r="C135" t="n">
-        <v>3.33366</v>
+        <v>3.32348</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85804</v>
+        <v>4.85651</v>
       </c>
       <c r="E135" t="n">
-        <v>1.46453</v>
+        <v>1.48035</v>
       </c>
       <c r="F135" t="n">
-        <v>3.46965</v>
+        <v>3.23606</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05761</v>
+        <v>1.05158</v>
       </c>
       <c r="C136" t="n">
-        <v>3.32253</v>
+        <v>3.31081</v>
       </c>
       <c r="D136" t="n">
-        <v>4.35343</v>
+        <v>4.56574</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47346</v>
+        <v>1.47465</v>
       </c>
       <c r="F136" t="n">
-        <v>3.86451</v>
+        <v>3.8659</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04945</v>
+        <v>1.0567</v>
       </c>
       <c r="C137" t="n">
-        <v>3.30823</v>
+        <v>3.30931</v>
       </c>
       <c r="D137" t="n">
-        <v>4.30602</v>
+        <v>4.28953</v>
       </c>
       <c r="E137" t="n">
-        <v>1.80963</v>
+        <v>1.84283</v>
       </c>
       <c r="F137" t="n">
-        <v>5.30396</v>
+        <v>5.28174</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.27709</v>
+        <v>1.28636</v>
       </c>
       <c r="C138" t="n">
-        <v>4.07607</v>
+        <v>4.06869</v>
       </c>
       <c r="D138" t="n">
-        <v>4.25487</v>
+        <v>4.24654</v>
       </c>
       <c r="E138" t="n">
-        <v>1.79312</v>
+        <v>1.79795</v>
       </c>
       <c r="F138" t="n">
-        <v>5.21408</v>
+        <v>5.20215</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26147</v>
+        <v>1.28549</v>
       </c>
       <c r="C139" t="n">
-        <v>4.03511</v>
+        <v>4.02047</v>
       </c>
       <c r="D139" t="n">
-        <v>3.76787</v>
+        <v>3.97638</v>
       </c>
       <c r="E139" t="n">
-        <v>1.79181</v>
+        <v>1.78231</v>
       </c>
       <c r="F139" t="n">
-        <v>5.12179</v>
+        <v>5.10529</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26218</v>
+        <v>1.25662</v>
       </c>
       <c r="C140" t="n">
-        <v>3.99089</v>
+        <v>3.98828</v>
       </c>
       <c r="D140" t="n">
-        <v>3.72046</v>
+        <v>3.93705</v>
       </c>
       <c r="E140" t="n">
-        <v>1.76468</v>
+        <v>1.78996</v>
       </c>
       <c r="F140" t="n">
-        <v>5.00534</v>
+        <v>5.01268</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24455</v>
+        <v>1.25285</v>
       </c>
       <c r="C141" t="n">
-        <v>3.94386</v>
+        <v>3.94149</v>
       </c>
       <c r="D141" t="n">
-        <v>3.23054</v>
+        <v>3.44305</v>
       </c>
       <c r="E141" t="n">
-        <v>1.74591</v>
+        <v>1.75468</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92195</v>
+        <v>4.92825</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24841</v>
+        <v>1.24611</v>
       </c>
       <c r="C142" t="n">
-        <v>3.91004</v>
+        <v>3.90204</v>
       </c>
       <c r="D142" t="n">
-        <v>3.17852</v>
+        <v>3.17908</v>
       </c>
       <c r="E142" t="n">
-        <v>1.73248</v>
+        <v>1.73857</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82399</v>
+        <v>4.82606</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24363</v>
+        <v>1.24211</v>
       </c>
       <c r="C143" t="n">
-        <v>3.86</v>
+        <v>3.85947</v>
       </c>
       <c r="D143" t="n">
-        <v>3.13603</v>
+        <v>3.14062</v>
       </c>
       <c r="E143" t="n">
-        <v>1.68572</v>
+        <v>1.69029</v>
       </c>
       <c r="F143" t="n">
-        <v>4.5276</v>
+        <v>4.76071</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466069</v>
+        <v>0.466251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712235</v>
+        <v>0.711524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810532</v>
+        <v>0.812523</v>
       </c>
       <c r="E2" t="n">
-        <v>0.687453</v>
+        <v>0.687777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973232</v>
+        <v>0.97257</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455291</v>
+        <v>0.452703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700846</v>
+        <v>0.701489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.800999</v>
+        <v>0.80331</v>
       </c>
       <c r="E3" t="n">
-        <v>0.670515</v>
+        <v>0.670994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.949962</v>
+        <v>0.952221</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444629</v>
+        <v>0.44517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690517</v>
+        <v>0.694092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792517</v>
+        <v>0.795146</v>
       </c>
       <c r="E4" t="n">
-        <v>0.653854</v>
+        <v>0.654643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.931823</v>
+        <v>0.93387</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428213</v>
+        <v>0.436009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.68368</v>
+        <v>0.685568</v>
       </c>
       <c r="D5" t="n">
-        <v>0.786077</v>
+        <v>0.789672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639184</v>
+        <v>0.639913</v>
       </c>
       <c r="F5" t="n">
-        <v>0.913851</v>
+        <v>0.915677</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427537</v>
+        <v>0.428042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.67574</v>
+        <v>0.67883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8189610000000001</v>
+        <v>0.820384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625214</v>
+        <v>0.626142</v>
       </c>
       <c r="F6" t="n">
-        <v>0.896627</v>
+        <v>0.902081</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421417</v>
+        <v>0.415113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668915</v>
+        <v>0.672347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877764</v>
+        <v>0.8791639999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6138209999999999</v>
+        <v>0.613354</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883381</v>
+        <v>0.884427</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416721</v>
+        <v>0.417772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667316</v>
+        <v>0.667836</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86002</v>
+        <v>0.86166</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604322</v>
+        <v>0.604503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.873093</v>
+        <v>0.872696</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416355</v>
+        <v>0.372402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.665956</v>
+        <v>0.668914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.845959</v>
+        <v>0.846612</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914227</v>
+        <v>0.914743</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20478</v>
+        <v>1.20625</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.552165</v>
+        <v>0.553384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.809362</v>
+        <v>0.813842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.828841</v>
+        <v>0.833769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.885834</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16927</v>
+        <v>1.17447</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535795</v>
+        <v>0.541202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.794169</v>
+        <v>0.7952050000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.818623</v>
+        <v>0.816715</v>
       </c>
       <c r="E11" t="n">
-        <v>0.857969</v>
+        <v>0.858768</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14085</v>
+        <v>1.14291</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520076</v>
+        <v>0.52136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7780589999999999</v>
+        <v>0.778632</v>
       </c>
       <c r="D12" t="n">
-        <v>0.803597</v>
+        <v>0.801304</v>
       </c>
       <c r="E12" t="n">
-        <v>0.832701</v>
+        <v>0.832325</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11269</v>
+        <v>1.11661</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5073260000000001</v>
+        <v>0.505445</v>
       </c>
       <c r="C13" t="n">
-        <v>0.764779</v>
+        <v>0.7654069999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.79064</v>
+        <v>0.787261</v>
       </c>
       <c r="E13" t="n">
-        <v>0.808385</v>
+        <v>0.807959</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08921</v>
+        <v>1.08951</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491469</v>
+        <v>0.492181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.749551</v>
+        <v>0.753093</v>
       </c>
       <c r="D14" t="n">
-        <v>0.789129</v>
+        <v>0.786363</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7840510000000001</v>
+        <v>0.785307</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05826</v>
+        <v>1.06102</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482118</v>
+        <v>0.482228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.739333</v>
+        <v>0.738465</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7803909999999999</v>
+        <v>0.776883</v>
       </c>
       <c r="E15" t="n">
-        <v>0.762632</v>
+        <v>0.762937</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03342</v>
+        <v>1.03781</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.464874</v>
+        <v>0.468196</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72427</v>
+        <v>0.726422</v>
       </c>
       <c r="D16" t="n">
-        <v>0.769707</v>
+        <v>0.767885</v>
       </c>
       <c r="E16" t="n">
-        <v>0.741771</v>
+        <v>0.742054</v>
       </c>
       <c r="F16" t="n">
-        <v>1.00992</v>
+        <v>1.01352</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456027</v>
+        <v>0.455012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7125320000000001</v>
+        <v>0.715615</v>
       </c>
       <c r="D17" t="n">
-        <v>0.759879</v>
+        <v>0.758261</v>
       </c>
       <c r="E17" t="n">
-        <v>0.722067</v>
+        <v>0.722984</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0167</v>
+        <v>1.02005</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.443669</v>
+        <v>0.447386</v>
       </c>
       <c r="C18" t="n">
-        <v>0.712118</v>
+        <v>0.722232</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753873</v>
+        <v>0.753374</v>
       </c>
       <c r="E18" t="n">
-        <v>0.70473</v>
+        <v>0.705301</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9966739999999999</v>
+        <v>0.999476</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434591</v>
+        <v>0.436621</v>
       </c>
       <c r="C19" t="n">
-        <v>0.706692</v>
+        <v>0.712453</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746748</v>
+        <v>0.743998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.687926</v>
+        <v>0.68855</v>
       </c>
       <c r="F19" t="n">
-        <v>0.978133</v>
+        <v>0.980926</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428861</v>
+        <v>0.428305</v>
       </c>
       <c r="C20" t="n">
-        <v>0.69486</v>
+        <v>0.7036480000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.738582</v>
+        <v>0.736021</v>
       </c>
       <c r="E20" t="n">
-        <v>0.673175</v>
+        <v>0.673287</v>
       </c>
       <c r="F20" t="n">
-        <v>0.962517</v>
+        <v>0.964008</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42224</v>
+        <v>0.422188</v>
       </c>
       <c r="C21" t="n">
-        <v>0.687117</v>
+        <v>0.69962</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95229</v>
+        <v>0.955458</v>
       </c>
       <c r="E21" t="n">
-        <v>0.66037</v>
+        <v>0.6606880000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9543199999999999</v>
+        <v>0.955609</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418994</v>
+        <v>0.420354</v>
       </c>
       <c r="C22" t="n">
-        <v>0.703339</v>
+        <v>0.708099</v>
       </c>
       <c r="D22" t="n">
-        <v>0.935107</v>
+        <v>0.936618</v>
       </c>
       <c r="E22" t="n">
-        <v>0.65036</v>
+        <v>0.650749</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9400770000000001</v>
+        <v>0.943291</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4175</v>
+        <v>0.417405</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7026559999999999</v>
+        <v>0.708033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.918111</v>
+        <v>0.920146</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970137</v>
+        <v>0.970432</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27705</v>
+        <v>1.27798</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.572424</v>
+        <v>0.5721349999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.844901</v>
+        <v>0.847006</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900657</v>
+        <v>0.900682</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939476</v>
+        <v>0.939777</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23927</v>
+        <v>1.24024</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.555442</v>
+        <v>0.554318</v>
       </c>
       <c r="C25" t="n">
-        <v>0.829146</v>
+        <v>0.83765</v>
       </c>
       <c r="D25" t="n">
-        <v>0.887745</v>
+        <v>0.887398</v>
       </c>
       <c r="E25" t="n">
-        <v>0.910285</v>
+        <v>0.910541</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20689</v>
+        <v>1.20913</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539</v>
+        <v>0.541192</v>
       </c>
       <c r="C26" t="n">
-        <v>0.812775</v>
+        <v>0.815362</v>
       </c>
       <c r="D26" t="n">
-        <v>0.872368</v>
+        <v>0.870641</v>
       </c>
       <c r="E26" t="n">
-        <v>0.882198</v>
+        <v>0.882702</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18194</v>
+        <v>1.18795</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.553776</v>
+        <v>0.554097</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7992010000000001</v>
+        <v>0.802247</v>
       </c>
       <c r="D27" t="n">
-        <v>0.858335</v>
+        <v>0.857641</v>
       </c>
       <c r="E27" t="n">
-        <v>0.85578</v>
+        <v>0.85594</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15589</v>
+        <v>1.15469</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5352789999999999</v>
+        <v>0.536127</v>
       </c>
       <c r="C28" t="n">
-        <v>0.784398</v>
+        <v>0.787111</v>
       </c>
       <c r="D28" t="n">
-        <v>0.84627</v>
+        <v>0.844321</v>
       </c>
       <c r="E28" t="n">
-        <v>0.830075</v>
+        <v>0.830846</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12689</v>
+        <v>1.12925</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.521985</v>
+        <v>0.52141</v>
       </c>
       <c r="C29" t="n">
-        <v>0.768801</v>
+        <v>0.770637</v>
       </c>
       <c r="D29" t="n">
-        <v>0.839287</v>
+        <v>0.837195</v>
       </c>
       <c r="E29" t="n">
-        <v>0.80636</v>
+        <v>0.806516</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10256</v>
+        <v>1.10539</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.507669</v>
+        <v>0.509974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.759657</v>
+        <v>0.756028</v>
       </c>
       <c r="D30" t="n">
-        <v>0.828777</v>
+        <v>0.8265940000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.758863</v>
+        <v>0.758799</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07681</v>
+        <v>1.08059</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494729</v>
+        <v>0.496221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.744962</v>
+        <v>0.746381</v>
       </c>
       <c r="D31" t="n">
-        <v>0.818319</v>
+        <v>0.816453</v>
       </c>
       <c r="E31" t="n">
-        <v>0.762695</v>
+        <v>0.762509</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05358</v>
+        <v>1.05527</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.459846</v>
+        <v>0.482829</v>
       </c>
       <c r="C32" t="n">
-        <v>0.731228</v>
+        <v>0.753238</v>
       </c>
       <c r="D32" t="n">
-        <v>0.811841</v>
+        <v>0.80951</v>
       </c>
       <c r="E32" t="n">
-        <v>0.742527</v>
+        <v>0.743173</v>
       </c>
       <c r="F32" t="n">
-        <v>1.02965</v>
+        <v>1.03324</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472458</v>
+        <v>0.472024</v>
       </c>
       <c r="C33" t="n">
-        <v>0.744972</v>
+        <v>0.746909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.803377</v>
+        <v>0.799285</v>
       </c>
       <c r="E33" t="n">
-        <v>0.702206</v>
+        <v>0.724571</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01048</v>
+        <v>1.01268</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.46315</v>
+        <v>0.442203</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7368170000000001</v>
+        <v>0.738314</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7954059999999999</v>
+        <v>0.792617</v>
       </c>
       <c r="E34" t="n">
-        <v>0.707201</v>
+        <v>0.7070959999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.98976</v>
+        <v>0.991845</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455072</v>
+        <v>0.455249</v>
       </c>
       <c r="C35" t="n">
-        <v>0.730333</v>
+        <v>0.733299</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03507</v>
+        <v>1.03199</v>
       </c>
       <c r="E35" t="n">
-        <v>0.692053</v>
+        <v>0.672629</v>
       </c>
       <c r="F35" t="n">
-        <v>0.973289</v>
+        <v>0.975521</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.430913</v>
+        <v>0.430918</v>
       </c>
       <c r="C36" t="n">
-        <v>0.728349</v>
+        <v>0.729735</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01575</v>
+        <v>1.01925</v>
       </c>
       <c r="E36" t="n">
-        <v>0.660998</v>
+        <v>0.68013</v>
       </c>
       <c r="F36" t="n">
-        <v>0.957637</v>
+        <v>0.960331</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446487</v>
+        <v>0.446695</v>
       </c>
       <c r="C37" t="n">
-        <v>0.726882</v>
+        <v>0.72871</v>
       </c>
       <c r="D37" t="n">
-        <v>0.996251</v>
+        <v>0.993445</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0041</v>
+        <v>0.9873150000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1.5685</v>
+        <v>1.56789</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.62113</v>
+        <v>0.620166</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10386</v>
+        <v>1.10372</v>
       </c>
       <c r="D38" t="n">
-        <v>0.979135</v>
+        <v>0.981874</v>
       </c>
       <c r="E38" t="n">
-        <v>0.956539</v>
+        <v>0.95605</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53155</v>
+        <v>1.53115</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.62134</v>
+        <v>0.621209</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08747</v>
+        <v>1.0856</v>
       </c>
       <c r="D39" t="n">
-        <v>0.958546</v>
+        <v>0.957999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.926816</v>
+        <v>0.926787</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49755</v>
+        <v>1.49483</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602901</v>
+        <v>0.602201</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07257</v>
+        <v>1.07018</v>
       </c>
       <c r="D40" t="n">
-        <v>0.942528</v>
+        <v>0.941787</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898092</v>
+        <v>0.898546</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46353</v>
+        <v>1.46128</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585214</v>
+        <v>0.585798</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05587</v>
+        <v>1.05589</v>
       </c>
       <c r="D41" t="n">
-        <v>0.927544</v>
+        <v>0.925331</v>
       </c>
       <c r="E41" t="n">
-        <v>0.87177</v>
+        <v>0.871715</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43217</v>
+        <v>1.43123</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.569904</v>
+        <v>0.568503</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04265</v>
+        <v>1.04056</v>
       </c>
       <c r="D42" t="n">
-        <v>0.912373</v>
+        <v>0.910845</v>
       </c>
       <c r="E42" t="n">
-        <v>0.846274</v>
+        <v>0.846184</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40245</v>
+        <v>1.40082</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5525139999999999</v>
+        <v>0.552874</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0285</v>
+        <v>1.0264</v>
       </c>
       <c r="D43" t="n">
-        <v>0.898999</v>
+        <v>0.8967039999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.822308</v>
+        <v>0.8224320000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37367</v>
+        <v>1.37239</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.523118</v>
+        <v>0.538524</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01635</v>
+        <v>1.01395</v>
       </c>
       <c r="D44" t="n">
-        <v>0.887094</v>
+        <v>0.887248</v>
       </c>
       <c r="E44" t="n">
-        <v>0.799579</v>
+        <v>0.799588</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34598</v>
+        <v>1.347</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510584</v>
+        <v>0.510759</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00309</v>
+        <v>1.00134</v>
       </c>
       <c r="D45" t="n">
-        <v>0.879585</v>
+        <v>0.877225</v>
       </c>
       <c r="E45" t="n">
-        <v>0.777737</v>
+        <v>0.77764</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32176</v>
+        <v>1.32006</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498696</v>
+        <v>0.511619</v>
       </c>
       <c r="C46" t="n">
-        <v>0.992574</v>
+        <v>0.990503</v>
       </c>
       <c r="D46" t="n">
-        <v>0.869736</v>
+        <v>0.867289</v>
       </c>
       <c r="E46" t="n">
-        <v>0.756589</v>
+        <v>0.757386</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29808</v>
+        <v>1.29531</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487282</v>
+        <v>0.487633</v>
       </c>
       <c r="C47" t="n">
-        <v>0.985361</v>
+        <v>0.982106</v>
       </c>
       <c r="D47" t="n">
-        <v>0.863186</v>
+        <v>0.862395</v>
       </c>
       <c r="E47" t="n">
-        <v>0.715062</v>
+        <v>0.716901</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27579</v>
+        <v>1.2738</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.47732</v>
+        <v>0.489287</v>
       </c>
       <c r="C48" t="n">
-        <v>0.974249</v>
+        <v>0.97187</v>
       </c>
       <c r="D48" t="n">
-        <v>0.855078</v>
+        <v>0.856604</v>
       </c>
       <c r="E48" t="n">
-        <v>0.720634</v>
+        <v>0.721376</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2556</v>
+        <v>1.25315</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.468684</v>
+        <v>0.471085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966425</v>
+        <v>0.963396</v>
       </c>
       <c r="D49" t="n">
-        <v>0.851322</v>
+        <v>0.8496590000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.706033</v>
+        <v>0.705978</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23534</v>
+        <v>1.23362</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.462875</v>
+        <v>0.465097</v>
       </c>
       <c r="C50" t="n">
-        <v>0.959287</v>
+        <v>0.959085</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08237</v>
+        <v>1.08043</v>
       </c>
       <c r="E50" t="n">
-        <v>0.691995</v>
+        <v>0.693544</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21961</v>
+        <v>1.21802</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.459345</v>
+        <v>0.460543</v>
       </c>
       <c r="C51" t="n">
-        <v>0.955083</v>
+        <v>0.951996</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06094</v>
+        <v>1.05876</v>
       </c>
       <c r="E51" t="n">
-        <v>1.03205</v>
+        <v>1.01917</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64403</v>
+        <v>1.6437</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.459057</v>
+        <v>0.460733</v>
       </c>
       <c r="C52" t="n">
-        <v>0.954171</v>
+        <v>0.9515670000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>1.04026</v>
+        <v>1.03973</v>
       </c>
       <c r="E52" t="n">
-        <v>1.00085</v>
+        <v>0.989002</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60764</v>
+        <v>1.60982</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.643724</v>
+        <v>0.651805</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14089</v>
+        <v>1.14004</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02061</v>
+        <v>1.01811</v>
       </c>
       <c r="E53" t="n">
-        <v>0.961917</v>
+        <v>0.9572619999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1.56988</v>
+        <v>1.57001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.621158</v>
+        <v>0.630448</v>
       </c>
       <c r="C54" t="n">
-        <v>1.1227</v>
+        <v>1.1221</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00461</v>
+        <v>1.00297</v>
       </c>
       <c r="E54" t="n">
-        <v>0.940202</v>
+        <v>0.930575</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53534</v>
+        <v>1.53626</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.608213</v>
+        <v>0.608526</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10726</v>
+        <v>1.10731</v>
       </c>
       <c r="D55" t="n">
-        <v>0.986957</v>
+        <v>0.984382</v>
       </c>
       <c r="E55" t="n">
-        <v>0.902352</v>
+        <v>0.903363</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50176</v>
+        <v>1.50231</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.591511</v>
+        <v>0.5970839999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08939</v>
+        <v>1.09134</v>
       </c>
       <c r="D56" t="n">
-        <v>0.971502</v>
+        <v>0.968978</v>
       </c>
       <c r="E56" t="n">
-        <v>0.877258</v>
+        <v>0.878796</v>
       </c>
       <c r="F56" t="n">
-        <v>1.46993</v>
+        <v>1.46953</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.57153</v>
+        <v>0.575183</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07739</v>
+        <v>1.0769</v>
       </c>
       <c r="D57" t="n">
-        <v>0.956454</v>
+        <v>0.954178</v>
       </c>
       <c r="E57" t="n">
-        <v>0.853705</v>
+        <v>0.852754</v>
       </c>
       <c r="F57" t="n">
-        <v>1.44007</v>
+        <v>1.43968</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.559435</v>
+        <v>0.5594980000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06463</v>
+        <v>1.06356</v>
       </c>
       <c r="D58" t="n">
-        <v>0.943651</v>
+        <v>0.9422469999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.83103</v>
+        <v>0.831162</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41031</v>
+        <v>1.41093</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.546249</v>
+        <v>0.545199</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05195</v>
+        <v>1.05158</v>
       </c>
       <c r="D59" t="n">
-        <v>0.925957</v>
+        <v>0.925285</v>
       </c>
       <c r="E59" t="n">
-        <v>0.780099</v>
+        <v>0.808622</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38396</v>
+        <v>1.38493</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532422</v>
+        <v>0.533829</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03904</v>
+        <v>1.03927</v>
       </c>
       <c r="D60" t="n">
-        <v>0.91747</v>
+        <v>0.915111</v>
       </c>
       <c r="E60" t="n">
-        <v>0.761008</v>
+        <v>0.760117</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35789</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.520058</v>
+        <v>0.523884</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03001</v>
+        <v>1.02973</v>
       </c>
       <c r="D61" t="n">
-        <v>0.908517</v>
+        <v>0.904081</v>
       </c>
       <c r="E61" t="n">
-        <v>0.775747</v>
+        <v>0.768879</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33523</v>
+        <v>1.3349</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.511409</v>
+        <v>0.516879</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02031</v>
+        <v>1.02018</v>
       </c>
       <c r="D62" t="n">
-        <v>0.898342</v>
+        <v>0.894442</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7276629999999999</v>
+        <v>0.749326</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31267</v>
+        <v>1.31315</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.500793</v>
+        <v>0.502219</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01306</v>
+        <v>1.01375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.890647</v>
+        <v>0.886012</v>
       </c>
       <c r="E63" t="n">
-        <v>0.710721</v>
+        <v>0.733974</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29362</v>
+        <v>1.29388</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.496191</v>
+        <v>0.470717</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00781</v>
+        <v>1.00671</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16153</v>
+        <v>1.16899</v>
       </c>
       <c r="E64" t="n">
-        <v>0.719772</v>
+        <v>0.705366</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27561</v>
+        <v>1.27611</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.470441</v>
+        <v>0.468681</v>
       </c>
       <c r="C65" t="n">
-        <v>0.986086</v>
+        <v>1.00313</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13919</v>
+        <v>1.1303</v>
       </c>
       <c r="E65" t="n">
-        <v>0.688294</v>
+        <v>0.70963</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26264</v>
+        <v>1.26184</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.468303</v>
+        <v>0.489207</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00105</v>
+        <v>1.00054</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10677</v>
+        <v>1.1019</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06456</v>
+        <v>1.06349</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68827</v>
+        <v>1.68768</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.719002</v>
+        <v>0.710113</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20725</v>
+        <v>1.20767</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07858</v>
+        <v>1.0771</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03562</v>
+        <v>1.02286</v>
       </c>
       <c r="F67" t="n">
-        <v>1.64847</v>
+        <v>1.65155</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.693993</v>
+        <v>0.703891</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19306</v>
+        <v>1.19049</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06072</v>
+        <v>1.05648</v>
       </c>
       <c r="E68" t="n">
-        <v>1.00857</v>
+        <v>0.995957</v>
       </c>
       <c r="F68" t="n">
-        <v>1.62067</v>
+        <v>1.61704</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.69211</v>
+        <v>0.694638</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17972</v>
+        <v>1.17674</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04316</v>
+        <v>1.04147</v>
       </c>
       <c r="E69" t="n">
-        <v>0.970231</v>
+        <v>0.980865</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58071</v>
+        <v>1.58665</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.675444</v>
+        <v>0.674605</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16541</v>
+        <v>1.16727</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03094</v>
+        <v>1.02725</v>
       </c>
       <c r="E70" t="n">
-        <v>0.953813</v>
+        <v>0.944532</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55429</v>
+        <v>1.5533</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.654899</v>
+        <v>0.661101</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15645</v>
+        <v>1.15399</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0005</v>
+        <v>0.996186</v>
       </c>
       <c r="E71" t="n">
-        <v>0.918611</v>
+        <v>0.919028</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52708</v>
+        <v>1.52599</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6533910000000001</v>
+        <v>0.648296</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14952</v>
+        <v>1.14601</v>
       </c>
       <c r="D72" t="n">
-        <v>0.993185</v>
+        <v>0.990279</v>
       </c>
       <c r="E72" t="n">
-        <v>0.895436</v>
+        <v>0.894738</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50286</v>
+        <v>1.50535</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.627204</v>
+        <v>0.633819</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13875</v>
+        <v>1.14034</v>
       </c>
       <c r="D73" t="n">
-        <v>0.983515</v>
+        <v>0.981155</v>
       </c>
       <c r="E73" t="n">
-        <v>0.872213</v>
+        <v>0.871401</v>
       </c>
       <c r="F73" t="n">
-        <v>1.47798</v>
+        <v>1.4828</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615637</v>
+        <v>0.6115620000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13516</v>
+        <v>1.13726</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9703270000000001</v>
+        <v>0.9664779999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.815931</v>
+        <v>0.816119</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45987</v>
+        <v>1.46369</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.602457</v>
+        <v>0.6037360000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>1.13551</v>
+        <v>1.13104</v>
       </c>
       <c r="D75" t="n">
-        <v>0.96716</v>
+        <v>0.963049</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7953170000000001</v>
+        <v>0.826906</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4429</v>
+        <v>1.44519</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.595429</v>
+        <v>0.594951</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13342</v>
+        <v>1.13158</v>
       </c>
       <c r="D76" t="n">
-        <v>0.962978</v>
+        <v>0.96043</v>
       </c>
       <c r="E76" t="n">
-        <v>0.809149</v>
+        <v>0.808245</v>
       </c>
       <c r="F76" t="n">
-        <v>1.43397</v>
+        <v>1.42665</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5856209999999999</v>
+        <v>0.580419</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13629</v>
+        <v>1.12961</v>
       </c>
       <c r="D77" t="n">
-        <v>0.95225</v>
+        <v>0.948923</v>
       </c>
       <c r="E77" t="n">
-        <v>0.791598</v>
+        <v>0.761751</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41745</v>
+        <v>1.41898</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5775130000000001</v>
+        <v>0.543471</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13511</v>
+        <v>1.14193</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41366</v>
+        <v>1.40502</v>
       </c>
       <c r="E78" t="n">
-        <v>0.748159</v>
+        <v>0.774232</v>
       </c>
       <c r="F78" t="n">
-        <v>1.41281</v>
+        <v>1.40882</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571088</v>
+        <v>0.565468</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14573</v>
+        <v>1.1524</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38092</v>
+        <v>1.38247</v>
       </c>
       <c r="E79" t="n">
-        <v>0.73639</v>
+        <v>0.760863</v>
       </c>
       <c r="F79" t="n">
-        <v>1.40641</v>
+        <v>1.41384</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.559632</v>
+        <v>0.5644400000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17534</v>
+        <v>1.16443</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36185</v>
+        <v>1.35129</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11272</v>
+        <v>1.11372</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13858</v>
+        <v>2.13683</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.800419</v>
+        <v>0.796322</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63038</v>
+        <v>1.6209</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31476</v>
+        <v>1.3172</v>
       </c>
       <c r="E81" t="n">
-        <v>1.11587</v>
+        <v>1.0981</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12195</v>
+        <v>2.11977</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.789818</v>
+        <v>0.78687</v>
       </c>
       <c r="C82" t="n">
-        <v>1.64053</v>
+        <v>1.63678</v>
       </c>
       <c r="D82" t="n">
-        <v>1.29559</v>
+        <v>1.29818</v>
       </c>
       <c r="E82" t="n">
-        <v>1.09581</v>
+        <v>1.09702</v>
       </c>
       <c r="F82" t="n">
-        <v>2.09061</v>
+        <v>2.09519</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7747889999999999</v>
+        <v>0.776728</v>
       </c>
       <c r="C83" t="n">
-        <v>1.64606</v>
+        <v>1.65263</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28072</v>
+        <v>1.28592</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05723</v>
+        <v>1.05866</v>
       </c>
       <c r="F83" t="n">
-        <v>2.08028</v>
+        <v>2.08064</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.766063</v>
+        <v>0.772749</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64557</v>
+        <v>1.65241</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27226</v>
+        <v>1.2723</v>
       </c>
       <c r="E84" t="n">
-        <v>1.05054</v>
+        <v>1.03582</v>
       </c>
       <c r="F84" t="n">
-        <v>2.06465</v>
+        <v>2.05802</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.759889</v>
+        <v>0.758719</v>
       </c>
       <c r="C85" t="n">
-        <v>1.65412</v>
+        <v>1.65335</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23559</v>
+        <v>1.22951</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01091</v>
+        <v>1.01207</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04418</v>
+        <v>2.02455</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.743583</v>
+        <v>0.742603</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65596</v>
+        <v>1.64411</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22651</v>
+        <v>1.22378</v>
       </c>
       <c r="E86" t="n">
-        <v>0.986992</v>
+        <v>0.988941</v>
       </c>
       <c r="F86" t="n">
-        <v>2.03433</v>
+        <v>2.0253</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.734083</v>
+        <v>0.733677</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6581</v>
+        <v>1.65528</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22293</v>
+        <v>1.21924</v>
       </c>
       <c r="E87" t="n">
-        <v>0.962677</v>
+        <v>0.964106</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01529</v>
+        <v>2.011</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.723666</v>
+        <v>0.722356</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67228</v>
+        <v>1.65342</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21751</v>
+        <v>1.21041</v>
       </c>
       <c r="E88" t="n">
-        <v>0.940177</v>
+        <v>0.900625</v>
       </c>
       <c r="F88" t="n">
-        <v>2.00274</v>
+        <v>2.01014</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711916</v>
+        <v>0.707558</v>
       </c>
       <c r="C89" t="n">
-        <v>1.67222</v>
+        <v>1.6669</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21729</v>
+        <v>1.2138</v>
       </c>
       <c r="E89" t="n">
-        <v>0.919331</v>
+        <v>0.882749</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00727</v>
+        <v>1.99032</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.693674</v>
+        <v>0.69337</v>
       </c>
       <c r="C90" t="n">
-        <v>1.70557</v>
+        <v>1.67715</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2241</v>
+        <v>1.21786</v>
       </c>
       <c r="E90" t="n">
-        <v>0.897458</v>
+        <v>0.899406</v>
       </c>
       <c r="F90" t="n">
-        <v>1.99417</v>
+        <v>1.98752</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.696196</v>
+        <v>0.68384</v>
       </c>
       <c r="C91" t="n">
-        <v>1.43664</v>
+        <v>1.69358</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22301</v>
+        <v>1.21689</v>
       </c>
       <c r="E91" t="n">
-        <v>0.843352</v>
+        <v>0.8447</v>
       </c>
       <c r="F91" t="n">
-        <v>1.99685</v>
+        <v>1.99325</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.679338</v>
+        <v>0.6900269999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72734</v>
+        <v>1.72034</v>
       </c>
       <c r="D92" t="n">
-        <v>2.58346</v>
+        <v>2.56764</v>
       </c>
       <c r="E92" t="n">
-        <v>0.861842</v>
+        <v>0.862564</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99588</v>
+        <v>1.99014</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.675611</v>
+        <v>0.658619</v>
       </c>
       <c r="C93" t="n">
-        <v>1.74007</v>
+        <v>1.73248</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21901</v>
+        <v>2.21685</v>
       </c>
       <c r="E93" t="n">
-        <v>0.846565</v>
+        <v>0.847618</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00658</v>
+        <v>2.00166</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.670102</v>
+        <v>0.674136</v>
       </c>
       <c r="C94" t="n">
-        <v>1.75612</v>
+        <v>1.63035</v>
       </c>
       <c r="D94" t="n">
-        <v>2.21082</v>
+        <v>2.33522</v>
       </c>
       <c r="E94" t="n">
-        <v>1.19683</v>
+        <v>1.22645</v>
       </c>
       <c r="F94" t="n">
-        <v>3.11791</v>
+        <v>3.12982</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9051940000000001</v>
+        <v>0.910596</v>
       </c>
       <c r="C95" t="n">
-        <v>2.41044</v>
+        <v>2.42292</v>
       </c>
       <c r="D95" t="n">
-        <v>2.39665</v>
+        <v>2.38095</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21836</v>
+        <v>1.19169</v>
       </c>
       <c r="F95" t="n">
-        <v>3.08883</v>
+        <v>3.09562</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.890649</v>
+        <v>0.890077</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42718</v>
+        <v>2.4194</v>
       </c>
       <c r="D96" t="n">
-        <v>2.45939</v>
+        <v>2.3125</v>
       </c>
       <c r="E96" t="n">
-        <v>1.17793</v>
+        <v>1.17786</v>
       </c>
       <c r="F96" t="n">
-        <v>3.0661</v>
+        <v>3.07105</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89298</v>
+        <v>0.90281</v>
       </c>
       <c r="C97" t="n">
-        <v>2.42963</v>
+        <v>2.41905</v>
       </c>
       <c r="D97" t="n">
-        <v>2.31238</v>
+        <v>2.37627</v>
       </c>
       <c r="E97" t="n">
-        <v>1.16102</v>
+        <v>1.16065</v>
       </c>
       <c r="F97" t="n">
-        <v>3.0189</v>
+        <v>3.01574</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8671410000000001</v>
+        <v>0.877935</v>
       </c>
       <c r="C98" t="n">
-        <v>2.41137</v>
+        <v>2.41151</v>
       </c>
       <c r="D98" t="n">
-        <v>1.88331</v>
+        <v>2.09475</v>
       </c>
       <c r="E98" t="n">
-        <v>1.14246</v>
+        <v>1.1655</v>
       </c>
       <c r="F98" t="n">
-        <v>2.95811</v>
+        <v>2.97768</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.869127</v>
+        <v>0.84875</v>
       </c>
       <c r="C99" t="n">
-        <v>2.39432</v>
+        <v>2.39297</v>
       </c>
       <c r="D99" t="n">
-        <v>1.80779</v>
+        <v>1.94955</v>
       </c>
       <c r="E99" t="n">
-        <v>1.14565</v>
+        <v>1.12346</v>
       </c>
       <c r="F99" t="n">
-        <v>2.93136</v>
+        <v>2.93237</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.854218</v>
+        <v>0.848283</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38678</v>
+        <v>2.38641</v>
       </c>
       <c r="D100" t="n">
-        <v>1.70861</v>
+        <v>1.712</v>
       </c>
       <c r="E100" t="n">
-        <v>1.10391</v>
+        <v>1.10394</v>
       </c>
       <c r="F100" t="n">
-        <v>2.89034</v>
+        <v>2.73255</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.834218</v>
+        <v>0.859622</v>
       </c>
       <c r="C101" t="n">
-        <v>2.37531</v>
+        <v>2.36683</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70338</v>
+        <v>1.70438</v>
       </c>
       <c r="E101" t="n">
-        <v>1.08673</v>
+        <v>1.04304</v>
       </c>
       <c r="F101" t="n">
-        <v>2.84789</v>
+        <v>2.86196</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8371729999999999</v>
+        <v>0.839346</v>
       </c>
       <c r="C102" t="n">
-        <v>2.3533</v>
+        <v>2.36001</v>
       </c>
       <c r="D102" t="n">
-        <v>1.86922</v>
+        <v>1.70412</v>
       </c>
       <c r="E102" t="n">
-        <v>1.02959</v>
+        <v>1.06905</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83191</v>
+        <v>1.83033</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.781653</v>
+        <v>0.795068</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35998</v>
+        <v>2.34142</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70453</v>
+        <v>1.70707</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0543</v>
+        <v>1.01245</v>
       </c>
       <c r="F103" t="n">
-        <v>2.80279</v>
+        <v>1.78608</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.816766</v>
+        <v>0.776659</v>
       </c>
       <c r="C104" t="n">
-        <v>2.34756</v>
+        <v>2.3188</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71411</v>
+        <v>1.70127</v>
       </c>
       <c r="E104" t="n">
-        <v>1.03879</v>
+        <v>1.03877</v>
       </c>
       <c r="F104" t="n">
-        <v>1.74358</v>
+        <v>2.58715</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.776248</v>
+        <v>0.811018</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82264</v>
+        <v>2.31809</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70677</v>
+        <v>1.7023</v>
       </c>
       <c r="E105" t="n">
-        <v>1.02441</v>
+        <v>1.02397</v>
       </c>
       <c r="F105" t="n">
-        <v>2.72806</v>
+        <v>1.6982</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.802428</v>
+        <v>0.77002</v>
       </c>
       <c r="C106" t="n">
-        <v>2.3152</v>
+        <v>1.29192</v>
       </c>
       <c r="D106" t="n">
-        <v>1.711</v>
+        <v>1.70715</v>
       </c>
       <c r="E106" t="n">
-        <v>0.976984</v>
+        <v>1.01053</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66468</v>
+        <v>1.66119</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.778753</v>
+        <v>0.763853</v>
       </c>
       <c r="C107" t="n">
-        <v>1.28387</v>
+        <v>2.30473</v>
       </c>
       <c r="D107" t="n">
-        <v>2.96531</v>
+        <v>3.47444</v>
       </c>
       <c r="E107" t="n">
-        <v>0.965777</v>
+        <v>0.99918</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62925</v>
+        <v>1.62827</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.774743</v>
+        <v>0.766251</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26419</v>
+        <v>1.27349</v>
       </c>
       <c r="D108" t="n">
-        <v>2.77314</v>
+        <v>3.28469</v>
       </c>
       <c r="E108" t="n">
-        <v>1.38024</v>
+        <v>1.37488</v>
       </c>
       <c r="F108" t="n">
-        <v>3.97945</v>
+        <v>3.97776</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.773837</v>
+        <v>0.768613</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25838</v>
+        <v>1.25055</v>
       </c>
       <c r="D109" t="n">
-        <v>3.45057</v>
+        <v>3.27407</v>
       </c>
       <c r="E109" t="n">
-        <v>1.34392</v>
+        <v>1.33981</v>
       </c>
       <c r="F109" t="n">
-        <v>3.92251</v>
+        <v>3.91245</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03598</v>
+        <v>1.03265</v>
       </c>
       <c r="C110" t="n">
-        <v>3.03515</v>
+        <v>3.03691</v>
       </c>
       <c r="D110" t="n">
-        <v>2.88541</v>
+        <v>2.70627</v>
       </c>
       <c r="E110" t="n">
-        <v>1.33407</v>
+        <v>1.33141</v>
       </c>
       <c r="F110" t="n">
-        <v>3.86958</v>
+        <v>3.87411</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02843</v>
+        <v>1.02162</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02737</v>
+        <v>3.02634</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50728</v>
+        <v>2.32255</v>
       </c>
       <c r="E111" t="n">
-        <v>1.32315</v>
+        <v>1.34656</v>
       </c>
       <c r="F111" t="n">
-        <v>3.80411</v>
+        <v>3.81114</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01336</v>
+        <v>0.995656</v>
       </c>
       <c r="C112" t="n">
-        <v>2.99581</v>
+        <v>2.99994</v>
       </c>
       <c r="D112" t="n">
-        <v>2.30028</v>
+        <v>3.05189</v>
       </c>
       <c r="E112" t="n">
-        <v>1.31016</v>
+        <v>1.30791</v>
       </c>
       <c r="F112" t="n">
-        <v>3.74691</v>
+        <v>3.74197</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.985941</v>
+        <v>0.983579</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98585</v>
+        <v>2.96512</v>
       </c>
       <c r="D113" t="n">
-        <v>2.85655</v>
+        <v>2.65988</v>
       </c>
       <c r="E113" t="n">
-        <v>1.30169</v>
+        <v>1.29772</v>
       </c>
       <c r="F113" t="n">
-        <v>3.69821</v>
+        <v>3.68858</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989209</v>
+        <v>0.974764</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96232</v>
+        <v>2.94817</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27844</v>
+        <v>2.45446</v>
       </c>
       <c r="E114" t="n">
-        <v>1.29095</v>
+        <v>1.2885</v>
       </c>
       <c r="F114" t="n">
-        <v>3.63176</v>
+        <v>3.6229</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9659489999999999</v>
+        <v>0.950119</v>
       </c>
       <c r="C115" t="n">
-        <v>2.9257</v>
+        <v>2.92298</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2511</v>
+        <v>2.26203</v>
       </c>
       <c r="E115" t="n">
-        <v>1.28273</v>
+        <v>1.2793</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57168</v>
+        <v>3.57047</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.945928</v>
+        <v>0.948389</v>
       </c>
       <c r="C116" t="n">
-        <v>2.92089</v>
+        <v>2.90814</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2572</v>
+        <v>2.24159</v>
       </c>
       <c r="E116" t="n">
-        <v>1.27307</v>
+        <v>1.27097</v>
       </c>
       <c r="F116" t="n">
-        <v>3.5284</v>
+        <v>3.52109</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.945813</v>
+        <v>0.940298</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89622</v>
+        <v>2.89242</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22535</v>
+        <v>2.23463</v>
       </c>
       <c r="E117" t="n">
-        <v>1.22639</v>
+        <v>1.2248</v>
       </c>
       <c r="F117" t="n">
-        <v>3.28616</v>
+        <v>3.48392</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.947914</v>
+        <v>0.934168</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88854</v>
+        <v>2.87451</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22977</v>
+        <v>2.22954</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21978</v>
+        <v>1.25264</v>
       </c>
       <c r="F118" t="n">
-        <v>3.23552</v>
+        <v>3.42355</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.923427</v>
+        <v>0.925003</v>
       </c>
       <c r="C119" t="n">
-        <v>2.8719</v>
+        <v>2.85288</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23726</v>
+        <v>2.23471</v>
       </c>
       <c r="E119" t="n">
-        <v>1.24808</v>
+        <v>1.21318</v>
       </c>
       <c r="F119" t="n">
-        <v>3.39793</v>
+        <v>3.18881</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.919372</v>
+        <v>0.923255</v>
       </c>
       <c r="C120" t="n">
-        <v>2.85809</v>
+        <v>2.85367</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23614</v>
+        <v>2.23038</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20798</v>
+        <v>1.23607</v>
       </c>
       <c r="F120" t="n">
-        <v>3.15821</v>
+        <v>3.14941</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.91945</v>
+        <v>0.920949</v>
       </c>
       <c r="C121" t="n">
-        <v>1.6251</v>
+        <v>2.8451</v>
       </c>
       <c r="D121" t="n">
-        <v>4.25788</v>
+        <v>4.25043</v>
       </c>
       <c r="E121" t="n">
-        <v>1.20282</v>
+        <v>1.23401</v>
       </c>
       <c r="F121" t="n">
-        <v>3.30619</v>
+        <v>3.31832</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.919148</v>
+        <v>0.917054</v>
       </c>
       <c r="C122" t="n">
-        <v>2.82808</v>
+        <v>2.84004</v>
       </c>
       <c r="D122" t="n">
-        <v>3.80422</v>
+        <v>3.79638</v>
       </c>
       <c r="E122" t="n">
-        <v>1.19834</v>
+        <v>1.19754</v>
       </c>
       <c r="F122" t="n">
-        <v>3.07162</v>
+        <v>3.27737</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.917614</v>
+        <v>0.910439</v>
       </c>
       <c r="C123" t="n">
-        <v>2.82682</v>
+        <v>2.4219</v>
       </c>
       <c r="D123" t="n">
-        <v>4.17457</v>
+        <v>4.15754</v>
       </c>
       <c r="E123" t="n">
-        <v>1.6051</v>
+        <v>1.59537</v>
       </c>
       <c r="F123" t="n">
-        <v>4.64814</v>
+        <v>4.64828</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.12499</v>
+        <v>1.15382</v>
       </c>
       <c r="C124" t="n">
-        <v>3.5743</v>
+        <v>3.58065</v>
       </c>
       <c r="D124" t="n">
-        <v>3.51642</v>
+        <v>3.72245</v>
       </c>
       <c r="E124" t="n">
-        <v>1.56603</v>
+        <v>1.58303</v>
       </c>
       <c r="F124" t="n">
-        <v>4.57107</v>
+        <v>4.57061</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1494</v>
+        <v>1.10923</v>
       </c>
       <c r="C125" t="n">
-        <v>3.56075</v>
+        <v>3.54269</v>
       </c>
       <c r="D125" t="n">
-        <v>3.69602</v>
+        <v>2.86269</v>
       </c>
       <c r="E125" t="n">
-        <v>1.55184</v>
+        <v>1.54858</v>
       </c>
       <c r="F125" t="n">
-        <v>4.49306</v>
+        <v>4.49548</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13892</v>
+        <v>1.10838</v>
       </c>
       <c r="C126" t="n">
-        <v>3.51443</v>
+        <v>3.51451</v>
       </c>
       <c r="D126" t="n">
-        <v>3.03474</v>
+        <v>3.04351</v>
       </c>
       <c r="E126" t="n">
-        <v>1.54445</v>
+        <v>1.5365</v>
       </c>
       <c r="F126" t="n">
-        <v>4.42175</v>
+        <v>4.41631</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10603</v>
+        <v>1.09915</v>
       </c>
       <c r="C127" t="n">
-        <v>3.49358</v>
+        <v>3.4861</v>
       </c>
       <c r="D127" t="n">
-        <v>3.00997</v>
+        <v>3.01548</v>
       </c>
       <c r="E127" t="n">
-        <v>1.53223</v>
+        <v>1.53102</v>
       </c>
       <c r="F127" t="n">
-        <v>4.35497</v>
+        <v>4.34956</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.0936</v>
+        <v>1.09562</v>
       </c>
       <c r="C128" t="n">
-        <v>3.46537</v>
+        <v>3.46144</v>
       </c>
       <c r="D128" t="n">
-        <v>2.98905</v>
+        <v>2.99315</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52513</v>
+        <v>1.54287</v>
       </c>
       <c r="F128" t="n">
-        <v>4.27537</v>
+        <v>4.28451</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08706</v>
+        <v>1.10364</v>
       </c>
       <c r="C129" t="n">
-        <v>3.43418</v>
+        <v>3.43405</v>
       </c>
       <c r="D129" t="n">
-        <v>2.74533</v>
+        <v>2.74104</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51702</v>
+        <v>1.51596</v>
       </c>
       <c r="F129" t="n">
-        <v>4.2178</v>
+        <v>4.21977</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07212</v>
+        <v>1.07714</v>
       </c>
       <c r="C130" t="n">
-        <v>3.41916</v>
+        <v>3.41359</v>
       </c>
       <c r="D130" t="n">
-        <v>2.72401</v>
+        <v>2.73348</v>
       </c>
       <c r="E130" t="n">
-        <v>1.50461</v>
+        <v>1.50743</v>
       </c>
       <c r="F130" t="n">
-        <v>4.15764</v>
+        <v>4.16003</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06953</v>
+        <v>1.06413</v>
       </c>
       <c r="C131" t="n">
-        <v>3.39668</v>
+        <v>3.39922</v>
       </c>
       <c r="D131" t="n">
-        <v>2.70733</v>
+        <v>2.71721</v>
       </c>
       <c r="E131" t="n">
-        <v>1.50075</v>
+        <v>1.50196</v>
       </c>
       <c r="F131" t="n">
-        <v>4.10243</v>
+        <v>4.09768</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06648</v>
+        <v>1.06893</v>
       </c>
       <c r="C132" t="n">
-        <v>3.37206</v>
+        <v>3.38425</v>
       </c>
       <c r="D132" t="n">
-        <v>2.70471</v>
+        <v>2.71307</v>
       </c>
       <c r="E132" t="n">
-        <v>1.49272</v>
+        <v>1.49302</v>
       </c>
       <c r="F132" t="n">
-        <v>4.03862</v>
+        <v>4.04722</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05813</v>
+        <v>1.05829</v>
       </c>
       <c r="C133" t="n">
-        <v>3.34056</v>
+        <v>3.3466</v>
       </c>
       <c r="D133" t="n">
-        <v>2.69358</v>
+        <v>2.69988</v>
       </c>
       <c r="E133" t="n">
-        <v>1.45422</v>
+        <v>1.45985</v>
       </c>
       <c r="F133" t="n">
-        <v>3.77192</v>
+        <v>3.99175</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05565</v>
+        <v>1.05651</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32562</v>
+        <v>2.01245</v>
       </c>
       <c r="D134" t="n">
-        <v>2.69767</v>
+        <v>2.69287</v>
       </c>
       <c r="E134" t="n">
-        <v>1.48584</v>
+        <v>1.45141</v>
       </c>
       <c r="F134" t="n">
-        <v>3.94802</v>
+        <v>2.84968</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05216</v>
+        <v>1.05416</v>
       </c>
       <c r="C135" t="n">
-        <v>3.32348</v>
+        <v>3.32828</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85651</v>
+        <v>4.85489</v>
       </c>
       <c r="E135" t="n">
-        <v>1.48035</v>
+        <v>1.44981</v>
       </c>
       <c r="F135" t="n">
-        <v>3.23606</v>
+        <v>3.69225</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05158</v>
+        <v>1.0505</v>
       </c>
       <c r="C136" t="n">
-        <v>3.31081</v>
+        <v>3.31821</v>
       </c>
       <c r="D136" t="n">
-        <v>4.56574</v>
+        <v>4.12607</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47465</v>
+        <v>1.47428</v>
       </c>
       <c r="F136" t="n">
-        <v>3.8659</v>
+        <v>3.6488</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0567</v>
+        <v>1.05416</v>
       </c>
       <c r="C137" t="n">
-        <v>3.30931</v>
+        <v>2.42484</v>
       </c>
       <c r="D137" t="n">
-        <v>4.28953</v>
+        <v>4.52045</v>
       </c>
       <c r="E137" t="n">
-        <v>1.84283</v>
+        <v>1.83939</v>
       </c>
       <c r="F137" t="n">
-        <v>5.28174</v>
+        <v>5.29912</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28636</v>
+        <v>1.29191</v>
       </c>
       <c r="C138" t="n">
-        <v>4.06869</v>
+        <v>4.08457</v>
       </c>
       <c r="D138" t="n">
-        <v>4.24654</v>
+        <v>4.02521</v>
       </c>
       <c r="E138" t="n">
-        <v>1.79795</v>
+        <v>1.80004</v>
       </c>
       <c r="F138" t="n">
-        <v>5.20215</v>
+        <v>5.20228</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28549</v>
+        <v>1.27254</v>
       </c>
       <c r="C139" t="n">
-        <v>4.02047</v>
+        <v>4.02507</v>
       </c>
       <c r="D139" t="n">
-        <v>3.97638</v>
+        <v>3.75414</v>
       </c>
       <c r="E139" t="n">
-        <v>1.78231</v>
+        <v>1.78387</v>
       </c>
       <c r="F139" t="n">
-        <v>5.10529</v>
+        <v>5.10854</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25662</v>
+        <v>1.26595</v>
       </c>
       <c r="C140" t="n">
-        <v>3.98828</v>
+        <v>3.98407</v>
       </c>
       <c r="D140" t="n">
-        <v>3.93705</v>
+        <v>3.9385</v>
       </c>
       <c r="E140" t="n">
-        <v>1.78996</v>
+        <v>1.79078</v>
       </c>
       <c r="F140" t="n">
-        <v>5.01268</v>
+        <v>5.00725</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25285</v>
+        <v>1.24281</v>
       </c>
       <c r="C141" t="n">
-        <v>3.94149</v>
+        <v>3.93988</v>
       </c>
       <c r="D141" t="n">
-        <v>3.44305</v>
+        <v>3.44997</v>
       </c>
       <c r="E141" t="n">
-        <v>1.75468</v>
+        <v>1.75874</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92825</v>
+        <v>4.92389</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24611</v>
+        <v>1.23793</v>
       </c>
       <c r="C142" t="n">
-        <v>3.90204</v>
+        <v>3.90977</v>
       </c>
       <c r="D142" t="n">
-        <v>3.17908</v>
+        <v>3.18269</v>
       </c>
       <c r="E142" t="n">
-        <v>1.73857</v>
+        <v>1.74076</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82606</v>
+        <v>4.82873</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24211</v>
+        <v>1.24627</v>
       </c>
       <c r="C143" t="n">
-        <v>3.85947</v>
+        <v>3.86862</v>
       </c>
       <c r="D143" t="n">
-        <v>3.14062</v>
+        <v>3.14288</v>
       </c>
       <c r="E143" t="n">
-        <v>1.69029</v>
+        <v>1.73656</v>
       </c>
       <c r="F143" t="n">
-        <v>4.76071</v>
+        <v>4.75201</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466251</v>
+        <v>0.466249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.711524</v>
+        <v>0.7122889999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.812523</v>
+        <v>0.813223</v>
       </c>
       <c r="E2" t="n">
-        <v>0.687777</v>
+        <v>0.687327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.97257</v>
+        <v>0.972711</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.452703</v>
+        <v>0.453272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.701489</v>
+        <v>0.701701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.80331</v>
+        <v>0.8025099999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.670994</v>
+        <v>0.670211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.952221</v>
+        <v>0.950841</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44517</v>
+        <v>0.442835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.694092</v>
+        <v>0.691679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.795146</v>
+        <v>0.794388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.654643</v>
+        <v>0.654013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.93387</v>
+        <v>0.931594</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.436009</v>
+        <v>0.433421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.685568</v>
+        <v>0.682381</v>
       </c>
       <c r="D5" t="n">
-        <v>0.789672</v>
+        <v>0.785951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639913</v>
+        <v>0.639557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.915677</v>
+        <v>0.912918</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428042</v>
+        <v>0.427382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.67883</v>
+        <v>0.675055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.820384</v>
+        <v>0.816309</v>
       </c>
       <c r="E6" t="n">
-        <v>0.626142</v>
+        <v>0.625143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.902081</v>
+        <v>0.898099</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.415113</v>
+        <v>0.422048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.672347</v>
+        <v>0.66954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8791639999999999</v>
+        <v>0.877283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.613354</v>
+        <v>0.61346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.884427</v>
+        <v>0.882957</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.417772</v>
+        <v>0.415942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667836</v>
+        <v>0.667973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86166</v>
+        <v>0.859793</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604503</v>
+        <v>0.604205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.872696</v>
+        <v>0.872919</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.372402</v>
+        <v>0.371144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.668914</v>
+        <v>0.665698</v>
       </c>
       <c r="D9" t="n">
-        <v>0.846612</v>
+        <v>0.842454</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914743</v>
+        <v>0.913579</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20625</v>
+        <v>1.20257</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.553384</v>
+        <v>0.556221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.813842</v>
+        <v>0.808467</v>
       </c>
       <c r="D10" t="n">
-        <v>0.833769</v>
+        <v>0.83167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.885834</v>
+        <v>0.885668</v>
       </c>
       <c r="F10" t="n">
-        <v>1.17447</v>
+        <v>1.17209</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.541202</v>
+        <v>0.5361399999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7952050000000001</v>
+        <v>0.792821</v>
       </c>
       <c r="D11" t="n">
-        <v>0.816715</v>
+        <v>0.817311</v>
       </c>
       <c r="E11" t="n">
-        <v>0.858768</v>
+        <v>0.857488</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14291</v>
+        <v>1.14265</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.52136</v>
+        <v>0.523387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.778632</v>
+        <v>0.777917</v>
       </c>
       <c r="D12" t="n">
-        <v>0.801304</v>
+        <v>0.802386</v>
       </c>
       <c r="E12" t="n">
-        <v>0.832325</v>
+        <v>0.831739</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11661</v>
+        <v>1.11275</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.505445</v>
+        <v>0.507717</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7654069999999999</v>
+        <v>0.764146</v>
       </c>
       <c r="D13" t="n">
-        <v>0.787261</v>
+        <v>0.7881899999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.807959</v>
+        <v>0.807238</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08951</v>
+        <v>1.08486</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.492181</v>
+        <v>0.491642</v>
       </c>
       <c r="C14" t="n">
-        <v>0.753093</v>
+        <v>0.750347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.786363</v>
+        <v>0.785045</v>
       </c>
       <c r="E14" t="n">
-        <v>0.785307</v>
+        <v>0.784589</v>
       </c>
       <c r="F14" t="n">
-        <v>1.06102</v>
+        <v>1.05862</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482228</v>
+        <v>0.480183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.738465</v>
+        <v>0.736193</v>
       </c>
       <c r="D15" t="n">
-        <v>0.776883</v>
+        <v>0.777462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.762937</v>
+        <v>0.76185</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03781</v>
+        <v>1.03282</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.468196</v>
+        <v>0.466586</v>
       </c>
       <c r="C16" t="n">
-        <v>0.726422</v>
+        <v>0.725506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.767885</v>
+        <v>0.765363</v>
       </c>
       <c r="E16" t="n">
-        <v>0.742054</v>
+        <v>0.7415659999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>1.01352</v>
+        <v>1.00969</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455012</v>
+        <v>0.45387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.715615</v>
+        <v>0.712721</v>
       </c>
       <c r="D17" t="n">
-        <v>0.758261</v>
+        <v>0.756013</v>
       </c>
       <c r="E17" t="n">
-        <v>0.722984</v>
+        <v>0.722147</v>
       </c>
       <c r="F17" t="n">
-        <v>1.02005</v>
+        <v>1.01645</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.447386</v>
+        <v>0.44323</v>
       </c>
       <c r="C18" t="n">
-        <v>0.722232</v>
+        <v>0.711823</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753374</v>
+        <v>0.749602</v>
       </c>
       <c r="E18" t="n">
-        <v>0.705301</v>
+        <v>0.704514</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999476</v>
+        <v>0.996096</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.436621</v>
+        <v>0.440122</v>
       </c>
       <c r="C19" t="n">
-        <v>0.712453</v>
+        <v>0.702611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.743998</v>
+        <v>0.74236</v>
       </c>
       <c r="E19" t="n">
-        <v>0.68855</v>
+        <v>0.687627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.980926</v>
+        <v>0.978231</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428305</v>
+        <v>0.429069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7036480000000001</v>
+        <v>0.6955710000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.736021</v>
+        <v>0.734121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.673287</v>
+        <v>0.673212</v>
       </c>
       <c r="F20" t="n">
-        <v>0.964008</v>
+        <v>0.961099</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.422188</v>
+        <v>0.420162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.69962</v>
+        <v>0.688893</v>
       </c>
       <c r="D21" t="n">
-        <v>0.955458</v>
+        <v>0.950583</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6606880000000001</v>
+        <v>0.660416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.955609</v>
+        <v>0.953003</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420354</v>
+        <v>0.420258</v>
       </c>
       <c r="C22" t="n">
-        <v>0.708099</v>
+        <v>0.704249</v>
       </c>
       <c r="D22" t="n">
-        <v>0.936618</v>
+        <v>0.930103</v>
       </c>
       <c r="E22" t="n">
-        <v>0.650749</v>
+        <v>0.650201</v>
       </c>
       <c r="F22" t="n">
-        <v>0.943291</v>
+        <v>0.941004</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.417405</v>
+        <v>0.443475</v>
       </c>
       <c r="C23" t="n">
-        <v>0.708033</v>
+        <v>0.703209</v>
       </c>
       <c r="D23" t="n">
-        <v>0.920146</v>
+        <v>0.917695</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970432</v>
+        <v>0.970404</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27798</v>
+        <v>1.27277</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5721349999999999</v>
+        <v>0.572823</v>
       </c>
       <c r="C24" t="n">
-        <v>0.847006</v>
+        <v>0.844763</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900682</v>
+        <v>0.89783</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939777</v>
+        <v>0.940128</v>
       </c>
       <c r="F24" t="n">
-        <v>1.24024</v>
+        <v>1.23816</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.554318</v>
+        <v>0.554906</v>
       </c>
       <c r="C25" t="n">
-        <v>0.83765</v>
+        <v>0.828688</v>
       </c>
       <c r="D25" t="n">
-        <v>0.887398</v>
+        <v>0.8854649999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.910541</v>
+        <v>0.910508</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20913</v>
+        <v>1.20714</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.541192</v>
+        <v>0.539181</v>
       </c>
       <c r="C26" t="n">
-        <v>0.815362</v>
+        <v>0.8138649999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.870641</v>
+        <v>0.869903</v>
       </c>
       <c r="E26" t="n">
-        <v>0.882702</v>
+        <v>0.85244</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18795</v>
+        <v>1.18803</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.554097</v>
+        <v>0.553135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.802247</v>
+        <v>0.798179</v>
       </c>
       <c r="D27" t="n">
-        <v>0.857641</v>
+        <v>0.856952</v>
       </c>
       <c r="E27" t="n">
-        <v>0.85594</v>
+        <v>0.855684</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15469</v>
+        <v>1.15563</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.536127</v>
+        <v>0.534741</v>
       </c>
       <c r="C28" t="n">
-        <v>0.787111</v>
+        <v>0.783211</v>
       </c>
       <c r="D28" t="n">
-        <v>0.844321</v>
+        <v>0.84229</v>
       </c>
       <c r="E28" t="n">
-        <v>0.830846</v>
+        <v>0.830253</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12925</v>
+        <v>1.12816</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.52141</v>
+        <v>0.521325</v>
       </c>
       <c r="C29" t="n">
-        <v>0.770637</v>
+        <v>0.771956</v>
       </c>
       <c r="D29" t="n">
-        <v>0.837195</v>
+        <v>0.8356789999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.806516</v>
+        <v>0.805745</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10539</v>
+        <v>1.1048</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.509974</v>
+        <v>0.507923</v>
       </c>
       <c r="C30" t="n">
-        <v>0.756028</v>
+        <v>0.758117</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8265940000000001</v>
+        <v>0.824318</v>
       </c>
       <c r="E30" t="n">
-        <v>0.758799</v>
+        <v>0.783307</v>
       </c>
       <c r="F30" t="n">
-        <v>1.08059</v>
+        <v>1.07927</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.496221</v>
+        <v>0.494129</v>
       </c>
       <c r="C31" t="n">
-        <v>0.746381</v>
+        <v>0.7433110000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.816453</v>
+        <v>0.813826</v>
       </c>
       <c r="E31" t="n">
-        <v>0.762509</v>
+        <v>0.762729</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05527</v>
+        <v>1.05598</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482829</v>
+        <v>0.482149</v>
       </c>
       <c r="C32" t="n">
-        <v>0.753238</v>
+        <v>0.752936</v>
       </c>
       <c r="D32" t="n">
-        <v>0.80951</v>
+        <v>0.808183</v>
       </c>
       <c r="E32" t="n">
-        <v>0.743173</v>
+        <v>0.719489</v>
       </c>
       <c r="F32" t="n">
-        <v>1.03324</v>
+        <v>1.0317</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472024</v>
+        <v>0.473173</v>
       </c>
       <c r="C33" t="n">
-        <v>0.746909</v>
+        <v>0.745659</v>
       </c>
       <c r="D33" t="n">
-        <v>0.799285</v>
+        <v>0.800359</v>
       </c>
       <c r="E33" t="n">
-        <v>0.724571</v>
+        <v>0.724124</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01268</v>
+        <v>1.01009</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.442203</v>
+        <v>0.463807</v>
       </c>
       <c r="C34" t="n">
-        <v>0.738314</v>
+        <v>0.738183</v>
       </c>
       <c r="D34" t="n">
-        <v>0.792617</v>
+        <v>0.792813</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7070959999999999</v>
+        <v>0.707169</v>
       </c>
       <c r="F34" t="n">
-        <v>0.991845</v>
+        <v>0.9896430000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455249</v>
+        <v>0.454864</v>
       </c>
       <c r="C35" t="n">
-        <v>0.733299</v>
+        <v>0.730641</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03199</v>
+        <v>1.03248</v>
       </c>
       <c r="E35" t="n">
-        <v>0.672629</v>
+        <v>0.672488</v>
       </c>
       <c r="F35" t="n">
-        <v>0.975521</v>
+        <v>0.972238</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.430918</v>
+        <v>0.448134</v>
       </c>
       <c r="C36" t="n">
-        <v>0.729735</v>
+        <v>0.727142</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01925</v>
+        <v>1.01256</v>
       </c>
       <c r="E36" t="n">
-        <v>0.68013</v>
+        <v>0.661395</v>
       </c>
       <c r="F36" t="n">
-        <v>0.960331</v>
+        <v>0.958754</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446695</v>
+        <v>0.446486</v>
       </c>
       <c r="C37" t="n">
-        <v>0.72871</v>
+        <v>0.726105</v>
       </c>
       <c r="D37" t="n">
-        <v>0.993445</v>
+        <v>0.993719</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9873150000000001</v>
+        <v>1.00497</v>
       </c>
       <c r="F37" t="n">
-        <v>1.56789</v>
+        <v>1.56824</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.620166</v>
+        <v>0.619943</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10372</v>
+        <v>1.10479</v>
       </c>
       <c r="D38" t="n">
-        <v>0.981874</v>
+        <v>0.976745</v>
       </c>
       <c r="E38" t="n">
-        <v>0.95605</v>
+        <v>0.9562659999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53115</v>
+        <v>1.53198</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.621209</v>
+        <v>0.621566</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0856</v>
+        <v>1.0873</v>
       </c>
       <c r="D39" t="n">
-        <v>0.957999</v>
+        <v>0.954312</v>
       </c>
       <c r="E39" t="n">
-        <v>0.926787</v>
+        <v>0.926539</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49483</v>
+        <v>1.49689</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602201</v>
+        <v>0.586674</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07018</v>
+        <v>1.07242</v>
       </c>
       <c r="D40" t="n">
-        <v>0.941787</v>
+        <v>0.939593</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898546</v>
+        <v>0.898356</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46128</v>
+        <v>1.46382</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585798</v>
+        <v>0.568997</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05589</v>
+        <v>1.05673</v>
       </c>
       <c r="D41" t="n">
-        <v>0.925331</v>
+        <v>0.926705</v>
       </c>
       <c r="E41" t="n">
-        <v>0.871715</v>
+        <v>0.871586</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43123</v>
+        <v>1.43117</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.568503</v>
+        <v>0.567229</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04056</v>
+        <v>1.0424</v>
       </c>
       <c r="D42" t="n">
-        <v>0.910845</v>
+        <v>0.909718</v>
       </c>
       <c r="E42" t="n">
-        <v>0.846184</v>
+        <v>0.845824</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40082</v>
+        <v>1.40245</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.552874</v>
+        <v>0.537734</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0264</v>
+        <v>1.02858</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8967039999999999</v>
+        <v>0.897773</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8224320000000001</v>
+        <v>0.794397</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37239</v>
+        <v>1.37311</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.538524</v>
+        <v>0.5238930000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01395</v>
+        <v>1.01541</v>
       </c>
       <c r="D44" t="n">
-        <v>0.887248</v>
+        <v>0.884714</v>
       </c>
       <c r="E44" t="n">
-        <v>0.799588</v>
+        <v>0.798786</v>
       </c>
       <c r="F44" t="n">
-        <v>1.347</v>
+        <v>1.34682</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510759</v>
+        <v>0.513267</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00134</v>
+        <v>1.00478</v>
       </c>
       <c r="D45" t="n">
-        <v>0.877225</v>
+        <v>0.877242</v>
       </c>
       <c r="E45" t="n">
-        <v>0.77764</v>
+        <v>0.7776149999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32006</v>
+        <v>1.32112</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.511619</v>
+        <v>0.498182</v>
       </c>
       <c r="C46" t="n">
-        <v>0.990503</v>
+        <v>0.99211</v>
       </c>
       <c r="D46" t="n">
-        <v>0.867289</v>
+        <v>0.866749</v>
       </c>
       <c r="E46" t="n">
-        <v>0.757386</v>
+        <v>0.757522</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29531</v>
+        <v>1.29776</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487633</v>
+        <v>0.487969</v>
       </c>
       <c r="C47" t="n">
-        <v>0.982106</v>
+        <v>0.983276</v>
       </c>
       <c r="D47" t="n">
-        <v>0.862395</v>
+        <v>0.860098</v>
       </c>
       <c r="E47" t="n">
-        <v>0.716901</v>
+        <v>0.716654</v>
       </c>
       <c r="F47" t="n">
-        <v>1.2738</v>
+        <v>1.27488</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.489287</v>
+        <v>0.476835</v>
       </c>
       <c r="C48" t="n">
-        <v>0.97187</v>
+        <v>0.973289</v>
       </c>
       <c r="D48" t="n">
-        <v>0.856604</v>
+        <v>0.851871</v>
       </c>
       <c r="E48" t="n">
-        <v>0.721376</v>
+        <v>0.7214159999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>1.25315</v>
+        <v>1.25487</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.471085</v>
+        <v>0.469564</v>
       </c>
       <c r="C49" t="n">
-        <v>0.963396</v>
+        <v>0.965054</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8496590000000001</v>
+        <v>0.8478869999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.705978</v>
+        <v>0.704972</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23362</v>
+        <v>1.23618</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.465097</v>
+        <v>0.462802</v>
       </c>
       <c r="C50" t="n">
-        <v>0.959085</v>
+        <v>0.959071</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08043</v>
+        <v>1.07994</v>
       </c>
       <c r="E50" t="n">
-        <v>0.693544</v>
+        <v>0.673975</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21802</v>
+        <v>1.21994</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.460543</v>
+        <v>0.461009</v>
       </c>
       <c r="C51" t="n">
-        <v>0.951996</v>
+        <v>0.954968</v>
       </c>
       <c r="D51" t="n">
-        <v>1.05876</v>
+        <v>1.05726</v>
       </c>
       <c r="E51" t="n">
-        <v>1.01917</v>
+        <v>1.03184</v>
       </c>
       <c r="F51" t="n">
-        <v>1.6437</v>
+        <v>1.64392</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.460733</v>
+        <v>0.458682</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9515670000000001</v>
+        <v>0.952592</v>
       </c>
       <c r="D52" t="n">
-        <v>1.03973</v>
+        <v>1.03908</v>
       </c>
       <c r="E52" t="n">
-        <v>0.989002</v>
+        <v>0.9969749999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60982</v>
+        <v>1.61401</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.651805</v>
+        <v>0.650542</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14004</v>
+        <v>1.14035</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01811</v>
+        <v>1.01854</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9572619999999999</v>
+        <v>0.956736</v>
       </c>
       <c r="F53" t="n">
-        <v>1.57001</v>
+        <v>1.57566</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.630448</v>
+        <v>0.629649</v>
       </c>
       <c r="C54" t="n">
-        <v>1.1221</v>
+        <v>1.12191</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00297</v>
+        <v>1.00272</v>
       </c>
       <c r="E54" t="n">
-        <v>0.930575</v>
+        <v>0.928752</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53626</v>
+        <v>1.53723</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.608526</v>
+        <v>0.5993849999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10731</v>
+        <v>1.10673</v>
       </c>
       <c r="D55" t="n">
-        <v>0.984382</v>
+        <v>0.984702</v>
       </c>
       <c r="E55" t="n">
-        <v>0.903363</v>
+        <v>0.903002</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50231</v>
+        <v>1.50543</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5970839999999999</v>
+        <v>0.596709</v>
       </c>
       <c r="C56" t="n">
-        <v>1.09134</v>
+        <v>1.08991</v>
       </c>
       <c r="D56" t="n">
-        <v>0.968978</v>
+        <v>0.970267</v>
       </c>
       <c r="E56" t="n">
-        <v>0.878796</v>
+        <v>0.8852370000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>1.46953</v>
+        <v>1.47648</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.575183</v>
+        <v>0.5958869999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0769</v>
+        <v>1.07968</v>
       </c>
       <c r="D57" t="n">
-        <v>0.954178</v>
+        <v>0.955227</v>
       </c>
       <c r="E57" t="n">
-        <v>0.852754</v>
+        <v>0.8511840000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1.43968</v>
+        <v>1.44455</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5594980000000001</v>
+        <v>0.556905</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06356</v>
+        <v>1.06387</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9422469999999999</v>
+        <v>0.942192</v>
       </c>
       <c r="E58" t="n">
-        <v>0.831162</v>
+        <v>0.827608</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41093</v>
+        <v>1.41589</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.545199</v>
+        <v>0.548822</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05158</v>
+        <v>1.05076</v>
       </c>
       <c r="D59" t="n">
-        <v>0.925285</v>
+        <v>0.925192</v>
       </c>
       <c r="E59" t="n">
-        <v>0.808622</v>
+        <v>0.776288</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38493</v>
+        <v>1.38687</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.533829</v>
+        <v>0.532662</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03927</v>
+        <v>1.03895</v>
       </c>
       <c r="D60" t="n">
-        <v>0.915111</v>
+        <v>0.916439</v>
       </c>
       <c r="E60" t="n">
-        <v>0.760117</v>
+        <v>0.757335</v>
       </c>
       <c r="F60" t="n">
-        <v>1.359</v>
+        <v>1.35832</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.523884</v>
+        <v>0.494612</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02973</v>
+        <v>1.02881</v>
       </c>
       <c r="D61" t="n">
-        <v>0.904081</v>
+        <v>0.905435</v>
       </c>
       <c r="E61" t="n">
-        <v>0.768879</v>
+        <v>0.739623</v>
       </c>
       <c r="F61" t="n">
-        <v>1.3349</v>
+        <v>1.338</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.516879</v>
+        <v>0.482296</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02018</v>
+        <v>1.01917</v>
       </c>
       <c r="D62" t="n">
-        <v>0.894442</v>
+        <v>0.896823</v>
       </c>
       <c r="E62" t="n">
-        <v>0.749326</v>
+        <v>0.724237</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31315</v>
+        <v>1.31713</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.502219</v>
+        <v>0.478137</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01375</v>
+        <v>1.01284</v>
       </c>
       <c r="D63" t="n">
-        <v>0.886012</v>
+        <v>0.887967</v>
       </c>
       <c r="E63" t="n">
-        <v>0.733974</v>
+        <v>0.710355</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29388</v>
+        <v>1.29519</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.470717</v>
+        <v>0.495144</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00671</v>
+        <v>1.00549</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16899</v>
+        <v>1.16195</v>
       </c>
       <c r="E64" t="n">
-        <v>0.705366</v>
+        <v>0.697444</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27611</v>
+        <v>1.27661</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.468681</v>
+        <v>0.466362</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00313</v>
+        <v>1.00253</v>
       </c>
       <c r="D65" t="n">
-        <v>1.1303</v>
+        <v>1.13321</v>
       </c>
       <c r="E65" t="n">
-        <v>0.70963</v>
+        <v>0.708741</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26184</v>
+        <v>1.26319</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.489207</v>
+        <v>0.467514</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00054</v>
+        <v>0.985438</v>
       </c>
       <c r="D66" t="n">
-        <v>1.1019</v>
+        <v>1.10383</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06349</v>
+        <v>1.07442</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68768</v>
+        <v>1.69588</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.710113</v>
+        <v>0.73341</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20767</v>
+        <v>1.2109</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0771</v>
+        <v>1.07909</v>
       </c>
       <c r="E67" t="n">
-        <v>1.02286</v>
+        <v>1.03881</v>
       </c>
       <c r="F67" t="n">
-        <v>1.65155</v>
+        <v>1.65412</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.703891</v>
+        <v>0.722127</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19049</v>
+        <v>1.19913</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05648</v>
+        <v>1.05913</v>
       </c>
       <c r="E68" t="n">
-        <v>0.995957</v>
+        <v>1.01707</v>
       </c>
       <c r="F68" t="n">
-        <v>1.61704</v>
+        <v>1.6215</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.694638</v>
+        <v>0.703421</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17674</v>
+        <v>1.1796</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04147</v>
+        <v>1.04336</v>
       </c>
       <c r="E69" t="n">
-        <v>0.980865</v>
+        <v>0.984811</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58665</v>
+        <v>1.59175</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.674605</v>
+        <v>0.680485</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16727</v>
+        <v>1.17602</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02725</v>
+        <v>1.03124</v>
       </c>
       <c r="E70" t="n">
-        <v>0.944532</v>
+        <v>0.958232</v>
       </c>
       <c r="F70" t="n">
-        <v>1.5533</v>
+        <v>1.56049</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.661101</v>
+        <v>0.673706</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15399</v>
+        <v>1.16151</v>
       </c>
       <c r="D71" t="n">
-        <v>0.996186</v>
+        <v>0.999669</v>
       </c>
       <c r="E71" t="n">
-        <v>0.919028</v>
+        <v>0.935725</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52599</v>
+        <v>1.53472</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.648296</v>
+        <v>0.668876</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14601</v>
+        <v>1.15417</v>
       </c>
       <c r="D72" t="n">
-        <v>0.990279</v>
+        <v>0.99139</v>
       </c>
       <c r="E72" t="n">
-        <v>0.894738</v>
+        <v>0.910498</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50535</v>
+        <v>1.50755</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.633819</v>
+        <v>0.6447310000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>1.14034</v>
+        <v>1.14176</v>
       </c>
       <c r="D73" t="n">
-        <v>0.981155</v>
+        <v>0.983044</v>
       </c>
       <c r="E73" t="n">
-        <v>0.871401</v>
+        <v>0.8867699999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>1.4828</v>
+        <v>1.48694</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6115620000000001</v>
+        <v>0.638606</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13726</v>
+        <v>1.13845</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9664779999999999</v>
+        <v>0.968496</v>
       </c>
       <c r="E74" t="n">
-        <v>0.816119</v>
+        <v>0.831468</v>
       </c>
       <c r="F74" t="n">
-        <v>1.46369</v>
+        <v>1.4691</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6037360000000001</v>
+        <v>0.602885</v>
       </c>
       <c r="C75" t="n">
-        <v>1.13104</v>
+        <v>1.14676</v>
       </c>
       <c r="D75" t="n">
-        <v>0.963049</v>
+        <v>0.964515</v>
       </c>
       <c r="E75" t="n">
-        <v>0.826906</v>
+        <v>0.84491</v>
       </c>
       <c r="F75" t="n">
-        <v>1.44519</v>
+        <v>1.44961</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.594951</v>
+        <v>0.612777</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13158</v>
+        <v>1.13669</v>
       </c>
       <c r="D76" t="n">
-        <v>0.96043</v>
+        <v>0.960381</v>
       </c>
       <c r="E76" t="n">
-        <v>0.808245</v>
+        <v>0.824645</v>
       </c>
       <c r="F76" t="n">
-        <v>1.42665</v>
+        <v>1.43725</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.580419</v>
+        <v>0.595812</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12961</v>
+        <v>1.0994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.948923</v>
+        <v>0.94963</v>
       </c>
       <c r="E77" t="n">
-        <v>0.761751</v>
+        <v>0.776846</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41898</v>
+        <v>1.42668</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.543471</v>
+        <v>0.568112</v>
       </c>
       <c r="C78" t="n">
-        <v>1.14193</v>
+        <v>1.1433</v>
       </c>
       <c r="D78" t="n">
-        <v>1.40502</v>
+        <v>1.43437</v>
       </c>
       <c r="E78" t="n">
-        <v>0.774232</v>
+        <v>0.7891319999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>1.40882</v>
+        <v>1.41349</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.565468</v>
+        <v>0.557222</v>
       </c>
       <c r="C79" t="n">
-        <v>1.1524</v>
+        <v>1.15861</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38247</v>
+        <v>1.4086</v>
       </c>
       <c r="E79" t="n">
-        <v>0.760863</v>
+        <v>0.751426</v>
       </c>
       <c r="F79" t="n">
-        <v>1.41384</v>
+        <v>1.41547</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5644400000000001</v>
+        <v>0.557429</v>
       </c>
       <c r="C80" t="n">
-        <v>1.16443</v>
+        <v>1.18487</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35129</v>
+        <v>1.38383</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11372</v>
+        <v>1.13887</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13683</v>
+        <v>2.19094</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.796322</v>
+        <v>0.808853</v>
       </c>
       <c r="C81" t="n">
-        <v>1.6209</v>
+        <v>1.69049</v>
       </c>
       <c r="D81" t="n">
-        <v>1.3172</v>
+        <v>1.34349</v>
       </c>
       <c r="E81" t="n">
-        <v>1.0981</v>
+        <v>1.13913</v>
       </c>
       <c r="F81" t="n">
-        <v>2.11977</v>
+        <v>2.18756</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.78687</v>
+        <v>0.810076</v>
       </c>
       <c r="C82" t="n">
-        <v>1.63678</v>
+        <v>1.7067</v>
       </c>
       <c r="D82" t="n">
-        <v>1.29818</v>
+        <v>1.32116</v>
       </c>
       <c r="E82" t="n">
-        <v>1.09702</v>
+        <v>1.11928</v>
       </c>
       <c r="F82" t="n">
-        <v>2.09519</v>
+        <v>2.16078</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.776728</v>
+        <v>0.789394</v>
       </c>
       <c r="C83" t="n">
-        <v>1.65263</v>
+        <v>1.70773</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28592</v>
+        <v>1.30808</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05866</v>
+        <v>1.09881</v>
       </c>
       <c r="F83" t="n">
-        <v>2.08064</v>
+        <v>2.13835</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.772749</v>
+        <v>0.788776</v>
       </c>
       <c r="C84" t="n">
-        <v>1.65241</v>
+        <v>1.72032</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2723</v>
+        <v>1.29323</v>
       </c>
       <c r="E84" t="n">
-        <v>1.03582</v>
+        <v>1.06414</v>
       </c>
       <c r="F84" t="n">
-        <v>2.05802</v>
+        <v>2.12082</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.758719</v>
+        <v>0.765422</v>
       </c>
       <c r="C85" t="n">
-        <v>1.65335</v>
+        <v>1.72527</v>
       </c>
       <c r="D85" t="n">
-        <v>1.22951</v>
+        <v>1.25314</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01207</v>
+        <v>1.03613</v>
       </c>
       <c r="F85" t="n">
-        <v>2.02455</v>
+        <v>2.11033</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.742603</v>
+        <v>0.772748</v>
       </c>
       <c r="C86" t="n">
-        <v>1.64411</v>
+        <v>1.72515</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22378</v>
+        <v>1.24788</v>
       </c>
       <c r="E86" t="n">
-        <v>0.988941</v>
+        <v>1.01166</v>
       </c>
       <c r="F86" t="n">
-        <v>2.0253</v>
+        <v>2.10034</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.733677</v>
+        <v>0.759544</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65528</v>
+        <v>1.75213</v>
       </c>
       <c r="D87" t="n">
-        <v>1.21924</v>
+        <v>1.25138</v>
       </c>
       <c r="E87" t="n">
-        <v>0.964106</v>
+        <v>0.948078</v>
       </c>
       <c r="F87" t="n">
-        <v>2.011</v>
+        <v>2.08319</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.722356</v>
+        <v>0.7481680000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>1.65342</v>
+        <v>1.74248</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21041</v>
+        <v>1.24085</v>
       </c>
       <c r="E88" t="n">
-        <v>0.900625</v>
+        <v>0.962967</v>
       </c>
       <c r="F88" t="n">
-        <v>2.01014</v>
+        <v>2.10269</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.707558</v>
+        <v>0.724919</v>
       </c>
       <c r="C89" t="n">
-        <v>1.6669</v>
+        <v>1.7704</v>
       </c>
       <c r="D89" t="n">
-        <v>1.2138</v>
+        <v>1.24853</v>
       </c>
       <c r="E89" t="n">
-        <v>0.882749</v>
+        <v>0.906218</v>
       </c>
       <c r="F89" t="n">
-        <v>1.99032</v>
+        <v>2.0852</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.69337</v>
+        <v>0.727038</v>
       </c>
       <c r="C90" t="n">
-        <v>1.67715</v>
+        <v>1.76901</v>
       </c>
       <c r="D90" t="n">
-        <v>1.21786</v>
+        <v>1.25398</v>
       </c>
       <c r="E90" t="n">
-        <v>0.899406</v>
+        <v>0.88737</v>
       </c>
       <c r="F90" t="n">
-        <v>1.98752</v>
+        <v>2.08974</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.68384</v>
+        <v>0.679878</v>
       </c>
       <c r="C91" t="n">
-        <v>1.69358</v>
+        <v>1.78595</v>
       </c>
       <c r="D91" t="n">
-        <v>1.21689</v>
+        <v>1.2525</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8447</v>
+        <v>0.865858</v>
       </c>
       <c r="F91" t="n">
-        <v>1.99325</v>
+        <v>1.95479</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6900269999999999</v>
+        <v>0.713463</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72034</v>
+        <v>1.79419</v>
       </c>
       <c r="D92" t="n">
-        <v>2.56764</v>
+        <v>2.71543</v>
       </c>
       <c r="E92" t="n">
-        <v>0.862564</v>
+        <v>0.851382</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99014</v>
+        <v>2.07383</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.658619</v>
+        <v>0.690314</v>
       </c>
       <c r="C93" t="n">
-        <v>1.73248</v>
+        <v>1.81631</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21685</v>
+        <v>2.73228</v>
       </c>
       <c r="E93" t="n">
-        <v>0.847618</v>
+        <v>0.8657</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00166</v>
+        <v>2.10281</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.674136</v>
+        <v>0.684541</v>
       </c>
       <c r="C94" t="n">
-        <v>1.63035</v>
+        <v>1.03487</v>
       </c>
       <c r="D94" t="n">
-        <v>2.33522</v>
+        <v>2.33905</v>
       </c>
       <c r="E94" t="n">
-        <v>1.22645</v>
+        <v>1.25089</v>
       </c>
       <c r="F94" t="n">
-        <v>3.12982</v>
+        <v>3.32657</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.910596</v>
+        <v>0.934129</v>
       </c>
       <c r="C95" t="n">
-        <v>2.42292</v>
+        <v>2.58015</v>
       </c>
       <c r="D95" t="n">
-        <v>2.38095</v>
+        <v>2.4006</v>
       </c>
       <c r="E95" t="n">
-        <v>1.19169</v>
+        <v>1.2481</v>
       </c>
       <c r="F95" t="n">
-        <v>3.09562</v>
+        <v>3.27873</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.890077</v>
+        <v>0.936293</v>
       </c>
       <c r="C96" t="n">
-        <v>2.4194</v>
+        <v>2.59111</v>
       </c>
       <c r="D96" t="n">
-        <v>2.3125</v>
+        <v>2.39793</v>
       </c>
       <c r="E96" t="n">
-        <v>1.17786</v>
+        <v>1.23482</v>
       </c>
       <c r="F96" t="n">
-        <v>3.07105</v>
+        <v>3.2504</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.90281</v>
+        <v>0.904261</v>
       </c>
       <c r="C97" t="n">
-        <v>2.41905</v>
+        <v>2.59136</v>
       </c>
       <c r="D97" t="n">
-        <v>2.37627</v>
+        <v>2.69417</v>
       </c>
       <c r="E97" t="n">
-        <v>1.16065</v>
+        <v>1.21686</v>
       </c>
       <c r="F97" t="n">
-        <v>3.01574</v>
+        <v>3.21037</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.877935</v>
+        <v>0.899559</v>
       </c>
       <c r="C98" t="n">
-        <v>2.41151</v>
+        <v>2.57743</v>
       </c>
       <c r="D98" t="n">
-        <v>2.09475</v>
+        <v>2.39583</v>
       </c>
       <c r="E98" t="n">
-        <v>1.1655</v>
+        <v>1.17661</v>
       </c>
       <c r="F98" t="n">
-        <v>2.97768</v>
+        <v>3.15911</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.84875</v>
+        <v>0.909787</v>
       </c>
       <c r="C99" t="n">
-        <v>2.39297</v>
+        <v>2.54456</v>
       </c>
       <c r="D99" t="n">
-        <v>1.94955</v>
+        <v>1.82622</v>
       </c>
       <c r="E99" t="n">
-        <v>1.12346</v>
+        <v>1.15924</v>
       </c>
       <c r="F99" t="n">
-        <v>2.93237</v>
+        <v>3.11766</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.848283</v>
+        <v>0.886091</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38641</v>
+        <v>2.55186</v>
       </c>
       <c r="D100" t="n">
-        <v>1.712</v>
+        <v>1.79883</v>
       </c>
       <c r="E100" t="n">
-        <v>1.10394</v>
+        <v>1.09727</v>
       </c>
       <c r="F100" t="n">
-        <v>2.73255</v>
+        <v>3.07265</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.859622</v>
+        <v>0.868035</v>
       </c>
       <c r="C101" t="n">
-        <v>2.36683</v>
+        <v>2.53776</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70438</v>
+        <v>1.79703</v>
       </c>
       <c r="E101" t="n">
-        <v>1.04304</v>
+        <v>1.12141</v>
       </c>
       <c r="F101" t="n">
-        <v>2.86196</v>
+        <v>3.04619</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.839346</v>
+        <v>0.8650099999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>2.36001</v>
+        <v>2.51912</v>
       </c>
       <c r="D102" t="n">
-        <v>1.70412</v>
+        <v>1.79744</v>
       </c>
       <c r="E102" t="n">
-        <v>1.06905</v>
+        <v>1.10379</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83033</v>
+        <v>2.82198</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.795068</v>
+        <v>0.865404</v>
       </c>
       <c r="C103" t="n">
-        <v>2.34142</v>
+        <v>2.51241</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70707</v>
+        <v>1.80275</v>
       </c>
       <c r="E103" t="n">
-        <v>1.01245</v>
+        <v>1.08854</v>
       </c>
       <c r="F103" t="n">
-        <v>1.78608</v>
+        <v>2.96891</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.776659</v>
+        <v>0.854171</v>
       </c>
       <c r="C104" t="n">
-        <v>2.3188</v>
+        <v>2.49357</v>
       </c>
       <c r="D104" t="n">
-        <v>1.70127</v>
+        <v>1.80883</v>
       </c>
       <c r="E104" t="n">
-        <v>1.03877</v>
+        <v>1.0751</v>
       </c>
       <c r="F104" t="n">
-        <v>2.58715</v>
+        <v>2.7751</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.811018</v>
+        <v>0.848904</v>
       </c>
       <c r="C105" t="n">
-        <v>2.31809</v>
+        <v>2.50856</v>
       </c>
       <c r="D105" t="n">
-        <v>1.7023</v>
+        <v>1.80371</v>
       </c>
       <c r="E105" t="n">
-        <v>1.02397</v>
+        <v>1.05914</v>
       </c>
       <c r="F105" t="n">
-        <v>1.6982</v>
+        <v>1.78214</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.77002</v>
+        <v>0.81153</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29192</v>
+        <v>1.36172</v>
       </c>
       <c r="D106" t="n">
-        <v>1.70715</v>
+        <v>1.81107</v>
       </c>
       <c r="E106" t="n">
-        <v>1.01053</v>
+        <v>1.04803</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66119</v>
+        <v>2.88814</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.763853</v>
+        <v>0.842604</v>
       </c>
       <c r="C107" t="n">
-        <v>2.30473</v>
+        <v>2.47954</v>
       </c>
       <c r="D107" t="n">
-        <v>3.47444</v>
+        <v>3.76089</v>
       </c>
       <c r="E107" t="n">
-        <v>0.99918</v>
+        <v>1.0366</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62827</v>
+        <v>1.70668</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.766251</v>
+        <v>0.810362</v>
       </c>
       <c r="C108" t="n">
-        <v>1.27349</v>
+        <v>1.3257</v>
       </c>
       <c r="D108" t="n">
-        <v>3.28469</v>
+        <v>3.72085</v>
       </c>
       <c r="E108" t="n">
-        <v>1.37488</v>
+        <v>1.39233</v>
       </c>
       <c r="F108" t="n">
-        <v>3.97776</v>
+        <v>4.2765</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.768613</v>
+        <v>0.818074</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25055</v>
+        <v>1.31483</v>
       </c>
       <c r="D109" t="n">
-        <v>3.27407</v>
+        <v>3.53863</v>
       </c>
       <c r="E109" t="n">
-        <v>1.33981</v>
+        <v>1.38994</v>
       </c>
       <c r="F109" t="n">
-        <v>3.91245</v>
+        <v>4.23382</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03265</v>
+        <v>1.07824</v>
       </c>
       <c r="C110" t="n">
-        <v>3.03691</v>
+        <v>3.27972</v>
       </c>
       <c r="D110" t="n">
-        <v>2.70627</v>
+        <v>3.11187</v>
       </c>
       <c r="E110" t="n">
-        <v>1.33141</v>
+        <v>1.38139</v>
       </c>
       <c r="F110" t="n">
-        <v>3.87411</v>
+        <v>4.1631</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02162</v>
+        <v>1.06817</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02634</v>
+        <v>3.24518</v>
       </c>
       <c r="D111" t="n">
-        <v>2.32255</v>
+        <v>3.09016</v>
       </c>
       <c r="E111" t="n">
-        <v>1.34656</v>
+        <v>1.3714</v>
       </c>
       <c r="F111" t="n">
-        <v>3.81114</v>
+        <v>4.09728</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.995656</v>
+        <v>1.04092</v>
       </c>
       <c r="C112" t="n">
-        <v>2.99994</v>
+        <v>3.22997</v>
       </c>
       <c r="D112" t="n">
-        <v>3.05189</v>
+        <v>3.08189</v>
       </c>
       <c r="E112" t="n">
-        <v>1.30791</v>
+        <v>1.36428</v>
       </c>
       <c r="F112" t="n">
-        <v>3.74197</v>
+        <v>4.03544</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.983579</v>
+        <v>1.02189</v>
       </c>
       <c r="C113" t="n">
-        <v>2.96512</v>
+        <v>3.20115</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65988</v>
+        <v>3.27684</v>
       </c>
       <c r="E113" t="n">
-        <v>1.29772</v>
+        <v>1.35696</v>
       </c>
       <c r="F113" t="n">
-        <v>3.68858</v>
+        <v>3.97452</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.974764</v>
+        <v>1.02515</v>
       </c>
       <c r="C114" t="n">
-        <v>2.94817</v>
+        <v>3.18677</v>
       </c>
       <c r="D114" t="n">
-        <v>2.45446</v>
+        <v>3.06135</v>
       </c>
       <c r="E114" t="n">
-        <v>1.2885</v>
+        <v>1.35002</v>
       </c>
       <c r="F114" t="n">
-        <v>3.6229</v>
+        <v>3.91019</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.950119</v>
+        <v>1.01789</v>
       </c>
       <c r="C115" t="n">
-        <v>2.92298</v>
+        <v>3.17042</v>
       </c>
       <c r="D115" t="n">
-        <v>2.26203</v>
+        <v>2.84811</v>
       </c>
       <c r="E115" t="n">
-        <v>1.2793</v>
+        <v>1.34004</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57047</v>
+        <v>3.86205</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.948389</v>
+        <v>1.01176</v>
       </c>
       <c r="C116" t="n">
-        <v>2.90814</v>
+        <v>3.15974</v>
       </c>
       <c r="D116" t="n">
-        <v>2.24159</v>
+        <v>2.41509</v>
       </c>
       <c r="E116" t="n">
-        <v>1.27097</v>
+        <v>1.33495</v>
       </c>
       <c r="F116" t="n">
-        <v>3.52109</v>
+        <v>3.8272</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.940298</v>
+        <v>1.00914</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89242</v>
+        <v>3.14492</v>
       </c>
       <c r="D117" t="n">
-        <v>2.23463</v>
+        <v>2.39407</v>
       </c>
       <c r="E117" t="n">
-        <v>1.2248</v>
+        <v>1.32775</v>
       </c>
       <c r="F117" t="n">
-        <v>3.48392</v>
+        <v>3.53241</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.934168</v>
+        <v>0.980414</v>
       </c>
       <c r="C118" t="n">
-        <v>2.87451</v>
+        <v>3.12426</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22954</v>
+        <v>2.393</v>
       </c>
       <c r="E118" t="n">
-        <v>1.25264</v>
+        <v>1.32028</v>
       </c>
       <c r="F118" t="n">
-        <v>3.42355</v>
+        <v>3.49089</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.925003</v>
+        <v>0.987946</v>
       </c>
       <c r="C119" t="n">
-        <v>2.85288</v>
+        <v>3.10781</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23471</v>
+        <v>2.39353</v>
       </c>
       <c r="E119" t="n">
-        <v>1.21318</v>
+        <v>1.31543</v>
       </c>
       <c r="F119" t="n">
-        <v>3.18881</v>
+        <v>3.65789</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.923255</v>
+        <v>0.971048</v>
       </c>
       <c r="C120" t="n">
-        <v>2.85367</v>
+        <v>3.09903</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23038</v>
+        <v>2.39342</v>
       </c>
       <c r="E120" t="n">
-        <v>1.23607</v>
+        <v>1.30738</v>
       </c>
       <c r="F120" t="n">
-        <v>3.14941</v>
+        <v>3.62279</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.920949</v>
+        <v>0.967431</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8451</v>
+        <v>1.73116</v>
       </c>
       <c r="D121" t="n">
-        <v>4.25043</v>
+        <v>3.71665</v>
       </c>
       <c r="E121" t="n">
-        <v>1.23401</v>
+        <v>1.30427</v>
       </c>
       <c r="F121" t="n">
-        <v>3.31832</v>
+        <v>3.35157</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.917054</v>
+        <v>0.975359</v>
       </c>
       <c r="C122" t="n">
-        <v>2.84004</v>
+        <v>3.07765</v>
       </c>
       <c r="D122" t="n">
-        <v>3.79638</v>
+        <v>3.90129</v>
       </c>
       <c r="E122" t="n">
-        <v>1.19754</v>
+        <v>1.27099</v>
       </c>
       <c r="F122" t="n">
-        <v>3.27737</v>
+        <v>3.09715</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.910439</v>
+        <v>0.973266</v>
       </c>
       <c r="C123" t="n">
-        <v>2.4219</v>
+        <v>3.06334</v>
       </c>
       <c r="D123" t="n">
-        <v>4.15754</v>
+        <v>4.53345</v>
       </c>
       <c r="E123" t="n">
-        <v>1.59537</v>
+        <v>1.65822</v>
       </c>
       <c r="F123" t="n">
-        <v>4.64828</v>
+        <v>5.05417</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15382</v>
+        <v>1.20324</v>
       </c>
       <c r="C124" t="n">
-        <v>3.58065</v>
+        <v>3.8791</v>
       </c>
       <c r="D124" t="n">
-        <v>3.72245</v>
+        <v>4.04167</v>
       </c>
       <c r="E124" t="n">
-        <v>1.58303</v>
+        <v>1.64607</v>
       </c>
       <c r="F124" t="n">
-        <v>4.57061</v>
+        <v>4.9671</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.10923</v>
+        <v>1.19556</v>
       </c>
       <c r="C125" t="n">
-        <v>3.54269</v>
+        <v>3.85599</v>
       </c>
       <c r="D125" t="n">
-        <v>2.86269</v>
+        <v>3.55484</v>
       </c>
       <c r="E125" t="n">
-        <v>1.54858</v>
+        <v>1.66039</v>
       </c>
       <c r="F125" t="n">
-        <v>4.49548</v>
+        <v>4.89201</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10838</v>
+        <v>1.18015</v>
       </c>
       <c r="C126" t="n">
-        <v>3.51451</v>
+        <v>3.82255</v>
       </c>
       <c r="D126" t="n">
-        <v>3.04351</v>
+        <v>3.53233</v>
       </c>
       <c r="E126" t="n">
-        <v>1.5365</v>
+        <v>1.62681</v>
       </c>
       <c r="F126" t="n">
-        <v>4.41631</v>
+        <v>4.81449</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.09915</v>
+        <v>1.16052</v>
       </c>
       <c r="C127" t="n">
-        <v>3.4861</v>
+        <v>3.80035</v>
       </c>
       <c r="D127" t="n">
-        <v>3.01548</v>
+        <v>3.2642</v>
       </c>
       <c r="E127" t="n">
-        <v>1.53102</v>
+        <v>1.61748</v>
       </c>
       <c r="F127" t="n">
-        <v>4.34956</v>
+        <v>4.74136</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.09562</v>
+        <v>1.17207</v>
       </c>
       <c r="C128" t="n">
-        <v>3.46144</v>
+        <v>3.76499</v>
       </c>
       <c r="D128" t="n">
-        <v>2.99315</v>
+        <v>3.00019</v>
       </c>
       <c r="E128" t="n">
-        <v>1.54287</v>
+        <v>1.60915</v>
       </c>
       <c r="F128" t="n">
-        <v>4.28451</v>
+        <v>4.67028</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10364</v>
+        <v>1.15579</v>
       </c>
       <c r="C129" t="n">
-        <v>3.43405</v>
+        <v>3.7542</v>
       </c>
       <c r="D129" t="n">
-        <v>2.74104</v>
+        <v>2.97268</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51596</v>
+        <v>1.60314</v>
       </c>
       <c r="F129" t="n">
-        <v>4.21977</v>
+        <v>4.59663</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07714</v>
+        <v>1.15092</v>
       </c>
       <c r="C130" t="n">
-        <v>3.41359</v>
+        <v>3.71206</v>
       </c>
       <c r="D130" t="n">
-        <v>2.73348</v>
+        <v>2.95216</v>
       </c>
       <c r="E130" t="n">
-        <v>1.50743</v>
+        <v>1.59552</v>
       </c>
       <c r="F130" t="n">
-        <v>4.16003</v>
+        <v>4.53464</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06413</v>
+        <v>1.14188</v>
       </c>
       <c r="C131" t="n">
-        <v>3.39922</v>
+        <v>3.69953</v>
       </c>
       <c r="D131" t="n">
-        <v>2.71721</v>
+        <v>2.94242</v>
       </c>
       <c r="E131" t="n">
-        <v>1.50196</v>
+        <v>1.58761</v>
       </c>
       <c r="F131" t="n">
-        <v>4.09768</v>
+        <v>4.24041</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06893</v>
+        <v>1.13264</v>
       </c>
       <c r="C132" t="n">
-        <v>3.38425</v>
+        <v>3.68213</v>
       </c>
       <c r="D132" t="n">
-        <v>2.71307</v>
+        <v>2.94357</v>
       </c>
       <c r="E132" t="n">
-        <v>1.49302</v>
+        <v>1.58125</v>
       </c>
       <c r="F132" t="n">
-        <v>4.04722</v>
+        <v>4.18434</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05829</v>
+        <v>1.10863</v>
       </c>
       <c r="C133" t="n">
-        <v>3.3466</v>
+        <v>3.67006</v>
       </c>
       <c r="D133" t="n">
-        <v>2.69988</v>
+        <v>2.92327</v>
       </c>
       <c r="E133" t="n">
-        <v>1.45985</v>
+        <v>1.54518</v>
       </c>
       <c r="F133" t="n">
-        <v>3.99175</v>
+        <v>4.34373</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05651</v>
+        <v>1.13434</v>
       </c>
       <c r="C134" t="n">
-        <v>2.01245</v>
+        <v>3.64196</v>
       </c>
       <c r="D134" t="n">
-        <v>2.69287</v>
+        <v>2.92588</v>
       </c>
       <c r="E134" t="n">
-        <v>1.45141</v>
+        <v>1.54133</v>
       </c>
       <c r="F134" t="n">
-        <v>2.84968</v>
+        <v>4.06514</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05416</v>
+        <v>1.12962</v>
       </c>
       <c r="C135" t="n">
-        <v>3.32828</v>
+        <v>3.61253</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85489</v>
+        <v>5.29579</v>
       </c>
       <c r="E135" t="n">
-        <v>1.44981</v>
+        <v>1.53824</v>
       </c>
       <c r="F135" t="n">
-        <v>3.69225</v>
+        <v>4.24578</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0505</v>
+        <v>1.14542</v>
       </c>
       <c r="C136" t="n">
-        <v>3.31821</v>
+        <v>3.62044</v>
       </c>
       <c r="D136" t="n">
-        <v>4.12607</v>
+        <v>4.75567</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47428</v>
+        <v>1.56604</v>
       </c>
       <c r="F136" t="n">
-        <v>3.6488</v>
+        <v>4.20021</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05416</v>
+        <v>1.1335</v>
       </c>
       <c r="C137" t="n">
-        <v>2.42484</v>
+        <v>2.6235</v>
       </c>
       <c r="D137" t="n">
-        <v>4.52045</v>
+        <v>5.17974</v>
       </c>
       <c r="E137" t="n">
-        <v>1.83939</v>
+        <v>1.94509</v>
       </c>
       <c r="F137" t="n">
-        <v>5.29912</v>
+        <v>5.81155</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29191</v>
+        <v>1.36878</v>
       </c>
       <c r="C138" t="n">
-        <v>4.08457</v>
+        <v>4.44528</v>
       </c>
       <c r="D138" t="n">
-        <v>4.02521</v>
+        <v>4.6444</v>
       </c>
       <c r="E138" t="n">
-        <v>1.80004</v>
+        <v>1.93048</v>
       </c>
       <c r="F138" t="n">
-        <v>5.20228</v>
+        <v>5.69513</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.27254</v>
+        <v>1.35766</v>
       </c>
       <c r="C139" t="n">
-        <v>4.02507</v>
+        <v>4.39925</v>
       </c>
       <c r="D139" t="n">
-        <v>3.75414</v>
+        <v>4.34799</v>
       </c>
       <c r="E139" t="n">
-        <v>1.78387</v>
+        <v>1.89313</v>
       </c>
       <c r="F139" t="n">
-        <v>5.10854</v>
+        <v>5.58267</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26595</v>
+        <v>1.34777</v>
       </c>
       <c r="C140" t="n">
-        <v>3.98407</v>
+        <v>4.35412</v>
       </c>
       <c r="D140" t="n">
-        <v>3.9385</v>
+        <v>4.55473</v>
       </c>
       <c r="E140" t="n">
-        <v>1.79078</v>
+        <v>1.87788</v>
       </c>
       <c r="F140" t="n">
-        <v>5.00725</v>
+        <v>5.48642</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24281</v>
+        <v>1.34444</v>
       </c>
       <c r="C141" t="n">
-        <v>3.93988</v>
+        <v>4.3036</v>
       </c>
       <c r="D141" t="n">
-        <v>3.44997</v>
+        <v>3.50079</v>
       </c>
       <c r="E141" t="n">
-        <v>1.75874</v>
+        <v>1.86764</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92389</v>
+        <v>5.37312</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.23793</v>
+        <v>1.34501</v>
       </c>
       <c r="C142" t="n">
-        <v>3.90977</v>
+        <v>4.26755</v>
       </c>
       <c r="D142" t="n">
-        <v>3.18269</v>
+        <v>3.45585</v>
       </c>
       <c r="E142" t="n">
-        <v>1.74076</v>
+        <v>1.85584</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82873</v>
+        <v>5.2918</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24627</v>
+        <v>1.33107</v>
       </c>
       <c r="C143" t="n">
-        <v>3.86862</v>
+        <v>4.22554</v>
       </c>
       <c r="D143" t="n">
-        <v>3.14288</v>
+        <v>3.41953</v>
       </c>
       <c r="E143" t="n">
-        <v>1.73656</v>
+        <v>1.84381</v>
       </c>
       <c r="F143" t="n">
-        <v>4.75201</v>
+        <v>5.21518</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466069</v>
+        <v>0.466231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712235</v>
+        <v>0.712902</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810532</v>
+        <v>0.8134749999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.687453</v>
+        <v>0.687798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973232</v>
+        <v>0.973799</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455291</v>
+        <v>0.45162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700846</v>
+        <v>0.699915</v>
       </c>
       <c r="D3" t="n">
-        <v>0.800999</v>
+        <v>0.803546</v>
       </c>
       <c r="E3" t="n">
-        <v>0.670515</v>
+        <v>0.670851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.949962</v>
+        <v>0.951279</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444629</v>
+        <v>0.44446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690517</v>
+        <v>0.6919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792517</v>
+        <v>0.795031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.653854</v>
+        <v>0.654522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.931823</v>
+        <v>0.930642</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428213</v>
+        <v>0.436188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.68368</v>
+        <v>0.682377</v>
       </c>
       <c r="D5" t="n">
-        <v>0.786077</v>
+        <v>0.7856340000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639184</v>
+        <v>0.639823</v>
       </c>
       <c r="F5" t="n">
-        <v>0.913851</v>
+        <v>0.912233</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427537</v>
+        <v>0.427197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.67574</v>
+        <v>0.676392</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8189610000000001</v>
+        <v>0.818892</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625214</v>
+        <v>0.625543</v>
       </c>
       <c r="F6" t="n">
-        <v>0.896627</v>
+        <v>0.897472</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421417</v>
+        <v>0.421969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668915</v>
+        <v>0.669116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877764</v>
+        <v>0.872969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6138209999999999</v>
+        <v>0.613893</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883381</v>
+        <v>0.883403</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416721</v>
+        <v>0.4167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667316</v>
+        <v>0.668296</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86002</v>
+        <v>0.858908</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604322</v>
+        <v>0.604326</v>
       </c>
       <c r="F8" t="n">
-        <v>0.873093</v>
+        <v>0.872235</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416355</v>
+        <v>0.416888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.665956</v>
+        <v>0.666658</v>
       </c>
       <c r="D9" t="n">
-        <v>0.845959</v>
+        <v>0.842758</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914227</v>
+        <v>0.914806</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20478</v>
+        <v>1.19919</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.552165</v>
+        <v>0.554771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.809362</v>
+        <v>0.8084249999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.828841</v>
+        <v>0.8291849999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.885538</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16927</v>
+        <v>1.16967</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535795</v>
+        <v>0.536015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.794169</v>
+        <v>0.794003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.818623</v>
+        <v>0.816299</v>
       </c>
       <c r="E11" t="n">
-        <v>0.857969</v>
+        <v>0.858257</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14085</v>
+        <v>1.14255</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520076</v>
+        <v>0.519438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7780589999999999</v>
+        <v>0.7782480000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.803597</v>
+        <v>0.800851</v>
       </c>
       <c r="E12" t="n">
-        <v>0.832701</v>
+        <v>0.832387</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11269</v>
+        <v>1.11254</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5073260000000001</v>
+        <v>0.507867</v>
       </c>
       <c r="C13" t="n">
-        <v>0.764779</v>
+        <v>0.764507</v>
       </c>
       <c r="D13" t="n">
-        <v>0.79064</v>
+        <v>0.787233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.808385</v>
+        <v>0.807856</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08921</v>
+        <v>1.08449</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491469</v>
+        <v>0.494456</v>
       </c>
       <c r="C14" t="n">
-        <v>0.749551</v>
+        <v>0.750203</v>
       </c>
       <c r="D14" t="n">
-        <v>0.789129</v>
+        <v>0.78495</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7840510000000001</v>
+        <v>0.784443</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05826</v>
+        <v>1.05851</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482118</v>
+        <v>0.481369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.739333</v>
+        <v>0.737073</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7803909999999999</v>
+        <v>0.776998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.762632</v>
+        <v>0.762586</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03342</v>
+        <v>1.03316</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.464874</v>
+        <v>0.470003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72427</v>
+        <v>0.724693</v>
       </c>
       <c r="D16" t="n">
-        <v>0.769707</v>
+        <v>0.7672870000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.741771</v>
+        <v>0.742223</v>
       </c>
       <c r="F16" t="n">
-        <v>1.00992</v>
+        <v>1.01031</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456027</v>
+        <v>0.455094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7125320000000001</v>
+        <v>0.713056</v>
       </c>
       <c r="D17" t="n">
-        <v>0.759879</v>
+        <v>0.756758</v>
       </c>
       <c r="E17" t="n">
-        <v>0.722067</v>
+        <v>0.722891</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0167</v>
+        <v>1.01637</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.443669</v>
+        <v>0.444238</v>
       </c>
       <c r="C18" t="n">
-        <v>0.712118</v>
+        <v>0.712072</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753873</v>
+        <v>0.749051</v>
       </c>
       <c r="E18" t="n">
-        <v>0.70473</v>
+        <v>0.7049029999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9966739999999999</v>
+        <v>0.996295</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434591</v>
+        <v>0.436742</v>
       </c>
       <c r="C19" t="n">
-        <v>0.706692</v>
+        <v>0.703012</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746748</v>
+        <v>0.7406</v>
       </c>
       <c r="E19" t="n">
-        <v>0.687926</v>
+        <v>0.688466</v>
       </c>
       <c r="F19" t="n">
-        <v>0.978133</v>
+        <v>0.980097</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428861</v>
+        <v>0.429543</v>
       </c>
       <c r="C20" t="n">
-        <v>0.69486</v>
+        <v>0.70211</v>
       </c>
       <c r="D20" t="n">
-        <v>0.738582</v>
+        <v>0.735282</v>
       </c>
       <c r="E20" t="n">
-        <v>0.673175</v>
+        <v>0.67308</v>
       </c>
       <c r="F20" t="n">
-        <v>0.962517</v>
+        <v>0.96322</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42224</v>
+        <v>0.423775</v>
       </c>
       <c r="C21" t="n">
-        <v>0.687117</v>
+        <v>0.6954900000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95229</v>
+        <v>0.949004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.66037</v>
+        <v>0.6611359999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9543199999999999</v>
+        <v>0.952451</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418994</v>
+        <v>0.417737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.703339</v>
+        <v>0.703704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.935107</v>
+        <v>0.930883</v>
       </c>
       <c r="E22" t="n">
-        <v>0.65036</v>
+        <v>0.650359</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9400770000000001</v>
+        <v>0.9410269999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4175</v>
+        <v>0.418273</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7026559999999999</v>
+        <v>0.703064</v>
       </c>
       <c r="D23" t="n">
-        <v>0.918111</v>
+        <v>0.913703</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970137</v>
+        <v>0.970486</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27705</v>
+        <v>1.27711</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.572424</v>
+        <v>0.572554</v>
       </c>
       <c r="C24" t="n">
-        <v>0.844901</v>
+        <v>0.847584</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900657</v>
+        <v>0.896467</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939476</v>
+        <v>0.9402430000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23927</v>
+        <v>1.23875</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.555442</v>
+        <v>0.553433</v>
       </c>
       <c r="C25" t="n">
-        <v>0.829146</v>
+        <v>0.828686</v>
       </c>
       <c r="D25" t="n">
-        <v>0.887745</v>
+        <v>0.882999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.910285</v>
+        <v>0.910882</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20689</v>
+        <v>1.2062</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539</v>
+        <v>0.538573</v>
       </c>
       <c r="C26" t="n">
-        <v>0.812775</v>
+        <v>0.81366</v>
       </c>
       <c r="D26" t="n">
-        <v>0.872368</v>
+        <v>0.867356</v>
       </c>
       <c r="E26" t="n">
-        <v>0.882198</v>
+        <v>0.852361</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18194</v>
+        <v>1.18449</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.553776</v>
+        <v>0.553616</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7992010000000001</v>
+        <v>0.802301</v>
       </c>
       <c r="D27" t="n">
-        <v>0.858335</v>
+        <v>0.853129</v>
       </c>
       <c r="E27" t="n">
-        <v>0.85578</v>
+        <v>0.856445</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15589</v>
+        <v>1.15315</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5352789999999999</v>
+        <v>0.535864</v>
       </c>
       <c r="C28" t="n">
-        <v>0.784398</v>
+        <v>0.783538</v>
       </c>
       <c r="D28" t="n">
-        <v>0.84627</v>
+        <v>0.841235</v>
       </c>
       <c r="E28" t="n">
-        <v>0.830075</v>
+        <v>0.8307</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12689</v>
+        <v>1.1262</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.521985</v>
+        <v>0.522073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.768801</v>
+        <v>0.768667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.839287</v>
+        <v>0.834345</v>
       </c>
       <c r="E29" t="n">
-        <v>0.80636</v>
+        <v>0.806673</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10256</v>
+        <v>1.10533</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.507669</v>
+        <v>0.508554</v>
       </c>
       <c r="C30" t="n">
-        <v>0.759657</v>
+        <v>0.755948</v>
       </c>
       <c r="D30" t="n">
-        <v>0.828777</v>
+        <v>0.824785</v>
       </c>
       <c r="E30" t="n">
-        <v>0.758863</v>
+        <v>0.784069</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07681</v>
+        <v>1.07672</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494729</v>
+        <v>0.49418</v>
       </c>
       <c r="C31" t="n">
-        <v>0.744962</v>
+        <v>0.742918</v>
       </c>
       <c r="D31" t="n">
-        <v>0.818319</v>
+        <v>0.813845</v>
       </c>
       <c r="E31" t="n">
-        <v>0.762695</v>
+        <v>0.762435</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05358</v>
+        <v>1.05422</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.459846</v>
+        <v>0.483184</v>
       </c>
       <c r="C32" t="n">
-        <v>0.731228</v>
+        <v>0.753311</v>
       </c>
       <c r="D32" t="n">
-        <v>0.811841</v>
+        <v>0.808323</v>
       </c>
       <c r="E32" t="n">
-        <v>0.742527</v>
+        <v>0.743138</v>
       </c>
       <c r="F32" t="n">
-        <v>1.02965</v>
+        <v>1.03105</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472458</v>
+        <v>0.447156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.744972</v>
+        <v>0.744273</v>
       </c>
       <c r="D33" t="n">
-        <v>0.803377</v>
+        <v>0.79956</v>
       </c>
       <c r="E33" t="n">
-        <v>0.702206</v>
+        <v>0.70269</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01048</v>
+        <v>1.01242</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.46315</v>
+        <v>0.462821</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7368170000000001</v>
+        <v>0.736702</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7954059999999999</v>
+        <v>0.791345</v>
       </c>
       <c r="E34" t="n">
-        <v>0.707201</v>
+        <v>0.707883</v>
       </c>
       <c r="F34" t="n">
-        <v>0.98976</v>
+        <v>0.991239</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455072</v>
+        <v>0.455516</v>
       </c>
       <c r="C35" t="n">
-        <v>0.730333</v>
+        <v>0.731687</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03507</v>
+        <v>1.03209</v>
       </c>
       <c r="E35" t="n">
-        <v>0.692053</v>
+        <v>0.67291</v>
       </c>
       <c r="F35" t="n">
-        <v>0.973289</v>
+        <v>0.972061</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.430913</v>
+        <v>0.430562</v>
       </c>
       <c r="C36" t="n">
-        <v>0.728349</v>
+        <v>0.727561</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01575</v>
+        <v>1.01292</v>
       </c>
       <c r="E36" t="n">
-        <v>0.660998</v>
+        <v>0.6610200000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.957637</v>
+        <v>0.957319</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446487</v>
+        <v>0.446698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.726882</v>
+        <v>0.725688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.996251</v>
+        <v>0.992541</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0041</v>
+        <v>1.00511</v>
       </c>
       <c r="F37" t="n">
-        <v>1.5685</v>
+        <v>1.56844</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.62113</v>
+        <v>0.620391</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10386</v>
+        <v>1.10441</v>
       </c>
       <c r="D38" t="n">
-        <v>0.979135</v>
+        <v>0.974753</v>
       </c>
       <c r="E38" t="n">
-        <v>0.956539</v>
+        <v>0.956886</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53155</v>
+        <v>1.53185</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.62134</v>
+        <v>0.622187</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08747</v>
+        <v>1.08771</v>
       </c>
       <c r="D39" t="n">
-        <v>0.958546</v>
+        <v>0.952728</v>
       </c>
       <c r="E39" t="n">
-        <v>0.926816</v>
+        <v>0.9272010000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49755</v>
+        <v>1.49693</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602901</v>
+        <v>0.587817</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07257</v>
+        <v>1.0741</v>
       </c>
       <c r="D40" t="n">
-        <v>0.942528</v>
+        <v>0.937288</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898092</v>
+        <v>0.898991</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46353</v>
+        <v>1.46331</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585214</v>
+        <v>0.5696290000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05587</v>
+        <v>1.05665</v>
       </c>
       <c r="D41" t="n">
-        <v>0.927544</v>
+        <v>0.925746</v>
       </c>
       <c r="E41" t="n">
-        <v>0.87177</v>
+        <v>0.872111</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43217</v>
+        <v>1.43245</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.569904</v>
+        <v>0.567893</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04265</v>
+        <v>1.04252</v>
       </c>
       <c r="D42" t="n">
-        <v>0.912373</v>
+        <v>0.909198</v>
       </c>
       <c r="E42" t="n">
-        <v>0.846274</v>
+        <v>0.8464930000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40245</v>
+        <v>1.40159</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5525139999999999</v>
+        <v>0.536529</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0285</v>
+        <v>1.02784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.898999</v>
+        <v>0.897499</v>
       </c>
       <c r="E43" t="n">
-        <v>0.822308</v>
+        <v>0.795775</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37367</v>
+        <v>1.37349</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.523118</v>
+        <v>0.524195</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01635</v>
+        <v>1.01536</v>
       </c>
       <c r="D44" t="n">
-        <v>0.887094</v>
+        <v>0.884122</v>
       </c>
       <c r="E44" t="n">
-        <v>0.799579</v>
+        <v>0.7995370000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34598</v>
+        <v>1.34696</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510584</v>
+        <v>0.512496</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00309</v>
+        <v>1.00499</v>
       </c>
       <c r="D45" t="n">
-        <v>0.879585</v>
+        <v>0.876827</v>
       </c>
       <c r="E45" t="n">
-        <v>0.777737</v>
+        <v>0.7780010000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32176</v>
+        <v>1.32156</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498696</v>
+        <v>0.497888</v>
       </c>
       <c r="C46" t="n">
-        <v>0.992574</v>
+        <v>0.992501</v>
       </c>
       <c r="D46" t="n">
-        <v>0.869736</v>
+        <v>0.866394</v>
       </c>
       <c r="E46" t="n">
-        <v>0.756589</v>
+        <v>0.7579320000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29808</v>
+        <v>1.29751</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487282</v>
+        <v>0.487312</v>
       </c>
       <c r="C47" t="n">
-        <v>0.985361</v>
+        <v>0.983733</v>
       </c>
       <c r="D47" t="n">
-        <v>0.863186</v>
+        <v>0.859092</v>
       </c>
       <c r="E47" t="n">
-        <v>0.715062</v>
+        <v>0.716921</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27579</v>
+        <v>1.2756</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.47732</v>
+        <v>0.474711</v>
       </c>
       <c r="C48" t="n">
-        <v>0.974249</v>
+        <v>0.973876</v>
       </c>
       <c r="D48" t="n">
-        <v>0.855078</v>
+        <v>0.850583</v>
       </c>
       <c r="E48" t="n">
-        <v>0.720634</v>
+        <v>0.7215780000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2556</v>
+        <v>1.25465</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.468684</v>
+        <v>0.467282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966425</v>
+        <v>0.966512</v>
       </c>
       <c r="D49" t="n">
-        <v>0.851322</v>
+        <v>0.8479449999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.706033</v>
+        <v>0.706781</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23534</v>
+        <v>1.23583</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.462875</v>
+        <v>0.465326</v>
       </c>
       <c r="C50" t="n">
-        <v>0.959287</v>
+        <v>0.958476</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08237</v>
+        <v>1.07916</v>
       </c>
       <c r="E50" t="n">
-        <v>0.691995</v>
+        <v>0.692993</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21961</v>
+        <v>1.2207</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.459345</v>
+        <v>0.460465</v>
       </c>
       <c r="C51" t="n">
-        <v>0.955083</v>
+        <v>0.95469</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06094</v>
+        <v>1.05666</v>
       </c>
       <c r="E51" t="n">
-        <v>1.03205</v>
+        <v>1.01885</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64403</v>
+        <v>1.64472</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.459057</v>
+        <v>0.440119</v>
       </c>
       <c r="C52" t="n">
-        <v>0.954171</v>
+        <v>0.952837</v>
       </c>
       <c r="D52" t="n">
-        <v>1.04026</v>
+        <v>1.03757</v>
       </c>
       <c r="E52" t="n">
-        <v>1.00085</v>
+        <v>0.9901180000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60764</v>
+        <v>1.60744</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.643724</v>
+        <v>0.644699</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14089</v>
+        <v>1.13851</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02061</v>
+        <v>1.0181</v>
       </c>
       <c r="E53" t="n">
-        <v>0.961917</v>
+        <v>0.966139</v>
       </c>
       <c r="F53" t="n">
-        <v>1.56988</v>
+        <v>1.56955</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.621158</v>
+        <v>0.635827</v>
       </c>
       <c r="C54" t="n">
-        <v>1.1227</v>
+        <v>1.12301</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00461</v>
+        <v>1.00113</v>
       </c>
       <c r="E54" t="n">
-        <v>0.940202</v>
+        <v>0.932727</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53534</v>
+        <v>1.53692</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.608213</v>
+        <v>0.605878</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10726</v>
+        <v>1.10789</v>
       </c>
       <c r="D55" t="n">
-        <v>0.986957</v>
+        <v>0.983115</v>
       </c>
       <c r="E55" t="n">
-        <v>0.902352</v>
+        <v>0.909469</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50176</v>
+        <v>1.5017</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.591511</v>
+        <v>0.591722</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08939</v>
+        <v>1.09187</v>
       </c>
       <c r="D56" t="n">
-        <v>0.971502</v>
+        <v>0.968114</v>
       </c>
       <c r="E56" t="n">
-        <v>0.877258</v>
+        <v>0.877091</v>
       </c>
       <c r="F56" t="n">
-        <v>1.46993</v>
+        <v>1.47068</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.57153</v>
+        <v>0.57733</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07739</v>
+        <v>1.07764</v>
       </c>
       <c r="D57" t="n">
-        <v>0.956454</v>
+        <v>0.953846</v>
       </c>
       <c r="E57" t="n">
-        <v>0.853705</v>
+        <v>0.853905</v>
       </c>
       <c r="F57" t="n">
-        <v>1.44007</v>
+        <v>1.44074</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.559435</v>
+        <v>0.560403</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06463</v>
+        <v>1.06419</v>
       </c>
       <c r="D58" t="n">
-        <v>0.943651</v>
+        <v>0.940581</v>
       </c>
       <c r="E58" t="n">
-        <v>0.83103</v>
+        <v>0.835036</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41031</v>
+        <v>1.41155</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.546249</v>
+        <v>0.547054</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05195</v>
+        <v>1.05171</v>
       </c>
       <c r="D59" t="n">
-        <v>0.925957</v>
+        <v>0.922306</v>
       </c>
       <c r="E59" t="n">
-        <v>0.780099</v>
+        <v>0.781432</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38396</v>
+        <v>1.38512</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532422</v>
+        <v>0.533126</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03904</v>
+        <v>1.04005</v>
       </c>
       <c r="D60" t="n">
-        <v>0.91747</v>
+        <v>0.914001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.761008</v>
+        <v>0.758908</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35789</v>
+        <v>1.35922</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.520058</v>
+        <v>0.523396</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03001</v>
+        <v>1.02964</v>
       </c>
       <c r="D61" t="n">
-        <v>0.908517</v>
+        <v>0.903682</v>
       </c>
       <c r="E61" t="n">
-        <v>0.775747</v>
+        <v>0.745864</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33523</v>
+        <v>1.33521</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.511409</v>
+        <v>0.523639</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02031</v>
+        <v>1.02151</v>
       </c>
       <c r="D62" t="n">
-        <v>0.898342</v>
+        <v>0.895077</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7276629999999999</v>
+        <v>0.757849</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31267</v>
+        <v>1.31397</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.500793</v>
+        <v>0.478524</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01306</v>
+        <v>1.01424</v>
       </c>
       <c r="D63" t="n">
-        <v>0.890647</v>
+        <v>0.8862</v>
       </c>
       <c r="E63" t="n">
-        <v>0.710721</v>
+        <v>0.743344</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29362</v>
+        <v>1.29381</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.496191</v>
+        <v>0.494833</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00781</v>
+        <v>1.00723</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16153</v>
+        <v>1.15958</v>
       </c>
       <c r="E64" t="n">
-        <v>0.719772</v>
+        <v>0.720845</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27561</v>
+        <v>1.27562</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.470441</v>
+        <v>0.498122</v>
       </c>
       <c r="C65" t="n">
-        <v>0.986086</v>
+        <v>1.00418</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13919</v>
+        <v>1.1358</v>
       </c>
       <c r="E65" t="n">
-        <v>0.688294</v>
+        <v>0.710779</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26264</v>
+        <v>1.26147</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.468303</v>
+        <v>0.491045</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00105</v>
+        <v>1.0009</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10677</v>
+        <v>1.10383</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06456</v>
+        <v>1.06857</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68827</v>
+        <v>1.69127</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.719002</v>
+        <v>0.727136</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20725</v>
+        <v>1.21395</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07858</v>
+        <v>1.07816</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03562</v>
+        <v>1.0277</v>
       </c>
       <c r="F67" t="n">
-        <v>1.64847</v>
+        <v>1.65796</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.693993</v>
+        <v>0.716934</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19306</v>
+        <v>1.20094</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06072</v>
+        <v>1.05961</v>
       </c>
       <c r="E68" t="n">
-        <v>1.00857</v>
+        <v>1.00966</v>
       </c>
       <c r="F68" t="n">
-        <v>1.62067</v>
+        <v>1.61931</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.69211</v>
+        <v>0.692673</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17972</v>
+        <v>1.1821</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04316</v>
+        <v>1.04171</v>
       </c>
       <c r="E69" t="n">
-        <v>0.970231</v>
+        <v>0.974993</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58071</v>
+        <v>1.58674</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.675444</v>
+        <v>0.6803169999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16541</v>
+        <v>1.16843</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03094</v>
+        <v>1.0313</v>
       </c>
       <c r="E70" t="n">
-        <v>0.953813</v>
+        <v>0.957252</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55429</v>
+        <v>1.56087</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.654899</v>
+        <v>0.65816</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15645</v>
+        <v>1.16224</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0005</v>
+        <v>1.00037</v>
       </c>
       <c r="E71" t="n">
-        <v>0.918611</v>
+        <v>0.923643</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52708</v>
+        <v>1.54011</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6533910000000001</v>
+        <v>0.655798</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14952</v>
+        <v>1.16005</v>
       </c>
       <c r="D72" t="n">
-        <v>0.993185</v>
+        <v>0.992366</v>
       </c>
       <c r="E72" t="n">
-        <v>0.895436</v>
+        <v>0.899454</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50286</v>
+        <v>1.51356</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.627204</v>
+        <v>0.632633</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13875</v>
+        <v>1.15013</v>
       </c>
       <c r="D73" t="n">
-        <v>0.983515</v>
+        <v>0.984039</v>
       </c>
       <c r="E73" t="n">
-        <v>0.872213</v>
+        <v>0.876544</v>
       </c>
       <c r="F73" t="n">
-        <v>1.47798</v>
+        <v>1.48705</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615637</v>
+        <v>0.627691</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13516</v>
+        <v>1.14599</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9703270000000001</v>
+        <v>0.969942</v>
       </c>
       <c r="E74" t="n">
-        <v>0.815931</v>
+        <v>0.818834</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45987</v>
+        <v>1.47424</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.602457</v>
+        <v>0.5884779999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>1.13551</v>
+        <v>1.14672</v>
       </c>
       <c r="D75" t="n">
-        <v>0.96716</v>
+        <v>0.966823</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7953170000000001</v>
+        <v>0.8344510000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4429</v>
+        <v>1.45754</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.595429</v>
+        <v>0.59712</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13342</v>
+        <v>1.1485</v>
       </c>
       <c r="D76" t="n">
-        <v>0.962978</v>
+        <v>0.963469</v>
       </c>
       <c r="E76" t="n">
-        <v>0.809149</v>
+        <v>0.814766</v>
       </c>
       <c r="F76" t="n">
-        <v>1.43397</v>
+        <v>1.43696</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5856209999999999</v>
+        <v>0.5848410000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13629</v>
+        <v>1.05212</v>
       </c>
       <c r="D77" t="n">
-        <v>0.95225</v>
+        <v>0.95208</v>
       </c>
       <c r="E77" t="n">
-        <v>0.791598</v>
+        <v>0.7652949999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41745</v>
+        <v>1.43483</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5775130000000001</v>
+        <v>0.57775</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13511</v>
+        <v>1.15633</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41366</v>
+        <v>1.41648</v>
       </c>
       <c r="E78" t="n">
-        <v>0.748159</v>
+        <v>0.747285</v>
       </c>
       <c r="F78" t="n">
-        <v>1.41281</v>
+        <v>1.40627</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571088</v>
+        <v>0.554503</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14573</v>
+        <v>1.14072</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38092</v>
+        <v>1.38409</v>
       </c>
       <c r="E79" t="n">
-        <v>0.73639</v>
+        <v>0.766726</v>
       </c>
       <c r="F79" t="n">
-        <v>1.40641</v>
+        <v>1.42408</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.559632</v>
+        <v>0.540631</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17534</v>
+        <v>1.17566</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36185</v>
+        <v>1.35773</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11272</v>
+        <v>1.11216</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13858</v>
+        <v>2.13283</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.800419</v>
+        <v>0.799841</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63038</v>
+        <v>1.64066</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31476</v>
+        <v>1.31889</v>
       </c>
       <c r="E81" t="n">
-        <v>1.11587</v>
+        <v>1.11612</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12195</v>
+        <v>2.13045</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.789818</v>
+        <v>0.789227</v>
       </c>
       <c r="C82" t="n">
-        <v>1.64053</v>
+        <v>1.65187</v>
       </c>
       <c r="D82" t="n">
-        <v>1.29559</v>
+        <v>1.30073</v>
       </c>
       <c r="E82" t="n">
-        <v>1.09581</v>
+        <v>1.07528</v>
       </c>
       <c r="F82" t="n">
-        <v>2.09061</v>
+        <v>2.11137</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7747889999999999</v>
+        <v>0.779546</v>
       </c>
       <c r="C83" t="n">
-        <v>1.64606</v>
+        <v>1.66308</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28072</v>
+        <v>1.28374</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05723</v>
+        <v>1.07487</v>
       </c>
       <c r="F83" t="n">
-        <v>2.08028</v>
+        <v>2.08952</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.766063</v>
+        <v>0.760067</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64557</v>
+        <v>1.65582</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27226</v>
+        <v>1.26918</v>
       </c>
       <c r="E84" t="n">
-        <v>1.05054</v>
+        <v>1.05004</v>
       </c>
       <c r="F84" t="n">
-        <v>2.06465</v>
+        <v>2.06057</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.759889</v>
+        <v>0.750884</v>
       </c>
       <c r="C85" t="n">
-        <v>1.65412</v>
+        <v>1.66267</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23559</v>
+        <v>1.23304</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01091</v>
+        <v>1.00671</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04418</v>
+        <v>2.036</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.743583</v>
+        <v>0.740815</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65596</v>
+        <v>1.65341</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22651</v>
+        <v>1.2255</v>
       </c>
       <c r="E86" t="n">
-        <v>0.986992</v>
+        <v>0.981571</v>
       </c>
       <c r="F86" t="n">
-        <v>2.03433</v>
+        <v>2.01833</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.734083</v>
+        <v>0.719659</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6581</v>
+        <v>1.659</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22293</v>
+        <v>1.221</v>
       </c>
       <c r="E87" t="n">
-        <v>0.962677</v>
+        <v>0.958931</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01529</v>
+        <v>2.01665</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.723666</v>
+        <v>0.711513</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67228</v>
+        <v>1.67584</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21751</v>
+        <v>1.21182</v>
       </c>
       <c r="E88" t="n">
-        <v>0.940177</v>
+        <v>0.936206</v>
       </c>
       <c r="F88" t="n">
-        <v>2.00274</v>
+        <v>2.00968</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711916</v>
+        <v>0.704005</v>
       </c>
       <c r="C89" t="n">
-        <v>1.67222</v>
+        <v>1.67764</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21729</v>
+        <v>1.21983</v>
       </c>
       <c r="E89" t="n">
-        <v>0.919331</v>
+        <v>0.878102</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00727</v>
+        <v>2.00761</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.693674</v>
+        <v>0.692307</v>
       </c>
       <c r="C90" t="n">
-        <v>1.70557</v>
+        <v>1.70257</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2241</v>
+        <v>1.22443</v>
       </c>
       <c r="E90" t="n">
-        <v>0.897458</v>
+        <v>0.891122</v>
       </c>
       <c r="F90" t="n">
-        <v>1.99417</v>
+        <v>1.99782</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.696196</v>
+        <v>0.681931</v>
       </c>
       <c r="C91" t="n">
-        <v>1.43664</v>
+        <v>1.69697</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22301</v>
+        <v>1.2184</v>
       </c>
       <c r="E91" t="n">
-        <v>0.843352</v>
+        <v>0.841107</v>
       </c>
       <c r="F91" t="n">
-        <v>1.99685</v>
+        <v>1.99669</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.679338</v>
+        <v>0.67408</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72734</v>
+        <v>1.72115</v>
       </c>
       <c r="D92" t="n">
-        <v>2.58346</v>
+        <v>2.57229</v>
       </c>
       <c r="E92" t="n">
-        <v>0.861842</v>
+        <v>0.85648</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99588</v>
+        <v>1.99851</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.675611</v>
+        <v>0.64703</v>
       </c>
       <c r="C93" t="n">
-        <v>1.74007</v>
+        <v>1.66349</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21901</v>
+        <v>2.22601</v>
       </c>
       <c r="E93" t="n">
-        <v>0.846565</v>
+        <v>0.811955</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00658</v>
+        <v>2.00582</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.670102</v>
+        <v>0.657948</v>
       </c>
       <c r="C94" t="n">
-        <v>1.75612</v>
+        <v>1.00563</v>
       </c>
       <c r="D94" t="n">
-        <v>2.21082</v>
+        <v>2.27107</v>
       </c>
       <c r="E94" t="n">
-        <v>1.19683</v>
+        <v>1.21622</v>
       </c>
       <c r="F94" t="n">
-        <v>3.11791</v>
+        <v>3.11933</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9051940000000001</v>
+        <v>0.904883</v>
       </c>
       <c r="C95" t="n">
-        <v>2.41044</v>
+        <v>2.41167</v>
       </c>
       <c r="D95" t="n">
-        <v>2.39665</v>
+        <v>2.3939</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21836</v>
+        <v>1.17758</v>
       </c>
       <c r="F95" t="n">
-        <v>3.08883</v>
+        <v>3.09202</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.890649</v>
+        <v>0.878351</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42718</v>
+        <v>2.42251</v>
       </c>
       <c r="D96" t="n">
-        <v>2.45939</v>
+        <v>2.25931</v>
       </c>
       <c r="E96" t="n">
-        <v>1.17793</v>
+        <v>1.19357</v>
       </c>
       <c r="F96" t="n">
-        <v>3.0661</v>
+        <v>3.06446</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89298</v>
+        <v>0.85954</v>
       </c>
       <c r="C97" t="n">
-        <v>2.42963</v>
+        <v>2.41353</v>
       </c>
       <c r="D97" t="n">
-        <v>2.31238</v>
+        <v>2.38644</v>
       </c>
       <c r="E97" t="n">
-        <v>1.16102</v>
+        <v>1.17538</v>
       </c>
       <c r="F97" t="n">
-        <v>3.0189</v>
+        <v>3.01253</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8671410000000001</v>
+        <v>0.856033</v>
       </c>
       <c r="C98" t="n">
-        <v>2.41137</v>
+        <v>2.40453</v>
       </c>
       <c r="D98" t="n">
-        <v>1.88331</v>
+        <v>2.03144</v>
       </c>
       <c r="E98" t="n">
-        <v>1.14246</v>
+        <v>1.12971</v>
       </c>
       <c r="F98" t="n">
-        <v>2.95811</v>
+        <v>2.98368</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.869127</v>
+        <v>0.851619</v>
       </c>
       <c r="C99" t="n">
-        <v>2.39432</v>
+        <v>2.38918</v>
       </c>
       <c r="D99" t="n">
-        <v>1.80779</v>
+        <v>2.23689</v>
       </c>
       <c r="E99" t="n">
-        <v>1.14565</v>
+        <v>1.11067</v>
       </c>
       <c r="F99" t="n">
-        <v>2.93136</v>
+        <v>2.92877</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.854218</v>
+        <v>0.863199</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38678</v>
+        <v>2.38725</v>
       </c>
       <c r="D100" t="n">
-        <v>1.70861</v>
+        <v>1.70897</v>
       </c>
       <c r="E100" t="n">
-        <v>1.10391</v>
+        <v>1.09255</v>
       </c>
       <c r="F100" t="n">
-        <v>2.89034</v>
+        <v>2.87093</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.834218</v>
+        <v>0.830429</v>
       </c>
       <c r="C101" t="n">
-        <v>2.37531</v>
+        <v>2.36109</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70338</v>
+        <v>1.8727</v>
       </c>
       <c r="E101" t="n">
-        <v>1.08673</v>
+        <v>1.07747</v>
       </c>
       <c r="F101" t="n">
-        <v>2.84789</v>
+        <v>2.8641</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8371729999999999</v>
+        <v>0.822256</v>
       </c>
       <c r="C102" t="n">
-        <v>2.3533</v>
+        <v>2.34626</v>
       </c>
       <c r="D102" t="n">
-        <v>1.86922</v>
+        <v>1.70138</v>
       </c>
       <c r="E102" t="n">
-        <v>1.02959</v>
+        <v>1.02193</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83191</v>
+        <v>1.83416</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.781653</v>
+        <v>0.7920160000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35998</v>
+        <v>2.36023</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70453</v>
+        <v>1.71224</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0543</v>
+        <v>1.06256</v>
       </c>
       <c r="F103" t="n">
-        <v>2.80279</v>
+        <v>2.78852</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.816766</v>
+        <v>0.810887</v>
       </c>
       <c r="C104" t="n">
-        <v>2.34756</v>
+        <v>2.3355</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71411</v>
+        <v>1.70842</v>
       </c>
       <c r="E104" t="n">
-        <v>1.03879</v>
+        <v>1.03018</v>
       </c>
       <c r="F104" t="n">
-        <v>1.74358</v>
+        <v>2.78158</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.776248</v>
+        <v>0.801721</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82264</v>
+        <v>2.34473</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70677</v>
+        <v>1.7016</v>
       </c>
       <c r="E105" t="n">
-        <v>1.02441</v>
+        <v>1.01422</v>
       </c>
       <c r="F105" t="n">
-        <v>2.72806</v>
+        <v>1.69819</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.802428</v>
+        <v>0.765504</v>
       </c>
       <c r="C106" t="n">
-        <v>2.3152</v>
+        <v>2.32024</v>
       </c>
       <c r="D106" t="n">
-        <v>1.711</v>
+        <v>1.70981</v>
       </c>
       <c r="E106" t="n">
-        <v>0.976984</v>
+        <v>0.970457</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66468</v>
+        <v>1.66165</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.778753</v>
+        <v>0.777359</v>
       </c>
       <c r="C107" t="n">
-        <v>1.28387</v>
+        <v>1.27927</v>
       </c>
       <c r="D107" t="n">
-        <v>2.96531</v>
+        <v>2.9622</v>
       </c>
       <c r="E107" t="n">
-        <v>0.965777</v>
+        <v>0.96132</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62925</v>
+        <v>1.62812</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.774743</v>
+        <v>0.761992</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26419</v>
+        <v>1.26518</v>
       </c>
       <c r="D108" t="n">
-        <v>2.77314</v>
+        <v>3.11424</v>
       </c>
       <c r="E108" t="n">
-        <v>1.38024</v>
+        <v>1.36284</v>
       </c>
       <c r="F108" t="n">
-        <v>3.97945</v>
+        <v>3.96901</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.773837</v>
+        <v>0.795718</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25838</v>
+        <v>2.31845</v>
       </c>
       <c r="D109" t="n">
-        <v>3.45057</v>
+        <v>3.27873</v>
       </c>
       <c r="E109" t="n">
-        <v>1.34392</v>
+        <v>1.35799</v>
       </c>
       <c r="F109" t="n">
-        <v>3.92251</v>
+        <v>3.9409</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03598</v>
+        <v>1.01835</v>
       </c>
       <c r="C110" t="n">
-        <v>3.03515</v>
+        <v>3.04794</v>
       </c>
       <c r="D110" t="n">
-        <v>2.88541</v>
+        <v>2.70615</v>
       </c>
       <c r="E110" t="n">
-        <v>1.33407</v>
+        <v>1.32102</v>
       </c>
       <c r="F110" t="n">
-        <v>3.86958</v>
+        <v>3.87251</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02843</v>
+        <v>1.0051</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02737</v>
+        <v>3.01687</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50728</v>
+        <v>2.87017</v>
       </c>
       <c r="E111" t="n">
-        <v>1.32315</v>
+        <v>1.33634</v>
       </c>
       <c r="F111" t="n">
-        <v>3.80411</v>
+        <v>3.80544</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01336</v>
+        <v>0.987644</v>
       </c>
       <c r="C112" t="n">
-        <v>2.99581</v>
+        <v>3.00593</v>
       </c>
       <c r="D112" t="n">
-        <v>2.30028</v>
+        <v>2.49396</v>
       </c>
       <c r="E112" t="n">
-        <v>1.31016</v>
+        <v>1.32481</v>
       </c>
       <c r="F112" t="n">
-        <v>3.74691</v>
+        <v>3.76367</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.985941</v>
+        <v>0.969208</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98585</v>
+        <v>2.97155</v>
       </c>
       <c r="D113" t="n">
-        <v>2.85655</v>
+        <v>2.66383</v>
       </c>
       <c r="E113" t="n">
-        <v>1.30169</v>
+        <v>1.29068</v>
       </c>
       <c r="F113" t="n">
-        <v>3.69821</v>
+        <v>3.68958</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989209</v>
+        <v>0.973341</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96232</v>
+        <v>2.96182</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27844</v>
+        <v>2.26303</v>
       </c>
       <c r="E114" t="n">
-        <v>1.29095</v>
+        <v>1.28148</v>
       </c>
       <c r="F114" t="n">
-        <v>3.63176</v>
+        <v>3.64654</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9659489999999999</v>
+        <v>0.950846</v>
       </c>
       <c r="C115" t="n">
-        <v>2.9257</v>
+        <v>2.93722</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2511</v>
+        <v>2.26698</v>
       </c>
       <c r="E115" t="n">
-        <v>1.28273</v>
+        <v>1.2942</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57168</v>
+        <v>3.57237</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.945928</v>
+        <v>0.951199</v>
       </c>
       <c r="C116" t="n">
-        <v>2.92089</v>
+        <v>2.90364</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2572</v>
+        <v>2.26469</v>
       </c>
       <c r="E116" t="n">
-        <v>1.27307</v>
+        <v>1.26645</v>
       </c>
       <c r="F116" t="n">
-        <v>3.5284</v>
+        <v>3.53788</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.945813</v>
+        <v>0.934841</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89622</v>
+        <v>2.89127</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22535</v>
+        <v>2.23523</v>
       </c>
       <c r="E117" t="n">
-        <v>1.22639</v>
+        <v>1.25671</v>
       </c>
       <c r="F117" t="n">
-        <v>3.28616</v>
+        <v>3.49048</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.947914</v>
+        <v>0.924529</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88854</v>
+        <v>2.88779</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22977</v>
+        <v>2.2269</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21978</v>
+        <v>1.24902</v>
       </c>
       <c r="F118" t="n">
-        <v>3.23552</v>
+        <v>3.23741</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.923427</v>
+        <v>0.929253</v>
       </c>
       <c r="C119" t="n">
-        <v>2.8719</v>
+        <v>2.87557</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23726</v>
+        <v>2.23405</v>
       </c>
       <c r="E119" t="n">
-        <v>1.24808</v>
+        <v>1.21054</v>
       </c>
       <c r="F119" t="n">
-        <v>3.39793</v>
+        <v>3.38758</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.919372</v>
+        <v>0.917735</v>
       </c>
       <c r="C120" t="n">
-        <v>2.85809</v>
+        <v>2.85596</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23614</v>
+        <v>2.23687</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20798</v>
+        <v>1.23429</v>
       </c>
       <c r="F120" t="n">
-        <v>3.15821</v>
+        <v>2.95382</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.91945</v>
+        <v>0.912687</v>
       </c>
       <c r="C121" t="n">
-        <v>1.6251</v>
+        <v>2.45287</v>
       </c>
       <c r="D121" t="n">
-        <v>4.25788</v>
+        <v>4.27207</v>
       </c>
       <c r="E121" t="n">
-        <v>1.20282</v>
+        <v>1.22993</v>
       </c>
       <c r="F121" t="n">
-        <v>3.30619</v>
+        <v>3.31778</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.919148</v>
+        <v>0.916036</v>
       </c>
       <c r="C122" t="n">
-        <v>2.82808</v>
+        <v>1.60743</v>
       </c>
       <c r="D122" t="n">
-        <v>3.80422</v>
+        <v>3.39988</v>
       </c>
       <c r="E122" t="n">
-        <v>1.19834</v>
+        <v>1.22223</v>
       </c>
       <c r="F122" t="n">
-        <v>3.07162</v>
+        <v>3.28157</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.917614</v>
+        <v>0.917996</v>
       </c>
       <c r="C123" t="n">
-        <v>2.82682</v>
+        <v>2.83785</v>
       </c>
       <c r="D123" t="n">
-        <v>4.17457</v>
+        <v>4.16635</v>
       </c>
       <c r="E123" t="n">
-        <v>1.6051</v>
+        <v>1.56745</v>
       </c>
       <c r="F123" t="n">
-        <v>4.64814</v>
+        <v>4.66107</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.12499</v>
+        <v>1.12619</v>
       </c>
       <c r="C124" t="n">
-        <v>3.5743</v>
+        <v>3.57791</v>
       </c>
       <c r="D124" t="n">
-        <v>3.51642</v>
+        <v>3.94587</v>
       </c>
       <c r="E124" t="n">
-        <v>1.56603</v>
+        <v>1.58656</v>
       </c>
       <c r="F124" t="n">
-        <v>4.57107</v>
+        <v>4.60446</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1494</v>
+        <v>1.12943</v>
       </c>
       <c r="C125" t="n">
-        <v>3.56075</v>
+        <v>3.55813</v>
       </c>
       <c r="D125" t="n">
-        <v>3.69602</v>
+        <v>3.30622</v>
       </c>
       <c r="E125" t="n">
-        <v>1.55184</v>
+        <v>1.5515</v>
       </c>
       <c r="F125" t="n">
-        <v>4.49306</v>
+        <v>4.52914</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13892</v>
+        <v>1.10562</v>
       </c>
       <c r="C126" t="n">
-        <v>3.51443</v>
+        <v>3.53852</v>
       </c>
       <c r="D126" t="n">
-        <v>3.03474</v>
+        <v>3.27752</v>
       </c>
       <c r="E126" t="n">
-        <v>1.54445</v>
+        <v>1.54216</v>
       </c>
       <c r="F126" t="n">
-        <v>4.42175</v>
+        <v>4.45203</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10603</v>
+        <v>1.1052</v>
       </c>
       <c r="C127" t="n">
-        <v>3.49358</v>
+        <v>3.5076</v>
       </c>
       <c r="D127" t="n">
-        <v>3.00997</v>
+        <v>2.83239</v>
       </c>
       <c r="E127" t="n">
-        <v>1.53223</v>
+        <v>1.5336</v>
       </c>
       <c r="F127" t="n">
-        <v>4.35497</v>
+        <v>4.37751</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.0936</v>
+        <v>1.08844</v>
       </c>
       <c r="C128" t="n">
-        <v>3.46537</v>
+        <v>3.47698</v>
       </c>
       <c r="D128" t="n">
-        <v>2.98905</v>
+        <v>2.79917</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52513</v>
+        <v>1.52721</v>
       </c>
       <c r="F128" t="n">
-        <v>4.27537</v>
+        <v>4.30492</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08706</v>
+        <v>1.08058</v>
       </c>
       <c r="C129" t="n">
-        <v>3.43418</v>
+        <v>3.45379</v>
       </c>
       <c r="D129" t="n">
-        <v>2.74533</v>
+        <v>2.76074</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51702</v>
+        <v>1.51675</v>
       </c>
       <c r="F129" t="n">
-        <v>4.2178</v>
+        <v>4.2452</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07212</v>
+        <v>1.07714</v>
       </c>
       <c r="C130" t="n">
-        <v>3.41916</v>
+        <v>3.43147</v>
       </c>
       <c r="D130" t="n">
-        <v>2.72401</v>
+        <v>2.74832</v>
       </c>
       <c r="E130" t="n">
-        <v>1.50461</v>
+        <v>1.50972</v>
       </c>
       <c r="F130" t="n">
-        <v>4.15764</v>
+        <v>4.19792</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06953</v>
+        <v>1.07584</v>
       </c>
       <c r="C131" t="n">
-        <v>3.39668</v>
+        <v>3.40464</v>
       </c>
       <c r="D131" t="n">
-        <v>2.70733</v>
+        <v>2.73569</v>
       </c>
       <c r="E131" t="n">
-        <v>1.50075</v>
+        <v>1.50021</v>
       </c>
       <c r="F131" t="n">
-        <v>4.10243</v>
+        <v>4.13598</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06648</v>
+        <v>1.08524</v>
       </c>
       <c r="C132" t="n">
-        <v>3.37206</v>
+        <v>3.38303</v>
       </c>
       <c r="D132" t="n">
-        <v>2.70471</v>
+        <v>2.72136</v>
       </c>
       <c r="E132" t="n">
-        <v>1.49272</v>
+        <v>1.46495</v>
       </c>
       <c r="F132" t="n">
-        <v>4.03862</v>
+        <v>3.64591</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05813</v>
+        <v>1.05663</v>
       </c>
       <c r="C133" t="n">
-        <v>3.34056</v>
+        <v>3.37381</v>
       </c>
       <c r="D133" t="n">
-        <v>2.69358</v>
+        <v>2.7128</v>
       </c>
       <c r="E133" t="n">
-        <v>1.45422</v>
+        <v>1.45901</v>
       </c>
       <c r="F133" t="n">
-        <v>3.77192</v>
+        <v>3.58039</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05565</v>
+        <v>1.07176</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32562</v>
+        <v>3.35671</v>
       </c>
       <c r="D134" t="n">
-        <v>2.69767</v>
+        <v>2.71221</v>
       </c>
       <c r="E134" t="n">
-        <v>1.48584</v>
+        <v>1.45533</v>
       </c>
       <c r="F134" t="n">
-        <v>3.94802</v>
+        <v>3.74543</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05216</v>
+        <v>1.0579</v>
       </c>
       <c r="C135" t="n">
-        <v>3.32348</v>
+        <v>3.336</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85651</v>
+        <v>4.88915</v>
       </c>
       <c r="E135" t="n">
-        <v>1.48035</v>
+        <v>1.47817</v>
       </c>
       <c r="F135" t="n">
-        <v>3.23606</v>
+        <v>3.92261</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05158</v>
+        <v>1.05097</v>
       </c>
       <c r="C136" t="n">
-        <v>3.31081</v>
+        <v>3.32944</v>
       </c>
       <c r="D136" t="n">
-        <v>4.56574</v>
+        <v>4.37862</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47465</v>
+        <v>1.47454</v>
       </c>
       <c r="F136" t="n">
-        <v>3.8659</v>
+        <v>3.888</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0567</v>
+        <v>1.03267</v>
       </c>
       <c r="C137" t="n">
-        <v>3.30931</v>
+        <v>3.32385</v>
       </c>
       <c r="D137" t="n">
-        <v>4.28953</v>
+        <v>4.78619</v>
       </c>
       <c r="E137" t="n">
-        <v>1.84283</v>
+        <v>1.84067</v>
       </c>
       <c r="F137" t="n">
-        <v>5.28174</v>
+        <v>5.33742</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28636</v>
+        <v>1.2898</v>
       </c>
       <c r="C138" t="n">
-        <v>4.06869</v>
+        <v>4.08981</v>
       </c>
       <c r="D138" t="n">
-        <v>4.24654</v>
+        <v>4.06134</v>
       </c>
       <c r="E138" t="n">
-        <v>1.79795</v>
+        <v>1.80149</v>
       </c>
       <c r="F138" t="n">
-        <v>5.20215</v>
+        <v>5.24589</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28549</v>
+        <v>1.2761</v>
       </c>
       <c r="C139" t="n">
-        <v>4.02047</v>
+        <v>4.04414</v>
       </c>
       <c r="D139" t="n">
-        <v>3.97638</v>
+        <v>4.00545</v>
       </c>
       <c r="E139" t="n">
-        <v>1.78231</v>
+        <v>1.78735</v>
       </c>
       <c r="F139" t="n">
-        <v>5.10529</v>
+        <v>5.14942</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25662</v>
+        <v>1.27541</v>
       </c>
       <c r="C140" t="n">
-        <v>3.98828</v>
+        <v>4.01449</v>
       </c>
       <c r="D140" t="n">
-        <v>3.93705</v>
+        <v>3.96556</v>
       </c>
       <c r="E140" t="n">
-        <v>1.78996</v>
+        <v>1.77223</v>
       </c>
       <c r="F140" t="n">
-        <v>5.01268</v>
+        <v>5.05027</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25285</v>
+        <v>1.26049</v>
       </c>
       <c r="C141" t="n">
-        <v>3.94149</v>
+        <v>3.97081</v>
       </c>
       <c r="D141" t="n">
-        <v>3.44305</v>
+        <v>3.2438</v>
       </c>
       <c r="E141" t="n">
-        <v>1.75468</v>
+        <v>1.75719</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92825</v>
+        <v>4.95799</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24611</v>
+        <v>1.2445</v>
       </c>
       <c r="C142" t="n">
-        <v>3.90204</v>
+        <v>3.92933</v>
       </c>
       <c r="D142" t="n">
-        <v>3.17908</v>
+        <v>3.19492</v>
       </c>
       <c r="E142" t="n">
-        <v>1.73857</v>
+        <v>1.74483</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82606</v>
+        <v>4.85435</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24211</v>
+        <v>1.24306</v>
       </c>
       <c r="C143" t="n">
-        <v>3.85947</v>
+        <v>3.88678</v>
       </c>
       <c r="D143" t="n">
-        <v>3.14062</v>
+        <v>3.16344</v>
       </c>
       <c r="E143" t="n">
-        <v>1.69029</v>
+        <v>1.73201</v>
       </c>
       <c r="F143" t="n">
-        <v>4.76071</v>
+        <v>4.55559</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466231</v>
+        <v>0.466119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712902</v>
+        <v>0.712373</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8134749999999999</v>
+        <v>0.810568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.687798</v>
+        <v>0.687423</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973799</v>
+        <v>0.971533</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.45162</v>
+        <v>0.455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.699915</v>
+        <v>0.7002429999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.803546</v>
+        <v>0.801865</v>
       </c>
       <c r="E3" t="n">
-        <v>0.670851</v>
+        <v>0.670699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.951279</v>
+        <v>0.950916</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44446</v>
+        <v>0.445182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6919</v>
+        <v>0.690816</v>
       </c>
       <c r="D4" t="n">
-        <v>0.795031</v>
+        <v>0.794537</v>
       </c>
       <c r="E4" t="n">
-        <v>0.654522</v>
+        <v>0.655062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.930642</v>
+        <v>0.932006</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.436188</v>
+        <v>0.434591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.682377</v>
+        <v>0.682053</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7856340000000001</v>
+        <v>0.786691</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639823</v>
+        <v>0.6394840000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.912233</v>
+        <v>0.913732</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427197</v>
+        <v>0.427018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.676392</v>
+        <v>0.675567</v>
       </c>
       <c r="D6" t="n">
-        <v>0.818892</v>
+        <v>0.816706</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625543</v>
+        <v>0.625574</v>
       </c>
       <c r="F6" t="n">
-        <v>0.897472</v>
+        <v>0.898324</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421969</v>
+        <v>0.41452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.669116</v>
+        <v>0.668148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.872969</v>
+        <v>0.874528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.613893</v>
+        <v>0.613891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883403</v>
+        <v>0.883671</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4167</v>
+        <v>0.416666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.668296</v>
+        <v>0.667371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.858908</v>
+        <v>0.859032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604326</v>
+        <v>0.604254</v>
       </c>
       <c r="F8" t="n">
-        <v>0.872235</v>
+        <v>0.873853</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416888</v>
+        <v>0.419721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.666658</v>
+        <v>0.665175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.842758</v>
+        <v>0.8399720000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914806</v>
+        <v>0.914114</v>
       </c>
       <c r="F9" t="n">
-        <v>1.19919</v>
+        <v>1.20009</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.554771</v>
+        <v>0.551084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8084249999999999</v>
+        <v>0.807665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8291849999999999</v>
+        <v>0.828817</v>
       </c>
       <c r="E10" t="n">
-        <v>0.885538</v>
+        <v>0.885467</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16967</v>
+        <v>1.16937</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.536015</v>
+        <v>0.535948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.794003</v>
+        <v>0.794945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.816299</v>
+        <v>0.816045</v>
       </c>
       <c r="E11" t="n">
-        <v>0.858257</v>
+        <v>0.858127</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14255</v>
+        <v>1.14069</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.519438</v>
+        <v>0.519777</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7782480000000001</v>
+        <v>0.7778890000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.800851</v>
+        <v>0.799974</v>
       </c>
       <c r="E12" t="n">
-        <v>0.832387</v>
+        <v>0.832852</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11254</v>
+        <v>1.11224</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.507867</v>
+        <v>0.511948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.764507</v>
+        <v>0.767311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.787233</v>
+        <v>0.786242</v>
       </c>
       <c r="E13" t="n">
-        <v>0.807856</v>
+        <v>0.807891</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08449</v>
+        <v>1.08463</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.494456</v>
+        <v>0.494102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.750203</v>
+        <v>0.74943</v>
       </c>
       <c r="D14" t="n">
-        <v>0.78495</v>
+        <v>0.784193</v>
       </c>
       <c r="E14" t="n">
-        <v>0.784443</v>
+        <v>0.784026</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05851</v>
+        <v>1.0588</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.481369</v>
+        <v>0.480354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.737073</v>
+        <v>0.735976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.776998</v>
+        <v>0.776237</v>
       </c>
       <c r="E15" t="n">
-        <v>0.762586</v>
+        <v>0.762571</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03316</v>
+        <v>1.03333</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.470003</v>
+        <v>0.469876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.724693</v>
+        <v>0.724214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7672870000000001</v>
+        <v>0.766254</v>
       </c>
       <c r="E16" t="n">
-        <v>0.742223</v>
+        <v>0.74229</v>
       </c>
       <c r="F16" t="n">
-        <v>1.01031</v>
+        <v>1.0104</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455094</v>
+        <v>0.456834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.713056</v>
+        <v>0.711705</v>
       </c>
       <c r="D17" t="n">
-        <v>0.756758</v>
+        <v>0.755236</v>
       </c>
       <c r="E17" t="n">
-        <v>0.722891</v>
+        <v>0.722305</v>
       </c>
       <c r="F17" t="n">
-        <v>1.01637</v>
+        <v>1.01641</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.444238</v>
+        <v>0.447206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.712072</v>
+        <v>0.711124</v>
       </c>
       <c r="D18" t="n">
-        <v>0.749051</v>
+        <v>0.74829</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7049029999999999</v>
+        <v>0.704842</v>
       </c>
       <c r="F18" t="n">
-        <v>0.996295</v>
+        <v>0.99578</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.436742</v>
+        <v>0.437544</v>
       </c>
       <c r="C19" t="n">
-        <v>0.703012</v>
+        <v>0.70158</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7406</v>
+        <v>0.740354</v>
       </c>
       <c r="E19" t="n">
-        <v>0.688466</v>
+        <v>0.687841</v>
       </c>
       <c r="F19" t="n">
-        <v>0.980097</v>
+        <v>0.977817</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.429543</v>
+        <v>0.429648</v>
       </c>
       <c r="C20" t="n">
-        <v>0.70211</v>
+        <v>0.693984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.735282</v>
+        <v>0.731997</v>
       </c>
       <c r="E20" t="n">
-        <v>0.67308</v>
+        <v>0.67348</v>
       </c>
       <c r="F20" t="n">
-        <v>0.96322</v>
+        <v>0.961955</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423775</v>
+        <v>0.423589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6954900000000001</v>
+        <v>0.692311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.949004</v>
+        <v>0.946608</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6611359999999999</v>
+        <v>0.660419</v>
       </c>
       <c r="F21" t="n">
-        <v>0.952451</v>
+        <v>0.954917</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.417737</v>
+        <v>0.417199</v>
       </c>
       <c r="C22" t="n">
-        <v>0.703704</v>
+        <v>0.702484</v>
       </c>
       <c r="D22" t="n">
-        <v>0.930883</v>
+        <v>0.930867</v>
       </c>
       <c r="E22" t="n">
-        <v>0.650359</v>
+        <v>0.65043</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9410269999999999</v>
+        <v>0.941244</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.418273</v>
+        <v>0.418394</v>
       </c>
       <c r="C23" t="n">
-        <v>0.703064</v>
+        <v>0.704004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.913703</v>
+        <v>0.9120239999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970486</v>
+        <v>0.971085</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27711</v>
+        <v>1.27489</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.572554</v>
+        <v>0.570649</v>
       </c>
       <c r="C24" t="n">
-        <v>0.847584</v>
+        <v>0.844984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.896467</v>
+        <v>0.894392</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9402430000000001</v>
+        <v>0.940285</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23875</v>
+        <v>1.23931</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.553433</v>
+        <v>0.554184</v>
       </c>
       <c r="C25" t="n">
-        <v>0.828686</v>
+        <v>0.8276289999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.882999</v>
+        <v>0.882511</v>
       </c>
       <c r="E25" t="n">
-        <v>0.910882</v>
+        <v>0.910737</v>
       </c>
       <c r="F25" t="n">
-        <v>1.2062</v>
+        <v>1.20481</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.538573</v>
+        <v>0.539725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.81366</v>
+        <v>0.8130849999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.867356</v>
+        <v>0.867805</v>
       </c>
       <c r="E26" t="n">
-        <v>0.852361</v>
+        <v>0.8526899999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18449</v>
+        <v>1.18326</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.553616</v>
+        <v>0.553882</v>
       </c>
       <c r="C27" t="n">
-        <v>0.802301</v>
+        <v>0.800663</v>
       </c>
       <c r="D27" t="n">
-        <v>0.853129</v>
+        <v>0.853399</v>
       </c>
       <c r="E27" t="n">
-        <v>0.856445</v>
+        <v>0.856142</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15315</v>
+        <v>1.15424</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.535864</v>
+        <v>0.537618</v>
       </c>
       <c r="C28" t="n">
-        <v>0.783538</v>
+        <v>0.78262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.841235</v>
+        <v>0.840926</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8307</v>
+        <v>0.830951</v>
       </c>
       <c r="F28" t="n">
-        <v>1.1262</v>
+        <v>1.12623</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.522073</v>
+        <v>0.521651</v>
       </c>
       <c r="C29" t="n">
-        <v>0.768667</v>
+        <v>0.770096</v>
       </c>
       <c r="D29" t="n">
-        <v>0.834345</v>
+        <v>0.834664</v>
       </c>
       <c r="E29" t="n">
-        <v>0.806673</v>
+        <v>0.806601</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10533</v>
+        <v>1.10397</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.508554</v>
+        <v>0.5094</v>
       </c>
       <c r="C30" t="n">
-        <v>0.755948</v>
+        <v>0.756582</v>
       </c>
       <c r="D30" t="n">
-        <v>0.824785</v>
+        <v>0.824458</v>
       </c>
       <c r="E30" t="n">
-        <v>0.784069</v>
+        <v>0.783479</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07672</v>
+        <v>1.07621</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.49418</v>
+        <v>0.495499</v>
       </c>
       <c r="C31" t="n">
-        <v>0.742918</v>
+        <v>0.742489</v>
       </c>
       <c r="D31" t="n">
-        <v>0.813845</v>
+        <v>0.81443</v>
       </c>
       <c r="E31" t="n">
-        <v>0.762435</v>
+        <v>0.762815</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05422</v>
+        <v>1.05434</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.483184</v>
+        <v>0.483986</v>
       </c>
       <c r="C32" t="n">
-        <v>0.753311</v>
+        <v>0.752203</v>
       </c>
       <c r="D32" t="n">
-        <v>0.808323</v>
+        <v>0.809106</v>
       </c>
       <c r="E32" t="n">
-        <v>0.743138</v>
+        <v>0.742413</v>
       </c>
       <c r="F32" t="n">
-        <v>1.03105</v>
+        <v>1.0303</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.447156</v>
+        <v>0.472812</v>
       </c>
       <c r="C33" t="n">
-        <v>0.744273</v>
+        <v>0.743514</v>
       </c>
       <c r="D33" t="n">
-        <v>0.79956</v>
+        <v>0.800813</v>
       </c>
       <c r="E33" t="n">
-        <v>0.70269</v>
+        <v>0.7029879999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01242</v>
+        <v>1.01107</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.462821</v>
+        <v>0.463814</v>
       </c>
       <c r="C34" t="n">
-        <v>0.736702</v>
+        <v>0.7362570000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.791345</v>
+        <v>0.792554</v>
       </c>
       <c r="E34" t="n">
-        <v>0.707883</v>
+        <v>0.707497</v>
       </c>
       <c r="F34" t="n">
-        <v>0.991239</v>
+        <v>0.989862</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455516</v>
+        <v>0.455646</v>
       </c>
       <c r="C35" t="n">
-        <v>0.731687</v>
+        <v>0.730239</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03209</v>
+        <v>1.03281</v>
       </c>
       <c r="E35" t="n">
-        <v>0.67291</v>
+        <v>0.692821</v>
       </c>
       <c r="F35" t="n">
-        <v>0.972061</v>
+        <v>0.973302</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.430562</v>
+        <v>0.430542</v>
       </c>
       <c r="C36" t="n">
-        <v>0.727561</v>
+        <v>0.726885</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01292</v>
+        <v>1.01167</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6610200000000001</v>
+        <v>0.661118</v>
       </c>
       <c r="F36" t="n">
-        <v>0.957319</v>
+        <v>0.9574</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446698</v>
+        <v>0.428139</v>
       </c>
       <c r="C37" t="n">
-        <v>0.725688</v>
+        <v>0.725612</v>
       </c>
       <c r="D37" t="n">
-        <v>0.992541</v>
+        <v>0.993228</v>
       </c>
       <c r="E37" t="n">
-        <v>1.00511</v>
+        <v>1.0053</v>
       </c>
       <c r="F37" t="n">
-        <v>1.56844</v>
+        <v>1.57037</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.620391</v>
+        <v>0.620297</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10441</v>
+        <v>1.10585</v>
       </c>
       <c r="D38" t="n">
-        <v>0.974753</v>
+        <v>0.976864</v>
       </c>
       <c r="E38" t="n">
-        <v>0.956886</v>
+        <v>0.956557</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53185</v>
+        <v>1.53309</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.622187</v>
+        <v>0.621632</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08771</v>
+        <v>1.08825</v>
       </c>
       <c r="D39" t="n">
-        <v>0.952728</v>
+        <v>0.955319</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9272010000000001</v>
+        <v>0.927338</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49693</v>
+        <v>1.49785</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.587817</v>
+        <v>0.5881110000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0741</v>
+        <v>1.07409</v>
       </c>
       <c r="D40" t="n">
-        <v>0.937288</v>
+        <v>0.939488</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898991</v>
+        <v>0.899057</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46331</v>
+        <v>1.46508</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5696290000000001</v>
+        <v>0.568904</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05665</v>
+        <v>1.05953</v>
       </c>
       <c r="D41" t="n">
-        <v>0.925746</v>
+        <v>0.925403</v>
       </c>
       <c r="E41" t="n">
-        <v>0.872111</v>
+        <v>0.872082</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43245</v>
+        <v>1.43296</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.567893</v>
+        <v>0.567662</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04252</v>
+        <v>1.04364</v>
       </c>
       <c r="D42" t="n">
-        <v>0.909198</v>
+        <v>0.910155</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8464930000000001</v>
+        <v>0.846884</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40159</v>
+        <v>1.40336</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.536529</v>
+        <v>0.53879</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02784</v>
+        <v>1.02857</v>
       </c>
       <c r="D43" t="n">
-        <v>0.897499</v>
+        <v>0.897126</v>
       </c>
       <c r="E43" t="n">
-        <v>0.795775</v>
+        <v>0.795812</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37349</v>
+        <v>1.37377</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.524195</v>
+        <v>0.523603</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01536</v>
+        <v>1.01705</v>
       </c>
       <c r="D44" t="n">
-        <v>0.884122</v>
+        <v>0.884417</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7995370000000001</v>
+        <v>0.800125</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34696</v>
+        <v>1.34747</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.512496</v>
+        <v>0.5131019999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00499</v>
+        <v>1.00538</v>
       </c>
       <c r="D45" t="n">
-        <v>0.876827</v>
+        <v>0.877418</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7780010000000001</v>
+        <v>0.778377</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32156</v>
+        <v>1.32235</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.497888</v>
+        <v>0.499253</v>
       </c>
       <c r="C46" t="n">
-        <v>0.992501</v>
+        <v>0.992677</v>
       </c>
       <c r="D46" t="n">
-        <v>0.866394</v>
+        <v>0.866719</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7579320000000001</v>
+        <v>0.7693179999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29751</v>
+        <v>1.29848</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487312</v>
+        <v>0.498353</v>
       </c>
       <c r="C47" t="n">
-        <v>0.983733</v>
+        <v>0.987033</v>
       </c>
       <c r="D47" t="n">
-        <v>0.859092</v>
+        <v>0.860092</v>
       </c>
       <c r="E47" t="n">
-        <v>0.716921</v>
+        <v>0.739081</v>
       </c>
       <c r="F47" t="n">
-        <v>1.2756</v>
+        <v>1.27613</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.474711</v>
+        <v>0.478183</v>
       </c>
       <c r="C48" t="n">
-        <v>0.973876</v>
+        <v>0.973916</v>
       </c>
       <c r="D48" t="n">
-        <v>0.850583</v>
+        <v>0.851197</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7215780000000001</v>
+        <v>0.722109</v>
       </c>
       <c r="F48" t="n">
-        <v>1.25465</v>
+        <v>1.25655</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467282</v>
+        <v>0.469894</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966512</v>
+        <v>0.966889</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8479449999999999</v>
+        <v>0.848989</v>
       </c>
       <c r="E49" t="n">
-        <v>0.706781</v>
+        <v>0.706501</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23583</v>
+        <v>1.23639</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.465326</v>
+        <v>0.463698</v>
       </c>
       <c r="C50" t="n">
-        <v>0.958476</v>
+        <v>0.959867</v>
       </c>
       <c r="D50" t="n">
-        <v>1.07916</v>
+        <v>1.07963</v>
       </c>
       <c r="E50" t="n">
-        <v>0.692993</v>
+        <v>0.693622</v>
       </c>
       <c r="F50" t="n">
-        <v>1.2207</v>
+        <v>1.22156</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.460465</v>
+        <v>0.468987</v>
       </c>
       <c r="C51" t="n">
-        <v>0.95469</v>
+        <v>0.9554280000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>1.05666</v>
+        <v>1.05845</v>
       </c>
       <c r="E51" t="n">
-        <v>1.01885</v>
+        <v>1.0295</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64472</v>
+        <v>1.64424</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440119</v>
+        <v>0.441152</v>
       </c>
       <c r="C52" t="n">
-        <v>0.952837</v>
+        <v>0.954198</v>
       </c>
       <c r="D52" t="n">
-        <v>1.03757</v>
+        <v>1.03764</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9901180000000001</v>
+        <v>0.988376</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60744</v>
+        <v>1.60768</v>
       </c>
     </row>
     <row r="53">
@@ -6104,16 +6104,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.644699</v>
+        <v>0.643241</v>
       </c>
       <c r="C53" t="n">
-        <v>1.13851</v>
+        <v>1.14154</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0181</v>
+        <v>1.01856</v>
       </c>
       <c r="E53" t="n">
-        <v>0.966139</v>
+        <v>0.961075</v>
       </c>
       <c r="F53" t="n">
         <v>1.56955</v>
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.635827</v>
+        <v>0.633784</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12301</v>
+        <v>1.12505</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00113</v>
+        <v>1.00214</v>
       </c>
       <c r="E54" t="n">
-        <v>0.932727</v>
+        <v>0.932159</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53692</v>
+        <v>1.53598</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.605878</v>
+        <v>0.607622</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10789</v>
+        <v>1.10773</v>
       </c>
       <c r="D55" t="n">
-        <v>0.983115</v>
+        <v>0.984229</v>
       </c>
       <c r="E55" t="n">
-        <v>0.909469</v>
+        <v>0.904325</v>
       </c>
       <c r="F55" t="n">
-        <v>1.5017</v>
+        <v>1.5023</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.591722</v>
+        <v>0.601784</v>
       </c>
       <c r="C56" t="n">
-        <v>1.09187</v>
+        <v>1.09208</v>
       </c>
       <c r="D56" t="n">
-        <v>0.968114</v>
+        <v>0.96892</v>
       </c>
       <c r="E56" t="n">
-        <v>0.877091</v>
+        <v>0.891652</v>
       </c>
       <c r="F56" t="n">
-        <v>1.47068</v>
+        <v>1.47142</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.57733</v>
+        <v>0.579777</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07764</v>
+        <v>1.07706</v>
       </c>
       <c r="D57" t="n">
-        <v>0.953846</v>
+        <v>0.953904</v>
       </c>
       <c r="E57" t="n">
-        <v>0.853905</v>
+        <v>0.85342</v>
       </c>
       <c r="F57" t="n">
-        <v>1.44074</v>
+        <v>1.44024</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.560403</v>
+        <v>0.559419</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06419</v>
+        <v>1.0668</v>
       </c>
       <c r="D58" t="n">
-        <v>0.940581</v>
+        <v>0.941037</v>
       </c>
       <c r="E58" t="n">
-        <v>0.835036</v>
+        <v>0.830354</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41155</v>
+        <v>1.41207</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.547054</v>
+        <v>0.552802</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05171</v>
+        <v>1.05264</v>
       </c>
       <c r="D59" t="n">
-        <v>0.922306</v>
+        <v>0.924042</v>
       </c>
       <c r="E59" t="n">
-        <v>0.781432</v>
+        <v>0.812949</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38512</v>
+        <v>1.38548</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.533126</v>
+        <v>0.537768</v>
       </c>
       <c r="C60" t="n">
-        <v>1.04005</v>
+        <v>1.04124</v>
       </c>
       <c r="D60" t="n">
-        <v>0.914001</v>
+        <v>0.914003</v>
       </c>
       <c r="E60" t="n">
-        <v>0.758908</v>
+        <v>0.76036</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35922</v>
+        <v>1.35967</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.523396</v>
+        <v>0.520939</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02964</v>
+        <v>1.0295</v>
       </c>
       <c r="D61" t="n">
-        <v>0.903682</v>
+        <v>0.905745</v>
       </c>
       <c r="E61" t="n">
-        <v>0.745864</v>
+        <v>0.75201</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33521</v>
+        <v>1.33557</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.523639</v>
+        <v>0.483155</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02151</v>
+        <v>1.02094</v>
       </c>
       <c r="D62" t="n">
-        <v>0.895077</v>
+        <v>0.894254</v>
       </c>
       <c r="E62" t="n">
-        <v>0.757849</v>
+        <v>0.724984</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31397</v>
+        <v>1.31474</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.478524</v>
+        <v>0.503536</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01424</v>
+        <v>1.01418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8862</v>
+        <v>0.887233</v>
       </c>
       <c r="E63" t="n">
-        <v>0.743344</v>
+        <v>0.733668</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29381</v>
+        <v>1.29417</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.494833</v>
+        <v>0.504709</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00723</v>
+        <v>1.00816</v>
       </c>
       <c r="D64" t="n">
-        <v>1.15958</v>
+        <v>1.16008</v>
       </c>
       <c r="E64" t="n">
-        <v>0.720845</v>
+        <v>0.720176</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27562</v>
+        <v>1.27803</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.498122</v>
+        <v>0.49955</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00418</v>
+        <v>1.00481</v>
       </c>
       <c r="D65" t="n">
-        <v>1.1358</v>
+        <v>1.13658</v>
       </c>
       <c r="E65" t="n">
-        <v>0.710779</v>
+        <v>0.7161</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26147</v>
+        <v>1.26197</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.491045</v>
+        <v>0.499048</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0009</v>
+        <v>1.0021</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10383</v>
+        <v>1.10359</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06857</v>
+        <v>1.06675</v>
       </c>
       <c r="F66" t="n">
-        <v>1.69127</v>
+        <v>1.68751</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.727136</v>
+        <v>0.725853</v>
       </c>
       <c r="C67" t="n">
-        <v>1.21395</v>
+        <v>1.2137</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07816</v>
+        <v>1.08095</v>
       </c>
       <c r="E67" t="n">
         <v>1.0277</v>
       </c>
       <c r="F67" t="n">
-        <v>1.65796</v>
+        <v>1.65718</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.716934</v>
+        <v>0.719188</v>
       </c>
       <c r="C68" t="n">
-        <v>1.20094</v>
+        <v>1.20095</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05961</v>
+        <v>1.05941</v>
       </c>
       <c r="E68" t="n">
-        <v>1.00966</v>
+        <v>1.01334</v>
       </c>
       <c r="F68" t="n">
-        <v>1.61931</v>
+        <v>1.62021</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.692673</v>
+        <v>0.695912</v>
       </c>
       <c r="C69" t="n">
-        <v>1.1821</v>
+        <v>1.18444</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04171</v>
+        <v>1.04288</v>
       </c>
       <c r="E69" t="n">
-        <v>0.974993</v>
+        <v>0.975681</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58674</v>
+        <v>1.59171</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6803169999999999</v>
+        <v>0.680466</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16843</v>
+        <v>1.16959</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0313</v>
+        <v>1.02997</v>
       </c>
       <c r="E70" t="n">
-        <v>0.957252</v>
+        <v>0.955217</v>
       </c>
       <c r="F70" t="n">
-        <v>1.56087</v>
+        <v>1.56193</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.65816</v>
+        <v>0.656753</v>
       </c>
       <c r="C71" t="n">
-        <v>1.16224</v>
+        <v>1.15912</v>
       </c>
       <c r="D71" t="n">
-        <v>1.00037</v>
+        <v>0.998796</v>
       </c>
       <c r="E71" t="n">
-        <v>0.923643</v>
+        <v>0.924916</v>
       </c>
       <c r="F71" t="n">
-        <v>1.54011</v>
+        <v>1.53301</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.655798</v>
+        <v>0.657551</v>
       </c>
       <c r="C72" t="n">
-        <v>1.16005</v>
+        <v>1.15103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.992366</v>
+        <v>0.990548</v>
       </c>
       <c r="E72" t="n">
-        <v>0.899454</v>
+        <v>0.898632</v>
       </c>
       <c r="F72" t="n">
-        <v>1.51356</v>
+        <v>1.50666</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.632633</v>
+        <v>0.630432</v>
       </c>
       <c r="C73" t="n">
-        <v>1.15013</v>
+        <v>1.14432</v>
       </c>
       <c r="D73" t="n">
-        <v>0.984039</v>
+        <v>0.982521</v>
       </c>
       <c r="E73" t="n">
-        <v>0.876544</v>
+        <v>0.876252</v>
       </c>
       <c r="F73" t="n">
-        <v>1.48705</v>
+        <v>1.48833</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.627691</v>
+        <v>0.619123</v>
       </c>
       <c r="C74" t="n">
-        <v>1.14599</v>
+        <v>1.14272</v>
       </c>
       <c r="D74" t="n">
-        <v>0.969942</v>
+        <v>0.968032</v>
       </c>
       <c r="E74" t="n">
-        <v>0.818834</v>
+        <v>0.818076</v>
       </c>
       <c r="F74" t="n">
-        <v>1.47424</v>
+        <v>1.46364</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5884779999999999</v>
+        <v>0.6051299999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>1.14672</v>
+        <v>1.13925</v>
       </c>
       <c r="D75" t="n">
-        <v>0.966823</v>
+        <v>0.962408</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8344510000000001</v>
+        <v>0.834421</v>
       </c>
       <c r="F75" t="n">
-        <v>1.45754</v>
+        <v>1.45733</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.59712</v>
+        <v>0.59782</v>
       </c>
       <c r="C76" t="n">
-        <v>1.1485</v>
+        <v>1.15085</v>
       </c>
       <c r="D76" t="n">
-        <v>0.963469</v>
+        <v>0.962558</v>
       </c>
       <c r="E76" t="n">
-        <v>0.814766</v>
+        <v>0.813561</v>
       </c>
       <c r="F76" t="n">
-        <v>1.43696</v>
+        <v>1.43209</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5848410000000001</v>
+        <v>0.589733</v>
       </c>
       <c r="C77" t="n">
-        <v>1.05212</v>
+        <v>1.13886</v>
       </c>
       <c r="D77" t="n">
-        <v>0.95208</v>
+        <v>0.950667</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7652949999999999</v>
+        <v>0.7962050000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>1.43483</v>
+        <v>1.4214</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.57775</v>
+        <v>0.580479</v>
       </c>
       <c r="C78" t="n">
-        <v>1.15633</v>
+        <v>1.1406</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41648</v>
+        <v>1.40685</v>
       </c>
       <c r="E78" t="n">
-        <v>0.747285</v>
+        <v>0.779876</v>
       </c>
       <c r="F78" t="n">
-        <v>1.40627</v>
+        <v>1.40994</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.554503</v>
+        <v>0.573699</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14072</v>
+        <v>1.15827</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38409</v>
+        <v>1.38019</v>
       </c>
       <c r="E79" t="n">
-        <v>0.766726</v>
+        <v>0.738132</v>
       </c>
       <c r="F79" t="n">
-        <v>1.42408</v>
+        <v>1.41417</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.540631</v>
+        <v>0.553166</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17566</v>
+        <v>1.16497</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35773</v>
+        <v>1.35542</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11216</v>
+        <v>1.10981</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13283</v>
+        <v>2.14033</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.799841</v>
+        <v>0.780373</v>
       </c>
       <c r="C81" t="n">
-        <v>1.64066</v>
+        <v>1.62585</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31889</v>
+        <v>1.31476</v>
       </c>
       <c r="E81" t="n">
-        <v>1.11612</v>
+        <v>1.11316</v>
       </c>
       <c r="F81" t="n">
-        <v>2.13045</v>
+        <v>2.10791</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.789227</v>
+        <v>0.7850279999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.65187</v>
+        <v>1.63803</v>
       </c>
       <c r="D82" t="n">
-        <v>1.30073</v>
+        <v>1.29709</v>
       </c>
       <c r="E82" t="n">
-        <v>1.07528</v>
+        <v>1.09316</v>
       </c>
       <c r="F82" t="n">
-        <v>2.11137</v>
+        <v>2.11061</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.779546</v>
+        <v>0.766666</v>
       </c>
       <c r="C83" t="n">
-        <v>1.66308</v>
+        <v>1.65435</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28374</v>
+        <v>1.28099</v>
       </c>
       <c r="E83" t="n">
-        <v>1.07487</v>
+        <v>1.07246</v>
       </c>
       <c r="F83" t="n">
-        <v>2.08952</v>
+        <v>2.07394</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.760067</v>
+        <v>0.754022</v>
       </c>
       <c r="C84" t="n">
-        <v>1.65582</v>
+        <v>1.64613</v>
       </c>
       <c r="D84" t="n">
-        <v>1.26918</v>
+        <v>1.26785</v>
       </c>
       <c r="E84" t="n">
-        <v>1.05004</v>
+        <v>1.04924</v>
       </c>
       <c r="F84" t="n">
-        <v>2.06057</v>
+        <v>2.06003</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.750884</v>
+        <v>0.758672</v>
       </c>
       <c r="C85" t="n">
-        <v>1.66267</v>
+        <v>1.65362</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23304</v>
+        <v>1.22816</v>
       </c>
       <c r="E85" t="n">
-        <v>1.00671</v>
+        <v>0.964249</v>
       </c>
       <c r="F85" t="n">
-        <v>2.036</v>
+        <v>2.0323</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.740815</v>
+        <v>0.729494</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65341</v>
+        <v>1.65548</v>
       </c>
       <c r="D86" t="n">
-        <v>1.2255</v>
+        <v>1.22562</v>
       </c>
       <c r="E86" t="n">
-        <v>0.981571</v>
+        <v>0.983181</v>
       </c>
       <c r="F86" t="n">
-        <v>2.01833</v>
+        <v>2.03053</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.719659</v>
+        <v>0.731258</v>
       </c>
       <c r="C87" t="n">
-        <v>1.659</v>
+        <v>1.67059</v>
       </c>
       <c r="D87" t="n">
-        <v>1.221</v>
+        <v>1.22072</v>
       </c>
       <c r="E87" t="n">
-        <v>0.958931</v>
+        <v>0.957337</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01665</v>
+        <v>2.02792</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.711513</v>
+        <v>0.717768</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67584</v>
+        <v>1.66899</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21182</v>
+        <v>1.21414</v>
       </c>
       <c r="E88" t="n">
-        <v>0.936206</v>
+        <v>0.936737</v>
       </c>
       <c r="F88" t="n">
-        <v>2.00968</v>
+        <v>2.02079</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.704005</v>
+        <v>0.696976</v>
       </c>
       <c r="C89" t="n">
-        <v>1.67764</v>
+        <v>1.68383</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21983</v>
+        <v>1.21776</v>
       </c>
       <c r="E89" t="n">
-        <v>0.878102</v>
+        <v>0.914173</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00761</v>
+        <v>2.00636</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.692307</v>
+        <v>0.698138</v>
       </c>
       <c r="C90" t="n">
-        <v>1.70257</v>
+        <v>1.70661</v>
       </c>
       <c r="D90" t="n">
-        <v>1.22443</v>
+        <v>1.2251</v>
       </c>
       <c r="E90" t="n">
-        <v>0.891122</v>
+        <v>0.8585</v>
       </c>
       <c r="F90" t="n">
-        <v>1.99782</v>
+        <v>2.00079</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.681931</v>
+        <v>0.688553</v>
       </c>
       <c r="C91" t="n">
-        <v>1.69697</v>
+        <v>1.71496</v>
       </c>
       <c r="D91" t="n">
-        <v>1.2184</v>
+        <v>1.22076</v>
       </c>
       <c r="E91" t="n">
-        <v>0.841107</v>
+        <v>0.839591</v>
       </c>
       <c r="F91" t="n">
-        <v>1.99669</v>
+        <v>1.99887</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.67408</v>
+        <v>0.6755330000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72115</v>
+        <v>1.73083</v>
       </c>
       <c r="D92" t="n">
-        <v>2.57229</v>
+        <v>2.58959</v>
       </c>
       <c r="E92" t="n">
-        <v>0.85648</v>
+        <v>0.8583150000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99851</v>
+        <v>1.99906</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.64703</v>
+        <v>0.670164</v>
       </c>
       <c r="C93" t="n">
-        <v>1.66349</v>
+        <v>1.74414</v>
       </c>
       <c r="D93" t="n">
-        <v>2.22601</v>
+        <v>2.22344</v>
       </c>
       <c r="E93" t="n">
-        <v>0.811955</v>
+        <v>0.842538</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00582</v>
+        <v>2.0104</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.657948</v>
+        <v>0.666398</v>
       </c>
       <c r="C94" t="n">
-        <v>1.00563</v>
+        <v>1.75998</v>
       </c>
       <c r="D94" t="n">
-        <v>2.27107</v>
+        <v>2.21467</v>
       </c>
       <c r="E94" t="n">
-        <v>1.21622</v>
+        <v>1.18441</v>
       </c>
       <c r="F94" t="n">
-        <v>3.11933</v>
+        <v>3.12665</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.904883</v>
+        <v>0.8951249999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>2.41167</v>
+        <v>2.41552</v>
       </c>
       <c r="D95" t="n">
-        <v>2.3939</v>
+        <v>2.40342</v>
       </c>
       <c r="E95" t="n">
-        <v>1.17758</v>
+        <v>1.20904</v>
       </c>
       <c r="F95" t="n">
-        <v>3.09202</v>
+        <v>3.09556</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.878351</v>
+        <v>0.879219</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42251</v>
+        <v>2.43296</v>
       </c>
       <c r="D96" t="n">
-        <v>2.25931</v>
+        <v>2.46564</v>
       </c>
       <c r="E96" t="n">
-        <v>1.19357</v>
+        <v>1.16419</v>
       </c>
       <c r="F96" t="n">
-        <v>3.06446</v>
+        <v>3.07763</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.85954</v>
+        <v>0.882606</v>
       </c>
       <c r="C97" t="n">
-        <v>2.41353</v>
+        <v>2.43332</v>
       </c>
       <c r="D97" t="n">
-        <v>2.38644</v>
+        <v>2.31675</v>
       </c>
       <c r="E97" t="n">
-        <v>1.17538</v>
+        <v>1.14852</v>
       </c>
       <c r="F97" t="n">
-        <v>3.01253</v>
+        <v>3.02626</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.856033</v>
+        <v>0.859412</v>
       </c>
       <c r="C98" t="n">
-        <v>2.40453</v>
+        <v>2.41865</v>
       </c>
       <c r="D98" t="n">
-        <v>2.03144</v>
+        <v>1.88915</v>
       </c>
       <c r="E98" t="n">
-        <v>1.12971</v>
+        <v>1.13191</v>
       </c>
       <c r="F98" t="n">
-        <v>2.98368</v>
+        <v>2.96867</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.851619</v>
+        <v>0.860924</v>
       </c>
       <c r="C99" t="n">
-        <v>2.38918</v>
+        <v>2.40065</v>
       </c>
       <c r="D99" t="n">
-        <v>2.23689</v>
+        <v>1.80835</v>
       </c>
       <c r="E99" t="n">
-        <v>1.11067</v>
+        <v>1.1378</v>
       </c>
       <c r="F99" t="n">
-        <v>2.92877</v>
+        <v>2.94126</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.863199</v>
+        <v>0.847994</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38725</v>
+        <v>2.39471</v>
       </c>
       <c r="D100" t="n">
-        <v>1.70897</v>
+        <v>1.71274</v>
       </c>
       <c r="E100" t="n">
-        <v>1.09255</v>
+        <v>1.05487</v>
       </c>
       <c r="F100" t="n">
-        <v>2.87093</v>
+        <v>2.89924</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.830429</v>
+        <v>0.8373080000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>2.36109</v>
+        <v>2.37737</v>
       </c>
       <c r="D101" t="n">
-        <v>1.8727</v>
+        <v>1.70333</v>
       </c>
       <c r="E101" t="n">
-        <v>1.07747</v>
+        <v>1.07665</v>
       </c>
       <c r="F101" t="n">
-        <v>2.8641</v>
+        <v>2.86146</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.822256</v>
+        <v>0.817506</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34626</v>
+        <v>2.36549</v>
       </c>
       <c r="D102" t="n">
-        <v>1.70138</v>
+        <v>1.70618</v>
       </c>
       <c r="E102" t="n">
-        <v>1.02193</v>
+        <v>1.06046</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83416</v>
+        <v>1.83997</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7920160000000001</v>
+        <v>0.785071</v>
       </c>
       <c r="C103" t="n">
-        <v>2.36023</v>
+        <v>1.77725</v>
       </c>
       <c r="D103" t="n">
-        <v>1.71224</v>
+        <v>1.70452</v>
       </c>
       <c r="E103" t="n">
-        <v>1.06256</v>
+        <v>1.04555</v>
       </c>
       <c r="F103" t="n">
-        <v>2.78852</v>
+        <v>2.79127</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.810887</v>
+        <v>0.810795</v>
       </c>
       <c r="C104" t="n">
-        <v>2.3355</v>
+        <v>2.34435</v>
       </c>
       <c r="D104" t="n">
-        <v>1.70842</v>
+        <v>1.71059</v>
       </c>
       <c r="E104" t="n">
-        <v>1.03018</v>
+        <v>0.995644</v>
       </c>
       <c r="F104" t="n">
-        <v>2.78158</v>
+        <v>2.61343</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.801721</v>
+        <v>0.804346</v>
       </c>
       <c r="C105" t="n">
-        <v>2.34473</v>
+        <v>2.3477</v>
       </c>
       <c r="D105" t="n">
-        <v>1.7016</v>
+        <v>1.7056</v>
       </c>
       <c r="E105" t="n">
-        <v>1.01422</v>
+        <v>0.9847630000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1.69819</v>
+        <v>1.70669</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.765504</v>
+        <v>0.7977300000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.32024</v>
+        <v>2.32297</v>
       </c>
       <c r="D106" t="n">
-        <v>1.70981</v>
+        <v>1.70903</v>
       </c>
       <c r="E106" t="n">
-        <v>0.970457</v>
+        <v>0.971871</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66165</v>
+        <v>1.66798</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.777359</v>
+        <v>0.767832</v>
       </c>
       <c r="C107" t="n">
-        <v>1.27927</v>
+        <v>1.63423</v>
       </c>
       <c r="D107" t="n">
-        <v>2.9622</v>
+        <v>3.14259</v>
       </c>
       <c r="E107" t="n">
-        <v>0.96132</v>
+        <v>0.993896</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62812</v>
+        <v>1.63455</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.761992</v>
+        <v>0.776539</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26518</v>
+        <v>2.30999</v>
       </c>
       <c r="D108" t="n">
-        <v>3.11424</v>
+        <v>3.11881</v>
       </c>
       <c r="E108" t="n">
-        <v>1.36284</v>
+        <v>1.36739</v>
       </c>
       <c r="F108" t="n">
-        <v>3.96901</v>
+        <v>4.00837</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.795718</v>
+        <v>0.78995</v>
       </c>
       <c r="C109" t="n">
-        <v>2.31845</v>
+        <v>2.31749</v>
       </c>
       <c r="D109" t="n">
-        <v>3.27873</v>
+        <v>3.2755</v>
       </c>
       <c r="E109" t="n">
-        <v>1.35799</v>
+        <v>1.33526</v>
       </c>
       <c r="F109" t="n">
-        <v>3.9409</v>
+        <v>3.95616</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01835</v>
+        <v>1.01189</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04794</v>
+        <v>3.0494</v>
       </c>
       <c r="D110" t="n">
-        <v>2.70615</v>
+        <v>2.71587</v>
       </c>
       <c r="E110" t="n">
-        <v>1.32102</v>
+        <v>1.32566</v>
       </c>
       <c r="F110" t="n">
-        <v>3.87251</v>
+        <v>3.8956</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0051</v>
+        <v>0.991891</v>
       </c>
       <c r="C111" t="n">
-        <v>3.01687</v>
+        <v>3.03652</v>
       </c>
       <c r="D111" t="n">
-        <v>2.87017</v>
+        <v>2.70651</v>
       </c>
       <c r="E111" t="n">
-        <v>1.33634</v>
+        <v>1.3138</v>
       </c>
       <c r="F111" t="n">
-        <v>3.80544</v>
+        <v>3.82922</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.987644</v>
+        <v>0.986761</v>
       </c>
       <c r="C112" t="n">
-        <v>3.00593</v>
+        <v>3.00735</v>
       </c>
       <c r="D112" t="n">
-        <v>2.49396</v>
+        <v>2.68629</v>
       </c>
       <c r="E112" t="n">
-        <v>1.32481</v>
+        <v>1.32934</v>
       </c>
       <c r="F112" t="n">
-        <v>3.76367</v>
+        <v>3.76963</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.969208</v>
+        <v>0.981668</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97155</v>
+        <v>2.99044</v>
       </c>
       <c r="D113" t="n">
-        <v>2.66383</v>
+        <v>3.05031</v>
       </c>
       <c r="E113" t="n">
-        <v>1.29068</v>
+        <v>1.29413</v>
       </c>
       <c r="F113" t="n">
-        <v>3.68958</v>
+        <v>3.69906</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.973341</v>
+        <v>0.972045</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96182</v>
+        <v>2.96618</v>
       </c>
       <c r="D114" t="n">
-        <v>2.26303</v>
+        <v>2.47367</v>
       </c>
       <c r="E114" t="n">
-        <v>1.28148</v>
+        <v>1.30765</v>
       </c>
       <c r="F114" t="n">
-        <v>3.64654</v>
+        <v>3.64869</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.950846</v>
+        <v>0.955186</v>
       </c>
       <c r="C115" t="n">
-        <v>2.93722</v>
+        <v>2.94043</v>
       </c>
       <c r="D115" t="n">
-        <v>2.26698</v>
+        <v>2.26373</v>
       </c>
       <c r="E115" t="n">
-        <v>1.2942</v>
+        <v>1.29574</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57237</v>
+        <v>3.59373</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.951199</v>
+        <v>0.950612</v>
       </c>
       <c r="C116" t="n">
-        <v>2.90364</v>
+        <v>2.92919</v>
       </c>
       <c r="D116" t="n">
-        <v>2.26469</v>
+        <v>2.4623</v>
       </c>
       <c r="E116" t="n">
-        <v>1.26645</v>
+        <v>1.26889</v>
       </c>
       <c r="F116" t="n">
-        <v>3.53788</v>
+        <v>3.52861</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.934841</v>
+        <v>0.94325</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89127</v>
+        <v>2.8954</v>
       </c>
       <c r="D117" t="n">
-        <v>2.23523</v>
+        <v>2.24285</v>
       </c>
       <c r="E117" t="n">
-        <v>1.25671</v>
+        <v>1.25974</v>
       </c>
       <c r="F117" t="n">
-        <v>3.49048</v>
+        <v>3.30566</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.924529</v>
+        <v>0.936922</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88779</v>
+        <v>2.89857</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2269</v>
+        <v>2.23696</v>
       </c>
       <c r="E118" t="n">
-        <v>1.24902</v>
+        <v>1.21799</v>
       </c>
       <c r="F118" t="n">
-        <v>3.23741</v>
+        <v>3.4562</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.929253</v>
+        <v>0.918129</v>
       </c>
       <c r="C119" t="n">
-        <v>2.87557</v>
+        <v>2.86983</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23405</v>
+        <v>2.24187</v>
       </c>
       <c r="E119" t="n">
-        <v>1.21054</v>
+        <v>1.21376</v>
       </c>
       <c r="F119" t="n">
-        <v>3.38758</v>
+        <v>3.42021</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.917735</v>
+        <v>0.9124719999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>2.85596</v>
+        <v>2.87598</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23687</v>
+        <v>2.24837</v>
       </c>
       <c r="E120" t="n">
-        <v>1.23429</v>
+        <v>1.20803</v>
       </c>
       <c r="F120" t="n">
-        <v>2.95382</v>
+        <v>3.1608</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.912687</v>
+        <v>0.9096340000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>2.45287</v>
+        <v>2.86236</v>
       </c>
       <c r="D121" t="n">
-        <v>4.27207</v>
+        <v>4.27967</v>
       </c>
       <c r="E121" t="n">
-        <v>1.22993</v>
+        <v>1.23374</v>
       </c>
       <c r="F121" t="n">
-        <v>3.31778</v>
+        <v>3.33795</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.916036</v>
+        <v>0.917816</v>
       </c>
       <c r="C122" t="n">
-        <v>1.60743</v>
+        <v>1.61687</v>
       </c>
       <c r="D122" t="n">
-        <v>3.39988</v>
+        <v>3.61475</v>
       </c>
       <c r="E122" t="n">
-        <v>1.22223</v>
+        <v>1.19918</v>
       </c>
       <c r="F122" t="n">
-        <v>3.28157</v>
+        <v>3.30864</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.917996</v>
+        <v>0.9065299999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>2.83785</v>
+        <v>1.61148</v>
       </c>
       <c r="D123" t="n">
-        <v>4.16635</v>
+        <v>4.19656</v>
       </c>
       <c r="E123" t="n">
-        <v>1.56745</v>
+        <v>1.59619</v>
       </c>
       <c r="F123" t="n">
-        <v>4.66107</v>
+        <v>4.685</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.12619</v>
+        <v>1.1355</v>
       </c>
       <c r="C124" t="n">
-        <v>3.57791</v>
+        <v>3.593</v>
       </c>
       <c r="D124" t="n">
-        <v>3.94587</v>
+        <v>3.53156</v>
       </c>
       <c r="E124" t="n">
-        <v>1.58656</v>
+        <v>1.58556</v>
       </c>
       <c r="F124" t="n">
-        <v>4.60446</v>
+        <v>4.61539</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.12943</v>
+        <v>1.14483</v>
       </c>
       <c r="C125" t="n">
-        <v>3.55813</v>
+        <v>3.57241</v>
       </c>
       <c r="D125" t="n">
-        <v>3.30622</v>
+        <v>3.29737</v>
       </c>
       <c r="E125" t="n">
-        <v>1.5515</v>
+        <v>1.57572</v>
       </c>
       <c r="F125" t="n">
-        <v>4.52914</v>
+        <v>4.53242</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10562</v>
+        <v>1.11603</v>
       </c>
       <c r="C126" t="n">
-        <v>3.53852</v>
+        <v>3.54014</v>
       </c>
       <c r="D126" t="n">
-        <v>3.27752</v>
+        <v>3.26708</v>
       </c>
       <c r="E126" t="n">
-        <v>1.54216</v>
+        <v>1.53917</v>
       </c>
       <c r="F126" t="n">
-        <v>4.45203</v>
+        <v>4.47007</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1052</v>
+        <v>1.12306</v>
       </c>
       <c r="C127" t="n">
-        <v>3.5076</v>
+        <v>3.5215</v>
       </c>
       <c r="D127" t="n">
-        <v>2.83239</v>
+        <v>2.82009</v>
       </c>
       <c r="E127" t="n">
-        <v>1.5336</v>
+        <v>1.53401</v>
       </c>
       <c r="F127" t="n">
-        <v>4.37751</v>
+        <v>4.38104</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.08844</v>
+        <v>1.08561</v>
       </c>
       <c r="C128" t="n">
-        <v>3.47698</v>
+        <v>3.48095</v>
       </c>
       <c r="D128" t="n">
-        <v>2.79917</v>
+        <v>3.22126</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52721</v>
+        <v>1.52412</v>
       </c>
       <c r="F128" t="n">
-        <v>4.30492</v>
+        <v>4.30941</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08058</v>
+        <v>1.09374</v>
       </c>
       <c r="C129" t="n">
-        <v>3.45379</v>
+        <v>3.4543</v>
       </c>
       <c r="D129" t="n">
-        <v>2.76074</v>
+        <v>2.75162</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51675</v>
+        <v>1.51904</v>
       </c>
       <c r="F129" t="n">
-        <v>4.2452</v>
+        <v>4.23981</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07714</v>
+        <v>1.08127</v>
       </c>
       <c r="C130" t="n">
-        <v>3.43147</v>
+        <v>3.42473</v>
       </c>
       <c r="D130" t="n">
-        <v>2.74832</v>
+        <v>2.73865</v>
       </c>
       <c r="E130" t="n">
-        <v>1.50972</v>
+        <v>1.50789</v>
       </c>
       <c r="F130" t="n">
-        <v>4.19792</v>
+        <v>3.95991</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.07584</v>
+        <v>1.07206</v>
       </c>
       <c r="C131" t="n">
-        <v>3.40464</v>
+        <v>3.40759</v>
       </c>
       <c r="D131" t="n">
-        <v>2.73569</v>
+        <v>2.72914</v>
       </c>
       <c r="E131" t="n">
-        <v>1.50021</v>
+        <v>1.50196</v>
       </c>
       <c r="F131" t="n">
-        <v>4.13598</v>
+        <v>3.91235</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08524</v>
+        <v>1.07439</v>
       </c>
       <c r="C132" t="n">
-        <v>3.38303</v>
+        <v>3.38978</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72136</v>
+        <v>2.72201</v>
       </c>
       <c r="E132" t="n">
-        <v>1.46495</v>
+        <v>1.49548</v>
       </c>
       <c r="F132" t="n">
-        <v>3.64591</v>
+        <v>4.07682</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05663</v>
+        <v>1.05781</v>
       </c>
       <c r="C133" t="n">
-        <v>3.37381</v>
+        <v>3.37247</v>
       </c>
       <c r="D133" t="n">
-        <v>2.7128</v>
+        <v>2.71184</v>
       </c>
       <c r="E133" t="n">
-        <v>1.45901</v>
+        <v>1.4604</v>
       </c>
       <c r="F133" t="n">
-        <v>3.58039</v>
+        <v>3.13921</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07176</v>
+        <v>1.05565</v>
       </c>
       <c r="C134" t="n">
-        <v>3.35671</v>
+        <v>3.34686</v>
       </c>
       <c r="D134" t="n">
-        <v>2.71221</v>
+        <v>2.70468</v>
       </c>
       <c r="E134" t="n">
-        <v>1.45533</v>
+        <v>1.48196</v>
       </c>
       <c r="F134" t="n">
-        <v>3.74543</v>
+        <v>3.97697</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.0579</v>
+        <v>1.05772</v>
       </c>
       <c r="C135" t="n">
-        <v>3.336</v>
+        <v>3.34323</v>
       </c>
       <c r="D135" t="n">
-        <v>4.88915</v>
+        <v>4.88963</v>
       </c>
       <c r="E135" t="n">
-        <v>1.47817</v>
+        <v>1.49413</v>
       </c>
       <c r="F135" t="n">
-        <v>3.92261</v>
+        <v>3.92967</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05097</v>
+        <v>1.06072</v>
       </c>
       <c r="C136" t="n">
-        <v>3.32944</v>
+        <v>3.34066</v>
       </c>
       <c r="D136" t="n">
-        <v>4.37862</v>
+        <v>4.38689</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47454</v>
+        <v>1.45224</v>
       </c>
       <c r="F136" t="n">
-        <v>3.888</v>
+        <v>3.6749</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.03267</v>
+        <v>1.05653</v>
       </c>
       <c r="C137" t="n">
-        <v>3.32385</v>
+        <v>3.31053</v>
       </c>
       <c r="D137" t="n">
-        <v>4.78619</v>
+        <v>4.55446</v>
       </c>
       <c r="E137" t="n">
-        <v>1.84067</v>
+        <v>1.81931</v>
       </c>
       <c r="F137" t="n">
-        <v>5.33742</v>
+        <v>5.32802</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.2898</v>
+        <v>1.28072</v>
       </c>
       <c r="C138" t="n">
-        <v>4.08981</v>
+        <v>4.08462</v>
       </c>
       <c r="D138" t="n">
-        <v>4.06134</v>
+        <v>4.27041</v>
       </c>
       <c r="E138" t="n">
-        <v>1.80149</v>
+        <v>1.80467</v>
       </c>
       <c r="F138" t="n">
-        <v>5.24589</v>
+        <v>5.24601</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2761</v>
+        <v>1.27371</v>
       </c>
       <c r="C139" t="n">
-        <v>4.04414</v>
+        <v>4.05297</v>
       </c>
       <c r="D139" t="n">
-        <v>4.00545</v>
+        <v>4.0102</v>
       </c>
       <c r="E139" t="n">
-        <v>1.78735</v>
+        <v>1.78738</v>
       </c>
       <c r="F139" t="n">
-        <v>5.14942</v>
+        <v>5.13732</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.27541</v>
+        <v>1.27169</v>
       </c>
       <c r="C140" t="n">
-        <v>4.01449</v>
+        <v>3.99669</v>
       </c>
       <c r="D140" t="n">
-        <v>3.96556</v>
+        <v>3.73617</v>
       </c>
       <c r="E140" t="n">
-        <v>1.77223</v>
+        <v>1.77139</v>
       </c>
       <c r="F140" t="n">
-        <v>5.05027</v>
+        <v>5.04716</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26049</v>
+        <v>1.25833</v>
       </c>
       <c r="C141" t="n">
-        <v>3.97081</v>
+        <v>3.97142</v>
       </c>
       <c r="D141" t="n">
-        <v>3.2438</v>
+        <v>3.24314</v>
       </c>
       <c r="E141" t="n">
-        <v>1.75719</v>
+        <v>1.76152</v>
       </c>
       <c r="F141" t="n">
-        <v>4.95799</v>
+        <v>4.96484</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2445</v>
+        <v>1.2449</v>
       </c>
       <c r="C142" t="n">
-        <v>3.92933</v>
+        <v>3.93096</v>
       </c>
       <c r="D142" t="n">
-        <v>3.19492</v>
+        <v>3.19438</v>
       </c>
       <c r="E142" t="n">
-        <v>1.74483</v>
+        <v>1.7463</v>
       </c>
       <c r="F142" t="n">
-        <v>4.85435</v>
+        <v>4.87029</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24306</v>
+        <v>1.23933</v>
       </c>
       <c r="C143" t="n">
-        <v>3.88678</v>
+        <v>3.89333</v>
       </c>
       <c r="D143" t="n">
-        <v>3.16344</v>
+        <v>3.1628</v>
       </c>
       <c r="E143" t="n">
-        <v>1.73201</v>
+        <v>1.69385</v>
       </c>
       <c r="F143" t="n">
-        <v>4.55559</v>
+        <v>4.54859</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466069</v>
+        <v>0.466619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712235</v>
+        <v>0.710817</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810532</v>
+        <v>0.810488</v>
       </c>
       <c r="E2" t="n">
-        <v>0.687453</v>
+        <v>0.687559</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973232</v>
+        <v>0.977255</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455291</v>
+        <v>0.395034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700846</v>
+        <v>0.7001579999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.800999</v>
+        <v>0.8024480000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.670515</v>
+        <v>0.670948</v>
       </c>
       <c r="F3" t="n">
-        <v>0.949962</v>
+        <v>0.95635</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444629</v>
+        <v>0.387307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690517</v>
+        <v>0.691939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792517</v>
+        <v>0.794528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.653854</v>
+        <v>0.654231</v>
       </c>
       <c r="F4" t="n">
-        <v>0.931823</v>
+        <v>0.9370309999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428213</v>
+        <v>0.382457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.68368</v>
+        <v>0.682912</v>
       </c>
       <c r="D5" t="n">
-        <v>0.786077</v>
+        <v>0.7867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639184</v>
+        <v>0.639527</v>
       </c>
       <c r="F5" t="n">
-        <v>0.913851</v>
+        <v>0.918708</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427537</v>
+        <v>0.376739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.67574</v>
+        <v>0.676657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8189610000000001</v>
+        <v>0.780219</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625214</v>
+        <v>0.625381</v>
       </c>
       <c r="F6" t="n">
-        <v>0.896627</v>
+        <v>0.902365</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421417</v>
+        <v>0.37166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668915</v>
+        <v>0.670024</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877764</v>
+        <v>0.874093</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6138209999999999</v>
+        <v>0.613794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883381</v>
+        <v>0.888412</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416721</v>
+        <v>0.372444</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667316</v>
+        <v>0.666494</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86002</v>
+        <v>0.85767</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604322</v>
+        <v>0.603773</v>
       </c>
       <c r="F8" t="n">
-        <v>0.873093</v>
+        <v>0.877194</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416355</v>
+        <v>0.372804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.665956</v>
+        <v>0.665809</v>
       </c>
       <c r="D9" t="n">
-        <v>0.845959</v>
+        <v>0.841782</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914227</v>
+        <v>0.914611</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20478</v>
+        <v>1.20386</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.552165</v>
+        <v>0.55643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.809362</v>
+        <v>0.808057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.828841</v>
+        <v>0.829067</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.886035</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16927</v>
+        <v>1.17025</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535795</v>
+        <v>0.536506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.794169</v>
+        <v>0.795027</v>
       </c>
       <c r="D11" t="n">
-        <v>0.818623</v>
+        <v>0.813098</v>
       </c>
       <c r="E11" t="n">
-        <v>0.857969</v>
+        <v>0.857989</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14085</v>
+        <v>1.13942</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520076</v>
+        <v>0.520058</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7780589999999999</v>
+        <v>0.779731</v>
       </c>
       <c r="D12" t="n">
-        <v>0.803597</v>
+        <v>0.799084</v>
       </c>
       <c r="E12" t="n">
-        <v>0.832701</v>
+        <v>0.832458</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11269</v>
+        <v>1.11312</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5073260000000001</v>
+        <v>0.5117350000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.764779</v>
+        <v>0.767186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.79064</v>
+        <v>0.785809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.808385</v>
+        <v>0.844451</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08921</v>
+        <v>1.08422</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491469</v>
+        <v>0.491198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.749551</v>
+        <v>0.751634</v>
       </c>
       <c r="D14" t="n">
-        <v>0.789129</v>
+        <v>0.783419</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7840510000000001</v>
+        <v>0.784734</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05826</v>
+        <v>1.05734</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482118</v>
+        <v>0.478597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.739333</v>
+        <v>0.740906</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7803909999999999</v>
+        <v>0.774593</v>
       </c>
       <c r="E15" t="n">
-        <v>0.762632</v>
+        <v>0.762512</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03342</v>
+        <v>1.03209</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.464874</v>
+        <v>0.465667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72427</v>
+        <v>0.725282</v>
       </c>
       <c r="D16" t="n">
-        <v>0.769707</v>
+        <v>0.763148</v>
       </c>
       <c r="E16" t="n">
-        <v>0.741771</v>
+        <v>0.742034</v>
       </c>
       <c r="F16" t="n">
-        <v>1.00992</v>
+        <v>1.01061</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456027</v>
+        <v>0.459524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7125320000000001</v>
+        <v>0.714368</v>
       </c>
       <c r="D17" t="n">
-        <v>0.759879</v>
+        <v>0.754051</v>
       </c>
       <c r="E17" t="n">
-        <v>0.722067</v>
+        <v>0.722468</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0167</v>
+        <v>1.01766</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.443669</v>
+        <v>0.446579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.712118</v>
+        <v>0.703785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753873</v>
+        <v>0.747357</v>
       </c>
       <c r="E18" t="n">
-        <v>0.70473</v>
+        <v>0.704947</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9966739999999999</v>
+        <v>0.999626</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434591</v>
+        <v>0.438662</v>
       </c>
       <c r="C19" t="n">
-        <v>0.706692</v>
+        <v>0.694196</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746748</v>
+        <v>0.738226</v>
       </c>
       <c r="E19" t="n">
-        <v>0.687926</v>
+        <v>0.687707</v>
       </c>
       <c r="F19" t="n">
-        <v>0.978133</v>
+        <v>0.981878</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428861</v>
+        <v>0.42579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.69486</v>
+        <v>0.686017</v>
       </c>
       <c r="D20" t="n">
-        <v>0.738582</v>
+        <v>0.734727</v>
       </c>
       <c r="E20" t="n">
-        <v>0.673175</v>
+        <v>0.672991</v>
       </c>
       <c r="F20" t="n">
-        <v>0.962517</v>
+        <v>0.962242</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42224</v>
+        <v>0.421767</v>
       </c>
       <c r="C21" t="n">
-        <v>0.687117</v>
+        <v>0.679199</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95229</v>
+        <v>0.951356</v>
       </c>
       <c r="E21" t="n">
-        <v>0.66037</v>
+        <v>0.660392</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9543199999999999</v>
+        <v>0.95209</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418994</v>
+        <v>0.419214</v>
       </c>
       <c r="C22" t="n">
-        <v>0.703339</v>
+        <v>0.70204</v>
       </c>
       <c r="D22" t="n">
-        <v>0.935107</v>
+        <v>0.9325599999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.65036</v>
+        <v>0.650075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9400770000000001</v>
+        <v>0.939852</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4175</v>
+        <v>0.417375</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7026559999999999</v>
+        <v>0.701292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.918111</v>
+        <v>0.914644</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970137</v>
+        <v>0.9708599999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27705</v>
+        <v>1.27311</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.572424</v>
+        <v>0.571707</v>
       </c>
       <c r="C24" t="n">
-        <v>0.844901</v>
+        <v>0.8440029999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900657</v>
+        <v>0.894667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939476</v>
+        <v>0.940179</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23927</v>
+        <v>1.23948</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.555442</v>
+        <v>0.554376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.829146</v>
+        <v>0.828387</v>
       </c>
       <c r="D25" t="n">
-        <v>0.887745</v>
+        <v>0.881727</v>
       </c>
       <c r="E25" t="n">
-        <v>0.910285</v>
+        <v>0.910459</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20689</v>
+        <v>1.20819</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539</v>
+        <v>0.539345</v>
       </c>
       <c r="C26" t="n">
-        <v>0.812775</v>
+        <v>0.813208</v>
       </c>
       <c r="D26" t="n">
-        <v>0.872368</v>
+        <v>0.8661450000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.882198</v>
+        <v>0.882884</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18194</v>
+        <v>1.18502</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.553776</v>
+        <v>0.552675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7992010000000001</v>
+        <v>0.800227</v>
       </c>
       <c r="D27" t="n">
-        <v>0.858335</v>
+        <v>0.851383</v>
       </c>
       <c r="E27" t="n">
-        <v>0.85578</v>
+        <v>0.856411</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15589</v>
+        <v>1.15374</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5352789999999999</v>
+        <v>0.536503</v>
       </c>
       <c r="C28" t="n">
-        <v>0.784398</v>
+        <v>0.783166</v>
       </c>
       <c r="D28" t="n">
-        <v>0.84627</v>
+        <v>0.839337</v>
       </c>
       <c r="E28" t="n">
-        <v>0.830075</v>
+        <v>0.8304510000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12689</v>
+        <v>1.12508</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.521985</v>
+        <v>0.52263</v>
       </c>
       <c r="C29" t="n">
-        <v>0.768801</v>
+        <v>0.769332</v>
       </c>
       <c r="D29" t="n">
-        <v>0.839287</v>
+        <v>0.833719</v>
       </c>
       <c r="E29" t="n">
-        <v>0.80636</v>
+        <v>0.80622</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10256</v>
+        <v>1.10501</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.507669</v>
+        <v>0.508355</v>
       </c>
       <c r="C30" t="n">
-        <v>0.759657</v>
+        <v>0.755401</v>
       </c>
       <c r="D30" t="n">
-        <v>0.828777</v>
+        <v>0.824197</v>
       </c>
       <c r="E30" t="n">
-        <v>0.758863</v>
+        <v>0.784138</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07681</v>
+        <v>1.07875</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494729</v>
+        <v>0.494915</v>
       </c>
       <c r="C31" t="n">
-        <v>0.744962</v>
+        <v>0.743044</v>
       </c>
       <c r="D31" t="n">
-        <v>0.818319</v>
+        <v>0.8133860000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.762695</v>
+        <v>0.762727</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05358</v>
+        <v>1.05226</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.459846</v>
+        <v>0.482344</v>
       </c>
       <c r="C32" t="n">
-        <v>0.731228</v>
+        <v>0.753082</v>
       </c>
       <c r="D32" t="n">
-        <v>0.811841</v>
+        <v>0.807325</v>
       </c>
       <c r="E32" t="n">
-        <v>0.742527</v>
+        <v>0.742852</v>
       </c>
       <c r="F32" t="n">
-        <v>1.02965</v>
+        <v>1.03055</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472458</v>
+        <v>0.471881</v>
       </c>
       <c r="C33" t="n">
-        <v>0.744972</v>
+        <v>0.7443610000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.803377</v>
+        <v>0.7985719999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.702206</v>
+        <v>0.702655</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01048</v>
+        <v>1.00921</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.46315</v>
+        <v>0.442405</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7368170000000001</v>
+        <v>0.736363</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7954059999999999</v>
+        <v>0.792028</v>
       </c>
       <c r="E34" t="n">
-        <v>0.707201</v>
+        <v>0.707538</v>
       </c>
       <c r="F34" t="n">
-        <v>0.98976</v>
+        <v>0.9902030000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455072</v>
+        <v>0.455281</v>
       </c>
       <c r="C35" t="n">
-        <v>0.730333</v>
+        <v>0.730792</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03507</v>
+        <v>1.03433</v>
       </c>
       <c r="E35" t="n">
-        <v>0.692053</v>
+        <v>0.69263</v>
       </c>
       <c r="F35" t="n">
-        <v>0.973289</v>
+        <v>0.971399</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.430913</v>
+        <v>0.430081</v>
       </c>
       <c r="C36" t="n">
-        <v>0.728349</v>
+        <v>0.727125</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01575</v>
+        <v>1.01217</v>
       </c>
       <c r="E36" t="n">
-        <v>0.660998</v>
+        <v>0.661148</v>
       </c>
       <c r="F36" t="n">
-        <v>0.957637</v>
+        <v>0.956692</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446487</v>
+        <v>0.428455</v>
       </c>
       <c r="C37" t="n">
-        <v>0.726882</v>
+        <v>0.725557</v>
       </c>
       <c r="D37" t="n">
-        <v>0.996251</v>
+        <v>0.992376</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0041</v>
+        <v>0.987486</v>
       </c>
       <c r="F37" t="n">
-        <v>1.5685</v>
+        <v>1.56669</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.62113</v>
+        <v>0.620174</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10386</v>
+        <v>1.10301</v>
       </c>
       <c r="D38" t="n">
-        <v>0.979135</v>
+        <v>0.974411</v>
       </c>
       <c r="E38" t="n">
-        <v>0.956539</v>
+        <v>0.973926</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53155</v>
+        <v>1.53045</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.62134</v>
+        <v>0.60323</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08747</v>
+        <v>1.08556</v>
       </c>
       <c r="D39" t="n">
-        <v>0.958546</v>
+        <v>0.953765</v>
       </c>
       <c r="E39" t="n">
-        <v>0.926816</v>
+        <v>0.927369</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49755</v>
+        <v>1.49456</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602901</v>
+        <v>0.587549</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07257</v>
+        <v>1.06946</v>
       </c>
       <c r="D40" t="n">
-        <v>0.942528</v>
+        <v>0.938087</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898092</v>
+        <v>0.899398</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46353</v>
+        <v>1.46265</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585214</v>
+        <v>0.584846</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05587</v>
+        <v>1.05542</v>
       </c>
       <c r="D41" t="n">
-        <v>0.927544</v>
+        <v>0.9224830000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.87177</v>
+        <v>0.872293</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43217</v>
+        <v>1.43133</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.569904</v>
+        <v>0.554677</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04265</v>
+        <v>1.04003</v>
       </c>
       <c r="D42" t="n">
-        <v>0.912373</v>
+        <v>0.909348</v>
       </c>
       <c r="E42" t="n">
-        <v>0.846274</v>
+        <v>0.846615</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40245</v>
+        <v>1.40012</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5525139999999999</v>
+        <v>0.537319</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0285</v>
+        <v>1.02567</v>
       </c>
       <c r="D43" t="n">
-        <v>0.898999</v>
+        <v>0.895496</v>
       </c>
       <c r="E43" t="n">
-        <v>0.822308</v>
+        <v>0.822892</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37367</v>
+        <v>1.37175</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.523118</v>
+        <v>0.525015</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01635</v>
+        <v>1.0144</v>
       </c>
       <c r="D44" t="n">
-        <v>0.887094</v>
+        <v>0.8837120000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.799579</v>
+        <v>0.799872</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34598</v>
+        <v>1.34517</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510584</v>
+        <v>0.510177</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00309</v>
+        <v>1.00285</v>
       </c>
       <c r="D45" t="n">
-        <v>0.879585</v>
+        <v>0.8765039999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.777737</v>
+        <v>0.7783949999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32176</v>
+        <v>1.3215</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498696</v>
+        <v>0.498691</v>
       </c>
       <c r="C46" t="n">
-        <v>0.992574</v>
+        <v>0.992381</v>
       </c>
       <c r="D46" t="n">
-        <v>0.869736</v>
+        <v>0.86571</v>
       </c>
       <c r="E46" t="n">
-        <v>0.756589</v>
+        <v>0.75822</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29808</v>
+        <v>1.29693</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487282</v>
+        <v>0.488215</v>
       </c>
       <c r="C47" t="n">
-        <v>0.985361</v>
+        <v>0.985192</v>
       </c>
       <c r="D47" t="n">
-        <v>0.863186</v>
+        <v>0.860802</v>
       </c>
       <c r="E47" t="n">
-        <v>0.715062</v>
+        <v>0.739327</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27579</v>
+        <v>1.27404</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.47732</v>
+        <v>0.478582</v>
       </c>
       <c r="C48" t="n">
-        <v>0.974249</v>
+        <v>0.972489</v>
       </c>
       <c r="D48" t="n">
-        <v>0.855078</v>
+        <v>0.852972</v>
       </c>
       <c r="E48" t="n">
-        <v>0.720634</v>
+        <v>0.722375</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2556</v>
+        <v>1.25436</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.468684</v>
+        <v>0.469667</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966425</v>
+        <v>0.964461</v>
       </c>
       <c r="D49" t="n">
-        <v>0.851322</v>
+        <v>0.846299</v>
       </c>
       <c r="E49" t="n">
-        <v>0.706033</v>
+        <v>0.706446</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23534</v>
+        <v>1.23441</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.462875</v>
+        <v>0.463926</v>
       </c>
       <c r="C50" t="n">
-        <v>0.959287</v>
+        <v>0.957549</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08237</v>
+        <v>1.08137</v>
       </c>
       <c r="E50" t="n">
-        <v>0.691995</v>
+        <v>0.674414</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21961</v>
+        <v>1.21944</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.459345</v>
+        <v>0.459594</v>
       </c>
       <c r="C51" t="n">
-        <v>0.955083</v>
+        <v>0.952794</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06094</v>
+        <v>1.05859</v>
       </c>
       <c r="E51" t="n">
-        <v>1.03205</v>
+        <v>1.01774</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64403</v>
+        <v>1.64492</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.459057</v>
+        <v>0.460242</v>
       </c>
       <c r="C52" t="n">
-        <v>0.954171</v>
+        <v>0.95168</v>
       </c>
       <c r="D52" t="n">
-        <v>1.04026</v>
+        <v>1.03677</v>
       </c>
       <c r="E52" t="n">
-        <v>1.00085</v>
+        <v>0.988906</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60764</v>
+        <v>1.6079</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.643724</v>
+        <v>0.639309</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14089</v>
+        <v>1.14047</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02061</v>
+        <v>1.01729</v>
       </c>
       <c r="E53" t="n">
-        <v>0.961917</v>
+        <v>0.958995</v>
       </c>
       <c r="F53" t="n">
-        <v>1.56988</v>
+        <v>1.56997</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.621158</v>
+        <v>0.621651</v>
       </c>
       <c r="C54" t="n">
         <v>1.1227</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00461</v>
+        <v>1.00215</v>
       </c>
       <c r="E54" t="n">
-        <v>0.940202</v>
+        <v>0.931516</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53534</v>
+        <v>1.53578</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.608213</v>
+        <v>0.606672</v>
       </c>
       <c r="C55" t="n">
         <v>1.10726</v>
       </c>
       <c r="D55" t="n">
-        <v>0.986957</v>
+        <v>0.984476</v>
       </c>
       <c r="E55" t="n">
-        <v>0.902352</v>
+        <v>0.903928</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50176</v>
+        <v>1.5029</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.591511</v>
+        <v>0.591738</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08939</v>
+        <v>1.0922</v>
       </c>
       <c r="D56" t="n">
-        <v>0.971502</v>
+        <v>0.969434</v>
       </c>
       <c r="E56" t="n">
-        <v>0.877258</v>
+        <v>0.8868</v>
       </c>
       <c r="F56" t="n">
-        <v>1.46993</v>
+        <v>1.47019</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.57153</v>
+        <v>0.581143</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07739</v>
+        <v>1.0775</v>
       </c>
       <c r="D57" t="n">
-        <v>0.956454</v>
+        <v>0.955441</v>
       </c>
       <c r="E57" t="n">
-        <v>0.853705</v>
+        <v>0.852803</v>
       </c>
       <c r="F57" t="n">
-        <v>1.44007</v>
+        <v>1.44083</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.559435</v>
+        <v>0.559492</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06463</v>
+        <v>1.06487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.943651</v>
+        <v>0.943342</v>
       </c>
       <c r="E58" t="n">
-        <v>0.83103</v>
+        <v>0.828269</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41031</v>
+        <v>1.41283</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.546249</v>
+        <v>0.551265</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05195</v>
+        <v>1.0521</v>
       </c>
       <c r="D59" t="n">
-        <v>0.925957</v>
+        <v>0.925686</v>
       </c>
       <c r="E59" t="n">
-        <v>0.780099</v>
+        <v>0.807806</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38396</v>
+        <v>1.38573</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532422</v>
+        <v>0.532049</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03904</v>
+        <v>1.0403</v>
       </c>
       <c r="D60" t="n">
-        <v>0.91747</v>
+        <v>0.914835</v>
       </c>
       <c r="E60" t="n">
-        <v>0.761008</v>
+        <v>0.789054</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35789</v>
+        <v>1.35852</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.520058</v>
+        <v>0.527074</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03001</v>
+        <v>1.03124</v>
       </c>
       <c r="D61" t="n">
-        <v>0.908517</v>
+        <v>0.904124</v>
       </c>
       <c r="E61" t="n">
-        <v>0.775747</v>
+        <v>0.769496</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33523</v>
+        <v>1.33619</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.511409</v>
+        <v>0.511485</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02031</v>
+        <v>1.02097</v>
       </c>
       <c r="D62" t="n">
-        <v>0.898342</v>
+        <v>0.895132</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7276629999999999</v>
+        <v>0.751208</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31267</v>
+        <v>1.31442</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.500793</v>
+        <v>0.474952</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01306</v>
+        <v>1.01353</v>
       </c>
       <c r="D63" t="n">
-        <v>0.890647</v>
+        <v>0.8867930000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.710721</v>
+        <v>0.70886</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29362</v>
+        <v>1.29431</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.496191</v>
+        <v>0.495466</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00781</v>
+        <v>1.00714</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16153</v>
+        <v>1.15527</v>
       </c>
       <c r="E64" t="n">
-        <v>0.719772</v>
+        <v>0.721202</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27561</v>
+        <v>1.27663</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.470441</v>
+        <v>0.468741</v>
       </c>
       <c r="C65" t="n">
-        <v>0.986086</v>
+        <v>1.00457</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13919</v>
+        <v>1.13031</v>
       </c>
       <c r="E65" t="n">
-        <v>0.688294</v>
+        <v>0.709595</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26264</v>
+        <v>1.26188</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.468303</v>
+        <v>0.465774</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00105</v>
+        <v>1.00185</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10677</v>
+        <v>1.10242</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06456</v>
+        <v>1.06581</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68827</v>
+        <v>1.68626</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.719002</v>
+        <v>0.720672</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20725</v>
+        <v>1.21102</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07858</v>
+        <v>1.07612</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03562</v>
+        <v>1.02527</v>
       </c>
       <c r="F67" t="n">
-        <v>1.64847</v>
+        <v>1.64742</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.693993</v>
+        <v>0.705752</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19306</v>
+        <v>1.18869</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06072</v>
+        <v>1.05638</v>
       </c>
       <c r="E68" t="n">
-        <v>1.00857</v>
+        <v>0.995486</v>
       </c>
       <c r="F68" t="n">
-        <v>1.62067</v>
+        <v>1.61326</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.69211</v>
+        <v>0.683292</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17972</v>
+        <v>1.17282</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04316</v>
+        <v>1.03624</v>
       </c>
       <c r="E69" t="n">
-        <v>0.970231</v>
+        <v>0.9714970000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58071</v>
+        <v>1.5781</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.675444</v>
+        <v>0.670627</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16541</v>
+        <v>1.16311</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03094</v>
+        <v>1.02724</v>
       </c>
       <c r="E70" t="n">
-        <v>0.953813</v>
+        <v>0.9451619999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55429</v>
+        <v>1.5528</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.654899</v>
+        <v>0.64868</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15645</v>
+        <v>1.15671</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0005</v>
+        <v>0.999647</v>
       </c>
       <c r="E71" t="n">
-        <v>0.918611</v>
+        <v>0.919304</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52708</v>
+        <v>1.53141</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6533910000000001</v>
+        <v>0.644263</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14952</v>
+        <v>1.15039</v>
       </c>
       <c r="D72" t="n">
-        <v>0.993185</v>
+        <v>0.991788</v>
       </c>
       <c r="E72" t="n">
-        <v>0.895436</v>
+        <v>0.894355</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50286</v>
+        <v>1.50534</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.627204</v>
+        <v>0.638581</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13875</v>
+        <v>1.14096</v>
       </c>
       <c r="D73" t="n">
-        <v>0.983515</v>
+        <v>0.9814580000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.872213</v>
+        <v>0.87258</v>
       </c>
       <c r="F73" t="n">
-        <v>1.47798</v>
+        <v>1.48217</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615637</v>
+        <v>0.616228</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13516</v>
+        <v>1.1388</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9703270000000001</v>
+        <v>0.966902</v>
       </c>
       <c r="E74" t="n">
-        <v>0.815931</v>
+        <v>0.815035</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45987</v>
+        <v>1.46455</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.602457</v>
+        <v>0.604698</v>
       </c>
       <c r="C75" t="n">
-        <v>1.13551</v>
+        <v>1.1377</v>
       </c>
       <c r="D75" t="n">
-        <v>0.96716</v>
+        <v>0.965241</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7953170000000001</v>
+        <v>0.829456</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4429</v>
+        <v>1.44414</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.595429</v>
+        <v>0.5981070000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13342</v>
+        <v>1.13132</v>
       </c>
       <c r="D76" t="n">
-        <v>0.962978</v>
+        <v>0.960467</v>
       </c>
       <c r="E76" t="n">
-        <v>0.809149</v>
+        <v>0.809656</v>
       </c>
       <c r="F76" t="n">
-        <v>1.43397</v>
+        <v>1.42326</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5856209999999999</v>
+        <v>0.584959</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13629</v>
+        <v>1.12497</v>
       </c>
       <c r="D77" t="n">
-        <v>0.95225</v>
+        <v>0.948343</v>
       </c>
       <c r="E77" t="n">
-        <v>0.791598</v>
+        <v>0.76367</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41745</v>
+        <v>1.40566</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5775130000000001</v>
+        <v>0.577049</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13511</v>
+        <v>1.12879</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41366</v>
+        <v>1.40695</v>
       </c>
       <c r="E78" t="n">
-        <v>0.748159</v>
+        <v>0.748864</v>
       </c>
       <c r="F78" t="n">
-        <v>1.41281</v>
+        <v>1.40343</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571088</v>
+        <v>0.571139</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14573</v>
+        <v>1.14536</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38092</v>
+        <v>1.37757</v>
       </c>
       <c r="E79" t="n">
-        <v>0.73639</v>
+        <v>0.736385</v>
       </c>
       <c r="F79" t="n">
-        <v>1.40641</v>
+        <v>1.39948</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.559632</v>
+        <v>0.562967</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17534</v>
+        <v>1.15626</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36185</v>
+        <v>1.34814</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11272</v>
+        <v>1.13312</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13858</v>
+        <v>2.12067</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.800419</v>
+        <v>0.7889119999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63038</v>
+        <v>1.6142</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31476</v>
+        <v>1.30629</v>
       </c>
       <c r="E81" t="n">
-        <v>1.11587</v>
+        <v>1.1166</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12195</v>
+        <v>2.11006</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.789818</v>
+        <v>0.7851939999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.64053</v>
+        <v>1.62569</v>
       </c>
       <c r="D82" t="n">
-        <v>1.29559</v>
+        <v>1.28954</v>
       </c>
       <c r="E82" t="n">
-        <v>1.09581</v>
+        <v>1.0968</v>
       </c>
       <c r="F82" t="n">
-        <v>2.09061</v>
+        <v>2.08459</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7747889999999999</v>
+        <v>0.77766</v>
       </c>
       <c r="C83" t="n">
-        <v>1.64606</v>
+        <v>1.63177</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28072</v>
+        <v>1.27963</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05723</v>
+        <v>1.07366</v>
       </c>
       <c r="F83" t="n">
-        <v>2.08028</v>
+        <v>2.06748</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.766063</v>
+        <v>0.767069</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64557</v>
+        <v>1.63352</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27226</v>
+        <v>1.26142</v>
       </c>
       <c r="E84" t="n">
-        <v>1.05054</v>
+        <v>1.03653</v>
       </c>
       <c r="F84" t="n">
-        <v>2.06465</v>
+        <v>2.03404</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.759889</v>
+        <v>0.746988</v>
       </c>
       <c r="C85" t="n">
-        <v>1.65412</v>
+        <v>1.63318</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23559</v>
+        <v>1.21987</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01091</v>
+        <v>1.01261</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04418</v>
+        <v>2.01885</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.743583</v>
+        <v>0.751631</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65596</v>
+        <v>1.64369</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22651</v>
+        <v>1.22192</v>
       </c>
       <c r="E86" t="n">
-        <v>0.986992</v>
+        <v>0.988063</v>
       </c>
       <c r="F86" t="n">
-        <v>2.03433</v>
+        <v>2.02882</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.734083</v>
+        <v>0.732636</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6581</v>
+        <v>1.66754</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22293</v>
+        <v>1.22138</v>
       </c>
       <c r="E87" t="n">
-        <v>0.962677</v>
+        <v>0.963584</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01529</v>
+        <v>2.02004</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.723666</v>
+        <v>0.721434</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67228</v>
+        <v>1.6715</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21751</v>
+        <v>1.21896</v>
       </c>
       <c r="E88" t="n">
-        <v>0.940177</v>
+        <v>0.942304</v>
       </c>
       <c r="F88" t="n">
-        <v>2.00274</v>
+        <v>2.01053</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711916</v>
+        <v>0.718913</v>
       </c>
       <c r="C89" t="n">
-        <v>1.67222</v>
+        <v>1.67512</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21729</v>
+        <v>1.21394</v>
       </c>
       <c r="E89" t="n">
-        <v>0.919331</v>
+        <v>0.919411</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00727</v>
+        <v>1.99103</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.693674</v>
+        <v>0.704218</v>
       </c>
       <c r="C90" t="n">
-        <v>1.70557</v>
+        <v>1.68992</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2241</v>
+        <v>1.22161</v>
       </c>
       <c r="E90" t="n">
-        <v>0.897458</v>
+        <v>0.899522</v>
       </c>
       <c r="F90" t="n">
-        <v>1.99417</v>
+        <v>1.99059</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.696196</v>
+        <v>0.692914</v>
       </c>
       <c r="C91" t="n">
-        <v>1.43664</v>
+        <v>1.70303</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22301</v>
+        <v>1.21775</v>
       </c>
       <c r="E91" t="n">
-        <v>0.843352</v>
+        <v>0.845212</v>
       </c>
       <c r="F91" t="n">
-        <v>1.99685</v>
+        <v>1.98772</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.679338</v>
+        <v>0.683344</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72734</v>
+        <v>1.71544</v>
       </c>
       <c r="D92" t="n">
-        <v>2.58346</v>
+        <v>2.56331</v>
       </c>
       <c r="E92" t="n">
-        <v>0.861842</v>
+        <v>0.8288759999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99588</v>
+        <v>1.99172</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.675611</v>
+        <v>0.678906</v>
       </c>
       <c r="C93" t="n">
-        <v>1.74007</v>
+        <v>1.72827</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21901</v>
+        <v>2.45306</v>
       </c>
       <c r="E93" t="n">
-        <v>0.846565</v>
+        <v>0.847948</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00658</v>
+        <v>1.99421</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.670102</v>
+        <v>0.674176</v>
       </c>
       <c r="C94" t="n">
-        <v>1.75612</v>
+        <v>1.07457</v>
       </c>
       <c r="D94" t="n">
-        <v>2.21082</v>
+        <v>2.21197</v>
       </c>
       <c r="E94" t="n">
-        <v>1.19683</v>
+        <v>1.22363</v>
       </c>
       <c r="F94" t="n">
-        <v>3.11791</v>
+        <v>3.14552</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9051940000000001</v>
+        <v>0.908139</v>
       </c>
       <c r="C95" t="n">
-        <v>2.41044</v>
+        <v>2.43256</v>
       </c>
       <c r="D95" t="n">
-        <v>2.39665</v>
+        <v>2.38869</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21836</v>
+        <v>1.18778</v>
       </c>
       <c r="F95" t="n">
-        <v>3.08883</v>
+        <v>3.09446</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.890649</v>
+        <v>0.894114</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42718</v>
+        <v>2.42993</v>
       </c>
       <c r="D96" t="n">
-        <v>2.45939</v>
+        <v>2.38623</v>
       </c>
       <c r="E96" t="n">
-        <v>1.17793</v>
+        <v>1.2009</v>
       </c>
       <c r="F96" t="n">
-        <v>3.0661</v>
+        <v>3.05261</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89298</v>
+        <v>0.896641</v>
       </c>
       <c r="C97" t="n">
-        <v>2.42963</v>
+        <v>2.43204</v>
       </c>
       <c r="D97" t="n">
-        <v>2.31238</v>
+        <v>2.24074</v>
       </c>
       <c r="E97" t="n">
-        <v>1.16102</v>
+        <v>1.15657</v>
       </c>
       <c r="F97" t="n">
-        <v>3.0189</v>
+        <v>3.00283</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8671410000000001</v>
+        <v>0.8771369999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>2.41137</v>
+        <v>2.41151</v>
       </c>
       <c r="D98" t="n">
-        <v>1.88331</v>
+        <v>2.10049</v>
       </c>
       <c r="E98" t="n">
-        <v>1.14246</v>
+        <v>1.13692</v>
       </c>
       <c r="F98" t="n">
-        <v>2.95811</v>
+        <v>2.9761</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.869127</v>
+        <v>0.842723</v>
       </c>
       <c r="C99" t="n">
-        <v>2.39432</v>
+        <v>2.39571</v>
       </c>
       <c r="D99" t="n">
-        <v>1.80779</v>
+        <v>1.95214</v>
       </c>
       <c r="E99" t="n">
-        <v>1.14565</v>
+        <v>1.11826</v>
       </c>
       <c r="F99" t="n">
-        <v>2.93136</v>
+        <v>2.93559</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.854218</v>
+        <v>0.83735</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38678</v>
+        <v>2.3772</v>
       </c>
       <c r="D100" t="n">
-        <v>1.70861</v>
+        <v>1.70732</v>
       </c>
       <c r="E100" t="n">
-        <v>1.10391</v>
+        <v>1.09895</v>
       </c>
       <c r="F100" t="n">
-        <v>2.89034</v>
+        <v>2.90122</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.834218</v>
+        <v>0.8346</v>
       </c>
       <c r="C101" t="n">
-        <v>2.37531</v>
+        <v>2.3659</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70338</v>
+        <v>1.69863</v>
       </c>
       <c r="E101" t="n">
-        <v>1.08673</v>
+        <v>1.07707</v>
       </c>
       <c r="F101" t="n">
-        <v>2.84789</v>
+        <v>2.70132</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8371729999999999</v>
+        <v>0.821279</v>
       </c>
       <c r="C102" t="n">
-        <v>2.3533</v>
+        <v>2.36421</v>
       </c>
       <c r="D102" t="n">
-        <v>1.86922</v>
+        <v>1.70071</v>
       </c>
       <c r="E102" t="n">
-        <v>1.02959</v>
+        <v>1.0654</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83191</v>
+        <v>2.81181</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.781653</v>
+        <v>0.815047</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35998</v>
+        <v>2.33018</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70453</v>
+        <v>1.71127</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0543</v>
+        <v>1.04785</v>
       </c>
       <c r="F103" t="n">
-        <v>2.80279</v>
+        <v>2.7955</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.816766</v>
+        <v>0.8146099999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>2.34756</v>
+        <v>2.34674</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71411</v>
+        <v>1.71012</v>
       </c>
       <c r="E104" t="n">
-        <v>1.03879</v>
+        <v>1.03245</v>
       </c>
       <c r="F104" t="n">
-        <v>1.74358</v>
+        <v>2.59396</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.776248</v>
+        <v>0.813201</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82264</v>
+        <v>2.32026</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70677</v>
+        <v>1.70449</v>
       </c>
       <c r="E105" t="n">
-        <v>1.02441</v>
+        <v>1.01559</v>
       </c>
       <c r="F105" t="n">
-        <v>2.72806</v>
+        <v>1.70138</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.802428</v>
+        <v>0.766773</v>
       </c>
       <c r="C106" t="n">
-        <v>2.3152</v>
+        <v>1.29711</v>
       </c>
       <c r="D106" t="n">
-        <v>1.711</v>
+        <v>1.70888</v>
       </c>
       <c r="E106" t="n">
-        <v>0.976984</v>
+        <v>0.97332</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66468</v>
+        <v>1.6605</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.778753</v>
+        <v>0.771905</v>
       </c>
       <c r="C107" t="n">
-        <v>1.28387</v>
+        <v>1.27481</v>
       </c>
       <c r="D107" t="n">
-        <v>2.96531</v>
+        <v>2.95618</v>
       </c>
       <c r="E107" t="n">
-        <v>0.965777</v>
+        <v>0.964226</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62925</v>
+        <v>1.62605</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.774743</v>
+        <v>0.763788</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26419</v>
+        <v>2.15377</v>
       </c>
       <c r="D108" t="n">
-        <v>2.77314</v>
+        <v>3.29853</v>
       </c>
       <c r="E108" t="n">
-        <v>1.38024</v>
+        <v>1.36642</v>
       </c>
       <c r="F108" t="n">
-        <v>3.97945</v>
+        <v>3.9828</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.773837</v>
+        <v>0.790639</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25838</v>
+        <v>1.2577</v>
       </c>
       <c r="D109" t="n">
-        <v>3.45057</v>
+        <v>3.08031</v>
       </c>
       <c r="E109" t="n">
-        <v>1.34392</v>
+        <v>1.36</v>
       </c>
       <c r="F109" t="n">
-        <v>3.92251</v>
+        <v>3.91732</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03598</v>
+        <v>1.02799</v>
       </c>
       <c r="C110" t="n">
-        <v>3.03515</v>
+        <v>3.02583</v>
       </c>
       <c r="D110" t="n">
-        <v>2.88541</v>
+        <v>2.89013</v>
       </c>
       <c r="E110" t="n">
-        <v>1.33407</v>
+        <v>1.35241</v>
       </c>
       <c r="F110" t="n">
-        <v>3.86958</v>
+        <v>3.85778</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02843</v>
+        <v>1.00844</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02737</v>
+        <v>3.01042</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50728</v>
+        <v>2.86442</v>
       </c>
       <c r="E111" t="n">
-        <v>1.32315</v>
+        <v>1.34019</v>
       </c>
       <c r="F111" t="n">
-        <v>3.80411</v>
+        <v>3.80369</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01336</v>
+        <v>0.98362</v>
       </c>
       <c r="C112" t="n">
-        <v>2.99581</v>
+        <v>2.99934</v>
       </c>
       <c r="D112" t="n">
-        <v>2.30028</v>
+        <v>2.86036</v>
       </c>
       <c r="E112" t="n">
-        <v>1.31016</v>
+        <v>1.30283</v>
       </c>
       <c r="F112" t="n">
-        <v>3.74691</v>
+        <v>3.74841</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.985941</v>
+        <v>0.992798</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98585</v>
+        <v>2.97087</v>
       </c>
       <c r="D113" t="n">
-        <v>2.85655</v>
+        <v>2.84551</v>
       </c>
       <c r="E113" t="n">
-        <v>1.30169</v>
+        <v>1.2939</v>
       </c>
       <c r="F113" t="n">
-        <v>3.69821</v>
+        <v>3.69358</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989209</v>
+        <v>0.971536</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96232</v>
+        <v>2.9605</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27844</v>
+        <v>2.26934</v>
       </c>
       <c r="E114" t="n">
-        <v>1.29095</v>
+        <v>1.28512</v>
       </c>
       <c r="F114" t="n">
-        <v>3.63176</v>
+        <v>3.63596</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9659489999999999</v>
+        <v>0.963369</v>
       </c>
       <c r="C115" t="n">
-        <v>2.9257</v>
+        <v>2.9306</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2511</v>
+        <v>2.45411</v>
       </c>
       <c r="E115" t="n">
-        <v>1.28273</v>
+        <v>1.27682</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57168</v>
+        <v>3.57969</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.945928</v>
+        <v>0.939463</v>
       </c>
       <c r="C116" t="n">
-        <v>2.92089</v>
+        <v>2.91913</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2572</v>
+        <v>2.25332</v>
       </c>
       <c r="E116" t="n">
-        <v>1.27307</v>
+        <v>1.26614</v>
       </c>
       <c r="F116" t="n">
-        <v>3.5284</v>
+        <v>3.52435</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.945813</v>
+        <v>0.936256</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89622</v>
+        <v>2.8918</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22535</v>
+        <v>2.23292</v>
       </c>
       <c r="E117" t="n">
-        <v>1.22639</v>
+        <v>1.25817</v>
       </c>
       <c r="F117" t="n">
-        <v>3.28616</v>
+        <v>3.08474</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.947914</v>
+        <v>0.932558</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88854</v>
+        <v>2.87748</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22977</v>
+        <v>2.22963</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21978</v>
+        <v>1.21823</v>
       </c>
       <c r="F118" t="n">
-        <v>3.23552</v>
+        <v>3.44061</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.923427</v>
+        <v>0.9345</v>
       </c>
       <c r="C119" t="n">
-        <v>2.8719</v>
+        <v>2.86752</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23726</v>
+        <v>2.23145</v>
       </c>
       <c r="E119" t="n">
-        <v>1.24808</v>
+        <v>1.24331</v>
       </c>
       <c r="F119" t="n">
-        <v>3.39793</v>
+        <v>3.38027</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.919372</v>
+        <v>0.922133</v>
       </c>
       <c r="C120" t="n">
-        <v>2.85809</v>
+        <v>2.86078</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23614</v>
+        <v>2.23621</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20798</v>
+        <v>1.23491</v>
       </c>
       <c r="F120" t="n">
-        <v>3.15821</v>
+        <v>2.55679</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.91945</v>
+        <v>0.899468</v>
       </c>
       <c r="C121" t="n">
-        <v>1.6251</v>
+        <v>2.84042</v>
       </c>
       <c r="D121" t="n">
-        <v>4.25788</v>
+        <v>4.24145</v>
       </c>
       <c r="E121" t="n">
-        <v>1.20282</v>
+        <v>1.22957</v>
       </c>
       <c r="F121" t="n">
-        <v>3.30619</v>
+        <v>2.50263</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.919148</v>
+        <v>0.914249</v>
       </c>
       <c r="C122" t="n">
-        <v>2.82808</v>
+        <v>1.61338</v>
       </c>
       <c r="D122" t="n">
-        <v>3.80422</v>
+        <v>3.58546</v>
       </c>
       <c r="E122" t="n">
-        <v>1.19834</v>
+        <v>1.2242</v>
       </c>
       <c r="F122" t="n">
-        <v>3.07162</v>
+        <v>3.28557</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.917614</v>
+        <v>0.9138230000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>2.82682</v>
+        <v>1.59486</v>
       </c>
       <c r="D123" t="n">
-        <v>4.17457</v>
+        <v>3.76973</v>
       </c>
       <c r="E123" t="n">
-        <v>1.6051</v>
+        <v>1.567</v>
       </c>
       <c r="F123" t="n">
-        <v>4.64814</v>
+        <v>4.65277</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.12499</v>
+        <v>1.15392</v>
       </c>
       <c r="C124" t="n">
-        <v>3.5743</v>
+        <v>3.59093</v>
       </c>
       <c r="D124" t="n">
-        <v>3.51642</v>
+        <v>3.10472</v>
       </c>
       <c r="E124" t="n">
-        <v>1.56603</v>
+        <v>1.58116</v>
       </c>
       <c r="F124" t="n">
-        <v>4.57107</v>
+        <v>4.58155</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1494</v>
+        <v>1.12047</v>
       </c>
       <c r="C125" t="n">
-        <v>3.56075</v>
+        <v>3.54915</v>
       </c>
       <c r="D125" t="n">
-        <v>3.69602</v>
+        <v>3.70223</v>
       </c>
       <c r="E125" t="n">
-        <v>1.55184</v>
+        <v>1.54807</v>
       </c>
       <c r="F125" t="n">
-        <v>4.49306</v>
+        <v>4.50205</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13892</v>
+        <v>1.1156</v>
       </c>
       <c r="C126" t="n">
-        <v>3.51443</v>
+        <v>3.52005</v>
       </c>
       <c r="D126" t="n">
-        <v>3.03474</v>
+        <v>3.46059</v>
       </c>
       <c r="E126" t="n">
-        <v>1.54445</v>
+        <v>1.53879</v>
       </c>
       <c r="F126" t="n">
-        <v>4.42175</v>
+        <v>4.41869</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10603</v>
+        <v>1.12234</v>
       </c>
       <c r="C127" t="n">
-        <v>3.49358</v>
+        <v>3.49287</v>
       </c>
       <c r="D127" t="n">
-        <v>3.00997</v>
+        <v>3.01941</v>
       </c>
       <c r="E127" t="n">
-        <v>1.53223</v>
+        <v>1.53068</v>
       </c>
       <c r="F127" t="n">
-        <v>4.35497</v>
+        <v>4.35042</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.0936</v>
+        <v>1.08315</v>
       </c>
       <c r="C128" t="n">
-        <v>3.46537</v>
+        <v>3.46939</v>
       </c>
       <c r="D128" t="n">
-        <v>2.98905</v>
+        <v>2.99305</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52513</v>
+        <v>1.51822</v>
       </c>
       <c r="F128" t="n">
-        <v>4.27537</v>
+        <v>4.27987</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08706</v>
+        <v>1.07935</v>
       </c>
       <c r="C129" t="n">
-        <v>3.43418</v>
+        <v>3.43965</v>
       </c>
       <c r="D129" t="n">
-        <v>2.74533</v>
+        <v>2.73805</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51702</v>
+        <v>1.51217</v>
       </c>
       <c r="F129" t="n">
-        <v>4.2178</v>
+        <v>4.21956</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07212</v>
+        <v>1.06917</v>
       </c>
       <c r="C130" t="n">
-        <v>3.41916</v>
+        <v>3.41388</v>
       </c>
       <c r="D130" t="n">
-        <v>2.72401</v>
+        <v>2.73163</v>
       </c>
       <c r="E130" t="n">
-        <v>1.50461</v>
+        <v>1.47163</v>
       </c>
       <c r="F130" t="n">
-        <v>4.15764</v>
+        <v>4.16355</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06953</v>
+        <v>1.07524</v>
       </c>
       <c r="C131" t="n">
-        <v>3.39668</v>
+        <v>3.39375</v>
       </c>
       <c r="D131" t="n">
-        <v>2.70733</v>
+        <v>2.71383</v>
       </c>
       <c r="E131" t="n">
-        <v>1.50075</v>
+        <v>1.49717</v>
       </c>
       <c r="F131" t="n">
-        <v>4.10243</v>
+        <v>3.88765</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06648</v>
+        <v>1.05976</v>
       </c>
       <c r="C132" t="n">
-        <v>3.37206</v>
+        <v>3.36502</v>
       </c>
       <c r="D132" t="n">
-        <v>2.70471</v>
+        <v>2.93044</v>
       </c>
       <c r="E132" t="n">
-        <v>1.49272</v>
+        <v>1.49138</v>
       </c>
       <c r="F132" t="n">
-        <v>4.03862</v>
+        <v>4.05462</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05813</v>
+        <v>1.04686</v>
       </c>
       <c r="C133" t="n">
-        <v>3.34056</v>
+        <v>3.36248</v>
       </c>
       <c r="D133" t="n">
-        <v>2.69358</v>
+        <v>2.69685</v>
       </c>
       <c r="E133" t="n">
-        <v>1.45422</v>
+        <v>1.48796</v>
       </c>
       <c r="F133" t="n">
-        <v>3.77192</v>
+        <v>3.77844</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05565</v>
+        <v>1.0579</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32562</v>
+        <v>3.33849</v>
       </c>
       <c r="D134" t="n">
-        <v>2.69767</v>
+        <v>2.69558</v>
       </c>
       <c r="E134" t="n">
-        <v>1.48584</v>
+        <v>1.45183</v>
       </c>
       <c r="F134" t="n">
-        <v>3.94802</v>
+        <v>3.95813</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05216</v>
+        <v>1.05176</v>
       </c>
       <c r="C135" t="n">
-        <v>3.32348</v>
+        <v>2.66425</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85651</v>
+        <v>4.85443</v>
       </c>
       <c r="E135" t="n">
-        <v>1.48035</v>
+        <v>1.47709</v>
       </c>
       <c r="F135" t="n">
-        <v>3.23606</v>
+        <v>3.68151</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05158</v>
+        <v>1.049</v>
       </c>
       <c r="C136" t="n">
-        <v>3.31081</v>
+        <v>3.30863</v>
       </c>
       <c r="D136" t="n">
-        <v>4.56574</v>
+        <v>4.34771</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47465</v>
+        <v>1.47329</v>
       </c>
       <c r="F136" t="n">
-        <v>3.8659</v>
+        <v>3.85691</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0567</v>
+        <v>1.04958</v>
       </c>
       <c r="C137" t="n">
-        <v>3.30931</v>
+        <v>1.98116</v>
       </c>
       <c r="D137" t="n">
-        <v>4.28953</v>
+        <v>4.51638</v>
       </c>
       <c r="E137" t="n">
-        <v>1.84283</v>
+        <v>1.83844</v>
       </c>
       <c r="F137" t="n">
-        <v>5.28174</v>
+        <v>5.29888</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28636</v>
+        <v>1.27127</v>
       </c>
       <c r="C138" t="n">
-        <v>4.06869</v>
+        <v>4.06991</v>
       </c>
       <c r="D138" t="n">
-        <v>4.24654</v>
+        <v>4.02537</v>
       </c>
       <c r="E138" t="n">
-        <v>1.79795</v>
+        <v>1.79712</v>
       </c>
       <c r="F138" t="n">
-        <v>5.20215</v>
+        <v>5.20796</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28549</v>
+        <v>1.26882</v>
       </c>
       <c r="C139" t="n">
-        <v>4.02047</v>
+        <v>4.03054</v>
       </c>
       <c r="D139" t="n">
-        <v>3.97638</v>
+        <v>4.19726</v>
       </c>
       <c r="E139" t="n">
-        <v>1.78231</v>
+        <v>1.80772</v>
       </c>
       <c r="F139" t="n">
-        <v>5.10529</v>
+        <v>5.10849</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25662</v>
+        <v>1.25542</v>
       </c>
       <c r="C140" t="n">
-        <v>3.98828</v>
+        <v>3.9877</v>
       </c>
       <c r="D140" t="n">
-        <v>3.93705</v>
+        <v>3.93314</v>
       </c>
       <c r="E140" t="n">
-        <v>1.78996</v>
+        <v>1.76695</v>
       </c>
       <c r="F140" t="n">
-        <v>5.01268</v>
+        <v>5.00809</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25285</v>
+        <v>1.24917</v>
       </c>
       <c r="C141" t="n">
-        <v>3.94149</v>
+        <v>3.94321</v>
       </c>
       <c r="D141" t="n">
-        <v>3.44305</v>
+        <v>3.22002</v>
       </c>
       <c r="E141" t="n">
-        <v>1.75468</v>
+        <v>1.75593</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92825</v>
+        <v>4.92451</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24611</v>
+        <v>1.24127</v>
       </c>
       <c r="C142" t="n">
-        <v>3.90204</v>
+        <v>3.90271</v>
       </c>
       <c r="D142" t="n">
-        <v>3.17908</v>
+        <v>3.17997</v>
       </c>
       <c r="E142" t="n">
-        <v>1.73857</v>
+        <v>1.73837</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82606</v>
+        <v>4.84172</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24211</v>
+        <v>1.23311</v>
       </c>
       <c r="C143" t="n">
-        <v>3.85947</v>
+        <v>3.86337</v>
       </c>
       <c r="D143" t="n">
-        <v>3.14062</v>
+        <v>3.14284</v>
       </c>
       <c r="E143" t="n">
-        <v>1.69029</v>
+        <v>1.72794</v>
       </c>
       <c r="F143" t="n">
-        <v>4.76071</v>
+        <v>4.75921</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466069</v>
+        <v>0.467408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712235</v>
+        <v>0.711407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810532</v>
+        <v>0.812433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.687453</v>
+        <v>0.649574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973232</v>
+        <v>0.97383</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455291</v>
+        <v>0.451391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700846</v>
+        <v>0.700177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.800999</v>
+        <v>0.803859</v>
       </c>
       <c r="E3" t="n">
-        <v>0.670515</v>
+        <v>0.6315190000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.949962</v>
+        <v>0.951881</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444629</v>
+        <v>0.440954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690517</v>
+        <v>0.691439</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792517</v>
+        <v>0.79621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.653854</v>
+        <v>0.614843</v>
       </c>
       <c r="F4" t="n">
-        <v>0.931823</v>
+        <v>0.933822</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428213</v>
+        <v>0.436046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.68368</v>
+        <v>0.682706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.786077</v>
+        <v>0.7876030000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639184</v>
+        <v>0.599004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.913851</v>
+        <v>0.9176879999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427537</v>
+        <v>0.427877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.67574</v>
+        <v>0.677939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8189610000000001</v>
+        <v>0.781206</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625214</v>
+        <v>0.584605</v>
       </c>
       <c r="F6" t="n">
-        <v>0.896627</v>
+        <v>0.9013370000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421417</v>
+        <v>0.421781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668915</v>
+        <v>0.669735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877764</v>
+        <v>0.87564</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6138209999999999</v>
+        <v>0.571519</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883381</v>
+        <v>0.886452</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416721</v>
+        <v>0.417777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667316</v>
+        <v>0.666693</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86002</v>
+        <v>0.858437</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604322</v>
+        <v>0.562678</v>
       </c>
       <c r="F8" t="n">
-        <v>0.873093</v>
+        <v>0.877526</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416355</v>
+        <v>0.373195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.665956</v>
+        <v>0.667194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.845959</v>
+        <v>0.842526</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914227</v>
+        <v>0.880406</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20478</v>
+        <v>1.20607</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.552165</v>
+        <v>0.557034</v>
       </c>
       <c r="C10" t="n">
-        <v>0.809362</v>
+        <v>0.809947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.828841</v>
+        <v>0.832221</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.851558</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16927</v>
+        <v>1.17589</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535795</v>
+        <v>0.535784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.794169</v>
+        <v>0.7959000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.818623</v>
+        <v>0.815775</v>
       </c>
       <c r="E11" t="n">
-        <v>0.857969</v>
+        <v>0.824172</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14085</v>
+        <v>1.14612</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520076</v>
+        <v>0.5208429999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7780589999999999</v>
+        <v>0.7796959999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.803597</v>
+        <v>0.801358</v>
       </c>
       <c r="E12" t="n">
-        <v>0.832701</v>
+        <v>0.7985989999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11269</v>
+        <v>1.11673</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5073260000000001</v>
+        <v>0.508116</v>
       </c>
       <c r="C13" t="n">
-        <v>0.764779</v>
+        <v>0.765527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.79064</v>
+        <v>0.788086</v>
       </c>
       <c r="E13" t="n">
-        <v>0.808385</v>
+        <v>0.773045</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08921</v>
+        <v>1.08929</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491469</v>
+        <v>0.492985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.749551</v>
+        <v>0.752075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.789129</v>
+        <v>0.785269</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7840510000000001</v>
+        <v>0.750099</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05826</v>
+        <v>1.06236</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482118</v>
+        <v>0.482476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.739333</v>
+        <v>0.738744</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7803909999999999</v>
+        <v>0.77639</v>
       </c>
       <c r="E15" t="n">
-        <v>0.762632</v>
+        <v>0.728614</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03342</v>
+        <v>1.03759</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.464874</v>
+        <v>0.465174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72427</v>
+        <v>0.725788</v>
       </c>
       <c r="D16" t="n">
-        <v>0.769707</v>
+        <v>0.764737</v>
       </c>
       <c r="E16" t="n">
-        <v>0.741771</v>
+        <v>0.707364</v>
       </c>
       <c r="F16" t="n">
-        <v>1.00992</v>
+        <v>1.01368</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456027</v>
+        <v>0.455729</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7125320000000001</v>
+        <v>0.713232</v>
       </c>
       <c r="D17" t="n">
-        <v>0.759879</v>
+        <v>0.754633</v>
       </c>
       <c r="E17" t="n">
-        <v>0.722067</v>
+        <v>0.6878030000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0167</v>
+        <v>1.02052</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.443669</v>
+        <v>0.44792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.712118</v>
+        <v>0.721427</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753873</v>
+        <v>0.751185</v>
       </c>
       <c r="E18" t="n">
-        <v>0.70473</v>
+        <v>0.669704</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9966739999999999</v>
+        <v>1.00142</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434591</v>
+        <v>0.43532</v>
       </c>
       <c r="C19" t="n">
-        <v>0.706692</v>
+        <v>0.712475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746748</v>
+        <v>0.742101</v>
       </c>
       <c r="E19" t="n">
-        <v>0.687926</v>
+        <v>0.652911</v>
       </c>
       <c r="F19" t="n">
-        <v>0.978133</v>
+        <v>0.98316</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428861</v>
+        <v>0.42851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.69486</v>
+        <v>0.7058489999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.738582</v>
+        <v>0.737159</v>
       </c>
       <c r="E20" t="n">
-        <v>0.673175</v>
+        <v>0.637754</v>
       </c>
       <c r="F20" t="n">
-        <v>0.962517</v>
+        <v>0.966711</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42224</v>
+        <v>0.422642</v>
       </c>
       <c r="C21" t="n">
-        <v>0.687117</v>
+        <v>0.699527</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95229</v>
+        <v>0.951587</v>
       </c>
       <c r="E21" t="n">
-        <v>0.66037</v>
+        <v>0.625735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9543199999999999</v>
+        <v>0.959327</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418994</v>
+        <v>0.419751</v>
       </c>
       <c r="C22" t="n">
-        <v>0.703339</v>
+        <v>0.707902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.935107</v>
+        <v>0.934392</v>
       </c>
       <c r="E22" t="n">
-        <v>0.65036</v>
+        <v>0.615823</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9400770000000001</v>
+        <v>0.947835</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4175</v>
+        <v>0.417209</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7026559999999999</v>
+        <v>0.70643</v>
       </c>
       <c r="D23" t="n">
-        <v>0.918111</v>
+        <v>0.917946</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970137</v>
+        <v>0.942702</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27705</v>
+        <v>1.27541</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.572424</v>
+        <v>0.571485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.844901</v>
+        <v>0.847657</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900657</v>
+        <v>0.89847</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939476</v>
+        <v>0.9121089999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23927</v>
+        <v>1.24105</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.555442</v>
+        <v>0.55567</v>
       </c>
       <c r="C25" t="n">
-        <v>0.829146</v>
+        <v>0.82925</v>
       </c>
       <c r="D25" t="n">
-        <v>0.887745</v>
+        <v>0.884099</v>
       </c>
       <c r="E25" t="n">
-        <v>0.910285</v>
+        <v>0.881958</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20689</v>
+        <v>1.20766</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539</v>
+        <v>0.542152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.812775</v>
+        <v>0.816491</v>
       </c>
       <c r="D26" t="n">
-        <v>0.872368</v>
+        <v>0.870708</v>
       </c>
       <c r="E26" t="n">
-        <v>0.882198</v>
+        <v>0.853981</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18194</v>
+        <v>1.18502</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.553776</v>
+        <v>0.5555</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7992010000000001</v>
+        <v>0.801563</v>
       </c>
       <c r="D27" t="n">
-        <v>0.858335</v>
+        <v>0.856129</v>
       </c>
       <c r="E27" t="n">
-        <v>0.85578</v>
+        <v>0.826711</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15589</v>
+        <v>1.15384</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5352789999999999</v>
+        <v>0.535754</v>
       </c>
       <c r="C28" t="n">
-        <v>0.784398</v>
+        <v>0.786501</v>
       </c>
       <c r="D28" t="n">
-        <v>0.84627</v>
+        <v>0.840685</v>
       </c>
       <c r="E28" t="n">
-        <v>0.830075</v>
+        <v>0.800292</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12689</v>
+        <v>1.12777</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.521985</v>
+        <v>0.5229819999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.768801</v>
+        <v>0.770505</v>
       </c>
       <c r="D29" t="n">
-        <v>0.839287</v>
+        <v>0.834042</v>
       </c>
       <c r="E29" t="n">
-        <v>0.80636</v>
+        <v>0.776206</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10256</v>
+        <v>1.10537</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.507669</v>
+        <v>0.50726</v>
       </c>
       <c r="C30" t="n">
-        <v>0.759657</v>
+        <v>0.757011</v>
       </c>
       <c r="D30" t="n">
-        <v>0.828777</v>
+        <v>0.82719</v>
       </c>
       <c r="E30" t="n">
-        <v>0.758863</v>
+        <v>0.7531409999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07681</v>
+        <v>1.08192</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494729</v>
+        <v>0.494502</v>
       </c>
       <c r="C31" t="n">
-        <v>0.744962</v>
+        <v>0.743742</v>
       </c>
       <c r="D31" t="n">
-        <v>0.818319</v>
+        <v>0.81563</v>
       </c>
       <c r="E31" t="n">
-        <v>0.762695</v>
+        <v>0.731436</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05358</v>
+        <v>1.05506</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.459846</v>
+        <v>0.485322</v>
       </c>
       <c r="C32" t="n">
-        <v>0.731228</v>
+        <v>0.755755</v>
       </c>
       <c r="D32" t="n">
-        <v>0.811841</v>
+        <v>0.808874</v>
       </c>
       <c r="E32" t="n">
-        <v>0.742527</v>
+        <v>0.711048</v>
       </c>
       <c r="F32" t="n">
-        <v>1.02965</v>
+        <v>1.03184</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472458</v>
+        <v>0.472874</v>
       </c>
       <c r="C33" t="n">
-        <v>0.744972</v>
+        <v>0.74693</v>
       </c>
       <c r="D33" t="n">
-        <v>0.803377</v>
+        <v>0.800184</v>
       </c>
       <c r="E33" t="n">
-        <v>0.702206</v>
+        <v>0.6926020000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01048</v>
+        <v>1.01186</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.46315</v>
+        <v>0.463465</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7368170000000001</v>
+        <v>0.7370989999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7954059999999999</v>
+        <v>0.79327</v>
       </c>
       <c r="E34" t="n">
-        <v>0.707201</v>
+        <v>0.67537</v>
       </c>
       <c r="F34" t="n">
-        <v>0.98976</v>
+        <v>0.993811</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455072</v>
+        <v>0.434169</v>
       </c>
       <c r="C35" t="n">
-        <v>0.730333</v>
+        <v>0.734005</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03507</v>
+        <v>1.03359</v>
       </c>
       <c r="E35" t="n">
-        <v>0.692053</v>
+        <v>0.660457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.973289</v>
+        <v>0.977019</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.430913</v>
+        <v>0.449713</v>
       </c>
       <c r="C36" t="n">
-        <v>0.728349</v>
+        <v>0.729588</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01575</v>
+        <v>1.01087</v>
       </c>
       <c r="E36" t="n">
-        <v>0.660998</v>
+        <v>0.628934</v>
       </c>
       <c r="F36" t="n">
-        <v>0.957637</v>
+        <v>0.963604</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446487</v>
+        <v>0.447029</v>
       </c>
       <c r="C37" t="n">
-        <v>0.726882</v>
+        <v>0.727307</v>
       </c>
       <c r="D37" t="n">
-        <v>0.996251</v>
+        <v>0.994834</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0041</v>
+        <v>0.961194</v>
       </c>
       <c r="F37" t="n">
-        <v>1.5685</v>
+        <v>1.56213</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.62113</v>
+        <v>0.621167</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10386</v>
+        <v>1.10323</v>
       </c>
       <c r="D38" t="n">
-        <v>0.979135</v>
+        <v>0.98212</v>
       </c>
       <c r="E38" t="n">
-        <v>0.956539</v>
+        <v>0.930844</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53155</v>
+        <v>1.52704</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.62134</v>
+        <v>0.621688</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08747</v>
+        <v>1.08616</v>
       </c>
       <c r="D39" t="n">
-        <v>0.958546</v>
+        <v>0.958197</v>
       </c>
       <c r="E39" t="n">
-        <v>0.926816</v>
+        <v>0.901064</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49755</v>
+        <v>1.49197</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602901</v>
+        <v>0.6031300000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07257</v>
+        <v>1.07197</v>
       </c>
       <c r="D40" t="n">
-        <v>0.942528</v>
+        <v>0.943482</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898092</v>
+        <v>0.872163</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46353</v>
+        <v>1.45838</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585214</v>
+        <v>0.586162</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05587</v>
+        <v>1.055</v>
       </c>
       <c r="D41" t="n">
-        <v>0.927544</v>
+        <v>0.925787</v>
       </c>
       <c r="E41" t="n">
-        <v>0.87177</v>
+        <v>0.845261</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43217</v>
+        <v>1.42801</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.569904</v>
+        <v>0.568858</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04265</v>
+        <v>1.04015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.912373</v>
+        <v>0.911415</v>
       </c>
       <c r="E42" t="n">
-        <v>0.846274</v>
+        <v>0.819199</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40245</v>
+        <v>1.39784</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5525139999999999</v>
+        <v>0.552938</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0285</v>
+        <v>1.02573</v>
       </c>
       <c r="D43" t="n">
-        <v>0.898999</v>
+        <v>0.897163</v>
       </c>
       <c r="E43" t="n">
-        <v>0.822308</v>
+        <v>0.794457</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37367</v>
+        <v>1.36827</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.523118</v>
+        <v>0.538333</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01635</v>
+        <v>1.01445</v>
       </c>
       <c r="D44" t="n">
-        <v>0.887094</v>
+        <v>0.887456</v>
       </c>
       <c r="E44" t="n">
-        <v>0.799579</v>
+        <v>0.771447</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34598</v>
+        <v>1.34339</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510584</v>
+        <v>0.511002</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00309</v>
+        <v>1.00169</v>
       </c>
       <c r="D45" t="n">
-        <v>0.879585</v>
+        <v>0.879999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.777737</v>
+        <v>0.7491950000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32176</v>
+        <v>1.31731</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498696</v>
+        <v>0.5120980000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.992574</v>
+        <v>0.990738</v>
       </c>
       <c r="D46" t="n">
-        <v>0.869736</v>
+        <v>0.8673959999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.756589</v>
+        <v>0.729044</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29808</v>
+        <v>1.29471</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487282</v>
+        <v>0.499581</v>
       </c>
       <c r="C47" t="n">
-        <v>0.985361</v>
+        <v>0.98139</v>
       </c>
       <c r="D47" t="n">
-        <v>0.863186</v>
+        <v>0.8649790000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.715062</v>
+        <v>0.709858</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27579</v>
+        <v>1.27164</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.47732</v>
+        <v>0.477643</v>
       </c>
       <c r="C48" t="n">
-        <v>0.974249</v>
+        <v>0.973179</v>
       </c>
       <c r="D48" t="n">
-        <v>0.855078</v>
+        <v>0.855042</v>
       </c>
       <c r="E48" t="n">
-        <v>0.720634</v>
+        <v>0.691848</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2556</v>
+        <v>1.25138</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.468684</v>
+        <v>0.471671</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966425</v>
+        <v>0.964148</v>
       </c>
       <c r="D49" t="n">
-        <v>0.851322</v>
+        <v>0.84941</v>
       </c>
       <c r="E49" t="n">
-        <v>0.706033</v>
+        <v>0.676608</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23534</v>
+        <v>1.23409</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.462875</v>
+        <v>0.464643</v>
       </c>
       <c r="C50" t="n">
-        <v>0.959287</v>
+        <v>0.955717</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08237</v>
+        <v>1.08226</v>
       </c>
       <c r="E50" t="n">
-        <v>0.691995</v>
+        <v>0.645052</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21961</v>
+        <v>1.21861</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.459345</v>
+        <v>0.469989</v>
       </c>
       <c r="C51" t="n">
-        <v>0.955083</v>
+        <v>0.953353</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06094</v>
+        <v>1.05902</v>
       </c>
       <c r="E51" t="n">
-        <v>1.03205</v>
+        <v>1.00733</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64403</v>
+        <v>1.64222</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.459057</v>
+        <v>0.45973</v>
       </c>
       <c r="C52" t="n">
-        <v>0.954171</v>
+        <v>0.951883</v>
       </c>
       <c r="D52" t="n">
-        <v>1.04026</v>
+        <v>1.03864</v>
       </c>
       <c r="E52" t="n">
-        <v>1.00085</v>
+        <v>0.964211</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60764</v>
+        <v>1.60481</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.643724</v>
+        <v>0.638445</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14089</v>
+        <v>1.13931</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02061</v>
+        <v>1.01816</v>
       </c>
       <c r="E53" t="n">
-        <v>0.961917</v>
+        <v>0.931013</v>
       </c>
       <c r="F53" t="n">
-        <v>1.56988</v>
+        <v>1.56655</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.621158</v>
+        <v>0.631391</v>
       </c>
       <c r="C54" t="n">
-        <v>1.1227</v>
+        <v>1.12181</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00461</v>
+        <v>1.00187</v>
       </c>
       <c r="E54" t="n">
-        <v>0.940202</v>
+        <v>0.914059</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53534</v>
+        <v>1.53195</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.608213</v>
+        <v>0.615348</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10726</v>
+        <v>1.10748</v>
       </c>
       <c r="D55" t="n">
-        <v>0.986957</v>
+        <v>0.984298</v>
       </c>
       <c r="E55" t="n">
-        <v>0.902352</v>
+        <v>0.876445</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50176</v>
+        <v>1.49844</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.591511</v>
+        <v>0.596007</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08939</v>
+        <v>1.0952</v>
       </c>
       <c r="D56" t="n">
-        <v>0.971502</v>
+        <v>0.97029</v>
       </c>
       <c r="E56" t="n">
-        <v>0.877258</v>
+        <v>0.851167</v>
       </c>
       <c r="F56" t="n">
-        <v>1.46993</v>
+        <v>1.46718</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.57153</v>
+        <v>0.57399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07739</v>
+        <v>1.07662</v>
       </c>
       <c r="D57" t="n">
-        <v>0.956454</v>
+        <v>0.954998</v>
       </c>
       <c r="E57" t="n">
-        <v>0.853705</v>
+        <v>0.825464</v>
       </c>
       <c r="F57" t="n">
-        <v>1.44007</v>
+        <v>1.43765</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.559435</v>
+        <v>0.559074</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06463</v>
+        <v>1.06447</v>
       </c>
       <c r="D58" t="n">
-        <v>0.943651</v>
+        <v>0.942123</v>
       </c>
       <c r="E58" t="n">
-        <v>0.83103</v>
+        <v>0.801582</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41031</v>
+        <v>1.40958</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.546249</v>
+        <v>0.544928</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05195</v>
+        <v>1.0519</v>
       </c>
       <c r="D59" t="n">
-        <v>0.925957</v>
+        <v>0.924275</v>
       </c>
       <c r="E59" t="n">
-        <v>0.780099</v>
+        <v>0.7516620000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38396</v>
+        <v>1.38384</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532422</v>
+        <v>0.532948</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03904</v>
+        <v>1.0399</v>
       </c>
       <c r="D60" t="n">
-        <v>0.91747</v>
+        <v>0.915099</v>
       </c>
       <c r="E60" t="n">
-        <v>0.761008</v>
+        <v>0.732699</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35789</v>
+        <v>1.35767</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.520058</v>
+        <v>0.522641</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03001</v>
+        <v>1.03031</v>
       </c>
       <c r="D61" t="n">
-        <v>0.908517</v>
+        <v>0.904986</v>
       </c>
       <c r="E61" t="n">
-        <v>0.775747</v>
+        <v>0.740285</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33523</v>
+        <v>1.33331</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.511409</v>
+        <v>0.510682</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02031</v>
+        <v>1.02085</v>
       </c>
       <c r="D62" t="n">
-        <v>0.898342</v>
+        <v>0.8958469999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7276629999999999</v>
+        <v>0.698071</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31267</v>
+        <v>1.31246</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.500793</v>
+        <v>0.500315</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01306</v>
+        <v>1.01329</v>
       </c>
       <c r="D63" t="n">
-        <v>0.890647</v>
+        <v>0.887697</v>
       </c>
       <c r="E63" t="n">
-        <v>0.710721</v>
+        <v>0.705076</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29362</v>
+        <v>1.29244</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.496191</v>
+        <v>0.495578</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00781</v>
+        <v>1.00704</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16153</v>
+        <v>1.1571</v>
       </c>
       <c r="E64" t="n">
-        <v>0.719772</v>
+        <v>0.671324</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27561</v>
+        <v>1.27529</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.470441</v>
+        <v>0.467755</v>
       </c>
       <c r="C65" t="n">
-        <v>0.986086</v>
+        <v>1.00482</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13919</v>
+        <v>1.13126</v>
       </c>
       <c r="E65" t="n">
-        <v>0.688294</v>
+        <v>0.681712</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26264</v>
+        <v>1.261</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.468303</v>
+        <v>0.490486</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00105</v>
+        <v>1.00253</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10677</v>
+        <v>1.10452</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06456</v>
+        <v>1.04429</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68827</v>
+        <v>1.68736</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.719002</v>
+        <v>0.71167</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20725</v>
+        <v>1.20876</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07858</v>
+        <v>1.07533</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03562</v>
+        <v>1.00334</v>
       </c>
       <c r="F67" t="n">
-        <v>1.64847</v>
+        <v>1.64672</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.693993</v>
+        <v>0.7066750000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19306</v>
+        <v>1.19421</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06072</v>
+        <v>1.05718</v>
       </c>
       <c r="E68" t="n">
-        <v>1.00857</v>
+        <v>0.975536</v>
       </c>
       <c r="F68" t="n">
-        <v>1.62067</v>
+        <v>1.61455</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.69211</v>
+        <v>0.6979610000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17972</v>
+        <v>1.17613</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04316</v>
+        <v>1.04061</v>
       </c>
       <c r="E69" t="n">
-        <v>0.970231</v>
+        <v>0.960473</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58071</v>
+        <v>1.57614</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.675444</v>
+        <v>0.67171</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16541</v>
+        <v>1.16546</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03094</v>
+        <v>1.02835</v>
       </c>
       <c r="E70" t="n">
-        <v>0.953813</v>
+        <v>0.922594</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55429</v>
+        <v>1.55369</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.654899</v>
+        <v>0.661533</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15645</v>
+        <v>1.1562</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0005</v>
+        <v>0.9981719999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.918611</v>
+        <v>0.8967349999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52708</v>
+        <v>1.52723</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6533910000000001</v>
+        <v>0.650967</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14952</v>
+        <v>1.15104</v>
       </c>
       <c r="D72" t="n">
-        <v>0.993185</v>
+        <v>0.991196</v>
       </c>
       <c r="E72" t="n">
-        <v>0.895436</v>
+        <v>0.873322</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50286</v>
+        <v>1.50166</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.627204</v>
+        <v>0.638588</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13875</v>
+        <v>1.14045</v>
       </c>
       <c r="D73" t="n">
-        <v>0.983515</v>
+        <v>0.980743</v>
       </c>
       <c r="E73" t="n">
-        <v>0.872213</v>
+        <v>0.85225</v>
       </c>
       <c r="F73" t="n">
-        <v>1.47798</v>
+        <v>1.48085</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615637</v>
+        <v>0.615675</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13516</v>
+        <v>1.13821</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9703270000000001</v>
+        <v>0.9678600000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.815931</v>
+        <v>0.793166</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45987</v>
+        <v>1.45898</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.602457</v>
+        <v>0.606923</v>
       </c>
       <c r="C75" t="n">
-        <v>1.13551</v>
+        <v>1.13166</v>
       </c>
       <c r="D75" t="n">
-        <v>0.96716</v>
+        <v>0.963977</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7953170000000001</v>
+        <v>0.804477</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4429</v>
+        <v>1.44052</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.595429</v>
+        <v>0.56584</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13342</v>
+        <v>1.12944</v>
       </c>
       <c r="D76" t="n">
-        <v>0.962978</v>
+        <v>0.95908</v>
       </c>
       <c r="E76" t="n">
-        <v>0.809149</v>
+        <v>0.785207</v>
       </c>
       <c r="F76" t="n">
-        <v>1.43397</v>
+        <v>1.4208</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5856209999999999</v>
+        <v>0.58618</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13629</v>
+        <v>1.12459</v>
       </c>
       <c r="D77" t="n">
-        <v>0.95225</v>
+        <v>0.948748</v>
       </c>
       <c r="E77" t="n">
-        <v>0.791598</v>
+        <v>0.738468</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41745</v>
+        <v>1.41014</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5775130000000001</v>
+        <v>0.580364</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13511</v>
+        <v>1.13313</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41366</v>
+        <v>1.40408</v>
       </c>
       <c r="E78" t="n">
-        <v>0.748159</v>
+        <v>0.724336</v>
       </c>
       <c r="F78" t="n">
-        <v>1.41281</v>
+        <v>1.40482</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571088</v>
+        <v>0.534314</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14573</v>
+        <v>0.949715</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38092</v>
+        <v>1.37344</v>
       </c>
       <c r="E79" t="n">
-        <v>0.73639</v>
+        <v>0.741148</v>
       </c>
       <c r="F79" t="n">
-        <v>1.40641</v>
+        <v>1.4154</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.559632</v>
+        <v>0.5484290000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17534</v>
+        <v>1.16249</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36185</v>
+        <v>1.35223</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11272</v>
+        <v>1.09522</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13858</v>
+        <v>2.12097</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.800419</v>
+        <v>0.795703</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63038</v>
+        <v>1.61598</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31476</v>
+        <v>1.30676</v>
       </c>
       <c r="E81" t="n">
-        <v>1.11587</v>
+        <v>1.09612</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12195</v>
+        <v>2.10311</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.789818</v>
+        <v>0.78726</v>
       </c>
       <c r="C82" t="n">
-        <v>1.64053</v>
+        <v>1.62633</v>
       </c>
       <c r="D82" t="n">
-        <v>1.29559</v>
+        <v>1.28862</v>
       </c>
       <c r="E82" t="n">
-        <v>1.09581</v>
+        <v>1.05352</v>
       </c>
       <c r="F82" t="n">
-        <v>2.09061</v>
+        <v>2.07997</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7747889999999999</v>
+        <v>0.765567</v>
       </c>
       <c r="C83" t="n">
-        <v>1.64606</v>
+        <v>1.63141</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28072</v>
+        <v>1.27684</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05723</v>
+        <v>1.02981</v>
       </c>
       <c r="F83" t="n">
-        <v>2.08028</v>
+        <v>2.06318</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.766063</v>
+        <v>0.751053</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64557</v>
+        <v>1.63836</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27226</v>
+        <v>1.26418</v>
       </c>
       <c r="E84" t="n">
-        <v>1.05054</v>
+        <v>1.0216</v>
       </c>
       <c r="F84" t="n">
-        <v>2.06465</v>
+        <v>2.04004</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.759889</v>
+        <v>0.753707</v>
       </c>
       <c r="C85" t="n">
-        <v>1.65412</v>
+        <v>1.64038</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23559</v>
+        <v>1.2262</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01091</v>
+        <v>0.978348</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04418</v>
+        <v>2.03781</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.743583</v>
+        <v>0.745682</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65596</v>
+        <v>1.6448</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22651</v>
+        <v>1.22141</v>
       </c>
       <c r="E86" t="n">
-        <v>0.986992</v>
+        <v>0.912239</v>
       </c>
       <c r="F86" t="n">
-        <v>2.03433</v>
+        <v>2.02687</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.734083</v>
+        <v>0.741933</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6581</v>
+        <v>1.65462</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22293</v>
+        <v>1.21935</v>
       </c>
       <c r="E87" t="n">
-        <v>0.962677</v>
+        <v>0.928472</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01529</v>
+        <v>2.01467</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.723666</v>
+        <v>0.720229</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67228</v>
+        <v>1.66897</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21751</v>
+        <v>1.21168</v>
       </c>
       <c r="E88" t="n">
-        <v>0.940177</v>
+        <v>0.870198</v>
       </c>
       <c r="F88" t="n">
-        <v>2.00274</v>
+        <v>2.01031</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711916</v>
+        <v>0.711908</v>
       </c>
       <c r="C89" t="n">
-        <v>1.67222</v>
+        <v>1.67813</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21729</v>
+        <v>1.21056</v>
       </c>
       <c r="E89" t="n">
-        <v>0.919331</v>
+        <v>0.888659</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00727</v>
+        <v>2.00189</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.693674</v>
+        <v>0.70387</v>
       </c>
       <c r="C90" t="n">
-        <v>1.70557</v>
+        <v>1.68555</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2241</v>
+        <v>1.2175</v>
       </c>
       <c r="E90" t="n">
-        <v>0.897458</v>
+        <v>0.865843</v>
       </c>
       <c r="F90" t="n">
-        <v>1.99417</v>
+        <v>2.00261</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.696196</v>
+        <v>0.687295</v>
       </c>
       <c r="C91" t="n">
-        <v>1.43664</v>
+        <v>1.70319</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22301</v>
+        <v>1.21754</v>
       </c>
       <c r="E91" t="n">
-        <v>0.843352</v>
+        <v>0.814894</v>
       </c>
       <c r="F91" t="n">
-        <v>1.99685</v>
+        <v>1.98614</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.679338</v>
+        <v>0.657449</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72734</v>
+        <v>1.71275</v>
       </c>
       <c r="D92" t="n">
-        <v>2.58346</v>
+        <v>2.56701</v>
       </c>
       <c r="E92" t="n">
-        <v>0.861842</v>
+        <v>0.830221</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99588</v>
+        <v>1.99763</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.675611</v>
+        <v>0.6665759999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>1.74007</v>
+        <v>1.72962</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21901</v>
+        <v>2.3947</v>
       </c>
       <c r="E93" t="n">
-        <v>0.846565</v>
+        <v>0.816096</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00658</v>
+        <v>1.99937</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.670102</v>
+        <v>0.667461</v>
       </c>
       <c r="C94" t="n">
-        <v>1.75612</v>
+        <v>1.74123</v>
       </c>
       <c r="D94" t="n">
-        <v>2.21082</v>
+        <v>2.39873</v>
       </c>
       <c r="E94" t="n">
-        <v>1.19683</v>
+        <v>1.16373</v>
       </c>
       <c r="F94" t="n">
-        <v>3.11791</v>
+        <v>3.1088</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9051940000000001</v>
+        <v>0.902931</v>
       </c>
       <c r="C95" t="n">
-        <v>2.41044</v>
+        <v>2.40855</v>
       </c>
       <c r="D95" t="n">
-        <v>2.39665</v>
+        <v>2.38456</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21836</v>
+        <v>1.15324</v>
       </c>
       <c r="F95" t="n">
-        <v>3.08883</v>
+        <v>3.07942</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.890649</v>
+        <v>0.888748</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42718</v>
+        <v>2.42313</v>
       </c>
       <c r="D96" t="n">
-        <v>2.45939</v>
+        <v>2.44962</v>
       </c>
       <c r="E96" t="n">
-        <v>1.17793</v>
+        <v>1.13196</v>
       </c>
       <c r="F96" t="n">
-        <v>3.0661</v>
+        <v>3.05961</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89298</v>
+        <v>0.89242</v>
       </c>
       <c r="C97" t="n">
-        <v>2.42963</v>
+        <v>2.41498</v>
       </c>
       <c r="D97" t="n">
-        <v>2.31238</v>
+        <v>2.31229</v>
       </c>
       <c r="E97" t="n">
-        <v>1.16102</v>
+        <v>1.11137</v>
       </c>
       <c r="F97" t="n">
-        <v>3.0189</v>
+        <v>3.02047</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8671410000000001</v>
+        <v>0.868949</v>
       </c>
       <c r="C98" t="n">
-        <v>2.41137</v>
+        <v>2.41062</v>
       </c>
       <c r="D98" t="n">
-        <v>1.88331</v>
+        <v>2.097</v>
       </c>
       <c r="E98" t="n">
-        <v>1.14246</v>
+        <v>1.08918</v>
       </c>
       <c r="F98" t="n">
-        <v>2.95811</v>
+        <v>2.97204</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.869127</v>
+        <v>0.85772</v>
       </c>
       <c r="C99" t="n">
-        <v>2.39432</v>
+        <v>2.39358</v>
       </c>
       <c r="D99" t="n">
-        <v>1.80779</v>
+        <v>1.79123</v>
       </c>
       <c r="E99" t="n">
-        <v>1.14565</v>
+        <v>1.06505</v>
       </c>
       <c r="F99" t="n">
-        <v>2.93136</v>
+        <v>2.92625</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.854218</v>
+        <v>0.8599290000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38678</v>
+        <v>2.38331</v>
       </c>
       <c r="D100" t="n">
-        <v>1.70861</v>
+        <v>1.71174</v>
       </c>
       <c r="E100" t="n">
-        <v>1.10391</v>
+        <v>1.04404</v>
       </c>
       <c r="F100" t="n">
-        <v>2.89034</v>
+        <v>2.89116</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.834218</v>
+        <v>0.826114</v>
       </c>
       <c r="C101" t="n">
-        <v>2.37531</v>
+        <v>2.36832</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70338</v>
+        <v>1.7009</v>
       </c>
       <c r="E101" t="n">
-        <v>1.08673</v>
+        <v>1.02549</v>
       </c>
       <c r="F101" t="n">
-        <v>2.84789</v>
+        <v>2.84549</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8371729999999999</v>
+        <v>0.8282890000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>2.3533</v>
+        <v>2.34272</v>
       </c>
       <c r="D102" t="n">
-        <v>1.86922</v>
+        <v>1.69868</v>
       </c>
       <c r="E102" t="n">
-        <v>1.02959</v>
+        <v>1.00818</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83191</v>
+        <v>2.83273</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.781653</v>
+        <v>0.818964</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35998</v>
+        <v>2.34142</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70453</v>
+        <v>1.70642</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0543</v>
+        <v>0.9560419999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>2.80279</v>
+        <v>1.78557</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.816766</v>
+        <v>0.769942</v>
       </c>
       <c r="C104" t="n">
-        <v>2.34756</v>
+        <v>2.35202</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71411</v>
+        <v>1.71096</v>
       </c>
       <c r="E104" t="n">
-        <v>1.03879</v>
+        <v>0.976889</v>
       </c>
       <c r="F104" t="n">
-        <v>1.74358</v>
+        <v>2.60129</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.776248</v>
+        <v>0.804342</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82264</v>
+        <v>2.32253</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70677</v>
+        <v>1.70656</v>
       </c>
       <c r="E105" t="n">
-        <v>1.02441</v>
+        <v>0.959372</v>
       </c>
       <c r="F105" t="n">
-        <v>2.72806</v>
+        <v>2.73194</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.802428</v>
+        <v>0.79789</v>
       </c>
       <c r="C106" t="n">
-        <v>2.3152</v>
+        <v>1.99398</v>
       </c>
       <c r="D106" t="n">
-        <v>1.711</v>
+        <v>1.71075</v>
       </c>
       <c r="E106" t="n">
-        <v>0.976984</v>
+        <v>0.915947</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66468</v>
+        <v>1.66736</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.778753</v>
+        <v>0.788232</v>
       </c>
       <c r="C107" t="n">
-        <v>1.28387</v>
+        <v>1.27989</v>
       </c>
       <c r="D107" t="n">
-        <v>2.96531</v>
+        <v>2.96179</v>
       </c>
       <c r="E107" t="n">
-        <v>0.965777</v>
+        <v>0.905903</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62925</v>
+        <v>2.66539</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.774743</v>
+        <v>0.771927</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26419</v>
+        <v>1.26281</v>
       </c>
       <c r="D108" t="n">
-        <v>2.77314</v>
+        <v>2.93649</v>
       </c>
       <c r="E108" t="n">
-        <v>1.38024</v>
+        <v>1.28555</v>
       </c>
       <c r="F108" t="n">
-        <v>3.97945</v>
+        <v>3.98438</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.773837</v>
+        <v>0.78775</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25838</v>
+        <v>2.32244</v>
       </c>
       <c r="D109" t="n">
-        <v>3.45057</v>
+        <v>3.26375</v>
       </c>
       <c r="E109" t="n">
-        <v>1.34392</v>
+        <v>1.27455</v>
       </c>
       <c r="F109" t="n">
-        <v>3.92251</v>
+        <v>3.93084</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03598</v>
+        <v>1.02889</v>
       </c>
       <c r="C110" t="n">
-        <v>3.03515</v>
+        <v>3.04855</v>
       </c>
       <c r="D110" t="n">
-        <v>2.88541</v>
+        <v>3.06522</v>
       </c>
       <c r="E110" t="n">
-        <v>1.33407</v>
+        <v>1.257</v>
       </c>
       <c r="F110" t="n">
-        <v>3.86958</v>
+        <v>3.87258</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02843</v>
+        <v>1.00552</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02737</v>
+        <v>3.02731</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50728</v>
+        <v>2.88045</v>
       </c>
       <c r="E111" t="n">
-        <v>1.32315</v>
+        <v>1.26109</v>
       </c>
       <c r="F111" t="n">
-        <v>3.80411</v>
+        <v>3.8092</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01336</v>
+        <v>1.00339</v>
       </c>
       <c r="C112" t="n">
-        <v>2.99581</v>
+        <v>2.98775</v>
       </c>
       <c r="D112" t="n">
-        <v>2.30028</v>
+        <v>2.30107</v>
       </c>
       <c r="E112" t="n">
-        <v>1.31016</v>
+        <v>1.24528</v>
       </c>
       <c r="F112" t="n">
-        <v>3.74691</v>
+        <v>3.72936</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.985941</v>
+        <v>0.975465</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98585</v>
+        <v>2.97051</v>
       </c>
       <c r="D113" t="n">
-        <v>2.85655</v>
+        <v>3.02805</v>
       </c>
       <c r="E113" t="n">
-        <v>1.30169</v>
+        <v>1.20406</v>
       </c>
       <c r="F113" t="n">
-        <v>3.69821</v>
+        <v>3.67292</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989209</v>
+        <v>0.961341</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96232</v>
+        <v>2.94061</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27844</v>
+        <v>2.25581</v>
       </c>
       <c r="E114" t="n">
-        <v>1.29095</v>
+        <v>1.18789</v>
       </c>
       <c r="F114" t="n">
-        <v>3.63176</v>
+        <v>3.62089</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9659489999999999</v>
+        <v>0.949274</v>
       </c>
       <c r="C115" t="n">
-        <v>2.9257</v>
+        <v>2.93813</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2511</v>
+        <v>2.44914</v>
       </c>
       <c r="E115" t="n">
-        <v>1.28273</v>
+        <v>1.17347</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57168</v>
+        <v>3.57452</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.945928</v>
+        <v>0.945187</v>
       </c>
       <c r="C116" t="n">
-        <v>2.92089</v>
+        <v>2.90641</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2572</v>
+        <v>2.25323</v>
       </c>
       <c r="E116" t="n">
-        <v>1.27307</v>
+        <v>1.15956</v>
       </c>
       <c r="F116" t="n">
-        <v>3.5284</v>
+        <v>3.51275</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.945813</v>
+        <v>0.947376</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89622</v>
+        <v>2.90525</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22535</v>
+        <v>2.23313</v>
       </c>
       <c r="E117" t="n">
-        <v>1.22639</v>
+        <v>1.11323</v>
       </c>
       <c r="F117" t="n">
-        <v>3.28616</v>
+        <v>3.28712</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.947914</v>
+        <v>0.931339</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88854</v>
+        <v>2.88866</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22977</v>
+        <v>2.23036</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21978</v>
+        <v>1.13398</v>
       </c>
       <c r="F118" t="n">
-        <v>3.23552</v>
+        <v>3.24666</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.923427</v>
+        <v>0.929399</v>
       </c>
       <c r="C119" t="n">
-        <v>2.8719</v>
+        <v>2.86438</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23726</v>
+        <v>2.23657</v>
       </c>
       <c r="E119" t="n">
-        <v>1.24808</v>
+        <v>1.09205</v>
       </c>
       <c r="F119" t="n">
-        <v>3.39793</v>
+        <v>3.19007</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.919372</v>
+        <v>0.918385</v>
       </c>
       <c r="C120" t="n">
-        <v>2.85809</v>
+        <v>2.8591</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23614</v>
+        <v>2.22206</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20798</v>
+        <v>1.11134</v>
       </c>
       <c r="F120" t="n">
-        <v>3.15821</v>
+        <v>3.14484</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.91945</v>
+        <v>0.920639</v>
       </c>
       <c r="C121" t="n">
-        <v>1.6251</v>
+        <v>2.83346</v>
       </c>
       <c r="D121" t="n">
-        <v>4.25788</v>
+        <v>4.24018</v>
       </c>
       <c r="E121" t="n">
-        <v>1.20282</v>
+        <v>1.07502</v>
       </c>
       <c r="F121" t="n">
-        <v>3.30619</v>
+        <v>3.12219</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.919148</v>
+        <v>0.926361</v>
       </c>
       <c r="C122" t="n">
-        <v>2.82808</v>
+        <v>2.82693</v>
       </c>
       <c r="D122" t="n">
-        <v>3.80422</v>
+        <v>3.80377</v>
       </c>
       <c r="E122" t="n">
-        <v>1.19834</v>
+        <v>1.0977</v>
       </c>
       <c r="F122" t="n">
-        <v>3.07162</v>
+        <v>3.28584</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.917614</v>
+        <v>0.912938</v>
       </c>
       <c r="C123" t="n">
-        <v>2.82682</v>
+        <v>2.83201</v>
       </c>
       <c r="D123" t="n">
-        <v>4.17457</v>
+        <v>4.16714</v>
       </c>
       <c r="E123" t="n">
-        <v>1.6051</v>
+        <v>1.44864</v>
       </c>
       <c r="F123" t="n">
-        <v>4.64814</v>
+        <v>4.65453</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.12499</v>
+        <v>1.15697</v>
       </c>
       <c r="C124" t="n">
-        <v>3.5743</v>
+        <v>3.57911</v>
       </c>
       <c r="D124" t="n">
-        <v>3.51642</v>
+        <v>3.51682</v>
       </c>
       <c r="E124" t="n">
-        <v>1.56603</v>
+        <v>1.45589</v>
       </c>
       <c r="F124" t="n">
-        <v>4.57107</v>
+        <v>4.57472</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1494</v>
+        <v>1.13625</v>
       </c>
       <c r="C125" t="n">
-        <v>3.56075</v>
+        <v>3.54727</v>
       </c>
       <c r="D125" t="n">
-        <v>3.69602</v>
+        <v>3.06736</v>
       </c>
       <c r="E125" t="n">
-        <v>1.55184</v>
+        <v>1.41662</v>
       </c>
       <c r="F125" t="n">
-        <v>4.49306</v>
+        <v>4.4984</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13892</v>
+        <v>1.1056</v>
       </c>
       <c r="C126" t="n">
-        <v>3.51443</v>
+        <v>3.51939</v>
       </c>
       <c r="D126" t="n">
-        <v>3.03474</v>
+        <v>3.4642</v>
       </c>
       <c r="E126" t="n">
-        <v>1.54445</v>
+        <v>1.42604</v>
       </c>
       <c r="F126" t="n">
-        <v>4.42175</v>
+        <v>4.42045</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10603</v>
+        <v>1.10409</v>
       </c>
       <c r="C127" t="n">
-        <v>3.49358</v>
+        <v>3.48676</v>
       </c>
       <c r="D127" t="n">
-        <v>3.00997</v>
+        <v>2.81101</v>
       </c>
       <c r="E127" t="n">
-        <v>1.53223</v>
+        <v>1.38955</v>
       </c>
       <c r="F127" t="n">
-        <v>4.35497</v>
+        <v>4.34877</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.0936</v>
+        <v>1.09323</v>
       </c>
       <c r="C128" t="n">
-        <v>3.46537</v>
+        <v>3.46079</v>
       </c>
       <c r="D128" t="n">
-        <v>2.98905</v>
+        <v>2.7823</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52513</v>
+        <v>1.37829</v>
       </c>
       <c r="F128" t="n">
-        <v>4.27537</v>
+        <v>4.28142</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08706</v>
+        <v>1.10124</v>
       </c>
       <c r="C129" t="n">
-        <v>3.43418</v>
+        <v>3.43297</v>
       </c>
       <c r="D129" t="n">
-        <v>2.74533</v>
+        <v>2.74442</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51702</v>
+        <v>1.32978</v>
       </c>
       <c r="F129" t="n">
-        <v>4.2178</v>
+        <v>3.78321</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07212</v>
+        <v>1.07337</v>
       </c>
       <c r="C130" t="n">
-        <v>3.41916</v>
+        <v>3.41348</v>
       </c>
       <c r="D130" t="n">
-        <v>2.72401</v>
+        <v>2.73316</v>
       </c>
       <c r="E130" t="n">
-        <v>1.50461</v>
+        <v>1.35554</v>
       </c>
       <c r="F130" t="n">
-        <v>4.15764</v>
+        <v>4.16213</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06953</v>
+        <v>1.03717</v>
       </c>
       <c r="C131" t="n">
-        <v>3.39668</v>
+        <v>3.39485</v>
       </c>
       <c r="D131" t="n">
-        <v>2.70733</v>
+        <v>2.72085</v>
       </c>
       <c r="E131" t="n">
-        <v>1.50075</v>
+        <v>1.34476</v>
       </c>
       <c r="F131" t="n">
-        <v>4.10243</v>
+        <v>4.08864</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06648</v>
+        <v>1.05735</v>
       </c>
       <c r="C132" t="n">
-        <v>3.37206</v>
+        <v>3.36983</v>
       </c>
       <c r="D132" t="n">
-        <v>2.70471</v>
+        <v>2.70344</v>
       </c>
       <c r="E132" t="n">
-        <v>1.49272</v>
+        <v>1.33711</v>
       </c>
       <c r="F132" t="n">
-        <v>4.03862</v>
+        <v>3.6096</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05813</v>
+        <v>1.05662</v>
       </c>
       <c r="C133" t="n">
-        <v>3.34056</v>
+        <v>3.36112</v>
       </c>
       <c r="D133" t="n">
-        <v>2.69358</v>
+        <v>2.69467</v>
       </c>
       <c r="E133" t="n">
-        <v>1.45422</v>
+        <v>1.29807</v>
       </c>
       <c r="F133" t="n">
-        <v>3.77192</v>
+        <v>3.9857</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05565</v>
+        <v>1.05384</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32562</v>
+        <v>3.32661</v>
       </c>
       <c r="D134" t="n">
-        <v>2.69767</v>
+        <v>2.69514</v>
       </c>
       <c r="E134" t="n">
-        <v>1.48584</v>
+        <v>1.29246</v>
       </c>
       <c r="F134" t="n">
-        <v>3.94802</v>
+        <v>3.94679</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05216</v>
+        <v>1.06927</v>
       </c>
       <c r="C135" t="n">
-        <v>3.32348</v>
+        <v>3.32325</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85651</v>
+        <v>4.85127</v>
       </c>
       <c r="E135" t="n">
-        <v>1.48035</v>
+        <v>1.28822</v>
       </c>
       <c r="F135" t="n">
-        <v>3.23606</v>
+        <v>3.90573</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05158</v>
+        <v>1.04992</v>
       </c>
       <c r="C136" t="n">
-        <v>3.31081</v>
+        <v>3.30778</v>
       </c>
       <c r="D136" t="n">
-        <v>4.56574</v>
+        <v>4.34357</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47465</v>
+        <v>1.28191</v>
       </c>
       <c r="F136" t="n">
-        <v>3.8659</v>
+        <v>3.43137</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0567</v>
+        <v>1.04862</v>
       </c>
       <c r="C137" t="n">
-        <v>3.30931</v>
+        <v>3.30215</v>
       </c>
       <c r="D137" t="n">
-        <v>4.28953</v>
+        <v>4.29461</v>
       </c>
       <c r="E137" t="n">
-        <v>1.84283</v>
+        <v>1.65741</v>
       </c>
       <c r="F137" t="n">
-        <v>5.28174</v>
+        <v>5.29855</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28636</v>
+        <v>1.28504</v>
       </c>
       <c r="C138" t="n">
-        <v>4.06869</v>
+        <v>4.07032</v>
       </c>
       <c r="D138" t="n">
-        <v>4.24654</v>
+        <v>4.02419</v>
       </c>
       <c r="E138" t="n">
-        <v>1.79795</v>
+        <v>1.64541</v>
       </c>
       <c r="F138" t="n">
-        <v>5.20215</v>
+        <v>5.19646</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28549</v>
+        <v>1.26873</v>
       </c>
       <c r="C139" t="n">
-        <v>4.02047</v>
+        <v>4.02959</v>
       </c>
       <c r="D139" t="n">
-        <v>3.97638</v>
+        <v>3.75198</v>
       </c>
       <c r="E139" t="n">
-        <v>1.78231</v>
+        <v>1.65581</v>
       </c>
       <c r="F139" t="n">
-        <v>5.10529</v>
+        <v>5.09725</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25662</v>
+        <v>1.25002</v>
       </c>
       <c r="C140" t="n">
-        <v>3.98828</v>
+        <v>3.98932</v>
       </c>
       <c r="D140" t="n">
-        <v>3.93705</v>
+        <v>3.48924</v>
       </c>
       <c r="E140" t="n">
-        <v>1.78996</v>
+        <v>1.61943</v>
       </c>
       <c r="F140" t="n">
-        <v>5.01268</v>
+        <v>5.00464</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25285</v>
+        <v>1.2375</v>
       </c>
       <c r="C141" t="n">
-        <v>3.94149</v>
+        <v>3.93691</v>
       </c>
       <c r="D141" t="n">
-        <v>3.44305</v>
+        <v>3.2221</v>
       </c>
       <c r="E141" t="n">
-        <v>1.75468</v>
+        <v>1.6088</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92825</v>
+        <v>4.92283</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24611</v>
+        <v>1.24495</v>
       </c>
       <c r="C142" t="n">
-        <v>3.90204</v>
+        <v>3.90581</v>
       </c>
       <c r="D142" t="n">
-        <v>3.17908</v>
+        <v>3.17387</v>
       </c>
       <c r="E142" t="n">
-        <v>1.73857</v>
+        <v>1.59622</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82606</v>
+        <v>4.82693</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24211</v>
+        <v>1.24022</v>
       </c>
       <c r="C143" t="n">
-        <v>3.85947</v>
+        <v>3.85529</v>
       </c>
       <c r="D143" t="n">
-        <v>3.14062</v>
+        <v>3.13971</v>
       </c>
       <c r="E143" t="n">
-        <v>1.69029</v>
+        <v>1.58838</v>
       </c>
       <c r="F143" t="n">
-        <v>4.76071</v>
+        <v>4.75948</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.467408</v>
+        <v>0.466875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.711407</v>
+        <v>0.711019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.812433</v>
+        <v>0.810744</v>
       </c>
       <c r="E2" t="n">
-        <v>0.649574</v>
+        <v>0.642653</v>
       </c>
       <c r="F2" t="n">
-        <v>0.97383</v>
+        <v>0.973625</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.451391</v>
+        <v>0.450211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700177</v>
+        <v>0.697373</v>
       </c>
       <c r="D3" t="n">
-        <v>0.803859</v>
+        <v>0.802532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.624958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.951881</v>
+        <v>0.952912</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.440954</v>
+        <v>0.438656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.691439</v>
+        <v>0.692729</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79621</v>
+        <v>0.795651</v>
       </c>
       <c r="E4" t="n">
-        <v>0.614843</v>
+        <v>0.608899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.933822</v>
+        <v>0.9338689999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.436046</v>
+        <v>0.381217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.682706</v>
+        <v>0.683532</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7876030000000001</v>
+        <v>0.787784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.599004</v>
+        <v>0.593384</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9176879999999999</v>
+        <v>0.916534</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427877</v>
+        <v>0.376887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.677939</v>
+        <v>0.677082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.781206</v>
+        <v>0.781091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.584605</v>
+        <v>0.579938</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9013370000000001</v>
+        <v>0.900143</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421781</v>
+        <v>0.416238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.669735</v>
+        <v>0.670063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.87564</v>
+        <v>0.871704</v>
       </c>
       <c r="E7" t="n">
-        <v>0.571519</v>
+        <v>0.567545</v>
       </c>
       <c r="F7" t="n">
-        <v>0.886452</v>
+        <v>0.886543</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.417777</v>
+        <v>0.413496</v>
       </c>
       <c r="C8" t="n">
-        <v>0.666693</v>
+        <v>0.667301</v>
       </c>
       <c r="D8" t="n">
-        <v>0.858437</v>
+        <v>0.857899</v>
       </c>
       <c r="E8" t="n">
-        <v>0.562678</v>
+        <v>0.559214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.877526</v>
+        <v>0.875668</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.373195</v>
+        <v>0.413518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.667194</v>
+        <v>0.667324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.842526</v>
+        <v>0.842046</v>
       </c>
       <c r="E9" t="n">
-        <v>0.880406</v>
+        <v>0.87039</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20607</v>
+        <v>1.20229</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.557034</v>
+        <v>0.555543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.809947</v>
+        <v>0.8105830000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.832221</v>
+        <v>0.830094</v>
       </c>
       <c r="E10" t="n">
-        <v>0.851558</v>
+        <v>0.8418909999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1.17589</v>
+        <v>1.16859</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535784</v>
+        <v>0.535516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7959000000000001</v>
+        <v>0.795443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.815775</v>
+        <v>0.816138</v>
       </c>
       <c r="E11" t="n">
-        <v>0.824172</v>
+        <v>0.8158069999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14612</v>
+        <v>1.14074</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5208429999999999</v>
+        <v>0.518923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7796959999999999</v>
+        <v>0.78093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.801358</v>
+        <v>0.802006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7985989999999999</v>
+        <v>0.828171</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11673</v>
+        <v>1.11372</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.508116</v>
+        <v>0.509773</v>
       </c>
       <c r="C13" t="n">
-        <v>0.765527</v>
+        <v>0.7678160000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.788086</v>
+        <v>0.787436</v>
       </c>
       <c r="E13" t="n">
-        <v>0.773045</v>
+        <v>0.8018110000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08929</v>
+        <v>1.08536</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.492985</v>
+        <v>0.489818</v>
       </c>
       <c r="C14" t="n">
-        <v>0.752075</v>
+        <v>0.752566</v>
       </c>
       <c r="D14" t="n">
-        <v>0.785269</v>
+        <v>0.787252</v>
       </c>
       <c r="E14" t="n">
-        <v>0.750099</v>
+        <v>0.742218</v>
       </c>
       <c r="F14" t="n">
-        <v>1.06236</v>
+        <v>1.05988</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482476</v>
+        <v>0.480825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.738744</v>
+        <v>0.739394</v>
       </c>
       <c r="D15" t="n">
-        <v>0.77639</v>
+        <v>0.778321</v>
       </c>
       <c r="E15" t="n">
-        <v>0.728614</v>
+        <v>0.72023</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03759</v>
+        <v>1.03572</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.465174</v>
+        <v>0.465953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.725788</v>
+        <v>0.7279139999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.764737</v>
+        <v>0.7661</v>
       </c>
       <c r="E16" t="n">
-        <v>0.707364</v>
+        <v>0.69998</v>
       </c>
       <c r="F16" t="n">
-        <v>1.01368</v>
+        <v>1.01149</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455729</v>
+        <v>0.455689</v>
       </c>
       <c r="C17" t="n">
-        <v>0.713232</v>
+        <v>0.716915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.754633</v>
+        <v>0.757387</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6878030000000001</v>
+        <v>0.680359</v>
       </c>
       <c r="F17" t="n">
-        <v>1.02052</v>
+        <v>1.01745</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.44792</v>
+        <v>0.447007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.721427</v>
+        <v>0.707402</v>
       </c>
       <c r="D18" t="n">
-        <v>0.751185</v>
+        <v>0.753829</v>
       </c>
       <c r="E18" t="n">
-        <v>0.669704</v>
+        <v>0.662517</v>
       </c>
       <c r="F18" t="n">
-        <v>1.00142</v>
+        <v>1.00213</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.43532</v>
+        <v>0.439127</v>
       </c>
       <c r="C19" t="n">
-        <v>0.712475</v>
+        <v>0.700253</v>
       </c>
       <c r="D19" t="n">
-        <v>0.742101</v>
+        <v>0.749427</v>
       </c>
       <c r="E19" t="n">
-        <v>0.652911</v>
+        <v>0.646454</v>
       </c>
       <c r="F19" t="n">
-        <v>0.98316</v>
+        <v>0.98166</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42851</v>
+        <v>0.42796</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7058489999999999</v>
+        <v>0.692913</v>
       </c>
       <c r="D20" t="n">
-        <v>0.737159</v>
+        <v>0.737354</v>
       </c>
       <c r="E20" t="n">
-        <v>0.637754</v>
+        <v>0.631644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.966711</v>
+        <v>0.961635</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.422642</v>
+        <v>0.422173</v>
       </c>
       <c r="C21" t="n">
-        <v>0.699527</v>
+        <v>0.6862239999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.951587</v>
+        <v>0.952913</v>
       </c>
       <c r="E21" t="n">
-        <v>0.625735</v>
+        <v>0.61912</v>
       </c>
       <c r="F21" t="n">
-        <v>0.959327</v>
+        <v>0.956945</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.419751</v>
+        <v>0.416702</v>
       </c>
       <c r="C22" t="n">
-        <v>0.707902</v>
+        <v>0.70392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.934392</v>
+        <v>0.933845</v>
       </c>
       <c r="E22" t="n">
-        <v>0.615823</v>
+        <v>0.608986</v>
       </c>
       <c r="F22" t="n">
-        <v>0.947835</v>
+        <v>0.941199</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.417209</v>
+        <v>0.416603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.70643</v>
+        <v>0.704105</v>
       </c>
       <c r="D23" t="n">
-        <v>0.917946</v>
+        <v>0.917483</v>
       </c>
       <c r="E23" t="n">
-        <v>0.942702</v>
+        <v>0.931516</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27541</v>
+        <v>1.27169</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.571485</v>
+        <v>0.572619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.847657</v>
+        <v>0.84695</v>
       </c>
       <c r="D24" t="n">
-        <v>0.89847</v>
+        <v>0.896729</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9121089999999999</v>
+        <v>0.901724</v>
       </c>
       <c r="F24" t="n">
-        <v>1.24105</v>
+        <v>1.23787</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.55567</v>
+        <v>0.556611</v>
       </c>
       <c r="C25" t="n">
-        <v>0.82925</v>
+        <v>0.831257</v>
       </c>
       <c r="D25" t="n">
-        <v>0.884099</v>
+        <v>0.884736</v>
       </c>
       <c r="E25" t="n">
-        <v>0.881958</v>
+        <v>0.871977</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20766</v>
+        <v>1.20569</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.542152</v>
+        <v>0.539838</v>
       </c>
       <c r="C26" t="n">
-        <v>0.816491</v>
+        <v>0.815553</v>
       </c>
       <c r="D26" t="n">
-        <v>0.870708</v>
+        <v>0.867988</v>
       </c>
       <c r="E26" t="n">
-        <v>0.853981</v>
+        <v>0.843958</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18502</v>
+        <v>1.18193</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5555</v>
+        <v>0.522541</v>
       </c>
       <c r="C27" t="n">
-        <v>0.801563</v>
+        <v>0.800988</v>
       </c>
       <c r="D27" t="n">
-        <v>0.856129</v>
+        <v>0.854087</v>
       </c>
       <c r="E27" t="n">
-        <v>0.826711</v>
+        <v>0.81738</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15384</v>
+        <v>1.15401</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.535754</v>
+        <v>0.535045</v>
       </c>
       <c r="C28" t="n">
-        <v>0.786501</v>
+        <v>0.786102</v>
       </c>
       <c r="D28" t="n">
-        <v>0.840685</v>
+        <v>0.842455</v>
       </c>
       <c r="E28" t="n">
-        <v>0.800292</v>
+        <v>0.791501</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12777</v>
+        <v>1.12442</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5229819999999999</v>
+        <v>0.520833</v>
       </c>
       <c r="C29" t="n">
-        <v>0.770505</v>
+        <v>0.771541</v>
       </c>
       <c r="D29" t="n">
-        <v>0.834042</v>
+        <v>0.836185</v>
       </c>
       <c r="E29" t="n">
-        <v>0.776206</v>
+        <v>0.767684</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10537</v>
+        <v>1.10242</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.50726</v>
+        <v>0.509894</v>
       </c>
       <c r="C30" t="n">
-        <v>0.757011</v>
+        <v>0.761458</v>
       </c>
       <c r="D30" t="n">
-        <v>0.82719</v>
+        <v>0.826815</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7531409999999999</v>
+        <v>0.7449210000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>1.08192</v>
+        <v>1.08475</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494502</v>
+        <v>0.494531</v>
       </c>
       <c r="C31" t="n">
-        <v>0.743742</v>
+        <v>0.7457859999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.81563</v>
+        <v>0.816229</v>
       </c>
       <c r="E31" t="n">
-        <v>0.731436</v>
+        <v>0.72348</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05506</v>
+        <v>1.05767</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.485322</v>
+        <v>0.482814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.755755</v>
+        <v>0.755199</v>
       </c>
       <c r="D32" t="n">
-        <v>0.808874</v>
+        <v>0.810392</v>
       </c>
       <c r="E32" t="n">
-        <v>0.711048</v>
+        <v>0.703541</v>
       </c>
       <c r="F32" t="n">
-        <v>1.03184</v>
+        <v>1.03215</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472874</v>
+        <v>0.472315</v>
       </c>
       <c r="C33" t="n">
-        <v>0.74693</v>
+        <v>0.746414</v>
       </c>
       <c r="D33" t="n">
-        <v>0.800184</v>
+        <v>0.802171</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6926020000000001</v>
+        <v>0.685296</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01186</v>
+        <v>1.00989</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.463465</v>
+        <v>0.462719</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7370989999999999</v>
+        <v>0.739011</v>
       </c>
       <c r="D34" t="n">
-        <v>0.79327</v>
+        <v>0.794813</v>
       </c>
       <c r="E34" t="n">
-        <v>0.67537</v>
+        <v>0.667847</v>
       </c>
       <c r="F34" t="n">
-        <v>0.993811</v>
+        <v>0.99121</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.434169</v>
+        <v>0.455258</v>
       </c>
       <c r="C35" t="n">
-        <v>0.734005</v>
+        <v>0.733841</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03359</v>
+        <v>1.03469</v>
       </c>
       <c r="E35" t="n">
-        <v>0.660457</v>
+        <v>0.6328819999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.977019</v>
+        <v>0.975059</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.449713</v>
+        <v>0.428786</v>
       </c>
       <c r="C36" t="n">
-        <v>0.729588</v>
+        <v>0.729541</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01087</v>
+        <v>1.01806</v>
       </c>
       <c r="E36" t="n">
-        <v>0.628934</v>
+        <v>0.640213</v>
       </c>
       <c r="F36" t="n">
-        <v>0.963604</v>
+        <v>0.958457</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.447029</v>
+        <v>0.428268</v>
       </c>
       <c r="C37" t="n">
-        <v>0.727307</v>
+        <v>0.727696</v>
       </c>
       <c r="D37" t="n">
-        <v>0.994834</v>
+        <v>0.9990059999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.961194</v>
+        <v>0.950037</v>
       </c>
       <c r="F37" t="n">
-        <v>1.56213</v>
+        <v>1.56129</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.621167</v>
+        <v>0.639617</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10323</v>
+        <v>1.10274</v>
       </c>
       <c r="D38" t="n">
-        <v>0.98212</v>
+        <v>0.971155</v>
       </c>
       <c r="E38" t="n">
-        <v>0.930844</v>
+        <v>0.91947</v>
       </c>
       <c r="F38" t="n">
-        <v>1.52704</v>
+        <v>1.52793</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.621688</v>
+        <v>0.620961</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08616</v>
+        <v>1.08628</v>
       </c>
       <c r="D39" t="n">
-        <v>0.958197</v>
+        <v>0.9571539999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.901064</v>
+        <v>0.889886</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49197</v>
+        <v>1.49037</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6031300000000001</v>
+        <v>0.602272</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07197</v>
+        <v>1.07017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.943482</v>
+        <v>0.941611</v>
       </c>
       <c r="E40" t="n">
-        <v>0.872163</v>
+        <v>0.861921</v>
       </c>
       <c r="F40" t="n">
-        <v>1.45838</v>
+        <v>1.45722</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.586162</v>
+        <v>0.570676</v>
       </c>
       <c r="C41" t="n">
-        <v>1.055</v>
+        <v>1.05471</v>
       </c>
       <c r="D41" t="n">
-        <v>0.925787</v>
+        <v>0.926051</v>
       </c>
       <c r="E41" t="n">
-        <v>0.845261</v>
+        <v>0.834463</v>
       </c>
       <c r="F41" t="n">
-        <v>1.42801</v>
+        <v>1.42614</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.568858</v>
+        <v>0.553269</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04015</v>
+        <v>1.04096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.911415</v>
+        <v>0.912654</v>
       </c>
       <c r="E42" t="n">
-        <v>0.819199</v>
+        <v>0.809142</v>
       </c>
       <c r="F42" t="n">
-        <v>1.39784</v>
+        <v>1.39738</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.552938</v>
+        <v>0.537146</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02573</v>
+        <v>1.02883</v>
       </c>
       <c r="D43" t="n">
-        <v>0.897163</v>
+        <v>0.899748</v>
       </c>
       <c r="E43" t="n">
-        <v>0.794457</v>
+        <v>0.784641</v>
       </c>
       <c r="F43" t="n">
-        <v>1.36827</v>
+        <v>1.36825</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.538333</v>
+        <v>0.537473</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01445</v>
+        <v>1.01494</v>
       </c>
       <c r="D44" t="n">
-        <v>0.887456</v>
+        <v>0.886807</v>
       </c>
       <c r="E44" t="n">
-        <v>0.771447</v>
+        <v>0.76196</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34339</v>
+        <v>1.34233</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.511002</v>
+        <v>0.523554</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00169</v>
+        <v>1.00204</v>
       </c>
       <c r="D45" t="n">
-        <v>0.879999</v>
+        <v>0.88015</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7491950000000001</v>
+        <v>0.740004</v>
       </c>
       <c r="F45" t="n">
-        <v>1.31731</v>
+        <v>1.31994</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5120980000000001</v>
+        <v>0.498854</v>
       </c>
       <c r="C46" t="n">
-        <v>0.990738</v>
+        <v>0.99063</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8673959999999999</v>
+        <v>0.8689829999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.729044</v>
+        <v>0.719807</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29471</v>
+        <v>1.29491</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.499581</v>
+        <v>0.498616</v>
       </c>
       <c r="C47" t="n">
-        <v>0.98139</v>
+        <v>0.983176</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8649790000000001</v>
+        <v>0.862407</v>
       </c>
       <c r="E47" t="n">
-        <v>0.709858</v>
+        <v>0.7015980000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27164</v>
+        <v>1.27186</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477643</v>
+        <v>0.477264</v>
       </c>
       <c r="C48" t="n">
-        <v>0.973179</v>
+        <v>0.973153</v>
       </c>
       <c r="D48" t="n">
-        <v>0.855042</v>
+        <v>0.855306</v>
       </c>
       <c r="E48" t="n">
-        <v>0.691848</v>
+        <v>0.662173</v>
       </c>
       <c r="F48" t="n">
-        <v>1.25138</v>
+        <v>1.25169</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.471671</v>
+        <v>0.469729</v>
       </c>
       <c r="C49" t="n">
-        <v>0.964148</v>
+        <v>0.965788</v>
       </c>
       <c r="D49" t="n">
-        <v>0.84941</v>
+        <v>0.849178</v>
       </c>
       <c r="E49" t="n">
-        <v>0.676608</v>
+        <v>0.667746</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23409</v>
+        <v>1.23228</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.464643</v>
+        <v>0.463254</v>
       </c>
       <c r="C50" t="n">
-        <v>0.955717</v>
+        <v>0.9581460000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08226</v>
+        <v>1.08099</v>
       </c>
       <c r="E50" t="n">
-        <v>0.645052</v>
+        <v>0.655041</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21861</v>
+        <v>1.21726</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.469989</v>
+        <v>0.459163</v>
       </c>
       <c r="C51" t="n">
-        <v>0.953353</v>
+        <v>0.954467</v>
       </c>
       <c r="D51" t="n">
-        <v>1.05902</v>
+        <v>1.0601</v>
       </c>
       <c r="E51" t="n">
-        <v>1.00733</v>
+        <v>0.9819870000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64222</v>
+        <v>1.64233</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.45973</v>
+        <v>0.4591</v>
       </c>
       <c r="C52" t="n">
-        <v>0.951883</v>
+        <v>0.952557</v>
       </c>
       <c r="D52" t="n">
         <v>1.03864</v>
       </c>
       <c r="E52" t="n">
-        <v>0.964211</v>
+        <v>0.951869</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60481</v>
+        <v>1.60187</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.638445</v>
+        <v>0.650567</v>
       </c>
       <c r="C53" t="n">
-        <v>1.13931</v>
+        <v>1.13877</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01816</v>
+        <v>1.01804</v>
       </c>
       <c r="E53" t="n">
-        <v>0.931013</v>
+        <v>0.933345</v>
       </c>
       <c r="F53" t="n">
-        <v>1.56655</v>
+        <v>1.56989</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.631391</v>
+        <v>0.618482</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12181</v>
+        <v>1.12236</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00187</v>
+        <v>1.00207</v>
       </c>
       <c r="E54" t="n">
-        <v>0.914059</v>
+        <v>0.8928970000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53195</v>
+        <v>1.53732</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.615348</v>
+        <v>0.60036</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10748</v>
+        <v>1.10597</v>
       </c>
       <c r="D55" t="n">
-        <v>0.984298</v>
+        <v>0.985015</v>
       </c>
       <c r="E55" t="n">
-        <v>0.876445</v>
+        <v>0.866069</v>
       </c>
       <c r="F55" t="n">
-        <v>1.49844</v>
+        <v>1.50493</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.596007</v>
+        <v>0.585066</v>
       </c>
       <c r="C56" t="n">
-        <v>1.0952</v>
+        <v>1.09029</v>
       </c>
       <c r="D56" t="n">
-        <v>0.97029</v>
+        <v>0.969185</v>
       </c>
       <c r="E56" t="n">
-        <v>0.851167</v>
+        <v>0.839448</v>
       </c>
       <c r="F56" t="n">
-        <v>1.46718</v>
+        <v>1.47052</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.57399</v>
+        <v>0.579202</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07662</v>
+        <v>1.07708</v>
       </c>
       <c r="D57" t="n">
-        <v>0.954998</v>
+        <v>0.954871</v>
       </c>
       <c r="E57" t="n">
-        <v>0.825464</v>
+        <v>0.815277</v>
       </c>
       <c r="F57" t="n">
-        <v>1.43765</v>
+        <v>1.43709</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.559074</v>
+        <v>0.554755</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06447</v>
+        <v>1.06364</v>
       </c>
       <c r="D58" t="n">
-        <v>0.942123</v>
+        <v>0.942614</v>
       </c>
       <c r="E58" t="n">
-        <v>0.801582</v>
+        <v>0.7921240000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1.40958</v>
+        <v>1.41347</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.544928</v>
+        <v>0.545892</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0519</v>
+        <v>1.05131</v>
       </c>
       <c r="D59" t="n">
-        <v>0.924275</v>
+        <v>0.926073</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7516620000000001</v>
+        <v>0.741159</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38384</v>
+        <v>1.38594</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532948</v>
+        <v>0.532352</v>
       </c>
       <c r="C60" t="n">
-        <v>1.0399</v>
+        <v>1.03951</v>
       </c>
       <c r="D60" t="n">
-        <v>0.915099</v>
+        <v>0.914644</v>
       </c>
       <c r="E60" t="n">
-        <v>0.732699</v>
+        <v>0.7511640000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35767</v>
+        <v>1.36164</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.522641</v>
+        <v>0.519344</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03031</v>
+        <v>1.02849</v>
       </c>
       <c r="D61" t="n">
-        <v>0.904986</v>
+        <v>0.904751</v>
       </c>
       <c r="E61" t="n">
-        <v>0.740285</v>
+        <v>0.704884</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33331</v>
+        <v>1.33568</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.510682</v>
+        <v>0.511548</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02085</v>
+        <v>1.01969</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8958469999999999</v>
+        <v>0.896444</v>
       </c>
       <c r="E62" t="n">
-        <v>0.698071</v>
+        <v>0.687922</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31246</v>
+        <v>1.31458</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.500315</v>
+        <v>0.503428</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01329</v>
+        <v>1.01248</v>
       </c>
       <c r="D63" t="n">
-        <v>0.887697</v>
+        <v>0.887907</v>
       </c>
       <c r="E63" t="n">
-        <v>0.705076</v>
+        <v>0.673285</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29244</v>
+        <v>1.29409</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.495578</v>
+        <v>0.470972</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00704</v>
+        <v>1.0056</v>
       </c>
       <c r="D64" t="n">
-        <v>1.1571</v>
+        <v>1.15906</v>
       </c>
       <c r="E64" t="n">
-        <v>0.671324</v>
+        <v>0.683446</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27529</v>
+        <v>1.27575</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.467755</v>
+        <v>0.468944</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00482</v>
+        <v>1.00373</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13126</v>
+        <v>1.1358</v>
       </c>
       <c r="E65" t="n">
-        <v>0.681712</v>
+        <v>0.6747030000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>1.261</v>
+        <v>1.26049</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.490486</v>
+        <v>0.487907</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00253</v>
+        <v>1.00073</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10452</v>
+        <v>1.10713</v>
       </c>
       <c r="E66" t="n">
-        <v>1.04429</v>
+        <v>1.03928</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68736</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.71167</v>
+        <v>0.735293</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20876</v>
+        <v>1.21291</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07533</v>
+        <v>1.07869</v>
       </c>
       <c r="E67" t="n">
-        <v>1.00334</v>
+        <v>1.00327</v>
       </c>
       <c r="F67" t="n">
-        <v>1.64672</v>
+        <v>1.65299</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7066750000000001</v>
+        <v>0.714174</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19421</v>
+        <v>1.19882</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05718</v>
+        <v>1.06007</v>
       </c>
       <c r="E68" t="n">
-        <v>0.975536</v>
+        <v>0.9820410000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1.61455</v>
+        <v>1.61639</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6979610000000001</v>
+        <v>0.69434</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17613</v>
+        <v>1.18389</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04061</v>
+        <v>1.04185</v>
       </c>
       <c r="E69" t="n">
-        <v>0.960473</v>
+        <v>0.950427</v>
       </c>
       <c r="F69" t="n">
-        <v>1.57614</v>
+        <v>1.58727</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.67171</v>
+        <v>0.688137</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16546</v>
+        <v>1.17128</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02835</v>
+        <v>1.03081</v>
       </c>
       <c r="E70" t="n">
-        <v>0.922594</v>
+        <v>0.927708</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55369</v>
+        <v>1.55784</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.661533</v>
+        <v>0.665571</v>
       </c>
       <c r="C71" t="n">
-        <v>1.1562</v>
+        <v>1.15826</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9981719999999999</v>
+        <v>0.998291</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8967349999999999</v>
+        <v>0.897049</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52723</v>
+        <v>1.52612</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.650967</v>
+        <v>0.658806</v>
       </c>
       <c r="C72" t="n">
-        <v>1.15104</v>
+        <v>1.14621</v>
       </c>
       <c r="D72" t="n">
-        <v>0.991196</v>
+        <v>0.990165</v>
       </c>
       <c r="E72" t="n">
-        <v>0.873322</v>
+        <v>0.873895</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50166</v>
+        <v>1.50159</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.638588</v>
+        <v>0.639312</v>
       </c>
       <c r="C73" t="n">
-        <v>1.14045</v>
+        <v>1.1415</v>
       </c>
       <c r="D73" t="n">
-        <v>0.980743</v>
+        <v>0.980618</v>
       </c>
       <c r="E73" t="n">
-        <v>0.85225</v>
+        <v>0.850533</v>
       </c>
       <c r="F73" t="n">
-        <v>1.48085</v>
+        <v>1.47994</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615675</v>
+        <v>0.630624</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13821</v>
+        <v>1.13347</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9678600000000001</v>
+        <v>0.9666090000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.793166</v>
+        <v>0.826886</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45898</v>
+        <v>1.46241</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.606923</v>
+        <v>0.613003</v>
       </c>
       <c r="C75" t="n">
-        <v>1.13166</v>
+        <v>1.1295</v>
       </c>
       <c r="D75" t="n">
-        <v>0.963977</v>
+        <v>0.962663</v>
       </c>
       <c r="E75" t="n">
-        <v>0.804477</v>
+        <v>0.806751</v>
       </c>
       <c r="F75" t="n">
-        <v>1.44052</v>
+        <v>1.44115</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.56584</v>
+        <v>0.611518</v>
       </c>
       <c r="C76" t="n">
-        <v>1.12944</v>
+        <v>1.12695</v>
       </c>
       <c r="D76" t="n">
-        <v>0.95908</v>
+        <v>0.95741</v>
       </c>
       <c r="E76" t="n">
-        <v>0.785207</v>
+        <v>0.758988</v>
       </c>
       <c r="F76" t="n">
-        <v>1.4208</v>
+        <v>1.42236</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.58618</v>
+        <v>0.587921</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12459</v>
+        <v>1.13323</v>
       </c>
       <c r="D77" t="n">
-        <v>0.948748</v>
+        <v>0.947098</v>
       </c>
       <c r="E77" t="n">
-        <v>0.738468</v>
+        <v>0.768432</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41014</v>
+        <v>1.41647</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.580364</v>
+        <v>0.578041</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13313</v>
+        <v>1.14203</v>
       </c>
       <c r="D78" t="n">
-        <v>1.40408</v>
+        <v>1.43624</v>
       </c>
       <c r="E78" t="n">
-        <v>0.724336</v>
+        <v>0.753174</v>
       </c>
       <c r="F78" t="n">
-        <v>1.40482</v>
+        <v>1.41395</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.534314</v>
+        <v>0.578321</v>
       </c>
       <c r="C79" t="n">
-        <v>0.949715</v>
+        <v>1.16212</v>
       </c>
       <c r="D79" t="n">
-        <v>1.37344</v>
+        <v>1.40591</v>
       </c>
       <c r="E79" t="n">
-        <v>0.741148</v>
+        <v>0.7394230000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>1.4154</v>
+        <v>1.42647</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5484290000000001</v>
+        <v>0.568371</v>
       </c>
       <c r="C80" t="n">
-        <v>1.16249</v>
+        <v>1.17947</v>
       </c>
       <c r="D80" t="n">
-        <v>1.35223</v>
+        <v>1.37714</v>
       </c>
       <c r="E80" t="n">
-        <v>1.09522</v>
+        <v>1.10664</v>
       </c>
       <c r="F80" t="n">
-        <v>2.12097</v>
+        <v>2.17239</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.795703</v>
+        <v>0.804187</v>
       </c>
       <c r="C81" t="n">
-        <v>1.61598</v>
+        <v>1.6749</v>
       </c>
       <c r="D81" t="n">
-        <v>1.30676</v>
+        <v>1.34151</v>
       </c>
       <c r="E81" t="n">
-        <v>1.09612</v>
+        <v>1.08924</v>
       </c>
       <c r="F81" t="n">
-        <v>2.10311</v>
+        <v>2.17244</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.78726</v>
+        <v>0.7958809999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.62633</v>
+        <v>1.69583</v>
       </c>
       <c r="D82" t="n">
-        <v>1.28862</v>
+        <v>1.32045</v>
       </c>
       <c r="E82" t="n">
-        <v>1.05352</v>
+        <v>1.06865</v>
       </c>
       <c r="F82" t="n">
-        <v>2.07997</v>
+        <v>2.1548</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.765567</v>
+        <v>0.793432</v>
       </c>
       <c r="C83" t="n">
-        <v>1.63141</v>
+        <v>1.70604</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27684</v>
+        <v>1.30515</v>
       </c>
       <c r="E83" t="n">
-        <v>1.02981</v>
+        <v>1.05728</v>
       </c>
       <c r="F83" t="n">
-        <v>2.06318</v>
+        <v>2.13019</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.751053</v>
+        <v>0.788245</v>
       </c>
       <c r="C84" t="n">
-        <v>1.63836</v>
+        <v>1.7167</v>
       </c>
       <c r="D84" t="n">
-        <v>1.26418</v>
+        <v>1.29275</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0216</v>
+        <v>1.03357</v>
       </c>
       <c r="F84" t="n">
-        <v>2.04004</v>
+        <v>2.10848</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.753707</v>
+        <v>0.787418</v>
       </c>
       <c r="C85" t="n">
-        <v>1.64038</v>
+        <v>1.71553</v>
       </c>
       <c r="D85" t="n">
-        <v>1.2262</v>
+        <v>1.25359</v>
       </c>
       <c r="E85" t="n">
-        <v>0.978348</v>
+        <v>0.998532</v>
       </c>
       <c r="F85" t="n">
-        <v>2.03781</v>
+        <v>2.0993</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.745682</v>
+        <v>0.767828</v>
       </c>
       <c r="C86" t="n">
-        <v>1.6448</v>
+        <v>1.7319</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22141</v>
+        <v>1.25036</v>
       </c>
       <c r="E86" t="n">
-        <v>0.912239</v>
+        <v>0.972888</v>
       </c>
       <c r="F86" t="n">
-        <v>2.02687</v>
+        <v>2.08318</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.741933</v>
+        <v>0.762691</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65462</v>
+        <v>1.73354</v>
       </c>
       <c r="D87" t="n">
-        <v>1.21935</v>
+        <v>1.25196</v>
       </c>
       <c r="E87" t="n">
-        <v>0.928472</v>
+        <v>0.94823</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01467</v>
+        <v>2.09499</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.720229</v>
+        <v>0.74626</v>
       </c>
       <c r="C88" t="n">
-        <v>1.66897</v>
+        <v>1.74936</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21168</v>
+        <v>1.24295</v>
       </c>
       <c r="E88" t="n">
-        <v>0.870198</v>
+        <v>0.9252050000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>2.01031</v>
+        <v>2.08134</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711908</v>
+        <v>0.7407589999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.67813</v>
+        <v>1.74975</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21056</v>
+        <v>1.24992</v>
       </c>
       <c r="E89" t="n">
-        <v>0.888659</v>
+        <v>0.867124</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00189</v>
+        <v>2.07246</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.70387</v>
+        <v>0.733436</v>
       </c>
       <c r="C90" t="n">
-        <v>1.68555</v>
+        <v>1.77698</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2175</v>
+        <v>1.25409</v>
       </c>
       <c r="E90" t="n">
-        <v>0.865843</v>
+        <v>0.847585</v>
       </c>
       <c r="F90" t="n">
-        <v>2.00261</v>
+        <v>2.0855</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.687295</v>
+        <v>0.719606</v>
       </c>
       <c r="C91" t="n">
-        <v>1.70319</v>
+        <v>1.77739</v>
       </c>
       <c r="D91" t="n">
-        <v>1.21754</v>
+        <v>1.25313</v>
       </c>
       <c r="E91" t="n">
-        <v>0.814894</v>
+        <v>0.830897</v>
       </c>
       <c r="F91" t="n">
-        <v>1.98614</v>
+        <v>2.08887</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.657449</v>
+        <v>0.7037060000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>1.71275</v>
+        <v>1.80212</v>
       </c>
       <c r="D92" t="n">
-        <v>2.56701</v>
+        <v>2.71365</v>
       </c>
       <c r="E92" t="n">
-        <v>0.830221</v>
+        <v>0.842886</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99763</v>
+        <v>2.08057</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6665759999999999</v>
+        <v>0.697591</v>
       </c>
       <c r="C93" t="n">
-        <v>1.72962</v>
+        <v>1.04209</v>
       </c>
       <c r="D93" t="n">
-        <v>2.3947</v>
+        <v>2.34236</v>
       </c>
       <c r="E93" t="n">
-        <v>0.816096</v>
+        <v>0.8283160000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>1.99937</v>
+        <v>2.09919</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.667461</v>
+        <v>0.668269</v>
       </c>
       <c r="C94" t="n">
-        <v>1.74123</v>
+        <v>1.58881</v>
       </c>
       <c r="D94" t="n">
-        <v>2.39873</v>
+        <v>2.33673</v>
       </c>
       <c r="E94" t="n">
-        <v>1.16373</v>
+        <v>1.2196</v>
       </c>
       <c r="F94" t="n">
-        <v>3.1088</v>
+        <v>3.30793</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.902931</v>
+        <v>0.9250660000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>2.40855</v>
+        <v>2.56696</v>
       </c>
       <c r="D95" t="n">
-        <v>2.38456</v>
+        <v>2.3949</v>
       </c>
       <c r="E95" t="n">
-        <v>1.15324</v>
+        <v>1.1806</v>
       </c>
       <c r="F95" t="n">
-        <v>3.07942</v>
+        <v>3.26815</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.888748</v>
+        <v>0.951998</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42313</v>
+        <v>2.57277</v>
       </c>
       <c r="D96" t="n">
-        <v>2.44962</v>
+        <v>2.53242</v>
       </c>
       <c r="E96" t="n">
-        <v>1.13196</v>
+        <v>1.16319</v>
       </c>
       <c r="F96" t="n">
-        <v>3.05961</v>
+        <v>3.25254</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89242</v>
+        <v>0.939752</v>
       </c>
       <c r="C97" t="n">
-        <v>2.41498</v>
+        <v>2.59009</v>
       </c>
       <c r="D97" t="n">
-        <v>2.31229</v>
+        <v>2.53161</v>
       </c>
       <c r="E97" t="n">
-        <v>1.11137</v>
+        <v>1.14271</v>
       </c>
       <c r="F97" t="n">
-        <v>3.02047</v>
+        <v>3.2071</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.868949</v>
+        <v>0.928417</v>
       </c>
       <c r="C98" t="n">
-        <v>2.41062</v>
+        <v>2.59202</v>
       </c>
       <c r="D98" t="n">
-        <v>2.097</v>
+        <v>2.14045</v>
       </c>
       <c r="E98" t="n">
-        <v>1.08918</v>
+        <v>1.1198</v>
       </c>
       <c r="F98" t="n">
-        <v>2.97204</v>
+        <v>3.1469</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.85772</v>
+        <v>0.8882330000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>2.39358</v>
+        <v>2.55453</v>
       </c>
       <c r="D99" t="n">
-        <v>1.79123</v>
+        <v>1.82616</v>
       </c>
       <c r="E99" t="n">
-        <v>1.06505</v>
+        <v>1.10164</v>
       </c>
       <c r="F99" t="n">
-        <v>2.92625</v>
+        <v>3.13052</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8599290000000001</v>
+        <v>0.910772</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38331</v>
+        <v>2.53948</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71174</v>
+        <v>1.79281</v>
       </c>
       <c r="E100" t="n">
-        <v>1.04404</v>
+        <v>1.08006</v>
       </c>
       <c r="F100" t="n">
-        <v>2.89116</v>
+        <v>3.07418</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.826114</v>
+        <v>0.900744</v>
       </c>
       <c r="C101" t="n">
-        <v>2.36832</v>
+        <v>2.52551</v>
       </c>
       <c r="D101" t="n">
-        <v>1.7009</v>
+        <v>1.79446</v>
       </c>
       <c r="E101" t="n">
-        <v>1.02549</v>
+        <v>1.06127</v>
       </c>
       <c r="F101" t="n">
-        <v>2.84549</v>
+        <v>3.04677</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8282890000000001</v>
+        <v>0.877084</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34272</v>
+        <v>2.52423</v>
       </c>
       <c r="D102" t="n">
-        <v>1.69868</v>
+        <v>1.79917</v>
       </c>
       <c r="E102" t="n">
-        <v>1.00818</v>
+        <v>1.00349</v>
       </c>
       <c r="F102" t="n">
-        <v>2.83273</v>
+        <v>1.92165</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.818964</v>
+        <v>0.8310110000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>2.34142</v>
+        <v>2.50829</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70642</v>
+        <v>1.79891</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9560419999999999</v>
+        <v>1.02569</v>
       </c>
       <c r="F103" t="n">
-        <v>1.78557</v>
+        <v>2.97014</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.769942</v>
+        <v>0.850952</v>
       </c>
       <c r="C104" t="n">
-        <v>2.35202</v>
+        <v>2.50069</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71096</v>
+        <v>1.81217</v>
       </c>
       <c r="E104" t="n">
-        <v>0.976889</v>
+        <v>1.01038</v>
       </c>
       <c r="F104" t="n">
-        <v>2.60129</v>
+        <v>2.95864</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.804342</v>
+        <v>0.85136</v>
       </c>
       <c r="C105" t="n">
-        <v>2.32253</v>
+        <v>2.50713</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70656</v>
+        <v>1.80007</v>
       </c>
       <c r="E105" t="n">
-        <v>0.959372</v>
+        <v>0.995232</v>
       </c>
       <c r="F105" t="n">
-        <v>2.73194</v>
+        <v>1.78051</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.79789</v>
+        <v>0.809042</v>
       </c>
       <c r="C106" t="n">
-        <v>1.99398</v>
+        <v>2.48128</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71075</v>
+        <v>1.80744</v>
       </c>
       <c r="E106" t="n">
-        <v>0.915947</v>
+        <v>0.949956</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66736</v>
+        <v>1.73637</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.788232</v>
+        <v>0.847431</v>
       </c>
       <c r="C107" t="n">
-        <v>1.27989</v>
+        <v>2.48307</v>
       </c>
       <c r="D107" t="n">
-        <v>2.96179</v>
+        <v>3.75793</v>
       </c>
       <c r="E107" t="n">
-        <v>0.905903</v>
+        <v>0.939403</v>
       </c>
       <c r="F107" t="n">
-        <v>2.66539</v>
+        <v>1.70828</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.771927</v>
+        <v>0.823604</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26281</v>
+        <v>1.32905</v>
       </c>
       <c r="D108" t="n">
-        <v>2.93649</v>
+        <v>2.96104</v>
       </c>
       <c r="E108" t="n">
-        <v>1.28555</v>
+        <v>1.33026</v>
       </c>
       <c r="F108" t="n">
-        <v>3.98438</v>
+        <v>4.28981</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.78775</v>
+        <v>0.829142</v>
       </c>
       <c r="C109" t="n">
-        <v>2.32244</v>
+        <v>1.3102</v>
       </c>
       <c r="D109" t="n">
-        <v>3.26375</v>
+        <v>3.1255</v>
       </c>
       <c r="E109" t="n">
-        <v>1.27455</v>
+        <v>1.3512</v>
       </c>
       <c r="F109" t="n">
-        <v>3.93084</v>
+        <v>4.22923</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02889</v>
+        <v>1.07674</v>
       </c>
       <c r="C110" t="n">
-        <v>3.04855</v>
+        <v>3.28383</v>
       </c>
       <c r="D110" t="n">
-        <v>3.06522</v>
+        <v>3.10388</v>
       </c>
       <c r="E110" t="n">
-        <v>1.257</v>
+        <v>1.30574</v>
       </c>
       <c r="F110" t="n">
-        <v>3.87258</v>
+        <v>4.17977</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.00552</v>
+        <v>1.05392</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02731</v>
+        <v>3.26265</v>
       </c>
       <c r="D111" t="n">
-        <v>2.88045</v>
+        <v>3.08779</v>
       </c>
       <c r="E111" t="n">
-        <v>1.26109</v>
+        <v>1.31325</v>
       </c>
       <c r="F111" t="n">
-        <v>3.8092</v>
+        <v>4.09297</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00339</v>
+        <v>1.06261</v>
       </c>
       <c r="C112" t="n">
-        <v>2.98775</v>
+        <v>3.22318</v>
       </c>
       <c r="D112" t="n">
-        <v>2.30107</v>
+        <v>2.66624</v>
       </c>
       <c r="E112" t="n">
-        <v>1.24528</v>
+        <v>1.29361</v>
       </c>
       <c r="F112" t="n">
-        <v>3.72936</v>
+        <v>4.02916</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.975465</v>
+        <v>1.05604</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97051</v>
+        <v>3.18963</v>
       </c>
       <c r="D113" t="n">
-        <v>3.02805</v>
+        <v>2.65217</v>
       </c>
       <c r="E113" t="n">
-        <v>1.20406</v>
+        <v>1.25411</v>
       </c>
       <c r="F113" t="n">
-        <v>3.67292</v>
+        <v>3.97656</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.961341</v>
+        <v>1.02623</v>
       </c>
       <c r="C114" t="n">
-        <v>2.94061</v>
+        <v>3.19263</v>
       </c>
       <c r="D114" t="n">
-        <v>2.25581</v>
+        <v>2.42869</v>
       </c>
       <c r="E114" t="n">
-        <v>1.18789</v>
+        <v>1.24086</v>
       </c>
       <c r="F114" t="n">
-        <v>3.62089</v>
+        <v>3.91602</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.949274</v>
+        <v>1.03754</v>
       </c>
       <c r="C115" t="n">
-        <v>2.93813</v>
+        <v>3.1714</v>
       </c>
       <c r="D115" t="n">
-        <v>2.44914</v>
+        <v>2.4298</v>
       </c>
       <c r="E115" t="n">
-        <v>1.17347</v>
+        <v>1.22497</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57452</v>
+        <v>3.86337</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.945187</v>
+        <v>1.00608</v>
       </c>
       <c r="C116" t="n">
-        <v>2.90641</v>
+        <v>3.16153</v>
       </c>
       <c r="D116" t="n">
-        <v>2.25323</v>
+        <v>2.41851</v>
       </c>
       <c r="E116" t="n">
-        <v>1.15956</v>
+        <v>1.23266</v>
       </c>
       <c r="F116" t="n">
-        <v>3.51275</v>
+        <v>3.80321</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.947376</v>
+        <v>1.0038</v>
       </c>
       <c r="C117" t="n">
-        <v>2.90525</v>
+        <v>3.13711</v>
       </c>
       <c r="D117" t="n">
-        <v>2.23313</v>
+        <v>2.38384</v>
       </c>
       <c r="E117" t="n">
-        <v>1.11323</v>
+        <v>1.19997</v>
       </c>
       <c r="F117" t="n">
-        <v>3.28712</v>
+        <v>3.77683</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.931339</v>
+        <v>0.996866</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88866</v>
+        <v>3.10679</v>
       </c>
       <c r="D118" t="n">
-        <v>2.23036</v>
+        <v>2.38918</v>
       </c>
       <c r="E118" t="n">
-        <v>1.13398</v>
+        <v>1.18994</v>
       </c>
       <c r="F118" t="n">
-        <v>3.24666</v>
+        <v>3.70692</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.929399</v>
+        <v>0.996924</v>
       </c>
       <c r="C119" t="n">
-        <v>2.86438</v>
+        <v>3.10459</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23657</v>
+        <v>2.39872</v>
       </c>
       <c r="E119" t="n">
-        <v>1.09205</v>
+        <v>1.17886</v>
       </c>
       <c r="F119" t="n">
-        <v>3.19007</v>
+        <v>3.68103</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.918385</v>
+        <v>0.9855120000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>2.8591</v>
+        <v>1.74976</v>
       </c>
       <c r="D120" t="n">
-        <v>2.22206</v>
+        <v>2.39284</v>
       </c>
       <c r="E120" t="n">
-        <v>1.11134</v>
+        <v>1.17028</v>
       </c>
       <c r="F120" t="n">
-        <v>3.14484</v>
+        <v>3.62258</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.920639</v>
+        <v>0.962381</v>
       </c>
       <c r="C121" t="n">
-        <v>2.83346</v>
+        <v>1.73099</v>
       </c>
       <c r="D121" t="n">
-        <v>4.24018</v>
+        <v>3.70826</v>
       </c>
       <c r="E121" t="n">
-        <v>1.07502</v>
+        <v>1.16111</v>
       </c>
       <c r="F121" t="n">
-        <v>3.12219</v>
+        <v>3.57324</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.926361</v>
+        <v>0.98354</v>
       </c>
       <c r="C122" t="n">
-        <v>2.82693</v>
+        <v>3.0775</v>
       </c>
       <c r="D122" t="n">
-        <v>3.80377</v>
+        <v>4.34677</v>
       </c>
       <c r="E122" t="n">
-        <v>1.0977</v>
+        <v>1.12795</v>
       </c>
       <c r="F122" t="n">
-        <v>3.28584</v>
+        <v>3.0994</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.912938</v>
+        <v>0.951721</v>
       </c>
       <c r="C123" t="n">
-        <v>2.83201</v>
+        <v>3.07205</v>
       </c>
       <c r="D123" t="n">
-        <v>4.16714</v>
+        <v>4.52715</v>
       </c>
       <c r="E123" t="n">
-        <v>1.44864</v>
+        <v>1.51447</v>
       </c>
       <c r="F123" t="n">
-        <v>4.65453</v>
+        <v>5.05893</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15697</v>
+        <v>1.21689</v>
       </c>
       <c r="C124" t="n">
-        <v>3.57911</v>
+        <v>3.88843</v>
       </c>
       <c r="D124" t="n">
-        <v>3.51682</v>
+        <v>3.12799</v>
       </c>
       <c r="E124" t="n">
-        <v>1.45589</v>
+        <v>1.52505</v>
       </c>
       <c r="F124" t="n">
-        <v>4.57472</v>
+        <v>4.97719</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.13625</v>
+        <v>1.20471</v>
       </c>
       <c r="C125" t="n">
-        <v>3.54727</v>
+        <v>3.86874</v>
       </c>
       <c r="D125" t="n">
-        <v>3.06736</v>
+        <v>3.3215</v>
       </c>
       <c r="E125" t="n">
-        <v>1.41662</v>
+        <v>1.4856</v>
       </c>
       <c r="F125" t="n">
-        <v>4.4984</v>
+        <v>4.88299</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1056</v>
+        <v>1.20384</v>
       </c>
       <c r="C126" t="n">
-        <v>3.51939</v>
+        <v>3.81731</v>
       </c>
       <c r="D126" t="n">
-        <v>3.4642</v>
+        <v>3.29428</v>
       </c>
       <c r="E126" t="n">
-        <v>1.42604</v>
+        <v>1.49563</v>
       </c>
       <c r="F126" t="n">
-        <v>4.42045</v>
+        <v>4.80717</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10409</v>
+        <v>1.19613</v>
       </c>
       <c r="C127" t="n">
-        <v>3.48676</v>
+        <v>3.79082</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81101</v>
+        <v>3.26332</v>
       </c>
       <c r="E127" t="n">
-        <v>1.38955</v>
+        <v>1.46089</v>
       </c>
       <c r="F127" t="n">
-        <v>4.34877</v>
+        <v>4.73196</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.09323</v>
+        <v>1.16713</v>
       </c>
       <c r="C128" t="n">
-        <v>3.46079</v>
+        <v>3.7722</v>
       </c>
       <c r="D128" t="n">
-        <v>2.7823</v>
+        <v>3.72056</v>
       </c>
       <c r="E128" t="n">
-        <v>1.37829</v>
+        <v>1.44978</v>
       </c>
       <c r="F128" t="n">
-        <v>4.28142</v>
+        <v>4.65658</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10124</v>
+        <v>1.18209</v>
       </c>
       <c r="C129" t="n">
-        <v>3.43297</v>
+        <v>3.73366</v>
       </c>
       <c r="D129" t="n">
-        <v>2.74442</v>
+        <v>2.96127</v>
       </c>
       <c r="E129" t="n">
-        <v>1.32978</v>
+        <v>1.43998</v>
       </c>
       <c r="F129" t="n">
-        <v>3.78321</v>
+        <v>4.59762</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07337</v>
+        <v>1.1683</v>
       </c>
       <c r="C130" t="n">
-        <v>3.41348</v>
+        <v>3.7105</v>
       </c>
       <c r="D130" t="n">
-        <v>2.73316</v>
+        <v>2.9573</v>
       </c>
       <c r="E130" t="n">
-        <v>1.35554</v>
+        <v>1.43069</v>
       </c>
       <c r="F130" t="n">
-        <v>4.16213</v>
+        <v>4.04551</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03717</v>
+        <v>1.1424</v>
       </c>
       <c r="C131" t="n">
-        <v>3.39485</v>
+        <v>3.69866</v>
       </c>
       <c r="D131" t="n">
-        <v>2.72085</v>
+        <v>2.94167</v>
       </c>
       <c r="E131" t="n">
-        <v>1.34476</v>
+        <v>1.38749</v>
       </c>
       <c r="F131" t="n">
-        <v>4.08864</v>
+        <v>3.9855</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.05735</v>
+        <v>1.1477</v>
       </c>
       <c r="C132" t="n">
-        <v>3.36983</v>
+        <v>3.68119</v>
       </c>
       <c r="D132" t="n">
-        <v>2.70344</v>
+        <v>2.94268</v>
       </c>
       <c r="E132" t="n">
-        <v>1.33711</v>
+        <v>1.38106</v>
       </c>
       <c r="F132" t="n">
-        <v>3.6096</v>
+        <v>4.41564</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05662</v>
+        <v>1.13839</v>
       </c>
       <c r="C133" t="n">
-        <v>3.36112</v>
+        <v>3.65894</v>
       </c>
       <c r="D133" t="n">
-        <v>2.69467</v>
+        <v>2.91431</v>
       </c>
       <c r="E133" t="n">
-        <v>1.29807</v>
+        <v>1.40774</v>
       </c>
       <c r="F133" t="n">
-        <v>3.9857</v>
+        <v>4.34093</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05384</v>
+        <v>1.14979</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32661</v>
+        <v>3.63234</v>
       </c>
       <c r="D134" t="n">
-        <v>2.69514</v>
+        <v>2.92155</v>
       </c>
       <c r="E134" t="n">
-        <v>1.29246</v>
+        <v>1.40213</v>
       </c>
       <c r="F134" t="n">
-        <v>3.94679</v>
+        <v>4.30423</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06927</v>
+        <v>1.12725</v>
       </c>
       <c r="C135" t="n">
-        <v>3.32325</v>
+        <v>3.60703</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85127</v>
+        <v>5.29382</v>
       </c>
       <c r="E135" t="n">
-        <v>1.28822</v>
+        <v>1.39684</v>
       </c>
       <c r="F135" t="n">
-        <v>3.90573</v>
+        <v>4.02256</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04992</v>
+        <v>1.13558</v>
       </c>
       <c r="C136" t="n">
-        <v>3.30778</v>
+        <v>3.61373</v>
       </c>
       <c r="D136" t="n">
-        <v>4.34357</v>
+        <v>4.74684</v>
       </c>
       <c r="E136" t="n">
-        <v>1.28191</v>
+        <v>1.39217</v>
       </c>
       <c r="F136" t="n">
-        <v>3.43137</v>
+        <v>3.9563</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04862</v>
+        <v>1.13188</v>
       </c>
       <c r="C137" t="n">
-        <v>3.30215</v>
+        <v>2.11942</v>
       </c>
       <c r="D137" t="n">
-        <v>4.29461</v>
+        <v>4.67584</v>
       </c>
       <c r="E137" t="n">
-        <v>1.65741</v>
+        <v>1.77656</v>
       </c>
       <c r="F137" t="n">
-        <v>5.29855</v>
+        <v>5.77272</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28504</v>
+        <v>1.35831</v>
       </c>
       <c r="C138" t="n">
-        <v>4.07032</v>
+        <v>4.43831</v>
       </c>
       <c r="D138" t="n">
-        <v>4.02419</v>
+        <v>4.86836</v>
       </c>
       <c r="E138" t="n">
-        <v>1.64541</v>
+        <v>1.73764</v>
       </c>
       <c r="F138" t="n">
-        <v>5.19646</v>
+        <v>5.68193</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26873</v>
+        <v>1.34877</v>
       </c>
       <c r="C139" t="n">
-        <v>4.02959</v>
+        <v>4.40261</v>
       </c>
       <c r="D139" t="n">
-        <v>3.75198</v>
+        <v>4.58745</v>
       </c>
       <c r="E139" t="n">
-        <v>1.65581</v>
+        <v>1.7266</v>
       </c>
       <c r="F139" t="n">
-        <v>5.09725</v>
+        <v>5.58021</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25002</v>
+        <v>1.35632</v>
       </c>
       <c r="C140" t="n">
-        <v>3.98932</v>
+        <v>4.35474</v>
       </c>
       <c r="D140" t="n">
-        <v>3.48924</v>
+        <v>4.29517</v>
       </c>
       <c r="E140" t="n">
-        <v>1.61943</v>
+        <v>1.73759</v>
       </c>
       <c r="F140" t="n">
-        <v>5.00464</v>
+        <v>5.46365</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.2375</v>
+        <v>1.34435</v>
       </c>
       <c r="C141" t="n">
-        <v>3.93691</v>
+        <v>4.29993</v>
       </c>
       <c r="D141" t="n">
-        <v>3.2221</v>
+        <v>3.5035</v>
       </c>
       <c r="E141" t="n">
-        <v>1.6088</v>
+        <v>1.70549</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92283</v>
+        <v>5.3913</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24495</v>
+        <v>1.33406</v>
       </c>
       <c r="C142" t="n">
-        <v>3.90581</v>
+        <v>4.2775</v>
       </c>
       <c r="D142" t="n">
-        <v>3.17387</v>
+        <v>3.44414</v>
       </c>
       <c r="E142" t="n">
-        <v>1.59622</v>
+        <v>1.69713</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82693</v>
+        <v>5.29197</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24022</v>
+        <v>1.34001</v>
       </c>
       <c r="C143" t="n">
-        <v>3.85529</v>
+        <v>4.22754</v>
       </c>
       <c r="D143" t="n">
-        <v>3.13971</v>
+        <v>3.41622</v>
       </c>
       <c r="E143" t="n">
-        <v>1.58838</v>
+        <v>1.68763</v>
       </c>
       <c r="F143" t="n">
-        <v>4.75948</v>
+        <v>5.19415</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466875</v>
+        <v>0.465736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.711019</v>
+        <v>0.711578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810744</v>
+        <v>0.812434</v>
       </c>
       <c r="E2" t="n">
-        <v>0.642653</v>
+        <v>0.644217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973625</v>
+        <v>0.969781</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.450211</v>
+        <v>0.450068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.697373</v>
+        <v>0.701512</v>
       </c>
       <c r="D3" t="n">
-        <v>0.802532</v>
+        <v>0.802322</v>
       </c>
       <c r="E3" t="n">
-        <v>0.624958</v>
+        <v>0.626147</v>
       </c>
       <c r="F3" t="n">
-        <v>0.952912</v>
+        <v>0.945591</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.438656</v>
+        <v>0.440347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.692729</v>
+        <v>0.692544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.795651</v>
+        <v>0.794787</v>
       </c>
       <c r="E4" t="n">
-        <v>0.608899</v>
+        <v>0.609998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9338689999999999</v>
+        <v>0.926413</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.381217</v>
+        <v>0.435106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.683532</v>
+        <v>0.684508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787784</v>
+        <v>0.788061</v>
       </c>
       <c r="E5" t="n">
-        <v>0.593384</v>
+        <v>0.594629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.916534</v>
+        <v>0.909343</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.376887</v>
+        <v>0.427145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.677082</v>
+        <v>0.6759770000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.781091</v>
+        <v>0.804773</v>
       </c>
       <c r="E6" t="n">
-        <v>0.579938</v>
+        <v>0.580411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.900143</v>
+        <v>0.894143</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.416238</v>
+        <v>0.421495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.670063</v>
+        <v>0.669605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.871704</v>
+        <v>0.87557</v>
       </c>
       <c r="E7" t="n">
-        <v>0.567545</v>
+        <v>0.568313</v>
       </c>
       <c r="F7" t="n">
-        <v>0.886543</v>
+        <v>0.879837</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.413496</v>
+        <v>0.417328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667301</v>
+        <v>0.666419</v>
       </c>
       <c r="D8" t="n">
-        <v>0.857899</v>
+        <v>0.857468</v>
       </c>
       <c r="E8" t="n">
-        <v>0.559214</v>
+        <v>0.559546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.875668</v>
+        <v>0.868285</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.413518</v>
+        <v>0.417395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.667324</v>
+        <v>0.6676800000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.842046</v>
+        <v>0.841258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.87039</v>
+        <v>0.87475</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20229</v>
+        <v>1.19165</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.555543</v>
+        <v>0.557951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8105830000000001</v>
+        <v>0.808267</v>
       </c>
       <c r="D10" t="n">
-        <v>0.830094</v>
+        <v>0.830051</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8418909999999999</v>
+        <v>0.845893</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16859</v>
+        <v>1.16101</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535516</v>
+        <v>0.537903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.795443</v>
+        <v>0.793068</v>
       </c>
       <c r="D11" t="n">
-        <v>0.816138</v>
+        <v>0.814487</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8158069999999999</v>
+        <v>0.818638</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14074</v>
+        <v>1.13221</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.518923</v>
+        <v>0.519801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.78093</v>
+        <v>0.777301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.802006</v>
+        <v>0.800832</v>
       </c>
       <c r="E12" t="n">
-        <v>0.828171</v>
+        <v>0.791821</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11372</v>
+        <v>1.10438</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.509773</v>
+        <v>0.507039</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7678160000000001</v>
+        <v>0.763635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.787436</v>
+        <v>0.788152</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8018110000000001</v>
+        <v>0.768204</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08536</v>
+        <v>1.07757</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.489818</v>
+        <v>0.495123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.752566</v>
+        <v>0.750072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.787252</v>
+        <v>0.784967</v>
       </c>
       <c r="E14" t="n">
-        <v>0.742218</v>
+        <v>0.744251</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05988</v>
+        <v>1.05275</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.480825</v>
+        <v>0.477481</v>
       </c>
       <c r="C15" t="n">
-        <v>0.739394</v>
+        <v>0.742296</v>
       </c>
       <c r="D15" t="n">
-        <v>0.778321</v>
+        <v>0.777358</v>
       </c>
       <c r="E15" t="n">
-        <v>0.72023</v>
+        <v>0.722333</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03572</v>
+        <v>1.02773</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.465953</v>
+        <v>0.47035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7279139999999999</v>
+        <v>0.725627</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7661</v>
+        <v>0.766508</v>
       </c>
       <c r="E16" t="n">
-        <v>0.69998</v>
+        <v>0.701475</v>
       </c>
       <c r="F16" t="n">
-        <v>1.01149</v>
+        <v>1.00402</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455689</v>
+        <v>0.45397</v>
       </c>
       <c r="C17" t="n">
-        <v>0.716915</v>
+        <v>0.712967</v>
       </c>
       <c r="D17" t="n">
-        <v>0.757387</v>
+        <v>0.756397</v>
       </c>
       <c r="E17" t="n">
-        <v>0.680359</v>
+        <v>0.681785</v>
       </c>
       <c r="F17" t="n">
-        <v>1.01745</v>
+        <v>1.01068</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.447007</v>
+        <v>0.443813</v>
       </c>
       <c r="C18" t="n">
-        <v>0.707402</v>
+        <v>0.720396</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753829</v>
+        <v>0.748934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.662517</v>
+        <v>0.663563</v>
       </c>
       <c r="F18" t="n">
-        <v>1.00213</v>
+        <v>0.99039</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439127</v>
+        <v>0.435574</v>
       </c>
       <c r="C19" t="n">
-        <v>0.700253</v>
+        <v>0.710143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.749427</v>
+        <v>0.741244</v>
       </c>
       <c r="E19" t="n">
-        <v>0.646454</v>
+        <v>0.6471440000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.98166</v>
+        <v>0.972329</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.42796</v>
+        <v>0.427738</v>
       </c>
       <c r="C20" t="n">
-        <v>0.692913</v>
+        <v>0.702727</v>
       </c>
       <c r="D20" t="n">
-        <v>0.737354</v>
+        <v>0.733387</v>
       </c>
       <c r="E20" t="n">
-        <v>0.631644</v>
+        <v>0.632162</v>
       </c>
       <c r="F20" t="n">
-        <v>0.961635</v>
+        <v>0.955596</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.422173</v>
+        <v>0.423075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6862239999999999</v>
+        <v>0.696981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.952913</v>
+        <v>0.950589</v>
       </c>
       <c r="E21" t="n">
-        <v>0.61912</v>
+        <v>0.620905</v>
       </c>
       <c r="F21" t="n">
-        <v>0.956945</v>
+        <v>0.947211</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416702</v>
+        <v>0.417406</v>
       </c>
       <c r="C22" t="n">
-        <v>0.70392</v>
+        <v>0.705951</v>
       </c>
       <c r="D22" t="n">
-        <v>0.933845</v>
+        <v>0.932041</v>
       </c>
       <c r="E22" t="n">
-        <v>0.608986</v>
+        <v>0.609951</v>
       </c>
       <c r="F22" t="n">
-        <v>0.941199</v>
+        <v>0.934965</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.416603</v>
+        <v>0.417199</v>
       </c>
       <c r="C23" t="n">
-        <v>0.704105</v>
+        <v>0.705281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.917483</v>
+        <v>0.914434</v>
       </c>
       <c r="E23" t="n">
-        <v>0.931516</v>
+        <v>0.935405</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27169</v>
+        <v>1.26354</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.572619</v>
+        <v>0.571075</v>
       </c>
       <c r="C24" t="n">
-        <v>0.84695</v>
+        <v>0.850353</v>
       </c>
       <c r="D24" t="n">
-        <v>0.896729</v>
+        <v>0.896868</v>
       </c>
       <c r="E24" t="n">
-        <v>0.901724</v>
+        <v>0.905259</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23787</v>
+        <v>1.23337</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.556611</v>
+        <v>0.555057</v>
       </c>
       <c r="C25" t="n">
-        <v>0.831257</v>
+        <v>0.8337909999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.884736</v>
+        <v>0.883035</v>
       </c>
       <c r="E25" t="n">
-        <v>0.871977</v>
+        <v>0.875162</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20569</v>
+        <v>1.19765</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539838</v>
+        <v>0.539524</v>
       </c>
       <c r="C26" t="n">
-        <v>0.815553</v>
+        <v>0.818303</v>
       </c>
       <c r="D26" t="n">
-        <v>0.867988</v>
+        <v>0.86744</v>
       </c>
       <c r="E26" t="n">
-        <v>0.843958</v>
+        <v>0.847457</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18193</v>
+        <v>1.1742</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.522541</v>
+        <v>0.5520080000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.800988</v>
+        <v>0.8034829999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.854087</v>
+        <v>0.853128</v>
       </c>
       <c r="E27" t="n">
-        <v>0.81738</v>
+        <v>0.818684</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15401</v>
+        <v>1.14575</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.535045</v>
+        <v>0.536006</v>
       </c>
       <c r="C28" t="n">
-        <v>0.786102</v>
+        <v>0.789411</v>
       </c>
       <c r="D28" t="n">
-        <v>0.842455</v>
+        <v>0.84105</v>
       </c>
       <c r="E28" t="n">
-        <v>0.791501</v>
+        <v>0.794083</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12442</v>
+        <v>1.12008</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.520833</v>
+        <v>0.521115</v>
       </c>
       <c r="C29" t="n">
-        <v>0.771541</v>
+        <v>0.77504</v>
       </c>
       <c r="D29" t="n">
-        <v>0.836185</v>
+        <v>0.834925</v>
       </c>
       <c r="E29" t="n">
-        <v>0.767684</v>
+        <v>0.770315</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10242</v>
+        <v>1.09676</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.509894</v>
+        <v>0.508681</v>
       </c>
       <c r="C30" t="n">
-        <v>0.761458</v>
+        <v>0.759412</v>
       </c>
       <c r="D30" t="n">
-        <v>0.826815</v>
+        <v>0.824958</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7449210000000001</v>
+        <v>0.747213</v>
       </c>
       <c r="F30" t="n">
-        <v>1.08475</v>
+        <v>1.07243</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494531</v>
+        <v>0.49331</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7457859999999999</v>
+        <v>0.749695</v>
       </c>
       <c r="D31" t="n">
-        <v>0.816229</v>
+        <v>0.814936</v>
       </c>
       <c r="E31" t="n">
-        <v>0.72348</v>
+        <v>0.726178</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05767</v>
+        <v>1.04914</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482814</v>
+        <v>0.482493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.755199</v>
+        <v>0.759923</v>
       </c>
       <c r="D32" t="n">
-        <v>0.810392</v>
+        <v>0.808708</v>
       </c>
       <c r="E32" t="n">
-        <v>0.703541</v>
+        <v>0.706253</v>
       </c>
       <c r="F32" t="n">
-        <v>1.03215</v>
+        <v>1.02519</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472315</v>
+        <v>0.472862</v>
       </c>
       <c r="C33" t="n">
-        <v>0.746414</v>
+        <v>0.747552</v>
       </c>
       <c r="D33" t="n">
-        <v>0.802171</v>
+        <v>0.799662</v>
       </c>
       <c r="E33" t="n">
-        <v>0.685296</v>
+        <v>0.68718</v>
       </c>
       <c r="F33" t="n">
-        <v>1.00989</v>
+        <v>1.00464</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.462719</v>
+        <v>0.444912</v>
       </c>
       <c r="C34" t="n">
-        <v>0.739011</v>
+        <v>0.740414</v>
       </c>
       <c r="D34" t="n">
-        <v>0.794813</v>
+        <v>0.791457</v>
       </c>
       <c r="E34" t="n">
-        <v>0.667847</v>
+        <v>0.670446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.99121</v>
+        <v>0.984438</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455258</v>
+        <v>0.455803</v>
       </c>
       <c r="C35" t="n">
-        <v>0.733841</v>
+        <v>0.734363</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03469</v>
+        <v>1.02802</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6328819999999999</v>
+        <v>0.654527</v>
       </c>
       <c r="F35" t="n">
-        <v>0.975059</v>
+        <v>0.9670840000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.428786</v>
+        <v>0.44892</v>
       </c>
       <c r="C36" t="n">
-        <v>0.729541</v>
+        <v>0.730361</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01806</v>
+        <v>1.00964</v>
       </c>
       <c r="E36" t="n">
-        <v>0.640213</v>
+        <v>0.623517</v>
       </c>
       <c r="F36" t="n">
-        <v>0.958457</v>
+        <v>0.952321</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.428268</v>
+        <v>0.428003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.727696</v>
+        <v>0.729102</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9990059999999999</v>
+        <v>0.995255</v>
       </c>
       <c r="E37" t="n">
-        <v>0.950037</v>
+        <v>0.971127</v>
       </c>
       <c r="F37" t="n">
-        <v>1.56129</v>
+        <v>1.55432</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.639617</v>
+        <v>0.619568</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10274</v>
+        <v>1.10187</v>
       </c>
       <c r="D38" t="n">
-        <v>0.971155</v>
+        <v>0.9726</v>
       </c>
       <c r="E38" t="n">
-        <v>0.91947</v>
+        <v>0.921601</v>
       </c>
       <c r="F38" t="n">
-        <v>1.52793</v>
+        <v>1.51936</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.620961</v>
+        <v>0.602963</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08628</v>
+        <v>1.08435</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9571539999999999</v>
+        <v>0.955766</v>
       </c>
       <c r="E39" t="n">
-        <v>0.889886</v>
+        <v>0.8918700000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49037</v>
+        <v>1.48469</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602272</v>
+        <v>0.60216</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07017</v>
+        <v>1.07032</v>
       </c>
       <c r="D40" t="n">
-        <v>0.941611</v>
+        <v>0.938742</v>
       </c>
       <c r="E40" t="n">
-        <v>0.861921</v>
+        <v>0.863367</v>
       </c>
       <c r="F40" t="n">
-        <v>1.45722</v>
+        <v>1.45182</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.570676</v>
+        <v>0.568204</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05471</v>
+        <v>1.05368</v>
       </c>
       <c r="D41" t="n">
-        <v>0.926051</v>
+        <v>0.92303</v>
       </c>
       <c r="E41" t="n">
-        <v>0.834463</v>
+        <v>0.837663</v>
       </c>
       <c r="F41" t="n">
-        <v>1.42614</v>
+        <v>1.42029</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.553269</v>
+        <v>0.553653</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04096</v>
+        <v>1.03914</v>
       </c>
       <c r="D42" t="n">
-        <v>0.912654</v>
+        <v>0.908542</v>
       </c>
       <c r="E42" t="n">
-        <v>0.809142</v>
+        <v>0.8116449999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>1.39738</v>
+        <v>1.39024</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.537146</v>
+        <v>0.55161</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02883</v>
+        <v>1.0255</v>
       </c>
       <c r="D43" t="n">
-        <v>0.899748</v>
+        <v>0.895388</v>
       </c>
       <c r="E43" t="n">
-        <v>0.784641</v>
+        <v>0.787152</v>
       </c>
       <c r="F43" t="n">
-        <v>1.36825</v>
+        <v>1.36258</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.537473</v>
+        <v>0.524084</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01494</v>
+        <v>1.0134</v>
       </c>
       <c r="D44" t="n">
-        <v>0.886807</v>
+        <v>0.883375</v>
       </c>
       <c r="E44" t="n">
-        <v>0.76196</v>
+        <v>0.762853</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34233</v>
+        <v>1.33611</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.523554</v>
+        <v>0.509373</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00204</v>
+        <v>1.00162</v>
       </c>
       <c r="D45" t="n">
-        <v>0.88015</v>
+        <v>0.876284</v>
       </c>
       <c r="E45" t="n">
-        <v>0.740004</v>
+        <v>0.742996</v>
       </c>
       <c r="F45" t="n">
-        <v>1.31994</v>
+        <v>1.31132</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498854</v>
+        <v>0.498527</v>
       </c>
       <c r="C46" t="n">
-        <v>0.99063</v>
+        <v>0.990281</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8689829999999999</v>
+        <v>0.86612</v>
       </c>
       <c r="E46" t="n">
-        <v>0.719807</v>
+        <v>0.721128</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29491</v>
+        <v>1.28863</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.498616</v>
+        <v>0.487027</v>
       </c>
       <c r="C47" t="n">
-        <v>0.983176</v>
+        <v>0.981519</v>
       </c>
       <c r="D47" t="n">
-        <v>0.862407</v>
+        <v>0.859201</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7015980000000001</v>
+        <v>0.703345</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27186</v>
+        <v>1.26631</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.477264</v>
+        <v>0.476469</v>
       </c>
       <c r="C48" t="n">
-        <v>0.973153</v>
+        <v>0.9724159999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.855306</v>
+        <v>0.853055</v>
       </c>
       <c r="E48" t="n">
-        <v>0.662173</v>
+        <v>0.66315</v>
       </c>
       <c r="F48" t="n">
-        <v>1.25169</v>
+        <v>1.24679</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.469729</v>
+        <v>0.469629</v>
       </c>
       <c r="C49" t="n">
-        <v>0.965788</v>
+        <v>0.964843</v>
       </c>
       <c r="D49" t="n">
-        <v>0.849178</v>
+        <v>0.847142</v>
       </c>
       <c r="E49" t="n">
-        <v>0.667746</v>
+        <v>0.6688730000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23228</v>
+        <v>1.22821</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.463254</v>
+        <v>0.463402</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9581460000000001</v>
+        <v>0.956634</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08099</v>
+        <v>1.07805</v>
       </c>
       <c r="E50" t="n">
-        <v>0.655041</v>
+        <v>0.635444</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21726</v>
+        <v>1.2113</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.459163</v>
+        <v>0.459332</v>
       </c>
       <c r="C51" t="n">
-        <v>0.954467</v>
+        <v>0.953317</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0601</v>
+        <v>1.05602</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9819870000000001</v>
+        <v>0.98119</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64233</v>
+        <v>1.63381</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4591</v>
+        <v>0.458152</v>
       </c>
       <c r="C52" t="n">
-        <v>0.952557</v>
+        <v>0.951583</v>
       </c>
       <c r="D52" t="n">
-        <v>1.03864</v>
+        <v>1.03527</v>
       </c>
       <c r="E52" t="n">
-        <v>0.951869</v>
+        <v>0.964355</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60187</v>
+        <v>1.59721</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.650567</v>
+        <v>0.64645</v>
       </c>
       <c r="C53" t="n">
-        <v>1.13877</v>
+        <v>1.13697</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01804</v>
+        <v>1.01739</v>
       </c>
       <c r="E53" t="n">
-        <v>0.933345</v>
+        <v>0.934086</v>
       </c>
       <c r="F53" t="n">
-        <v>1.56989</v>
+        <v>1.55923</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.618482</v>
+        <v>0.6147550000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12236</v>
+        <v>1.12219</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00207</v>
+        <v>0.999756</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8928970000000001</v>
+        <v>0.905766</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53732</v>
+        <v>1.52588</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.60036</v>
+        <v>0.597243</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10597</v>
+        <v>1.10726</v>
       </c>
       <c r="D55" t="n">
-        <v>0.985015</v>
+        <v>0.98255</v>
       </c>
       <c r="E55" t="n">
-        <v>0.866069</v>
+        <v>0.865544</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50493</v>
+        <v>1.49369</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.585066</v>
+        <v>0.581932</v>
       </c>
       <c r="C56" t="n">
-        <v>1.09029</v>
+        <v>1.08989</v>
       </c>
       <c r="D56" t="n">
-        <v>0.969185</v>
+        <v>0.967154</v>
       </c>
       <c r="E56" t="n">
-        <v>0.839448</v>
+        <v>0.840889</v>
       </c>
       <c r="F56" t="n">
-        <v>1.47052</v>
+        <v>1.4629</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.579202</v>
+        <v>0.567213</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07708</v>
+        <v>1.07699</v>
       </c>
       <c r="D57" t="n">
-        <v>0.954871</v>
+        <v>0.952213</v>
       </c>
       <c r="E57" t="n">
-        <v>0.815277</v>
+        <v>0.817543</v>
       </c>
       <c r="F57" t="n">
-        <v>1.43709</v>
+        <v>1.43224</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.554755</v>
+        <v>0.554764</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06364</v>
+        <v>1.06439</v>
       </c>
       <c r="D58" t="n">
-        <v>0.942614</v>
+        <v>0.9415519999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7921240000000001</v>
+        <v>0.794154</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41347</v>
+        <v>1.40451</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.545892</v>
+        <v>0.540542</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05131</v>
+        <v>1.05069</v>
       </c>
       <c r="D59" t="n">
-        <v>0.926073</v>
+        <v>0.921829</v>
       </c>
       <c r="E59" t="n">
-        <v>0.741159</v>
+        <v>0.745012</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38594</v>
+        <v>1.37856</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532352</v>
+        <v>0.536859</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03951</v>
+        <v>1.03975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.914644</v>
+        <v>0.912202</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7511640000000001</v>
+        <v>0.752201</v>
       </c>
       <c r="F60" t="n">
-        <v>1.36164</v>
+        <v>1.3528</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.519344</v>
+        <v>0.51553</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02849</v>
+        <v>1.02957</v>
       </c>
       <c r="D61" t="n">
-        <v>0.904751</v>
+        <v>0.9033639999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.704884</v>
+        <v>0.707611</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33568</v>
+        <v>1.32877</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.511548</v>
+        <v>0.507265</v>
       </c>
       <c r="C62" t="n">
-        <v>1.01969</v>
+        <v>1.02002</v>
       </c>
       <c r="D62" t="n">
-        <v>0.896444</v>
+        <v>0.893546</v>
       </c>
       <c r="E62" t="n">
-        <v>0.687922</v>
+        <v>0.691277</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31458</v>
+        <v>1.30728</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.503428</v>
+        <v>0.498188</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01248</v>
+        <v>1.01298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.887907</v>
+        <v>0.886168</v>
       </c>
       <c r="E63" t="n">
-        <v>0.673285</v>
+        <v>0.676581</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29409</v>
+        <v>1.28787</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.470972</v>
+        <v>0.491239</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0056</v>
+        <v>1.0072</v>
       </c>
       <c r="D64" t="n">
-        <v>1.15906</v>
+        <v>1.15468</v>
       </c>
       <c r="E64" t="n">
-        <v>0.683446</v>
+        <v>0.684535</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27575</v>
+        <v>1.26833</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.468944</v>
+        <v>0.485554</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00373</v>
+        <v>1.00027</v>
       </c>
       <c r="D65" t="n">
-        <v>1.1358</v>
+        <v>1.12675</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6747030000000001</v>
+        <v>0.673781</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26049</v>
+        <v>1.25333</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.487907</v>
+        <v>0.483559</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00073</v>
+        <v>0.999652</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10713</v>
+        <v>1.09978</v>
       </c>
       <c r="E66" t="n">
-        <v>1.03928</v>
+        <v>1.0198</v>
       </c>
       <c r="F66" t="n">
-        <v>1.69</v>
+        <v>1.6707</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.735293</v>
+        <v>0.701639</v>
       </c>
       <c r="C67" t="n">
-        <v>1.21291</v>
+        <v>1.20462</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07869</v>
+        <v>1.07281</v>
       </c>
       <c r="E67" t="n">
-        <v>1.00327</v>
+        <v>0.991231</v>
       </c>
       <c r="F67" t="n">
-        <v>1.65299</v>
+        <v>1.63499</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.714174</v>
+        <v>0.690142</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19882</v>
+        <v>1.18383</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06007</v>
+        <v>1.0537</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9820410000000001</v>
+        <v>0.964087</v>
       </c>
       <c r="F68" t="n">
-        <v>1.61639</v>
+        <v>1.60096</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.69434</v>
+        <v>0.672175</v>
       </c>
       <c r="C69" t="n">
-        <v>1.18389</v>
+        <v>1.17278</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04185</v>
+        <v>1.03779</v>
       </c>
       <c r="E69" t="n">
-        <v>0.950427</v>
+        <v>0.924701</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58727</v>
+        <v>1.56439</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.688137</v>
+        <v>0.650219</v>
       </c>
       <c r="C70" t="n">
-        <v>1.17128</v>
+        <v>1.16206</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03081</v>
+        <v>1.02605</v>
       </c>
       <c r="E70" t="n">
-        <v>0.927708</v>
+        <v>0.904031</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55784</v>
+        <v>1.54366</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.665571</v>
+        <v>0.649749</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15826</v>
+        <v>1.15813</v>
       </c>
       <c r="D71" t="n">
-        <v>0.998291</v>
+        <v>0.9980869999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.897049</v>
+        <v>0.877995</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52612</v>
+        <v>1.52452</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.658806</v>
+        <v>0.640058</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14621</v>
+        <v>1.14852</v>
       </c>
       <c r="D72" t="n">
-        <v>0.990165</v>
+        <v>0.988053</v>
       </c>
       <c r="E72" t="n">
-        <v>0.873895</v>
+        <v>0.8538829999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50159</v>
+        <v>1.48597</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.639312</v>
+        <v>0.620714</v>
       </c>
       <c r="C73" t="n">
-        <v>1.1415</v>
+        <v>1.13209</v>
       </c>
       <c r="D73" t="n">
-        <v>0.980618</v>
+        <v>0.9786859999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.850533</v>
+        <v>0.828593</v>
       </c>
       <c r="F73" t="n">
-        <v>1.47994</v>
+        <v>1.46781</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.630624</v>
+        <v>0.601799</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13347</v>
+        <v>1.13006</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9666090000000001</v>
+        <v>0.965154</v>
       </c>
       <c r="E74" t="n">
-        <v>0.826886</v>
+        <v>0.776313</v>
       </c>
       <c r="F74" t="n">
-        <v>1.46241</v>
+        <v>1.44639</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.613003</v>
+        <v>0.595409</v>
       </c>
       <c r="C75" t="n">
-        <v>1.1295</v>
+        <v>1.12107</v>
       </c>
       <c r="D75" t="n">
-        <v>0.962663</v>
+        <v>0.961341</v>
       </c>
       <c r="E75" t="n">
-        <v>0.806751</v>
+        <v>0.756754</v>
       </c>
       <c r="F75" t="n">
-        <v>1.44115</v>
+        <v>1.43198</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.611518</v>
+        <v>0.579171</v>
       </c>
       <c r="C76" t="n">
-        <v>1.12695</v>
+        <v>1.1225</v>
       </c>
       <c r="D76" t="n">
-        <v>0.95741</v>
+        <v>0.957461</v>
       </c>
       <c r="E76" t="n">
-        <v>0.758988</v>
+        <v>0.7678779999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1.42236</v>
+        <v>1.41106</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.587921</v>
+        <v>0.572337</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13323</v>
+        <v>1.12285</v>
       </c>
       <c r="D77" t="n">
-        <v>0.947098</v>
+        <v>0.947839</v>
       </c>
       <c r="E77" t="n">
-        <v>0.768432</v>
+        <v>0.750896</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41647</v>
+        <v>1.41122</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.578041</v>
+        <v>0.566765</v>
       </c>
       <c r="C78" t="n">
-        <v>1.14203</v>
+        <v>1.13659</v>
       </c>
       <c r="D78" t="n">
-        <v>1.43624</v>
+        <v>1.39486</v>
       </c>
       <c r="E78" t="n">
-        <v>0.753174</v>
+        <v>0.708573</v>
       </c>
       <c r="F78" t="n">
-        <v>1.41395</v>
+        <v>1.39744</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.578321</v>
+        <v>0.559032</v>
       </c>
       <c r="C79" t="n">
-        <v>1.16212</v>
+        <v>1.09134</v>
       </c>
       <c r="D79" t="n">
-        <v>1.40591</v>
+        <v>1.36475</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7394230000000001</v>
+        <v>0.700237</v>
       </c>
       <c r="F79" t="n">
-        <v>1.42647</v>
+        <v>1.38877</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.568371</v>
+        <v>0.555453</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17947</v>
+        <v>0.960875</v>
       </c>
       <c r="D80" t="n">
-        <v>1.37714</v>
+        <v>1.33932</v>
       </c>
       <c r="E80" t="n">
-        <v>1.10664</v>
+        <v>1.07656</v>
       </c>
       <c r="F80" t="n">
-        <v>2.17239</v>
+        <v>2.09747</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.804187</v>
+        <v>0.784735</v>
       </c>
       <c r="C81" t="n">
-        <v>1.6749</v>
+        <v>1.61677</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34151</v>
+        <v>1.30679</v>
       </c>
       <c r="E81" t="n">
-        <v>1.08924</v>
+        <v>1.05721</v>
       </c>
       <c r="F81" t="n">
-        <v>2.17244</v>
+        <v>2.09168</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7958809999999999</v>
+        <v>0.777178</v>
       </c>
       <c r="C82" t="n">
-        <v>1.69583</v>
+        <v>1.62573</v>
       </c>
       <c r="D82" t="n">
-        <v>1.32045</v>
+        <v>1.28938</v>
       </c>
       <c r="E82" t="n">
-        <v>1.06865</v>
+        <v>1.05103</v>
       </c>
       <c r="F82" t="n">
-        <v>2.1548</v>
+        <v>2.07485</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.793432</v>
+        <v>0.762476</v>
       </c>
       <c r="C83" t="n">
-        <v>1.70604</v>
+        <v>1.6355</v>
       </c>
       <c r="D83" t="n">
-        <v>1.30515</v>
+        <v>1.27649</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05728</v>
+        <v>1.02967</v>
       </c>
       <c r="F83" t="n">
-        <v>2.13019</v>
+        <v>2.05096</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.788245</v>
+        <v>0.762815</v>
       </c>
       <c r="C84" t="n">
-        <v>1.7167</v>
+        <v>1.64055</v>
       </c>
       <c r="D84" t="n">
-        <v>1.29275</v>
+        <v>1.26257</v>
       </c>
       <c r="E84" t="n">
-        <v>1.03357</v>
+        <v>1.00254</v>
       </c>
       <c r="F84" t="n">
-        <v>2.10848</v>
+        <v>2.03459</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.787418</v>
+        <v>0.74752</v>
       </c>
       <c r="C85" t="n">
-        <v>1.71553</v>
+        <v>1.627</v>
       </c>
       <c r="D85" t="n">
-        <v>1.25359</v>
+        <v>1.2269</v>
       </c>
       <c r="E85" t="n">
-        <v>0.998532</v>
+        <v>0.960809</v>
       </c>
       <c r="F85" t="n">
-        <v>2.0993</v>
+        <v>2.01867</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.767828</v>
+        <v>0.739762</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7319</v>
+        <v>1.63934</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25036</v>
+        <v>1.22343</v>
       </c>
       <c r="E86" t="n">
-        <v>0.972888</v>
+        <v>0.9408029999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>2.08318</v>
+        <v>2.00555</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.762691</v>
+        <v>0.720743</v>
       </c>
       <c r="C87" t="n">
-        <v>1.73354</v>
+        <v>1.64916</v>
       </c>
       <c r="D87" t="n">
-        <v>1.25196</v>
+        <v>1.21571</v>
       </c>
       <c r="E87" t="n">
-        <v>0.94823</v>
+        <v>0.91514</v>
       </c>
       <c r="F87" t="n">
-        <v>2.09499</v>
+        <v>1.99686</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.74626</v>
+        <v>0.718718</v>
       </c>
       <c r="C88" t="n">
-        <v>1.74936</v>
+        <v>1.66052</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24295</v>
+        <v>1.21204</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9252050000000001</v>
+        <v>0.8590410000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>2.08134</v>
+        <v>1.99272</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7407589999999999</v>
+        <v>0.703417</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74975</v>
+        <v>1.66971</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24992</v>
+        <v>1.21334</v>
       </c>
       <c r="E89" t="n">
-        <v>0.867124</v>
+        <v>0.871961</v>
       </c>
       <c r="F89" t="n">
-        <v>2.07246</v>
+        <v>1.98407</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.733436</v>
+        <v>0.686849</v>
       </c>
       <c r="C90" t="n">
-        <v>1.77698</v>
+        <v>1.67609</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25409</v>
+        <v>1.219</v>
       </c>
       <c r="E90" t="n">
-        <v>0.847585</v>
+        <v>0.8506280000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>2.0855</v>
+        <v>1.98706</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.719606</v>
+        <v>0.677289</v>
       </c>
       <c r="C91" t="n">
-        <v>1.77739</v>
+        <v>1.68443</v>
       </c>
       <c r="D91" t="n">
-        <v>1.25313</v>
+        <v>1.21506</v>
       </c>
       <c r="E91" t="n">
-        <v>0.830897</v>
+        <v>0.8040929999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>2.08887</v>
+        <v>1.97527</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7037060000000001</v>
+        <v>0.656406</v>
       </c>
       <c r="C92" t="n">
-        <v>1.80212</v>
+        <v>1.54855</v>
       </c>
       <c r="D92" t="n">
-        <v>2.71365</v>
+        <v>2.5629</v>
       </c>
       <c r="E92" t="n">
-        <v>0.842886</v>
+        <v>0.791415</v>
       </c>
       <c r="F92" t="n">
-        <v>2.08057</v>
+        <v>1.96987</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.697591</v>
+        <v>0.663857</v>
       </c>
       <c r="C93" t="n">
-        <v>1.04209</v>
+        <v>1.7248</v>
       </c>
       <c r="D93" t="n">
-        <v>2.34236</v>
+        <v>2.39287</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8283160000000001</v>
+        <v>0.804678</v>
       </c>
       <c r="F93" t="n">
-        <v>2.09919</v>
+        <v>1.94048</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.668269</v>
+        <v>0.652658</v>
       </c>
       <c r="C94" t="n">
-        <v>1.58881</v>
+        <v>0.999548</v>
       </c>
       <c r="D94" t="n">
-        <v>2.33673</v>
+        <v>2.20676</v>
       </c>
       <c r="E94" t="n">
-        <v>1.2196</v>
+        <v>1.1788</v>
       </c>
       <c r="F94" t="n">
-        <v>3.30793</v>
+        <v>3.09701</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9250660000000001</v>
+        <v>0.89147</v>
       </c>
       <c r="C95" t="n">
-        <v>2.56696</v>
+        <v>2.40439</v>
       </c>
       <c r="D95" t="n">
-        <v>2.3949</v>
+        <v>2.33071</v>
       </c>
       <c r="E95" t="n">
-        <v>1.1806</v>
+        <v>1.16209</v>
       </c>
       <c r="F95" t="n">
-        <v>3.26815</v>
+        <v>3.077</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.951998</v>
+        <v>0.878457</v>
       </c>
       <c r="C96" t="n">
-        <v>2.57277</v>
+        <v>2.4173</v>
       </c>
       <c r="D96" t="n">
-        <v>2.53242</v>
+        <v>2.3783</v>
       </c>
       <c r="E96" t="n">
-        <v>1.16319</v>
+        <v>1.14532</v>
       </c>
       <c r="F96" t="n">
-        <v>3.25254</v>
+        <v>3.05265</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.939752</v>
+        <v>0.878313</v>
       </c>
       <c r="C97" t="n">
-        <v>2.59009</v>
+        <v>2.42102</v>
       </c>
       <c r="D97" t="n">
-        <v>2.53161</v>
+        <v>2.2404</v>
       </c>
       <c r="E97" t="n">
-        <v>1.14271</v>
+        <v>1.12467</v>
       </c>
       <c r="F97" t="n">
-        <v>3.2071</v>
+        <v>3.01031</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.928417</v>
+        <v>0.876628</v>
       </c>
       <c r="C98" t="n">
-        <v>2.59202</v>
+        <v>2.41398</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14045</v>
+        <v>1.88362</v>
       </c>
       <c r="E98" t="n">
-        <v>1.1198</v>
+        <v>1.07966</v>
       </c>
       <c r="F98" t="n">
-        <v>3.1469</v>
+        <v>2.94938</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8882330000000001</v>
+        <v>0.869798</v>
       </c>
       <c r="C99" t="n">
-        <v>2.55453</v>
+        <v>2.37643</v>
       </c>
       <c r="D99" t="n">
-        <v>1.82616</v>
+        <v>2.24067</v>
       </c>
       <c r="E99" t="n">
-        <v>1.10164</v>
+        <v>1.08055</v>
       </c>
       <c r="F99" t="n">
-        <v>3.13052</v>
+        <v>2.92845</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.910772</v>
+        <v>0.842686</v>
       </c>
       <c r="C100" t="n">
-        <v>2.53948</v>
+        <v>2.38608</v>
       </c>
       <c r="D100" t="n">
-        <v>1.79281</v>
+        <v>1.70525</v>
       </c>
       <c r="E100" t="n">
-        <v>1.08006</v>
+        <v>0.997099</v>
       </c>
       <c r="F100" t="n">
-        <v>3.07418</v>
+        <v>2.87966</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.900744</v>
+        <v>0.8316480000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>2.52551</v>
+        <v>2.37121</v>
       </c>
       <c r="D101" t="n">
-        <v>1.79446</v>
+        <v>1.70259</v>
       </c>
       <c r="E101" t="n">
-        <v>1.06127</v>
+        <v>1.02008</v>
       </c>
       <c r="F101" t="n">
-        <v>3.04677</v>
+        <v>2.85269</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.877084</v>
+        <v>0.823345</v>
       </c>
       <c r="C102" t="n">
-        <v>2.52423</v>
+        <v>2.34962</v>
       </c>
       <c r="D102" t="n">
-        <v>1.79917</v>
+        <v>1.69958</v>
       </c>
       <c r="E102" t="n">
-        <v>1.00349</v>
+        <v>0.964413</v>
       </c>
       <c r="F102" t="n">
-        <v>1.92165</v>
+        <v>1.83129</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8310110000000001</v>
+        <v>0.817822</v>
       </c>
       <c r="C103" t="n">
-        <v>2.50829</v>
+        <v>2.35674</v>
       </c>
       <c r="D103" t="n">
-        <v>1.79891</v>
+        <v>1.70082</v>
       </c>
       <c r="E103" t="n">
-        <v>1.02569</v>
+        <v>0.984936</v>
       </c>
       <c r="F103" t="n">
-        <v>2.97014</v>
+        <v>2.77092</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.850952</v>
+        <v>0.799768</v>
       </c>
       <c r="C104" t="n">
-        <v>2.50069</v>
+        <v>2.33191</v>
       </c>
       <c r="D104" t="n">
-        <v>1.81217</v>
+        <v>1.70702</v>
       </c>
       <c r="E104" t="n">
-        <v>1.01038</v>
+        <v>0.934747</v>
       </c>
       <c r="F104" t="n">
-        <v>2.95864</v>
+        <v>2.76888</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.85136</v>
+        <v>0.79747</v>
       </c>
       <c r="C105" t="n">
-        <v>2.50713</v>
+        <v>2.34258</v>
       </c>
       <c r="D105" t="n">
-        <v>1.80007</v>
+        <v>1.70274</v>
       </c>
       <c r="E105" t="n">
-        <v>0.995232</v>
+        <v>0.9545670000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1.78051</v>
+        <v>1.69723</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.809042</v>
+        <v>0.77034</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48128</v>
+        <v>1.29743</v>
       </c>
       <c r="D106" t="n">
-        <v>1.80744</v>
+        <v>1.70952</v>
       </c>
       <c r="E106" t="n">
-        <v>0.949956</v>
+        <v>0.940734</v>
       </c>
       <c r="F106" t="n">
-        <v>1.73637</v>
+        <v>1.83427</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.847431</v>
+        <v>0.785861</v>
       </c>
       <c r="C107" t="n">
-        <v>2.48307</v>
+        <v>1.27771</v>
       </c>
       <c r="D107" t="n">
-        <v>3.75793</v>
+        <v>2.78576</v>
       </c>
       <c r="E107" t="n">
-        <v>0.939403</v>
+        <v>0.900775</v>
       </c>
       <c r="F107" t="n">
-        <v>1.70828</v>
+        <v>2.67631</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.823604</v>
+        <v>0.788672</v>
       </c>
       <c r="C108" t="n">
-        <v>1.32905</v>
+        <v>1.26669</v>
       </c>
       <c r="D108" t="n">
-        <v>2.96104</v>
+        <v>2.75888</v>
       </c>
       <c r="E108" t="n">
-        <v>1.33026</v>
+        <v>1.28042</v>
       </c>
       <c r="F108" t="n">
-        <v>4.28981</v>
+        <v>3.97644</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.829142</v>
+        <v>0.797014</v>
       </c>
       <c r="C109" t="n">
-        <v>1.3102</v>
+        <v>2.31661</v>
       </c>
       <c r="D109" t="n">
-        <v>3.1255</v>
+        <v>3.27141</v>
       </c>
       <c r="E109" t="n">
-        <v>1.3512</v>
+        <v>1.29436</v>
       </c>
       <c r="F109" t="n">
-        <v>4.22923</v>
+        <v>3.91821</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.07674</v>
+        <v>1.01583</v>
       </c>
       <c r="C110" t="n">
-        <v>3.28383</v>
+        <v>3.02407</v>
       </c>
       <c r="D110" t="n">
-        <v>3.10388</v>
+        <v>2.51979</v>
       </c>
       <c r="E110" t="n">
-        <v>1.30574</v>
+        <v>1.27674</v>
       </c>
       <c r="F110" t="n">
-        <v>4.17977</v>
+        <v>3.86603</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05392</v>
+        <v>0.984739</v>
       </c>
       <c r="C111" t="n">
-        <v>3.26265</v>
+        <v>3.02533</v>
       </c>
       <c r="D111" t="n">
-        <v>3.08779</v>
+        <v>2.68807</v>
       </c>
       <c r="E111" t="n">
-        <v>1.31325</v>
+        <v>1.23429</v>
       </c>
       <c r="F111" t="n">
-        <v>4.09297</v>
+        <v>3.79936</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.06261</v>
+        <v>1.00058</v>
       </c>
       <c r="C112" t="n">
-        <v>3.22318</v>
+        <v>2.98109</v>
       </c>
       <c r="D112" t="n">
-        <v>2.66624</v>
+        <v>2.84648</v>
       </c>
       <c r="E112" t="n">
-        <v>1.29361</v>
+        <v>1.21506</v>
       </c>
       <c r="F112" t="n">
-        <v>4.02916</v>
+        <v>3.72535</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05604</v>
+        <v>0.98217</v>
       </c>
       <c r="C113" t="n">
-        <v>3.18963</v>
+        <v>2.96365</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65217</v>
+        <v>2.48179</v>
       </c>
       <c r="E113" t="n">
-        <v>1.25411</v>
+        <v>1.1991</v>
       </c>
       <c r="F113" t="n">
-        <v>3.97656</v>
+        <v>3.67533</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.02623</v>
+        <v>0.969491</v>
       </c>
       <c r="C114" t="n">
-        <v>3.19263</v>
+        <v>2.95158</v>
       </c>
       <c r="D114" t="n">
-        <v>2.42869</v>
+        <v>2.25388</v>
       </c>
       <c r="E114" t="n">
-        <v>1.24086</v>
+        <v>1.18384</v>
       </c>
       <c r="F114" t="n">
-        <v>3.91602</v>
+        <v>3.61026</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03754</v>
+        <v>0.943499</v>
       </c>
       <c r="C115" t="n">
-        <v>3.1714</v>
+        <v>2.92233</v>
       </c>
       <c r="D115" t="n">
-        <v>2.4298</v>
+        <v>2.259</v>
       </c>
       <c r="E115" t="n">
-        <v>1.22497</v>
+        <v>1.18744</v>
       </c>
       <c r="F115" t="n">
-        <v>3.86337</v>
+        <v>3.56714</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.00608</v>
+        <v>0.9529570000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>3.16153</v>
+        <v>2.9114</v>
       </c>
       <c r="D116" t="n">
-        <v>2.41851</v>
+        <v>2.25305</v>
       </c>
       <c r="E116" t="n">
-        <v>1.23266</v>
+        <v>1.15476</v>
       </c>
       <c r="F116" t="n">
-        <v>3.80321</v>
+        <v>3.51055</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0038</v>
+        <v>0.941282</v>
       </c>
       <c r="C117" t="n">
-        <v>3.13711</v>
+        <v>2.89007</v>
       </c>
       <c r="D117" t="n">
-        <v>2.38384</v>
+        <v>2.23597</v>
       </c>
       <c r="E117" t="n">
-        <v>1.19997</v>
+        <v>1.14263</v>
       </c>
       <c r="F117" t="n">
-        <v>3.77683</v>
+        <v>3.48355</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.996866</v>
+        <v>0.929759</v>
       </c>
       <c r="C118" t="n">
-        <v>3.10679</v>
+        <v>2.87755</v>
       </c>
       <c r="D118" t="n">
-        <v>2.38918</v>
+        <v>2.23139</v>
       </c>
       <c r="E118" t="n">
-        <v>1.18994</v>
+        <v>1.09698</v>
       </c>
       <c r="F118" t="n">
-        <v>3.70692</v>
+        <v>3.4223</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.996924</v>
+        <v>0.920141</v>
       </c>
       <c r="C119" t="n">
-        <v>3.10459</v>
+        <v>2.87219</v>
       </c>
       <c r="D119" t="n">
-        <v>2.39872</v>
+        <v>2.2306</v>
       </c>
       <c r="E119" t="n">
-        <v>1.17886</v>
+        <v>1.1198</v>
       </c>
       <c r="F119" t="n">
-        <v>3.68103</v>
+        <v>3.38209</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9855120000000001</v>
+        <v>0.917595</v>
       </c>
       <c r="C120" t="n">
-        <v>1.74976</v>
+        <v>2.84931</v>
       </c>
       <c r="D120" t="n">
-        <v>2.39284</v>
+        <v>2.23152</v>
       </c>
       <c r="E120" t="n">
-        <v>1.17028</v>
+        <v>1.10792</v>
       </c>
       <c r="F120" t="n">
-        <v>3.62258</v>
+        <v>3.14086</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.962381</v>
+        <v>0.906017</v>
       </c>
       <c r="C121" t="n">
-        <v>1.73099</v>
+        <v>2.84755</v>
       </c>
       <c r="D121" t="n">
-        <v>3.70826</v>
+        <v>4.25493</v>
       </c>
       <c r="E121" t="n">
-        <v>1.16111</v>
+        <v>1.1005</v>
       </c>
       <c r="F121" t="n">
-        <v>3.57324</v>
+        <v>3.10725</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.98354</v>
+        <v>0.902775</v>
       </c>
       <c r="C122" t="n">
-        <v>3.0775</v>
+        <v>2.63445</v>
       </c>
       <c r="D122" t="n">
-        <v>4.34677</v>
+        <v>4.20118</v>
       </c>
       <c r="E122" t="n">
-        <v>1.12795</v>
+        <v>1.06847</v>
       </c>
       <c r="F122" t="n">
-        <v>3.0994</v>
+        <v>3.26856</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.951721</v>
+        <v>0.916251</v>
       </c>
       <c r="C123" t="n">
-        <v>3.07205</v>
+        <v>2.82473</v>
       </c>
       <c r="D123" t="n">
-        <v>4.52715</v>
+        <v>4.15329</v>
       </c>
       <c r="E123" t="n">
-        <v>1.51447</v>
+        <v>1.46785</v>
       </c>
       <c r="F123" t="n">
-        <v>5.05893</v>
+        <v>4.64235</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.21689</v>
+        <v>1.15255</v>
       </c>
       <c r="C124" t="n">
-        <v>3.88843</v>
+        <v>3.56082</v>
       </c>
       <c r="D124" t="n">
-        <v>3.12799</v>
+        <v>3.51199</v>
       </c>
       <c r="E124" t="n">
-        <v>1.52505</v>
+        <v>1.45063</v>
       </c>
       <c r="F124" t="n">
-        <v>4.97719</v>
+        <v>4.56108</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.20471</v>
+        <v>1.14182</v>
       </c>
       <c r="C125" t="n">
-        <v>3.86874</v>
+        <v>3.53851</v>
       </c>
       <c r="D125" t="n">
-        <v>3.3215</v>
+        <v>3.06927</v>
       </c>
       <c r="E125" t="n">
-        <v>1.4856</v>
+        <v>1.41345</v>
       </c>
       <c r="F125" t="n">
-        <v>4.88299</v>
+        <v>4.49542</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.20384</v>
+        <v>1.12484</v>
       </c>
       <c r="C126" t="n">
-        <v>3.81731</v>
+        <v>3.51819</v>
       </c>
       <c r="D126" t="n">
-        <v>3.29428</v>
+        <v>3.03434</v>
       </c>
       <c r="E126" t="n">
-        <v>1.49563</v>
+        <v>1.39802</v>
       </c>
       <c r="F126" t="n">
-        <v>4.80717</v>
+        <v>4.41691</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.19613</v>
+        <v>1.11984</v>
       </c>
       <c r="C127" t="n">
-        <v>3.79082</v>
+        <v>3.48598</v>
       </c>
       <c r="D127" t="n">
-        <v>3.26332</v>
+        <v>3.21942</v>
       </c>
       <c r="E127" t="n">
-        <v>1.46089</v>
+        <v>1.38606</v>
       </c>
       <c r="F127" t="n">
-        <v>4.73196</v>
+        <v>4.33808</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.16713</v>
+        <v>1.10873</v>
       </c>
       <c r="C128" t="n">
-        <v>3.7722</v>
+        <v>3.45726</v>
       </c>
       <c r="D128" t="n">
-        <v>3.72056</v>
+        <v>2.98231</v>
       </c>
       <c r="E128" t="n">
-        <v>1.44978</v>
+        <v>1.37399</v>
       </c>
       <c r="F128" t="n">
-        <v>4.65658</v>
+        <v>4.27947</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.18209</v>
+        <v>1.09949</v>
       </c>
       <c r="C129" t="n">
-        <v>3.73366</v>
+        <v>3.43113</v>
       </c>
       <c r="D129" t="n">
-        <v>2.96127</v>
+        <v>2.74248</v>
       </c>
       <c r="E129" t="n">
-        <v>1.43998</v>
+        <v>1.36156</v>
       </c>
       <c r="F129" t="n">
-        <v>4.59762</v>
+        <v>4.00806</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.1683</v>
+        <v>1.07192</v>
       </c>
       <c r="C130" t="n">
-        <v>3.7105</v>
+        <v>3.41997</v>
       </c>
       <c r="D130" t="n">
-        <v>2.9573</v>
+        <v>2.72247</v>
       </c>
       <c r="E130" t="n">
-        <v>1.43069</v>
+        <v>1.35183</v>
       </c>
       <c r="F130" t="n">
-        <v>4.04551</v>
+        <v>4.15228</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.1424</v>
+        <v>1.08274</v>
       </c>
       <c r="C131" t="n">
-        <v>3.69866</v>
+        <v>3.38753</v>
       </c>
       <c r="D131" t="n">
-        <v>2.94167</v>
+        <v>2.71779</v>
       </c>
       <c r="E131" t="n">
-        <v>1.38749</v>
+        <v>1.34195</v>
       </c>
       <c r="F131" t="n">
-        <v>3.9855</v>
+        <v>3.88785</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.1477</v>
+        <v>1.06264</v>
       </c>
       <c r="C132" t="n">
-        <v>3.68119</v>
+        <v>3.37209</v>
       </c>
       <c r="D132" t="n">
-        <v>2.94268</v>
+        <v>2.70327</v>
       </c>
       <c r="E132" t="n">
-        <v>1.38106</v>
+        <v>1.30032</v>
       </c>
       <c r="F132" t="n">
-        <v>4.41564</v>
+        <v>4.043</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.13839</v>
+        <v>1.06223</v>
       </c>
       <c r="C133" t="n">
-        <v>3.65894</v>
+        <v>3.34873</v>
       </c>
       <c r="D133" t="n">
-        <v>2.91431</v>
+        <v>2.69772</v>
       </c>
       <c r="E133" t="n">
-        <v>1.40774</v>
+        <v>1.32409</v>
       </c>
       <c r="F133" t="n">
-        <v>4.34093</v>
+        <v>3.33976</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.14979</v>
+        <v>1.05385</v>
       </c>
       <c r="C134" t="n">
-        <v>3.63234</v>
+        <v>3.33151</v>
       </c>
       <c r="D134" t="n">
-        <v>2.92155</v>
+        <v>2.69111</v>
       </c>
       <c r="E134" t="n">
-        <v>1.40213</v>
+        <v>1.31697</v>
       </c>
       <c r="F134" t="n">
-        <v>4.30423</v>
+        <v>3.51318</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.12725</v>
+        <v>1.04825</v>
       </c>
       <c r="C135" t="n">
-        <v>3.60703</v>
+        <v>3.31404</v>
       </c>
       <c r="D135" t="n">
-        <v>5.29382</v>
+        <v>4.85881</v>
       </c>
       <c r="E135" t="n">
-        <v>1.39684</v>
+        <v>1.31271</v>
       </c>
       <c r="F135" t="n">
-        <v>4.02256</v>
+        <v>3.89647</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.13558</v>
+        <v>1.05514</v>
       </c>
       <c r="C136" t="n">
-        <v>3.61373</v>
+        <v>1.98045</v>
       </c>
       <c r="D136" t="n">
-        <v>4.74684</v>
+        <v>4.12208</v>
       </c>
       <c r="E136" t="n">
-        <v>1.39217</v>
+        <v>1.30698</v>
       </c>
       <c r="F136" t="n">
-        <v>3.9563</v>
+        <v>3.85855</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.13188</v>
+        <v>1.0502</v>
       </c>
       <c r="C137" t="n">
-        <v>2.11942</v>
+        <v>3.29955</v>
       </c>
       <c r="D137" t="n">
-        <v>4.67584</v>
+        <v>4.50742</v>
       </c>
       <c r="E137" t="n">
-        <v>1.77656</v>
+        <v>1.65316</v>
       </c>
       <c r="F137" t="n">
-        <v>5.77272</v>
+        <v>5.28856</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35831</v>
+        <v>1.2604</v>
       </c>
       <c r="C138" t="n">
-        <v>4.43831</v>
+        <v>4.06528</v>
       </c>
       <c r="D138" t="n">
-        <v>4.86836</v>
+        <v>4.01476</v>
       </c>
       <c r="E138" t="n">
-        <v>1.73764</v>
+        <v>1.63948</v>
       </c>
       <c r="F138" t="n">
-        <v>5.68193</v>
+        <v>5.20166</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34877</v>
+        <v>1.27798</v>
       </c>
       <c r="C139" t="n">
-        <v>4.40261</v>
+        <v>4.03183</v>
       </c>
       <c r="D139" t="n">
-        <v>4.58745</v>
+        <v>4.19208</v>
       </c>
       <c r="E139" t="n">
-        <v>1.7266</v>
+        <v>1.6497</v>
       </c>
       <c r="F139" t="n">
-        <v>5.58021</v>
+        <v>5.09803</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.35632</v>
+        <v>1.25129</v>
       </c>
       <c r="C140" t="n">
-        <v>4.35474</v>
+        <v>3.98453</v>
       </c>
       <c r="D140" t="n">
-        <v>4.29517</v>
+        <v>3.71174</v>
       </c>
       <c r="E140" t="n">
-        <v>1.73759</v>
+        <v>1.6358</v>
       </c>
       <c r="F140" t="n">
-        <v>5.46365</v>
+        <v>5.0082</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.34435</v>
+        <v>1.25438</v>
       </c>
       <c r="C141" t="n">
-        <v>4.29993</v>
+        <v>3.9395</v>
       </c>
       <c r="D141" t="n">
-        <v>3.5035</v>
+        <v>3.21933</v>
       </c>
       <c r="E141" t="n">
-        <v>1.70549</v>
+        <v>1.60321</v>
       </c>
       <c r="F141" t="n">
-        <v>5.3913</v>
+        <v>4.92658</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33406</v>
+        <v>1.24285</v>
       </c>
       <c r="C142" t="n">
-        <v>4.2775</v>
+        <v>3.90164</v>
       </c>
       <c r="D142" t="n">
-        <v>3.44414</v>
+        <v>3.17333</v>
       </c>
       <c r="E142" t="n">
-        <v>1.69713</v>
+        <v>1.59189</v>
       </c>
       <c r="F142" t="n">
-        <v>5.29197</v>
+        <v>4.82559</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.34001</v>
+        <v>1.24672</v>
       </c>
       <c r="C143" t="n">
-        <v>4.22754</v>
+        <v>3.86533</v>
       </c>
       <c r="D143" t="n">
-        <v>3.41622</v>
+        <v>3.14142</v>
       </c>
       <c r="E143" t="n">
-        <v>1.68763</v>
+        <v>1.5815</v>
       </c>
       <c r="F143" t="n">
-        <v>5.19415</v>
+        <v>4.75286</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.466069</v>
+        <v>0.502227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712235</v>
+        <v>0.674728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810532</v>
+        <v>0.853473</v>
       </c>
       <c r="E2" t="n">
-        <v>0.687453</v>
+        <v>0.574811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973232</v>
+        <v>0.933346</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455291</v>
+        <v>0.406207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.700846</v>
+        <v>0.6624719999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.800999</v>
+        <v>0.843629</v>
       </c>
       <c r="E3" t="n">
-        <v>0.670515</v>
+        <v>0.560875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.949962</v>
+        <v>0.9153</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444629</v>
+        <v>0.398151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690517</v>
+        <v>0.652773</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792517</v>
+        <v>0.836117</v>
       </c>
       <c r="E4" t="n">
-        <v>0.653854</v>
+        <v>0.547486</v>
       </c>
       <c r="F4" t="n">
-        <v>0.931823</v>
+        <v>0.899358</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428213</v>
+        <v>0.456229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.68368</v>
+        <v>0.644428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.786077</v>
+        <v>0.890356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639184</v>
+        <v>0.535283</v>
       </c>
       <c r="F5" t="n">
-        <v>0.913851</v>
+        <v>0.884698</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427537</v>
+        <v>0.4477</v>
       </c>
       <c r="C6" t="n">
-        <v>0.67574</v>
+        <v>0.637769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8189610000000001</v>
+        <v>0.8250999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625214</v>
+        <v>0.525384</v>
       </c>
       <c r="F6" t="n">
-        <v>0.896627</v>
+        <v>0.870956</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421417</v>
+        <v>0.383122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668915</v>
+        <v>0.633502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877764</v>
+        <v>0.90909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6138209999999999</v>
+        <v>0.514718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.883381</v>
+        <v>0.859557</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416721</v>
+        <v>0.382772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667316</v>
+        <v>0.6327199999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86002</v>
+        <v>0.893525</v>
       </c>
       <c r="E8" t="n">
-        <v>0.604322</v>
+        <v>0.508917</v>
       </c>
       <c r="F8" t="n">
-        <v>0.873093</v>
+        <v>0.851023</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416355</v>
+        <v>0.384008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.665956</v>
+        <v>0.633957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.845959</v>
+        <v>0.877123</v>
       </c>
       <c r="E9" t="n">
-        <v>0.914227</v>
+        <v>0.799131</v>
       </c>
       <c r="F9" t="n">
-        <v>1.20478</v>
+        <v>1.1365</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.552165</v>
+        <v>0.590839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.809362</v>
+        <v>0.783533</v>
       </c>
       <c r="D10" t="n">
-        <v>0.828841</v>
+        <v>0.864334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.775074</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16927</v>
+        <v>1.11043</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535795</v>
+        <v>0.569972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.794169</v>
+        <v>0.76612</v>
       </c>
       <c r="D11" t="n">
-        <v>0.818623</v>
+        <v>0.852179</v>
       </c>
       <c r="E11" t="n">
-        <v>0.857969</v>
+        <v>0.751227</v>
       </c>
       <c r="F11" t="n">
-        <v>1.14085</v>
+        <v>1.08519</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520076</v>
+        <v>0.554994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7780589999999999</v>
+        <v>0.747744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.803597</v>
+        <v>0.837741</v>
       </c>
       <c r="E12" t="n">
-        <v>0.832701</v>
+        <v>0.728425</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11269</v>
+        <v>1.05966</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5073260000000001</v>
+        <v>0.533824</v>
       </c>
       <c r="C13" t="n">
-        <v>0.764779</v>
+        <v>0.732939</v>
       </c>
       <c r="D13" t="n">
-        <v>0.79064</v>
+        <v>0.827601</v>
       </c>
       <c r="E13" t="n">
-        <v>0.808385</v>
+        <v>0.70708</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08921</v>
+        <v>1.03629</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.491469</v>
+        <v>0.523874</v>
       </c>
       <c r="C14" t="n">
-        <v>0.749551</v>
+        <v>0.721769</v>
       </c>
       <c r="D14" t="n">
-        <v>0.789129</v>
+        <v>0.814024</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7840510000000001</v>
+        <v>0.686333</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05826</v>
+        <v>1.01251</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.482118</v>
+        <v>0.507823</v>
       </c>
       <c r="C15" t="n">
-        <v>0.739333</v>
+        <v>0.70969</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7803909999999999</v>
+        <v>0.80744</v>
       </c>
       <c r="E15" t="n">
-        <v>0.762632</v>
+        <v>0.666916</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03342</v>
+        <v>0.989861</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.464874</v>
+        <v>0.496023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72427</v>
+        <v>0.6987370000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.769707</v>
+        <v>0.79974</v>
       </c>
       <c r="E16" t="n">
-        <v>0.741771</v>
+        <v>0.648986</v>
       </c>
       <c r="F16" t="n">
-        <v>1.00992</v>
+        <v>0.969847</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456027</v>
+        <v>0.480524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7125320000000001</v>
+        <v>0.686978</v>
       </c>
       <c r="D17" t="n">
-        <v>0.759879</v>
+        <v>0.79043</v>
       </c>
       <c r="E17" t="n">
-        <v>0.722067</v>
+        <v>0.631696</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0167</v>
+        <v>0.988739</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.443669</v>
+        <v>0.472091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.712118</v>
+        <v>0.676962</v>
       </c>
       <c r="D18" t="n">
-        <v>0.753873</v>
+        <v>0.784042</v>
       </c>
       <c r="E18" t="n">
-        <v>0.70473</v>
+        <v>0.61605</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9966739999999999</v>
+        <v>0.971713</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434591</v>
+        <v>0.465308</v>
       </c>
       <c r="C19" t="n">
-        <v>0.706692</v>
+        <v>0.666612</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746748</v>
+        <v>0.778971</v>
       </c>
       <c r="E19" t="n">
-        <v>0.687926</v>
+        <v>0.602156</v>
       </c>
       <c r="F19" t="n">
-        <v>0.978133</v>
+        <v>0.954444</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428861</v>
+        <v>0.491273</v>
       </c>
       <c r="C20" t="n">
-        <v>0.69486</v>
+        <v>0.658866</v>
       </c>
       <c r="D20" t="n">
-        <v>0.738582</v>
+        <v>0.772769</v>
       </c>
       <c r="E20" t="n">
-        <v>0.673175</v>
+        <v>0.589435</v>
       </c>
       <c r="F20" t="n">
-        <v>0.962517</v>
+        <v>0.942721</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42224</v>
+        <v>0.446586</v>
       </c>
       <c r="C21" t="n">
-        <v>0.687117</v>
+        <v>0.656761</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95229</v>
+        <v>0.983005</v>
       </c>
       <c r="E21" t="n">
-        <v>0.66037</v>
+        <v>0.578744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9543199999999999</v>
+        <v>0.937462</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.418994</v>
+        <v>0.440917</v>
       </c>
       <c r="C22" t="n">
-        <v>0.703339</v>
+        <v>0.652977</v>
       </c>
       <c r="D22" t="n">
-        <v>0.935107</v>
+        <v>0.964192</v>
       </c>
       <c r="E22" t="n">
-        <v>0.65036</v>
+        <v>0.570475</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9400770000000001</v>
+        <v>0.925863</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4175</v>
+        <v>0.440337</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7026559999999999</v>
+        <v>0.663678</v>
       </c>
       <c r="D23" t="n">
-        <v>0.918111</v>
+        <v>0.951902</v>
       </c>
       <c r="E23" t="n">
-        <v>0.970137</v>
+        <v>0.869458</v>
       </c>
       <c r="F23" t="n">
-        <v>1.27705</v>
+        <v>1.20618</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.572424</v>
+        <v>0.601608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.844901</v>
+        <v>0.830228</v>
       </c>
       <c r="D24" t="n">
-        <v>0.900657</v>
+        <v>0.923857</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939476</v>
+        <v>0.840577</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23927</v>
+        <v>1.1762</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.555442</v>
+        <v>0.584892</v>
       </c>
       <c r="C25" t="n">
-        <v>0.829146</v>
+        <v>0.814217</v>
       </c>
       <c r="D25" t="n">
-        <v>0.887745</v>
+        <v>0.913697</v>
       </c>
       <c r="E25" t="n">
-        <v>0.910285</v>
+        <v>0.81489</v>
       </c>
       <c r="F25" t="n">
-        <v>1.20689</v>
+        <v>1.14828</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539</v>
+        <v>0.567152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.812775</v>
+        <v>0.7946569999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.872368</v>
+        <v>0.896197</v>
       </c>
       <c r="E26" t="n">
-        <v>0.882198</v>
+        <v>0.789499</v>
       </c>
       <c r="F26" t="n">
-        <v>1.18194</v>
+        <v>1.12232</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.553776</v>
+        <v>0.592106</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7992010000000001</v>
+        <v>0.777933</v>
       </c>
       <c r="D27" t="n">
-        <v>0.858335</v>
+        <v>0.883381</v>
       </c>
       <c r="E27" t="n">
-        <v>0.85578</v>
+        <v>0.766298</v>
       </c>
       <c r="F27" t="n">
-        <v>1.15589</v>
+        <v>1.10534</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5352789999999999</v>
+        <v>0.576031</v>
       </c>
       <c r="C28" t="n">
-        <v>0.784398</v>
+        <v>0.76357</v>
       </c>
       <c r="D28" t="n">
-        <v>0.84627</v>
+        <v>0.872887</v>
       </c>
       <c r="E28" t="n">
-        <v>0.830075</v>
+        <v>0.74274</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12689</v>
+        <v>1.07595</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.521985</v>
+        <v>0.559285</v>
       </c>
       <c r="C29" t="n">
-        <v>0.768801</v>
+        <v>0.749678</v>
       </c>
       <c r="D29" t="n">
-        <v>0.839287</v>
+        <v>0.86491</v>
       </c>
       <c r="E29" t="n">
-        <v>0.80636</v>
+        <v>0.720965</v>
       </c>
       <c r="F29" t="n">
-        <v>1.10256</v>
+        <v>1.05803</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.507669</v>
+        <v>0.544287</v>
       </c>
       <c r="C30" t="n">
-        <v>0.759657</v>
+        <v>0.755342</v>
       </c>
       <c r="D30" t="n">
-        <v>0.828777</v>
+        <v>0.85615</v>
       </c>
       <c r="E30" t="n">
-        <v>0.758863</v>
+        <v>0.700417</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07681</v>
+        <v>1.03745</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.494729</v>
+        <v>0.52872</v>
       </c>
       <c r="C31" t="n">
-        <v>0.744962</v>
+        <v>0.745683</v>
       </c>
       <c r="D31" t="n">
-        <v>0.818319</v>
+        <v>0.850232</v>
       </c>
       <c r="E31" t="n">
-        <v>0.762695</v>
+        <v>0.681074</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05358</v>
+        <v>1.01724</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.459846</v>
+        <v>0.513286</v>
       </c>
       <c r="C32" t="n">
-        <v>0.731228</v>
+        <v>0.732447</v>
       </c>
       <c r="D32" t="n">
-        <v>0.811841</v>
+        <v>0.840069</v>
       </c>
       <c r="E32" t="n">
-        <v>0.742527</v>
+        <v>0.662873</v>
       </c>
       <c r="F32" t="n">
-        <v>1.02965</v>
+        <v>0.99554</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472458</v>
+        <v>0.504159</v>
       </c>
       <c r="C33" t="n">
-        <v>0.744972</v>
+        <v>0.7255549999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.803377</v>
+        <v>0.833511</v>
       </c>
       <c r="E33" t="n">
-        <v>0.702206</v>
+        <v>0.6448700000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>1.01048</v>
+        <v>0.977506</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.46315</v>
+        <v>0.492457</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7368170000000001</v>
+        <v>0.716642</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7954059999999999</v>
+        <v>0.827018</v>
       </c>
       <c r="E34" t="n">
-        <v>0.707201</v>
+        <v>0.629416</v>
       </c>
       <c r="F34" t="n">
-        <v>0.98976</v>
+        <v>0.9603739999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455072</v>
+        <v>0.482739</v>
       </c>
       <c r="C35" t="n">
-        <v>0.730333</v>
+        <v>0.710534</v>
       </c>
       <c r="D35" t="n">
-        <v>1.03507</v>
+        <v>1.06533</v>
       </c>
       <c r="E35" t="n">
-        <v>0.692053</v>
+        <v>0.615736</v>
       </c>
       <c r="F35" t="n">
-        <v>0.973289</v>
+        <v>0.945256</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.430913</v>
+        <v>0.450426</v>
       </c>
       <c r="C36" t="n">
-        <v>0.728349</v>
+        <v>0.708107</v>
       </c>
       <c r="D36" t="n">
-        <v>1.01575</v>
+        <v>1.03488</v>
       </c>
       <c r="E36" t="n">
-        <v>0.660998</v>
+        <v>0.580023</v>
       </c>
       <c r="F36" t="n">
-        <v>0.957637</v>
+        <v>0.933731</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446487</v>
+        <v>0.472139</v>
       </c>
       <c r="C37" t="n">
-        <v>0.726882</v>
+        <v>0.707326</v>
       </c>
       <c r="D37" t="n">
-        <v>0.996251</v>
+        <v>1.02553</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0041</v>
+        <v>0.90868</v>
       </c>
       <c r="F37" t="n">
-        <v>1.5685</v>
+        <v>1.52825</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.62113</v>
+        <v>0.6899729999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10386</v>
+        <v>1.10307</v>
       </c>
       <c r="D38" t="n">
-        <v>0.979135</v>
+        <v>0.999845</v>
       </c>
       <c r="E38" t="n">
-        <v>0.956539</v>
+        <v>0.857375</v>
       </c>
       <c r="F38" t="n">
-        <v>1.53155</v>
+        <v>1.49538</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.62134</v>
+        <v>0.642854</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08747</v>
+        <v>1.08463</v>
       </c>
       <c r="D39" t="n">
-        <v>0.958546</v>
+        <v>0.979374</v>
       </c>
       <c r="E39" t="n">
-        <v>0.926816</v>
+        <v>0.85003</v>
       </c>
       <c r="F39" t="n">
-        <v>1.49755</v>
+        <v>1.46466</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.602901</v>
+        <v>0.644871</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07257</v>
+        <v>1.06865</v>
       </c>
       <c r="D40" t="n">
-        <v>0.942528</v>
+        <v>0.9643</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898092</v>
+        <v>0.803579</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46353</v>
+        <v>1.43564</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585214</v>
+        <v>0.608479</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05587</v>
+        <v>1.05606</v>
       </c>
       <c r="D41" t="n">
-        <v>0.927544</v>
+        <v>0.953992</v>
       </c>
       <c r="E41" t="n">
-        <v>0.87177</v>
+        <v>0.778649</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43217</v>
+        <v>1.4072</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.569904</v>
+        <v>0.607186</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04265</v>
+        <v>1.03741</v>
       </c>
       <c r="D42" t="n">
-        <v>0.912373</v>
+        <v>0.935746</v>
       </c>
       <c r="E42" t="n">
-        <v>0.846274</v>
+        <v>0.756089</v>
       </c>
       <c r="F42" t="n">
-        <v>1.40245</v>
+        <v>1.38177</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5525139999999999</v>
+        <v>0.571914</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0285</v>
+        <v>1.0214</v>
       </c>
       <c r="D43" t="n">
-        <v>0.898999</v>
+        <v>0.923579</v>
       </c>
       <c r="E43" t="n">
-        <v>0.822308</v>
+        <v>0.733778</v>
       </c>
       <c r="F43" t="n">
-        <v>1.37367</v>
+        <v>1.35547</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.523118</v>
+        <v>0.553387</v>
       </c>
       <c r="C44" t="n">
-        <v>1.01635</v>
+        <v>1.00905</v>
       </c>
       <c r="D44" t="n">
-        <v>0.887094</v>
+        <v>0.913345</v>
       </c>
       <c r="E44" t="n">
-        <v>0.799579</v>
+        <v>0.729859</v>
       </c>
       <c r="F44" t="n">
-        <v>1.34598</v>
+        <v>1.33224</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510584</v>
+        <v>0.54064</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00309</v>
+        <v>0.999049</v>
       </c>
       <c r="D45" t="n">
-        <v>0.879585</v>
+        <v>0.907994</v>
       </c>
       <c r="E45" t="n">
-        <v>0.777737</v>
+        <v>0.695864</v>
       </c>
       <c r="F45" t="n">
-        <v>1.32176</v>
+        <v>1.30964</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498696</v>
+        <v>0.528075</v>
       </c>
       <c r="C46" t="n">
-        <v>0.992574</v>
+        <v>0.985182</v>
       </c>
       <c r="D46" t="n">
-        <v>0.869736</v>
+        <v>0.898514</v>
       </c>
       <c r="E46" t="n">
-        <v>0.756589</v>
+        <v>0.677731</v>
       </c>
       <c r="F46" t="n">
-        <v>1.29808</v>
+        <v>1.28822</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487282</v>
+        <v>0.53283</v>
       </c>
       <c r="C47" t="n">
-        <v>0.985361</v>
+        <v>0.974993</v>
       </c>
       <c r="D47" t="n">
-        <v>0.863186</v>
+        <v>0.892091</v>
       </c>
       <c r="E47" t="n">
-        <v>0.715062</v>
+        <v>0.675546</v>
       </c>
       <c r="F47" t="n">
-        <v>1.27579</v>
+        <v>1.26988</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.47732</v>
+        <v>0.504794</v>
       </c>
       <c r="C48" t="n">
-        <v>0.974249</v>
+        <v>0.9678020000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.855078</v>
+        <v>0.888148</v>
       </c>
       <c r="E48" t="n">
-        <v>0.720634</v>
+        <v>0.643043</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2556</v>
+        <v>1.251</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.468684</v>
+        <v>0.500545</v>
       </c>
       <c r="C49" t="n">
-        <v>0.966425</v>
+        <v>0.962954</v>
       </c>
       <c r="D49" t="n">
-        <v>0.851322</v>
+        <v>0.882616</v>
       </c>
       <c r="E49" t="n">
-        <v>0.706033</v>
+        <v>0.603232</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23534</v>
+        <v>1.23468</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.462875</v>
+        <v>0.488934</v>
       </c>
       <c r="C50" t="n">
-        <v>0.959287</v>
+        <v>0.9542350000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08237</v>
+        <v>1.10412</v>
       </c>
       <c r="E50" t="n">
-        <v>0.691995</v>
+        <v>0.592494</v>
       </c>
       <c r="F50" t="n">
-        <v>1.21961</v>
+        <v>1.22214</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.459345</v>
+        <v>0.488999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.955083</v>
+        <v>0.954798</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06094</v>
+        <v>1.08535</v>
       </c>
       <c r="E51" t="n">
-        <v>1.03205</v>
+        <v>0.928623</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64403</v>
+        <v>1.60815</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.459057</v>
+        <v>0.464981</v>
       </c>
       <c r="C52" t="n">
-        <v>0.954171</v>
+        <v>0.951068</v>
       </c>
       <c r="D52" t="n">
-        <v>1.04026</v>
+        <v>1.06261</v>
       </c>
       <c r="E52" t="n">
-        <v>1.00085</v>
+        <v>0.882323</v>
       </c>
       <c r="F52" t="n">
-        <v>1.60764</v>
+        <v>1.57398</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.643724</v>
+        <v>0.689285</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14089</v>
+        <v>1.14371</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02061</v>
+        <v>1.04454</v>
       </c>
       <c r="E53" t="n">
-        <v>0.961917</v>
+        <v>0.872548</v>
       </c>
       <c r="F53" t="n">
-        <v>1.56988</v>
+        <v>1.54214</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.621158</v>
+        <v>0.670441</v>
       </c>
       <c r="C54" t="n">
-        <v>1.1227</v>
+        <v>1.12592</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00461</v>
+        <v>1.02879</v>
       </c>
       <c r="E54" t="n">
-        <v>0.940202</v>
+        <v>0.847152</v>
       </c>
       <c r="F54" t="n">
-        <v>1.53534</v>
+        <v>1.50975</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.608213</v>
+        <v>0.635313</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10726</v>
+        <v>1.10806</v>
       </c>
       <c r="D55" t="n">
-        <v>0.986957</v>
+        <v>1.01044</v>
       </c>
       <c r="E55" t="n">
-        <v>0.902352</v>
+        <v>0.806342</v>
       </c>
       <c r="F55" t="n">
-        <v>1.50176</v>
+        <v>1.48115</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.591511</v>
+        <v>0.615054</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08939</v>
+        <v>1.09302</v>
       </c>
       <c r="D56" t="n">
-        <v>0.971502</v>
+        <v>0.995595</v>
       </c>
       <c r="E56" t="n">
-        <v>0.877258</v>
+        <v>0.784342</v>
       </c>
       <c r="F56" t="n">
-        <v>1.46993</v>
+        <v>1.4524</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.57153</v>
+        <v>0.601167</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07739</v>
+        <v>1.07773</v>
       </c>
       <c r="D57" t="n">
-        <v>0.956454</v>
+        <v>0.980325</v>
       </c>
       <c r="E57" t="n">
-        <v>0.853705</v>
+        <v>0.761286</v>
       </c>
       <c r="F57" t="n">
-        <v>1.44007</v>
+        <v>1.42512</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.559435</v>
+        <v>0.5860069999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06463</v>
+        <v>1.06313</v>
       </c>
       <c r="D58" t="n">
-        <v>0.943651</v>
+        <v>0.972544</v>
       </c>
       <c r="E58" t="n">
-        <v>0.83103</v>
+        <v>0.7414500000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41031</v>
+        <v>1.39974</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.546249</v>
+        <v>0.573666</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05195</v>
+        <v>1.04845</v>
       </c>
       <c r="D59" t="n">
-        <v>0.925957</v>
+        <v>0.953687</v>
       </c>
       <c r="E59" t="n">
-        <v>0.780099</v>
+        <v>0.68601</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38396</v>
+        <v>1.37648</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.532422</v>
+        <v>0.558517</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03904</v>
+        <v>1.03694</v>
       </c>
       <c r="D60" t="n">
-        <v>0.91747</v>
+        <v>0.943117</v>
       </c>
       <c r="E60" t="n">
-        <v>0.761008</v>
+        <v>0.702508</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35789</v>
+        <v>1.35272</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.520058</v>
+        <v>0.545292</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03001</v>
+        <v>1.02631</v>
       </c>
       <c r="D61" t="n">
-        <v>0.908517</v>
+        <v>0.9346410000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.775747</v>
+        <v>0.685647</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33523</v>
+        <v>1.33333</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.511409</v>
+        <v>0.534172</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02031</v>
+        <v>1.01785</v>
       </c>
       <c r="D62" t="n">
-        <v>0.898342</v>
+        <v>0.924807</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7276629999999999</v>
+        <v>0.6701820000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31267</v>
+        <v>1.31282</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.500793</v>
+        <v>0.52816</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01306</v>
+        <v>1.00965</v>
       </c>
       <c r="D63" t="n">
-        <v>0.890647</v>
+        <v>0.917405</v>
       </c>
       <c r="E63" t="n">
-        <v>0.710721</v>
+        <v>0.658888</v>
       </c>
       <c r="F63" t="n">
-        <v>1.29362</v>
+        <v>1.29468</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.496191</v>
+        <v>0.523339</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00781</v>
+        <v>1.00533</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16153</v>
+        <v>1.18217</v>
       </c>
       <c r="E64" t="n">
-        <v>0.719772</v>
+        <v>0.644741</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27561</v>
+        <v>1.27981</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.470441</v>
+        <v>0.517522</v>
       </c>
       <c r="C65" t="n">
-        <v>0.986086</v>
+        <v>1.00121</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13919</v>
+        <v>1.15817</v>
       </c>
       <c r="E65" t="n">
-        <v>0.688294</v>
+        <v>0.637705</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26264</v>
+        <v>1.26722</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.468303</v>
+        <v>0.490282</v>
       </c>
       <c r="C66" t="n">
-        <v>1.00105</v>
+        <v>0.999375</v>
       </c>
       <c r="D66" t="n">
-        <v>1.10677</v>
+        <v>1.12711</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06456</v>
+        <v>0.958407</v>
       </c>
       <c r="F66" t="n">
-        <v>1.68827</v>
+        <v>1.65116</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.719002</v>
+        <v>0.756925</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20725</v>
+        <v>1.2125</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07858</v>
+        <v>1.09621</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03562</v>
+        <v>0.93015</v>
       </c>
       <c r="F67" t="n">
-        <v>1.64847</v>
+        <v>1.62543</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.693993</v>
+        <v>0.736944</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19306</v>
+        <v>1.19416</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06072</v>
+        <v>1.08083</v>
       </c>
       <c r="E68" t="n">
-        <v>1.00857</v>
+        <v>0.904466</v>
       </c>
       <c r="F68" t="n">
-        <v>1.62067</v>
+        <v>1.58631</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.69211</v>
+        <v>0.714628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17972</v>
+        <v>1.17887</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04316</v>
+        <v>1.06354</v>
       </c>
       <c r="E69" t="n">
-        <v>0.970231</v>
+        <v>0.867243</v>
       </c>
       <c r="F69" t="n">
-        <v>1.58071</v>
+        <v>1.55347</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.675444</v>
+        <v>0.702319</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16541</v>
+        <v>1.16519</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03094</v>
+        <v>1.05192</v>
       </c>
       <c r="E70" t="n">
-        <v>0.953813</v>
+        <v>0.842832</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55429</v>
+        <v>1.53343</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.654899</v>
+        <v>0.682918</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15645</v>
+        <v>1.16401</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0005</v>
+        <v>1.02248</v>
       </c>
       <c r="E71" t="n">
-        <v>0.918611</v>
+        <v>0.821982</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52708</v>
+        <v>1.51233</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6533910000000001</v>
+        <v>0.669928</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14952</v>
+        <v>1.14168</v>
       </c>
       <c r="D72" t="n">
-        <v>0.993185</v>
+        <v>1.014</v>
       </c>
       <c r="E72" t="n">
-        <v>0.895436</v>
+        <v>0.800423</v>
       </c>
       <c r="F72" t="n">
-        <v>1.50286</v>
+        <v>1.48464</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.627204</v>
+        <v>0.6523949999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13875</v>
+        <v>1.13634</v>
       </c>
       <c r="D73" t="n">
-        <v>0.983515</v>
+        <v>1.00782</v>
       </c>
       <c r="E73" t="n">
-        <v>0.872213</v>
+        <v>0.741896</v>
       </c>
       <c r="F73" t="n">
-        <v>1.47798</v>
+        <v>1.46614</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615637</v>
+        <v>0.643258</v>
       </c>
       <c r="C74" t="n">
-        <v>1.13516</v>
+        <v>1.12924</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9703270000000001</v>
+        <v>0.9887550000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.815931</v>
+        <v>0.7251649999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45987</v>
+        <v>1.45262</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.602457</v>
+        <v>0.625183</v>
       </c>
       <c r="C75" t="n">
-        <v>1.13551</v>
+        <v>1.12867</v>
       </c>
       <c r="D75" t="n">
-        <v>0.96716</v>
+        <v>0.984513</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7953170000000001</v>
+        <v>0.741942</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4429</v>
+        <v>1.43795</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.595429</v>
+        <v>0.617573</v>
       </c>
       <c r="C76" t="n">
-        <v>1.13342</v>
+        <v>1.12479</v>
       </c>
       <c r="D76" t="n">
-        <v>0.962978</v>
+        <v>0.980177</v>
       </c>
       <c r="E76" t="n">
-        <v>0.809149</v>
+        <v>0.7253230000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>1.43397</v>
+        <v>1.42141</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5856209999999999</v>
+        <v>0.6045160000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13629</v>
+        <v>1.12814</v>
       </c>
       <c r="D77" t="n">
-        <v>0.95225</v>
+        <v>0.970073</v>
       </c>
       <c r="E77" t="n">
-        <v>0.791598</v>
+        <v>0.708824</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41745</v>
+        <v>1.41992</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5775130000000001</v>
+        <v>0.596637</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13511</v>
+        <v>1.13188</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41366</v>
+        <v>1.41183</v>
       </c>
       <c r="E78" t="n">
-        <v>0.748159</v>
+        <v>0.695258</v>
       </c>
       <c r="F78" t="n">
-        <v>1.41281</v>
+        <v>1.41106</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571088</v>
+        <v>0.586767</v>
       </c>
       <c r="C79" t="n">
-        <v>1.14573</v>
+        <v>1.15104</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38092</v>
+        <v>1.38984</v>
       </c>
       <c r="E79" t="n">
-        <v>0.73639</v>
+        <v>0.656759</v>
       </c>
       <c r="F79" t="n">
-        <v>1.40641</v>
+        <v>1.41613</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.559632</v>
+        <v>0.5614479999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17534</v>
+        <v>0.776397</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36185</v>
+        <v>1.36045</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11272</v>
+        <v>1.02614</v>
       </c>
       <c r="F80" t="n">
-        <v>2.13858</v>
+        <v>2.08825</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.800419</v>
+        <v>0.8246</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63038</v>
+        <v>1.63437</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31476</v>
+        <v>1.31427</v>
       </c>
       <c r="E81" t="n">
-        <v>1.11587</v>
+        <v>0.991832</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12195</v>
+        <v>2.0757</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.789818</v>
+        <v>0.811951</v>
       </c>
       <c r="C82" t="n">
-        <v>1.64053</v>
+        <v>1.64243</v>
       </c>
       <c r="D82" t="n">
-        <v>1.29559</v>
+        <v>1.30547</v>
       </c>
       <c r="E82" t="n">
-        <v>1.09581</v>
+        <v>0.973695</v>
       </c>
       <c r="F82" t="n">
-        <v>2.09061</v>
+        <v>2.07767</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7747889999999999</v>
+        <v>0.805311</v>
       </c>
       <c r="C83" t="n">
-        <v>1.64606</v>
+        <v>1.68075</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28072</v>
+        <v>1.29761</v>
       </c>
       <c r="E83" t="n">
-        <v>1.05723</v>
+        <v>0.955564</v>
       </c>
       <c r="F83" t="n">
-        <v>2.08028</v>
+        <v>2.07385</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.766063</v>
+        <v>0.802854</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64557</v>
+        <v>1.67563</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27226</v>
+        <v>1.2803</v>
       </c>
       <c r="E84" t="n">
-        <v>1.05054</v>
+        <v>0.933501</v>
       </c>
       <c r="F84" t="n">
-        <v>2.06465</v>
+        <v>2.03232</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.759889</v>
+        <v>0.771848</v>
       </c>
       <c r="C85" t="n">
-        <v>1.65412</v>
+        <v>1.67709</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23559</v>
+        <v>1.24878</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01091</v>
+        <v>0.906044</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04418</v>
+        <v>2.04416</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.743583</v>
+        <v>0.776131</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65596</v>
+        <v>1.68617</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22651</v>
+        <v>1.24229</v>
       </c>
       <c r="E86" t="n">
-        <v>0.986992</v>
+        <v>0.89131</v>
       </c>
       <c r="F86" t="n">
-        <v>2.03433</v>
+        <v>2.03367</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.734083</v>
+        <v>0.760856</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6581</v>
+        <v>1.68636</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22293</v>
+        <v>1.23938</v>
       </c>
       <c r="E87" t="n">
-        <v>0.962677</v>
+        <v>0.864832</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01529</v>
+        <v>2.01928</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.723666</v>
+        <v>0.741202</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67228</v>
+        <v>1.70373</v>
       </c>
       <c r="D88" t="n">
-        <v>1.21751</v>
+        <v>1.23664</v>
       </c>
       <c r="E88" t="n">
-        <v>0.940177</v>
+        <v>0.8064480000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>2.00274</v>
+        <v>2.02976</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711916</v>
+        <v>0.724553</v>
       </c>
       <c r="C89" t="n">
-        <v>1.67222</v>
+        <v>1.7154</v>
       </c>
       <c r="D89" t="n">
-        <v>1.21729</v>
+        <v>1.23507</v>
       </c>
       <c r="E89" t="n">
-        <v>0.919331</v>
+        <v>0.8232080000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>2.00727</v>
+        <v>2.03186</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.693674</v>
+        <v>0.719994</v>
       </c>
       <c r="C90" t="n">
-        <v>1.70557</v>
+        <v>1.73309</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2241</v>
+        <v>1.24129</v>
       </c>
       <c r="E90" t="n">
-        <v>0.897458</v>
+        <v>0.775185</v>
       </c>
       <c r="F90" t="n">
-        <v>1.99417</v>
+        <v>2.03168</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.696196</v>
+        <v>0.712762</v>
       </c>
       <c r="C91" t="n">
-        <v>1.43664</v>
+        <v>1.74679</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22301</v>
+        <v>1.23982</v>
       </c>
       <c r="E91" t="n">
-        <v>0.843352</v>
+        <v>0.756728</v>
       </c>
       <c r="F91" t="n">
-        <v>1.99685</v>
+        <v>2.03147</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.679338</v>
+        <v>0.663251</v>
       </c>
       <c r="C92" t="n">
-        <v>1.72734</v>
+        <v>1.75983</v>
       </c>
       <c r="D92" t="n">
-        <v>2.58346</v>
+        <v>2.66905</v>
       </c>
       <c r="E92" t="n">
-        <v>0.861842</v>
+        <v>0.779324</v>
       </c>
       <c r="F92" t="n">
-        <v>1.99588</v>
+        <v>2.04716</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.675611</v>
+        <v>0.704275</v>
       </c>
       <c r="C93" t="n">
-        <v>1.74007</v>
+        <v>1.78026</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21901</v>
+        <v>2.67939</v>
       </c>
       <c r="E93" t="n">
-        <v>0.846565</v>
+        <v>0.734197</v>
       </c>
       <c r="F93" t="n">
-        <v>2.00658</v>
+        <v>2.06902</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.670102</v>
+        <v>0.690424</v>
       </c>
       <c r="C94" t="n">
-        <v>1.75612</v>
+        <v>1.32098</v>
       </c>
       <c r="D94" t="n">
-        <v>2.21082</v>
+        <v>2.62505</v>
       </c>
       <c r="E94" t="n">
-        <v>1.19683</v>
+        <v>1.08225</v>
       </c>
       <c r="F94" t="n">
-        <v>3.11791</v>
+        <v>3.15538</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9051940000000001</v>
+        <v>0.939226</v>
       </c>
       <c r="C95" t="n">
-        <v>2.41044</v>
+        <v>2.51221</v>
       </c>
       <c r="D95" t="n">
-        <v>2.39665</v>
+        <v>2.54855</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21836</v>
+        <v>1.07191</v>
       </c>
       <c r="F95" t="n">
-        <v>3.08883</v>
+        <v>3.11302</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.890649</v>
+        <v>0.913902</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42718</v>
+        <v>2.50996</v>
       </c>
       <c r="D96" t="n">
-        <v>2.45939</v>
+        <v>2.33963</v>
       </c>
       <c r="E96" t="n">
-        <v>1.17793</v>
+        <v>1.08588</v>
       </c>
       <c r="F96" t="n">
-        <v>3.0661</v>
+        <v>3.12074</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89298</v>
+        <v>0.917553</v>
       </c>
       <c r="C97" t="n">
-        <v>2.42963</v>
+        <v>2.50822</v>
       </c>
       <c r="D97" t="n">
-        <v>2.31238</v>
+        <v>2.6322</v>
       </c>
       <c r="E97" t="n">
-        <v>1.16102</v>
+        <v>1.04047</v>
       </c>
       <c r="F97" t="n">
-        <v>3.0189</v>
+        <v>3.06372</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8671410000000001</v>
+        <v>0.882823</v>
       </c>
       <c r="C98" t="n">
-        <v>2.41137</v>
+        <v>2.49306</v>
       </c>
       <c r="D98" t="n">
-        <v>1.88331</v>
+        <v>2.33222</v>
       </c>
       <c r="E98" t="n">
-        <v>1.14246</v>
+        <v>1.02209</v>
       </c>
       <c r="F98" t="n">
-        <v>2.95811</v>
+        <v>3.04028</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.869127</v>
+        <v>0.891088</v>
       </c>
       <c r="C99" t="n">
-        <v>2.39432</v>
+        <v>2.47944</v>
       </c>
       <c r="D99" t="n">
-        <v>1.80779</v>
+        <v>2.4127</v>
       </c>
       <c r="E99" t="n">
-        <v>1.14565</v>
+        <v>1.00429</v>
       </c>
       <c r="F99" t="n">
-        <v>2.93136</v>
+        <v>2.98954</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.854218</v>
+        <v>0.890523</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38678</v>
+        <v>2.47475</v>
       </c>
       <c r="D100" t="n">
-        <v>1.70861</v>
+        <v>1.7444</v>
       </c>
       <c r="E100" t="n">
-        <v>1.10391</v>
+        <v>0.938006</v>
       </c>
       <c r="F100" t="n">
-        <v>2.89034</v>
+        <v>2.95491</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.834218</v>
+        <v>0.85508</v>
       </c>
       <c r="C101" t="n">
-        <v>2.37531</v>
+        <v>2.46461</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70338</v>
+        <v>1.73508</v>
       </c>
       <c r="E101" t="n">
-        <v>1.08673</v>
+        <v>0.971133</v>
       </c>
       <c r="F101" t="n">
-        <v>2.84789</v>
+        <v>2.92933</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8371729999999999</v>
+        <v>0.857414</v>
       </c>
       <c r="C102" t="n">
-        <v>2.3533</v>
+        <v>2.44443</v>
       </c>
       <c r="D102" t="n">
-        <v>1.86922</v>
+        <v>1.73839</v>
       </c>
       <c r="E102" t="n">
-        <v>1.02959</v>
+        <v>0.9101630000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83191</v>
+        <v>2.73165</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.781653</v>
+        <v>0.859502</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35998</v>
+        <v>2.43596</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70453</v>
+        <v>1.74019</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0543</v>
+        <v>0.940353</v>
       </c>
       <c r="F103" t="n">
-        <v>2.80279</v>
+        <v>2.88962</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.816766</v>
+        <v>0.842144</v>
       </c>
       <c r="C104" t="n">
-        <v>2.34756</v>
+        <v>2.41679</v>
       </c>
       <c r="D104" t="n">
-        <v>1.71411</v>
+        <v>1.74951</v>
       </c>
       <c r="E104" t="n">
-        <v>1.03879</v>
+        <v>0.926886</v>
       </c>
       <c r="F104" t="n">
-        <v>1.74358</v>
+        <v>2.84831</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.776248</v>
+        <v>0.830502</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82264</v>
+        <v>2.41557</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70677</v>
+        <v>1.74048</v>
       </c>
       <c r="E105" t="n">
-        <v>1.02441</v>
+        <v>0.914328</v>
       </c>
       <c r="F105" t="n">
-        <v>2.72806</v>
+        <v>1.68712</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.802428</v>
+        <v>0.792502</v>
       </c>
       <c r="C106" t="n">
-        <v>2.3152</v>
+        <v>1.85041</v>
       </c>
       <c r="D106" t="n">
-        <v>1.711</v>
+        <v>1.75416</v>
       </c>
       <c r="E106" t="n">
-        <v>0.976984</v>
+        <v>0.902556</v>
       </c>
       <c r="F106" t="n">
-        <v>1.66468</v>
+        <v>2.61362</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.778753</v>
+        <v>0.800373</v>
       </c>
       <c r="C107" t="n">
-        <v>1.28387</v>
+        <v>2.04205</v>
       </c>
       <c r="D107" t="n">
-        <v>2.96531</v>
+        <v>3.04711</v>
       </c>
       <c r="E107" t="n">
-        <v>0.965777</v>
+        <v>0.85906</v>
       </c>
       <c r="F107" t="n">
-        <v>1.62925</v>
+        <v>1.61559</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.774743</v>
+        <v>0.789085</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26419</v>
+        <v>1.24077</v>
       </c>
       <c r="D108" t="n">
-        <v>2.77314</v>
+        <v>3.03724</v>
       </c>
       <c r="E108" t="n">
-        <v>1.38024</v>
+        <v>1.23254</v>
       </c>
       <c r="F108" t="n">
-        <v>3.97945</v>
+        <v>4.04171</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.773837</v>
+        <v>0.82072</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25838</v>
+        <v>2.40621</v>
       </c>
       <c r="D109" t="n">
-        <v>3.45057</v>
+        <v>3.40283</v>
       </c>
       <c r="E109" t="n">
-        <v>1.34392</v>
+        <v>1.2308</v>
       </c>
       <c r="F109" t="n">
-        <v>3.92251</v>
+        <v>4.00141</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03598</v>
+        <v>1.04818</v>
       </c>
       <c r="C110" t="n">
-        <v>3.03515</v>
+        <v>3.13147</v>
       </c>
       <c r="D110" t="n">
-        <v>2.88541</v>
+        <v>3.18342</v>
       </c>
       <c r="E110" t="n">
-        <v>1.33407</v>
+        <v>1.17934</v>
       </c>
       <c r="F110" t="n">
-        <v>3.86958</v>
+        <v>3.92965</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02843</v>
+        <v>1.04917</v>
       </c>
       <c r="C111" t="n">
-        <v>3.02737</v>
+        <v>3.12599</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50728</v>
+        <v>2.76653</v>
       </c>
       <c r="E111" t="n">
-        <v>1.32315</v>
+        <v>1.19492</v>
       </c>
       <c r="F111" t="n">
-        <v>3.80411</v>
+        <v>3.8891</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01336</v>
+        <v>1.03772</v>
       </c>
       <c r="C112" t="n">
-        <v>2.99581</v>
+        <v>3.11849</v>
       </c>
       <c r="D112" t="n">
-        <v>2.30028</v>
+        <v>2.74755</v>
       </c>
       <c r="E112" t="n">
-        <v>1.31016</v>
+        <v>1.15417</v>
       </c>
       <c r="F112" t="n">
-        <v>3.74691</v>
+        <v>3.82503</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.985941</v>
+        <v>1.01868</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98585</v>
+        <v>3.08227</v>
       </c>
       <c r="D113" t="n">
-        <v>2.85655</v>
+        <v>2.74284</v>
       </c>
       <c r="E113" t="n">
-        <v>1.30169</v>
+        <v>1.14153</v>
       </c>
       <c r="F113" t="n">
-        <v>3.69821</v>
+        <v>3.77421</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989209</v>
+        <v>1.01093</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96232</v>
+        <v>3.05748</v>
       </c>
       <c r="D114" t="n">
-        <v>2.27844</v>
+        <v>2.73098</v>
       </c>
       <c r="E114" t="n">
-        <v>1.29095</v>
+        <v>1.15057</v>
       </c>
       <c r="F114" t="n">
-        <v>3.63176</v>
+        <v>3.72168</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9659489999999999</v>
+        <v>0.988943</v>
       </c>
       <c r="C115" t="n">
-        <v>2.9257</v>
+        <v>3.04073</v>
       </c>
       <c r="D115" t="n">
-        <v>2.2511</v>
+        <v>2.51421</v>
       </c>
       <c r="E115" t="n">
-        <v>1.28273</v>
+        <v>1.11999</v>
       </c>
       <c r="F115" t="n">
-        <v>3.57168</v>
+        <v>3.69762</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.945928</v>
+        <v>0.98285</v>
       </c>
       <c r="C116" t="n">
-        <v>2.92089</v>
+        <v>3.02907</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2572</v>
+        <v>2.52066</v>
       </c>
       <c r="E116" t="n">
-        <v>1.27307</v>
+        <v>1.10472</v>
       </c>
       <c r="F116" t="n">
-        <v>3.5284</v>
+        <v>3.63627</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.945813</v>
+        <v>0.972059</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89622</v>
+        <v>3.00474</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22535</v>
+        <v>2.28319</v>
       </c>
       <c r="E117" t="n">
-        <v>1.22639</v>
+        <v>1.0533</v>
       </c>
       <c r="F117" t="n">
-        <v>3.28616</v>
+        <v>3.5964</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.947914</v>
+        <v>0.956234</v>
       </c>
       <c r="C118" t="n">
-        <v>2.88854</v>
+        <v>3.01675</v>
       </c>
       <c r="D118" t="n">
-        <v>2.22977</v>
+        <v>2.28608</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21978</v>
+        <v>1.05006</v>
       </c>
       <c r="F118" t="n">
-        <v>3.23552</v>
+        <v>2.6802</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.923427</v>
+        <v>0.950012</v>
       </c>
       <c r="C119" t="n">
-        <v>2.8719</v>
+        <v>3.00153</v>
       </c>
       <c r="D119" t="n">
-        <v>2.23726</v>
+        <v>2.29319</v>
       </c>
       <c r="E119" t="n">
-        <v>1.24808</v>
+        <v>1.04252</v>
       </c>
       <c r="F119" t="n">
-        <v>3.39793</v>
+        <v>3.29508</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.919372</v>
+        <v>0.945052</v>
       </c>
       <c r="C120" t="n">
-        <v>2.85809</v>
+        <v>2.9796</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23614</v>
+        <v>2.29559</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20798</v>
+        <v>1.06456</v>
       </c>
       <c r="F120" t="n">
-        <v>3.15821</v>
+        <v>3.50367</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.91945</v>
+        <v>0.943998</v>
       </c>
       <c r="C121" t="n">
-        <v>1.6251</v>
+        <v>2.98392</v>
       </c>
       <c r="D121" t="n">
-        <v>4.25788</v>
+        <v>4.45783</v>
       </c>
       <c r="E121" t="n">
-        <v>1.20282</v>
+        <v>1.03115</v>
       </c>
       <c r="F121" t="n">
-        <v>3.30619</v>
+        <v>3.24133</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.919148</v>
+        <v>0.94037</v>
       </c>
       <c r="C122" t="n">
-        <v>2.82808</v>
+        <v>2.97934</v>
       </c>
       <c r="D122" t="n">
-        <v>3.80422</v>
+        <v>4.18423</v>
       </c>
       <c r="E122" t="n">
-        <v>1.19834</v>
+        <v>1.05056</v>
       </c>
       <c r="F122" t="n">
-        <v>3.07162</v>
+        <v>3.20001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.917614</v>
+        <v>0.933323</v>
       </c>
       <c r="C123" t="n">
-        <v>2.82682</v>
+        <v>1.58168</v>
       </c>
       <c r="D123" t="n">
-        <v>4.17457</v>
+        <v>4.13535</v>
       </c>
       <c r="E123" t="n">
-        <v>1.6051</v>
+        <v>1.40208</v>
       </c>
       <c r="F123" t="n">
-        <v>4.64814</v>
+        <v>4.75234</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.12499</v>
+        <v>1.1489</v>
       </c>
       <c r="C124" t="n">
-        <v>3.5743</v>
+        <v>3.71607</v>
       </c>
       <c r="D124" t="n">
-        <v>3.51642</v>
+        <v>3.42033</v>
       </c>
       <c r="E124" t="n">
-        <v>1.56603</v>
+        <v>1.38452</v>
       </c>
       <c r="F124" t="n">
-        <v>4.57107</v>
+        <v>4.68392</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1494</v>
+        <v>1.17673</v>
       </c>
       <c r="C125" t="n">
-        <v>3.56075</v>
+        <v>3.69949</v>
       </c>
       <c r="D125" t="n">
-        <v>3.69602</v>
+        <v>3.16241</v>
       </c>
       <c r="E125" t="n">
-        <v>1.55184</v>
+        <v>1.34569</v>
       </c>
       <c r="F125" t="n">
-        <v>4.49306</v>
+        <v>4.64244</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13892</v>
+        <v>1.13248</v>
       </c>
       <c r="C126" t="n">
-        <v>3.51443</v>
+        <v>3.67906</v>
       </c>
       <c r="D126" t="n">
-        <v>3.03474</v>
+        <v>2.90067</v>
       </c>
       <c r="E126" t="n">
-        <v>1.54445</v>
+        <v>1.36423</v>
       </c>
       <c r="F126" t="n">
-        <v>4.42175</v>
+        <v>4.54842</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.10603</v>
+        <v>1.13779</v>
       </c>
       <c r="C127" t="n">
-        <v>3.49358</v>
+        <v>3.62638</v>
       </c>
       <c r="D127" t="n">
-        <v>3.00997</v>
+        <v>3.1044</v>
       </c>
       <c r="E127" t="n">
-        <v>1.53223</v>
+        <v>1.35634</v>
       </c>
       <c r="F127" t="n">
-        <v>4.35497</v>
+        <v>4.50753</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.0936</v>
+        <v>1.14878</v>
       </c>
       <c r="C128" t="n">
-        <v>3.46537</v>
+        <v>3.60652</v>
       </c>
       <c r="D128" t="n">
-        <v>2.98905</v>
+        <v>3.06937</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52513</v>
+        <v>1.31722</v>
       </c>
       <c r="F128" t="n">
-        <v>4.27537</v>
+        <v>4.38985</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08706</v>
+        <v>1.10873</v>
       </c>
       <c r="C129" t="n">
-        <v>3.43418</v>
+        <v>3.57369</v>
       </c>
       <c r="D129" t="n">
-        <v>2.74533</v>
+        <v>2.7889</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51702</v>
+        <v>1.30328</v>
       </c>
       <c r="F129" t="n">
-        <v>4.2178</v>
+        <v>3.63354</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.07212</v>
+        <v>1.12347</v>
       </c>
       <c r="C130" t="n">
-        <v>3.41916</v>
+        <v>3.56769</v>
       </c>
       <c r="D130" t="n">
-        <v>2.72401</v>
+        <v>2.79773</v>
       </c>
       <c r="E130" t="n">
-        <v>1.50461</v>
+        <v>1.29191</v>
       </c>
       <c r="F130" t="n">
-        <v>4.15764</v>
+        <v>4.05691</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06953</v>
+        <v>1.09536</v>
       </c>
       <c r="C131" t="n">
-        <v>3.39668</v>
+        <v>3.5333</v>
       </c>
       <c r="D131" t="n">
-        <v>2.70733</v>
+        <v>2.78845</v>
       </c>
       <c r="E131" t="n">
-        <v>1.50075</v>
+        <v>1.28269</v>
       </c>
       <c r="F131" t="n">
-        <v>4.10243</v>
+        <v>4.24354</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06648</v>
+        <v>1.1165</v>
       </c>
       <c r="C132" t="n">
-        <v>3.37206</v>
+        <v>3.51713</v>
       </c>
       <c r="D132" t="n">
-        <v>2.70471</v>
+        <v>2.78106</v>
       </c>
       <c r="E132" t="n">
-        <v>1.49272</v>
+        <v>1.28687</v>
       </c>
       <c r="F132" t="n">
-        <v>4.03862</v>
+        <v>4.20474</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05813</v>
+        <v>1.09142</v>
       </c>
       <c r="C133" t="n">
-        <v>3.34056</v>
+        <v>3.5039</v>
       </c>
       <c r="D133" t="n">
-        <v>2.69358</v>
+        <v>2.76905</v>
       </c>
       <c r="E133" t="n">
-        <v>1.45422</v>
+        <v>1.28165</v>
       </c>
       <c r="F133" t="n">
-        <v>3.77192</v>
+        <v>4.15943</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05565</v>
+        <v>1.08526</v>
       </c>
       <c r="C134" t="n">
-        <v>3.32562</v>
+        <v>3.48514</v>
       </c>
       <c r="D134" t="n">
-        <v>2.69767</v>
+        <v>2.77042</v>
       </c>
       <c r="E134" t="n">
-        <v>1.48584</v>
+        <v>1.24093</v>
       </c>
       <c r="F134" t="n">
-        <v>3.94802</v>
+        <v>3.37859</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05216</v>
+        <v>1.04427</v>
       </c>
       <c r="C135" t="n">
-        <v>3.32348</v>
+        <v>3.46762</v>
       </c>
       <c r="D135" t="n">
-        <v>4.85651</v>
+        <v>5.07323</v>
       </c>
       <c r="E135" t="n">
-        <v>1.48035</v>
+        <v>1.26638</v>
       </c>
       <c r="F135" t="n">
-        <v>3.23606</v>
+        <v>4.06165</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05158</v>
+        <v>1.07499</v>
       </c>
       <c r="C136" t="n">
-        <v>3.31081</v>
+        <v>3.44638</v>
       </c>
       <c r="D136" t="n">
-        <v>4.56574</v>
+        <v>4.50278</v>
       </c>
       <c r="E136" t="n">
-        <v>1.47465</v>
+        <v>1.23135</v>
       </c>
       <c r="F136" t="n">
-        <v>3.8659</v>
+        <v>3.7911</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0567</v>
+        <v>1.07083</v>
       </c>
       <c r="C137" t="n">
-        <v>3.30931</v>
+        <v>3.46847</v>
       </c>
       <c r="D137" t="n">
-        <v>4.28953</v>
+        <v>4.73125</v>
       </c>
       <c r="E137" t="n">
-        <v>1.84283</v>
+        <v>1.61015</v>
       </c>
       <c r="F137" t="n">
-        <v>5.28174</v>
+        <v>5.46672</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.28636</v>
+        <v>1.32774</v>
       </c>
       <c r="C138" t="n">
-        <v>4.06869</v>
+        <v>4.23718</v>
       </c>
       <c r="D138" t="n">
-        <v>4.24654</v>
+        <v>4.16742</v>
       </c>
       <c r="E138" t="n">
-        <v>1.79795</v>
+        <v>1.56939</v>
       </c>
       <c r="F138" t="n">
-        <v>5.20215</v>
+        <v>5.35861</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.28549</v>
+        <v>1.29477</v>
       </c>
       <c r="C139" t="n">
-        <v>4.02047</v>
+        <v>4.19025</v>
       </c>
       <c r="D139" t="n">
-        <v>3.97638</v>
+        <v>4.37905</v>
       </c>
       <c r="E139" t="n">
-        <v>1.78231</v>
+        <v>1.56158</v>
       </c>
       <c r="F139" t="n">
-        <v>5.10529</v>
+        <v>5.26412</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25662</v>
+        <v>1.30055</v>
       </c>
       <c r="C140" t="n">
-        <v>3.98828</v>
+        <v>4.14926</v>
       </c>
       <c r="D140" t="n">
-        <v>3.93705</v>
+        <v>3.83781</v>
       </c>
       <c r="E140" t="n">
-        <v>1.78996</v>
+        <v>1.55128</v>
       </c>
       <c r="F140" t="n">
-        <v>5.01268</v>
+        <v>5.17172</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25285</v>
+        <v>1.3079</v>
       </c>
       <c r="C141" t="n">
-        <v>3.94149</v>
+        <v>4.11258</v>
       </c>
       <c r="D141" t="n">
-        <v>3.44305</v>
+        <v>3.28199</v>
       </c>
       <c r="E141" t="n">
-        <v>1.75468</v>
+        <v>1.54089</v>
       </c>
       <c r="F141" t="n">
-        <v>4.92825</v>
+        <v>5.08106</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24611</v>
+        <v>1.27921</v>
       </c>
       <c r="C142" t="n">
-        <v>3.90204</v>
+        <v>4.06419</v>
       </c>
       <c r="D142" t="n">
-        <v>3.17908</v>
+        <v>3.23326</v>
       </c>
       <c r="E142" t="n">
-        <v>1.73857</v>
+        <v>1.53753</v>
       </c>
       <c r="F142" t="n">
-        <v>4.82606</v>
+        <v>4.98534</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24211</v>
+        <v>1.26283</v>
       </c>
       <c r="C143" t="n">
-        <v>3.85947</v>
+        <v>4.02893</v>
       </c>
       <c r="D143" t="n">
-        <v>3.14062</v>
+        <v>3.20408</v>
       </c>
       <c r="E143" t="n">
-        <v>1.69029</v>
+        <v>1.49023</v>
       </c>
       <c r="F143" t="n">
-        <v>4.76071</v>
+        <v>4.66817</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.502227</v>
+        <v>0.502468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.674728</v>
+        <v>0.675598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.853473</v>
+        <v>0.851322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.574811</v>
+        <v>0.574312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.933346</v>
+        <v>0.930606</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.406207</v>
+        <v>0.486763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6624719999999999</v>
+        <v>0.661747</v>
       </c>
       <c r="D3" t="n">
-        <v>0.843629</v>
+        <v>0.843104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.560875</v>
+        <v>0.560566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9153</v>
+        <v>0.912173</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.398151</v>
+        <v>0.475978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.652773</v>
+        <v>0.653158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.836117</v>
+        <v>0.834965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.547486</v>
+        <v>0.546922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.899358</v>
+        <v>0.895977</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.456229</v>
+        <v>0.464508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.644428</v>
+        <v>0.64542</v>
       </c>
       <c r="D5" t="n">
-        <v>0.890356</v>
+        <v>0.828684</v>
       </c>
       <c r="E5" t="n">
-        <v>0.535283</v>
+        <v>0.534874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.884698</v>
+        <v>0.882634</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4477</v>
+        <v>0.448516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.637769</v>
+        <v>0.638391</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8250999999999999</v>
+        <v>0.865414</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525384</v>
+        <v>0.524939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.870956</v>
+        <v>0.8690330000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.383122</v>
+        <v>0.44275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.633502</v>
+        <v>0.633375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.90909</v>
+        <v>0.90789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.514718</v>
+        <v>0.514706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.859557</v>
+        <v>0.856739</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.382772</v>
+        <v>0.437328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6327199999999999</v>
+        <v>0.636803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.893525</v>
+        <v>0.891107</v>
       </c>
       <c r="E8" t="n">
-        <v>0.508917</v>
+        <v>0.508589</v>
       </c>
       <c r="F8" t="n">
-        <v>0.851023</v>
+        <v>0.848685</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.384008</v>
+        <v>0.386276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.633957</v>
+        <v>0.634512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.877123</v>
+        <v>0.875929</v>
       </c>
       <c r="E9" t="n">
-        <v>0.799131</v>
+        <v>0.801224</v>
       </c>
       <c r="F9" t="n">
-        <v>1.1365</v>
+        <v>1.13838</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.590839</v>
+        <v>0.58885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.783533</v>
+        <v>0.78368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.864334</v>
+        <v>0.861108</v>
       </c>
       <c r="E10" t="n">
-        <v>0.775074</v>
+        <v>0.776381</v>
       </c>
       <c r="F10" t="n">
-        <v>1.11043</v>
+        <v>1.10998</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.569972</v>
+        <v>0.574045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.76612</v>
+        <v>0.766252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.852179</v>
+        <v>0.848409</v>
       </c>
       <c r="E11" t="n">
-        <v>0.751227</v>
+        <v>0.7524729999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>1.08519</v>
+        <v>1.08219</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.554994</v>
+        <v>0.556747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.747744</v>
+        <v>0.754041</v>
       </c>
       <c r="D12" t="n">
-        <v>0.837741</v>
+        <v>0.836996</v>
       </c>
       <c r="E12" t="n">
-        <v>0.728425</v>
+        <v>0.728869</v>
       </c>
       <c r="F12" t="n">
-        <v>1.05966</v>
+        <v>1.05765</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.533824</v>
+        <v>0.538439</v>
       </c>
       <c r="C13" t="n">
-        <v>0.732939</v>
+        <v>0.73874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.827601</v>
+        <v>0.826216</v>
       </c>
       <c r="E13" t="n">
-        <v>0.70708</v>
+        <v>0.707557</v>
       </c>
       <c r="F13" t="n">
-        <v>1.03629</v>
+        <v>1.03622</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.523874</v>
+        <v>0.52084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.721769</v>
+        <v>0.722675</v>
       </c>
       <c r="D14" t="n">
-        <v>0.814024</v>
+        <v>0.814626</v>
       </c>
       <c r="E14" t="n">
-        <v>0.686333</v>
+        <v>0.686825</v>
       </c>
       <c r="F14" t="n">
-        <v>1.01251</v>
+        <v>1.01466</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.507823</v>
+        <v>0.510297</v>
       </c>
       <c r="C15" t="n">
-        <v>0.70969</v>
+        <v>0.710761</v>
       </c>
       <c r="D15" t="n">
-        <v>0.80744</v>
+        <v>0.805527</v>
       </c>
       <c r="E15" t="n">
-        <v>0.666916</v>
+        <v>0.66805</v>
       </c>
       <c r="F15" t="n">
-        <v>0.989861</v>
+        <v>0.993591</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.496023</v>
+        <v>0.496642</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6987370000000001</v>
+        <v>0.69812</v>
       </c>
       <c r="D16" t="n">
-        <v>0.79974</v>
+        <v>0.797401</v>
       </c>
       <c r="E16" t="n">
-        <v>0.648986</v>
+        <v>0.649262</v>
       </c>
       <c r="F16" t="n">
-        <v>0.969847</v>
+        <v>0.972067</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.480524</v>
+        <v>0.483855</v>
       </c>
       <c r="C17" t="n">
-        <v>0.686978</v>
+        <v>0.6865790000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.79043</v>
+        <v>0.790021</v>
       </c>
       <c r="E17" t="n">
-        <v>0.631696</v>
+        <v>0.632943</v>
       </c>
       <c r="F17" t="n">
-        <v>0.988739</v>
+        <v>0.990096</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472091</v>
+        <v>0.474096</v>
       </c>
       <c r="C18" t="n">
-        <v>0.676962</v>
+        <v>0.676633</v>
       </c>
       <c r="D18" t="n">
-        <v>0.784042</v>
+        <v>0.7823020000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.61605</v>
+        <v>0.616906</v>
       </c>
       <c r="F18" t="n">
-        <v>0.971713</v>
+        <v>0.976336</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465308</v>
+        <v>0.465944</v>
       </c>
       <c r="C19" t="n">
-        <v>0.666612</v>
+        <v>0.673302</v>
       </c>
       <c r="D19" t="n">
-        <v>0.778971</v>
+        <v>0.77543</v>
       </c>
       <c r="E19" t="n">
-        <v>0.602156</v>
+        <v>0.603066</v>
       </c>
       <c r="F19" t="n">
-        <v>0.954444</v>
+        <v>0.957321</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.491273</v>
+        <v>0.454899</v>
       </c>
       <c r="C20" t="n">
-        <v>0.658866</v>
+        <v>0.661389</v>
       </c>
       <c r="D20" t="n">
-        <v>0.772769</v>
+        <v>0.770299</v>
       </c>
       <c r="E20" t="n">
-        <v>0.589435</v>
+        <v>0.589764</v>
       </c>
       <c r="F20" t="n">
-        <v>0.942721</v>
+        <v>0.941492</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.446586</v>
+        <v>0.448241</v>
       </c>
       <c r="C21" t="n">
-        <v>0.656761</v>
+        <v>0.656601</v>
       </c>
       <c r="D21" t="n">
-        <v>0.983005</v>
+        <v>0.975132</v>
       </c>
       <c r="E21" t="n">
-        <v>0.578744</v>
+        <v>0.579569</v>
       </c>
       <c r="F21" t="n">
-        <v>0.937462</v>
+        <v>0.937074</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.440917</v>
+        <v>0.443257</v>
       </c>
       <c r="C22" t="n">
-        <v>0.652977</v>
+        <v>0.650661</v>
       </c>
       <c r="D22" t="n">
-        <v>0.964192</v>
+        <v>0.9574549999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.570475</v>
+        <v>0.571468</v>
       </c>
       <c r="F22" t="n">
-        <v>0.925863</v>
+        <v>0.929882</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.440337</v>
+        <v>0.443366</v>
       </c>
       <c r="C23" t="n">
-        <v>0.663678</v>
+        <v>0.652983</v>
       </c>
       <c r="D23" t="n">
-        <v>0.951902</v>
+        <v>0.948838</v>
       </c>
       <c r="E23" t="n">
-        <v>0.869458</v>
+        <v>0.870754</v>
       </c>
       <c r="F23" t="n">
-        <v>1.20618</v>
+        <v>1.20572</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.601608</v>
+        <v>0.604661</v>
       </c>
       <c r="C24" t="n">
-        <v>0.830228</v>
+        <v>0.813781</v>
       </c>
       <c r="D24" t="n">
-        <v>0.923857</v>
+        <v>0.925246</v>
       </c>
       <c r="E24" t="n">
-        <v>0.840577</v>
+        <v>0.842808</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1762</v>
+        <v>1.17552</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.584892</v>
+        <v>0.588307</v>
       </c>
       <c r="C25" t="n">
-        <v>0.814217</v>
+        <v>0.813819</v>
       </c>
       <c r="D25" t="n">
-        <v>0.913697</v>
+        <v>0.909173</v>
       </c>
       <c r="E25" t="n">
-        <v>0.81489</v>
+        <v>0.816654</v>
       </c>
       <c r="F25" t="n">
-        <v>1.14828</v>
+        <v>1.14789</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.567152</v>
+        <v>0.569631</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7946569999999999</v>
+        <v>0.794266</v>
       </c>
       <c r="D26" t="n">
-        <v>0.896197</v>
+        <v>0.895124</v>
       </c>
       <c r="E26" t="n">
-        <v>0.789499</v>
+        <v>0.791158</v>
       </c>
       <c r="F26" t="n">
-        <v>1.12232</v>
+        <v>1.12779</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.592106</v>
+        <v>0.593217</v>
       </c>
       <c r="C27" t="n">
-        <v>0.777933</v>
+        <v>0.779624</v>
       </c>
       <c r="D27" t="n">
-        <v>0.883381</v>
+        <v>0.88244</v>
       </c>
       <c r="E27" t="n">
-        <v>0.766298</v>
+        <v>0.766769</v>
       </c>
       <c r="F27" t="n">
-        <v>1.10534</v>
+        <v>1.09992</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.576031</v>
+        <v>0.573882</v>
       </c>
       <c r="C28" t="n">
-        <v>0.76357</v>
+        <v>0.76433</v>
       </c>
       <c r="D28" t="n">
-        <v>0.872887</v>
+        <v>0.871273</v>
       </c>
       <c r="E28" t="n">
-        <v>0.74274</v>
+        <v>0.743341</v>
       </c>
       <c r="F28" t="n">
-        <v>1.07595</v>
+        <v>1.08359</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.559285</v>
+        <v>0.55768</v>
       </c>
       <c r="C29" t="n">
-        <v>0.749678</v>
+        <v>0.751833</v>
       </c>
       <c r="D29" t="n">
-        <v>0.86491</v>
+        <v>0.863464</v>
       </c>
       <c r="E29" t="n">
-        <v>0.720965</v>
+        <v>0.721235</v>
       </c>
       <c r="F29" t="n">
-        <v>1.05803</v>
+        <v>1.06178</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.544287</v>
+        <v>0.543633</v>
       </c>
       <c r="C30" t="n">
-        <v>0.755342</v>
+        <v>0.75613</v>
       </c>
       <c r="D30" t="n">
-        <v>0.85615</v>
+        <v>0.854532</v>
       </c>
       <c r="E30" t="n">
-        <v>0.700417</v>
+        <v>0.700366</v>
       </c>
       <c r="F30" t="n">
-        <v>1.03745</v>
+        <v>1.03973</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.52872</v>
+        <v>0.528071</v>
       </c>
       <c r="C31" t="n">
-        <v>0.745683</v>
+        <v>0.742818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.850232</v>
+        <v>0.846259</v>
       </c>
       <c r="E31" t="n">
-        <v>0.681074</v>
+        <v>0.681405</v>
       </c>
       <c r="F31" t="n">
-        <v>1.01724</v>
+        <v>1.01588</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.513286</v>
+        <v>0.5160090000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.732447</v>
+        <v>0.735722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.840069</v>
+        <v>0.838465</v>
       </c>
       <c r="E32" t="n">
-        <v>0.662873</v>
+        <v>0.663562</v>
       </c>
       <c r="F32" t="n">
-        <v>0.99554</v>
+        <v>0.999937</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.504159</v>
+        <v>0.504785</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7255549999999999</v>
+        <v>0.727773</v>
       </c>
       <c r="D33" t="n">
-        <v>0.833511</v>
+        <v>0.831925</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6448700000000001</v>
+        <v>0.647321</v>
       </c>
       <c r="F33" t="n">
-        <v>0.977506</v>
+        <v>0.9798</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.492457</v>
+        <v>0.49419</v>
       </c>
       <c r="C34" t="n">
-        <v>0.716642</v>
+        <v>0.720059</v>
       </c>
       <c r="D34" t="n">
-        <v>0.827018</v>
+        <v>0.826879</v>
       </c>
       <c r="E34" t="n">
-        <v>0.629416</v>
+        <v>0.604889</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9603739999999999</v>
+        <v>0.965699</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.482739</v>
+        <v>0.486958</v>
       </c>
       <c r="C35" t="n">
-        <v>0.710534</v>
+        <v>0.715343</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06533</v>
+        <v>1.05534</v>
       </c>
       <c r="E35" t="n">
-        <v>0.615736</v>
+        <v>0.592381</v>
       </c>
       <c r="F35" t="n">
-        <v>0.945256</v>
+        <v>0.9463819999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.450426</v>
+        <v>0.453383</v>
       </c>
       <c r="C36" t="n">
-        <v>0.708107</v>
+        <v>0.710744</v>
       </c>
       <c r="D36" t="n">
-        <v>1.03488</v>
+        <v>1.03788</v>
       </c>
       <c r="E36" t="n">
-        <v>0.580023</v>
+        <v>0.607609</v>
       </c>
       <c r="F36" t="n">
-        <v>0.933731</v>
+        <v>0.93929</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.472139</v>
+        <v>0.451552</v>
       </c>
       <c r="C37" t="n">
-        <v>0.707326</v>
+        <v>0.709406</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02553</v>
+        <v>1.01736</v>
       </c>
       <c r="E37" t="n">
-        <v>0.90868</v>
+        <v>0.886392</v>
       </c>
       <c r="F37" t="n">
-        <v>1.52825</v>
+        <v>1.53014</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6899729999999999</v>
+        <v>0.689913</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10307</v>
+        <v>1.10444</v>
       </c>
       <c r="D38" t="n">
-        <v>0.999845</v>
+        <v>1.0009</v>
       </c>
       <c r="E38" t="n">
-        <v>0.857375</v>
+        <v>0.858499</v>
       </c>
       <c r="F38" t="n">
-        <v>1.49538</v>
+        <v>1.498</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.642854</v>
+        <v>0.670771</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08463</v>
+        <v>1.08579</v>
       </c>
       <c r="D39" t="n">
-        <v>0.979374</v>
+        <v>0.979149</v>
       </c>
       <c r="E39" t="n">
-        <v>0.85003</v>
+        <v>0.83167</v>
       </c>
       <c r="F39" t="n">
-        <v>1.46466</v>
+        <v>1.46686</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.644871</v>
+        <v>0.648766</v>
       </c>
       <c r="C40" t="n">
-        <v>1.06865</v>
+        <v>1.06973</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9643</v>
+        <v>0.966346</v>
       </c>
       <c r="E40" t="n">
-        <v>0.803579</v>
+        <v>0.805875</v>
       </c>
       <c r="F40" t="n">
-        <v>1.43564</v>
+        <v>1.43741</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.608479</v>
+        <v>0.606645</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05606</v>
+        <v>1.05363</v>
       </c>
       <c r="D41" t="n">
-        <v>0.953992</v>
+        <v>0.957682</v>
       </c>
       <c r="E41" t="n">
-        <v>0.778649</v>
+        <v>0.781247</v>
       </c>
       <c r="F41" t="n">
-        <v>1.4072</v>
+        <v>1.40959</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.607186</v>
+        <v>0.589749</v>
       </c>
       <c r="C42" t="n">
-        <v>1.03741</v>
+        <v>1.03909</v>
       </c>
       <c r="D42" t="n">
-        <v>0.935746</v>
+        <v>0.935355</v>
       </c>
       <c r="E42" t="n">
-        <v>0.756089</v>
+        <v>0.759117</v>
       </c>
       <c r="F42" t="n">
-        <v>1.38177</v>
+        <v>1.38289</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.571914</v>
+        <v>0.57423</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0214</v>
+        <v>1.02475</v>
       </c>
       <c r="D43" t="n">
-        <v>0.923579</v>
+        <v>0.924725</v>
       </c>
       <c r="E43" t="n">
-        <v>0.733778</v>
+        <v>0.737029</v>
       </c>
       <c r="F43" t="n">
-        <v>1.35547</v>
+        <v>1.3581</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.553387</v>
+        <v>0.558932</v>
       </c>
       <c r="C44" t="n">
-        <v>1.00905</v>
+        <v>1.01125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.913345</v>
+        <v>0.914206</v>
       </c>
       <c r="E44" t="n">
-        <v>0.729859</v>
+        <v>0.716452</v>
       </c>
       <c r="F44" t="n">
-        <v>1.33224</v>
+        <v>1.33452</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.54064</v>
+        <v>0.544295</v>
       </c>
       <c r="C45" t="n">
-        <v>0.999049</v>
+        <v>1.0001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.907994</v>
+        <v>0.905161</v>
       </c>
       <c r="E45" t="n">
-        <v>0.695864</v>
+        <v>0.697315</v>
       </c>
       <c r="F45" t="n">
-        <v>1.30964</v>
+        <v>1.31279</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.528075</v>
+        <v>0.531343</v>
       </c>
       <c r="C46" t="n">
-        <v>0.985182</v>
+        <v>0.9858789999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.898514</v>
+        <v>0.898123</v>
       </c>
       <c r="E46" t="n">
-        <v>0.677731</v>
+        <v>0.678951</v>
       </c>
       <c r="F46" t="n">
-        <v>1.28822</v>
+        <v>1.29031</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.53283</v>
+        <v>0.520448</v>
       </c>
       <c r="C47" t="n">
-        <v>0.974993</v>
+        <v>0.976056</v>
       </c>
       <c r="D47" t="n">
-        <v>0.892091</v>
+        <v>0.894002</v>
       </c>
       <c r="E47" t="n">
-        <v>0.675546</v>
+        <v>0.661705</v>
       </c>
       <c r="F47" t="n">
-        <v>1.26988</v>
+        <v>1.27038</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.504794</v>
+        <v>0.509153</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9678020000000001</v>
+        <v>0.967091</v>
       </c>
       <c r="D48" t="n">
-        <v>0.888148</v>
+        <v>0.892381</v>
       </c>
       <c r="E48" t="n">
-        <v>0.643043</v>
+        <v>0.646479</v>
       </c>
       <c r="F48" t="n">
-        <v>1.251</v>
+        <v>1.25362</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.500545</v>
+        <v>0.500852</v>
       </c>
       <c r="C49" t="n">
-        <v>0.962954</v>
+        <v>0.961337</v>
       </c>
       <c r="D49" t="n">
-        <v>0.882616</v>
+        <v>0.881468</v>
       </c>
       <c r="E49" t="n">
-        <v>0.603232</v>
+        <v>0.6067979999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23468</v>
+        <v>1.23799</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.488934</v>
+        <v>0.493376</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9542350000000001</v>
+        <v>0.955368</v>
       </c>
       <c r="D50" t="n">
-        <v>1.10412</v>
+        <v>1.10496</v>
       </c>
       <c r="E50" t="n">
-        <v>0.592494</v>
+        <v>0.596626</v>
       </c>
       <c r="F50" t="n">
-        <v>1.22214</v>
+        <v>1.22395</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.488999</v>
+        <v>0.466162</v>
       </c>
       <c r="C51" t="n">
-        <v>0.954798</v>
+        <v>0.9362549999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1.08535</v>
+        <v>1.0828</v>
       </c>
       <c r="E51" t="n">
-        <v>0.928623</v>
+        <v>0.932023</v>
       </c>
       <c r="F51" t="n">
-        <v>1.60815</v>
+        <v>1.61041</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.464981</v>
+        <v>0.486835</v>
       </c>
       <c r="C52" t="n">
-        <v>0.951068</v>
+        <v>0.952458</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06261</v>
+        <v>1.06305</v>
       </c>
       <c r="E52" t="n">
-        <v>0.882323</v>
+        <v>0.904319</v>
       </c>
       <c r="F52" t="n">
-        <v>1.57398</v>
+        <v>1.57665</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.689285</v>
+        <v>0.691572</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14371</v>
+        <v>1.14551</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04454</v>
+        <v>1.04503</v>
       </c>
       <c r="E53" t="n">
-        <v>0.872548</v>
+        <v>0.875536</v>
       </c>
       <c r="F53" t="n">
-        <v>1.54214</v>
+        <v>1.54242</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.670441</v>
+        <v>0.653371</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12592</v>
+        <v>1.12649</v>
       </c>
       <c r="D54" t="n">
-        <v>1.02879</v>
+        <v>1.02658</v>
       </c>
       <c r="E54" t="n">
-        <v>0.847152</v>
+        <v>0.832838</v>
       </c>
       <c r="F54" t="n">
-        <v>1.50975</v>
+        <v>1.51256</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.635313</v>
+        <v>0.6357660000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10806</v>
+        <v>1.10909</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01044</v>
+        <v>1.01084</v>
       </c>
       <c r="E55" t="n">
-        <v>0.806342</v>
+        <v>0.808501</v>
       </c>
       <c r="F55" t="n">
-        <v>1.48115</v>
+        <v>1.48313</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.615054</v>
+        <v>0.623548</v>
       </c>
       <c r="C56" t="n">
-        <v>1.09302</v>
+        <v>1.09311</v>
       </c>
       <c r="D56" t="n">
-        <v>0.995595</v>
+        <v>0.995676</v>
       </c>
       <c r="E56" t="n">
-        <v>0.784342</v>
+        <v>0.786979</v>
       </c>
       <c r="F56" t="n">
-        <v>1.4524</v>
+        <v>1.45335</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.601167</v>
+        <v>0.604409</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07773</v>
+        <v>1.07829</v>
       </c>
       <c r="D57" t="n">
-        <v>0.980325</v>
+        <v>0.9825469999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.761286</v>
+        <v>0.765445</v>
       </c>
       <c r="F57" t="n">
-        <v>1.42512</v>
+        <v>1.42752</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5860069999999999</v>
+        <v>0.592221</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06313</v>
+        <v>1.06532</v>
       </c>
       <c r="D58" t="n">
-        <v>0.972544</v>
+        <v>0.9719680000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7414500000000001</v>
+        <v>0.744882</v>
       </c>
       <c r="F58" t="n">
-        <v>1.39974</v>
+        <v>1.40226</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.573666</v>
+        <v>0.578265</v>
       </c>
       <c r="C59" t="n">
-        <v>1.04845</v>
+        <v>1.05146</v>
       </c>
       <c r="D59" t="n">
-        <v>0.953687</v>
+        <v>0.951149</v>
       </c>
       <c r="E59" t="n">
-        <v>0.68601</v>
+        <v>0.692029</v>
       </c>
       <c r="F59" t="n">
-        <v>1.37648</v>
+        <v>1.37694</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.558517</v>
+        <v>0.562482</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03694</v>
+        <v>1.03655</v>
       </c>
       <c r="D60" t="n">
-        <v>0.943117</v>
+        <v>0.943144</v>
       </c>
       <c r="E60" t="n">
-        <v>0.702508</v>
+        <v>0.706861</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35272</v>
+        <v>1.35436</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.545292</v>
+        <v>0.5539230000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02631</v>
+        <v>1.02704</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9346410000000001</v>
+        <v>0.934779</v>
       </c>
       <c r="E61" t="n">
-        <v>0.685647</v>
+        <v>0.658906</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33333</v>
+        <v>1.3325</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.534172</v>
+        <v>0.559473</v>
       </c>
       <c r="C62" t="n">
-        <v>1.01785</v>
+        <v>1.01685</v>
       </c>
       <c r="D62" t="n">
-        <v>0.924807</v>
+        <v>0.923137</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6701820000000001</v>
+        <v>0.6440709999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31282</v>
+        <v>1.31427</v>
       </c>
     </row>
     <row r="63">
@@ -6304,16 +6304,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.52816</v>
+        <v>0.532727</v>
       </c>
       <c r="C63" t="n">
-        <v>1.00965</v>
+        <v>1.00993</v>
       </c>
       <c r="D63" t="n">
-        <v>0.917405</v>
+        <v>0.915884</v>
       </c>
       <c r="E63" t="n">
-        <v>0.658888</v>
+        <v>0.630165</v>
       </c>
       <c r="F63" t="n">
         <v>1.29468</v>
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.523339</v>
+        <v>0.520988</v>
       </c>
       <c r="C64" t="n">
-        <v>1.00533</v>
+        <v>1.00316</v>
       </c>
       <c r="D64" t="n">
-        <v>1.18217</v>
+        <v>1.1835</v>
       </c>
       <c r="E64" t="n">
-        <v>0.644741</v>
+        <v>0.6474220000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>1.27981</v>
+        <v>1.28002</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.517522</v>
+        <v>0.490002</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00121</v>
+        <v>0.999115</v>
       </c>
       <c r="D65" t="n">
-        <v>1.15817</v>
+        <v>1.15768</v>
       </c>
       <c r="E65" t="n">
-        <v>0.637705</v>
+        <v>0.639999</v>
       </c>
       <c r="F65" t="n">
-        <v>1.26722</v>
+        <v>1.26696</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.490282</v>
+        <v>0.515742</v>
       </c>
       <c r="C66" t="n">
-        <v>0.999375</v>
+        <v>0.998077</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12711</v>
+        <v>1.13064</v>
       </c>
       <c r="E66" t="n">
-        <v>0.958407</v>
+        <v>0.9565979999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>1.65116</v>
+        <v>1.65648</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.756925</v>
+        <v>0.748598</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2125</v>
+        <v>1.21618</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09621</v>
+        <v>1.09962</v>
       </c>
       <c r="E67" t="n">
-        <v>0.93015</v>
+        <v>0.931094</v>
       </c>
       <c r="F67" t="n">
-        <v>1.62543</v>
+        <v>1.61476</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.736944</v>
+        <v>0.735988</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19416</v>
+        <v>1.19289</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08083</v>
+        <v>1.07929</v>
       </c>
       <c r="E68" t="n">
-        <v>0.904466</v>
+        <v>0.893004</v>
       </c>
       <c r="F68" t="n">
-        <v>1.58631</v>
+        <v>1.58557</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.714628</v>
+        <v>0.714933</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17887</v>
+        <v>1.17966</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06354</v>
+        <v>1.06402</v>
       </c>
       <c r="E69" t="n">
-        <v>0.867243</v>
+        <v>0.870329</v>
       </c>
       <c r="F69" t="n">
-        <v>1.55347</v>
+        <v>1.5544</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.702319</v>
+        <v>0.696627</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16519</v>
+        <v>1.16448</v>
       </c>
       <c r="D70" t="n">
-        <v>1.05192</v>
+        <v>1.05253</v>
       </c>
       <c r="E70" t="n">
-        <v>0.842832</v>
+        <v>0.849333</v>
       </c>
       <c r="F70" t="n">
-        <v>1.53343</v>
+        <v>1.53115</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.682918</v>
+        <v>0.687186</v>
       </c>
       <c r="C71" t="n">
-        <v>1.16401</v>
+        <v>1.15621</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02248</v>
+        <v>1.02103</v>
       </c>
       <c r="E71" t="n">
-        <v>0.821982</v>
+        <v>0.829526</v>
       </c>
       <c r="F71" t="n">
-        <v>1.51233</v>
+        <v>1.50569</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.669928</v>
+        <v>0.675898</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14168</v>
+        <v>1.14318</v>
       </c>
       <c r="D72" t="n">
-        <v>1.014</v>
+        <v>1.01087</v>
       </c>
       <c r="E72" t="n">
-        <v>0.800423</v>
+        <v>0.804903</v>
       </c>
       <c r="F72" t="n">
-        <v>1.48464</v>
+        <v>1.4838</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6523949999999999</v>
+        <v>0.6600510000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13634</v>
+        <v>1.13804</v>
       </c>
       <c r="D73" t="n">
-        <v>1.00782</v>
+        <v>1.00606</v>
       </c>
       <c r="E73" t="n">
-        <v>0.741896</v>
+        <v>0.783304</v>
       </c>
       <c r="F73" t="n">
-        <v>1.46614</v>
+        <v>1.46496</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.643258</v>
+        <v>0.645572</v>
       </c>
       <c r="C74" t="n">
-        <v>1.12924</v>
+        <v>1.12455</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9887550000000001</v>
+        <v>0.987269</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7251649999999999</v>
+        <v>0.7633450000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45262</v>
+        <v>1.4474</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.625183</v>
+        <v>0.634973</v>
       </c>
       <c r="C75" t="n">
-        <v>1.12867</v>
+        <v>1.12626</v>
       </c>
       <c r="D75" t="n">
-        <v>0.984513</v>
+        <v>0.986146</v>
       </c>
       <c r="E75" t="n">
-        <v>0.741942</v>
+        <v>0.746363</v>
       </c>
       <c r="F75" t="n">
-        <v>1.43795</v>
+        <v>1.43202</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.617573</v>
+        <v>0.617131</v>
       </c>
       <c r="C76" t="n">
-        <v>1.12479</v>
+        <v>1.12763</v>
       </c>
       <c r="D76" t="n">
-        <v>0.980177</v>
+        <v>0.984336</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7253230000000001</v>
+        <v>0.694203</v>
       </c>
       <c r="F76" t="n">
-        <v>1.42141</v>
+        <v>1.42904</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6045160000000001</v>
+        <v>0.605891</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12814</v>
+        <v>1.13275</v>
       </c>
       <c r="D77" t="n">
-        <v>0.970073</v>
+        <v>0.972879</v>
       </c>
       <c r="E77" t="n">
-        <v>0.708824</v>
+        <v>0.679392</v>
       </c>
       <c r="F77" t="n">
-        <v>1.41992</v>
+        <v>1.42234</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.596637</v>
+        <v>0.594485</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13188</v>
+        <v>1.13969</v>
       </c>
       <c r="D78" t="n">
-        <v>1.41183</v>
+        <v>1.41124</v>
       </c>
       <c r="E78" t="n">
-        <v>0.695258</v>
+        <v>0.669607</v>
       </c>
       <c r="F78" t="n">
-        <v>1.41106</v>
+        <v>1.4216</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.586767</v>
+        <v>0.582299</v>
       </c>
       <c r="C79" t="n">
-        <v>1.15104</v>
+        <v>1.14625</v>
       </c>
       <c r="D79" t="n">
-        <v>1.38984</v>
+        <v>1.38775</v>
       </c>
       <c r="E79" t="n">
-        <v>0.656759</v>
+        <v>0.658932</v>
       </c>
       <c r="F79" t="n">
-        <v>1.41613</v>
+        <v>1.41534</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5614479999999999</v>
+        <v>0.582137</v>
       </c>
       <c r="C80" t="n">
-        <v>0.776397</v>
+        <v>1.16221</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36045</v>
+        <v>1.36186</v>
       </c>
       <c r="E80" t="n">
-        <v>1.02614</v>
+        <v>1.01398</v>
       </c>
       <c r="F80" t="n">
-        <v>2.08825</v>
+        <v>2.06697</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8246</v>
+        <v>0.8237100000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63437</v>
+        <v>1.62188</v>
       </c>
       <c r="D81" t="n">
-        <v>1.31427</v>
+        <v>1.31445</v>
       </c>
       <c r="E81" t="n">
-        <v>0.991832</v>
+        <v>0.998733</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0757</v>
+        <v>2.07578</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.811951</v>
+        <v>0.833136</v>
       </c>
       <c r="C82" t="n">
-        <v>1.64243</v>
+        <v>1.6511</v>
       </c>
       <c r="D82" t="n">
-        <v>1.30547</v>
+        <v>1.30392</v>
       </c>
       <c r="E82" t="n">
-        <v>0.973695</v>
+        <v>0.992298</v>
       </c>
       <c r="F82" t="n">
-        <v>2.07767</v>
+        <v>2.07517</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.805311</v>
+        <v>0.81753</v>
       </c>
       <c r="C83" t="n">
-        <v>1.68075</v>
+        <v>1.66065</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29761</v>
+        <v>1.289</v>
       </c>
       <c r="E83" t="n">
-        <v>0.955564</v>
+        <v>0.95273</v>
       </c>
       <c r="F83" t="n">
-        <v>2.07385</v>
+        <v>2.05135</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.802854</v>
+        <v>0.780224</v>
       </c>
       <c r="C84" t="n">
-        <v>1.67563</v>
+        <v>1.66751</v>
       </c>
       <c r="D84" t="n">
-        <v>1.2803</v>
+        <v>1.27858</v>
       </c>
       <c r="E84" t="n">
-        <v>0.933501</v>
+        <v>0.93321</v>
       </c>
       <c r="F84" t="n">
-        <v>2.03232</v>
+        <v>2.04212</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.771848</v>
+        <v>0.790934</v>
       </c>
       <c r="C85" t="n">
-        <v>1.67709</v>
+        <v>1.65752</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24878</v>
+        <v>1.24092</v>
       </c>
       <c r="E85" t="n">
-        <v>0.906044</v>
+        <v>0.913918</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04416</v>
+        <v>2.03378</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.776131</v>
+        <v>0.774027</v>
       </c>
       <c r="C86" t="n">
-        <v>1.68617</v>
+        <v>1.68479</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24229</v>
+        <v>1.24041</v>
       </c>
       <c r="E86" t="n">
-        <v>0.89131</v>
+        <v>0.889421</v>
       </c>
       <c r="F86" t="n">
-        <v>2.03367</v>
+        <v>2.02661</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.760856</v>
+        <v>0.760942</v>
       </c>
       <c r="C87" t="n">
-        <v>1.68636</v>
+        <v>1.68033</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23938</v>
+        <v>1.23949</v>
       </c>
       <c r="E87" t="n">
-        <v>0.864832</v>
+        <v>0.866345</v>
       </c>
       <c r="F87" t="n">
-        <v>2.01928</v>
+        <v>2.02634</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.741202</v>
+        <v>0.753826</v>
       </c>
       <c r="C88" t="n">
-        <v>1.70373</v>
+        <v>1.70771</v>
       </c>
       <c r="D88" t="n">
-        <v>1.23664</v>
+        <v>1.23009</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8064480000000001</v>
+        <v>0.847571</v>
       </c>
       <c r="F88" t="n">
-        <v>2.02976</v>
+        <v>2.03186</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.724553</v>
+        <v>0.73926</v>
       </c>
       <c r="C89" t="n">
-        <v>1.7154</v>
+        <v>1.71722</v>
       </c>
       <c r="D89" t="n">
-        <v>1.23507</v>
+        <v>1.23852</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8232080000000001</v>
+        <v>0.825275</v>
       </c>
       <c r="F89" t="n">
-        <v>2.03186</v>
+        <v>2.02749</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.719994</v>
+        <v>0.722123</v>
       </c>
       <c r="C90" t="n">
-        <v>1.73309</v>
+        <v>1.72669</v>
       </c>
       <c r="D90" t="n">
-        <v>1.24129</v>
+        <v>1.24086</v>
       </c>
       <c r="E90" t="n">
-        <v>0.775185</v>
+        <v>0.808207</v>
       </c>
       <c r="F90" t="n">
-        <v>2.03168</v>
+        <v>2.03462</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.712762</v>
+        <v>0.716404</v>
       </c>
       <c r="C91" t="n">
-        <v>1.74679</v>
+        <v>1.75067</v>
       </c>
       <c r="D91" t="n">
-        <v>1.23982</v>
+        <v>1.24039</v>
       </c>
       <c r="E91" t="n">
-        <v>0.756728</v>
+        <v>0.755841</v>
       </c>
       <c r="F91" t="n">
-        <v>2.03147</v>
+        <v>2.04875</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.663251</v>
+        <v>0.707185</v>
       </c>
       <c r="C92" t="n">
-        <v>1.75983</v>
+        <v>0.984222</v>
       </c>
       <c r="D92" t="n">
-        <v>2.66905</v>
+        <v>2.28027</v>
       </c>
       <c r="E92" t="n">
-        <v>0.779324</v>
+        <v>0.7475270000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>2.04716</v>
+        <v>2.04601</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.704275</v>
+        <v>0.700282</v>
       </c>
       <c r="C93" t="n">
-        <v>1.78026</v>
+        <v>0.97541</v>
       </c>
       <c r="D93" t="n">
-        <v>2.67939</v>
+        <v>2.28303</v>
       </c>
       <c r="E93" t="n">
-        <v>0.734197</v>
+        <v>0.767988</v>
       </c>
       <c r="F93" t="n">
-        <v>2.06902</v>
+        <v>2.05029</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.690424</v>
+        <v>0.691901</v>
       </c>
       <c r="C94" t="n">
-        <v>1.32098</v>
+        <v>0.9712499999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>2.62505</v>
+        <v>2.27564</v>
       </c>
       <c r="E94" t="n">
-        <v>1.08225</v>
+        <v>1.11243</v>
       </c>
       <c r="F94" t="n">
-        <v>3.15538</v>
+        <v>3.16305</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.939226</v>
+        <v>0.948492</v>
       </c>
       <c r="C95" t="n">
-        <v>2.51221</v>
+        <v>2.49345</v>
       </c>
       <c r="D95" t="n">
-        <v>2.54855</v>
+        <v>2.41055</v>
       </c>
       <c r="E95" t="n">
-        <v>1.07191</v>
+        <v>1.07623</v>
       </c>
       <c r="F95" t="n">
-        <v>3.11302</v>
+        <v>3.1317</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.913902</v>
+        <v>0.93082</v>
       </c>
       <c r="C96" t="n">
-        <v>2.50996</v>
+        <v>2.50618</v>
       </c>
       <c r="D96" t="n">
-        <v>2.33963</v>
+        <v>2.55645</v>
       </c>
       <c r="E96" t="n">
-        <v>1.08588</v>
+        <v>1.09116</v>
       </c>
       <c r="F96" t="n">
-        <v>3.12074</v>
+        <v>3.09526</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.917553</v>
+        <v>0.922861</v>
       </c>
       <c r="C97" t="n">
-        <v>2.50822</v>
+        <v>2.51181</v>
       </c>
       <c r="D97" t="n">
-        <v>2.6322</v>
+        <v>2.55132</v>
       </c>
       <c r="E97" t="n">
-        <v>1.04047</v>
+        <v>1.03964</v>
       </c>
       <c r="F97" t="n">
-        <v>3.06372</v>
+        <v>3.06823</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.882823</v>
+        <v>0.897756</v>
       </c>
       <c r="C98" t="n">
-        <v>2.49306</v>
+        <v>2.49396</v>
       </c>
       <c r="D98" t="n">
-        <v>2.33222</v>
+        <v>2.16483</v>
       </c>
       <c r="E98" t="n">
-        <v>1.02209</v>
+        <v>1.04875</v>
       </c>
       <c r="F98" t="n">
-        <v>3.04028</v>
+        <v>3.03196</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.891088</v>
+        <v>0.879498</v>
       </c>
       <c r="C99" t="n">
-        <v>2.47944</v>
+        <v>2.49066</v>
       </c>
       <c r="D99" t="n">
-        <v>2.4127</v>
+        <v>2.0046</v>
       </c>
       <c r="E99" t="n">
-        <v>1.00429</v>
+        <v>1.00581</v>
       </c>
       <c r="F99" t="n">
-        <v>2.98954</v>
+        <v>2.97415</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.890523</v>
+        <v>0.8955109999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>2.47475</v>
+        <v>2.46537</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7444</v>
+        <v>1.73748</v>
       </c>
       <c r="E100" t="n">
-        <v>0.938006</v>
+        <v>0.987814</v>
       </c>
       <c r="F100" t="n">
-        <v>2.95491</v>
+        <v>2.9683</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.85508</v>
+        <v>0.867285</v>
       </c>
       <c r="C101" t="n">
-        <v>2.46461</v>
+        <v>2.45694</v>
       </c>
       <c r="D101" t="n">
-        <v>1.73508</v>
+        <v>1.73206</v>
       </c>
       <c r="E101" t="n">
-        <v>0.971133</v>
+        <v>0.972576</v>
       </c>
       <c r="F101" t="n">
-        <v>2.92933</v>
+        <v>2.93044</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.857414</v>
+        <v>0.864521</v>
       </c>
       <c r="C102" t="n">
-        <v>2.44443</v>
+        <v>2.45004</v>
       </c>
       <c r="D102" t="n">
-        <v>1.73839</v>
+        <v>1.73235</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9101630000000001</v>
+        <v>0.956866</v>
       </c>
       <c r="F102" t="n">
-        <v>2.73165</v>
+        <v>1.80766</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.859502</v>
+        <v>0.798092</v>
       </c>
       <c r="C103" t="n">
-        <v>2.43596</v>
+        <v>2.06243</v>
       </c>
       <c r="D103" t="n">
-        <v>1.74019</v>
+        <v>1.73978</v>
       </c>
       <c r="E103" t="n">
-        <v>0.940353</v>
+        <v>0.93993</v>
       </c>
       <c r="F103" t="n">
-        <v>2.88962</v>
+        <v>1.76419</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.842144</v>
+        <v>0.7946879999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>2.41679</v>
+        <v>1.59764</v>
       </c>
       <c r="D104" t="n">
-        <v>1.74951</v>
+        <v>1.74135</v>
       </c>
       <c r="E104" t="n">
-        <v>0.926886</v>
+        <v>0.888341</v>
       </c>
       <c r="F104" t="n">
-        <v>2.84831</v>
+        <v>1.71943</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.830502</v>
+        <v>0.804782</v>
       </c>
       <c r="C105" t="n">
-        <v>2.41557</v>
+        <v>2.04957</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74048</v>
+        <v>1.73533</v>
       </c>
       <c r="E105" t="n">
-        <v>0.914328</v>
+        <v>0.877048</v>
       </c>
       <c r="F105" t="n">
-        <v>1.68712</v>
+        <v>1.68286</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.792502</v>
+        <v>0.80409</v>
       </c>
       <c r="C106" t="n">
-        <v>1.85041</v>
+        <v>1.27527</v>
       </c>
       <c r="D106" t="n">
-        <v>1.75416</v>
+        <v>1.74586</v>
       </c>
       <c r="E106" t="n">
-        <v>0.902556</v>
+        <v>0.866085</v>
       </c>
       <c r="F106" t="n">
-        <v>2.61362</v>
+        <v>1.64889</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.800373</v>
+        <v>0.819377</v>
       </c>
       <c r="C107" t="n">
-        <v>2.04205</v>
+        <v>2.42042</v>
       </c>
       <c r="D107" t="n">
-        <v>3.04711</v>
+        <v>3.64311</v>
       </c>
       <c r="E107" t="n">
-        <v>0.85906</v>
+        <v>0.895814</v>
       </c>
       <c r="F107" t="n">
-        <v>1.61559</v>
+        <v>2.76903</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.789085</v>
+        <v>0.827731</v>
       </c>
       <c r="C108" t="n">
-        <v>1.24077</v>
+        <v>2.3936</v>
       </c>
       <c r="D108" t="n">
-        <v>3.03724</v>
+        <v>3.03609</v>
       </c>
       <c r="E108" t="n">
-        <v>1.23254</v>
+        <v>1.20228</v>
       </c>
       <c r="F108" t="n">
-        <v>4.04171</v>
+        <v>4.06477</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.82072</v>
+        <v>0.789234</v>
       </c>
       <c r="C109" t="n">
-        <v>2.40621</v>
+        <v>1.23308</v>
       </c>
       <c r="D109" t="n">
-        <v>3.40283</v>
+        <v>3.01418</v>
       </c>
       <c r="E109" t="n">
-        <v>1.2308</v>
+        <v>1.23026</v>
       </c>
       <c r="F109" t="n">
-        <v>4.00141</v>
+        <v>3.99169</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04818</v>
+        <v>1.05027</v>
       </c>
       <c r="C110" t="n">
-        <v>3.13147</v>
+        <v>3.14539</v>
       </c>
       <c r="D110" t="n">
-        <v>3.18342</v>
+        <v>2.78838</v>
       </c>
       <c r="E110" t="n">
-        <v>1.17934</v>
+        <v>1.18801</v>
       </c>
       <c r="F110" t="n">
-        <v>3.92965</v>
+        <v>3.93782</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.04917</v>
+        <v>1.04988</v>
       </c>
       <c r="C111" t="n">
-        <v>3.12599</v>
+        <v>3.11671</v>
       </c>
       <c r="D111" t="n">
-        <v>2.76653</v>
+        <v>2.76915</v>
       </c>
       <c r="E111" t="n">
-        <v>1.19492</v>
+        <v>1.17064</v>
       </c>
       <c r="F111" t="n">
-        <v>3.8891</v>
+        <v>3.88294</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.03772</v>
+        <v>1.01434</v>
       </c>
       <c r="C112" t="n">
-        <v>3.11849</v>
+        <v>3.10878</v>
       </c>
       <c r="D112" t="n">
-        <v>2.74755</v>
+        <v>2.75053</v>
       </c>
       <c r="E112" t="n">
-        <v>1.15417</v>
+        <v>1.15676</v>
       </c>
       <c r="F112" t="n">
-        <v>3.82503</v>
+        <v>3.82894</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.01868</v>
+        <v>1.0139</v>
       </c>
       <c r="C113" t="n">
-        <v>3.08227</v>
+        <v>3.0816</v>
       </c>
       <c r="D113" t="n">
-        <v>2.74284</v>
+        <v>2.32362</v>
       </c>
       <c r="E113" t="n">
-        <v>1.14153</v>
+        <v>1.13462</v>
       </c>
       <c r="F113" t="n">
-        <v>3.77421</v>
+        <v>3.78723</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.01093</v>
+        <v>1.00141</v>
       </c>
       <c r="C114" t="n">
-        <v>3.05748</v>
+        <v>3.0625</v>
       </c>
       <c r="D114" t="n">
-        <v>2.73098</v>
+        <v>2.51392</v>
       </c>
       <c r="E114" t="n">
-        <v>1.15057</v>
+        <v>1.12977</v>
       </c>
       <c r="F114" t="n">
-        <v>3.72168</v>
+        <v>3.72505</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.988943</v>
+        <v>0.999934</v>
       </c>
       <c r="C115" t="n">
-        <v>3.04073</v>
+        <v>3.03944</v>
       </c>
       <c r="D115" t="n">
-        <v>2.51421</v>
+        <v>2.724</v>
       </c>
       <c r="E115" t="n">
-        <v>1.11999</v>
+        <v>1.11656</v>
       </c>
       <c r="F115" t="n">
-        <v>3.69762</v>
+        <v>3.65471</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.98285</v>
+        <v>0.976565</v>
       </c>
       <c r="C116" t="n">
-        <v>3.02907</v>
+        <v>3.01617</v>
       </c>
       <c r="D116" t="n">
-        <v>2.52066</v>
+        <v>2.30017</v>
       </c>
       <c r="E116" t="n">
-        <v>1.10472</v>
+        <v>1.09764</v>
       </c>
       <c r="F116" t="n">
-        <v>3.63627</v>
+        <v>3.6342</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.972059</v>
+        <v>0.975438</v>
       </c>
       <c r="C117" t="n">
-        <v>3.00474</v>
+        <v>3.00788</v>
       </c>
       <c r="D117" t="n">
-        <v>2.28319</v>
+        <v>2.27471</v>
       </c>
       <c r="E117" t="n">
-        <v>1.0533</v>
+        <v>1.0954</v>
       </c>
       <c r="F117" t="n">
-        <v>3.5964</v>
+        <v>3.59082</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.956234</v>
+        <v>0.967388</v>
       </c>
       <c r="C118" t="n">
-        <v>3.01675</v>
+        <v>3.00505</v>
       </c>
       <c r="D118" t="n">
-        <v>2.28608</v>
+        <v>2.28386</v>
       </c>
       <c r="E118" t="n">
-        <v>1.05006</v>
+        <v>1.04673</v>
       </c>
       <c r="F118" t="n">
-        <v>2.6802</v>
+        <v>3.55713</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.950012</v>
+        <v>0.949423</v>
       </c>
       <c r="C119" t="n">
-        <v>3.00153</v>
+        <v>2.9769</v>
       </c>
       <c r="D119" t="n">
-        <v>2.29319</v>
+        <v>2.28443</v>
       </c>
       <c r="E119" t="n">
-        <v>1.04252</v>
+        <v>1.07481</v>
       </c>
       <c r="F119" t="n">
-        <v>3.29508</v>
+        <v>3.51487</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.945052</v>
+        <v>0.950501</v>
       </c>
       <c r="C120" t="n">
-        <v>2.9796</v>
+        <v>2.9726</v>
       </c>
       <c r="D120" t="n">
-        <v>2.29559</v>
+        <v>2.28581</v>
       </c>
       <c r="E120" t="n">
-        <v>1.06456</v>
+        <v>1.06919</v>
       </c>
       <c r="F120" t="n">
-        <v>3.50367</v>
+        <v>2.81108</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.943998</v>
+        <v>0.908906</v>
       </c>
       <c r="C121" t="n">
-        <v>2.98392</v>
+        <v>1.61249</v>
       </c>
       <c r="D121" t="n">
-        <v>4.45783</v>
+        <v>3.76104</v>
       </c>
       <c r="E121" t="n">
-        <v>1.03115</v>
+        <v>1.05338</v>
       </c>
       <c r="F121" t="n">
-        <v>3.24133</v>
+        <v>3.43803</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.94037</v>
+        <v>0.939442</v>
       </c>
       <c r="C122" t="n">
-        <v>2.97934</v>
+        <v>1.58688</v>
       </c>
       <c r="D122" t="n">
-        <v>4.18423</v>
+        <v>3.72275</v>
       </c>
       <c r="E122" t="n">
-        <v>1.05056</v>
+        <v>1.05554</v>
       </c>
       <c r="F122" t="n">
-        <v>3.20001</v>
+        <v>3.41827</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.933323</v>
+        <v>0.912029</v>
       </c>
       <c r="C123" t="n">
-        <v>1.58168</v>
+        <v>2.72261</v>
       </c>
       <c r="D123" t="n">
-        <v>4.13535</v>
+        <v>4.35761</v>
       </c>
       <c r="E123" t="n">
-        <v>1.40208</v>
+        <v>1.36608</v>
       </c>
       <c r="F123" t="n">
-        <v>4.75234</v>
+        <v>4.76715</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1489</v>
+        <v>1.19193</v>
       </c>
       <c r="C124" t="n">
-        <v>3.71607</v>
+        <v>3.71537</v>
       </c>
       <c r="D124" t="n">
-        <v>3.42033</v>
+        <v>4.09616</v>
       </c>
       <c r="E124" t="n">
-        <v>1.38452</v>
+        <v>1.3542</v>
       </c>
       <c r="F124" t="n">
-        <v>4.68392</v>
+        <v>4.68473</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.17673</v>
+        <v>1.14633</v>
       </c>
       <c r="C125" t="n">
-        <v>3.69949</v>
+        <v>3.67953</v>
       </c>
       <c r="D125" t="n">
-        <v>3.16241</v>
+        <v>3.6042</v>
       </c>
       <c r="E125" t="n">
-        <v>1.34569</v>
+        <v>1.34282</v>
       </c>
       <c r="F125" t="n">
-        <v>4.64244</v>
+        <v>4.61066</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13248</v>
+        <v>1.1308</v>
       </c>
       <c r="C126" t="n">
-        <v>3.67906</v>
+        <v>3.66078</v>
       </c>
       <c r="D126" t="n">
-        <v>2.90067</v>
+        <v>3.12499</v>
       </c>
       <c r="E126" t="n">
-        <v>1.36423</v>
+        <v>1.36176</v>
       </c>
       <c r="F126" t="n">
-        <v>4.54842</v>
+        <v>4.55367</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13779</v>
+        <v>1.13644</v>
       </c>
       <c r="C127" t="n">
-        <v>3.62638</v>
+        <v>3.64265</v>
       </c>
       <c r="D127" t="n">
-        <v>3.1044</v>
+        <v>3.33611</v>
       </c>
       <c r="E127" t="n">
-        <v>1.35634</v>
+        <v>1.35239</v>
       </c>
       <c r="F127" t="n">
-        <v>4.50753</v>
+        <v>4.46768</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.14878</v>
+        <v>1.12515</v>
       </c>
       <c r="C128" t="n">
-        <v>3.60652</v>
+        <v>3.59728</v>
       </c>
       <c r="D128" t="n">
-        <v>3.06937</v>
+        <v>2.83729</v>
       </c>
       <c r="E128" t="n">
-        <v>1.31722</v>
+        <v>1.31348</v>
       </c>
       <c r="F128" t="n">
-        <v>4.38985</v>
+        <v>4.41067</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10873</v>
+        <v>1.11292</v>
       </c>
       <c r="C129" t="n">
-        <v>3.57369</v>
+        <v>3.56754</v>
       </c>
       <c r="D129" t="n">
-        <v>2.7889</v>
+        <v>2.80336</v>
       </c>
       <c r="E129" t="n">
-        <v>1.30328</v>
+        <v>1.30141</v>
       </c>
       <c r="F129" t="n">
-        <v>3.63354</v>
+        <v>4.35548</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.12347</v>
+        <v>1.10189</v>
       </c>
       <c r="C130" t="n">
-        <v>3.56769</v>
+        <v>3.55498</v>
       </c>
       <c r="D130" t="n">
-        <v>2.79773</v>
+        <v>2.79574</v>
       </c>
       <c r="E130" t="n">
-        <v>1.29191</v>
+        <v>1.26593</v>
       </c>
       <c r="F130" t="n">
-        <v>4.05691</v>
+        <v>4.07067</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09536</v>
+        <v>1.09966</v>
       </c>
       <c r="C131" t="n">
-        <v>3.5333</v>
+        <v>3.53363</v>
       </c>
       <c r="D131" t="n">
-        <v>2.78845</v>
+        <v>2.78051</v>
       </c>
       <c r="E131" t="n">
-        <v>1.28269</v>
+        <v>1.29339</v>
       </c>
       <c r="F131" t="n">
-        <v>4.24354</v>
+        <v>4.01861</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.1165</v>
+        <v>1.09104</v>
       </c>
       <c r="C132" t="n">
-        <v>3.51713</v>
+        <v>3.52359</v>
       </c>
       <c r="D132" t="n">
-        <v>2.78106</v>
+        <v>2.7813</v>
       </c>
       <c r="E132" t="n">
-        <v>1.28687</v>
+        <v>1.28986</v>
       </c>
       <c r="F132" t="n">
-        <v>4.20474</v>
+        <v>4.19499</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09142</v>
+        <v>1.09543</v>
       </c>
       <c r="C133" t="n">
-        <v>3.5039</v>
+        <v>3.48778</v>
       </c>
       <c r="D133" t="n">
-        <v>2.76905</v>
+        <v>2.7377</v>
       </c>
       <c r="E133" t="n">
-        <v>1.28165</v>
+        <v>1.28102</v>
       </c>
       <c r="F133" t="n">
-        <v>4.15943</v>
+        <v>3.91325</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08526</v>
+        <v>1.07719</v>
       </c>
       <c r="C134" t="n">
-        <v>3.48514</v>
+        <v>3.48468</v>
       </c>
       <c r="D134" t="n">
-        <v>2.77042</v>
+        <v>2.76184</v>
       </c>
       <c r="E134" t="n">
-        <v>1.24093</v>
+        <v>1.24451</v>
       </c>
       <c r="F134" t="n">
-        <v>3.37859</v>
+        <v>3.11879</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04427</v>
+        <v>1.08816</v>
       </c>
       <c r="C135" t="n">
-        <v>3.46762</v>
+        <v>3.47563</v>
       </c>
       <c r="D135" t="n">
-        <v>5.07323</v>
+        <v>5.08414</v>
       </c>
       <c r="E135" t="n">
-        <v>1.26638</v>
+        <v>1.27329</v>
       </c>
       <c r="F135" t="n">
-        <v>4.06165</v>
+        <v>3.80412</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07499</v>
+        <v>1.07728</v>
       </c>
       <c r="C136" t="n">
-        <v>3.44638</v>
+        <v>3.44616</v>
       </c>
       <c r="D136" t="n">
-        <v>4.50278</v>
+        <v>4.50374</v>
       </c>
       <c r="E136" t="n">
-        <v>1.23135</v>
+        <v>1.26358</v>
       </c>
       <c r="F136" t="n">
-        <v>3.7911</v>
+        <v>3.78829</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07083</v>
+        <v>1.08077</v>
       </c>
       <c r="C137" t="n">
-        <v>3.46847</v>
+        <v>3.44372</v>
       </c>
       <c r="D137" t="n">
-        <v>4.73125</v>
+        <v>4.45805</v>
       </c>
       <c r="E137" t="n">
-        <v>1.61015</v>
+        <v>1.60743</v>
       </c>
       <c r="F137" t="n">
-        <v>5.46672</v>
+        <v>5.4565</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32774</v>
+        <v>1.32056</v>
       </c>
       <c r="C138" t="n">
-        <v>4.23718</v>
+        <v>4.23802</v>
       </c>
       <c r="D138" t="n">
-        <v>4.16742</v>
+        <v>4.16954</v>
       </c>
       <c r="E138" t="n">
-        <v>1.56939</v>
+        <v>1.60266</v>
       </c>
       <c r="F138" t="n">
-        <v>5.35861</v>
+        <v>5.34934</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29477</v>
+        <v>1.31611</v>
       </c>
       <c r="C139" t="n">
-        <v>4.19025</v>
+        <v>4.18841</v>
       </c>
       <c r="D139" t="n">
-        <v>4.37905</v>
+        <v>4.12212</v>
       </c>
       <c r="E139" t="n">
-        <v>1.56158</v>
+        <v>1.55776</v>
       </c>
       <c r="F139" t="n">
-        <v>5.26412</v>
+        <v>5.24898</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30055</v>
+        <v>1.31582</v>
       </c>
       <c r="C140" t="n">
-        <v>4.14926</v>
+        <v>4.1549</v>
       </c>
       <c r="D140" t="n">
-        <v>3.83781</v>
+        <v>3.84174</v>
       </c>
       <c r="E140" t="n">
-        <v>1.55128</v>
+        <v>1.57535</v>
       </c>
       <c r="F140" t="n">
-        <v>5.17172</v>
+        <v>5.16015</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3079</v>
+        <v>1.2786</v>
       </c>
       <c r="C141" t="n">
-        <v>4.11258</v>
+        <v>4.10767</v>
       </c>
       <c r="D141" t="n">
-        <v>3.28199</v>
+        <v>3.30048</v>
       </c>
       <c r="E141" t="n">
-        <v>1.54089</v>
+        <v>1.54629</v>
       </c>
       <c r="F141" t="n">
-        <v>5.08106</v>
+        <v>5.08586</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27921</v>
+        <v>1.28634</v>
       </c>
       <c r="C142" t="n">
-        <v>4.06419</v>
+        <v>4.06672</v>
       </c>
       <c r="D142" t="n">
-        <v>3.23326</v>
+        <v>3.25034</v>
       </c>
       <c r="E142" t="n">
-        <v>1.53753</v>
+        <v>1.5364</v>
       </c>
       <c r="F142" t="n">
-        <v>4.98534</v>
+        <v>4.99856</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26283</v>
+        <v>1.27249</v>
       </c>
       <c r="C143" t="n">
-        <v>4.02893</v>
+        <v>4.02924</v>
       </c>
       <c r="D143" t="n">
-        <v>3.20408</v>
+        <v>3.20566</v>
       </c>
       <c r="E143" t="n">
-        <v>1.49023</v>
+        <v>1.53347</v>
       </c>
       <c r="F143" t="n">
-        <v>4.66817</v>
+        <v>4.92595</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.465736</v>
+        <v>0.503958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.711578</v>
+        <v>0.674343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.812434</v>
+        <v>0.852945</v>
       </c>
       <c r="E2" t="n">
-        <v>0.644217</v>
+        <v>0.579526</v>
       </c>
       <c r="F2" t="n">
-        <v>0.969781</v>
+        <v>0.928499</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.450068</v>
+        <v>0.485705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.701512</v>
+        <v>0.662953</v>
       </c>
       <c r="D3" t="n">
-        <v>0.802322</v>
+        <v>0.846039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.626147</v>
+        <v>0.564713</v>
       </c>
       <c r="F3" t="n">
-        <v>0.945591</v>
+        <v>0.913355</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.440347</v>
+        <v>0.476139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.692544</v>
+        <v>0.653624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.794787</v>
+        <v>0.840408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.609998</v>
+        <v>0.551339</v>
       </c>
       <c r="F4" t="n">
-        <v>0.926413</v>
+        <v>0.895581</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.435106</v>
+        <v>0.463755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.684508</v>
+        <v>0.646118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.788061</v>
+        <v>0.874827</v>
       </c>
       <c r="E5" t="n">
-        <v>0.594629</v>
+        <v>0.536859</v>
       </c>
       <c r="F5" t="n">
-        <v>0.909343</v>
+        <v>0.880925</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427145</v>
+        <v>0.455585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6759770000000001</v>
+        <v>0.639723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.804773</v>
+        <v>0.870212</v>
       </c>
       <c r="E6" t="n">
-        <v>0.580411</v>
+        <v>0.526599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.894143</v>
+        <v>0.868652</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421495</v>
+        <v>0.451229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.669605</v>
+        <v>0.635036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.87557</v>
+        <v>0.911928</v>
       </c>
       <c r="E7" t="n">
-        <v>0.568313</v>
+        <v>0.515923</v>
       </c>
       <c r="F7" t="n">
-        <v>0.879837</v>
+        <v>0.8567900000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.417328</v>
+        <v>0.446215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.666419</v>
+        <v>0.637099</v>
       </c>
       <c r="D8" t="n">
-        <v>0.857468</v>
+        <v>0.898112</v>
       </c>
       <c r="E8" t="n">
-        <v>0.559546</v>
+        <v>0.5110710000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.868285</v>
+        <v>0.849307</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.417395</v>
+        <v>0.446187</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6676800000000001</v>
+        <v>0.635736</v>
       </c>
       <c r="D9" t="n">
-        <v>0.841258</v>
+        <v>0.881422</v>
       </c>
       <c r="E9" t="n">
-        <v>0.87475</v>
+        <v>0.80785</v>
       </c>
       <c r="F9" t="n">
-        <v>1.19165</v>
+        <v>1.13889</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.557951</v>
+        <v>0.585689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.808267</v>
+        <v>0.7868579999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.830051</v>
+        <v>0.866214</v>
       </c>
       <c r="E10" t="n">
-        <v>0.845893</v>
+        <v>0.782573</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16101</v>
+        <v>1.10655</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.537903</v>
+        <v>0.570419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.793068</v>
+        <v>0.765861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.814487</v>
+        <v>0.852078</v>
       </c>
       <c r="E11" t="n">
-        <v>0.818638</v>
+        <v>0.756296</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13221</v>
+        <v>1.07974</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.519801</v>
+        <v>0.551521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.777301</v>
+        <v>0.752542</v>
       </c>
       <c r="D12" t="n">
-        <v>0.800832</v>
+        <v>0.8388370000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.791821</v>
+        <v>0.732753</v>
       </c>
       <c r="F12" t="n">
-        <v>1.10438</v>
+        <v>1.05573</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.507039</v>
+        <v>0.5323639999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.763635</v>
+        <v>0.733298</v>
       </c>
       <c r="D13" t="n">
-        <v>0.788152</v>
+        <v>0.826955</v>
       </c>
       <c r="E13" t="n">
-        <v>0.768204</v>
+        <v>0.71101</v>
       </c>
       <c r="F13" t="n">
-        <v>1.07757</v>
+        <v>1.03229</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.495123</v>
+        <v>0.522702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.750072</v>
+        <v>0.720718</v>
       </c>
       <c r="D14" t="n">
-        <v>0.784967</v>
+        <v>0.815607</v>
       </c>
       <c r="E14" t="n">
-        <v>0.744251</v>
+        <v>0.690025</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05275</v>
+        <v>1.00982</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.477481</v>
+        <v>0.509528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.742296</v>
+        <v>0.710383</v>
       </c>
       <c r="D15" t="n">
-        <v>0.777358</v>
+        <v>0.8093399999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.722333</v>
+        <v>0.671057</v>
       </c>
       <c r="F15" t="n">
-        <v>1.02773</v>
+        <v>0.992387</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47035</v>
+        <v>0.497202</v>
       </c>
       <c r="C16" t="n">
-        <v>0.725627</v>
+        <v>0.700797</v>
       </c>
       <c r="D16" t="n">
-        <v>0.766508</v>
+        <v>0.801411</v>
       </c>
       <c r="E16" t="n">
-        <v>0.701475</v>
+        <v>0.65181</v>
       </c>
       <c r="F16" t="n">
-        <v>1.00402</v>
+        <v>0.9716939999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.45397</v>
+        <v>0.484205</v>
       </c>
       <c r="C17" t="n">
-        <v>0.712967</v>
+        <v>0.690371</v>
       </c>
       <c r="D17" t="n">
-        <v>0.756397</v>
+        <v>0.793489</v>
       </c>
       <c r="E17" t="n">
-        <v>0.681785</v>
+        <v>0.633728</v>
       </c>
       <c r="F17" t="n">
-        <v>1.01068</v>
+        <v>0.986466</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.443813</v>
+        <v>0.473892</v>
       </c>
       <c r="C18" t="n">
-        <v>0.720396</v>
+        <v>0.677787</v>
       </c>
       <c r="D18" t="n">
-        <v>0.748934</v>
+        <v>0.78622</v>
       </c>
       <c r="E18" t="n">
-        <v>0.663563</v>
+        <v>0.6169480000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.99039</v>
+        <v>0.965881</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.435574</v>
+        <v>0.459505</v>
       </c>
       <c r="C19" t="n">
-        <v>0.710143</v>
+        <v>0.670955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.741244</v>
+        <v>0.779936</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6471440000000001</v>
+        <v>0.601631</v>
       </c>
       <c r="F19" t="n">
-        <v>0.972329</v>
+        <v>0.950307</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.427738</v>
+        <v>0.451004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.702727</v>
+        <v>0.660527</v>
       </c>
       <c r="D20" t="n">
-        <v>0.733387</v>
+        <v>0.773515</v>
       </c>
       <c r="E20" t="n">
-        <v>0.632162</v>
+        <v>0.588716</v>
       </c>
       <c r="F20" t="n">
-        <v>0.955596</v>
+        <v>0.9349460000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423075</v>
+        <v>0.44353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.696981</v>
+        <v>0.655716</v>
       </c>
       <c r="D21" t="n">
-        <v>0.950589</v>
+        <v>0.977117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.620905</v>
+        <v>0.577579</v>
       </c>
       <c r="F21" t="n">
-        <v>0.947211</v>
+        <v>0.937771</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.417406</v>
+        <v>0.442239</v>
       </c>
       <c r="C22" t="n">
-        <v>0.705951</v>
+        <v>0.658578</v>
       </c>
       <c r="D22" t="n">
-        <v>0.932041</v>
+        <v>0.958351</v>
       </c>
       <c r="E22" t="n">
-        <v>0.609951</v>
+        <v>0.568886</v>
       </c>
       <c r="F22" t="n">
-        <v>0.934965</v>
+        <v>0.924356</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.417199</v>
+        <v>0.437966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.705281</v>
+        <v>0.654912</v>
       </c>
       <c r="D23" t="n">
-        <v>0.914434</v>
+        <v>0.945986</v>
       </c>
       <c r="E23" t="n">
-        <v>0.935405</v>
+        <v>0.876015</v>
       </c>
       <c r="F23" t="n">
-        <v>1.26354</v>
+        <v>1.21753</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.571075</v>
+        <v>0.605677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.850353</v>
+        <v>0.831865</v>
       </c>
       <c r="D24" t="n">
-        <v>0.896868</v>
+        <v>0.928937</v>
       </c>
       <c r="E24" t="n">
-        <v>0.905259</v>
+        <v>0.848075</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23337</v>
+        <v>1.17524</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.555057</v>
+        <v>0.583118</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8337909999999999</v>
+        <v>0.809208</v>
       </c>
       <c r="D25" t="n">
-        <v>0.883035</v>
+        <v>0.9106340000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.875162</v>
+        <v>0.821018</v>
       </c>
       <c r="F25" t="n">
-        <v>1.19765</v>
+        <v>1.14678</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539524</v>
+        <v>0.568478</v>
       </c>
       <c r="C26" t="n">
-        <v>0.818303</v>
+        <v>0.794147</v>
       </c>
       <c r="D26" t="n">
-        <v>0.86744</v>
+        <v>0.895331</v>
       </c>
       <c r="E26" t="n">
-        <v>0.847457</v>
+        <v>0.794963</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1742</v>
+        <v>1.12625</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5520080000000001</v>
+        <v>0.552525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8034829999999999</v>
+        <v>0.778385</v>
       </c>
       <c r="D27" t="n">
-        <v>0.853128</v>
+        <v>0.885881</v>
       </c>
       <c r="E27" t="n">
-        <v>0.818684</v>
+        <v>0.768317</v>
       </c>
       <c r="F27" t="n">
-        <v>1.14575</v>
+        <v>1.09688</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.536006</v>
+        <v>0.573762</v>
       </c>
       <c r="C28" t="n">
-        <v>0.789411</v>
+        <v>0.762805</v>
       </c>
       <c r="D28" t="n">
-        <v>0.84105</v>
+        <v>0.873951</v>
       </c>
       <c r="E28" t="n">
-        <v>0.794083</v>
+        <v>0.744233</v>
       </c>
       <c r="F28" t="n">
-        <v>1.12008</v>
+        <v>1.07257</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.521115</v>
+        <v>0.5550620000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.77504</v>
+        <v>0.746127</v>
       </c>
       <c r="D29" t="n">
-        <v>0.834925</v>
+        <v>0.862488</v>
       </c>
       <c r="E29" t="n">
-        <v>0.770315</v>
+        <v>0.721643</v>
       </c>
       <c r="F29" t="n">
-        <v>1.09676</v>
+        <v>1.05334</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.508681</v>
+        <v>0.539418</v>
       </c>
       <c r="C30" t="n">
-        <v>0.759412</v>
+        <v>0.752054</v>
       </c>
       <c r="D30" t="n">
-        <v>0.824958</v>
+        <v>0.854679</v>
       </c>
       <c r="E30" t="n">
-        <v>0.747213</v>
+        <v>0.700705</v>
       </c>
       <c r="F30" t="n">
-        <v>1.07243</v>
+        <v>1.03166</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.49331</v>
+        <v>0.52533</v>
       </c>
       <c r="C31" t="n">
-        <v>0.749695</v>
+        <v>0.741393</v>
       </c>
       <c r="D31" t="n">
-        <v>0.814936</v>
+        <v>0.846926</v>
       </c>
       <c r="E31" t="n">
-        <v>0.726178</v>
+        <v>0.680789</v>
       </c>
       <c r="F31" t="n">
-        <v>1.04914</v>
+        <v>1.01222</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482493</v>
+        <v>0.516647</v>
       </c>
       <c r="C32" t="n">
-        <v>0.759923</v>
+        <v>0.734473</v>
       </c>
       <c r="D32" t="n">
-        <v>0.808708</v>
+        <v>0.844761</v>
       </c>
       <c r="E32" t="n">
-        <v>0.706253</v>
+        <v>0.662198</v>
       </c>
       <c r="F32" t="n">
-        <v>1.02519</v>
+        <v>0.9917010000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.472862</v>
+        <v>0.501452</v>
       </c>
       <c r="C33" t="n">
-        <v>0.747552</v>
+        <v>0.7235470000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.799662</v>
+        <v>0.834797</v>
       </c>
       <c r="E33" t="n">
-        <v>0.68718</v>
+        <v>0.64503</v>
       </c>
       <c r="F33" t="n">
-        <v>1.00464</v>
+        <v>0.975283</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.444912</v>
+        <v>0.461036</v>
       </c>
       <c r="C34" t="n">
-        <v>0.740414</v>
+        <v>0.716011</v>
       </c>
       <c r="D34" t="n">
-        <v>0.791457</v>
+        <v>0.827962</v>
       </c>
       <c r="E34" t="n">
-        <v>0.670446</v>
+        <v>0.6025160000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.984438</v>
+        <v>0.95795</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.455803</v>
+        <v>0.454195</v>
       </c>
       <c r="C35" t="n">
-        <v>0.734363</v>
+        <v>0.710234</v>
       </c>
       <c r="D35" t="n">
-        <v>1.02802</v>
+        <v>1.05144</v>
       </c>
       <c r="E35" t="n">
-        <v>0.654527</v>
+        <v>0.5898600000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9670840000000001</v>
+        <v>0.944076</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.44892</v>
+        <v>0.448923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.730361</v>
+        <v>0.707192</v>
       </c>
       <c r="D36" t="n">
-        <v>1.00964</v>
+        <v>1.02745</v>
       </c>
       <c r="E36" t="n">
-        <v>0.623517</v>
+        <v>0.5796480000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.952321</v>
+        <v>0.930648</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.428003</v>
+        <v>0.447127</v>
       </c>
       <c r="C37" t="n">
-        <v>0.729102</v>
+        <v>0.706616</v>
       </c>
       <c r="D37" t="n">
-        <v>0.995255</v>
+        <v>1.0275</v>
       </c>
       <c r="E37" t="n">
-        <v>0.971127</v>
+        <v>0.915309</v>
       </c>
       <c r="F37" t="n">
-        <v>1.55432</v>
+        <v>1.52753</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.619568</v>
+        <v>0.6881159999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10187</v>
+        <v>1.1064</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9726</v>
+        <v>0.9955270000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.921601</v>
+        <v>0.863777</v>
       </c>
       <c r="F38" t="n">
-        <v>1.51936</v>
+        <v>1.49566</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.602963</v>
+        <v>0.643184</v>
       </c>
       <c r="C39" t="n">
-        <v>1.08435</v>
+        <v>1.08698</v>
       </c>
       <c r="D39" t="n">
-        <v>0.955766</v>
+        <v>0.981011</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8918700000000001</v>
+        <v>0.834199</v>
       </c>
       <c r="F39" t="n">
-        <v>1.48469</v>
+        <v>1.46494</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.60216</v>
+        <v>0.645274</v>
       </c>
       <c r="C40" t="n">
-        <v>1.07032</v>
+        <v>1.07117</v>
       </c>
       <c r="D40" t="n">
-        <v>0.938742</v>
+        <v>0.967027</v>
       </c>
       <c r="E40" t="n">
-        <v>0.863367</v>
+        <v>0.807959</v>
       </c>
       <c r="F40" t="n">
-        <v>1.45182</v>
+        <v>1.43558</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.568204</v>
+        <v>0.624979</v>
       </c>
       <c r="C41" t="n">
-        <v>1.05368</v>
+        <v>1.05532</v>
       </c>
       <c r="D41" t="n">
-        <v>0.92303</v>
+        <v>0.953461</v>
       </c>
       <c r="E41" t="n">
-        <v>0.837663</v>
+        <v>0.783118</v>
       </c>
       <c r="F41" t="n">
-        <v>1.42029</v>
+        <v>1.40703</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.553653</v>
+        <v>0.58838</v>
       </c>
       <c r="C42" t="n">
-        <v>1.03914</v>
+        <v>1.03925</v>
       </c>
       <c r="D42" t="n">
-        <v>0.908542</v>
+        <v>0.936976</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8116449999999999</v>
+        <v>0.759066</v>
       </c>
       <c r="F42" t="n">
-        <v>1.39024</v>
+        <v>1.38097</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.55161</v>
+        <v>0.569935</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0255</v>
+        <v>1.02304</v>
       </c>
       <c r="D43" t="n">
-        <v>0.895388</v>
+        <v>0.925376</v>
       </c>
       <c r="E43" t="n">
-        <v>0.787152</v>
+        <v>0.739067</v>
       </c>
       <c r="F43" t="n">
-        <v>1.36258</v>
+        <v>1.35619</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.524084</v>
+        <v>0.558326</v>
       </c>
       <c r="C44" t="n">
-        <v>1.0134</v>
+        <v>1.01058</v>
       </c>
       <c r="D44" t="n">
-        <v>0.883375</v>
+        <v>0.915803</v>
       </c>
       <c r="E44" t="n">
-        <v>0.762853</v>
+        <v>0.685256</v>
       </c>
       <c r="F44" t="n">
-        <v>1.33611</v>
+        <v>1.33298</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.509373</v>
+        <v>0.54369</v>
       </c>
       <c r="C45" t="n">
-        <v>1.00162</v>
+        <v>0.99939</v>
       </c>
       <c r="D45" t="n">
-        <v>0.876284</v>
+        <v>0.906833</v>
       </c>
       <c r="E45" t="n">
-        <v>0.742996</v>
+        <v>0.69817</v>
       </c>
       <c r="F45" t="n">
-        <v>1.31132</v>
+        <v>1.31091</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.498527</v>
+        <v>0.530536</v>
       </c>
       <c r="C46" t="n">
-        <v>0.990281</v>
+        <v>0.987714</v>
       </c>
       <c r="D46" t="n">
-        <v>0.86612</v>
+        <v>0.899052</v>
       </c>
       <c r="E46" t="n">
-        <v>0.721128</v>
+        <v>0.679628</v>
       </c>
       <c r="F46" t="n">
-        <v>1.28863</v>
+        <v>1.29052</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487027</v>
+        <v>0.518524</v>
       </c>
       <c r="C47" t="n">
-        <v>0.981519</v>
+        <v>0.978843</v>
       </c>
       <c r="D47" t="n">
-        <v>0.859201</v>
+        <v>0.89621</v>
       </c>
       <c r="E47" t="n">
-        <v>0.703345</v>
+        <v>0.66216</v>
       </c>
       <c r="F47" t="n">
-        <v>1.26631</v>
+        <v>1.26988</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.476469</v>
+        <v>0.507816</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9724159999999999</v>
+        <v>0.968625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.853055</v>
+        <v>0.890279</v>
       </c>
       <c r="E48" t="n">
-        <v>0.66315</v>
+        <v>0.619299</v>
       </c>
       <c r="F48" t="n">
-        <v>1.24679</v>
+        <v>1.25201</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.469629</v>
+        <v>0.499284</v>
       </c>
       <c r="C49" t="n">
-        <v>0.964843</v>
+        <v>0.962106</v>
       </c>
       <c r="D49" t="n">
-        <v>0.847142</v>
+        <v>0.880233</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6688730000000001</v>
+        <v>0.606437</v>
       </c>
       <c r="F49" t="n">
-        <v>1.22821</v>
+        <v>1.23638</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.463402</v>
+        <v>0.492224</v>
       </c>
       <c r="C50" t="n">
-        <v>0.956634</v>
+        <v>0.957286</v>
       </c>
       <c r="D50" t="n">
-        <v>1.07805</v>
+        <v>1.10516</v>
       </c>
       <c r="E50" t="n">
-        <v>0.635444</v>
+        <v>0.595929</v>
       </c>
       <c r="F50" t="n">
-        <v>1.2113</v>
+        <v>1.22159</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.459332</v>
+        <v>0.487999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.953317</v>
+        <v>0.954546</v>
       </c>
       <c r="D51" t="n">
-        <v>1.05602</v>
+        <v>1.08418</v>
       </c>
       <c r="E51" t="n">
-        <v>0.98119</v>
+        <v>0.937087</v>
       </c>
       <c r="F51" t="n">
-        <v>1.63381</v>
+        <v>1.60561</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.458152</v>
+        <v>0.486194</v>
       </c>
       <c r="C52" t="n">
-        <v>0.951583</v>
+        <v>0.952441</v>
       </c>
       <c r="D52" t="n">
-        <v>1.03527</v>
+        <v>1.0652</v>
       </c>
       <c r="E52" t="n">
-        <v>0.964355</v>
+        <v>0.910675</v>
       </c>
       <c r="F52" t="n">
-        <v>1.59721</v>
+        <v>1.57234</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.64645</v>
+        <v>0.677135</v>
       </c>
       <c r="C53" t="n">
-        <v>1.13697</v>
+        <v>1.14511</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01739</v>
+        <v>1.0478</v>
       </c>
       <c r="E53" t="n">
-        <v>0.934086</v>
+        <v>0.865771</v>
       </c>
       <c r="F53" t="n">
-        <v>1.55923</v>
+        <v>1.53995</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6147550000000001</v>
+        <v>0.6741</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12219</v>
+        <v>1.12648</v>
       </c>
       <c r="D54" t="n">
-        <v>0.999756</v>
+        <v>1.02777</v>
       </c>
       <c r="E54" t="n">
-        <v>0.905766</v>
+        <v>0.839861</v>
       </c>
       <c r="F54" t="n">
-        <v>1.52588</v>
+        <v>1.50859</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.597243</v>
+        <v>0.638339</v>
       </c>
       <c r="C55" t="n">
-        <v>1.10726</v>
+        <v>1.10967</v>
       </c>
       <c r="D55" t="n">
-        <v>0.98255</v>
+        <v>1.01145</v>
       </c>
       <c r="E55" t="n">
-        <v>0.865544</v>
+        <v>0.814423</v>
       </c>
       <c r="F55" t="n">
-        <v>1.49369</v>
+        <v>1.47958</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.581932</v>
+        <v>0.619711</v>
       </c>
       <c r="C56" t="n">
-        <v>1.08989</v>
+        <v>1.09183</v>
       </c>
       <c r="D56" t="n">
-        <v>0.967154</v>
+        <v>0.995399</v>
       </c>
       <c r="E56" t="n">
-        <v>0.840889</v>
+        <v>0.78905</v>
       </c>
       <c r="F56" t="n">
-        <v>1.4629</v>
+        <v>1.45022</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.567213</v>
+        <v>0.604267</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07699</v>
+        <v>1.07792</v>
       </c>
       <c r="D57" t="n">
-        <v>0.952213</v>
+        <v>0.981854</v>
       </c>
       <c r="E57" t="n">
-        <v>0.817543</v>
+        <v>0.7679859999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>1.43224</v>
+        <v>1.42383</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.554764</v>
+        <v>0.588567</v>
       </c>
       <c r="C58" t="n">
-        <v>1.06439</v>
+        <v>1.06305</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9415519999999999</v>
+        <v>0.973534</v>
       </c>
       <c r="E58" t="n">
-        <v>0.794154</v>
+        <v>0.7456700000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1.40451</v>
+        <v>1.39843</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.540542</v>
+        <v>0.572414</v>
       </c>
       <c r="C59" t="n">
-        <v>1.05069</v>
+        <v>1.05004</v>
       </c>
       <c r="D59" t="n">
-        <v>0.921829</v>
+        <v>0.950047</v>
       </c>
       <c r="E59" t="n">
-        <v>0.745012</v>
+        <v>0.726926</v>
       </c>
       <c r="F59" t="n">
-        <v>1.37856</v>
+        <v>1.37488</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.536859</v>
+        <v>0.56358</v>
       </c>
       <c r="C60" t="n">
-        <v>1.03975</v>
+        <v>1.03838</v>
       </c>
       <c r="D60" t="n">
-        <v>0.912202</v>
+        <v>0.941269</v>
       </c>
       <c r="E60" t="n">
-        <v>0.752201</v>
+        <v>0.6757</v>
       </c>
       <c r="F60" t="n">
-        <v>1.3528</v>
+        <v>1.35046</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.51553</v>
+        <v>0.550745</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02957</v>
+        <v>1.02625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9033639999999999</v>
+        <v>0.935302</v>
       </c>
       <c r="E61" t="n">
-        <v>0.707611</v>
+        <v>0.659797</v>
       </c>
       <c r="F61" t="n">
-        <v>1.32877</v>
+        <v>1.33051</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.507265</v>
+        <v>0.536391</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02002</v>
+        <v>1.01744</v>
       </c>
       <c r="D62" t="n">
-        <v>0.893546</v>
+        <v>0.925888</v>
       </c>
       <c r="E62" t="n">
-        <v>0.691277</v>
+        <v>0.644521</v>
       </c>
       <c r="F62" t="n">
-        <v>1.30728</v>
+        <v>1.31026</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.498188</v>
+        <v>0.528487</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01298</v>
+        <v>1.00948</v>
       </c>
       <c r="D63" t="n">
-        <v>0.886168</v>
+        <v>0.9180700000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.676581</v>
+        <v>0.63166</v>
       </c>
       <c r="F63" t="n">
-        <v>1.28787</v>
+        <v>1.29193</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.491239</v>
+        <v>0.523959</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0072</v>
+        <v>1.00119</v>
       </c>
       <c r="D64" t="n">
-        <v>1.15468</v>
+        <v>1.18258</v>
       </c>
       <c r="E64" t="n">
-        <v>0.684535</v>
+        <v>0.647069</v>
       </c>
       <c r="F64" t="n">
-        <v>1.26833</v>
+        <v>1.27745</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.485554</v>
+        <v>0.515898</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00027</v>
+        <v>1.00016</v>
       </c>
       <c r="D65" t="n">
-        <v>1.12675</v>
+        <v>1.15819</v>
       </c>
       <c r="E65" t="n">
-        <v>0.673781</v>
+        <v>0.637757</v>
       </c>
       <c r="F65" t="n">
-        <v>1.25333</v>
+        <v>1.26619</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.483559</v>
+        <v>0.516667</v>
       </c>
       <c r="C66" t="n">
-        <v>0.999652</v>
+        <v>0.999522</v>
       </c>
       <c r="D66" t="n">
-        <v>1.09978</v>
+        <v>1.12968</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0198</v>
+        <v>0.964351</v>
       </c>
       <c r="F66" t="n">
-        <v>1.6707</v>
+        <v>1.64485</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.701639</v>
+        <v>0.753934</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20462</v>
+        <v>1.20727</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07281</v>
+        <v>1.09704</v>
       </c>
       <c r="E67" t="n">
-        <v>0.991231</v>
+        <v>0.936916</v>
       </c>
       <c r="F67" t="n">
-        <v>1.63499</v>
+        <v>1.61409</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.690142</v>
+        <v>0.7336859999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>1.18383</v>
+        <v>1.18922</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0537</v>
+        <v>1.07984</v>
       </c>
       <c r="E68" t="n">
-        <v>0.964087</v>
+        <v>0.912488</v>
       </c>
       <c r="F68" t="n">
-        <v>1.60096</v>
+        <v>1.58279</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.672175</v>
+        <v>0.718051</v>
       </c>
       <c r="C69" t="n">
-        <v>1.17278</v>
+        <v>1.17675</v>
       </c>
       <c r="D69" t="n">
-        <v>1.03779</v>
+        <v>1.0682</v>
       </c>
       <c r="E69" t="n">
-        <v>0.924701</v>
+        <v>0.875542</v>
       </c>
       <c r="F69" t="n">
-        <v>1.56439</v>
+        <v>1.55872</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.650219</v>
+        <v>0.705776</v>
       </c>
       <c r="C70" t="n">
-        <v>1.16206</v>
+        <v>1.16942</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02605</v>
+        <v>1.05402</v>
       </c>
       <c r="E70" t="n">
-        <v>0.904031</v>
+        <v>0.851388</v>
       </c>
       <c r="F70" t="n">
-        <v>1.54366</v>
+        <v>1.52786</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.649749</v>
+        <v>0.691878</v>
       </c>
       <c r="C71" t="n">
-        <v>1.15813</v>
+        <v>1.15497</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9980869999999999</v>
+        <v>1.02036</v>
       </c>
       <c r="E71" t="n">
-        <v>0.877995</v>
+        <v>0.830113</v>
       </c>
       <c r="F71" t="n">
-        <v>1.52452</v>
+        <v>1.50663</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.640058</v>
+        <v>0.673697</v>
       </c>
       <c r="C72" t="n">
-        <v>1.14852</v>
+        <v>1.14758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.988053</v>
+        <v>1.0138</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8538829999999999</v>
+        <v>0.805887</v>
       </c>
       <c r